--- a/inputs/fr/demo_demo_input.xlsx
+++ b/inputs/fr/demo_demo_input.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\romesh\projects\nutrition\inputs\fr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D14BA945-1AFD-4404-A94D-7FBE4807142C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{97A6DF41-81B3-4490-BC4B-44E8E0A9799E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4680" yWindow="1665" windowWidth="29895" windowHeight="19935" tabRatio="885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2250" yWindow="2250" windowWidth="29895" windowHeight="16770" tabRatio="885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Donnees pop de l'annee de ref" sheetId="1" r:id="rId1"/>
@@ -489,9 +489,6 @@
     <t>Neonatal congenital anomalies</t>
   </si>
   <si>
-    <t>Vitamin A supplementation</t>
-  </si>
-  <si>
     <t>Balanced energy-protein supplementation</t>
   </si>
   <si>
@@ -594,9 +591,6 @@
     <t>IFA fortification of wheat flour</t>
   </si>
   <si>
-    <t>IFA fortification of maize</t>
-  </si>
-  <si>
     <t>IFA fortification of rice</t>
   </si>
   <si>
@@ -1225,6 +1219,12 @@
   </si>
   <si>
     <t>12-23 mois</t>
+  </si>
+  <si>
+    <t>Supplémentation en vitamine A</t>
+  </si>
+  <si>
+    <t>Enrichissement du maïs en AGI</t>
   </si>
 </sst>
 </file>
@@ -4762,18 +4762,18 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B1" s="41" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C1" s="41" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B2" s="41"/>
       <c r="C2" s="41"/>
@@ -4781,7 +4781,7 @@
     <row r="3" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C3" s="63">
         <v>2017</v>
@@ -4790,7 +4790,7 @@
     <row r="4" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="9" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C4" s="64">
         <v>2030</v>
@@ -4803,12 +4803,12 @@
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="16" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C7" s="65">
         <v>9862402</v>
@@ -4816,7 +4816,7 @@
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C8" s="66">
         <v>0.28199999999999997</v>
@@ -4824,7 +4824,7 @@
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C9" s="67">
         <v>1</v>
@@ -4832,7 +4832,7 @@
     </row>
     <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C10" s="67">
         <v>0.23</v>
@@ -4840,7 +4840,7 @@
     </row>
     <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C11" s="66">
         <v>0.51</v>
@@ -4848,7 +4848,7 @@
     </row>
     <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C12" s="66">
         <v>0.37</v>
@@ -4856,7 +4856,7 @@
     </row>
     <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C13" s="66">
         <v>0.221</v>
@@ -4867,14 +4867,14 @@
     </row>
     <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B15" s="19"/>
       <c r="C15" s="3"/>
     </row>
     <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C16" s="67">
         <v>0.3</v>
@@ -4882,7 +4882,7 @@
     </row>
     <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C17" s="67">
         <v>0.1</v>
@@ -4890,7 +4890,7 @@
     </row>
     <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C18" s="67">
         <v>0.1</v>
@@ -4898,7 +4898,7 @@
     </row>
     <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C19" s="67">
         <v>0.8</v>
@@ -4906,7 +4906,7 @@
     </row>
     <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C20" s="68">
         <f>1-frac_rice-frac_wheat-frac_maize</f>
@@ -4918,12 +4918,12 @@
     </row>
     <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="20" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C23" s="67">
         <v>0.127</v>
@@ -4931,7 +4931,7 @@
     </row>
     <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="20" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C24" s="67">
         <v>0.45200000000000001</v>
@@ -4939,7 +4939,7 @@
     </row>
     <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="20" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C25" s="67">
         <v>0.33400000000000002</v>
@@ -4947,7 +4947,7 @@
     </row>
     <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="20" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C26" s="67">
         <v>8.6999999999999994E-2</v>
@@ -4959,14 +4959,14 @@
     </row>
     <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B28" s="20"/>
       <c r="C28" s="20"/>
     </row>
     <row r="29" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="30" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C29" s="69">
         <v>0.20799999999999999</v>
@@ -4974,7 +4974,7 @@
     </row>
     <row r="30" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="30" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C30" s="69">
         <v>0.63700000000000001</v>
@@ -4982,7 +4982,7 @@
     </row>
     <row r="31" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="30" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C31" s="69">
         <v>0.11899999999999999</v>
@@ -4990,7 +4990,7 @@
     </row>
     <row r="32" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="30" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C32" s="69">
         <v>3.5999999999999997E-2</v>
@@ -4998,7 +4998,7 @@
     </row>
     <row r="33" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B33" s="32" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C33" s="70">
         <f>SUM(C29:C32)</f>
@@ -5008,19 +5008,19 @@
     <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B36" s="7"/>
       <c r="C36" s="13"/>
     </row>
     <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="42" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C37" s="71">
         <v>25</v>
@@ -5028,7 +5028,7 @@
     </row>
     <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C38" s="71">
         <v>43</v>
@@ -5038,7 +5038,7 @@
     </row>
     <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="16" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C39" s="71">
         <v>67</v>
@@ -5048,7 +5048,7 @@
     </row>
     <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="16" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C40" s="71">
         <v>4.01</v>
@@ -5056,7 +5056,7 @@
     </row>
     <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C41" s="67">
         <v>0.13</v>
@@ -5064,7 +5064,7 @@
     </row>
     <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="42" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C42" s="71">
         <v>22.4</v>
@@ -5075,7 +5075,7 @@
     </row>
     <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="12" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D44" s="17"/>
     </row>
@@ -5123,13 +5123,13 @@
     </row>
     <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D50" s="17"/>
     </row>
     <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="16" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C51" s="72">
         <v>1.66</v>
@@ -5138,7 +5138,7 @@
     </row>
     <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="16" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C52" s="72">
         <v>1.66</v>
@@ -5146,7 +5146,7 @@
     </row>
     <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="16" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C53" s="72">
         <v>5.64</v>
@@ -5154,7 +5154,7 @@
     </row>
     <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="16" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C54" s="72">
         <v>5.43</v>
@@ -5162,7 +5162,7 @@
     </row>
     <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="16" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C55" s="72">
         <v>1.91</v>
@@ -5170,12 +5170,12 @@
     </row>
     <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="12" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C58" s="66">
         <v>0.2</v>
@@ -5183,7 +5183,7 @@
     </row>
     <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="16" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C59" s="66">
         <v>0.42</v>
@@ -5191,7 +5191,7 @@
     </row>
     <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="16" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C60" s="66">
         <v>4.5999999999999999E-2</v>
@@ -5199,7 +5199,7 @@
     </row>
     <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="16" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C61" s="66">
         <v>1.4E-2</v>
@@ -5209,7 +5209,7 @@
       <c r="A63" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="m5nMho8Cz8zUaClpfNXHx3/+utLpegOhxxBAbVXQJNBcGWGjKuDUHdBR6FwfRfsQHKNRfOrzoj0E4KnfFyn59Q==" saltValue="cqyhPzzxyHGnxGsT3nP7AA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="r20VShG3u7EIR2xlKCMaH+ZEEEFgUXWA8j0MF52Ej6nOd01JP2TrAh+zgBavsF4xCLLUSnggTey7NvRjUlHjkg==" saltValue="Ux+CKS+OC/HkmjptB0yhoQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
 </worksheet>
@@ -5234,47 +5234,47 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="48" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="48" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="48" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="48" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="48" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="48" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="48" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="48" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
@@ -5308,7 +5308,7 @@
       <c r="A19" s="48"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="HzA2kVuWYhogjfJfyUYNMJtRYIi8Hvx03Szi7c61eT6ba1bOSngLlFmw8R62RQw8xtW44JPES5fmJ3j+CopRUA==" saltValue="RG4rXiYr06D9vk32bBl4Qg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="+03B+x0KnOJ5HPkVHAOdCfqYmU2RA9xyBNYsrWovcAuSat0192mVWh3QGTER+BSopvF7gg/pCRuvgCN5rPy+zQ==" saltValue="4XzoShXxoVzZH9ksn3OvIQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -5341,7 +5341,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
@@ -5349,7 +5349,7 @@
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B2" s="26">
         <f>'Donnees pop de l''annee de ref'!C51</f>
@@ -5374,7 +5374,7 @@
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B3" s="26">
         <f>frac_mam_1month * 2.6</f>
@@ -5399,7 +5399,7 @@
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B4" s="26">
         <f>frac_sam_1month * 2.6</f>
@@ -5423,7 +5423,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="MpsCjUBHVxVEnRl4Qrw+HwI8jwt4Eyl4zZIWc2FjzVEWlrrqJzPu0iMqQi9WD3+qYRdDYEFiQAWF93PYZTT8+Q==" saltValue="3gHkyYA4rZAv909rxeLIvA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="y/pCRcofWOwDbZgsJTR/MCQVPJZ96mqPSszcCGCRvNU7DQd5Um4XB8JV5tEwon/+6yClX8qIj2uHK3dK8UZZFQ==" saltValue="nvyOIBXrRkinZHBVKlp+PQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -5454,10 +5454,10 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>1</v>
@@ -5469,42 +5469,42 @@
         <v>3</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="H1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="K1" s="4" t="s">
-        <v>54</v>
-      </c>
       <c r="L1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C2" s="87">
         <v>0</v>
@@ -5552,7 +5552,7 @@
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C3" s="87">
         <v>1</v>
@@ -5596,7 +5596,7 @@
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C4" s="87">
         <v>1</v>
@@ -5640,7 +5640,7 @@
     </row>
     <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="11" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C5" s="87">
         <v>0</v>
@@ -5686,7 +5686,7 @@
     </row>
     <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="11" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C6" s="87">
         <v>0</v>
@@ -5733,7 +5733,7 @@
     </row>
     <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="33" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C7" s="87">
         <f>diarrhoea_1mo</f>
@@ -5782,7 +5782,7 @@
     </row>
     <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C8" s="87">
         <v>0</v>
@@ -5828,7 +5828,7 @@
     </row>
     <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C9" s="87">
         <v>0</v>
@@ -5876,7 +5876,7 @@
     </row>
     <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="11" t="s">
-        <v>26</v>
+        <v>270</v>
       </c>
       <c r="C10" s="87">
         <v>0</v>
@@ -5920,7 +5920,7 @@
     </row>
     <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="33" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C11" s="87">
         <f>diarrhoea_1mo</f>
@@ -5969,7 +5969,7 @@
     </row>
     <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C12" s="87">
         <v>0</v>
@@ -6016,10 +6016,10 @@
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C14" s="88">
         <v>0</v>
@@ -6068,7 +6068,7 @@
     <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C15" s="88">
         <v>0</v>
@@ -6113,7 +6113,7 @@
     <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="11" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C16" s="88">
         <v>0</v>
@@ -6162,7 +6162,7 @@
     <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="11" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C17" s="88">
         <v>0</v>
@@ -6210,7 +6210,7 @@
     </row>
     <row r="18" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C18" s="88">
         <v>0</v>
@@ -6258,7 +6258,7 @@
     </row>
     <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C19" s="88">
         <v>0</v>
@@ -6302,7 +6302,7 @@
     </row>
     <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C20" s="88">
         <v>0</v>
@@ -6346,7 +6346,7 @@
     </row>
     <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C21" s="88">
         <v>0</v>
@@ -6397,10 +6397,10 @@
     </row>
     <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="58" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B23" s="59" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C23" s="88">
         <v>0</v>
@@ -6448,7 +6448,7 @@
     </row>
     <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="59" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C24" s="88">
         <v>0</v>
@@ -6496,7 +6496,7 @@
     </row>
     <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="59" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C25" s="88">
         <v>0</v>
@@ -6544,7 +6544,7 @@
     </row>
     <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="59" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C26" s="88">
         <v>0</v>
@@ -6592,7 +6592,7 @@
     </row>
     <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="59" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C27" s="88">
         <v>0</v>
@@ -6647,10 +6647,10 @@
     </row>
     <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>61</v>
+        <v>271</v>
       </c>
       <c r="C29" s="87">
         <v>0</v>
@@ -6705,7 +6705,7 @@
     </row>
     <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C30" s="87">
         <v>0</v>
@@ -6760,7 +6760,7 @@
     </row>
     <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C31" s="87">
         <v>0</v>
@@ -6815,7 +6815,7 @@
     </row>
     <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C32" s="87">
         <v>0</v>
@@ -6859,7 +6859,7 @@
     </row>
     <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C33" s="87">
         <f t="shared" ref="C33:O33" si="3">frac_malaria_risk</f>
@@ -6916,7 +6916,7 @@
     </row>
     <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="33" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C34" s="87">
         <v>1</v>
@@ -6961,7 +6961,7 @@
     <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="5"/>
       <c r="B35" s="33" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C35" s="87">
         <v>1</v>
@@ -7005,7 +7005,7 @@
     </row>
     <row r="36" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="33" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C36" s="87">
         <v>1</v>
@@ -7049,7 +7049,7 @@
     </row>
     <row r="37" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="33" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C37" s="87">
         <v>1</v>
@@ -7093,7 +7093,7 @@
     </row>
     <row r="38" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="33" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C38" s="87">
         <v>1</v>
@@ -7139,7 +7139,7 @@
       <c r="B39" s="33"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="jBuZmIZmBBN/3VhblTWvSsf1ZbGUM2xJQy0DhaBiEVS17YTPyWb/JWLTwcPZYqp7KJcQTv6FkIShbh1hBj6JbQ==" saltValue="sfoCbYUaFazFw3Mof0m5MQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="lX9/he224A2jZet4X2yzl6gsNQ7MhoWalayQjlQ3sD8Yj/86UDKzknXufOqQGjJN4s20/v0Ol0FiKad5LmCgag==" saltValue="Nh4ZGCHTJtI2TR7yBNQinQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B14:O21">
     <sortCondition ref="B14:B21"/>
   </sortState>
@@ -7169,48 +7169,48 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C1" s="40" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="83" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B2" s="80" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C2" s="80"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="83" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B3" s="80" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C3" s="80"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="84" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B4" s="80" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C4" s="80"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="84" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B5" s="80" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C5" s="80"/>
     </row>
@@ -7290,7 +7290,7 @@
       <c r="C20" s="85"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="10B1MiSzRYTm/OlF0xBqTksRx3+lSJzXeXvwysgquf+BeQg2uYz9pvoNDyl+Yxt8i7cQ0KwVFf/rsJIoy91Shw==" saltValue="1A1fyRVNiQcrq4+8SgN9wg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="UqzfgA9UTf2PXvlXsgEG9LRFHCHmKVpY7NIIUR8nvemMRf6mWjO+tq9tvvTLOGWLMA5JaSqeB1EDE1xqK1OImA==" saltValue="zuMkc27eWTdGr7TGOkMqkA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
@@ -7307,26 +7307,26 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="avlxz7g/G4qjzGHZrVCKiWUGjJ/XUbbq2+S0aCSLDWN+7KItkFih3Du4lvq1wR7B/IKaWBVzlTJx1Lf+6iN8XA==" saltValue="vSN4SAir4bJZnorHrJfQBg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="9bvGLkG+06+prcVo0PENEmTjBsis0N1oNAmFZrewBFiQTVYtk7WaLdTTU740ooqd7KfkyfJqVcHl4ols5Whj+A==" saltValue="/pieOoQTFX1IzEKUJC6Kyw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7353,24 +7353,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C1" s="40" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E1" s="40" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="39" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B2" s="38">
         <v>0.9</v>
@@ -7388,7 +7388,7 @@
     </row>
     <row r="3" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="39" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B3" s="38">
         <v>1</v>
@@ -7406,7 +7406,7 @@
     </row>
     <row r="4" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="39" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B4" s="38">
         <v>1</v>
@@ -7424,7 +7424,7 @@
     </row>
     <row r="5" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="39" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B5" s="38">
         <v>1</v>
@@ -7442,7 +7442,7 @@
     </row>
     <row r="6" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="39" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B6" s="38">
         <v>1</v>
@@ -7460,7 +7460,7 @@
     </row>
     <row r="7" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A7" s="39" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B7" s="38">
         <v>0.93</v>
@@ -7478,7 +7478,7 @@
     </row>
     <row r="8" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="39" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B8" s="38">
         <v>0.5</v>
@@ -7496,7 +7496,7 @@
     </row>
     <row r="9" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="39" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B9" s="38">
         <v>0.5</v>
@@ -7514,7 +7514,7 @@
     </row>
     <row r="10" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" s="39" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B10" s="38">
         <v>0.98</v>
@@ -7534,7 +7534,7 @@
       <c r="C11" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Ju2JZ7pzHYP4lR/u4Tp/pSJ1lWgVZcPce/nQKNbYS8ZgW90m4SwIB8/Qm3eZC9buoLdXLb8I+KlBZpIQXRwV3A==" saltValue="8nguv1tR9XIeymCLBTz/Kw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="AsWYqkjIz7O3jDp7LnSXEtkpzj0sZ26ZWmwfRFW4sgeWjBRZaYo6rP8A1i7GjGaybkZVmXe6764KFEjWsUG5fg==" saltValue="xAw9+z3OowIQ1Qh5Wr3rKQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -7567,10 +7567,10 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="56" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1" s="89" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C1" s="56" t="s">
         <v>1</v>
@@ -7582,42 +7582,42 @@
         <v>3</v>
       </c>
       <c r="F1" s="56" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G1" s="56" t="s">
         <v>4</v>
       </c>
       <c r="H1" s="56" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="I1" s="56" t="s">
+      <c r="J1" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="J1" s="56" t="s">
+      <c r="K1" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="K1" s="56" t="s">
-        <v>54</v>
-      </c>
       <c r="L1" s="56" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" s="56" t="s">
         <v>47</v>
       </c>
-      <c r="M1" s="56" t="s">
+      <c r="N1" s="56" t="s">
         <v>48</v>
       </c>
-      <c r="N1" s="56" t="s">
+      <c r="O1" s="56" t="s">
         <v>49</v>
-      </c>
-      <c r="O1" s="56" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="56" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2" s="52" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C2" s="133">
         <v>0</v>
@@ -7661,7 +7661,7 @@
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="52" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C3" s="133">
         <v>1</v>
@@ -7705,7 +7705,7 @@
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="52" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C4" s="133">
         <v>1</v>
@@ -7749,7 +7749,7 @@
     </row>
     <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="52" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C5" s="133">
         <v>1</v>
@@ -7793,7 +7793,7 @@
     </row>
     <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="52" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C6" s="133">
         <v>1</v>
@@ -7837,7 +7837,7 @@
     </row>
     <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="52" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C7" s="133">
         <v>1</v>
@@ -7881,7 +7881,7 @@
     </row>
     <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="52" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C8" s="133">
         <v>0</v>
@@ -7925,7 +7925,7 @@
     </row>
     <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="52" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C9" s="133">
         <v>0</v>
@@ -7969,7 +7969,7 @@
     </row>
     <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="52" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C10" s="133">
         <v>1</v>
@@ -8013,7 +8013,7 @@
     </row>
     <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="52" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C11" s="133">
         <v>0</v>
@@ -8057,7 +8057,7 @@
     </row>
     <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="52" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C12" s="133">
         <v>0</v>
@@ -8101,7 +8101,7 @@
     </row>
     <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="52" t="s">
-        <v>26</v>
+        <v>270</v>
       </c>
       <c r="C13" s="133">
         <v>0</v>
@@ -8145,7 +8145,7 @@
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="52" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C14" s="133">
         <v>1</v>
@@ -8189,7 +8189,7 @@
     </row>
     <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="52" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C15" s="133">
         <v>0</v>
@@ -8249,10 +8249,10 @@
     </row>
     <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="56" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B17" s="52" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C17" s="133">
         <v>0</v>
@@ -8297,7 +8297,7 @@
     <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="56"/>
       <c r="B18" s="52" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C18" s="133">
         <v>0</v>
@@ -8341,7 +8341,7 @@
     </row>
     <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="90" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C19" s="133">
         <v>0</v>
@@ -8385,7 +8385,7 @@
     </row>
     <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="90" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C20" s="133">
         <v>0</v>
@@ -8429,7 +8429,7 @@
     </row>
     <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="91" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C21" s="133">
         <v>0</v>
@@ -8473,7 +8473,7 @@
     </row>
     <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="52" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C22" s="133">
         <v>0</v>
@@ -8517,7 +8517,7 @@
     </row>
     <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="52" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C23" s="133">
         <v>0</v>
@@ -8561,7 +8561,7 @@
     </row>
     <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="52" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C24" s="133">
         <v>0</v>
@@ -8621,10 +8621,10 @@
     </row>
     <row r="26" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="56" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B26" s="52" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C26" s="133">
         <v>0</v>
@@ -8669,7 +8669,7 @@
     </row>
     <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="59" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C27" s="133">
         <v>0</v>
@@ -8714,7 +8714,7 @@
     <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="56"/>
       <c r="B28" s="59" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C28" s="133">
         <v>0</v>
@@ -8758,7 +8758,7 @@
     </row>
     <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="59" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C29" s="133">
         <v>0</v>
@@ -8802,7 +8802,7 @@
     </row>
     <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="59" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C30" s="133">
         <v>0</v>
@@ -8862,10 +8862,10 @@
     </row>
     <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="56" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B32" s="52" t="s">
-        <v>61</v>
+        <v>271</v>
       </c>
       <c r="C32" s="133">
         <v>1</v>
@@ -8909,7 +8909,7 @@
     </row>
     <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="52" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C33" s="133">
         <v>1</v>
@@ -8953,7 +8953,7 @@
     </row>
     <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="52" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C34" s="133">
         <v>1</v>
@@ -8997,7 +8997,7 @@
     </row>
     <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="52" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C35" s="133">
         <v>1</v>
@@ -9041,7 +9041,7 @@
     </row>
     <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="52" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C36" s="133">
         <v>1</v>
@@ -9086,7 +9086,7 @@
     <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="93"/>
       <c r="B37" s="52" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C37" s="133">
         <v>1</v>
@@ -9130,7 +9130,7 @@
     </row>
     <row r="38" spans="1:15" s="93" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="52" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C38" s="133">
         <v>1</v>
@@ -9174,7 +9174,7 @@
     </row>
     <row r="39" spans="1:15" s="93" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="52" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C39" s="133">
         <v>1</v>
@@ -9218,7 +9218,7 @@
     </row>
     <row r="40" spans="1:15" s="93" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="52" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C40" s="133">
         <v>1</v>
@@ -9262,7 +9262,7 @@
     </row>
     <row r="41" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="52" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C41" s="133">
         <v>1</v>
@@ -9305,7 +9305,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="94O0obom8eY2wQo0KKrDcRy2XGUJkTaJaIaEbOCMQ4tRaoQMJ9dkVOO4HZLkRaJuI7Jfd6anSskgzEmgIIxpDQ==" saltValue="mkt/rjQbQboe9vcxGMfq0w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="j73OHxntvUwyyA9GkCcm7m6zvaBp8K/SzlalRmvI4NWSSY6QnmRkHRpA2IcIZblKJXFuHudT27rbsLVlE9C7cA==" saltValue="4YbXR98SG5UX6FbuwpDVug==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -9338,42 +9338,42 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B1" s="35" t="s">
+        <v>204</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>205</v>
+      </c>
+      <c r="E1" s="35" t="s">
         <v>206</v>
-      </c>
-      <c r="C1" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="D1" s="35" t="s">
-        <v>207</v>
-      </c>
-      <c r="E1" s="35" t="s">
-        <v>208</v>
       </c>
       <c r="F1" s="35" t="s">
         <v>22</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="J1" s="35" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K1" s="35" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="52" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" s="133"/>
       <c r="C2" s="133"/>
@@ -9383,14 +9383,14 @@
       <c r="G2" s="133"/>
       <c r="H2" s="133"/>
       <c r="I2" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J2" s="133"/>
       <c r="K2" s="133"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="52" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B3" s="133"/>
       <c r="C3" s="133"/>
@@ -9399,7 +9399,7 @@
       <c r="F3" s="133"/>
       <c r="G3" s="133"/>
       <c r="H3" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I3" s="133"/>
       <c r="J3" s="133"/>
@@ -9407,12 +9407,12 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="52" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B4" s="133"/>
       <c r="C4" s="133"/>
       <c r="D4" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E4" s="133"/>
       <c r="F4" s="133"/>
@@ -9424,11 +9424,11 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="52" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B5" s="133"/>
       <c r="C5" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D5" s="133"/>
       <c r="E5" s="133"/>
@@ -9441,7 +9441,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="52" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B6" s="133"/>
       <c r="C6" s="133"/>
@@ -9452,26 +9452,26 @@
       <c r="H6" s="133"/>
       <c r="I6" s="133"/>
       <c r="J6" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K6" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="52" t="s">
-        <v>61</v>
+        <v>271</v>
       </c>
       <c r="B7" s="133"/>
       <c r="C7" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D7" s="133"/>
       <c r="E7" s="133"/>
       <c r="F7" s="133"/>
       <c r="G7" s="133"/>
       <c r="H7" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I7" s="133"/>
       <c r="J7" s="133"/>
@@ -9479,18 +9479,18 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="52" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B8" s="133"/>
       <c r="C8" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D8" s="133"/>
       <c r="E8" s="133"/>
       <c r="F8" s="133"/>
       <c r="G8" s="133"/>
       <c r="H8" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I8" s="133"/>
       <c r="J8" s="133"/>
@@ -9498,18 +9498,18 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="52" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B9" s="133"/>
       <c r="C9" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D9" s="133"/>
       <c r="E9" s="133"/>
       <c r="F9" s="133"/>
       <c r="G9" s="133"/>
       <c r="H9" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I9" s="133"/>
       <c r="J9" s="133"/>
@@ -9517,11 +9517,11 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="59" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B10" s="133"/>
       <c r="C10" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D10" s="133"/>
       <c r="E10" s="133"/>
@@ -9534,11 +9534,11 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="59" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B11" s="133"/>
       <c r="C11" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D11" s="133"/>
       <c r="E11" s="133"/>
@@ -9551,11 +9551,11 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="59" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B12" s="133"/>
       <c r="C12" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D12" s="133"/>
       <c r="E12" s="133"/>
@@ -9568,11 +9568,11 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="59" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B13" s="133"/>
       <c r="C13" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D13" s="133"/>
       <c r="E13" s="133"/>
@@ -9585,11 +9585,11 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="90" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B14" s="133"/>
       <c r="C14" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D14" s="133"/>
       <c r="E14" s="133"/>
@@ -9597,18 +9597,18 @@
       <c r="G14" s="133"/>
       <c r="H14" s="133"/>
       <c r="I14" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J14" s="133"/>
       <c r="K14" s="133"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="90" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B15" s="133"/>
       <c r="C15" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D15" s="133"/>
       <c r="E15" s="133"/>
@@ -9616,39 +9616,39 @@
       <c r="G15" s="133"/>
       <c r="H15" s="133"/>
       <c r="I15" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J15" s="133"/>
       <c r="K15" s="133"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="52" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B16" s="133"/>
       <c r="C16" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D16" s="133"/>
       <c r="E16" s="133"/>
       <c r="F16" s="133"/>
       <c r="G16" s="133"/>
       <c r="H16" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I16" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J16" s="133"/>
       <c r="K16" s="133"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="52" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B17" s="133"/>
       <c r="C17" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D17" s="133"/>
       <c r="E17" s="133"/>
@@ -9661,16 +9661,16 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="52" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B18" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C18" s="133"/>
       <c r="D18" s="133"/>
       <c r="E18" s="133"/>
       <c r="F18" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G18" s="133"/>
       <c r="H18" s="133"/>
@@ -9680,16 +9680,16 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="52" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B19" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C19" s="133"/>
       <c r="D19" s="133"/>
       <c r="E19" s="133"/>
       <c r="F19" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G19" s="133"/>
       <c r="H19" s="133"/>
@@ -9699,16 +9699,16 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="52" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B20" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C20" s="133"/>
       <c r="D20" s="133"/>
       <c r="E20" s="133"/>
       <c r="F20" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G20" s="133"/>
       <c r="H20" s="133"/>
@@ -9718,7 +9718,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="52" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B21" s="133"/>
       <c r="C21" s="133"/>
@@ -9727,26 +9727,26 @@
       <c r="F21" s="133"/>
       <c r="G21" s="133"/>
       <c r="H21" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I21" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J21" s="133"/>
       <c r="K21" s="133"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="52" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B22" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C22" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D22" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E22" s="133"/>
       <c r="F22" s="133"/>
@@ -9758,11 +9758,11 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="52" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B23" s="133"/>
       <c r="C23" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D23" s="133"/>
       <c r="E23" s="133"/>
@@ -9770,14 +9770,14 @@
       <c r="G23" s="133"/>
       <c r="H23" s="133"/>
       <c r="I23" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J23" s="133"/>
       <c r="K23" s="133"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="52" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B24" s="133"/>
       <c r="C24" s="133"/>
@@ -9786,7 +9786,7 @@
       <c r="F24" s="133"/>
       <c r="G24" s="133"/>
       <c r="H24" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I24" s="133"/>
       <c r="J24" s="133"/>
@@ -9794,7 +9794,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="52" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B25" s="133"/>
       <c r="C25" s="133"/>
@@ -9803,7 +9803,7 @@
       <c r="F25" s="133"/>
       <c r="G25" s="133"/>
       <c r="H25" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I25" s="133"/>
       <c r="J25" s="133"/>
@@ -9811,11 +9811,11 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="52" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B26" s="133"/>
       <c r="C26" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D26" s="133"/>
       <c r="E26" s="133"/>
@@ -9828,11 +9828,11 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="52" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B27" s="133"/>
       <c r="C27" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D27" s="133"/>
       <c r="E27" s="133"/>
@@ -9840,14 +9840,14 @@
       <c r="G27" s="133"/>
       <c r="H27" s="133"/>
       <c r="I27" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J27" s="133"/>
       <c r="K27" s="133"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="52" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B28" s="133"/>
       <c r="C28" s="133"/>
@@ -9856,7 +9856,7 @@
       <c r="F28" s="133"/>
       <c r="G28" s="133"/>
       <c r="H28" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I28" s="133"/>
       <c r="J28" s="133"/>
@@ -9864,14 +9864,14 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="52" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B29" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C29" s="133"/>
       <c r="D29" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E29" s="133"/>
       <c r="F29" s="133"/>
@@ -9883,13 +9883,13 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="52" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B30" s="133"/>
       <c r="C30" s="133"/>
       <c r="D30" s="133"/>
       <c r="E30" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F30" s="133"/>
       <c r="G30" s="133"/>
@@ -9900,7 +9900,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="52" t="s">
-        <v>26</v>
+        <v>270</v>
       </c>
       <c r="B31" s="133"/>
       <c r="C31" s="133"/>
@@ -9908,10 +9908,10 @@
       <c r="E31" s="133"/>
       <c r="F31" s="133"/>
       <c r="G31" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H31" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I31" s="133"/>
       <c r="J31" s="133"/>
@@ -9919,7 +9919,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="52" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B32" s="133"/>
       <c r="C32" s="133"/>
@@ -9927,10 +9927,10 @@
       <c r="E32" s="133"/>
       <c r="F32" s="133"/>
       <c r="G32" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H32" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I32" s="133"/>
       <c r="J32" s="133"/>
@@ -9938,7 +9938,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="52" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B33" s="133"/>
       <c r="C33" s="133"/>
@@ -9946,10 +9946,10 @@
       <c r="E33" s="133"/>
       <c r="F33" s="133"/>
       <c r="G33" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H33" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I33" s="133"/>
       <c r="J33" s="133"/>
@@ -9957,7 +9957,7 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="52" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B34" s="133"/>
       <c r="C34" s="133"/>
@@ -9965,10 +9965,10 @@
       <c r="E34" s="133"/>
       <c r="F34" s="133"/>
       <c r="G34" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H34" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I34" s="133"/>
       <c r="J34" s="133"/>
@@ -9976,7 +9976,7 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="52" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B35" s="133"/>
       <c r="C35" s="133"/>
@@ -9984,10 +9984,10 @@
       <c r="E35" s="133"/>
       <c r="F35" s="133"/>
       <c r="G35" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H35" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I35" s="133"/>
       <c r="J35" s="133"/>
@@ -9995,7 +9995,7 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="52" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B36" s="133"/>
       <c r="C36" s="133"/>
@@ -10003,10 +10003,10 @@
       <c r="E36" s="133"/>
       <c r="F36" s="133"/>
       <c r="G36" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H36" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I36" s="133"/>
       <c r="J36" s="133"/>
@@ -10014,7 +10014,7 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="52" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B37" s="133"/>
       <c r="C37" s="133"/>
@@ -10023,7 +10023,7 @@
       <c r="F37" s="133"/>
       <c r="G37" s="133"/>
       <c r="H37" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I37" s="133"/>
       <c r="J37" s="133"/>
@@ -10031,27 +10031,27 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="52" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B38" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C38" s="133"/>
       <c r="D38" s="133"/>
       <c r="E38" s="133"/>
       <c r="F38" s="133"/>
       <c r="G38" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H38" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I38" s="133"/>
       <c r="J38" s="133"/>
       <c r="K38" s="133"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="9vA9DnOokIKxtw9rFKOVHZtzGImwpG/cbCbwzg/xfTmkAN8cG8SkdsNvJdv5Gz0+iHPp6Zh3F46aM0FufjBoog==" saltValue="YuOrogNTORgr3lJZAgPfCg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="u9+bGgbkxyThRJ9ewn7guQId+k/kFZ2P4DaHBl+TOkLygD+jIB4BurhJkQY3lZOq3RcuA6HXEF/6N1dDnAM4ig==" saltValue="X2UrRxWJ8DZjT+XApKnAJA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10084,37 +10084,37 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B1" s="35" t="s">
+        <v>204</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>205</v>
+      </c>
+      <c r="E1" s="35" t="s">
         <v>206</v>
-      </c>
-      <c r="C1" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="D1" s="35" t="s">
-        <v>207</v>
-      </c>
-      <c r="E1" s="35" t="s">
-        <v>208</v>
       </c>
       <c r="F1" s="35" t="s">
         <v>22</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="J1" s="35" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K1" s="35" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -10122,25 +10122,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C2" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D2" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E2" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F2" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G2" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H2" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I2" s="133"/>
       <c r="J2" s="133"/>
@@ -10151,25 +10151,25 @@
         <v>2</v>
       </c>
       <c r="B3" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C3" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D3" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E3" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F3" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G3" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H3" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I3" s="133"/>
       <c r="J3" s="133"/>
@@ -10180,25 +10180,25 @@
         <v>3</v>
       </c>
       <c r="B4" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C4" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D4" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E4" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F4" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G4" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H4" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I4" s="133"/>
       <c r="J4" s="133"/>
@@ -10206,28 +10206,28 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="35" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B5" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C5" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D5" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E5" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F5" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G5" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H5" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I5" s="133"/>
       <c r="J5" s="133"/>
@@ -10238,25 +10238,25 @@
         <v>4</v>
       </c>
       <c r="B6" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C6" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D6" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E6" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F6" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G6" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H6" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I6" s="133"/>
       <c r="J6" s="133"/>
@@ -10264,95 +10264,95 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B7" s="133"/>
       <c r="C7" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D7" s="133"/>
       <c r="E7" s="133"/>
       <c r="F7" s="133"/>
       <c r="G7" s="133"/>
       <c r="H7" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I7" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J7" s="133"/>
       <c r="K7" s="133"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B8" s="133"/>
       <c r="C8" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D8" s="133"/>
       <c r="E8" s="133"/>
       <c r="F8" s="133"/>
       <c r="G8" s="133"/>
       <c r="H8" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I8" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J8" s="133"/>
       <c r="K8" s="133"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="35" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B9" s="133"/>
       <c r="C9" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D9" s="133"/>
       <c r="E9" s="133"/>
       <c r="F9" s="133"/>
       <c r="G9" s="133"/>
       <c r="H9" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I9" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J9" s="133"/>
       <c r="K9" s="133"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B10" s="133"/>
       <c r="C10" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D10" s="133"/>
       <c r="E10" s="133"/>
       <c r="F10" s="133"/>
       <c r="G10" s="133"/>
       <c r="H10" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I10" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J10" s="133"/>
       <c r="K10" s="133"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B11" s="133"/>
       <c r="C11" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D11" s="133"/>
       <c r="E11" s="133"/>
@@ -10361,19 +10361,19 @@
       <c r="H11" s="133"/>
       <c r="I11" s="133"/>
       <c r="J11" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K11" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B12" s="133"/>
       <c r="C12" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D12" s="133"/>
       <c r="E12" s="133"/>
@@ -10383,16 +10383,16 @@
       <c r="I12" s="133"/>
       <c r="J12" s="133"/>
       <c r="K12" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B13" s="133"/>
       <c r="C13" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D13" s="133"/>
       <c r="E13" s="133"/>
@@ -10402,16 +10402,16 @@
       <c r="I13" s="133"/>
       <c r="J13" s="133"/>
       <c r="K13" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B14" s="133"/>
       <c r="C14" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D14" s="133"/>
       <c r="E14" s="133"/>
@@ -10421,11 +10421,11 @@
       <c r="I14" s="133"/>
       <c r="J14" s="133"/>
       <c r="K14" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="+sJNX/lX7GzFNJxA6seVQQRqp7gj5HDGh+t3ySI9Y7eT98FqzKNN5ohBax3zRKNDkGnt/eAornpRdSZH56oSgA==" saltValue="7EPjZth8WkaNYvJbB+xqIg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="fAhiq6/cgyZmwl21/X4wJdP/PuYR22thYGbCX6iu0/0U2QuNr2dOl1wtXhbifqAg/Tncah57hNJniR3jBPC3jg==" saltValue="eWJqkpSSO11+XEuODRB7PQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10451,13 +10451,13 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C1" s="40" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D1" s="40" t="s">
         <v>1</v>
@@ -10469,7 +10469,7 @@
         <v>3</v>
       </c>
       <c r="G1" s="40" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H1" s="94" t="s">
         <v>4</v>
@@ -10477,13 +10477,13 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="40" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B2" s="137" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D2" s="134">
         <v>1</v>
@@ -10504,7 +10504,7 @@
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" s="137"/>
       <c r="C3" s="35" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D3" s="134">
         <v>1</v>
@@ -10526,7 +10526,7 @@
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" s="137"/>
       <c r="C4" s="35" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D4" s="134">
         <v>1</v>
@@ -10550,7 +10550,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="35" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D5" s="134">
         <f>5.16</f>
@@ -10572,7 +10572,7 @@
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6" s="137"/>
       <c r="C6" s="35" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D6" s="134">
         <v>5.16</v>
@@ -10593,7 +10593,7 @@
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" s="137"/>
       <c r="C7" s="35" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D7" s="134">
         <v>1</v>
@@ -10616,7 +10616,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D8" s="134">
         <v>1</v>
@@ -10637,7 +10637,7 @@
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9" s="137"/>
       <c r="C9" s="35" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D9" s="134">
         <v>1</v>
@@ -10658,7 +10658,7 @@
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B10" s="137"/>
       <c r="C10" s="35" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D10" s="134">
         <v>1</v>
@@ -10681,7 +10681,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="35" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D11" s="134">
         <v>1</v>
@@ -10702,7 +10702,7 @@
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B12" s="137"/>
       <c r="C12" s="35" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D12" s="134">
         <v>1</v>
@@ -10723,7 +10723,7 @@
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B13" s="137"/>
       <c r="C13" s="35" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D13" s="134">
         <v>1</v>
@@ -10743,10 +10743,10 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B14" s="137" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D14" s="134">
         <v>1</v>
@@ -10767,7 +10767,7 @@
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B15" s="137"/>
       <c r="C15" s="35" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D15" s="134">
         <v>1</v>
@@ -10788,7 +10788,7 @@
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B16" s="137"/>
       <c r="C16" s="35" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D16" s="134">
         <v>1</v>
@@ -10808,10 +10808,10 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B17" s="96" t="s">
+        <v>165</v>
+      </c>
+      <c r="C17" s="35" t="s">
         <v>167</v>
-      </c>
-      <c r="C17" s="35" t="s">
-        <v>169</v>
       </c>
       <c r="D17" s="134">
         <v>1.05</v>
@@ -10838,13 +10838,13 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="40" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B19" s="137" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C19" s="35" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D19" s="134">
         <v>1</v>
@@ -10865,7 +10865,7 @@
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B20" s="137"/>
       <c r="C20" s="35" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D20" s="134">
         <v>1</v>
@@ -10886,7 +10886,7 @@
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B21" s="137"/>
       <c r="C21" s="35" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D21" s="134">
         <v>1</v>
@@ -10909,7 +10909,7 @@
         <v>1</v>
       </c>
       <c r="C22" s="35" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D22" s="134">
         <v>1</v>
@@ -10930,7 +10930,7 @@
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B23" s="137"/>
       <c r="C23" s="35" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D23" s="134">
         <v>1</v>
@@ -10951,7 +10951,7 @@
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B24" s="137"/>
       <c r="C24" s="35" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D24" s="134">
         <v>1</v>
@@ -10974,7 +10974,7 @@
         <v>2</v>
       </c>
       <c r="C25" s="35" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D25" s="134">
         <v>1</v>
@@ -10995,7 +10995,7 @@
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B26" s="137"/>
       <c r="C26" s="35" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D26" s="134">
         <v>1</v>
@@ -11016,7 +11016,7 @@
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B27" s="137"/>
       <c r="C27" s="35" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D27" s="134">
         <v>1</v>
@@ -11039,7 +11039,7 @@
         <v>3</v>
       </c>
       <c r="C28" s="35" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D28" s="134">
         <v>1</v>
@@ -11060,7 +11060,7 @@
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B29" s="137"/>
       <c r="C29" s="35" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D29" s="134">
         <v>1</v>
@@ -11081,7 +11081,7 @@
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B30" s="137"/>
       <c r="C30" s="35" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D30" s="134">
         <v>1</v>
@@ -11101,10 +11101,10 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B31" s="137" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C31" s="35" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D31" s="134">
         <v>1</v>
@@ -11125,7 +11125,7 @@
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B32" s="137"/>
       <c r="C32" s="35" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D32" s="134">
         <v>1</v>
@@ -11146,7 +11146,7 @@
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B33" s="137"/>
       <c r="C33" s="35" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D33" s="134">
         <v>1</v>
@@ -11166,10 +11166,10 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B34" s="96" t="s">
+        <v>165</v>
+      </c>
+      <c r="C34" s="35" t="s">
         <v>167</v>
-      </c>
-      <c r="C34" s="35" t="s">
-        <v>169</v>
       </c>
       <c r="D34" s="134">
         <v>1</v>
@@ -11196,13 +11196,13 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="97" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B36" s="137" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C36" s="35" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D36" s="134">
         <v>1</v>
@@ -11223,7 +11223,7 @@
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B37" s="137"/>
       <c r="C37" s="35" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D37" s="134">
         <v>1</v>
@@ -11244,7 +11244,7 @@
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B38" s="137"/>
       <c r="C38" s="35" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D38" s="134">
         <v>1</v>
@@ -11267,7 +11267,7 @@
         <v>1</v>
       </c>
       <c r="C39" s="35" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D39" s="134">
         <v>1</v>
@@ -11288,7 +11288,7 @@
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B40" s="137"/>
       <c r="C40" s="35" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D40" s="134">
         <v>1</v>
@@ -11309,7 +11309,7 @@
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B41" s="137"/>
       <c r="C41" s="35" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D41" s="134">
         <v>1</v>
@@ -11332,7 +11332,7 @@
         <v>2</v>
       </c>
       <c r="C42" s="35" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D42" s="134">
         <v>1</v>
@@ -11353,7 +11353,7 @@
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B43" s="137"/>
       <c r="C43" s="35" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D43" s="134">
         <v>1</v>
@@ -11374,7 +11374,7 @@
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B44" s="137"/>
       <c r="C44" s="35" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D44" s="134">
         <v>1</v>
@@ -11397,7 +11397,7 @@
         <v>3</v>
       </c>
       <c r="C45" s="35" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D45" s="134">
         <v>1</v>
@@ -11418,7 +11418,7 @@
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B46" s="137"/>
       <c r="C46" s="35" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D46" s="134">
         <v>1</v>
@@ -11439,7 +11439,7 @@
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B47" s="137"/>
       <c r="C47" s="35" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D47" s="134">
         <v>1</v>
@@ -11459,10 +11459,10 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B48" s="137" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C48" s="35" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D48" s="134">
         <v>1</v>
@@ -11483,7 +11483,7 @@
     <row r="49" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B49" s="137"/>
       <c r="C49" s="35" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D49" s="134">
         <v>1</v>
@@ -11504,7 +11504,7 @@
     <row r="50" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B50" s="137"/>
       <c r="C50" s="35" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D50" s="134">
         <v>1</v>
@@ -11524,10 +11524,10 @@
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B51" s="98" t="s">
+        <v>165</v>
+      </c>
+      <c r="C51" s="35" t="s">
         <v>167</v>
-      </c>
-      <c r="C51" s="35" t="s">
-        <v>169</v>
       </c>
       <c r="D51" s="134">
         <v>1.05</v>
@@ -11546,7 +11546,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="VlifkDUla76ozeKGBhQr3ifrJdAJ8ykUzTyn4ZyzTXKJcg/Bvglo12o8auKpQTDeiWO4j1D0jUKRdCGRKeieXw==" saltValue="w2sF3H+ylROCQLGf6pHxJg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="m6XxuxS7SdeFEpzVR9h6UupL9ATCnFflMNb+AsRQBRH8QU3gDucg6wToj1cxXxZ+6TlNtikEAUf9wkruW2FuuQ==" saltValue="3V0MUoy2sHv6Yg4MFiTvUA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="B2:B4"/>
@@ -11592,28 +11592,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C1" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="E1" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="F1" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="23" t="s">
-        <v>50</v>
-      </c>
       <c r="G1" s="23" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H1" s="23" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="I1" s="23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12654,7 +12654,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="JGmFE1L4qH62c9+S8asYKmzR2GI0qn8kq3G69k/Q8PQqsZrHoVxyBbVlh97vnO0mubcLSX2dNFxtJ10VKOSbSQ==" saltValue="w9XFwIG3wN4srOEgfDFe9A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="UN76aTBwFwiXcmES2DLPsCdUDYjkMFte03krw7gC3fHpMLPOaLIIX0IeRHs9OlwW8rw8azdRvFiyaECafXIDjw==" saltValue="WI04XiCqzIZ6m4qNBY50/A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <conditionalFormatting sqref="B2:I40">
     <cfRule type="expression" dxfId="0" priority="9">
       <formula>$A2=""</formula>
@@ -12688,7 +12688,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="100" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="99" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12708,7 +12708,7 @@
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="40" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B3" s="104"/>
       <c r="C3" s="105"/>
@@ -12718,7 +12718,7 @@
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="107" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C4" s="135">
         <v>1</v>
@@ -12735,7 +12735,7 @@
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="107" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C5" s="135">
         <v>1</v>
@@ -12752,7 +12752,7 @@
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="107" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C6" s="135">
         <v>1</v>
@@ -12769,7 +12769,7 @@
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="107" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C7" s="135">
         <v>1</v>
@@ -12792,7 +12792,7 @@
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="40" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C9" s="135">
         <v>1</v>
@@ -12817,7 +12817,7 @@
     </row>
     <row r="11" spans="1:7" s="100" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="99" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C11" s="110"/>
       <c r="D11" s="111"/>
@@ -12827,7 +12827,7 @@
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="40" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C12" s="108"/>
       <c r="D12" s="95"/>
@@ -12837,7 +12837,7 @@
     </row>
     <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="113" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C13" s="135">
         <v>1</v>
@@ -12855,7 +12855,7 @@
     </row>
     <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="113" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C14" s="135">
         <v>1</v>
@@ -12873,7 +12873,7 @@
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="113" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C15" s="135">
         <v>1</v>
@@ -12900,7 +12900,7 @@
     </row>
     <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="40" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B17" s="104"/>
       <c r="C17" s="115"/>
@@ -12911,7 +12911,7 @@
     </row>
     <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="117" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C18" s="135">
         <v>1</v>
@@ -13000,7 +13000,7 @@
     </row>
     <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="117" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C23" s="135">
         <v>1</v>
@@ -13056,7 +13056,7 @@
       <c r="B28" s="40"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="oGmHYieN742Lj8ERUzRODKH79TRxHijGBg8IcKMhoyx0PUfxpp48tZQd6JPX2eVCRDi+FkAtrXvVrDxogIkPrQ==" saltValue="Y070gELwkTZbbsLBNhe8Iw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="sdskuDhzyARuvLG01OsjF4YLvmUX94xSffp0X+c9NaAFmVpNnS8gD0o83yMIeDN57AW1e2kJYycTB0oUruD/1w==" saltValue="zUhyRrs8BXL2jOueR6rHTg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -13086,18 +13086,18 @@
   <sheetData>
     <row r="1" spans="1:16" s="100" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="99" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="118" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B2" s="119" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C2" s="119" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D2" s="103" t="s">
         <v>1</v>
@@ -13109,7 +13109,7 @@
         <v>3</v>
       </c>
       <c r="G2" s="103" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H2" s="103" t="s">
         <v>4</v>
@@ -13126,10 +13126,10 @@
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="40"/>
       <c r="B3" s="35" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C3" s="43" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D3" s="135">
         <v>1</v>
@@ -13157,7 +13157,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C4" s="43" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D4" s="136">
         <v>1</v>
@@ -13185,7 +13185,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C5" s="43" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D5" s="136">
         <v>1</v>
@@ -13213,7 +13213,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C6" s="43" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D6" s="136">
         <v>1</v>
@@ -13244,7 +13244,7 @@
         <v>14</v>
       </c>
       <c r="C7" s="43" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D7" s="135">
         <v>1</v>
@@ -13272,7 +13272,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="43" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D8" s="136">
         <v>1</v>
@@ -13300,7 +13300,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="43" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D9" s="136">
         <v>1</v>
@@ -13328,7 +13328,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="43" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D10" s="136">
         <v>1</v>
@@ -13359,7 +13359,7 @@
         <v>16</v>
       </c>
       <c r="C11" s="43" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D11" s="135">
         <v>1</v>
@@ -13387,7 +13387,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="43" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D12" s="136">
         <v>1</v>
@@ -13415,7 +13415,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="43" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D13" s="136">
         <v>1</v>
@@ -13443,7 +13443,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="43" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D14" s="136">
         <v>1</v>
@@ -13474,7 +13474,7 @@
         <v>17</v>
       </c>
       <c r="C15" s="43" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D15" s="135">
         <v>1</v>
@@ -13502,7 +13502,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C16" s="43" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D16" s="136">
         <v>1</v>
@@ -13530,7 +13530,7 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C17" s="43" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D17" s="136">
         <v>1</v>
@@ -13558,7 +13558,7 @@
     </row>
     <row r="18" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" s="43" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D18" s="136">
         <v>1</v>
@@ -13589,7 +13589,7 @@
         <v>15</v>
       </c>
       <c r="C19" s="43" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D19" s="135">
         <v>1</v>
@@ -13617,7 +13617,7 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C20" s="43" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D20" s="136">
         <v>1</v>
@@ -13645,7 +13645,7 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C21" s="43" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D21" s="136">
         <v>1</v>
@@ -13673,7 +13673,7 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C22" s="43" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D22" s="136">
         <v>1</v>
@@ -13704,7 +13704,7 @@
         <v>21</v>
       </c>
       <c r="C23" s="43" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D23" s="135">
         <v>1</v>
@@ -13732,7 +13732,7 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C24" s="43" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D24" s="136">
         <v>1</v>
@@ -13760,7 +13760,7 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C25" s="43" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D25" s="136">
         <v>1</v>
@@ -13788,7 +13788,7 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C26" s="43" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D26" s="136">
         <v>1</v>
@@ -13816,18 +13816,18 @@
     </row>
     <row r="28" spans="1:16" s="100" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="99" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="121" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B29" s="94" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C29" s="94" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D29" s="103" t="s">
         <v>1</v>
@@ -13839,7 +13839,7 @@
         <v>3</v>
       </c>
       <c r="G29" s="103" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H29" s="103" t="s">
         <v>4</v>
@@ -13856,10 +13856,10 @@
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="40"/>
       <c r="B30" s="35" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C30" s="43" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D30" s="135">
         <v>1</v>
@@ -13887,7 +13887,7 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C31" s="43" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D31" s="136">
         <v>1</v>
@@ -13915,7 +13915,7 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C32" s="43" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D32" s="136">
         <v>1</v>
@@ -13943,7 +13943,7 @@
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="43" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D33" s="136">
         <v>1</v>
@@ -13974,7 +13974,7 @@
         <v>14</v>
       </c>
       <c r="C34" s="43" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D34" s="135">
         <v>1</v>
@@ -14002,7 +14002,7 @@
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="43" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D35" s="136">
         <v>1</v>
@@ -14030,7 +14030,7 @@
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C36" s="43" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D36" s="136">
         <v>1</v>
@@ -14058,7 +14058,7 @@
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C37" s="43" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D37" s="136">
         <v>1</v>
@@ -14089,7 +14089,7 @@
         <v>16</v>
       </c>
       <c r="C38" s="43" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D38" s="135">
         <v>1</v>
@@ -14117,7 +14117,7 @@
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="43" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D39" s="136">
         <v>1</v>
@@ -14145,7 +14145,7 @@
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="43" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D40" s="136">
         <v>1</v>
@@ -14173,7 +14173,7 @@
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="43" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D41" s="136">
         <v>1</v>
@@ -14204,7 +14204,7 @@
         <v>17</v>
       </c>
       <c r="C42" s="43" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D42" s="135">
         <v>1</v>
@@ -14232,7 +14232,7 @@
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="43" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D43" s="136">
         <v>1</v>
@@ -14260,7 +14260,7 @@
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="43" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D44" s="136">
         <v>1</v>
@@ -14288,7 +14288,7 @@
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="43" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D45" s="136">
         <v>1</v>
@@ -14319,7 +14319,7 @@
         <v>15</v>
       </c>
       <c r="C46" s="43" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D46" s="135">
         <v>1</v>
@@ -14347,7 +14347,7 @@
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="43" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D47" s="136">
         <v>1</v>
@@ -14375,7 +14375,7 @@
     </row>
     <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="43" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D48" s="136">
         <v>1</v>
@@ -14403,7 +14403,7 @@
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C49" s="43" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D49" s="136">
         <v>1</v>
@@ -14434,7 +14434,7 @@
         <v>21</v>
       </c>
       <c r="C50" s="43" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D50" s="135">
         <v>1</v>
@@ -14462,7 +14462,7 @@
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C51" s="43" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D51" s="136">
         <v>1</v>
@@ -14490,7 +14490,7 @@
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C52" s="43" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D52" s="136">
         <v>1</v>
@@ -14518,7 +14518,7 @@
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C53" s="43" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D53" s="136">
         <v>1</v>
@@ -14550,30 +14550,30 @@
     </row>
     <row r="55" spans="1:16" s="100" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="99" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="56" spans="1:16" s="36" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A56" s="121" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B56" s="94" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C56" s="123" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D56" s="103" t="s">
+        <v>50</v>
+      </c>
+      <c r="E56" s="103" t="s">
         <v>51</v>
       </c>
-      <c r="E56" s="103" t="s">
+      <c r="F56" s="103" t="s">
         <v>52</v>
       </c>
-      <c r="F56" s="103" t="s">
+      <c r="G56" s="103" t="s">
         <v>53</v>
-      </c>
-      <c r="G56" s="103" t="s">
-        <v>54</v>
       </c>
       <c r="H56" s="120"/>
       <c r="M56" s="120"/>
@@ -14584,10 +14584,10 @@
     <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" s="40"/>
       <c r="B57" s="35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C57" s="43" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D57" s="135">
         <v>1</v>
@@ -14609,7 +14609,7 @@
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C58" s="43" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D58" s="136">
         <v>10.675000000000001</v>
@@ -14631,10 +14631,10 @@
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B59" s="35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C59" s="43" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D59" s="135">
         <v>1</v>
@@ -14656,7 +14656,7 @@
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C60" s="43" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D60" s="136">
         <v>10.675000000000001</v>
@@ -14678,10 +14678,10 @@
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B61" s="35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C61" s="43" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D61" s="135">
         <v>1</v>
@@ -14703,7 +14703,7 @@
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C62" s="43" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D62" s="136">
         <v>10.675000000000001</v>
@@ -14729,7 +14729,7 @@
     </row>
     <row r="64" spans="1:16" s="100" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="99" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="65" spans="1:16" s="36" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
@@ -14737,10 +14737,10 @@
         <v>22</v>
       </c>
       <c r="B65" s="94" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C65" s="123" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D65" s="103" t="s">
         <v>1</v>
@@ -14752,7 +14752,7 @@
         <v>3</v>
       </c>
       <c r="G65" s="103" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H65" s="124" t="s">
         <v>4</v>
@@ -14769,10 +14769,10 @@
     <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66" s="125"/>
       <c r="B66" s="35" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C66" s="43" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D66" s="135">
         <v>1</v>
@@ -14800,7 +14800,7 @@
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C67" s="43" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D67" s="136">
         <v>1.35</v>
@@ -14828,7 +14828,7 @@
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C68" s="43" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D68" s="136">
         <v>1.35</v>
@@ -14856,7 +14856,7 @@
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C69" s="43" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D69" s="136">
         <v>5.4</v>
@@ -14887,7 +14887,7 @@
         <v>6</v>
       </c>
       <c r="C70" s="43" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D70" s="135">
         <v>1</v>
@@ -14915,7 +14915,7 @@
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C71" s="43" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D71" s="136">
         <v>1.35</v>
@@ -14943,7 +14943,7 @@
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C72" s="43" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D72" s="136">
         <v>1.35</v>
@@ -14971,7 +14971,7 @@
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C73" s="43" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D73" s="136">
         <v>5.4</v>
@@ -15002,7 +15002,7 @@
         <v>7</v>
       </c>
       <c r="C74" s="43" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D74" s="135">
         <v>1</v>
@@ -15030,7 +15030,7 @@
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C75" s="43" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D75" s="136">
         <v>1.35</v>
@@ -15058,7 +15058,7 @@
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C76" s="43" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D76" s="136">
         <v>1.35</v>
@@ -15086,7 +15086,7 @@
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C77" s="43" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D77" s="136">
         <v>5.4</v>
@@ -15117,7 +15117,7 @@
         <v>12</v>
       </c>
       <c r="C78" s="43" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D78" s="135">
         <v>1</v>
@@ -15145,7 +15145,7 @@
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C79" s="43" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D79" s="136">
         <v>1</v>
@@ -15173,7 +15173,7 @@
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C80" s="43" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D80" s="136">
         <v>1</v>
@@ -15201,7 +15201,7 @@
     </row>
     <row r="81" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C81" s="43" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D81" s="136">
         <v>1</v>
@@ -15229,10 +15229,10 @@
     </row>
     <row r="82" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B82" s="35" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C82" s="43" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D82" s="135">
         <v>1</v>
@@ -15260,7 +15260,7 @@
     </row>
     <row r="83" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C83" s="43" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D83" s="136">
         <v>1</v>
@@ -15288,7 +15288,7 @@
     </row>
     <row r="84" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C84" s="43" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D84" s="136">
         <v>1</v>
@@ -15316,7 +15316,7 @@
     </row>
     <row r="85" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C85" s="43" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D85" s="136">
         <v>1</v>
@@ -15347,7 +15347,7 @@
         <v>14</v>
       </c>
       <c r="C86" s="43" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D86" s="135">
         <v>1</v>
@@ -15375,7 +15375,7 @@
     </row>
     <row r="87" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C87" s="43" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D87" s="136">
         <v>1</v>
@@ -15403,7 +15403,7 @@
     </row>
     <row r="88" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C88" s="43" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D88" s="136">
         <v>1</v>
@@ -15431,7 +15431,7 @@
     </row>
     <row r="89" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C89" s="43" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D89" s="136">
         <v>1</v>
@@ -15462,7 +15462,7 @@
         <v>16</v>
       </c>
       <c r="C90" s="43" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D90" s="135">
         <v>1</v>
@@ -15490,7 +15490,7 @@
     </row>
     <row r="91" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C91" s="43" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D91" s="136">
         <v>1</v>
@@ -15518,7 +15518,7 @@
     </row>
     <row r="92" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C92" s="43" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D92" s="136">
         <v>1</v>
@@ -15546,7 +15546,7 @@
     </row>
     <row r="93" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C93" s="43" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D93" s="136">
         <v>1</v>
@@ -15577,7 +15577,7 @@
         <v>15</v>
       </c>
       <c r="C94" s="43" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D94" s="135">
         <v>1</v>
@@ -15605,7 +15605,7 @@
     </row>
     <row r="95" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C95" s="43" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D95" s="136">
         <v>1</v>
@@ -15633,7 +15633,7 @@
     </row>
     <row r="96" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C96" s="43" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D96" s="136">
         <v>1</v>
@@ -15661,7 +15661,7 @@
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C97" s="43" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D97" s="136">
         <v>1</v>
@@ -15692,7 +15692,7 @@
         <v>18</v>
       </c>
       <c r="C98" s="43" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D98" s="135">
         <v>1</v>
@@ -15720,7 +15720,7 @@
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C99" s="43" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D99" s="136">
         <v>1</v>
@@ -15748,7 +15748,7 @@
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C100" s="43" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D100" s="136">
         <v>1</v>
@@ -15776,7 +15776,7 @@
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C101" s="43" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D101" s="136">
         <v>1</v>
@@ -15804,18 +15804,18 @@
     </row>
     <row r="103" spans="1:16" s="100" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="99" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="104" spans="1:16" s="36" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A104" s="121" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B104" s="126" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C104" s="123" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D104" s="103" t="s">
         <v>1</v>
@@ -15827,7 +15827,7 @@
         <v>3</v>
       </c>
       <c r="G104" s="103" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H104" s="124" t="s">
         <v>4</v>
@@ -15845,7 +15845,7 @@
       <c r="A105" s="40"/>
       <c r="B105" s="36"/>
       <c r="C105" s="43" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D105" s="135">
         <v>1</v>
@@ -15873,7 +15873,7 @@
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C106" s="43" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D106" s="136">
         <v>1.26</v>
@@ -15901,7 +15901,7 @@
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C107" s="43" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D107" s="136">
         <v>1.68</v>
@@ -15929,7 +15929,7 @@
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C108" s="43" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D108" s="136">
         <v>2.65</v>
@@ -15959,7 +15959,7 @@
       <c r="A111" s="40"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="FFmRwkugyNtMrvHmlNXfHnlxZj8eV6K2DEcenpG6CfqAZW+HQqBlWpJPGRUksTTFxFFcs1rB3raX1HkZUd40/w==" saltValue="EKFsUJca/+mPkVG03quvOw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="4Nh2Kdrede51assy63PFnBMazP2z5m0R4B9QJmc2hiQ8zxgS9sRkwrqZOTxg0D5wb8g8W6JXMhBt4xgEtn1+sQ==" saltValue="MfyVRJMbhpWzRrxfuLcm1Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -15990,7 +15990,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="100" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="99" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -16008,7 +16008,7 @@
         <v>3</v>
       </c>
       <c r="F2" s="40" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G2" s="40" t="s">
         <v>4</v>
@@ -16016,10 +16016,10 @@
     </row>
     <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="113" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C3" s="136" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D3" s="136">
         <v>45</v>
@@ -16037,7 +16037,7 @@
     <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="40"/>
       <c r="B4" s="117" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C4" s="136">
         <v>1.0249999999999999</v>
@@ -16057,12 +16057,12 @@
     </row>
     <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="104" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="117" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C6" s="136">
         <v>1</v>
@@ -16082,7 +16082,7 @@
     </row>
     <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="117" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C7" s="136">
         <v>1</v>
@@ -16102,7 +16102,7 @@
     </row>
     <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="117" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C8" s="136">
         <v>1</v>
@@ -16130,13 +16130,13 @@
     </row>
     <row r="10" spans="1:7" s="100" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="99" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="104"/>
       <c r="B11" s="113" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C11" s="136">
         <v>1.5</v>
@@ -16160,15 +16160,15 @@
     </row>
     <row r="13" spans="1:7" s="100" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="99" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="125" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B14" s="117" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C14" s="136">
         <v>1.0249999999999999</v>
@@ -16189,7 +16189,7 @@
     <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="40"/>
       <c r="B15" s="117" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C15" s="136">
         <v>1.0249999999999999</v>
@@ -16209,10 +16209,10 @@
     </row>
     <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="125" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B16" s="113" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C16" s="136">
         <v>1</v>
@@ -16233,26 +16233,26 @@
     <row r="17" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="18" spans="1:6" s="100" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="99" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="104" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C19" s="56" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="56" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="56" t="s">
+      <c r="E19" s="56" t="s">
         <v>48</v>
       </c>
-      <c r="E19" s="56" t="s">
+      <c r="F19" s="56" t="s">
         <v>49</v>
-      </c>
-      <c r="F19" s="56" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B20" s="113" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C20" s="136">
         <v>1.52</v>
@@ -16268,7 +16268,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="J9ahLv3mToRRw2hUKJwAwRlEu6R1R17iy0KK9x02K6NzKBrjvmZ4cOV43YQA7noqpMVluLkqhY4cQe043uXWzQ==" saltValue="El9nXvVOflKs4CV4L+hGbQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="r34dQ5OmScbaaFXjrwHNF6b9wPA1QtiFOuvZiBpD5v9G8u1Lg3UQOOzvLbWjKbG0iYe+gaFjSdgqiU3eWv99ag==" saltValue="SvKhzQrqYuxY7Ilz68d+PA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -16297,7 +16297,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="119" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B1" s="40"/>
       <c r="C1" s="40" t="s">
@@ -16315,10 +16315,10 @@
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="90" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" s="90" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C2" s="136">
         <v>0.21</v>
@@ -16336,7 +16336,7 @@
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="90"/>
       <c r="B3" s="90" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C3" s="136">
         <v>1</v>
@@ -16353,10 +16353,10 @@
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="90" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B4" s="90" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C4" s="136">
         <v>0</v>
@@ -16374,7 +16374,7 @@
     <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="90"/>
       <c r="B5" s="90" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C5" s="136">
         <v>1</v>
@@ -16391,10 +16391,10 @@
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="90" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B6" s="90" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C6" s="136">
         <v>0</v>
@@ -16412,7 +16412,7 @@
     <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="90"/>
       <c r="B7" s="90" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C7" s="136">
         <v>1</v>
@@ -16429,10 +16429,10 @@
     </row>
     <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="90" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B8" s="90" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C8" s="136">
         <v>0.35</v>
@@ -16450,7 +16450,7 @@
     <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="90"/>
       <c r="B9" s="90" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C9" s="136">
         <v>1</v>
@@ -16467,10 +16467,10 @@
     </row>
     <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="90" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B10" s="90" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C10" s="136">
         <v>0.35</v>
@@ -16488,7 +16488,7 @@
     <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="90"/>
       <c r="B11" s="90" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C11" s="136">
         <v>1</v>
@@ -16505,10 +16505,10 @@
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="90" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B12" s="90" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C12" s="136">
         <v>0.08</v>
@@ -16526,7 +16526,7 @@
     <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="90"/>
       <c r="B13" s="90" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C13" s="136">
         <v>1</v>
@@ -16548,7 +16548,7 @@
       <c r="A20" s="90"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="F04bf9qBbNxsfK9pEUAvEFnsfao9ih4ESlUoMZj/BJRr6ZOroqL4hp6S0GLfyJR6hbcw6sI+hdczMpbfwDtN8Q==" saltValue="LMBWh5Xe/7rA9NTrsFCuTg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="nmm1p7+6ZfV9ymXOXNVOD7eQEVgqheDikceP5pBGcklotAfMq0kbnINuAfTsTC8h1xtXj6zJHrrYFugLtoMofA==" saltValue="VSbY0APWrf8QLTdrNhfrzw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -16586,44 +16586,44 @@
         <v>3</v>
       </c>
       <c r="F1" s="103" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G1" s="103" t="s">
         <v>4</v>
       </c>
       <c r="H1" s="103" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" s="103" t="s">
         <v>47</v>
       </c>
-      <c r="I1" s="103" t="s">
+      <c r="J1" s="103" t="s">
         <v>48</v>
       </c>
-      <c r="J1" s="103" t="s">
+      <c r="K1" s="103" t="s">
         <v>49</v>
       </c>
-      <c r="K1" s="103" t="s">
+      <c r="L1" s="103" t="s">
         <v>50</v>
       </c>
-      <c r="L1" s="103" t="s">
+      <c r="M1" s="103" t="s">
         <v>51</v>
       </c>
-      <c r="M1" s="103" t="s">
+      <c r="N1" s="103" t="s">
         <v>52</v>
       </c>
-      <c r="N1" s="103" t="s">
+      <c r="O1" s="103" t="s">
         <v>53</v>
-      </c>
-      <c r="O1" s="103" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="40" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B3" s="59" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C3" s="136">
         <v>0.53</v>
@@ -16667,7 +16667,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B4" s="59" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C4" s="136">
         <v>1</v>
@@ -16711,7 +16711,7 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B5" s="59" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C5" s="136">
         <v>1</v>
@@ -16755,7 +16755,7 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="59" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C6" s="136">
         <v>1</v>
@@ -16799,7 +16799,7 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B7" s="59" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C7" s="136">
         <v>1</v>
@@ -16843,7 +16843,7 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B8" s="90" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C8" s="136">
         <v>1</v>
@@ -16887,7 +16887,7 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B9" s="90" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C9" s="136">
         <v>1</v>
@@ -16931,7 +16931,7 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B10" s="59" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C10" s="136">
         <v>1</v>
@@ -16975,7 +16975,7 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B11" s="90" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C11" s="136">
         <v>1</v>
@@ -17019,7 +17019,7 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B12" s="59" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C12" s="136">
         <v>0.83</v>
@@ -17063,7 +17063,7 @@
     </row>
     <row r="13" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="59" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C13" s="136">
         <v>1</v>
@@ -17107,7 +17107,7 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B14" s="59" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C14" s="136">
         <v>1</v>
@@ -17151,13 +17151,13 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="40" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B16" s="59"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B17" s="90" t="s">
-        <v>61</v>
+        <v>271</v>
       </c>
       <c r="C17" s="136">
         <v>1</v>
@@ -17201,7 +17201,7 @@
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B18" s="90" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C18" s="136">
         <v>1</v>
@@ -17245,7 +17245,7 @@
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B19" s="90" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C19" s="136">
         <v>1</v>
@@ -17289,7 +17289,7 @@
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B20" s="90" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C20" s="136">
         <v>1</v>
@@ -17344,7 +17344,7 @@
       <c r="B28" s="43"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="G5H0t8cuDeRQRqn2GqECoYE/xAPJZpP/ejMNpNdq85Mfw3CXtOHmgddHnGoxNzq0fjpZcVQFO+IpdFl70N2wcQ==" saltValue="yeuud7ZlSHumPOpwzgCevg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="dkhxXe5Quxq++RHDmhqt2wCn8QrVWUZtZ6Bx5Pnjuxa28uGFSKKrsrJpDKJLoS9YNbNRy+FeC7385RmyJS0KLA==" saltValue="VPqqjWaEiGhPE3rc0b7GFw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -17382,7 +17382,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="40" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G1" s="40" t="s">
         <v>4</v>
@@ -17390,12 +17390,12 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="40" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3" s="59" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C3" s="136">
         <v>1</v>
@@ -17415,7 +17415,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="40" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B4" s="59"/>
       <c r="C4" s="127"/>
@@ -17426,7 +17426,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5" s="90" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C5" s="136">
         <v>1</v>
@@ -17445,7 +17445,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="j4OiIN/RymWlEEjxpmgkUUwsr833IfSIc4MFfeLmk0LNMGTosQbsKc56cmyFFLXtKcPB32CcYC2muaF5zo7krA==" saltValue="Z9pHEIcL209Hgkdj01j9uQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="NuwTyKpsD2tr5Pgh7xorNf7hXFuqNjqM/D5vWgms+49FkawxIi1eNvwF0G0KpgK6xY082qUISEWeoUPFSz+8ww==" saltValue="JxKPkRRZsDv9ThCNQQ5GrQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -17477,13 +17477,13 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C1" s="125" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D1" s="40" t="s">
         <v>1</v>
@@ -17495,7 +17495,7 @@
         <v>3</v>
       </c>
       <c r="G1" s="40" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H1" s="40" t="s">
         <v>4</v>
@@ -17503,13 +17503,13 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="52" t="s">
-        <v>26</v>
+        <v>270</v>
       </c>
       <c r="B2" s="52" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C2" s="52" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D2" s="136">
         <v>0</v>
@@ -17529,7 +17529,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C3" s="52" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D3" s="136">
         <v>0</v>
@@ -17549,7 +17549,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C4" s="52" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D4" s="136">
         <v>0</v>
@@ -17569,13 +17569,13 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="52" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B5" s="52" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C5" s="52" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D5" s="136">
         <v>0</v>
@@ -17595,7 +17595,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C6" s="52" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D6" s="136">
         <v>0</v>
@@ -17615,10 +17615,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B7" s="52" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C7" s="52" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D7" s="136">
         <v>0</v>
@@ -17638,7 +17638,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C8" s="52" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D8" s="136">
         <v>0</v>
@@ -17658,13 +17658,13 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="52" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B9" s="52" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C9" s="52" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D9" s="136">
         <v>0</v>
@@ -17684,7 +17684,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C10" s="52" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D10" s="136">
         <v>0</v>
@@ -17704,10 +17704,10 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B11" s="52" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C11" s="52" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D11" s="136">
         <v>0</v>
@@ -17727,7 +17727,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C12" s="52" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D12" s="136">
         <v>0</v>
@@ -17747,13 +17747,13 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="52" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B13" s="52" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C13" s="52" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D13" s="136">
         <v>0</v>
@@ -17773,7 +17773,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C14" s="52" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D14" s="136">
         <v>0</v>
@@ -17794,10 +17794,10 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B15" s="52" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C15" s="52" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D15" s="136">
         <v>0</v>
@@ -17818,7 +17818,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C16" s="52" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D16" s="136">
         <v>0</v>
@@ -17839,13 +17839,13 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="52" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B17" s="52" t="s">
         <v>25</v>
       </c>
       <c r="C17" s="52" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D17" s="136">
         <v>0.7</v>
@@ -17866,7 +17866,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C18" s="52" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D18" s="136">
         <v>0.186</v>
@@ -17887,13 +17887,13 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="52" t="s">
-        <v>61</v>
+        <v>271</v>
       </c>
       <c r="B19" s="52" t="s">
         <v>25</v>
       </c>
       <c r="C19" s="52" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D19" s="136">
         <v>0.7</v>
@@ -17913,7 +17913,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C20" s="52" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D20" s="136">
         <v>0.186</v>
@@ -17933,13 +17933,13 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="52" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B21" s="52" t="s">
         <v>25</v>
       </c>
       <c r="C21" s="52" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D21" s="136">
         <v>0.7</v>
@@ -17959,7 +17959,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C22" s="52" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D22" s="136">
         <v>0.186</v>
@@ -17979,13 +17979,13 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="52" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B23" s="52" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C23" s="52" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D23" s="136">
         <v>1</v>
@@ -18005,7 +18005,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C24" s="52" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D24" s="136">
         <v>0</v>
@@ -18025,7 +18025,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C25" s="52" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D25" s="136">
         <v>0</v>
@@ -18045,13 +18045,13 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="52" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B26" s="52" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C26" s="52" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D26" s="136">
         <v>1</v>
@@ -18071,7 +18071,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C27" s="52" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D27" s="136">
         <v>0</v>
@@ -18091,7 +18091,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C28" s="52" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D28" s="136">
         <v>0</v>
@@ -18111,13 +18111,13 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="52" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B29" s="52" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C29" s="52" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D29" s="136">
         <v>1</v>
@@ -18137,7 +18137,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C30" s="52" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D30" s="136">
         <v>0</v>
@@ -18157,7 +18157,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C31" s="52" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D31" s="136">
         <v>0</v>
@@ -18177,13 +18177,13 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="52" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B32" s="52" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C32" s="52" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D32" s="136">
         <v>1</v>
@@ -18203,7 +18203,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C33" s="52" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D33" s="136">
         <v>0</v>
@@ -18223,7 +18223,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C34" s="52" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D34" s="136">
         <v>0</v>
@@ -18243,13 +18243,13 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="52" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B35" s="52" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C35" s="52" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D35" s="136">
         <v>1</v>
@@ -18269,7 +18269,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C36" s="52" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D36" s="136">
         <v>0</v>
@@ -18289,7 +18289,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C37" s="52" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D37" s="136">
         <v>0</v>
@@ -18309,13 +18309,13 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="52" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B38" s="52" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C38" s="52" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D38" s="136">
         <v>0.3</v>
@@ -18335,7 +18335,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C39" s="52" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D39" s="136">
         <v>0.6</v>
@@ -18355,7 +18355,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C40" s="52" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D40" s="136">
         <v>0.45</v>
@@ -18378,7 +18378,7 @@
         <v>14</v>
       </c>
       <c r="C41" s="52" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D41" s="136">
         <v>0.3</v>
@@ -18398,7 +18398,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C42" s="52" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D42" s="136">
         <v>0.5</v>
@@ -18418,7 +18418,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C43" s="52" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D43" s="136">
         <v>0.63</v>
@@ -18438,13 +18438,13 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="52" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B44" s="52" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C44" s="52" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D44" s="136">
         <v>0.88</v>
@@ -18464,7 +18464,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C45" s="52" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D45" s="136">
         <v>0.8</v>
@@ -18484,13 +18484,13 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="52" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B46" s="52" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C46" s="52" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D46" s="136">
         <v>1</v>
@@ -18510,7 +18510,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C47" s="52" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D47" s="136">
         <v>0.76</v>
@@ -18530,13 +18530,13 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="52" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B48" s="52" t="s">
         <v>12</v>
       </c>
       <c r="C48" s="52" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D48" s="136">
         <v>0.57999999999999996</v>
@@ -18556,7 +18556,7 @@
     </row>
     <row r="49" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C49" s="52" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D49" s="136">
         <v>0.88</v>
@@ -18575,7 +18575,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="RChRxEvV2URW3ZeX5LBfjUVRqXndwIetcBKPBVba7cCBx2AIQ1i7ayl5bRsfCIkJOwf2Rl29kqdW0HukFvqY9Q==" saltValue="MZjdOpDXHEq59JgpdXpX1Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Md/pT90EEGQi0rcHJ7MAhAdpLBHyYk5k0rPpVpo8/IwXRxtnTxBscpR39WKc/IxwBBcGWjVIv7V15+KF9mafaA==" saltValue="k9sztKWF98bX/ivwyTO2zg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -18603,35 +18603,35 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="119" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B1" s="119" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C1" s="119"/>
       <c r="D1" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="F1" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="G1" s="40" t="s">
         <v>53</v>
-      </c>
-      <c r="G1" s="40" t="s">
-        <v>54</v>
       </c>
       <c r="H1" s="94"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="43" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C2" s="43" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D2" s="136">
         <v>1</v>
@@ -18649,7 +18649,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C3" s="35" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D3" s="136">
         <v>0.2</v>
@@ -18667,13 +18667,13 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="43" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C4" s="43" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D4" s="136">
         <v>1</v>
@@ -18692,7 +18692,7 @@
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="36"/>
       <c r="C5" s="35" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D5" s="136">
         <v>0.59</v>
@@ -18710,13 +18710,13 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="43" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B6" s="35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6" s="43" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D6" s="136">
         <v>1</v>
@@ -18735,7 +18735,7 @@
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="36"/>
       <c r="C7" s="35" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D7" s="136">
         <v>0.59</v>
@@ -18752,7 +18752,7 @@
       <c r="H7" s="128"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="3wjgJfF/wzzy/fkBdPKqKhUmgjhuPyKEeF1Uz+Ly7rN7AszQb3+KdOPzwOB9lAMv4w7Jp/8s2Eo2Z0zTSgBaZw==" saltValue="pYcEcOlNIob6vVq7NUfITg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Erle//jLx2p7qAg8WpRpCGox526uZykpW6LxkRpp/sKBvV56bNUiRRtkuOU3TFnDyAJniBBlRGtHhPhSZ77UCA==" saltValue="q6x2Fws/8pFLafc7EeoIwg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -18788,10 +18788,10 @@
     </row>
     <row r="2" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B2" s="41" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C2" s="41" t="s">
         <v>1</v>
@@ -18803,7 +18803,7 @@
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="24" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C3" s="75">
         <v>2.7000000000000001E-3</v>
@@ -18843,7 +18843,7 @@
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="24" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C8" s="75">
         <v>4.7999999999999996E-3</v>
@@ -18867,7 +18867,7 @@
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="32" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C11" s="70">
         <f>SUM(C3:C10)</f>
@@ -18887,10 +18887,10 @@
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B13" s="41" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C13" s="23" t="s">
         <v>2</v>
@@ -18899,7 +18899,7 @@
         <v>3</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F13" s="23" t="s">
         <v>4</v>
@@ -18908,7 +18908,7 @@
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="24" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C14" s="75">
         <v>0.1368</v>
@@ -19061,7 +19061,7 @@
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="32" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C23" s="70">
         <f>SUM(C14:C22)</f>
@@ -19093,13 +19093,13 @@
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B25" s="41" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C25" s="41" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D25" s="24"/>
       <c r="E25" s="24"/>
@@ -19109,7 +19109,7 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C26" s="75">
         <v>0.10082724000000001</v>
@@ -19117,7 +19117,7 @@
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C27" s="75">
         <v>3.1206000000000002E-4</v>
@@ -19125,7 +19125,7 @@
     </row>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C28" s="75">
         <v>0.15891214000000001</v>
@@ -19133,7 +19133,7 @@
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C29" s="75">
         <v>0.12598688999999999</v>
@@ -19141,7 +19141,7 @@
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C30" s="75">
         <v>0.12434007</v>
@@ -19149,7 +19149,7 @@
     </row>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C31" s="75">
         <v>3.9028409999999999E-2</v>
@@ -19157,7 +19157,7 @@
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C32" s="75">
         <v>8.5254999999999999E-4</v>
@@ -19165,7 +19165,7 @@
     </row>
     <row r="33" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C33" s="75">
         <v>6.8467810000000004E-2</v>
@@ -19173,7 +19173,7 @@
     </row>
     <row r="34" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C34" s="75">
         <v>0.38127283000000001</v>
@@ -19181,7 +19181,7 @@
     </row>
     <row r="35" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="32" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C35" s="70">
         <f>SUM(C26:C34)</f>
@@ -19189,7 +19189,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="zN88ZK0BjeavbZM/ERxwLOPPvHIfDFQ2sLMVdyOo5SqSwcwsG6oN72IsEvUKBA2TnxPjp+l2+Wo9Qca4y7gSJw==" saltValue="v6dyQntPLUqTWqfeSvh8Mg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="fMkJSkY6NqRib/ZEP7XaLq6vBU5SMzXc2ugnZEhVQu1NS+MM0bP+aD6DUY32jIxdVWZRUU4fhs7l7pwvMN8CSg==" saltValue="0Sssisexzmia5H91OhNmzA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="69" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -19231,7 +19231,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G1" s="16" t="s">
         <v>4</v>
@@ -19239,10 +19239,10 @@
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>111</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>113</v>
       </c>
       <c r="C2" s="76">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C4:C5), 0, 1) + 1, 0, 1, TRUE), "")</f>
@@ -19268,7 +19268,7 @@
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
       <c r="B3" s="11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C3" s="76">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C4:C5), 0, 1) + 1, 0, 1, TRUE) - SUM(C4:C5), "")</f>
@@ -19294,7 +19294,7 @@
     <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="11" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C4" s="77">
         <v>8.7000000000000008E-2</v>
@@ -19315,7 +19315,7 @@
     <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C5" s="77">
         <v>4.5999999999999999E-2</v>
@@ -19351,10 +19351,10 @@
     </row>
     <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C8" s="76">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C10:C11), 0, 1) + 1, 0, 1, TRUE), "")</f>
@@ -19379,7 +19379,7 @@
     </row>
     <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C9" s="76">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C10:C11), 0, 1) + 1, 0, 1, TRUE) - SUM(C10:C11), "")</f>
@@ -19404,7 +19404,7 @@
     </row>
     <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C10" s="77">
         <v>5.3999999999999999E-2</v>
@@ -19424,7 +19424,7 @@
     </row>
     <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C11" s="77">
         <v>0.04</v>
@@ -19458,7 +19458,7 @@
     </row>
     <row r="13" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C13" s="16" t="s">
         <v>1</v>
@@ -19470,39 +19470,39 @@
         <v>3</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G13" s="16" t="s">
         <v>4</v>
       </c>
       <c r="H13" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="I13" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="I13" s="23" t="s">
+      <c r="J13" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="J13" s="23" t="s">
+      <c r="K13" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="K13" s="23" t="s">
-        <v>54</v>
-      </c>
       <c r="L13" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="M13" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="M13" s="23" t="s">
+      <c r="N13" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="N13" s="23" t="s">
+      <c r="O13" s="23" t="s">
         <v>49</v>
-      </c>
-      <c r="O13" s="23" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="16" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C14" s="78">
         <v>0.1</v>
@@ -19546,7 +19546,7 @@
     </row>
     <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C15" s="76">
         <f t="shared" ref="C15:O15" si="0">iron_deficiency_anaemia*C14</f>
@@ -19616,7 +19616,7 @@
       <c r="G17" s="8"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="XgEe9lvEGO+wwxd7PEJAYU70CGL2ZFBfur9igcMY6UeZ6ZmdndjNkNV9TnTIbOc1kceTgzUY5LwDkNcZlqfiRw==" saltValue="aOQjOP9PXdUwzY2O3EqdRA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="o2Z7b0S8Rwo28ld2rsqV7B20w5Ry2xZrPI4j1lJjsg/UMMO4rBaHZVcV/SCN5geV+QJ8M3IsL8JgWyXeCaeMlg==" saltValue="VH15HAnf50HkDuJ4dStBSg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
@@ -19658,7 +19658,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G1" s="12" t="s">
         <v>4</v>
@@ -19669,7 +19669,7 @@
         <v>22</v>
       </c>
       <c r="B2" s="43" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C2" s="77">
         <v>0.84</v>
@@ -19689,7 +19689,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3" s="43" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C3" s="77">
         <v>9.1999999999999998E-2</v>
@@ -19709,7 +19709,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B4" s="43" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C4" s="77">
         <v>5.8000000000000003E-2</v>
@@ -19729,7 +19729,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5" s="43" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C5" s="76">
         <f>1-SUM(C2:C4)</f>
@@ -19753,7 +19753,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="29Tr07pMRht5HiTlE+L25darUJWtdikQs3x3ec4Wa+q2jSJmpDelILyO9bRf6qPp3C9HYlXUOTG3jXxpGQPOLw==" saltValue="Dm6YhbEilVc9sPtC8YUtaQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="IHBRAVGWNNlA3tYY2amE6aiqbkiralwtJ/VBzgvkxd/XW9IghfxzrQiYgS+f3e/SV4slg0f205y+pdcmAzEdAQ==" saltValue="IjC1yHTDNEltlkM5ArEbnQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -19779,10 +19779,10 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C1">
         <v>2017</v>
@@ -19829,10 +19829,10 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C2" s="28">
         <f>(('Nutritional status distribution'!C4+'Nutritional status distribution'!C5)*(1/60)+('Nutritional status distribution'!D4+'Nutritional status distribution'!D5)*(5/60)+('Nutritional status distribution'!E4+'Nutritional status distribution'!E5)*(6/60)+('Nutritional status distribution'!F4+'Nutritional status distribution'!F5)*(12/60)+('Nutritional status distribution'!G4+'Nutritional status distribution'!G5)*(36/60))</f>
@@ -19859,10 +19859,10 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C4" s="28">
         <f>(('Nutritional status distribution'!C10+'Nutritional status distribution'!C11)*(1/60)+('Nutritional status distribution'!D10+'Nutritional status distribution'!D11)*(5/60)+('Nutritional status distribution'!E10+'Nutritional status distribution'!E11)*(6/60)+('Nutritional status distribution'!F10+'Nutritional status distribution'!F11)*(12/60)+('Nutritional status distribution'!G10+'Nutritional status distribution'!G11)*(36/60))</f>
@@ -19891,10 +19891,10 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B6" s="14" t="s">
         <v>136</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>138</v>
       </c>
       <c r="C6" s="28">
         <f>'Nutritional status distribution'!C15*(1/60)+'Nutritional status distribution'!D15*(5/60)+'Nutritional status distribution'!E15*(6/60)+'Nutritional status distribution'!F15*(12/60)+'Nutritional status distribution'!G15*(36/60)</f>
@@ -19918,7 +19918,7 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B7" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C7" s="28">
         <f>('Nutritional status distribution'!H15*('Demographic projections'!C2/SUM('Demographic projections'!C2:F2))+'Nutritional status distribution'!I15*('Demographic projections'!D2/SUM('Demographic projections'!C2:F2))+'Nutritional status distribution'!J15*('Demographic projections'!E2/SUM('Demographic projections'!C2:F2))+'Nutritional status distribution'!K15*('Demographic projections'!F2/SUM('Demographic projections'!C2:F2)))</f>
@@ -19942,7 +19942,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B8" s="14" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C8" s="28">
         <f>('Nutritional status distribution'!L15*('Demographic projections'!C2/SUM('Demographic projections'!C2:F2))+'Nutritional status distribution'!M15*('Demographic projections'!D2/SUM('Demographic projections'!C2:F2))+'Nutritional status distribution'!N15*('Demographic projections'!E2/SUM('Demographic projections'!C2:F2))+'Nutritional status distribution'!O15*('Demographic projections'!F2/SUM('Demographic projections'!C2:F2)))</f>
@@ -19968,10 +19968,10 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C10" s="28">
         <f>('Breastfeeding distribution'!C2*(1/6)+'Breastfeeding distribution'!D2*(5/6))</f>
@@ -19995,7 +19995,7 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B11" s="34" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C11" s="28">
         <f>(('Breastfeeding distribution'!E4)*(6/18)+('Breastfeeding distribution'!F4)*(12/18))</f>
@@ -20019,10 +20019,10 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C13" s="28">
         <f>U5_mortality/1000</f>
@@ -20046,7 +20046,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B14" s="16" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C14" s="28">
         <f>maternal_mortality/1000</f>
@@ -20069,7 +20069,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="PFfWbFkcYQUJA2iPtu2G0UtyyizcvqmWduJtLKPGx/KHt2dUOHI4+FGFQ+ynA1PkJ/et2CeAqXBDxDA8MODFcg==" saltValue="g2kAmFXgRiu1Ahh2N1sY1g==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="RhnlT1C4Xc4foNdqdOyOrzdFlgVkkt509DOI5lw74lUXugiNsEvmaesM6+sPtL31Bi4JOy4zrY+crW1kA/4jNg==" saltValue="Fd+y9DX1tz6u4ClsEzURLg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="193" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -20096,27 +20096,27 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="50" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B1" s="51" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C1" s="51" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D1" s="51" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E1" s="51" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="49" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" s="80"/>
       <c r="D2" s="80"/>
@@ -20170,7 +20170,7 @@
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="47"/>
       <c r="B6" s="46" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C6" s="80" t="b">
         <v>1</v>
@@ -20184,7 +20184,7 @@
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="47"/>
       <c r="B7" s="46" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C7" s="45"/>
       <c r="D7" s="44"/>
@@ -20192,10 +20192,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="49" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B9" s="46" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C9" s="80"/>
       <c r="D9" s="80" t="b">
@@ -20245,7 +20245,7 @@
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="47"/>
       <c r="B13" s="46" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C13" s="80"/>
       <c r="D13" s="80"/>
@@ -20257,24 +20257,24 @@
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="47"/>
       <c r="B14" s="46" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C14" s="45"/>
       <c r="D14" s="44"/>
       <c r="E14" s="80" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="49" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B16" s="46" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C16" s="80"/>
       <c r="D16" s="80" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E16" s="57" t="str">
         <f>IF(E$7="","",E$7)</f>
@@ -20288,7 +20288,7 @@
       </c>
       <c r="C17" s="80"/>
       <c r="D17" s="80" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E17" s="57" t="str">
         <f>IF(E$7="","",E$7)</f>
@@ -20302,7 +20302,7 @@
       </c>
       <c r="C18" s="80"/>
       <c r="D18" s="80" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E18" s="57" t="str">
         <f>IF(E$7="","",E$7)</f>
@@ -20316,7 +20316,7 @@
       </c>
       <c r="C19" s="80"/>
       <c r="D19" s="80" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E19" s="57" t="str">
         <f>IF(E$7="","",E$7)</f>
@@ -20326,11 +20326,11 @@
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="47"/>
       <c r="B20" s="46" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C20" s="80"/>
       <c r="D20" s="80" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E20" s="57" t="str">
         <f>IF(E$7="","",E$7)</f>
@@ -20340,14 +20340,14 @@
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="47"/>
       <c r="B21" s="46" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C21" s="45"/>
       <c r="D21" s="44"/>
       <c r="E21" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="6r1NOV7Ons6tB82edpdgeeSny+JtpBiPRnEFZvXx1tlx+6x++UyHjmPtdBGQy6ShxkqDS1CipPe5TB5Qa/gTsg==" saltValue="7PN78c7F2IJIUVdrie7UHw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="cL23QcvRDzywBfIagbhKOmr5DpDX56xgZNz0seNKTwfY+VfefZBMIygDcpXf0gGYAJ4fnRFO4asQbS4YOPgGrQ==" saltValue="Hz04f4cSZr4kAMvyhAMaCw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -20374,44 +20374,44 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="60" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B1" s="51" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C1" s="61" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D1" s="61" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="61" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C2" s="46" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D2" s="80"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="61" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B3" s="46" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C3" s="46" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D3" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="wDU0B/IpD9XQDT/ZhcLidOWh71vcD0bIw4vDLbBn4+qJu6iDRV/zkrdG6fYkWuu0rpxY5jJ5CftBL4nRI2668A==" saltValue="dP/KcOF6xF3D3eI6W8BM2g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="8juoSNgc27aAtIM36BpmCYoYJv5b0Gppz2kG4Kxih82V+JEooCY2rVC46h5ngvECcN8W+0LWwaskMsU+y1u6oQ==" saltValue="cu1JQsaSf46hs5pUQcInIA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -20439,25 +20439,25 @@
   <sheetData>
     <row r="1" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="54" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B1" s="62" t="str">
         <f>"Baseline ("&amp;start_year&amp;") coverage"</f>
         <v>Baseline (2017) coverage</v>
       </c>
       <c r="C1" s="53" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D1" s="53" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E1" s="53" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="52" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" s="81">
         <v>0</v>
@@ -20469,12 +20469,12 @@
         <v>25</v>
       </c>
       <c r="E2" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="52" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B3" s="81">
         <v>0</v>
@@ -20486,12 +20486,12 @@
         <v>1</v>
       </c>
       <c r="E3" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="52" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B4" s="81">
         <v>0</v>
@@ -20503,12 +20503,12 @@
         <v>90</v>
       </c>
       <c r="E4" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="52" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B5" s="81">
         <v>0</v>
@@ -20520,12 +20520,12 @@
         <v>1</v>
       </c>
       <c r="E5" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="52" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B6" s="81">
         <v>0</v>
@@ -20537,12 +20537,12 @@
         <v>0.82</v>
       </c>
       <c r="E6" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="52" t="s">
-        <v>61</v>
+        <v>271</v>
       </c>
       <c r="B7" s="81">
         <v>0.36</v>
@@ -20554,12 +20554,12 @@
         <v>0.25</v>
       </c>
       <c r="E7" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="52" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B8" s="81">
         <v>0</v>
@@ -20571,12 +20571,12 @@
         <v>0.75</v>
       </c>
       <c r="E8" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="52" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B9" s="81">
         <v>0</v>
@@ -20588,12 +20588,12 @@
         <v>0.19</v>
       </c>
       <c r="E9" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="59" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B10" s="81">
         <v>0</v>
@@ -20605,12 +20605,12 @@
         <v>0.73</v>
       </c>
       <c r="E10" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="59" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B11" s="81">
         <v>0</v>
@@ -20622,12 +20622,12 @@
         <v>1.78</v>
       </c>
       <c r="E11" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="59" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B12" s="81">
         <v>0</v>
@@ -20639,12 +20639,12 @@
         <v>0.24</v>
       </c>
       <c r="E12" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="59" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B13" s="81">
         <v>0</v>
@@ -20656,12 +20656,12 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="E13" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B14" s="81">
         <v>0</v>
@@ -20673,12 +20673,12 @@
         <v>0.73</v>
       </c>
       <c r="E14" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B15" s="81">
         <v>0</v>
@@ -20690,12 +20690,12 @@
         <v>1.78</v>
       </c>
       <c r="E15" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="52" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B16" s="81">
         <v>0.34599999999999997</v>
@@ -20707,12 +20707,12 @@
         <v>2.06</v>
       </c>
       <c r="E16" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="52" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B17" s="81">
         <v>0.80800000000000005</v>
@@ -20724,12 +20724,12 @@
         <v>0.05</v>
       </c>
       <c r="E17" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="52" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B18" s="81">
         <v>0</v>
@@ -20741,12 +20741,12 @@
         <v>5</v>
       </c>
       <c r="E18" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="52" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B19" s="81">
         <v>0</v>
@@ -20758,12 +20758,12 @@
         <v>5</v>
       </c>
       <c r="E19" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="52" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B20" s="81">
         <v>0</v>
@@ -20775,12 +20775,12 @@
         <v>5</v>
       </c>
       <c r="E20" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="52" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B21" s="81">
         <v>0</v>
@@ -20792,12 +20792,12 @@
         <v>8.84</v>
       </c>
       <c r="E21" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="52" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B22" s="81">
         <v>0</v>
@@ -20809,12 +20809,12 @@
         <v>50</v>
       </c>
       <c r="E22" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="52" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B23" s="81">
         <v>0.50800000000000001</v>
@@ -20826,12 +20826,12 @@
         <v>2.61</v>
       </c>
       <c r="E23" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="52" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B24" s="81">
         <v>0</v>
@@ -20843,12 +20843,12 @@
         <v>1</v>
       </c>
       <c r="E24" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="52" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B25" s="81">
         <v>0</v>
@@ -20860,12 +20860,12 @@
         <v>1</v>
       </c>
       <c r="E25" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="52" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B26" s="81">
         <v>0.1</v>
@@ -20877,12 +20877,12 @@
         <v>4.6500000000000004</v>
       </c>
       <c r="E26" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="52" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B27" s="81">
         <v>0.3538</v>
@@ -20894,12 +20894,12 @@
         <v>3.78</v>
       </c>
       <c r="E27" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="52" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B28" s="81">
         <v>0</v>
@@ -20911,12 +20911,12 @@
         <v>1</v>
       </c>
       <c r="E28" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="52" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B29" s="81">
         <v>0</v>
@@ -20928,12 +20928,12 @@
         <v>48</v>
       </c>
       <c r="E29" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="52" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B30" s="81">
         <v>0</v>
@@ -20945,12 +20945,12 @@
         <v>65</v>
       </c>
       <c r="E30" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="52" t="s">
-        <v>26</v>
+        <v>270</v>
       </c>
       <c r="B31" s="81">
         <v>0.89970000000000006</v>
@@ -20962,12 +20962,12 @@
         <v>0.41</v>
       </c>
       <c r="E31" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="52" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B32" s="81">
         <v>0.80700000000000005</v>
@@ -20979,12 +20979,12 @@
         <v>0.9</v>
       </c>
       <c r="E32" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="52" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B33" s="81">
         <v>0.73199999999999998</v>
@@ -20996,12 +20996,12 @@
         <v>0.9</v>
       </c>
       <c r="E33" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="52" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B34" s="81">
         <v>0.316</v>
@@ -21013,12 +21013,12 @@
         <v>79</v>
       </c>
       <c r="E34" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="52" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B35" s="81">
         <v>0.59699999999999998</v>
@@ -21030,12 +21030,12 @@
         <v>31</v>
       </c>
       <c r="E35" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="36" spans="1:6" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="52" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B36" s="81">
         <v>0.19900000000000001</v>
@@ -21047,13 +21047,13 @@
         <v>102</v>
       </c>
       <c r="E36" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F36" s="35"/>
     </row>
     <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="52" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B37" s="81">
         <v>0.13400000000000001</v>
@@ -21065,12 +21065,12 @@
         <v>5.53</v>
       </c>
       <c r="E37" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="52" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B38" s="81">
         <v>0</v>
@@ -21082,14 +21082,14 @@
         <v>1</v>
       </c>
       <c r="E38" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F39" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="D++c9HlXG5Fmiy0xdTG4f6HvXx10wZIKD6UbJkTfH511YuRB8x8mpLW+RQ/w0s8VLTZ6nqxENfk8PaPlVEz2zg==" saltValue="yFCX9cGEq/zlRtmJNKekfQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="dVn65n3cjp8FmTEwGksIh3GZfbc6TfyE9UHf1WxN6MRSnfhpxAMEwzlECIYposoUkYMg6fmuaB69yj0BOqkgqw==" saltValue="bxvVXOwurFBhWRIa1tfU3A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D38">
     <sortCondition ref="A2:A38"/>
   </sortState>

--- a/inputs/fr/demo_demo_input.xlsx
+++ b/inputs/fr/demo_demo_input.xlsx
@@ -1,31 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\romesh\projects\nutrition\inputs\fr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{97A6DF41-81B3-4490-BC4B-44E8E0A9799E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E554107-71E5-4061-9696-48F70E6163B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2250" yWindow="2250" windowWidth="29895" windowHeight="16770" tabRatio="885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7620" yWindow="2085" windowWidth="27480" windowHeight="16170" tabRatio="885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Donnees pop de l'annee de ref" sheetId="1" r:id="rId1"/>
-    <sheet name="Demographic projections" sheetId="2" r:id="rId2"/>
-    <sheet name="Causes of death" sheetId="4" r:id="rId3"/>
-    <sheet name="Nutritional status distribution" sheetId="5" r:id="rId4"/>
-    <sheet name="Breastfeeding distribution" sheetId="50" r:id="rId5"/>
-    <sheet name="Time trends" sheetId="51" r:id="rId6"/>
-    <sheet name="IYCF packages" sheetId="55" r:id="rId7"/>
-    <sheet name="Treatment of SAM" sheetId="60" r:id="rId8"/>
-    <sheet name="Programs cost and coverage" sheetId="56" r:id="rId9"/>
-    <sheet name="Reference programs" sheetId="59" state="hidden" r:id="rId10"/>
+    <sheet name="Projections démographiques" sheetId="2" r:id="rId2"/>
+    <sheet name="Causes de décès" sheetId="4" r:id="rId3"/>
+    <sheet name="Dist. de l'état nutritionnel" sheetId="5" r:id="rId4"/>
+    <sheet name="Dist. l'allaitement maternel" sheetId="50" r:id="rId5"/>
+    <sheet name="Tendances temporelles" sheetId="51" r:id="rId6"/>
+    <sheet name="Paquets IYCF" sheetId="55" r:id="rId7"/>
+    <sheet name="Traitement de la MAS" sheetId="60" r:id="rId8"/>
+    <sheet name="Coût et couverture du programme" sheetId="56" r:id="rId9"/>
+    <sheet name="Programmes de référence" sheetId="59" state="hidden" r:id="rId10"/>
     <sheet name="Incidence of conditions" sheetId="7" state="hidden" r:id="rId11"/>
     <sheet name="Programs target population" sheetId="21" r:id="rId12"/>
-    <sheet name="Program dependencies" sheetId="58" r:id="rId13"/>
+    <sheet name="Dépendances du programme" sheetId="58" r:id="rId13"/>
     <sheet name="Cost curve options" sheetId="61" state="hidden" r:id="rId14"/>
     <sheet name="Programs family planning" sheetId="54" state="hidden" r:id="rId15"/>
     <sheet name="Programs impacted population" sheetId="62" state="hidden" r:id="rId16"/>
@@ -45,7 +45,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="19" hidden="1">'Birth outcome risks'!$A$1:$F$7</definedName>
     <definedName name="abortion" localSheetId="6">'Donnees pop de l''annee de ref'!$C$38</definedName>
     <definedName name="abortion">'Donnees pop de l''annee de ref'!$C$41</definedName>
-    <definedName name="comm_deliv">'Treatment of SAM'!$D$3</definedName>
+    <definedName name="comm_deliv">'Traitement de la MAS'!$D$3</definedName>
     <definedName name="diarrhoea_1_5mo">'Donnees pop de l''annee de ref'!$C$52</definedName>
     <definedName name="diarrhoea_12_23mo">'Donnees pop de l''annee de ref'!$C$54</definedName>
     <definedName name="diarrhoea_1mo">'Donnees pop de l''annee de ref'!$C$51</definedName>
@@ -58,26 +58,26 @@
     <definedName name="frac_diarrhea_severe">'Donnees pop de l''annee de ref'!$C$58</definedName>
     <definedName name="frac_maize">'Donnees pop de l''annee de ref'!$C$19</definedName>
     <definedName name="frac_malaria_risk">'Donnees pop de l''annee de ref'!$C$9</definedName>
-    <definedName name="frac_mam_1_5months">'Nutritional status distribution'!$D$10</definedName>
-    <definedName name="frac_mam_12_23months">'Nutritional status distribution'!$F$10</definedName>
-    <definedName name="frac_mam_1month">'Nutritional status distribution'!$C$10</definedName>
-    <definedName name="frac_mam_24_59months">'Nutritional status distribution'!$G$10</definedName>
-    <definedName name="frac_mam_6_11months">'Nutritional status distribution'!$E$10</definedName>
+    <definedName name="frac_mam_1_5months">'Dist. de l''état nutritionnel'!$D$10</definedName>
+    <definedName name="frac_mam_12_23months">'Dist. de l''état nutritionnel'!$F$10</definedName>
+    <definedName name="frac_mam_1month">'Dist. de l''état nutritionnel'!$C$10</definedName>
+    <definedName name="frac_mam_24_59months">'Dist. de l''état nutritionnel'!$G$10</definedName>
+    <definedName name="frac_mam_6_11months">'Dist. de l''état nutritionnel'!$E$10</definedName>
     <definedName name="frac_MAMtoSAM">'Donnees pop de l''annee de ref'!#REF!</definedName>
     <definedName name="frac_other_staples">'Donnees pop de l''annee de ref'!$C$20</definedName>
     <definedName name="frac_PW_health_facility">'Donnees pop de l''annee de ref'!$C$11</definedName>
     <definedName name="frac_rice">'Donnees pop de l''annee de ref'!$C$17</definedName>
-    <definedName name="frac_sam_1_5months">'Nutritional status distribution'!$D$11</definedName>
-    <definedName name="frac_sam_12_23months">'Nutritional status distribution'!$F$11</definedName>
-    <definedName name="frac_sam_1month">'Nutritional status distribution'!$C$11</definedName>
-    <definedName name="frac_sam_24_59months">'Nutritional status distribution'!$G$11</definedName>
-    <definedName name="frac_sam_6_11months">'Nutritional status distribution'!$E$11</definedName>
+    <definedName name="frac_sam_1_5months">'Dist. de l''état nutritionnel'!$D$11</definedName>
+    <definedName name="frac_sam_12_23months">'Dist. de l''état nutritionnel'!$F$11</definedName>
+    <definedName name="frac_sam_1month">'Dist. de l''état nutritionnel'!$C$11</definedName>
+    <definedName name="frac_sam_24_59months">'Dist. de l''état nutritionnel'!$G$11</definedName>
+    <definedName name="frac_sam_6_11months">'Dist. de l''état nutritionnel'!$E$11</definedName>
     <definedName name="frac_SAMtoMAM">'Donnees pop de l''annee de ref'!#REF!</definedName>
     <definedName name="frac_subsistence_farming">'Donnees pop de l''annee de ref'!$C$16</definedName>
     <definedName name="frac_wheat">'Donnees pop de l''annee de ref'!$C$18</definedName>
     <definedName name="infant_mortality">'Donnees pop de l''annee de ref'!$C$38</definedName>
     <definedName name="iron_deficiency_anaemia">'Donnees pop de l''annee de ref'!$C$59</definedName>
-    <definedName name="manage_mam">'Treatment of SAM'!$D$2</definedName>
+    <definedName name="manage_mam">'Traitement de la MAS'!$D$2</definedName>
     <definedName name="maternal_mortality">'Donnees pop de l''annee de ref'!$C$40</definedName>
     <definedName name="neonatal_mortality">'Donnees pop de l''annee de ref'!$C$37</definedName>
     <definedName name="Percentage_of_pregnant_women_attending_health_facility">'Donnees pop de l''annee de ref'!$C$11</definedName>
@@ -409,437 +409,32 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="272">
-  <si>
-    <t>year</t>
-  </si>
-  <si>
-    <t>&lt;1 month</t>
-  </si>
-  <si>
-    <t>1-5 months</t>
-  </si>
-  <si>
-    <t>6-11 months</t>
-  </si>
-  <si>
-    <t>24-59 months</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Neonatal sepsis</t>
-  </si>
-  <si>
-    <t>Neonatal pneumonia</t>
-  </si>
-  <si>
-    <t>Pre-term SGA</t>
-  </si>
-  <si>
-    <t>Neonatal asphyxia</t>
-  </si>
-  <si>
-    <t>Pre-term AGA</t>
-  </si>
-  <si>
-    <t>Term SGA</t>
-  </si>
-  <si>
-    <t>Neonatal prematurity</t>
-  </si>
-  <si>
-    <t>Neonatal other</t>
-  </si>
-  <si>
-    <t>Pneumonia</t>
-  </si>
-  <si>
-    <t>Meningitis</t>
-  </si>
-  <si>
-    <t>Measles</t>
-  </si>
-  <si>
-    <t>Malaria</t>
-  </si>
-  <si>
-    <t>Pertussis</t>
-  </si>
-  <si>
-    <t>AIDS</t>
-  </si>
-  <si>
-    <t>Injury</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Breastfeeding</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="271">
   <si>
     <t>Condition</t>
   </si>
   <si>
-    <t>Term AGA</t>
-  </si>
-  <si>
-    <t>Neonatal congenital anomalies</t>
-  </si>
-  <si>
-    <t>Balanced energy-protein supplementation</t>
-  </si>
-  <si>
-    <t>Food</t>
-  </si>
-  <si>
-    <t>Children</t>
-  </si>
-  <si>
-    <t>Pregnant women</t>
-  </si>
-  <si>
     <t>Broad population group</t>
   </si>
   <si>
-    <t>Long-lasting insecticide-treated bednets</t>
-  </si>
-  <si>
     <t>General population</t>
   </si>
   <si>
-    <t>non-pregnant WRA</t>
-  </si>
-  <si>
-    <t>Non-pregnant WRA</t>
-  </si>
-  <si>
-    <t>Antepartum haemorrhage</t>
-  </si>
-  <si>
-    <t>Intrapartum haemorrhage</t>
-  </si>
-  <si>
-    <t>Postpartum haemorrhage</t>
-  </si>
-  <si>
-    <t>Hypertensive disorders</t>
-  </si>
-  <si>
-    <t>Sepsis</t>
-  </si>
-  <si>
-    <t>Abortion</t>
-  </si>
-  <si>
-    <t>Embolism</t>
-  </si>
-  <si>
-    <t>Other direct causes</t>
-  </si>
-  <si>
-    <t>Indirect causes</t>
-  </si>
-  <si>
-    <t>Iron and iodine fortification of salt</t>
-  </si>
-  <si>
-    <t>Population data</t>
-  </si>
-  <si>
-    <t>WRA: 15-19 years</t>
-  </si>
-  <si>
-    <t>WRA: 20-29 years</t>
-  </si>
-  <si>
-    <t>WRA: 30-39 years</t>
-  </si>
-  <si>
-    <t>WRA: 40-49 years</t>
-  </si>
-  <si>
-    <t>PW: 15-19 years</t>
-  </si>
-  <si>
-    <t>PW: 20-29 years</t>
-  </si>
-  <si>
-    <t>PW: 30-39 years</t>
-  </si>
-  <si>
-    <t>PW: 40-49 years</t>
-  </si>
-  <si>
     <t>IPTp</t>
   </si>
   <si>
-    <t>Public provision of complementary foods</t>
-  </si>
-  <si>
-    <t>Multiple micronutrient supplementation</t>
-  </si>
-  <si>
-    <t>Zinc supplementation</t>
-  </si>
-  <si>
-    <t>Cash transfers</t>
-  </si>
-  <si>
-    <t>IFA fortification of wheat flour</t>
-  </si>
-  <si>
-    <t>IFA fortification of rice</t>
-  </si>
-  <si>
     <t>MAM</t>
   </si>
   <si>
     <t>SAM</t>
   </si>
   <si>
-    <t>Treatment of SAM</t>
-  </si>
-  <si>
-    <t>Prevalence of iron deficiency anaemia</t>
-  </si>
-  <si>
-    <t>Program</t>
-  </si>
-  <si>
-    <t>Anaemia</t>
-  </si>
-  <si>
-    <t>Diarrhoea</t>
-  </si>
-  <si>
-    <t>Diarrhoea incidence</t>
-  </si>
-  <si>
-    <t>Neonatal diarrhoea</t>
-  </si>
-  <si>
-    <t>Mortality</t>
-  </si>
-  <si>
-    <t>First birth</t>
-  </si>
-  <si>
-    <t>less than 18 months</t>
-  </si>
-  <si>
-    <t>18-23 months</t>
-  </si>
-  <si>
-    <t>24 months or greater</t>
-  </si>
-  <si>
-    <t>WASH: Improved water source</t>
-  </si>
-  <si>
-    <t>WASH: Piped water</t>
-  </si>
-  <si>
-    <t>WASH: Improved sanitation</t>
-  </si>
-  <si>
-    <t>WASH: Hygenic disposal</t>
-  </si>
-  <si>
-    <t>WASH: Handwashing</t>
-  </si>
-  <si>
-    <t>Oral rehydration salts</t>
-  </si>
-  <si>
-    <t>Zinc for treatment + ORS</t>
-  </si>
-  <si>
-    <t>Calcium supplementation</t>
-  </si>
-  <si>
-    <t>Mg for pre-eclampsia</t>
-  </si>
-  <si>
-    <t>Mg for eclampsia</t>
-  </si>
-  <si>
-    <t>Fraction of pregnancies ending in spontaneous abortion</t>
-  </si>
-  <si>
-    <t>Under 5 mortality (per 1,000 live births)</t>
-  </si>
-  <si>
-    <t>Infant mortality (per 1,000 live births)</t>
-  </si>
-  <si>
-    <t>Neonatal mortality (per 1,000 live births)</t>
-  </si>
-  <si>
-    <t>Stillbirths (per 1,000 total births)</t>
-  </si>
-  <si>
-    <t>Fraction of subsistence farming</t>
-  </si>
-  <si>
-    <t>Fraction eating rice as main staple food</t>
-  </si>
-  <si>
-    <t>Fraction eating wheat as main staple food</t>
-  </si>
-  <si>
-    <t>Fraction eating maize as main staple food</t>
-  </si>
-  <si>
-    <t>Fraction on other staples as main staple food</t>
-  </si>
-  <si>
-    <t>Age distribution of pregnant women</t>
-  </si>
-  <si>
-    <t>Percentage of pregnant women 15-19 years</t>
-  </si>
-  <si>
-    <t>Percentage of pregnant women 30-39 years</t>
-  </si>
-  <si>
-    <t>Percentage of pregnant women 40-49 years</t>
-  </si>
-  <si>
-    <t>School attendance (percentage of 15-19 year women)</t>
-  </si>
-  <si>
-    <t>Percentage of population food insecure (default poor)</t>
-  </si>
-  <si>
-    <t>Percentage of population at risk of malaria</t>
-  </si>
-  <si>
-    <t>Percentage of pregnant women attending health facility</t>
-  </si>
-  <si>
-    <t>Percentage of children attending health facility</t>
-  </si>
-  <si>
-    <t>Unmet need for family planning</t>
-  </si>
-  <si>
-    <t>Percentage of diarrhea that is severe</t>
-  </si>
-  <si>
-    <t>Number of births</t>
-  </si>
-  <si>
-    <t>Total WRA</t>
-  </si>
-  <si>
-    <t>Wasting (weight-for-height)</t>
-  </si>
-  <si>
-    <t>Stunting (height-for-age)</t>
-  </si>
-  <si>
-    <t>Moderate (HAZ-score between -3 and -2)</t>
-  </si>
-  <si>
-    <t>Normal (HAZ-score &gt; -1)</t>
-  </si>
-  <si>
-    <t>Mild (HAZ-score between -2 and -1)</t>
-  </si>
-  <si>
-    <t>High (HAZ-score between &lt; -3)</t>
-  </si>
-  <si>
-    <t>Normal  (WHZ-score &gt; -1)</t>
-  </si>
-  <si>
-    <t>Mild  (WHZ-score between -2 and -1)</t>
-  </si>
-  <si>
-    <t>MAM   (WHZ-score between -3 and -2)</t>
-  </si>
-  <si>
-    <t>SAM   (WHZ-score &lt; -3)</t>
-  </si>
-  <si>
-    <t>Average episodes per year: &lt;1 month</t>
-  </si>
-  <si>
-    <t>Average episodes per year: 1-5 months</t>
-  </si>
-  <si>
-    <t>Average episodes per year: 6-11 months</t>
-  </si>
-  <si>
-    <t>Average episodes per year: 24-59 months</t>
-  </si>
-  <si>
-    <t>Total (must be 100%)</t>
-  </si>
-  <si>
-    <t>Estimated pregnant women</t>
-  </si>
-  <si>
-    <t>Prevalence of anaemia</t>
-  </si>
-  <si>
-    <t>Percentage of anaemia that is iron deficient</t>
-  </si>
-  <si>
-    <t>Birth outcome distribution</t>
-  </si>
-  <si>
-    <t>Other risks</t>
-  </si>
-  <si>
-    <t>Baseline year mortality and risk factors</t>
-  </si>
-  <si>
-    <t>Lipid-based nutrition supplements</t>
-  </si>
-  <si>
-    <t>Micronutrient powders</t>
-  </si>
-  <si>
-    <t>Risk</t>
-  </si>
-  <si>
-    <t>Stunting prevalence (%)</t>
-  </si>
-  <si>
-    <t>Wasting prevalence (%)</t>
-  </si>
-  <si>
-    <t>Anaemia prevalence (%)</t>
-  </si>
-  <si>
-    <t>Prevalence of age-appropriate breastfeeding</t>
-  </si>
-  <si>
     <t>Children 0-59 months</t>
   </si>
   <si>
-    <t>Women of reproductive age</t>
-  </si>
-  <si>
     <t>Population</t>
   </si>
   <si>
-    <t>Children 6-23 months</t>
-  </si>
-  <si>
-    <t>Children 0-5 months</t>
-  </si>
-  <si>
-    <t>Under five (deaths per 1,000 births)</t>
-  </si>
-  <si>
-    <t>Delayed cord clamping</t>
-  </si>
-  <si>
     <t>IUD</t>
   </si>
   <si>
@@ -888,54 +483,6 @@
     <t>Data</t>
   </si>
   <si>
-    <t>Exclusive</t>
-  </si>
-  <si>
-    <t>Predominant</t>
-  </si>
-  <si>
-    <t>Partial</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>Maternal (deaths per 1,000 births)</t>
-  </si>
-  <si>
-    <t>Maternal mortality (per 1,000 live births)</t>
-  </si>
-  <si>
-    <t>All</t>
-  </si>
-  <si>
-    <t>IYCF 1</t>
-  </si>
-  <si>
-    <t>Mass media</t>
-  </si>
-  <si>
-    <t>Community</t>
-  </si>
-  <si>
-    <t>Health facility</t>
-  </si>
-  <si>
-    <t>Target population</t>
-  </si>
-  <si>
-    <t>IYCF package</t>
-  </si>
-  <si>
-    <t>Threshold dependency</t>
-  </si>
-  <si>
-    <t>Exclusion dependency</t>
-  </si>
-  <si>
-    <t>Default</t>
-  </si>
-  <si>
     <t>Extension</t>
   </si>
   <si>
@@ -945,81 +492,12 @@
     <t>Community-based</t>
   </si>
   <si>
-    <t>Delivery mode</t>
-  </si>
-  <si>
-    <t>Add extension</t>
-  </si>
-  <si>
-    <t>IFAS for pregnant women (community)</t>
-  </si>
-  <si>
-    <t>IFAS (community)</t>
-  </si>
-  <si>
-    <t>IFAS (retailer)</t>
-  </si>
-  <si>
-    <t>IFAS (school)</t>
-  </si>
-  <si>
-    <t>Projection years</t>
-  </si>
-  <si>
-    <t>End year</t>
-  </si>
-  <si>
-    <t>Baseline year (projection start year)</t>
-  </si>
-  <si>
     <t>x</t>
   </si>
   <si>
-    <t>Kangaroo mother care</t>
-  </si>
-  <si>
-    <t>Birth spacing</t>
-  </si>
-  <si>
-    <t>Family planning</t>
-  </si>
-  <si>
-    <t>IYCF 2</t>
-  </si>
-  <si>
     <t>IYCF 3</t>
   </si>
   <si>
-    <t>Saturation coverage of target population</t>
-  </si>
-  <si>
-    <t>Linear (constant marginal cost) [default]</t>
-  </si>
-  <si>
-    <t>Curved with increasing marginal cost</t>
-  </si>
-  <si>
-    <t>Curved with decreasing marginal cost</t>
-  </si>
-  <si>
-    <t>S-shaped (decreasing then increasing marginal cost)</t>
-  </si>
-  <si>
-    <t>Cost-coverage relationship</t>
-  </si>
-  <si>
-    <t>IFAS (health facility)</t>
-  </si>
-  <si>
-    <t>IFAS for pregnant women (health facility)</t>
-  </si>
-  <si>
-    <t>Children under 5 population</t>
-  </si>
-  <si>
-    <t>Neonatal</t>
-  </si>
-  <si>
     <t>Causes</t>
   </si>
   <si>
@@ -1209,22 +687,541 @@
     <t>Données de l'année de référence</t>
   </si>
   <si>
+    <t>Années de projection</t>
+  </si>
+  <si>
+    <t>Année de référence (année de début de la projection)</t>
+  </si>
+  <si>
+    <t>Fin d'année</t>
+  </si>
+  <si>
+    <t>Données sur la population</t>
+  </si>
+  <si>
+    <t>Population des enfants de moins de 5 ans</t>
+  </si>
+  <si>
+    <t>Pourcentage de la population en situation d'insécurité alimentaire (pauvre par défaut)</t>
+  </si>
+  <si>
+    <t>Pourcentage de la population exposée au risque de paludisme</t>
+  </si>
+  <si>
+    <t>Fréquentation scolaire (pourcentage de femmes de 15 à 19 ans)</t>
+  </si>
+  <si>
+    <t>Pourcentage de femmes enceintes fréquentant un établissement de santé</t>
+  </si>
+  <si>
+    <t>Pourcentage d'enfants fréquentant un établissement de santé</t>
+  </si>
+  <si>
+    <t>Besoin non satisfait de planification familiale</t>
+  </si>
+  <si>
+    <t>Alimentation</t>
+  </si>
+  <si>
+    <t>Fraction de l'agriculture de subsistance</t>
+  </si>
+  <si>
+    <t>Fraction de personnes consommant du riz comme principal aliment de base</t>
+  </si>
+  <si>
+    <t>Fraction de ceux qui consomment du blé comme principal aliment de base</t>
+  </si>
+  <si>
+    <t>Fraction de la population consommant du maïs comme principal aliment de base</t>
+  </si>
+  <si>
+    <t>Fraction de la population qui consomme d'autres aliments de base comme principale denrée alimentaire</t>
+  </si>
+  <si>
+    <t>Répartition par âge des femmes enceintes</t>
+  </si>
+  <si>
+    <t>Pourcentage de femmes enceintes de 15 à 19 ans</t>
+  </si>
+  <si>
     <t>Pourcentage de femmes enceintes âgées de 20 à 29 ans</t>
   </si>
   <si>
-    <t>Average episodes per year: 12-23 mois</t>
+    <t>Pourcentage de femmes enceintes âgées de 30 à 39 ans</t>
+  </si>
+  <si>
+    <t>Pourcentage de femmes enceintes âgées de 40 à 49 ans</t>
+  </si>
+  <si>
+    <t>Espacement des naissances</t>
+  </si>
+  <si>
+    <t>Première naissance</t>
+  </si>
+  <si>
+    <t>moins de 18 mois</t>
+  </si>
+  <si>
+    <t>18 à 23 mois</t>
+  </si>
+  <si>
+    <t>24 mois ou plus</t>
+  </si>
+  <si>
+    <t>Total (doit être 100%)</t>
+  </si>
+  <si>
+    <t>Mortalité de l'année de référence et facteurs de risque</t>
+  </si>
+  <si>
+    <t>Mortalité</t>
+  </si>
+  <si>
+    <t>Mortalité néonatale (pour 1 000 naissances vivantes)</t>
+  </si>
+  <si>
+    <t>Mortalité infantile (pour 1 000 naissances vivantes)</t>
+  </si>
+  <si>
+    <t>Mortalité des moins de 5 ans (pour 1 000 naissances vivantes)</t>
+  </si>
+  <si>
+    <t>Mortalité maternelle (pour 1 000 naissances vivantes)</t>
+  </si>
+  <si>
+    <t>Fraction des grossesses se terminant par un avortement spontané</t>
+  </si>
+  <si>
+    <t>Mortinatalité (pour 1 000 naissances totales)</t>
+  </si>
+  <si>
+    <t>Distribution des résultats des naissances</t>
+  </si>
+  <si>
+    <t>SGA avant terme</t>
+  </si>
+  <si>
+    <t>AGA avant terme</t>
+  </si>
+  <si>
+    <t>SGA à terme</t>
+  </si>
+  <si>
+    <t>AGA à terme</t>
+  </si>
+  <si>
+    <t>Incidence de la diarrhée</t>
+  </si>
+  <si>
+    <t>Nombre moyen d'épisodes par an : &lt;1 mois</t>
+  </si>
+  <si>
+    <t>Épisodes moyens par an : 1-5 mois</t>
+  </si>
+  <si>
+    <t>Nombre moyen d'épisodes par an : 6-11 mois</t>
+  </si>
+  <si>
+    <t>Nombre moyen d'épisodes par an : 12-23 mois</t>
+  </si>
+  <si>
+    <t>Nombre moyen d'épisodes par an : 24-59 mois</t>
+  </si>
+  <si>
+    <t>Autres risques</t>
+  </si>
+  <si>
+    <t>Pourcentage de diarrhée grave</t>
+  </si>
+  <si>
+    <t>Pourcentage d'anémie avec carence en fer</t>
+  </si>
+  <si>
+    <t>Année</t>
+  </si>
+  <si>
+    <t>Nombre de naissances</t>
+  </si>
+  <si>
+    <t>FAP : 15-19 ans</t>
+  </si>
+  <si>
+    <t>FAP : 20-29 ans</t>
+  </si>
+  <si>
+    <t>FAP : 30-39 ans</t>
+  </si>
+  <si>
+    <t>FAP : 40-49 ans</t>
+  </si>
+  <si>
+    <t>Total FAP</t>
+  </si>
+  <si>
+    <t>Estimation des femmes enceintes</t>
+  </si>
+  <si>
+    <t>FAP non enceintes</t>
+  </si>
+  <si>
+    <t>Néonatal</t>
+  </si>
+  <si>
+    <t>Diarrhée néonatale</t>
+  </si>
+  <si>
+    <t>Septicémie néonatale</t>
+  </si>
+  <si>
+    <t>Pneumonie néonatale</t>
+  </si>
+  <si>
+    <t>Asphyxie néonatale</t>
+  </si>
+  <si>
+    <t>Prématurité néonatale</t>
   </si>
   <si>
     <t>Tétanos néonatal</t>
   </si>
   <si>
+    <t>Anomalies congénitales néonatales</t>
+  </si>
+  <si>
+    <t>Autres pathologies néonatales</t>
+  </si>
+  <si>
+    <t>Enfants</t>
+  </si>
+  <si>
+    <t>Diarrhée</t>
+  </si>
+  <si>
+    <t>Pneumonie</t>
+  </si>
+  <si>
+    <t>Méningite</t>
+  </si>
+  <si>
+    <t>Rougeole</t>
+  </si>
+  <si>
+    <t>Paludisme</t>
+  </si>
+  <si>
+    <t>Coqueluche</t>
+  </si>
+  <si>
+    <t>SIDA</t>
+  </si>
+  <si>
+    <t>Blessure</t>
+  </si>
+  <si>
+    <t>Autre</t>
+  </si>
+  <si>
+    <t>1-5 mois</t>
+  </si>
+  <si>
+    <t>6-11 mois</t>
+  </si>
+  <si>
     <t>12-23 mois</t>
   </si>
   <si>
+    <t>24-59 mois</t>
+  </si>
+  <si>
+    <t>Femmes enceintes</t>
+  </si>
+  <si>
+    <t>Hémorragie antepartum</t>
+  </si>
+  <si>
+    <t>Hémorragie intra-partum</t>
+  </si>
+  <si>
+    <t>Hémorragie du post-partum</t>
+  </si>
+  <si>
+    <t>Troubles hypertensifs</t>
+  </si>
+  <si>
+    <t>Septicémie</t>
+  </si>
+  <si>
+    <t>Avortement</t>
+  </si>
+  <si>
+    <t>Embolie</t>
+  </si>
+  <si>
+    <t>Autres causes directes</t>
+  </si>
+  <si>
+    <t>Causes indirectes</t>
+  </si>
+  <si>
+    <t>&lt;1 mois</t>
+  </si>
+  <si>
+    <t>Statut</t>
+  </si>
+  <si>
+    <t>Retard de croissance (taille pour l'âge)</t>
+  </si>
+  <si>
+    <t>Normal (score HAZ &gt; -1)</t>
+  </si>
+  <si>
+    <t>Léger (score HAZ entre -2 et -1)</t>
+  </si>
+  <si>
+    <t>Modéré (score HAZ entre -3 et -2)</t>
+  </si>
+  <si>
+    <t>Élevé (score HAZ entre &lt; -3)</t>
+  </si>
+  <si>
+    <t>Amaigrissement (poids par rapport à la taille)</t>
+  </si>
+  <si>
+    <t>Normal (score WHZ &gt; -1)</t>
+  </si>
+  <si>
+    <t>Léger (score WHZ entre -2 et -1)</t>
+  </si>
+  <si>
+    <t>MAM (score WHZ entre -3 et -2)</t>
+  </si>
+  <si>
+    <t>SAM (score WHZ &lt; -3)</t>
+  </si>
+  <si>
+    <t>Anémie</t>
+  </si>
+  <si>
+    <t>PW : 15-19 ans</t>
+  </si>
+  <si>
+    <t>PW : 20-29 ans</t>
+  </si>
+  <si>
+    <t>PW : 30-39 ans</t>
+  </si>
+  <si>
+    <t>PW : 40-49 ans</t>
+  </si>
+  <si>
+    <t>Prévalence de l'anémie</t>
+  </si>
+  <si>
+    <t>Prévalence de l'anémie ferriprive</t>
+  </si>
+  <si>
+    <t>Allaitement maternel</t>
+  </si>
+  <si>
+    <t>Exclusif</t>
+  </si>
+  <si>
+    <t>Prédominant</t>
+  </si>
+  <si>
+    <t>Partiel</t>
+  </si>
+  <si>
+    <t>Aucun</t>
+  </si>
+  <si>
+    <t>Risque</t>
+  </si>
+  <si>
+    <t>Prévalence du retard de croissance (%)</t>
+  </si>
+  <si>
+    <t>Prévalence de l'émaciation (%)</t>
+  </si>
+  <si>
+    <t>Prévalence de l'anémie (%)</t>
+  </si>
+  <si>
+    <t>Femmes en âge de procréer</t>
+  </si>
+  <si>
+    <t>Prévalence de l'allaitement maternel adapté à l'âge des enfants</t>
+  </si>
+  <si>
+    <t>Enfants de 0 à 5 mois</t>
+  </si>
+  <si>
+    <t>Enfants de 6 à 23 mois</t>
+  </si>
+  <si>
+    <t>Moins de cinq ans (décès pour 1 000 naissances)</t>
+  </si>
+  <si>
+    <t>Maternelle (décès pour 1 000 naissances)</t>
+  </si>
+  <si>
+    <t>Paquet IYCF</t>
+  </si>
+  <si>
+    <t>Population cible</t>
+  </si>
+  <si>
+    <t>Établissement de santé</t>
+  </si>
+  <si>
+    <t>Communauté</t>
+  </si>
+  <si>
+    <t>Médias de masse</t>
+  </si>
+  <si>
+    <t>Tous</t>
+  </si>
+  <si>
+    <t>AIFC 1</t>
+  </si>
+  <si>
+    <t>AIFC 2</t>
+  </si>
+  <si>
+    <t>Programme</t>
+  </si>
+  <si>
+    <t>Traitement de la MAS</t>
+  </si>
+  <si>
+    <t>Défaut</t>
+  </si>
+  <si>
+    <t>Ajouter une extension</t>
+  </si>
+  <si>
+    <t>Mode de livraison</t>
+  </si>
+  <si>
+    <t>Couverture à saturation de la population cible</t>
+  </si>
+  <si>
+    <t>Relation coût-couverture</t>
+  </si>
+  <si>
+    <t>Supplémentation équilibrée en énergie et en protéines</t>
+  </si>
+  <si>
+    <t>Supplémentation en calcium</t>
+  </si>
+  <si>
+    <t>Transferts en espèces</t>
+  </si>
+  <si>
+    <t>Retardement du clampage du cordon</t>
+  </si>
+  <si>
+    <t>Planification familiale</t>
+  </si>
+  <si>
+    <t>Enrichissement du maïs en AGI</t>
+  </si>
+  <si>
+    <t>Enrichissement du riz en AGI</t>
+  </si>
+  <si>
+    <t>Enrichissement en ACI de la farine de blé</t>
+  </si>
+  <si>
+    <t>IFAS (communauté)</t>
+  </si>
+  <si>
+    <t>IFAS (établissement de santé)</t>
+  </si>
+  <si>
+    <t>IFAS (détaillant)</t>
+  </si>
+  <si>
+    <t>IFAS (école)</t>
+  </si>
+  <si>
+    <t>IFAS pour les femmes enceintes (communauté)</t>
+  </si>
+  <si>
+    <t>IFAS pour les femmes enceintes (établissement de santé)</t>
+  </si>
+  <si>
+    <t>Enrichissement du sel en fer et en iode</t>
+  </si>
+  <si>
+    <t>Soins maternels kangourou</t>
+  </si>
+  <si>
+    <t>Suppléments nutritionnels à base de lipides</t>
+  </si>
+  <si>
+    <t>Moustiquaires imprégnées d'insecticide longue durée</t>
+  </si>
+  <si>
+    <t>Mg pour l'éclampsie</t>
+  </si>
+  <si>
+    <t>Mg pour la pré-éclampsie</t>
+  </si>
+  <si>
+    <t>Poudres de micronutriments</t>
+  </si>
+  <si>
+    <t>Supplémentation en micronutriments multiples</t>
+  </si>
+  <si>
+    <t>Sels de réhydratation orale</t>
+  </si>
+  <si>
+    <t>Fourniture publique d'aliments complémentaires</t>
+  </si>
+  <si>
     <t>Supplémentation en vitamine A</t>
   </si>
   <si>
-    <t>Enrichissement du maïs en AGI</t>
+    <t>WASH : lavage des mains</t>
+  </si>
+  <si>
+    <t>WASH : Élimination hygiénique</t>
+  </si>
+  <si>
+    <t>WASH : Amélioration de l'assainissement</t>
+  </si>
+  <si>
+    <t>WASH : Source d'eau améliorée</t>
+  </si>
+  <si>
+    <t>WASH : Eau courante</t>
+  </si>
+  <si>
+    <t>Zinc pour le traitement + SRO</t>
+  </si>
+  <si>
+    <t>Supplémentation en zinc</t>
+  </si>
+  <si>
+    <t>Linéaire (coût marginal constant) [par défaut].</t>
+  </si>
+  <si>
+    <t>Dépendance d'exclusion</t>
+  </si>
+  <si>
+    <t>Dépendance de seuil</t>
+  </si>
+  <si>
+    <t>Courbe avec coût marginal croissant</t>
+  </si>
+  <si>
+    <t>Courbe avec coût marginal décroissant</t>
+  </si>
+  <si>
+    <t>En forme de S (coût marginal décroissant puis croissant)</t>
   </si>
 </sst>
 </file>
@@ -4762,18 +4759,18 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>265</v>
+        <v>91</v>
       </c>
       <c r="B1" s="41" t="s">
-        <v>157</v>
+        <v>22</v>
       </c>
       <c r="C1" s="41" t="s">
-        <v>158</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
-        <v>184</v>
+        <v>92</v>
       </c>
       <c r="B2" s="41"/>
       <c r="C2" s="41"/>
@@ -4781,7 +4778,7 @@
     <row r="3" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="7" t="s">
-        <v>186</v>
+        <v>93</v>
       </c>
       <c r="C3" s="63">
         <v>2017</v>
@@ -4790,7 +4787,7 @@
     <row r="4" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="9" t="s">
-        <v>185</v>
+        <v>94</v>
       </c>
       <c r="C4" s="64">
         <v>2030</v>
@@ -4803,12 +4800,12 @@
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
-        <v>45</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="16" t="s">
-        <v>201</v>
+        <v>96</v>
       </c>
       <c r="C7" s="65">
         <v>9862402</v>
@@ -4816,7 +4813,7 @@
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C8" s="66">
         <v>0.28199999999999997</v>
@@ -4824,7 +4821,7 @@
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="9" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C9" s="67">
         <v>1</v>
@@ -4840,7 +4837,7 @@
     </row>
     <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C11" s="66">
         <v>0.51</v>
@@ -4848,7 +4845,7 @@
     </row>
     <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C12" s="66">
         <v>0.37</v>
@@ -4856,7 +4853,7 @@
     </row>
     <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C13" s="66">
         <v>0.221</v>
@@ -4867,14 +4864,14 @@
     </row>
     <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
-        <v>27</v>
+        <v>103</v>
       </c>
       <c r="B15" s="19"/>
       <c r="C15" s="3"/>
     </row>
     <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="9" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="C16" s="67">
         <v>0.3</v>
@@ -4882,7 +4879,7 @@
     </row>
     <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="9" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="C17" s="67">
         <v>0.1</v>
@@ -4890,7 +4887,7 @@
     </row>
     <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="9" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="C18" s="67">
         <v>0.1</v>
@@ -4898,7 +4895,7 @@
     </row>
     <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="9" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="C19" s="67">
         <v>0.8</v>
@@ -4906,7 +4903,7 @@
     </row>
     <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="9" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="C20" s="68">
         <f>1-frac_rice-frac_wheat-frac_maize</f>
@@ -4918,12 +4915,12 @@
     </row>
     <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="12" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="20" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="C23" s="67">
         <v>0.127</v>
@@ -4931,7 +4928,7 @@
     </row>
     <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="20" t="s">
-        <v>266</v>
+        <v>111</v>
       </c>
       <c r="C24" s="67">
         <v>0.45200000000000001</v>
@@ -4939,7 +4936,7 @@
     </row>
     <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="20" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="C25" s="67">
         <v>0.33400000000000002</v>
@@ -4947,7 +4944,7 @@
     </row>
     <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="20" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="C26" s="67">
         <v>8.6999999999999994E-2</v>
@@ -4959,14 +4956,14 @@
     </row>
     <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
-        <v>189</v>
+        <v>114</v>
       </c>
       <c r="B28" s="20"/>
       <c r="C28" s="20"/>
     </row>
     <row r="29" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="30" t="s">
-        <v>71</v>
+        <v>115</v>
       </c>
       <c r="C29" s="69">
         <v>0.20799999999999999</v>
@@ -4974,7 +4971,7 @@
     </row>
     <row r="30" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="30" t="s">
-        <v>72</v>
+        <v>116</v>
       </c>
       <c r="C30" s="69">
         <v>0.63700000000000001</v>
@@ -4982,7 +4979,7 @@
     </row>
     <row r="31" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="30" t="s">
-        <v>73</v>
+        <v>117</v>
       </c>
       <c r="C31" s="69">
         <v>0.11899999999999999</v>
@@ -4990,7 +4987,7 @@
     </row>
     <row r="32" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="30" t="s">
-        <v>74</v>
+        <v>118</v>
       </c>
       <c r="C32" s="69">
         <v>3.5999999999999997E-2</v>
@@ -4998,7 +4995,7 @@
     </row>
     <row r="33" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B33" s="32" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C33" s="70">
         <f>SUM(C29:C32)</f>
@@ -5008,19 +5005,19 @@
     <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="12" t="s">
-        <v>70</v>
+        <v>121</v>
       </c>
       <c r="B36" s="7"/>
       <c r="C36" s="13"/>
     </row>
     <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="42" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="C37" s="71">
         <v>25</v>
@@ -5028,7 +5025,7 @@
     </row>
     <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="16" t="s">
-        <v>87</v>
+        <v>123</v>
       </c>
       <c r="C38" s="71">
         <v>43</v>
@@ -5038,7 +5035,7 @@
     </row>
     <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="16" t="s">
-        <v>86</v>
+        <v>124</v>
       </c>
       <c r="C39" s="71">
         <v>67</v>
@@ -5048,7 +5045,7 @@
     </row>
     <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="16" t="s">
-        <v>164</v>
+        <v>125</v>
       </c>
       <c r="C40" s="71">
         <v>4.01</v>
@@ -5056,7 +5053,7 @@
     </row>
     <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="16" t="s">
-        <v>85</v>
+        <v>126</v>
       </c>
       <c r="C41" s="67">
         <v>0.13</v>
@@ -5064,7 +5061,7 @@
     </row>
     <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="42" t="s">
-        <v>89</v>
+        <v>127</v>
       </c>
       <c r="C42" s="71">
         <v>22.4</v>
@@ -5075,13 +5072,13 @@
     </row>
     <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="12" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D44" s="17"/>
     </row>
     <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="16" t="s">
-        <v>8</v>
+        <v>129</v>
       </c>
       <c r="C45" s="67">
         <v>3.1E-2</v>
@@ -5090,7 +5087,7 @@
     </row>
     <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="16" t="s">
-        <v>10</v>
+        <v>130</v>
       </c>
       <c r="C46" s="67">
         <v>0.109</v>
@@ -5099,7 +5096,7 @@
     </row>
     <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="16" t="s">
-        <v>11</v>
+        <v>131</v>
       </c>
       <c r="C47" s="67">
         <v>0.36499999999999999</v>
@@ -5109,7 +5106,7 @@
     </row>
     <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="16" t="s">
-        <v>24</v>
+        <v>132</v>
       </c>
       <c r="C48" s="68">
         <f>1-term_SGA-preterm_AGA-preterm_SGA</f>
@@ -5123,13 +5120,13 @@
     </row>
     <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="12" t="s">
-        <v>68</v>
+        <v>133</v>
       </c>
       <c r="D50" s="17"/>
     </row>
     <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="16" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="C51" s="72">
         <v>1.66</v>
@@ -5138,7 +5135,7 @@
     </row>
     <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="16" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="C52" s="72">
         <v>1.66</v>
@@ -5146,7 +5143,7 @@
     </row>
     <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="16" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="C53" s="72">
         <v>5.64</v>
@@ -5154,7 +5151,7 @@
     </row>
     <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="16" t="s">
-        <v>267</v>
+        <v>137</v>
       </c>
       <c r="C54" s="72">
         <v>5.43</v>
@@ -5162,7 +5159,7 @@
     </row>
     <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="16" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="C55" s="72">
         <v>1.91</v>
@@ -5170,12 +5167,12 @@
     </row>
     <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="12" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="7" t="s">
-        <v>105</v>
+        <v>140</v>
       </c>
       <c r="C58" s="66">
         <v>0.2</v>
@@ -5183,7 +5180,7 @@
     </row>
     <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="16" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="C59" s="66">
         <v>0.42</v>
@@ -5191,7 +5188,7 @@
     </row>
     <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="16" t="s">
-        <v>262</v>
+        <v>88</v>
       </c>
       <c r="C60" s="66">
         <v>4.5999999999999999E-2</v>
@@ -5199,7 +5196,7 @@
     </row>
     <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="16" t="s">
-        <v>263</v>
+        <v>89</v>
       </c>
       <c r="C61" s="66">
         <v>1.4E-2</v>
@@ -5209,7 +5206,7 @@
       <c r="A63" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="r20VShG3u7EIR2xlKCMaH+ZEEEFgUXWA8j0MF52Ej6nOd01JP2TrAh+zgBavsF4xCLLUSnggTey7NvRjUlHjkg==" saltValue="Ux+CKS+OC/HkmjptB0yhoQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="hu08WNTSMDMmvAfjKoaBY9VmdUFXgYG/N4ZvK+YONECsiayyXbC/xlXqLoKfnuBw8ZClM+FtCkwXy+pvRMbWCQ==" saltValue="EIoLjDGq/NA3mG2jMIs0tA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
 </worksheet>
@@ -5234,47 +5231,47 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
-        <v>65</v>
+        <v>226</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="48" t="s">
-        <v>190</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="48" t="s">
-        <v>54</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="48" t="s">
-        <v>31</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="48" t="s">
-        <v>79</v>
+        <v>258</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="48" t="s">
-        <v>78</v>
+        <v>259</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="48" t="s">
-        <v>77</v>
+        <v>260</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="48" t="s">
-        <v>75</v>
+        <v>261</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="48" t="s">
-        <v>76</v>
+        <v>262</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
@@ -5308,7 +5305,7 @@
       <c r="A19" s="48"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="+03B+x0KnOJ5HPkVHAOdCfqYmU2RA9xyBNYsrWovcAuSat0192mVWh3QGTER+BSopvF7gg/pCRuvgCN5rPy+zQ==" saltValue="4XzoShXxoVzZH9ksn3OvIQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="8pT5jAWyda8pOEUeIks6xdlqUnNNsF/rohTHgRJN9sEP1I5+QPFYn3n2Kq49n9kYQD8/R6E2rB6JPsmmAqs0OQ==" saltValue="cB0FyewYXKxvXNXqxLq7Dw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -5329,27 +5326,27 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>184</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>170</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="E1" t="s">
-        <v>269</v>
+        <v>172</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>67</v>
+        <v>161</v>
       </c>
       <c r="B2" s="26">
         <f>'Donnees pop de l''annee de ref'!C51</f>
@@ -5374,7 +5371,7 @@
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="B3" s="26">
         <f>frac_mam_1month * 2.6</f>
@@ -5399,7 +5396,7 @@
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>62</v>
+        <v>5</v>
       </c>
       <c r="B4" s="26">
         <f>frac_sam_1month * 2.6</f>
@@ -5423,7 +5420,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="y/pCRcofWOwDbZgsJTR/MCQVPJZ96mqPSszcCGCRvNU7DQd5Um4XB8JV5tEwon/+6yClX8qIj2uHK3dK8UZZFQ==" saltValue="nvyOIBXrRkinZHBVKlp+PQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="yVv2kcMZzWBRbZY8bTkOOaxZ1m2jLjJ/MCjzEMiHaAiTCctN034kh7+OWAiNX+QhUl/USkJhu+t4OpyudEPnjA==" saltValue="ePYtWynGhh76R1h19EM7rQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -5454,57 +5451,57 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>65</v>
+        <v>226</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>1</v>
+        <v>184</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>2</v>
+        <v>170</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>269</v>
+        <v>172</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>4</v>
+        <v>173</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>50</v>
+        <v>197</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>51</v>
+        <v>198</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>52</v>
+        <v>199</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>53</v>
+        <v>200</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>46</v>
+        <v>144</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>47</v>
+        <v>145</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>48</v>
+        <v>146</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>49</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>28</v>
+        <v>160</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>58</v>
+        <v>235</v>
       </c>
       <c r="C2" s="87">
         <v>0</v>
@@ -5552,7 +5549,7 @@
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="7" t="s">
-        <v>142</v>
+        <v>236</v>
       </c>
       <c r="C3" s="87">
         <v>1</v>
@@ -5596,7 +5593,7 @@
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="7" t="s">
-        <v>188</v>
+        <v>248</v>
       </c>
       <c r="C4" s="87">
         <v>1</v>
@@ -5640,7 +5637,7 @@
     </row>
     <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="11" t="s">
-        <v>129</v>
+        <v>249</v>
       </c>
       <c r="C5" s="87">
         <v>0</v>
@@ -5686,7 +5683,7 @@
     </row>
     <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="11" t="s">
-        <v>130</v>
+        <v>253</v>
       </c>
       <c r="C6" s="87">
         <v>0</v>
@@ -5733,7 +5730,7 @@
     </row>
     <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="33" t="s">
-        <v>80</v>
+        <v>255</v>
       </c>
       <c r="C7" s="87">
         <f>diarrhoea_1mo</f>
@@ -5782,7 +5779,7 @@
     </row>
     <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="11" t="s">
-        <v>55</v>
+        <v>256</v>
       </c>
       <c r="C8" s="87">
         <v>0</v>
@@ -5828,7 +5825,7 @@
     </row>
     <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="11" t="s">
-        <v>63</v>
+        <v>227</v>
       </c>
       <c r="C9" s="87">
         <v>0</v>
@@ -5876,7 +5873,7 @@
     </row>
     <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="11" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="C10" s="87">
         <v>0</v>
@@ -5920,7 +5917,7 @@
     </row>
     <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="33" t="s">
-        <v>81</v>
+        <v>263</v>
       </c>
       <c r="C11" s="87">
         <f>diarrhoea_1mo</f>
@@ -5969,7 +5966,7 @@
     </row>
     <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="11" t="s">
-        <v>57</v>
+        <v>264</v>
       </c>
       <c r="C12" s="87">
         <v>0</v>
@@ -6016,10 +6013,10 @@
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>29</v>
+        <v>174</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>26</v>
+        <v>233</v>
       </c>
       <c r="C14" s="88">
         <v>0</v>
@@ -6068,7 +6065,7 @@
     <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="11" t="s">
-        <v>82</v>
+        <v>234</v>
       </c>
       <c r="C15" s="88">
         <v>0</v>
@@ -6113,7 +6110,7 @@
     <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="11" t="s">
-        <v>180</v>
+        <v>245</v>
       </c>
       <c r="C16" s="88">
         <v>0</v>
@@ -6162,7 +6159,7 @@
     <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="11" t="s">
-        <v>200</v>
+        <v>246</v>
       </c>
       <c r="C17" s="88">
         <v>0</v>
@@ -6210,7 +6207,7 @@
     </row>
     <row r="18" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="33" t="s">
-        <v>54</v>
+        <v>3</v>
       </c>
       <c r="C18" s="88">
         <v>0</v>
@@ -6258,7 +6255,7 @@
     </row>
     <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="11" t="s">
-        <v>84</v>
+        <v>251</v>
       </c>
       <c r="C19" s="88">
         <v>0</v>
@@ -6302,7 +6299,7 @@
     </row>
     <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="11" t="s">
-        <v>83</v>
+        <v>252</v>
       </c>
       <c r="C20" s="88">
         <v>0</v>
@@ -6346,7 +6343,7 @@
     </row>
     <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="33" t="s">
-        <v>56</v>
+        <v>254</v>
       </c>
       <c r="C21" s="88">
         <v>0</v>
@@ -6397,10 +6394,10 @@
     </row>
     <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="58" t="s">
-        <v>34</v>
+        <v>150</v>
       </c>
       <c r="B23" s="59" t="s">
-        <v>190</v>
+        <v>237</v>
       </c>
       <c r="C23" s="88">
         <v>0</v>
@@ -6448,7 +6445,7 @@
     </row>
     <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="59" t="s">
-        <v>181</v>
+        <v>241</v>
       </c>
       <c r="C24" s="88">
         <v>0</v>
@@ -6496,7 +6493,7 @@
     </row>
     <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="59" t="s">
-        <v>199</v>
+        <v>242</v>
       </c>
       <c r="C25" s="88">
         <v>0</v>
@@ -6544,7 +6541,7 @@
     </row>
     <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="59" t="s">
-        <v>182</v>
+        <v>243</v>
       </c>
       <c r="C26" s="88">
         <v>0</v>
@@ -6592,7 +6589,7 @@
     </row>
     <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="59" t="s">
-        <v>183</v>
+        <v>244</v>
       </c>
       <c r="C27" s="88">
         <v>0</v>
@@ -6647,10 +6644,10 @@
     </row>
     <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>271</v>
+        <v>238</v>
       </c>
       <c r="C29" s="87">
         <v>0</v>
@@ -6705,7 +6702,7 @@
     </row>
     <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="11" t="s">
-        <v>60</v>
+        <v>239</v>
       </c>
       <c r="C30" s="87">
         <v>0</v>
@@ -6760,7 +6757,7 @@
     </row>
     <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="11" t="s">
-        <v>59</v>
+        <v>240</v>
       </c>
       <c r="C31" s="87">
         <v>0</v>
@@ -6815,7 +6812,7 @@
     </row>
     <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="11" t="s">
-        <v>44</v>
+        <v>247</v>
       </c>
       <c r="C32" s="87">
         <v>0</v>
@@ -6859,7 +6856,7 @@
     </row>
     <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="11" t="s">
-        <v>31</v>
+        <v>250</v>
       </c>
       <c r="C33" s="87">
         <f t="shared" ref="C33:O33" si="3">frac_malaria_risk</f>
@@ -6916,7 +6913,7 @@
     </row>
     <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="33" t="s">
-        <v>79</v>
+        <v>258</v>
       </c>
       <c r="C34" s="87">
         <v>1</v>
@@ -6961,7 +6958,7 @@
     <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="5"/>
       <c r="B35" s="33" t="s">
-        <v>78</v>
+        <v>259</v>
       </c>
       <c r="C35" s="87">
         <v>1</v>
@@ -7005,7 +7002,7 @@
     </row>
     <row r="36" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="33" t="s">
-        <v>77</v>
+        <v>260</v>
       </c>
       <c r="C36" s="87">
         <v>1</v>
@@ -7049,7 +7046,7 @@
     </row>
     <row r="37" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="33" t="s">
-        <v>75</v>
+        <v>261</v>
       </c>
       <c r="C37" s="87">
         <v>1</v>
@@ -7093,7 +7090,7 @@
     </row>
     <row r="38" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="33" t="s">
-        <v>76</v>
+        <v>262</v>
       </c>
       <c r="C38" s="87">
         <v>1</v>
@@ -7139,7 +7136,7 @@
       <c r="B39" s="33"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="lX9/he224A2jZet4X2yzl6gsNQ7MhoWalayQjlQ3sD8Yj/86UDKzknXufOqQGjJN4s20/v0Ol0FiKad5LmCgag==" saltValue="Nh4ZGCHTJtI2TR7yBNQinQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Zp/pjSPPGCHFZXrKtAOZdAeeudUZTXb4mvweB3M8R38A849ifk3rXhgKsfaRA0qApVUAEbmfvDJkJBvl2XPrtw==" saltValue="XJ2XXwAFz8BPJvU9DA6zxg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B14:O21">
     <sortCondition ref="B14:B21"/>
   </sortState>
@@ -7169,48 +7166,48 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
-        <v>65</v>
+        <v>226</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>173</v>
+        <v>266</v>
       </c>
       <c r="C1" s="40" t="s">
-        <v>172</v>
+        <v>267</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="83" t="s">
-        <v>180</v>
+        <v>245</v>
       </c>
       <c r="B2" s="80" t="s">
-        <v>56</v>
+        <v>254</v>
       </c>
       <c r="C2" s="80"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="83" t="s">
-        <v>200</v>
+        <v>246</v>
       </c>
       <c r="B3" s="80" t="s">
-        <v>56</v>
+        <v>254</v>
       </c>
       <c r="C3" s="80"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="84" t="s">
-        <v>55</v>
+        <v>256</v>
       </c>
       <c r="B4" s="80" t="s">
-        <v>129</v>
+        <v>249</v>
       </c>
       <c r="C4" s="80"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="84" t="s">
-        <v>130</v>
+        <v>253</v>
       </c>
       <c r="B5" s="80" t="s">
-        <v>129</v>
+        <v>249</v>
       </c>
       <c r="C5" s="80"/>
     </row>
@@ -7290,7 +7287,7 @@
       <c r="C20" s="85"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="UqzfgA9UTf2PXvlXsgEG9LRFHCHmKVpY7NIIUR8nvemMRf6mWjO+tq9tvvTLOGWLMA5JaSqeB1EDE1xqK1OImA==" saltValue="zuMkc27eWTdGr7TGOkMqkA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="c1oUBbpe7sApt2o381nqbkThVazd/vlKGXdVtp88G8TS8/encL6XGZA321914iD0GQrbxTJWlWUhcAm6xEckmg==" saltValue="xlPO6/TnB6ucNhGZyY6pVg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
@@ -7307,26 +7304,26 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
-        <v>195</v>
+        <v>268</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
-        <v>196</v>
+        <v>269</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
-        <v>197</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="9bvGLkG+06+prcVo0PENEmTjBsis0N1oNAmFZrewBFiQTVYtk7WaLdTTU740ooqd7KfkyfJqVcHl4ols5Whj+A==" saltValue="/pieOoQTFX1IzEKUJC6Kyw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="FWbr9z8ZMNGt8Qv8J4xnCHS2ZYSGy60RV2gDrGx8uqzIfrsAwp2SuYAydDXVvMAFAkgYgn/cCgAbrwisGcgRGQ==" saltValue="yAIhGqvG7rXirdu7L8mETQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7353,24 +7350,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
-        <v>156</v>
+        <v>21</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>155</v>
+        <v>20</v>
       </c>
       <c r="C1" s="40" t="s">
-        <v>154</v>
+        <v>19</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>153</v>
+        <v>18</v>
       </c>
       <c r="E1" s="40" t="s">
-        <v>152</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="39" t="s">
-        <v>151</v>
+        <v>16</v>
       </c>
       <c r="B2" s="38">
         <v>0.9</v>
@@ -7388,7 +7385,7 @@
     </row>
     <row r="3" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="39" t="s">
-        <v>150</v>
+        <v>15</v>
       </c>
       <c r="B3" s="38">
         <v>1</v>
@@ -7406,7 +7403,7 @@
     </row>
     <row r="4" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="39" t="s">
-        <v>149</v>
+        <v>14</v>
       </c>
       <c r="B4" s="38">
         <v>1</v>
@@ -7424,7 +7421,7 @@
     </row>
     <row r="5" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="39" t="s">
-        <v>148</v>
+        <v>13</v>
       </c>
       <c r="B5" s="38">
         <v>1</v>
@@ -7442,7 +7439,7 @@
     </row>
     <row r="6" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="39" t="s">
-        <v>147</v>
+        <v>12</v>
       </c>
       <c r="B6" s="38">
         <v>1</v>
@@ -7460,7 +7457,7 @@
     </row>
     <row r="7" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A7" s="39" t="s">
-        <v>146</v>
+        <v>11</v>
       </c>
       <c r="B7" s="38">
         <v>0.93</v>
@@ -7478,7 +7475,7 @@
     </row>
     <row r="8" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="39" t="s">
-        <v>145</v>
+        <v>10</v>
       </c>
       <c r="B8" s="38">
         <v>0.5</v>
@@ -7496,7 +7493,7 @@
     </row>
     <row r="9" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="39" t="s">
-        <v>144</v>
+        <v>9</v>
       </c>
       <c r="B9" s="38">
         <v>0.5</v>
@@ -7514,7 +7511,7 @@
     </row>
     <row r="10" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" s="39" t="s">
-        <v>143</v>
+        <v>8</v>
       </c>
       <c r="B10" s="38">
         <v>0.98</v>
@@ -7534,7 +7531,7 @@
       <c r="C11" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="AsWYqkjIz7O3jDp7LnSXEtkpzj0sZ26ZWmwfRFW4sgeWjBRZaYo6rP8A1i7GjGaybkZVmXe6764KFEjWsUG5fg==" saltValue="xAw9+z3OowIQ1Qh5Wr3rKQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="RvGy3WlBzBMHx41HjAIm5dOgnMuGlI1AH0062SR/TYe4b+xeupEY0Ip6yD9I8fXiEAguFFuowU8CLrwT8/XPKQ==" saltValue="3gTx8E1sKEMOEO73RnW8CQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -7567,57 +7564,57 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="56" t="s">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="B1" s="89" t="s">
-        <v>65</v>
+        <v>226</v>
       </c>
       <c r="C1" s="56" t="s">
-        <v>1</v>
+        <v>184</v>
       </c>
       <c r="D1" s="56" t="s">
-        <v>2</v>
+        <v>170</v>
       </c>
       <c r="E1" s="56" t="s">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="F1" s="56" t="s">
-        <v>269</v>
+        <v>172</v>
       </c>
       <c r="G1" s="56" t="s">
-        <v>4</v>
+        <v>173</v>
       </c>
       <c r="H1" s="56" t="s">
-        <v>50</v>
+        <v>197</v>
       </c>
       <c r="I1" s="56" t="s">
-        <v>51</v>
+        <v>198</v>
       </c>
       <c r="J1" s="56" t="s">
-        <v>52</v>
+        <v>199</v>
       </c>
       <c r="K1" s="56" t="s">
-        <v>53</v>
+        <v>200</v>
       </c>
       <c r="L1" s="56" t="s">
-        <v>46</v>
+        <v>144</v>
       </c>
       <c r="M1" s="56" t="s">
-        <v>47</v>
+        <v>145</v>
       </c>
       <c r="N1" s="56" t="s">
-        <v>48</v>
+        <v>146</v>
       </c>
       <c r="O1" s="56" t="s">
-        <v>49</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="56" t="s">
-        <v>28</v>
+        <v>160</v>
       </c>
       <c r="B2" s="52" t="s">
-        <v>58</v>
+        <v>235</v>
       </c>
       <c r="C2" s="133">
         <v>0</v>
@@ -7661,7 +7658,7 @@
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="52" t="s">
-        <v>142</v>
+        <v>236</v>
       </c>
       <c r="C3" s="133">
         <v>1</v>
@@ -7705,7 +7702,7 @@
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="52" t="s">
-        <v>166</v>
+        <v>224</v>
       </c>
       <c r="C4" s="133">
         <v>1</v>
@@ -7749,7 +7746,7 @@
     </row>
     <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="52" t="s">
-        <v>191</v>
+        <v>225</v>
       </c>
       <c r="C5" s="133">
         <v>1</v>
@@ -7793,7 +7790,7 @@
     </row>
     <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="52" t="s">
-        <v>192</v>
+        <v>28</v>
       </c>
       <c r="C6" s="133">
         <v>1</v>
@@ -7837,7 +7834,7 @@
     </row>
     <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="52" t="s">
-        <v>188</v>
+        <v>248</v>
       </c>
       <c r="C7" s="133">
         <v>1</v>
@@ -7881,7 +7878,7 @@
     </row>
     <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="52" t="s">
-        <v>129</v>
+        <v>249</v>
       </c>
       <c r="C8" s="133">
         <v>0</v>
@@ -7925,7 +7922,7 @@
     </row>
     <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="52" t="s">
-        <v>130</v>
+        <v>253</v>
       </c>
       <c r="C9" s="133">
         <v>0</v>
@@ -7969,7 +7966,7 @@
     </row>
     <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="52" t="s">
-        <v>80</v>
+        <v>255</v>
       </c>
       <c r="C10" s="133">
         <v>1</v>
@@ -8013,7 +8010,7 @@
     </row>
     <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="52" t="s">
-        <v>55</v>
+        <v>256</v>
       </c>
       <c r="C11" s="133">
         <v>0</v>
@@ -8057,7 +8054,7 @@
     </row>
     <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="52" t="s">
-        <v>63</v>
+        <v>227</v>
       </c>
       <c r="C12" s="133">
         <v>0</v>
@@ -8101,7 +8098,7 @@
     </row>
     <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="52" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="C13" s="133">
         <v>0</v>
@@ -8145,7 +8142,7 @@
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="52" t="s">
-        <v>81</v>
+        <v>263</v>
       </c>
       <c r="C14" s="133">
         <v>1</v>
@@ -8189,7 +8186,7 @@
     </row>
     <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="52" t="s">
-        <v>57</v>
+        <v>264</v>
       </c>
       <c r="C15" s="133">
         <v>0</v>
@@ -8249,10 +8246,10 @@
     </row>
     <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="56" t="s">
-        <v>29</v>
+        <v>174</v>
       </c>
       <c r="B17" s="52" t="s">
-        <v>26</v>
+        <v>233</v>
       </c>
       <c r="C17" s="133">
         <v>0</v>
@@ -8297,7 +8294,7 @@
     <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="56"/>
       <c r="B18" s="52" t="s">
-        <v>82</v>
+        <v>234</v>
       </c>
       <c r="C18" s="133">
         <v>0</v>
@@ -8341,7 +8338,7 @@
     </row>
     <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="90" t="s">
-        <v>180</v>
+        <v>245</v>
       </c>
       <c r="C19" s="133">
         <v>0</v>
@@ -8385,7 +8382,7 @@
     </row>
     <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="90" t="s">
-        <v>200</v>
+        <v>246</v>
       </c>
       <c r="C20" s="133">
         <v>0</v>
@@ -8429,7 +8426,7 @@
     </row>
     <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="91" t="s">
-        <v>54</v>
+        <v>3</v>
       </c>
       <c r="C21" s="133">
         <v>0</v>
@@ -8473,7 +8470,7 @@
     </row>
     <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="52" t="s">
-        <v>84</v>
+        <v>251</v>
       </c>
       <c r="C22" s="133">
         <v>0</v>
@@ -8517,7 +8514,7 @@
     </row>
     <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="52" t="s">
-        <v>83</v>
+        <v>252</v>
       </c>
       <c r="C23" s="133">
         <v>0</v>
@@ -8561,7 +8558,7 @@
     </row>
     <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="52" t="s">
-        <v>56</v>
+        <v>254</v>
       </c>
       <c r="C24" s="133">
         <v>0</v>
@@ -8621,10 +8618,10 @@
     </row>
     <row r="26" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="56" t="s">
-        <v>34</v>
+        <v>150</v>
       </c>
       <c r="B26" s="52" t="s">
-        <v>190</v>
+        <v>237</v>
       </c>
       <c r="C26" s="133">
         <v>0</v>
@@ -8669,7 +8666,7 @@
     </row>
     <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="59" t="s">
-        <v>181</v>
+        <v>241</v>
       </c>
       <c r="C27" s="133">
         <v>0</v>
@@ -8714,7 +8711,7 @@
     <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="56"/>
       <c r="B28" s="59" t="s">
-        <v>199</v>
+        <v>242</v>
       </c>
       <c r="C28" s="133">
         <v>0</v>
@@ -8758,7 +8755,7 @@
     </row>
     <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="59" t="s">
-        <v>182</v>
+        <v>243</v>
       </c>
       <c r="C29" s="133">
         <v>0</v>
@@ -8802,7 +8799,7 @@
     </row>
     <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="59" t="s">
-        <v>183</v>
+        <v>244</v>
       </c>
       <c r="C30" s="133">
         <v>0</v>
@@ -8862,10 +8859,10 @@
     </row>
     <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="56" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="B32" s="52" t="s">
-        <v>271</v>
+        <v>238</v>
       </c>
       <c r="C32" s="133">
         <v>1</v>
@@ -8909,7 +8906,7 @@
     </row>
     <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="52" t="s">
-        <v>60</v>
+        <v>239</v>
       </c>
       <c r="C33" s="133">
         <v>1</v>
@@ -8953,7 +8950,7 @@
     </row>
     <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="52" t="s">
-        <v>59</v>
+        <v>240</v>
       </c>
       <c r="C34" s="133">
         <v>1</v>
@@ -8997,7 +8994,7 @@
     </row>
     <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="52" t="s">
-        <v>44</v>
+        <v>247</v>
       </c>
       <c r="C35" s="133">
         <v>1</v>
@@ -9041,7 +9038,7 @@
     </row>
     <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="52" t="s">
-        <v>31</v>
+        <v>250</v>
       </c>
       <c r="C36" s="133">
         <v>1</v>
@@ -9086,7 +9083,7 @@
     <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="93"/>
       <c r="B37" s="52" t="s">
-        <v>79</v>
+        <v>258</v>
       </c>
       <c r="C37" s="133">
         <v>1</v>
@@ -9130,7 +9127,7 @@
     </row>
     <row r="38" spans="1:15" s="93" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="52" t="s">
-        <v>78</v>
+        <v>259</v>
       </c>
       <c r="C38" s="133">
         <v>1</v>
@@ -9174,7 +9171,7 @@
     </row>
     <row r="39" spans="1:15" s="93" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="52" t="s">
-        <v>77</v>
+        <v>260</v>
       </c>
       <c r="C39" s="133">
         <v>1</v>
@@ -9218,7 +9215,7 @@
     </row>
     <row r="40" spans="1:15" s="93" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="52" t="s">
-        <v>75</v>
+        <v>261</v>
       </c>
       <c r="C40" s="133">
         <v>1</v>
@@ -9262,7 +9259,7 @@
     </row>
     <row r="41" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="52" t="s">
-        <v>76</v>
+        <v>262</v>
       </c>
       <c r="C41" s="133">
         <v>1</v>
@@ -9305,7 +9302,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="j73OHxntvUwyyA9GkCcm7m6zvaBp8K/SzlalRmvI4NWSSY6QnmRkHRpA2IcIZblKJXFuHudT27rbsLVlE9C7cA==" saltValue="4YbXR98SG5UX6FbuwpDVug==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="U0cgQLie2t9B/olQuuE3WR0ifdyuyt6NOp8b9pXaKjWxC2FTQPiAOv83RJUtydGnP3WvNnWJ9tq6hRj0LiVlJA==" saltValue="R8HF3RYw/yHSxR31pij8wQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -9338,42 +9335,42 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
-        <v>65</v>
+        <v>226</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>204</v>
+        <v>30</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>66</v>
+        <v>196</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>205</v>
+        <v>31</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>206</v>
+        <v>32</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>22</v>
+        <v>203</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>67</v>
+        <v>161</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>70</v>
+        <v>121</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>207</v>
+        <v>33</v>
       </c>
       <c r="J1" s="35" t="s">
-        <v>189</v>
+        <v>114</v>
       </c>
       <c r="K1" s="35" t="s">
-        <v>208</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="52" t="s">
-        <v>26</v>
+        <v>233</v>
       </c>
       <c r="B2" s="133"/>
       <c r="C2" s="133"/>
@@ -9383,14 +9380,14 @@
       <c r="G2" s="133"/>
       <c r="H2" s="133"/>
       <c r="I2" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="J2" s="133"/>
       <c r="K2" s="133"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="52" t="s">
-        <v>82</v>
+        <v>234</v>
       </c>
       <c r="B3" s="133"/>
       <c r="C3" s="133"/>
@@ -9399,7 +9396,7 @@
       <c r="F3" s="133"/>
       <c r="G3" s="133"/>
       <c r="H3" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="I3" s="133"/>
       <c r="J3" s="133"/>
@@ -9407,12 +9404,12 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="52" t="s">
-        <v>58</v>
+        <v>235</v>
       </c>
       <c r="B4" s="133"/>
       <c r="C4" s="133"/>
       <c r="D4" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="E4" s="133"/>
       <c r="F4" s="133"/>
@@ -9424,11 +9421,11 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="52" t="s">
-        <v>142</v>
+        <v>236</v>
       </c>
       <c r="B5" s="133"/>
       <c r="C5" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D5" s="133"/>
       <c r="E5" s="133"/>
@@ -9441,7 +9438,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="52" t="s">
-        <v>190</v>
+        <v>237</v>
       </c>
       <c r="B6" s="133"/>
       <c r="C6" s="133"/>
@@ -9452,26 +9449,26 @@
       <c r="H6" s="133"/>
       <c r="I6" s="133"/>
       <c r="J6" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="K6" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="52" t="s">
-        <v>271</v>
+        <v>238</v>
       </c>
       <c r="B7" s="133"/>
       <c r="C7" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D7" s="133"/>
       <c r="E7" s="133"/>
       <c r="F7" s="133"/>
       <c r="G7" s="133"/>
       <c r="H7" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="I7" s="133"/>
       <c r="J7" s="133"/>
@@ -9479,18 +9476,18 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="52" t="s">
-        <v>60</v>
+        <v>239</v>
       </c>
       <c r="B8" s="133"/>
       <c r="C8" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D8" s="133"/>
       <c r="E8" s="133"/>
       <c r="F8" s="133"/>
       <c r="G8" s="133"/>
       <c r="H8" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="I8" s="133"/>
       <c r="J8" s="133"/>
@@ -9498,18 +9495,18 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="52" t="s">
-        <v>59</v>
+        <v>240</v>
       </c>
       <c r="B9" s="133"/>
       <c r="C9" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D9" s="133"/>
       <c r="E9" s="133"/>
       <c r="F9" s="133"/>
       <c r="G9" s="133"/>
       <c r="H9" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="I9" s="133"/>
       <c r="J9" s="133"/>
@@ -9517,11 +9514,11 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="59" t="s">
-        <v>181</v>
+        <v>241</v>
       </c>
       <c r="B10" s="133"/>
       <c r="C10" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D10" s="133"/>
       <c r="E10" s="133"/>
@@ -9534,11 +9531,11 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="59" t="s">
-        <v>199</v>
+        <v>242</v>
       </c>
       <c r="B11" s="133"/>
       <c r="C11" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D11" s="133"/>
       <c r="E11" s="133"/>
@@ -9551,11 +9548,11 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="59" t="s">
-        <v>182</v>
+        <v>243</v>
       </c>
       <c r="B12" s="133"/>
       <c r="C12" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D12" s="133"/>
       <c r="E12" s="133"/>
@@ -9568,11 +9565,11 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="59" t="s">
-        <v>183</v>
+        <v>244</v>
       </c>
       <c r="B13" s="133"/>
       <c r="C13" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D13" s="133"/>
       <c r="E13" s="133"/>
@@ -9585,11 +9582,11 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="90" t="s">
-        <v>180</v>
+        <v>245</v>
       </c>
       <c r="B14" s="133"/>
       <c r="C14" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D14" s="133"/>
       <c r="E14" s="133"/>
@@ -9597,18 +9594,18 @@
       <c r="G14" s="133"/>
       <c r="H14" s="133"/>
       <c r="I14" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="J14" s="133"/>
       <c r="K14" s="133"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="90" t="s">
-        <v>200</v>
+        <v>246</v>
       </c>
       <c r="B15" s="133"/>
       <c r="C15" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D15" s="133"/>
       <c r="E15" s="133"/>
@@ -9616,39 +9613,39 @@
       <c r="G15" s="133"/>
       <c r="H15" s="133"/>
       <c r="I15" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="J15" s="133"/>
       <c r="K15" s="133"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="52" t="s">
-        <v>54</v>
+        <v>3</v>
       </c>
       <c r="B16" s="133"/>
       <c r="C16" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D16" s="133"/>
       <c r="E16" s="133"/>
       <c r="F16" s="133"/>
       <c r="G16" s="133"/>
       <c r="H16" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="I16" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="J16" s="133"/>
       <c r="K16" s="133"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="52" t="s">
-        <v>44</v>
+        <v>247</v>
       </c>
       <c r="B17" s="133"/>
       <c r="C17" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D17" s="133"/>
       <c r="E17" s="133"/>
@@ -9661,16 +9658,16 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="52" t="s">
-        <v>166</v>
+        <v>224</v>
       </c>
       <c r="B18" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="C18" s="133"/>
       <c r="D18" s="133"/>
       <c r="E18" s="133"/>
       <c r="F18" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="G18" s="133"/>
       <c r="H18" s="133"/>
@@ -9680,16 +9677,16 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="52" t="s">
-        <v>191</v>
+        <v>225</v>
       </c>
       <c r="B19" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="C19" s="133"/>
       <c r="D19" s="133"/>
       <c r="E19" s="133"/>
       <c r="F19" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="G19" s="133"/>
       <c r="H19" s="133"/>
@@ -9699,16 +9696,16 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="52" t="s">
-        <v>192</v>
+        <v>28</v>
       </c>
       <c r="B20" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="C20" s="133"/>
       <c r="D20" s="133"/>
       <c r="E20" s="133"/>
       <c r="F20" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="G20" s="133"/>
       <c r="H20" s="133"/>
@@ -9718,7 +9715,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="52" t="s">
-        <v>188</v>
+        <v>248</v>
       </c>
       <c r="B21" s="133"/>
       <c r="C21" s="133"/>
@@ -9727,26 +9724,26 @@
       <c r="F21" s="133"/>
       <c r="G21" s="133"/>
       <c r="H21" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="I21" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="J21" s="133"/>
       <c r="K21" s="133"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="52" t="s">
-        <v>129</v>
+        <v>249</v>
       </c>
       <c r="B22" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="C22" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D22" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="E22" s="133"/>
       <c r="F22" s="133"/>
@@ -9758,11 +9755,11 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="52" t="s">
-        <v>31</v>
+        <v>250</v>
       </c>
       <c r="B23" s="133"/>
       <c r="C23" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D23" s="133"/>
       <c r="E23" s="133"/>
@@ -9770,14 +9767,14 @@
       <c r="G23" s="133"/>
       <c r="H23" s="133"/>
       <c r="I23" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="J23" s="133"/>
       <c r="K23" s="133"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="52" t="s">
-        <v>84</v>
+        <v>251</v>
       </c>
       <c r="B24" s="133"/>
       <c r="C24" s="133"/>
@@ -9786,7 +9783,7 @@
       <c r="F24" s="133"/>
       <c r="G24" s="133"/>
       <c r="H24" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="I24" s="133"/>
       <c r="J24" s="133"/>
@@ -9794,7 +9791,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="52" t="s">
-        <v>83</v>
+        <v>252</v>
       </c>
       <c r="B25" s="133"/>
       <c r="C25" s="133"/>
@@ -9803,7 +9800,7 @@
       <c r="F25" s="133"/>
       <c r="G25" s="133"/>
       <c r="H25" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="I25" s="133"/>
       <c r="J25" s="133"/>
@@ -9811,11 +9808,11 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="52" t="s">
-        <v>130</v>
+        <v>253</v>
       </c>
       <c r="B26" s="133"/>
       <c r="C26" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D26" s="133"/>
       <c r="E26" s="133"/>
@@ -9828,11 +9825,11 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="52" t="s">
-        <v>56</v>
+        <v>254</v>
       </c>
       <c r="B27" s="133"/>
       <c r="C27" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D27" s="133"/>
       <c r="E27" s="133"/>
@@ -9840,14 +9837,14 @@
       <c r="G27" s="133"/>
       <c r="H27" s="133"/>
       <c r="I27" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="J27" s="133"/>
       <c r="K27" s="133"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="52" t="s">
-        <v>80</v>
+        <v>255</v>
       </c>
       <c r="B28" s="133"/>
       <c r="C28" s="133"/>
@@ -9856,7 +9853,7 @@
       <c r="F28" s="133"/>
       <c r="G28" s="133"/>
       <c r="H28" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="I28" s="133"/>
       <c r="J28" s="133"/>
@@ -9864,14 +9861,14 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="52" t="s">
-        <v>55</v>
+        <v>256</v>
       </c>
       <c r="B29" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="C29" s="133"/>
       <c r="D29" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="E29" s="133"/>
       <c r="F29" s="133"/>
@@ -9883,13 +9880,13 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="52" t="s">
-        <v>63</v>
+        <v>227</v>
       </c>
       <c r="B30" s="133"/>
       <c r="C30" s="133"/>
       <c r="D30" s="133"/>
       <c r="E30" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="F30" s="133"/>
       <c r="G30" s="133"/>
@@ -9900,7 +9897,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="52" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="B31" s="133"/>
       <c r="C31" s="133"/>
@@ -9908,10 +9905,10 @@
       <c r="E31" s="133"/>
       <c r="F31" s="133"/>
       <c r="G31" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="H31" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="I31" s="133"/>
       <c r="J31" s="133"/>
@@ -9919,7 +9916,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="52" t="s">
-        <v>79</v>
+        <v>258</v>
       </c>
       <c r="B32" s="133"/>
       <c r="C32" s="133"/>
@@ -9927,10 +9924,10 @@
       <c r="E32" s="133"/>
       <c r="F32" s="133"/>
       <c r="G32" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="H32" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="I32" s="133"/>
       <c r="J32" s="133"/>
@@ -9938,7 +9935,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="52" t="s">
-        <v>78</v>
+        <v>259</v>
       </c>
       <c r="B33" s="133"/>
       <c r="C33" s="133"/>
@@ -9946,10 +9943,10 @@
       <c r="E33" s="133"/>
       <c r="F33" s="133"/>
       <c r="G33" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="H33" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="I33" s="133"/>
       <c r="J33" s="133"/>
@@ -9957,7 +9954,7 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="52" t="s">
-        <v>77</v>
+        <v>260</v>
       </c>
       <c r="B34" s="133"/>
       <c r="C34" s="133"/>
@@ -9965,10 +9962,10 @@
       <c r="E34" s="133"/>
       <c r="F34" s="133"/>
       <c r="G34" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="H34" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="I34" s="133"/>
       <c r="J34" s="133"/>
@@ -9976,7 +9973,7 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="52" t="s">
-        <v>75</v>
+        <v>261</v>
       </c>
       <c r="B35" s="133"/>
       <c r="C35" s="133"/>
@@ -9984,10 +9981,10 @@
       <c r="E35" s="133"/>
       <c r="F35" s="133"/>
       <c r="G35" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="H35" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="I35" s="133"/>
       <c r="J35" s="133"/>
@@ -9995,7 +9992,7 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="52" t="s">
-        <v>76</v>
+        <v>262</v>
       </c>
       <c r="B36" s="133"/>
       <c r="C36" s="133"/>
@@ -10003,10 +10000,10 @@
       <c r="E36" s="133"/>
       <c r="F36" s="133"/>
       <c r="G36" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="H36" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="I36" s="133"/>
       <c r="J36" s="133"/>
@@ -10014,7 +10011,7 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="52" t="s">
-        <v>81</v>
+        <v>263</v>
       </c>
       <c r="B37" s="133"/>
       <c r="C37" s="133"/>
@@ -10023,7 +10020,7 @@
       <c r="F37" s="133"/>
       <c r="G37" s="133"/>
       <c r="H37" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="I37" s="133"/>
       <c r="J37" s="133"/>
@@ -10031,27 +10028,27 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="52" t="s">
-        <v>57</v>
+        <v>264</v>
       </c>
       <c r="B38" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="C38" s="133"/>
       <c r="D38" s="133"/>
       <c r="E38" s="133"/>
       <c r="F38" s="133"/>
       <c r="G38" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="H38" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="I38" s="133"/>
       <c r="J38" s="133"/>
       <c r="K38" s="133"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="u9+bGgbkxyThRJ9ewn7guQId+k/kFZ2P4DaHBl+TOkLygD+jIB4BurhJkQY3lZOq3RcuA6HXEF/6N1dDnAM4ig==" saltValue="X2UrRxWJ8DZjT+XApKnAJA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="JjYdjFXM9y5XWWtt16biE6zKDkiELTdGqTWCP9cblB6vKik4ywZ1xJO+QqoBTyxBMkSbjfg58aeZMGQ3e+OOog==" saltValue="pRUCVkwhe3nU7QYd/fN0vg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10084,63 +10081,63 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
-        <v>209</v>
+        <v>35</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>204</v>
+        <v>30</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>66</v>
+        <v>196</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>205</v>
+        <v>31</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>206</v>
+        <v>32</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>22</v>
+        <v>203</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>67</v>
+        <v>161</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>70</v>
+        <v>121</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>207</v>
+        <v>33</v>
       </c>
       <c r="J1" s="35" t="s">
-        <v>189</v>
+        <v>114</v>
       </c>
       <c r="K1" s="35" t="s">
-        <v>208</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="35" t="s">
-        <v>1</v>
+        <v>184</v>
       </c>
       <c r="B2" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="C2" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D2" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="E2" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="F2" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="G2" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="H2" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="I2" s="133"/>
       <c r="J2" s="133"/>
@@ -10148,28 +10145,28 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="35" t="s">
-        <v>2</v>
+        <v>170</v>
       </c>
       <c r="B3" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="C3" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D3" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="E3" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="F3" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="G3" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="H3" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="I3" s="133"/>
       <c r="J3" s="133"/>
@@ -10177,28 +10174,28 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="35" t="s">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="B4" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="C4" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D4" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="E4" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="F4" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="G4" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="H4" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="I4" s="133"/>
       <c r="J4" s="133"/>
@@ -10206,28 +10203,28 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="35" t="s">
-        <v>269</v>
+        <v>172</v>
       </c>
       <c r="B5" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="C5" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D5" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="E5" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="F5" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="G5" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="H5" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="I5" s="133"/>
       <c r="J5" s="133"/>
@@ -10235,28 +10232,28 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="35" t="s">
-        <v>4</v>
+        <v>173</v>
       </c>
       <c r="B6" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="C6" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D6" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="E6" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="F6" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="G6" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="H6" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="I6" s="133"/>
       <c r="J6" s="133"/>
@@ -10264,95 +10261,95 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="35" t="s">
-        <v>50</v>
+        <v>197</v>
       </c>
       <c r="B7" s="133"/>
       <c r="C7" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D7" s="133"/>
       <c r="E7" s="133"/>
       <c r="F7" s="133"/>
       <c r="G7" s="133"/>
       <c r="H7" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="I7" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="J7" s="133"/>
       <c r="K7" s="133"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="35" t="s">
-        <v>51</v>
+        <v>198</v>
       </c>
       <c r="B8" s="133"/>
       <c r="C8" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D8" s="133"/>
       <c r="E8" s="133"/>
       <c r="F8" s="133"/>
       <c r="G8" s="133"/>
       <c r="H8" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="I8" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="J8" s="133"/>
       <c r="K8" s="133"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="35" t="s">
-        <v>52</v>
+        <v>199</v>
       </c>
       <c r="B9" s="133"/>
       <c r="C9" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D9" s="133"/>
       <c r="E9" s="133"/>
       <c r="F9" s="133"/>
       <c r="G9" s="133"/>
       <c r="H9" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="I9" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="J9" s="133"/>
       <c r="K9" s="133"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="35" t="s">
-        <v>53</v>
+        <v>200</v>
       </c>
       <c r="B10" s="133"/>
       <c r="C10" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D10" s="133"/>
       <c r="E10" s="133"/>
       <c r="F10" s="133"/>
       <c r="G10" s="133"/>
       <c r="H10" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="I10" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="J10" s="133"/>
       <c r="K10" s="133"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="35" t="s">
-        <v>46</v>
+        <v>144</v>
       </c>
       <c r="B11" s="133"/>
       <c r="C11" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D11" s="133"/>
       <c r="E11" s="133"/>
@@ -10361,19 +10358,19 @@
       <c r="H11" s="133"/>
       <c r="I11" s="133"/>
       <c r="J11" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="K11" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="35" t="s">
-        <v>47</v>
+        <v>145</v>
       </c>
       <c r="B12" s="133"/>
       <c r="C12" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D12" s="133"/>
       <c r="E12" s="133"/>
@@ -10383,16 +10380,16 @@
       <c r="I12" s="133"/>
       <c r="J12" s="133"/>
       <c r="K12" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="35" t="s">
-        <v>48</v>
+        <v>146</v>
       </c>
       <c r="B13" s="133"/>
       <c r="C13" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D13" s="133"/>
       <c r="E13" s="133"/>
@@ -10402,16 +10399,16 @@
       <c r="I13" s="133"/>
       <c r="J13" s="133"/>
       <c r="K13" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="35" t="s">
-        <v>49</v>
+        <v>147</v>
       </c>
       <c r="B14" s="133"/>
       <c r="C14" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D14" s="133"/>
       <c r="E14" s="133"/>
@@ -10421,11 +10418,11 @@
       <c r="I14" s="133"/>
       <c r="J14" s="133"/>
       <c r="K14" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="fAhiq6/cgyZmwl21/X4wJdP/PuYR22thYGbCX6iu0/0U2QuNr2dOl1wtXhbifqAg/Tncah57hNJniR3jBPC3jg==" saltValue="eWJqkpSSO11+XEuODRB7PQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="02ZYSOMkH4cpIvEZre9ixEX9/myW2TXnPgLfHe/oU72Qzj4m3FmKeogZW5aDbMFBNDERKdG7nhKRIxQPB7EzHQ==" saltValue="GNH2RrpxqbhIb5HeUL2ytg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10451,39 +10448,39 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
-        <v>210</v>
+        <v>36</v>
       </c>
       <c r="B1" s="40" t="s">
+        <v>219</v>
+      </c>
+      <c r="C1" s="40" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1" s="40" t="s">
+        <v>184</v>
+      </c>
+      <c r="E1" s="40" t="s">
         <v>170</v>
       </c>
-      <c r="C1" s="40" t="s">
-        <v>178</v>
-      </c>
-      <c r="D1" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="40" t="s">
-        <v>2</v>
-      </c>
       <c r="F1" s="40" t="s">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="G1" s="40" t="s">
-        <v>269</v>
+        <v>172</v>
       </c>
       <c r="H1" s="94" t="s">
-        <v>4</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="40" t="s">
-        <v>211</v>
+        <v>37</v>
       </c>
       <c r="B2" s="137" t="s">
-        <v>29</v>
+        <v>174</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>169</v>
+        <v>220</v>
       </c>
       <c r="D2" s="134">
         <v>1</v>
@@ -10504,7 +10501,7 @@
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" s="137"/>
       <c r="C3" s="35" t="s">
-        <v>168</v>
+        <v>221</v>
       </c>
       <c r="D3" s="134">
         <v>1</v>
@@ -10526,7 +10523,7 @@
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" s="137"/>
       <c r="C4" s="35" t="s">
-        <v>167</v>
+        <v>222</v>
       </c>
       <c r="D4" s="134">
         <v>1</v>
@@ -10547,10 +10544,10 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" s="137" t="s">
-        <v>1</v>
+        <v>184</v>
       </c>
       <c r="C5" s="35" t="s">
-        <v>169</v>
+        <v>220</v>
       </c>
       <c r="D5" s="134">
         <f>5.16</f>
@@ -10572,7 +10569,7 @@
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6" s="137"/>
       <c r="C6" s="35" t="s">
-        <v>168</v>
+        <v>221</v>
       </c>
       <c r="D6" s="134">
         <v>5.16</v>
@@ -10593,7 +10590,7 @@
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" s="137"/>
       <c r="C7" s="35" t="s">
-        <v>167</v>
+        <v>222</v>
       </c>
       <c r="D7" s="134">
         <v>1</v>
@@ -10613,10 +10610,10 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8" s="137" t="s">
-        <v>2</v>
+        <v>170</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>169</v>
+        <v>220</v>
       </c>
       <c r="D8" s="134">
         <v>1</v>
@@ -10637,7 +10634,7 @@
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9" s="137"/>
       <c r="C9" s="35" t="s">
-        <v>168</v>
+        <v>221</v>
       </c>
       <c r="D9" s="134">
         <v>1</v>
@@ -10658,7 +10655,7 @@
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B10" s="137"/>
       <c r="C10" s="35" t="s">
-        <v>167</v>
+        <v>222</v>
       </c>
       <c r="D10" s="134">
         <v>1</v>
@@ -10678,10 +10675,10 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B11" s="137" t="s">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="C11" s="35" t="s">
-        <v>169</v>
+        <v>220</v>
       </c>
       <c r="D11" s="134">
         <v>1</v>
@@ -10702,7 +10699,7 @@
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B12" s="137"/>
       <c r="C12" s="35" t="s">
-        <v>168</v>
+        <v>221</v>
       </c>
       <c r="D12" s="134">
         <v>1</v>
@@ -10723,7 +10720,7 @@
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B13" s="137"/>
       <c r="C13" s="35" t="s">
-        <v>167</v>
+        <v>222</v>
       </c>
       <c r="D13" s="134">
         <v>1</v>
@@ -10743,10 +10740,10 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B14" s="137" t="s">
-        <v>269</v>
+        <v>172</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>169</v>
+        <v>220</v>
       </c>
       <c r="D14" s="134">
         <v>1</v>
@@ -10767,7 +10764,7 @@
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B15" s="137"/>
       <c r="C15" s="35" t="s">
-        <v>168</v>
+        <v>221</v>
       </c>
       <c r="D15" s="134">
         <v>1</v>
@@ -10788,7 +10785,7 @@
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B16" s="137"/>
       <c r="C16" s="35" t="s">
-        <v>167</v>
+        <v>222</v>
       </c>
       <c r="D16" s="134">
         <v>1</v>
@@ -10808,10 +10805,10 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B17" s="96" t="s">
-        <v>165</v>
+        <v>223</v>
       </c>
       <c r="C17" s="35" t="s">
-        <v>167</v>
+        <v>222</v>
       </c>
       <c r="D17" s="134">
         <v>1.05</v>
@@ -10838,13 +10835,13 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="40" t="s">
-        <v>212</v>
+        <v>38</v>
       </c>
       <c r="B19" s="137" t="s">
-        <v>29</v>
+        <v>174</v>
       </c>
       <c r="C19" s="35" t="s">
-        <v>169</v>
+        <v>220</v>
       </c>
       <c r="D19" s="134">
         <v>1</v>
@@ -10865,7 +10862,7 @@
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B20" s="137"/>
       <c r="C20" s="35" t="s">
-        <v>168</v>
+        <v>221</v>
       </c>
       <c r="D20" s="134">
         <v>1</v>
@@ -10886,7 +10883,7 @@
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B21" s="137"/>
       <c r="C21" s="35" t="s">
-        <v>167</v>
+        <v>222</v>
       </c>
       <c r="D21" s="134">
         <v>1</v>
@@ -10906,10 +10903,10 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B22" s="137" t="s">
-        <v>1</v>
+        <v>184</v>
       </c>
       <c r="C22" s="35" t="s">
-        <v>169</v>
+        <v>220</v>
       </c>
       <c r="D22" s="134">
         <v>1</v>
@@ -10930,7 +10927,7 @@
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B23" s="137"/>
       <c r="C23" s="35" t="s">
-        <v>168</v>
+        <v>221</v>
       </c>
       <c r="D23" s="134">
         <v>1</v>
@@ -10951,7 +10948,7 @@
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B24" s="137"/>
       <c r="C24" s="35" t="s">
-        <v>167</v>
+        <v>222</v>
       </c>
       <c r="D24" s="134">
         <v>1</v>
@@ -10971,10 +10968,10 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B25" s="137" t="s">
-        <v>2</v>
+        <v>170</v>
       </c>
       <c r="C25" s="35" t="s">
-        <v>169</v>
+        <v>220</v>
       </c>
       <c r="D25" s="134">
         <v>1</v>
@@ -10995,7 +10992,7 @@
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B26" s="137"/>
       <c r="C26" s="35" t="s">
-        <v>168</v>
+        <v>221</v>
       </c>
       <c r="D26" s="134">
         <v>1</v>
@@ -11016,7 +11013,7 @@
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B27" s="137"/>
       <c r="C27" s="35" t="s">
-        <v>167</v>
+        <v>222</v>
       </c>
       <c r="D27" s="134">
         <v>1</v>
@@ -11036,10 +11033,10 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B28" s="137" t="s">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="C28" s="35" t="s">
-        <v>169</v>
+        <v>220</v>
       </c>
       <c r="D28" s="134">
         <v>1</v>
@@ -11060,7 +11057,7 @@
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B29" s="137"/>
       <c r="C29" s="35" t="s">
-        <v>168</v>
+        <v>221</v>
       </c>
       <c r="D29" s="134">
         <v>1</v>
@@ -11081,7 +11078,7 @@
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B30" s="137"/>
       <c r="C30" s="35" t="s">
-        <v>167</v>
+        <v>222</v>
       </c>
       <c r="D30" s="134">
         <v>1</v>
@@ -11101,10 +11098,10 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B31" s="137" t="s">
-        <v>269</v>
+        <v>172</v>
       </c>
       <c r="C31" s="35" t="s">
-        <v>169</v>
+        <v>220</v>
       </c>
       <c r="D31" s="134">
         <v>1</v>
@@ -11125,7 +11122,7 @@
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B32" s="137"/>
       <c r="C32" s="35" t="s">
-        <v>168</v>
+        <v>221</v>
       </c>
       <c r="D32" s="134">
         <v>1</v>
@@ -11146,7 +11143,7 @@
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B33" s="137"/>
       <c r="C33" s="35" t="s">
-        <v>167</v>
+        <v>222</v>
       </c>
       <c r="D33" s="134">
         <v>1</v>
@@ -11166,10 +11163,10 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B34" s="96" t="s">
-        <v>165</v>
+        <v>223</v>
       </c>
       <c r="C34" s="35" t="s">
-        <v>167</v>
+        <v>222</v>
       </c>
       <c r="D34" s="134">
         <v>1</v>
@@ -11196,13 +11193,13 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="97" t="s">
-        <v>213</v>
+        <v>39</v>
       </c>
       <c r="B36" s="137" t="s">
-        <v>29</v>
+        <v>174</v>
       </c>
       <c r="C36" s="35" t="s">
-        <v>169</v>
+        <v>220</v>
       </c>
       <c r="D36" s="134">
         <v>1</v>
@@ -11223,7 +11220,7 @@
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B37" s="137"/>
       <c r="C37" s="35" t="s">
-        <v>168</v>
+        <v>221</v>
       </c>
       <c r="D37" s="134">
         <v>1</v>
@@ -11244,7 +11241,7 @@
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B38" s="137"/>
       <c r="C38" s="35" t="s">
-        <v>167</v>
+        <v>222</v>
       </c>
       <c r="D38" s="134">
         <v>1</v>
@@ -11264,10 +11261,10 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B39" s="137" t="s">
-        <v>1</v>
+        <v>184</v>
       </c>
       <c r="C39" s="35" t="s">
-        <v>169</v>
+        <v>220</v>
       </c>
       <c r="D39" s="134">
         <v>1</v>
@@ -11288,7 +11285,7 @@
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B40" s="137"/>
       <c r="C40" s="35" t="s">
-        <v>168</v>
+        <v>221</v>
       </c>
       <c r="D40" s="134">
         <v>1</v>
@@ -11309,7 +11306,7 @@
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B41" s="137"/>
       <c r="C41" s="35" t="s">
-        <v>167</v>
+        <v>222</v>
       </c>
       <c r="D41" s="134">
         <v>1</v>
@@ -11329,10 +11326,10 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B42" s="137" t="s">
-        <v>2</v>
+        <v>170</v>
       </c>
       <c r="C42" s="35" t="s">
-        <v>169</v>
+        <v>220</v>
       </c>
       <c r="D42" s="134">
         <v>1</v>
@@ -11353,7 +11350,7 @@
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B43" s="137"/>
       <c r="C43" s="35" t="s">
-        <v>168</v>
+        <v>221</v>
       </c>
       <c r="D43" s="134">
         <v>1</v>
@@ -11374,7 +11371,7 @@
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B44" s="137"/>
       <c r="C44" s="35" t="s">
-        <v>167</v>
+        <v>222</v>
       </c>
       <c r="D44" s="134">
         <v>1</v>
@@ -11394,10 +11391,10 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B45" s="137" t="s">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="C45" s="35" t="s">
-        <v>169</v>
+        <v>220</v>
       </c>
       <c r="D45" s="134">
         <v>1</v>
@@ -11418,7 +11415,7 @@
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B46" s="137"/>
       <c r="C46" s="35" t="s">
-        <v>168</v>
+        <v>221</v>
       </c>
       <c r="D46" s="134">
         <v>1</v>
@@ -11439,7 +11436,7 @@
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B47" s="137"/>
       <c r="C47" s="35" t="s">
-        <v>167</v>
+        <v>222</v>
       </c>
       <c r="D47" s="134">
         <v>1</v>
@@ -11459,10 +11456,10 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B48" s="137" t="s">
-        <v>269</v>
+        <v>172</v>
       </c>
       <c r="C48" s="35" t="s">
-        <v>169</v>
+        <v>220</v>
       </c>
       <c r="D48" s="134">
         <v>1</v>
@@ -11483,7 +11480,7 @@
     <row r="49" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B49" s="137"/>
       <c r="C49" s="35" t="s">
-        <v>168</v>
+        <v>221</v>
       </c>
       <c r="D49" s="134">
         <v>1</v>
@@ -11504,7 +11501,7 @@
     <row r="50" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B50" s="137"/>
       <c r="C50" s="35" t="s">
-        <v>167</v>
+        <v>222</v>
       </c>
       <c r="D50" s="134">
         <v>1</v>
@@ -11524,10 +11521,10 @@
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B51" s="98" t="s">
-        <v>165</v>
+        <v>223</v>
       </c>
       <c r="C51" s="35" t="s">
-        <v>167</v>
+        <v>222</v>
       </c>
       <c r="D51" s="134">
         <v>1.05</v>
@@ -11546,7 +11543,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="m6XxuxS7SdeFEpzVR9h6UupL9ATCnFflMNb+AsRQBRH8QU3gDucg6wToj1cxXxZ+6TlNtikEAUf9wkruW2FuuQ==" saltValue="3V0MUoy2sHv6Yg4MFiTvUA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="gaJhmVVHPgoKFwnWiY7ujlnUeHksTdFwEdKValiPBT00Kg0wkwaEJgTi4JCceSD/V+uNvyONzeCh19UaA9YnPw==" saltValue="HhDlErbx5RqhYRCu3IfP5A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="B2:B4"/>
@@ -11589,31 +11586,31 @@
   <sheetData>
     <row r="1" spans="1:9" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="31" t="s">
-        <v>0</v>
+        <v>142</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>106</v>
+        <v>143</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>46</v>
+        <v>144</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>47</v>
+        <v>145</v>
       </c>
       <c r="E1" s="23" t="s">
-        <v>48</v>
+        <v>146</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>49</v>
+        <v>147</v>
       </c>
       <c r="G1" s="23" t="s">
-        <v>107</v>
+        <v>148</v>
       </c>
       <c r="H1" s="23" t="s">
-        <v>123</v>
+        <v>149</v>
       </c>
       <c r="I1" s="23" t="s">
-        <v>33</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12654,7 +12651,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="UN76aTBwFwiXcmES2DLPsCdUDYjkMFte03krw7gC3fHpMLPOaLIIX0IeRHs9OlwW8rw8azdRvFiyaECafXIDjw==" saltValue="WI04XiCqzIZ6m4qNBY50/A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="tRf//NlhWd0LHZUP2/EuTRbMdW9Jk8/byt4JgccxUaH1uf3qn2Er8P1Wey740AgGWSFi45qKE4aeJViZ4XsOGw==" saltValue="OWt8Z5sk81Ucw5uC6RGLuA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <conditionalFormatting sqref="B2:I40">
     <cfRule type="expression" dxfId="0" priority="9">
       <formula>$A2=""</formula>
@@ -12688,27 +12685,27 @@
   <sheetData>
     <row r="1" spans="1:7" s="100" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="99" t="s">
-        <v>214</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="101"/>
       <c r="C2" s="102" t="s">
-        <v>24</v>
+        <v>132</v>
       </c>
       <c r="D2" s="103" t="s">
-        <v>11</v>
+        <v>131</v>
       </c>
       <c r="E2" s="103" t="s">
-        <v>10</v>
+        <v>130</v>
       </c>
       <c r="F2" s="103" t="s">
-        <v>8</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="40" t="s">
-        <v>215</v>
+        <v>41</v>
       </c>
       <c r="B3" s="104"/>
       <c r="C3" s="105"/>
@@ -12718,7 +12715,7 @@
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="107" t="s">
-        <v>71</v>
+        <v>115</v>
       </c>
       <c r="C4" s="135">
         <v>1</v>
@@ -12735,7 +12732,7 @@
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="107" t="s">
-        <v>72</v>
+        <v>116</v>
       </c>
       <c r="C5" s="135">
         <v>1</v>
@@ -12752,7 +12749,7 @@
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="107" t="s">
-        <v>73</v>
+        <v>117</v>
       </c>
       <c r="C6" s="135">
         <v>1</v>
@@ -12769,7 +12766,7 @@
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="107" t="s">
-        <v>74</v>
+        <v>118</v>
       </c>
       <c r="C7" s="135">
         <v>1</v>
@@ -12792,7 +12789,7 @@
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="40" t="s">
-        <v>216</v>
+        <v>42</v>
       </c>
       <c r="C9" s="135">
         <v>1</v>
@@ -12817,7 +12814,7 @@
     </row>
     <row r="11" spans="1:7" s="100" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="99" t="s">
-        <v>217</v>
+        <v>43</v>
       </c>
       <c r="C11" s="110"/>
       <c r="D11" s="111"/>
@@ -12827,7 +12824,7 @@
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="40" t="s">
-        <v>218</v>
+        <v>44</v>
       </c>
       <c r="C12" s="108"/>
       <c r="D12" s="95"/>
@@ -12837,7 +12834,7 @@
     </row>
     <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="113" t="s">
-        <v>219</v>
+        <v>45</v>
       </c>
       <c r="C13" s="135">
         <v>1</v>
@@ -12855,7 +12852,7 @@
     </row>
     <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="113" t="s">
-        <v>220</v>
+        <v>46</v>
       </c>
       <c r="C14" s="135">
         <v>1</v>
@@ -12873,7 +12870,7 @@
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="113" t="s">
-        <v>221</v>
+        <v>47</v>
       </c>
       <c r="C15" s="135">
         <v>1</v>
@@ -12900,7 +12897,7 @@
     </row>
     <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="40" t="s">
-        <v>222</v>
+        <v>48</v>
       </c>
       <c r="B17" s="104"/>
       <c r="C17" s="115"/>
@@ -12911,7 +12908,7 @@
     </row>
     <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="117" t="s">
-        <v>69</v>
+        <v>152</v>
       </c>
       <c r="C18" s="135">
         <v>1</v>
@@ -12929,7 +12926,7 @@
     </row>
     <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="117" t="s">
-        <v>6</v>
+        <v>153</v>
       </c>
       <c r="C19" s="135">
         <v>1</v>
@@ -12947,7 +12944,7 @@
     </row>
     <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="117" t="s">
-        <v>7</v>
+        <v>154</v>
       </c>
       <c r="C20" s="135">
         <v>1</v>
@@ -12965,7 +12962,7 @@
     </row>
     <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="117" t="s">
-        <v>9</v>
+        <v>155</v>
       </c>
       <c r="C21" s="135">
         <v>1</v>
@@ -12983,7 +12980,7 @@
     </row>
     <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="117" t="s">
-        <v>12</v>
+        <v>156</v>
       </c>
       <c r="C22" s="135">
         <v>1</v>
@@ -13000,7 +12997,7 @@
     </row>
     <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="117" t="s">
-        <v>268</v>
+        <v>157</v>
       </c>
       <c r="C23" s="135">
         <v>1</v>
@@ -13017,7 +13014,7 @@
     </row>
     <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="117" t="s">
-        <v>25</v>
+        <v>158</v>
       </c>
       <c r="C24" s="135">
         <v>1</v>
@@ -13034,7 +13031,7 @@
     </row>
     <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="117" t="s">
-        <v>13</v>
+        <v>159</v>
       </c>
       <c r="C25" s="135">
         <v>1</v>
@@ -13056,7 +13053,7 @@
       <c r="B28" s="40"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="sdskuDhzyARuvLG01OsjF4YLvmUX94xSffp0X+c9NaAFmVpNnS8gD0o83yMIeDN57AW1e2kJYycTB0oUruD/1w==" saltValue="zUhyRrs8BXL2jOueR6rHTg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="/jRpMo2BbOHuNqXysJkwb0G/JzUXQ6bQ3OgUUZ2T3IYtUV7HVycmhCd9DXh7GLhVLmCAVvm0eMMEHYXKPw3LHg==" saltValue="sh9eYjSugJHrYcqVwU/AYA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -13086,33 +13083,33 @@
   <sheetData>
     <row r="1" spans="1:16" s="100" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="99" t="s">
-        <v>223</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="118" t="s">
-        <v>204</v>
+        <v>30</v>
       </c>
       <c r="B2" s="119" t="s">
-        <v>224</v>
+        <v>50</v>
       </c>
       <c r="C2" s="119" t="s">
-        <v>225</v>
+        <v>51</v>
       </c>
       <c r="D2" s="103" t="s">
-        <v>1</v>
+        <v>184</v>
       </c>
       <c r="E2" s="103" t="s">
-        <v>2</v>
+        <v>170</v>
       </c>
       <c r="F2" s="103" t="s">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="G2" s="103" t="s">
-        <v>269</v>
+        <v>172</v>
       </c>
       <c r="H2" s="103" t="s">
-        <v>4</v>
+        <v>173</v>
       </c>
       <c r="I2" s="120"/>
       <c r="J2" s="120"/>
@@ -13126,10 +13123,10 @@
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="40"/>
       <c r="B3" s="35" t="s">
-        <v>67</v>
+        <v>161</v>
       </c>
       <c r="C3" s="43" t="s">
-        <v>226</v>
+        <v>52</v>
       </c>
       <c r="D3" s="135">
         <v>1</v>
@@ -13157,7 +13154,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C4" s="43" t="s">
-        <v>227</v>
+        <v>53</v>
       </c>
       <c r="D4" s="136">
         <v>1</v>
@@ -13185,7 +13182,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C5" s="43" t="s">
-        <v>228</v>
+        <v>54</v>
       </c>
       <c r="D5" s="136">
         <v>1</v>
@@ -13213,7 +13210,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C6" s="43" t="s">
-        <v>229</v>
+        <v>55</v>
       </c>
       <c r="D6" s="136">
         <v>1</v>
@@ -13241,10 +13238,10 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B7" s="35" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="C7" s="43" t="s">
-        <v>226</v>
+        <v>52</v>
       </c>
       <c r="D7" s="135">
         <v>1</v>
@@ -13272,7 +13269,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="43" t="s">
-        <v>227</v>
+        <v>53</v>
       </c>
       <c r="D8" s="136">
         <v>1</v>
@@ -13300,7 +13297,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="43" t="s">
-        <v>228</v>
+        <v>54</v>
       </c>
       <c r="D9" s="136">
         <v>1</v>
@@ -13328,7 +13325,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="43" t="s">
-        <v>229</v>
+        <v>55</v>
       </c>
       <c r="D10" s="136">
         <v>1</v>
@@ -13356,10 +13353,10 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B11" s="35" t="s">
-        <v>16</v>
+        <v>164</v>
       </c>
       <c r="C11" s="43" t="s">
-        <v>226</v>
+        <v>52</v>
       </c>
       <c r="D11" s="135">
         <v>1</v>
@@ -13387,7 +13384,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="43" t="s">
-        <v>227</v>
+        <v>53</v>
       </c>
       <c r="D12" s="136">
         <v>1</v>
@@ -13415,7 +13412,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="43" t="s">
-        <v>228</v>
+        <v>54</v>
       </c>
       <c r="D13" s="136">
         <v>1</v>
@@ -13443,7 +13440,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="43" t="s">
-        <v>229</v>
+        <v>55</v>
       </c>
       <c r="D14" s="136">
         <v>1</v>
@@ -13471,10 +13468,10 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B15" s="35" t="s">
-        <v>17</v>
+        <v>165</v>
       </c>
       <c r="C15" s="43" t="s">
-        <v>226</v>
+        <v>52</v>
       </c>
       <c r="D15" s="135">
         <v>1</v>
@@ -13502,7 +13499,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C16" s="43" t="s">
-        <v>227</v>
+        <v>53</v>
       </c>
       <c r="D16" s="136">
         <v>1</v>
@@ -13530,7 +13527,7 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C17" s="43" t="s">
-        <v>228</v>
+        <v>54</v>
       </c>
       <c r="D17" s="136">
         <v>1</v>
@@ -13558,7 +13555,7 @@
     </row>
     <row r="18" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" s="43" t="s">
-        <v>229</v>
+        <v>55</v>
       </c>
       <c r="D18" s="136">
         <v>1</v>
@@ -13586,10 +13583,10 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B19" s="36" t="s">
-        <v>15</v>
+        <v>163</v>
       </c>
       <c r="C19" s="43" t="s">
-        <v>226</v>
+        <v>52</v>
       </c>
       <c r="D19" s="135">
         <v>1</v>
@@ -13617,7 +13614,7 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C20" s="43" t="s">
-        <v>227</v>
+        <v>53</v>
       </c>
       <c r="D20" s="136">
         <v>1</v>
@@ -13645,7 +13642,7 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C21" s="43" t="s">
-        <v>228</v>
+        <v>54</v>
       </c>
       <c r="D21" s="136">
         <v>1</v>
@@ -13673,7 +13670,7 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C22" s="43" t="s">
-        <v>229</v>
+        <v>55</v>
       </c>
       <c r="D22" s="136">
         <v>1</v>
@@ -13701,10 +13698,10 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B23" s="36" t="s">
-        <v>21</v>
+        <v>169</v>
       </c>
       <c r="C23" s="43" t="s">
-        <v>226</v>
+        <v>52</v>
       </c>
       <c r="D23" s="135">
         <v>1</v>
@@ -13732,7 +13729,7 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C24" s="43" t="s">
-        <v>227</v>
+        <v>53</v>
       </c>
       <c r="D24" s="136">
         <v>1</v>
@@ -13760,7 +13757,7 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C25" s="43" t="s">
-        <v>228</v>
+        <v>54</v>
       </c>
       <c r="D25" s="136">
         <v>1</v>
@@ -13788,7 +13785,7 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C26" s="43" t="s">
-        <v>229</v>
+        <v>55</v>
       </c>
       <c r="D26" s="136">
         <v>1</v>
@@ -13816,33 +13813,33 @@
     </row>
     <row r="28" spans="1:16" s="100" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="99" t="s">
-        <v>230</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="121" t="s">
-        <v>231</v>
+        <v>57</v>
       </c>
       <c r="B29" s="94" t="s">
-        <v>224</v>
+        <v>50</v>
       </c>
       <c r="C29" s="94" t="s">
-        <v>232</v>
+        <v>58</v>
       </c>
       <c r="D29" s="103" t="s">
-        <v>1</v>
+        <v>184</v>
       </c>
       <c r="E29" s="103" t="s">
-        <v>2</v>
+        <v>170</v>
       </c>
       <c r="F29" s="103" t="s">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="G29" s="103" t="s">
-        <v>269</v>
+        <v>172</v>
       </c>
       <c r="H29" s="103" t="s">
-        <v>4</v>
+        <v>173</v>
       </c>
       <c r="I29" s="120"/>
       <c r="J29" s="120"/>
@@ -13856,10 +13853,10 @@
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="40"/>
       <c r="B30" s="35" t="s">
-        <v>67</v>
+        <v>161</v>
       </c>
       <c r="C30" s="43" t="s">
-        <v>226</v>
+        <v>52</v>
       </c>
       <c r="D30" s="135">
         <v>1</v>
@@ -13887,7 +13884,7 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C31" s="43" t="s">
-        <v>227</v>
+        <v>53</v>
       </c>
       <c r="D31" s="136">
         <v>1</v>
@@ -13915,7 +13912,7 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C32" s="43" t="s">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="D32" s="136">
         <v>1</v>
@@ -13943,7 +13940,7 @@
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="43" t="s">
-        <v>62</v>
+        <v>5</v>
       </c>
       <c r="D33" s="136">
         <v>1</v>
@@ -13971,10 +13968,10 @@
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B34" s="35" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="C34" s="43" t="s">
-        <v>226</v>
+        <v>52</v>
       </c>
       <c r="D34" s="135">
         <v>1</v>
@@ -14002,7 +13999,7 @@
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="43" t="s">
-        <v>227</v>
+        <v>53</v>
       </c>
       <c r="D35" s="136">
         <v>1</v>
@@ -14030,7 +14027,7 @@
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C36" s="43" t="s">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="D36" s="136">
         <v>1</v>
@@ -14058,7 +14055,7 @@
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C37" s="43" t="s">
-        <v>62</v>
+        <v>5</v>
       </c>
       <c r="D37" s="136">
         <v>1</v>
@@ -14086,10 +14083,10 @@
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B38" s="35" t="s">
-        <v>16</v>
+        <v>164</v>
       </c>
       <c r="C38" s="43" t="s">
-        <v>226</v>
+        <v>52</v>
       </c>
       <c r="D38" s="135">
         <v>1</v>
@@ -14117,7 +14114,7 @@
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="43" t="s">
-        <v>227</v>
+        <v>53</v>
       </c>
       <c r="D39" s="136">
         <v>1</v>
@@ -14145,7 +14142,7 @@
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="43" t="s">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="D40" s="136">
         <v>1</v>
@@ -14173,7 +14170,7 @@
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="43" t="s">
-        <v>62</v>
+        <v>5</v>
       </c>
       <c r="D41" s="136">
         <v>1</v>
@@ -14201,10 +14198,10 @@
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B42" s="35" t="s">
-        <v>17</v>
+        <v>165</v>
       </c>
       <c r="C42" s="43" t="s">
-        <v>226</v>
+        <v>52</v>
       </c>
       <c r="D42" s="135">
         <v>1</v>
@@ -14232,7 +14229,7 @@
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="43" t="s">
-        <v>227</v>
+        <v>53</v>
       </c>
       <c r="D43" s="136">
         <v>1</v>
@@ -14260,7 +14257,7 @@
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="43" t="s">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="D44" s="136">
         <v>1</v>
@@ -14288,7 +14285,7 @@
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="43" t="s">
-        <v>62</v>
+        <v>5</v>
       </c>
       <c r="D45" s="136">
         <v>1</v>
@@ -14316,10 +14313,10 @@
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B46" s="35" t="s">
-        <v>15</v>
+        <v>163</v>
       </c>
       <c r="C46" s="43" t="s">
-        <v>226</v>
+        <v>52</v>
       </c>
       <c r="D46" s="135">
         <v>1</v>
@@ -14347,7 +14344,7 @@
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="43" t="s">
-        <v>227</v>
+        <v>53</v>
       </c>
       <c r="D47" s="136">
         <v>1</v>
@@ -14375,7 +14372,7 @@
     </row>
     <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="43" t="s">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="D48" s="136">
         <v>1</v>
@@ -14403,7 +14400,7 @@
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C49" s="43" t="s">
-        <v>62</v>
+        <v>5</v>
       </c>
       <c r="D49" s="136">
         <v>1</v>
@@ -14431,10 +14428,10 @@
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B50" s="35" t="s">
-        <v>21</v>
+        <v>169</v>
       </c>
       <c r="C50" s="43" t="s">
-        <v>226</v>
+        <v>52</v>
       </c>
       <c r="D50" s="135">
         <v>1</v>
@@ -14462,7 +14459,7 @@
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C51" s="43" t="s">
-        <v>227</v>
+        <v>53</v>
       </c>
       <c r="D51" s="136">
         <v>1</v>
@@ -14490,7 +14487,7 @@
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C52" s="43" t="s">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="D52" s="136">
         <v>1</v>
@@ -14518,7 +14515,7 @@
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C53" s="43" t="s">
-        <v>62</v>
+        <v>5</v>
       </c>
       <c r="D53" s="136">
         <v>1</v>
@@ -14550,30 +14547,30 @@
     </row>
     <row r="55" spans="1:16" s="100" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="99" t="s">
-        <v>233</v>
+        <v>59</v>
       </c>
     </row>
     <row r="56" spans="1:16" s="36" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A56" s="121" t="s">
-        <v>66</v>
+        <v>196</v>
       </c>
       <c r="B56" s="94" t="s">
-        <v>224</v>
+        <v>50</v>
       </c>
       <c r="C56" s="123" t="s">
-        <v>234</v>
+        <v>60</v>
       </c>
       <c r="D56" s="103" t="s">
-        <v>50</v>
+        <v>197</v>
       </c>
       <c r="E56" s="103" t="s">
-        <v>51</v>
+        <v>198</v>
       </c>
       <c r="F56" s="103" t="s">
-        <v>52</v>
+        <v>199</v>
       </c>
       <c r="G56" s="103" t="s">
-        <v>53</v>
+        <v>200</v>
       </c>
       <c r="H56" s="120"/>
       <c r="M56" s="120"/>
@@ -14584,10 +14581,10 @@
     <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" s="40"/>
       <c r="B57" s="35" t="s">
-        <v>35</v>
+        <v>175</v>
       </c>
       <c r="C57" s="43" t="s">
-        <v>235</v>
+        <v>61</v>
       </c>
       <c r="D57" s="135">
         <v>1</v>
@@ -14609,7 +14606,7 @@
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C58" s="43" t="s">
-        <v>236</v>
+        <v>62</v>
       </c>
       <c r="D58" s="136">
         <v>10.675000000000001</v>
@@ -14631,10 +14628,10 @@
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B59" s="35" t="s">
-        <v>36</v>
+        <v>176</v>
       </c>
       <c r="C59" s="43" t="s">
-        <v>235</v>
+        <v>61</v>
       </c>
       <c r="D59" s="135">
         <v>1</v>
@@ -14656,7 +14653,7 @@
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C60" s="43" t="s">
-        <v>236</v>
+        <v>62</v>
       </c>
       <c r="D60" s="136">
         <v>10.675000000000001</v>
@@ -14678,10 +14675,10 @@
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B61" s="35" t="s">
-        <v>37</v>
+        <v>177</v>
       </c>
       <c r="C61" s="43" t="s">
-        <v>235</v>
+        <v>61</v>
       </c>
       <c r="D61" s="135">
         <v>1</v>
@@ -14703,7 +14700,7 @@
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C62" s="43" t="s">
-        <v>236</v>
+        <v>62</v>
       </c>
       <c r="D62" s="136">
         <v>10.675000000000001</v>
@@ -14729,33 +14726,33 @@
     </row>
     <row r="64" spans="1:16" s="100" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="99" t="s">
-        <v>237</v>
+        <v>63</v>
       </c>
     </row>
     <row r="65" spans="1:16" s="36" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A65" s="121" t="s">
-        <v>22</v>
+        <v>203</v>
       </c>
       <c r="B65" s="94" t="s">
-        <v>224</v>
+        <v>50</v>
       </c>
       <c r="C65" s="123" t="s">
-        <v>238</v>
+        <v>64</v>
       </c>
       <c r="D65" s="103" t="s">
-        <v>1</v>
+        <v>184</v>
       </c>
       <c r="E65" s="103" t="s">
-        <v>2</v>
+        <v>170</v>
       </c>
       <c r="F65" s="103" t="s">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="G65" s="103" t="s">
-        <v>269</v>
+        <v>172</v>
       </c>
       <c r="H65" s="124" t="s">
-        <v>4</v>
+        <v>173</v>
       </c>
       <c r="I65" s="120"/>
       <c r="J65" s="120"/>
@@ -14769,10 +14766,10 @@
     <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66" s="125"/>
       <c r="B66" s="35" t="s">
-        <v>69</v>
+        <v>152</v>
       </c>
       <c r="C66" s="43" t="s">
-        <v>159</v>
+        <v>204</v>
       </c>
       <c r="D66" s="135">
         <v>1</v>
@@ -14800,7 +14797,7 @@
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C67" s="43" t="s">
-        <v>160</v>
+        <v>205</v>
       </c>
       <c r="D67" s="136">
         <v>1.35</v>
@@ -14828,7 +14825,7 @@
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C68" s="43" t="s">
-        <v>161</v>
+        <v>206</v>
       </c>
       <c r="D68" s="136">
         <v>1.35</v>
@@ -14856,7 +14853,7 @@
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C69" s="43" t="s">
-        <v>162</v>
+        <v>207</v>
       </c>
       <c r="D69" s="136">
         <v>5.4</v>
@@ -14884,10 +14881,10 @@
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B70" s="35" t="s">
-        <v>6</v>
+        <v>153</v>
       </c>
       <c r="C70" s="43" t="s">
-        <v>159</v>
+        <v>204</v>
       </c>
       <c r="D70" s="135">
         <v>1</v>
@@ -14915,7 +14912,7 @@
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C71" s="43" t="s">
-        <v>160</v>
+        <v>205</v>
       </c>
       <c r="D71" s="136">
         <v>1.35</v>
@@ -14943,7 +14940,7 @@
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C72" s="43" t="s">
-        <v>161</v>
+        <v>206</v>
       </c>
       <c r="D72" s="136">
         <v>1.35</v>
@@ -14971,7 +14968,7 @@
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C73" s="43" t="s">
-        <v>162</v>
+        <v>207</v>
       </c>
       <c r="D73" s="136">
         <v>5.4</v>
@@ -14999,10 +14996,10 @@
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B74" s="35" t="s">
-        <v>7</v>
+        <v>154</v>
       </c>
       <c r="C74" s="43" t="s">
-        <v>159</v>
+        <v>204</v>
       </c>
       <c r="D74" s="135">
         <v>1</v>
@@ -15030,7 +15027,7 @@
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C75" s="43" t="s">
-        <v>160</v>
+        <v>205</v>
       </c>
       <c r="D75" s="136">
         <v>1.35</v>
@@ -15058,7 +15055,7 @@
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C76" s="43" t="s">
-        <v>161</v>
+        <v>206</v>
       </c>
       <c r="D76" s="136">
         <v>1.35</v>
@@ -15086,7 +15083,7 @@
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C77" s="43" t="s">
-        <v>162</v>
+        <v>207</v>
       </c>
       <c r="D77" s="136">
         <v>5.4</v>
@@ -15114,10 +15111,10 @@
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B78" s="35" t="s">
-        <v>12</v>
+        <v>156</v>
       </c>
       <c r="C78" s="43" t="s">
-        <v>159</v>
+        <v>204</v>
       </c>
       <c r="D78" s="135">
         <v>1</v>
@@ -15145,7 +15142,7 @@
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C79" s="43" t="s">
-        <v>160</v>
+        <v>205</v>
       </c>
       <c r="D79" s="136">
         <v>1</v>
@@ -15173,7 +15170,7 @@
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C80" s="43" t="s">
-        <v>161</v>
+        <v>206</v>
       </c>
       <c r="D80" s="136">
         <v>1</v>
@@ -15201,7 +15198,7 @@
     </row>
     <row r="81" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C81" s="43" t="s">
-        <v>162</v>
+        <v>207</v>
       </c>
       <c r="D81" s="136">
         <v>1</v>
@@ -15229,10 +15226,10 @@
     </row>
     <row r="82" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B82" s="35" t="s">
-        <v>67</v>
+        <v>161</v>
       </c>
       <c r="C82" s="43" t="s">
-        <v>159</v>
+        <v>204</v>
       </c>
       <c r="D82" s="135">
         <v>1</v>
@@ -15260,7 +15257,7 @@
     </row>
     <row r="83" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C83" s="43" t="s">
-        <v>160</v>
+        <v>205</v>
       </c>
       <c r="D83" s="136">
         <v>1</v>
@@ -15288,7 +15285,7 @@
     </row>
     <row r="84" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C84" s="43" t="s">
-        <v>161</v>
+        <v>206</v>
       </c>
       <c r="D84" s="136">
         <v>1</v>
@@ -15316,7 +15313,7 @@
     </row>
     <row r="85" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C85" s="43" t="s">
-        <v>162</v>
+        <v>207</v>
       </c>
       <c r="D85" s="136">
         <v>1</v>
@@ -15344,10 +15341,10 @@
     </row>
     <row r="86" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B86" s="35" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="C86" s="43" t="s">
-        <v>159</v>
+        <v>204</v>
       </c>
       <c r="D86" s="135">
         <v>1</v>
@@ -15375,7 +15372,7 @@
     </row>
     <row r="87" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C87" s="43" t="s">
-        <v>160</v>
+        <v>205</v>
       </c>
       <c r="D87" s="136">
         <v>1</v>
@@ -15403,7 +15400,7 @@
     </row>
     <row r="88" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C88" s="43" t="s">
-        <v>161</v>
+        <v>206</v>
       </c>
       <c r="D88" s="136">
         <v>1</v>
@@ -15431,7 +15428,7 @@
     </row>
     <row r="89" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C89" s="43" t="s">
-        <v>162</v>
+        <v>207</v>
       </c>
       <c r="D89" s="136">
         <v>1</v>
@@ -15459,10 +15456,10 @@
     </row>
     <row r="90" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B90" s="35" t="s">
-        <v>16</v>
+        <v>164</v>
       </c>
       <c r="C90" s="43" t="s">
-        <v>159</v>
+        <v>204</v>
       </c>
       <c r="D90" s="135">
         <v>1</v>
@@ -15490,7 +15487,7 @@
     </row>
     <row r="91" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C91" s="43" t="s">
-        <v>160</v>
+        <v>205</v>
       </c>
       <c r="D91" s="136">
         <v>1</v>
@@ -15518,7 +15515,7 @@
     </row>
     <row r="92" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C92" s="43" t="s">
-        <v>161</v>
+        <v>206</v>
       </c>
       <c r="D92" s="136">
         <v>1</v>
@@ -15546,7 +15543,7 @@
     </row>
     <row r="93" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C93" s="43" t="s">
-        <v>162</v>
+        <v>207</v>
       </c>
       <c r="D93" s="136">
         <v>1</v>
@@ -15574,10 +15571,10 @@
     </row>
     <row r="94" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B94" s="35" t="s">
-        <v>15</v>
+        <v>163</v>
       </c>
       <c r="C94" s="43" t="s">
-        <v>159</v>
+        <v>204</v>
       </c>
       <c r="D94" s="135">
         <v>1</v>
@@ -15605,7 +15602,7 @@
     </row>
     <row r="95" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C95" s="43" t="s">
-        <v>160</v>
+        <v>205</v>
       </c>
       <c r="D95" s="136">
         <v>1</v>
@@ -15633,7 +15630,7 @@
     </row>
     <row r="96" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C96" s="43" t="s">
-        <v>161</v>
+        <v>206</v>
       </c>
       <c r="D96" s="136">
         <v>1</v>
@@ -15661,7 +15658,7 @@
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C97" s="43" t="s">
-        <v>162</v>
+        <v>207</v>
       </c>
       <c r="D97" s="136">
         <v>1</v>
@@ -15689,10 +15686,10 @@
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B98" s="35" t="s">
-        <v>18</v>
+        <v>166</v>
       </c>
       <c r="C98" s="43" t="s">
-        <v>159</v>
+        <v>204</v>
       </c>
       <c r="D98" s="135">
         <v>1</v>
@@ -15720,7 +15717,7 @@
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C99" s="43" t="s">
-        <v>160</v>
+        <v>205</v>
       </c>
       <c r="D99" s="136">
         <v>1</v>
@@ -15748,7 +15745,7 @@
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C100" s="43" t="s">
-        <v>161</v>
+        <v>206</v>
       </c>
       <c r="D100" s="136">
         <v>1</v>
@@ -15776,7 +15773,7 @@
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C101" s="43" t="s">
-        <v>162</v>
+        <v>207</v>
       </c>
       <c r="D101" s="136">
         <v>1</v>
@@ -15804,33 +15801,33 @@
     </row>
     <row r="103" spans="1:16" s="100" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="99" t="s">
-        <v>239</v>
+        <v>65</v>
       </c>
     </row>
     <row r="104" spans="1:16" s="36" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A104" s="121" t="s">
-        <v>67</v>
+        <v>161</v>
       </c>
       <c r="B104" s="126" t="s">
-        <v>162</v>
+        <v>207</v>
       </c>
       <c r="C104" s="123" t="s">
-        <v>238</v>
+        <v>64</v>
       </c>
       <c r="D104" s="103" t="s">
-        <v>1</v>
+        <v>184</v>
       </c>
       <c r="E104" s="103" t="s">
-        <v>2</v>
+        <v>170</v>
       </c>
       <c r="F104" s="103" t="s">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="G104" s="103" t="s">
-        <v>269</v>
+        <v>172</v>
       </c>
       <c r="H104" s="124" t="s">
-        <v>4</v>
+        <v>173</v>
       </c>
       <c r="I104" s="120"/>
       <c r="J104" s="120"/>
@@ -15845,7 +15842,7 @@
       <c r="A105" s="40"/>
       <c r="B105" s="36"/>
       <c r="C105" s="43" t="s">
-        <v>159</v>
+        <v>204</v>
       </c>
       <c r="D105" s="135">
         <v>1</v>
@@ -15873,7 +15870,7 @@
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C106" s="43" t="s">
-        <v>160</v>
+        <v>205</v>
       </c>
       <c r="D106" s="136">
         <v>1.26</v>
@@ -15901,7 +15898,7 @@
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C107" s="43" t="s">
-        <v>161</v>
+        <v>206</v>
       </c>
       <c r="D107" s="136">
         <v>1.68</v>
@@ -15929,7 +15926,7 @@
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C108" s="43" t="s">
-        <v>162</v>
+        <v>207</v>
       </c>
       <c r="D108" s="136">
         <v>2.65</v>
@@ -15959,7 +15956,7 @@
       <c r="A111" s="40"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="4Nh2Kdrede51assy63PFnBMazP2z5m0R4B9QJmc2hiQ8zxgS9sRkwrqZOTxg0D5wb8g8W6JXMhBt4xgEtn1+sQ==" saltValue="MfyVRJMbhpWzRrxfuLcm1Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Odic1j5d4w9MloWklz90EN4xCQZPlUzRXuq6iX+Vp60pCHng36Z0AYH+R/pcYeT/GIH6Zus0CfXpe/pQLWyZLA==" saltValue="D0a7AvpOGOiks85vEjmp7g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -15990,36 +15987,36 @@
   <sheetData>
     <row r="1" spans="1:7" s="100" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="99" t="s">
-        <v>240</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="125" t="s">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="B2" s="119"/>
       <c r="C2" s="40" t="s">
-        <v>1</v>
+        <v>184</v>
       </c>
       <c r="D2" s="40" t="s">
-        <v>2</v>
+        <v>170</v>
       </c>
       <c r="E2" s="40" t="s">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="F2" s="40" t="s">
-        <v>269</v>
+        <v>172</v>
       </c>
       <c r="G2" s="40" t="s">
-        <v>4</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="113" t="s">
-        <v>241</v>
+        <v>67</v>
       </c>
       <c r="C3" s="136" t="s">
-        <v>242</v>
+        <v>68</v>
       </c>
       <c r="D3" s="136">
         <v>45</v>
@@ -16037,7 +16034,7 @@
     <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="40"/>
       <c r="B4" s="117" t="s">
-        <v>243</v>
+        <v>69</v>
       </c>
       <c r="C4" s="136">
         <v>1.0249999999999999</v>
@@ -16057,12 +16054,12 @@
     </row>
     <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="104" t="s">
-        <v>244</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="117" t="s">
-        <v>55</v>
+        <v>256</v>
       </c>
       <c r="C6" s="136">
         <v>1</v>
@@ -16082,7 +16079,7 @@
     </row>
     <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="117" t="s">
-        <v>129</v>
+        <v>249</v>
       </c>
       <c r="C7" s="136">
         <v>1</v>
@@ -16102,7 +16099,7 @@
     </row>
     <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="117" t="s">
-        <v>57</v>
+        <v>264</v>
       </c>
       <c r="C8" s="136">
         <v>1</v>
@@ -16130,13 +16127,13 @@
     </row>
     <row r="10" spans="1:7" s="100" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="99" t="s">
-        <v>245</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="104"/>
       <c r="B11" s="113" t="s">
-        <v>188</v>
+        <v>248</v>
       </c>
       <c r="C11" s="136">
         <v>1.5</v>
@@ -16160,15 +16157,15 @@
     </row>
     <row r="13" spans="1:7" s="100" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="99" t="s">
-        <v>246</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="125" t="s">
-        <v>231</v>
+        <v>57</v>
       </c>
       <c r="B14" s="117" t="s">
-        <v>247</v>
+        <v>73</v>
       </c>
       <c r="C14" s="136">
         <v>1.0249999999999999</v>
@@ -16189,7 +16186,7 @@
     <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="40"/>
       <c r="B15" s="117" t="s">
-        <v>248</v>
+        <v>74</v>
       </c>
       <c r="C15" s="136">
         <v>1.0249999999999999</v>
@@ -16209,10 +16206,10 @@
     </row>
     <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="125" t="s">
-        <v>66</v>
+        <v>196</v>
       </c>
       <c r="B16" s="113" t="s">
-        <v>249</v>
+        <v>75</v>
       </c>
       <c r="C16" s="136">
         <v>1</v>
@@ -16233,26 +16230,26 @@
     <row r="17" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="18" spans="1:6" s="100" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="99" t="s">
-        <v>250</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="104" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C19" s="56" t="s">
-        <v>46</v>
+        <v>144</v>
       </c>
       <c r="D19" s="56" t="s">
-        <v>47</v>
+        <v>145</v>
       </c>
       <c r="E19" s="56" t="s">
-        <v>48</v>
+        <v>146</v>
       </c>
       <c r="F19" s="56" t="s">
-        <v>49</v>
+        <v>147</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B20" s="113" t="s">
-        <v>190</v>
+        <v>237</v>
       </c>
       <c r="C20" s="136">
         <v>1.52</v>
@@ -16268,7 +16265,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="r34dQ5OmScbaaFXjrwHNF6b9wPA1QtiFOuvZiBpD5v9G8u1Lg3UQOOzvLbWjKbG0iYe+gaFjSdgqiU3eWv99ag==" saltValue="SvKhzQrqYuxY7Ilz68d+PA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="rN2f5LvyvWb52b4URUAkp1f5nXIzXh5f447rSSLmbECBO1tuCuhjiQlsYVDquRWDB+H/qQJnVjAkAfzBty/W5Q==" saltValue="vUjPYCyF5uDGBEHixSm+uQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -16297,28 +16294,28 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="119" t="s">
-        <v>65</v>
+        <v>226</v>
       </c>
       <c r="B1" s="40"/>
       <c r="C1" s="40" t="s">
-        <v>8</v>
+        <v>129</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>11</v>
+        <v>131</v>
       </c>
       <c r="E1" s="40" t="s">
-        <v>10</v>
+        <v>130</v>
       </c>
       <c r="F1" s="119" t="s">
-        <v>24</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="90" t="s">
-        <v>26</v>
+        <v>233</v>
       </c>
       <c r="B2" s="90" t="s">
-        <v>251</v>
+        <v>77</v>
       </c>
       <c r="C2" s="136">
         <v>0.21</v>
@@ -16336,7 +16333,7 @@
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="90"/>
       <c r="B3" s="90" t="s">
-        <v>252</v>
+        <v>78</v>
       </c>
       <c r="C3" s="136">
         <v>1</v>
@@ -16353,10 +16350,10 @@
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="90" t="s">
-        <v>180</v>
+        <v>245</v>
       </c>
       <c r="B4" s="90" t="s">
-        <v>251</v>
+        <v>77</v>
       </c>
       <c r="C4" s="136">
         <v>0</v>
@@ -16374,7 +16371,7 @@
     <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="90"/>
       <c r="B5" s="90" t="s">
-        <v>252</v>
+        <v>78</v>
       </c>
       <c r="C5" s="136">
         <v>1</v>
@@ -16391,10 +16388,10 @@
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="90" t="s">
-        <v>200</v>
+        <v>246</v>
       </c>
       <c r="B6" s="90" t="s">
-        <v>251</v>
+        <v>77</v>
       </c>
       <c r="C6" s="136">
         <v>0</v>
@@ -16412,7 +16409,7 @@
     <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="90"/>
       <c r="B7" s="90" t="s">
-        <v>252</v>
+        <v>78</v>
       </c>
       <c r="C7" s="136">
         <v>1</v>
@@ -16429,10 +16426,10 @@
     </row>
     <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="90" t="s">
-        <v>54</v>
+        <v>3</v>
       </c>
       <c r="B8" s="90" t="s">
-        <v>251</v>
+        <v>77</v>
       </c>
       <c r="C8" s="136">
         <v>0.35</v>
@@ -16450,7 +16447,7 @@
     <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="90"/>
       <c r="B9" s="90" t="s">
-        <v>252</v>
+        <v>78</v>
       </c>
       <c r="C9" s="136">
         <v>1</v>
@@ -16467,10 +16464,10 @@
     </row>
     <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="90" t="s">
-        <v>31</v>
+        <v>250</v>
       </c>
       <c r="B10" s="90" t="s">
-        <v>251</v>
+        <v>77</v>
       </c>
       <c r="C10" s="136">
         <v>0.35</v>
@@ -16488,7 +16485,7 @@
     <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="90"/>
       <c r="B11" s="90" t="s">
-        <v>252</v>
+        <v>78</v>
       </c>
       <c r="C11" s="136">
         <v>1</v>
@@ -16505,10 +16502,10 @@
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="90" t="s">
-        <v>56</v>
+        <v>254</v>
       </c>
       <c r="B12" s="90" t="s">
-        <v>251</v>
+        <v>77</v>
       </c>
       <c r="C12" s="136">
         <v>0.08</v>
@@ -16526,7 +16523,7 @@
     <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="90"/>
       <c r="B13" s="90" t="s">
-        <v>252</v>
+        <v>78</v>
       </c>
       <c r="C13" s="136">
         <v>1</v>
@@ -16548,7 +16545,7 @@
       <c r="A20" s="90"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="nmm1p7+6ZfV9ymXOXNVOD7eQEVgqheDikceP5pBGcklotAfMq0kbnINuAfTsTC8h1xtXj6zJHrrYFugLtoMofA==" saltValue="VSbY0APWrf8QLTdrNhfrzw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="qxJHGVnRtfa6gnac/1YlCUXqEJIOBBxqUL/okxuCADsc36LBz+0dYagDyoFU/cwY1n2hlkS9+1O5trrVBSdggw==" saltValue="jCA5HyPtTdjejkYnc7oALA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -16577,53 +16574,53 @@
       <c r="A1" s="40"/>
       <c r="B1" s="40"/>
       <c r="C1" s="103" t="s">
-        <v>1</v>
+        <v>184</v>
       </c>
       <c r="D1" s="103" t="s">
-        <v>2</v>
+        <v>170</v>
       </c>
       <c r="E1" s="103" t="s">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="F1" s="103" t="s">
-        <v>269</v>
+        <v>172</v>
       </c>
       <c r="G1" s="103" t="s">
-        <v>4</v>
+        <v>173</v>
       </c>
       <c r="H1" s="103" t="s">
-        <v>46</v>
+        <v>144</v>
       </c>
       <c r="I1" s="103" t="s">
-        <v>47</v>
+        <v>145</v>
       </c>
       <c r="J1" s="103" t="s">
-        <v>48</v>
+        <v>146</v>
       </c>
       <c r="K1" s="103" t="s">
-        <v>49</v>
+        <v>147</v>
       </c>
       <c r="L1" s="103" t="s">
-        <v>50</v>
+        <v>197</v>
       </c>
       <c r="M1" s="103" t="s">
-        <v>51</v>
+        <v>198</v>
       </c>
       <c r="N1" s="103" t="s">
-        <v>52</v>
+        <v>199</v>
       </c>
       <c r="O1" s="103" t="s">
-        <v>53</v>
+        <v>200</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="40" t="s">
-        <v>253</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B3" s="59" t="s">
-        <v>142</v>
+        <v>236</v>
       </c>
       <c r="C3" s="136">
         <v>0.53</v>
@@ -16667,7 +16664,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B4" s="59" t="s">
-        <v>181</v>
+        <v>241</v>
       </c>
       <c r="C4" s="136">
         <v>1</v>
@@ -16711,7 +16708,7 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B5" s="59" t="s">
-        <v>199</v>
+        <v>242</v>
       </c>
       <c r="C5" s="136">
         <v>1</v>
@@ -16755,7 +16752,7 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="59" t="s">
-        <v>182</v>
+        <v>243</v>
       </c>
       <c r="C6" s="136">
         <v>1</v>
@@ -16799,7 +16796,7 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B7" s="59" t="s">
-        <v>183</v>
+        <v>244</v>
       </c>
       <c r="C7" s="136">
         <v>1</v>
@@ -16843,7 +16840,7 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B8" s="90" t="s">
-        <v>180</v>
+        <v>245</v>
       </c>
       <c r="C8" s="136">
         <v>1</v>
@@ -16887,7 +16884,7 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B9" s="90" t="s">
-        <v>200</v>
+        <v>246</v>
       </c>
       <c r="C9" s="136">
         <v>1</v>
@@ -16931,7 +16928,7 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B10" s="59" t="s">
-        <v>54</v>
+        <v>3</v>
       </c>
       <c r="C10" s="136">
         <v>1</v>
@@ -16975,7 +16972,7 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B11" s="90" t="s">
-        <v>129</v>
+        <v>249</v>
       </c>
       <c r="C11" s="136">
         <v>1</v>
@@ -17019,7 +17016,7 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B12" s="59" t="s">
-        <v>31</v>
+        <v>250</v>
       </c>
       <c r="C12" s="136">
         <v>0.83</v>
@@ -17063,7 +17060,7 @@
     </row>
     <row r="13" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="59" t="s">
-        <v>130</v>
+        <v>253</v>
       </c>
       <c r="C13" s="136">
         <v>1</v>
@@ -17107,7 +17104,7 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B14" s="59" t="s">
-        <v>56</v>
+        <v>254</v>
       </c>
       <c r="C14" s="136">
         <v>1</v>
@@ -17151,13 +17148,13 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="40" t="s">
-        <v>254</v>
+        <v>80</v>
       </c>
       <c r="B16" s="59"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B17" s="90" t="s">
-        <v>271</v>
+        <v>238</v>
       </c>
       <c r="C17" s="136">
         <v>1</v>
@@ -17201,7 +17198,7 @@
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B18" s="90" t="s">
-        <v>60</v>
+        <v>239</v>
       </c>
       <c r="C18" s="136">
         <v>1</v>
@@ -17245,7 +17242,7 @@
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B19" s="90" t="s">
-        <v>59</v>
+        <v>240</v>
       </c>
       <c r="C19" s="136">
         <v>1</v>
@@ -17289,7 +17286,7 @@
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B20" s="90" t="s">
-        <v>44</v>
+        <v>247</v>
       </c>
       <c r="C20" s="136">
         <v>1</v>
@@ -17344,7 +17341,7 @@
       <c r="B28" s="43"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="dkhxXe5Quxq++RHDmhqt2wCn8QrVWUZtZ6Bx5Pnjuxa28uGFSKKrsrJpDKJLoS9YNbNRy+FeC7385RmyJS0KLA==" saltValue="VPqqjWaEiGhPE3rc0b7GFw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="FBhGLTjSyspzLxpZpnlzJynEdb5GtTZ4DQE+sn3/OXo3eZYaNOoz1pjsU/aburrxu9WvYN0zluZMqbZeNbtY+Q==" saltValue="Slxn+kfUX+uuZ/dtFNRhIQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -17373,29 +17370,29 @@
       <c r="A1" s="40"/>
       <c r="B1" s="119"/>
       <c r="C1" s="40" t="s">
-        <v>1</v>
+        <v>184</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>2</v>
+        <v>170</v>
       </c>
       <c r="E1" s="40" t="s">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="F1" s="40" t="s">
-        <v>269</v>
+        <v>172</v>
       </c>
       <c r="G1" s="40" t="s">
-        <v>4</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="40" t="s">
-        <v>255</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3" s="59" t="s">
-        <v>63</v>
+        <v>227</v>
       </c>
       <c r="C3" s="136">
         <v>1</v>
@@ -17415,7 +17412,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="40" t="s">
-        <v>256</v>
+        <v>82</v>
       </c>
       <c r="B4" s="59"/>
       <c r="C4" s="127"/>
@@ -17426,7 +17423,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5" s="90" t="s">
-        <v>176</v>
+        <v>25</v>
       </c>
       <c r="C5" s="136">
         <v>1</v>
@@ -17445,7 +17442,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="NuwTyKpsD2tr5Pgh7xorNf7hXFuqNjqM/D5vWgms+49FkawxIi1eNvwF0G0KpgK6xY082qUISEWeoUPFSz+8ww==" saltValue="JxKPkRRZsDv9ThCNQQ5GrQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="5GB6o+u9+28RjgUHnuvo8suozue0PQsiRANYHZgl82tW10ACnwuWcw3FMtPwE30WIoPLMLXxk5BQrqpT+YCd1w==" saltValue="btVVScM+LADShIKbGvP0fw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -17477,39 +17474,39 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
-        <v>65</v>
+        <v>226</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>257</v>
+        <v>83</v>
       </c>
       <c r="C1" s="125" t="s">
-        <v>258</v>
+        <v>84</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>1</v>
+        <v>184</v>
       </c>
       <c r="E1" s="40" t="s">
-        <v>2</v>
+        <v>170</v>
       </c>
       <c r="F1" s="40" t="s">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="G1" s="40" t="s">
-        <v>269</v>
+        <v>172</v>
       </c>
       <c r="H1" s="40" t="s">
-        <v>4</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="52" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="B2" s="52" t="s">
-        <v>67</v>
+        <v>161</v>
       </c>
       <c r="C2" s="52" t="s">
-        <v>259</v>
+        <v>85</v>
       </c>
       <c r="D2" s="136">
         <v>0</v>
@@ -17529,7 +17526,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C3" s="52" t="s">
-        <v>260</v>
+        <v>86</v>
       </c>
       <c r="D3" s="136">
         <v>0</v>
@@ -17549,7 +17546,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C4" s="52" t="s">
-        <v>261</v>
+        <v>87</v>
       </c>
       <c r="D4" s="136">
         <v>0</v>
@@ -17569,13 +17566,13 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="52" t="s">
-        <v>55</v>
+        <v>256</v>
       </c>
       <c r="B5" s="52" t="s">
-        <v>62</v>
+        <v>5</v>
       </c>
       <c r="C5" s="52" t="s">
-        <v>259</v>
+        <v>85</v>
       </c>
       <c r="D5" s="136">
         <v>0</v>
@@ -17595,7 +17592,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C6" s="52" t="s">
-        <v>261</v>
+        <v>87</v>
       </c>
       <c r="D6" s="136">
         <v>0</v>
@@ -17615,10 +17612,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B7" s="52" t="s">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="C7" s="52" t="s">
-        <v>259</v>
+        <v>85</v>
       </c>
       <c r="D7" s="136">
         <v>0</v>
@@ -17638,7 +17635,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C8" s="52" t="s">
-        <v>261</v>
+        <v>87</v>
       </c>
       <c r="D8" s="136">
         <v>0</v>
@@ -17658,13 +17655,13 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="52" t="s">
-        <v>129</v>
+        <v>249</v>
       </c>
       <c r="B9" s="52" t="s">
-        <v>62</v>
+        <v>5</v>
       </c>
       <c r="C9" s="52" t="s">
-        <v>259</v>
+        <v>85</v>
       </c>
       <c r="D9" s="136">
         <v>0</v>
@@ -17684,7 +17681,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C10" s="52" t="s">
-        <v>261</v>
+        <v>87</v>
       </c>
       <c r="D10" s="136">
         <v>0</v>
@@ -17704,10 +17701,10 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B11" s="52" t="s">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="C11" s="52" t="s">
-        <v>259</v>
+        <v>85</v>
       </c>
       <c r="D11" s="136">
         <v>0</v>
@@ -17727,7 +17724,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C12" s="52" t="s">
-        <v>261</v>
+        <v>87</v>
       </c>
       <c r="D12" s="136">
         <v>0</v>
@@ -17747,13 +17744,13 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="52" t="s">
-        <v>58</v>
+        <v>235</v>
       </c>
       <c r="B13" s="52" t="s">
-        <v>62</v>
+        <v>5</v>
       </c>
       <c r="C13" s="52" t="s">
-        <v>259</v>
+        <v>85</v>
       </c>
       <c r="D13" s="136">
         <v>0</v>
@@ -17773,7 +17770,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C14" s="52" t="s">
-        <v>261</v>
+        <v>87</v>
       </c>
       <c r="D14" s="136">
         <v>0</v>
@@ -17794,10 +17791,10 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B15" s="52" t="s">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="C15" s="52" t="s">
-        <v>259</v>
+        <v>85</v>
       </c>
       <c r="D15" s="136">
         <v>0</v>
@@ -17818,7 +17815,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C16" s="52" t="s">
-        <v>261</v>
+        <v>87</v>
       </c>
       <c r="D16" s="136">
         <v>0</v>
@@ -17839,13 +17836,13 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="52" t="s">
-        <v>59</v>
+        <v>240</v>
       </c>
       <c r="B17" s="52" t="s">
-        <v>25</v>
+        <v>158</v>
       </c>
       <c r="C17" s="52" t="s">
-        <v>259</v>
+        <v>85</v>
       </c>
       <c r="D17" s="136">
         <v>0.7</v>
@@ -17866,7 +17863,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C18" s="52" t="s">
-        <v>260</v>
+        <v>86</v>
       </c>
       <c r="D18" s="136">
         <v>0.186</v>
@@ -17887,13 +17884,13 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="52" t="s">
-        <v>271</v>
+        <v>238</v>
       </c>
       <c r="B19" s="52" t="s">
-        <v>25</v>
+        <v>158</v>
       </c>
       <c r="C19" s="52" t="s">
-        <v>259</v>
+        <v>85</v>
       </c>
       <c r="D19" s="136">
         <v>0.7</v>
@@ -17913,7 +17910,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C20" s="52" t="s">
-        <v>260</v>
+        <v>86</v>
       </c>
       <c r="D20" s="136">
         <v>0.186</v>
@@ -17933,13 +17930,13 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="52" t="s">
-        <v>60</v>
+        <v>239</v>
       </c>
       <c r="B21" s="52" t="s">
-        <v>25</v>
+        <v>158</v>
       </c>
       <c r="C21" s="52" t="s">
-        <v>259</v>
+        <v>85</v>
       </c>
       <c r="D21" s="136">
         <v>0.7</v>
@@ -17959,7 +17956,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C22" s="52" t="s">
-        <v>260</v>
+        <v>86</v>
       </c>
       <c r="D22" s="136">
         <v>0.186</v>
@@ -17979,13 +17976,13 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="52" t="s">
-        <v>75</v>
+        <v>261</v>
       </c>
       <c r="B23" s="52" t="s">
-        <v>67</v>
+        <v>161</v>
       </c>
       <c r="C23" s="52" t="s">
-        <v>259</v>
+        <v>85</v>
       </c>
       <c r="D23" s="136">
         <v>1</v>
@@ -18005,7 +18002,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C24" s="52" t="s">
-        <v>260</v>
+        <v>86</v>
       </c>
       <c r="D24" s="136">
         <v>0</v>
@@ -18025,7 +18022,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C25" s="52" t="s">
-        <v>261</v>
+        <v>87</v>
       </c>
       <c r="D25" s="136">
         <v>0</v>
@@ -18045,13 +18042,13 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="52" t="s">
-        <v>76</v>
+        <v>262</v>
       </c>
       <c r="B26" s="52" t="s">
-        <v>67</v>
+        <v>161</v>
       </c>
       <c r="C26" s="52" t="s">
-        <v>259</v>
+        <v>85</v>
       </c>
       <c r="D26" s="136">
         <v>1</v>
@@ -18071,7 +18068,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C27" s="52" t="s">
-        <v>260</v>
+        <v>86</v>
       </c>
       <c r="D27" s="136">
         <v>0</v>
@@ -18091,7 +18088,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C28" s="52" t="s">
-        <v>261</v>
+        <v>87</v>
       </c>
       <c r="D28" s="136">
         <v>0</v>
@@ -18111,13 +18108,13 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="52" t="s">
-        <v>77</v>
+        <v>260</v>
       </c>
       <c r="B29" s="52" t="s">
-        <v>67</v>
+        <v>161</v>
       </c>
       <c r="C29" s="52" t="s">
-        <v>259</v>
+        <v>85</v>
       </c>
       <c r="D29" s="136">
         <v>1</v>
@@ -18137,7 +18134,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C30" s="52" t="s">
-        <v>260</v>
+        <v>86</v>
       </c>
       <c r="D30" s="136">
         <v>0</v>
@@ -18157,7 +18154,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C31" s="52" t="s">
-        <v>261</v>
+        <v>87</v>
       </c>
       <c r="D31" s="136">
         <v>0</v>
@@ -18177,13 +18174,13 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="52" t="s">
-        <v>78</v>
+        <v>259</v>
       </c>
       <c r="B32" s="52" t="s">
-        <v>67</v>
+        <v>161</v>
       </c>
       <c r="C32" s="52" t="s">
-        <v>259</v>
+        <v>85</v>
       </c>
       <c r="D32" s="136">
         <v>1</v>
@@ -18203,7 +18200,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C33" s="52" t="s">
-        <v>260</v>
+        <v>86</v>
       </c>
       <c r="D33" s="136">
         <v>0</v>
@@ -18223,7 +18220,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C34" s="52" t="s">
-        <v>261</v>
+        <v>87</v>
       </c>
       <c r="D34" s="136">
         <v>0</v>
@@ -18243,13 +18240,13 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="52" t="s">
-        <v>79</v>
+        <v>258</v>
       </c>
       <c r="B35" s="52" t="s">
-        <v>67</v>
+        <v>161</v>
       </c>
       <c r="C35" s="52" t="s">
-        <v>259</v>
+        <v>85</v>
       </c>
       <c r="D35" s="136">
         <v>1</v>
@@ -18269,7 +18266,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C36" s="52" t="s">
-        <v>260</v>
+        <v>86</v>
       </c>
       <c r="D36" s="136">
         <v>0</v>
@@ -18289,7 +18286,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C37" s="52" t="s">
-        <v>261</v>
+        <v>87</v>
       </c>
       <c r="D37" s="136">
         <v>0</v>
@@ -18309,13 +18306,13 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="52" t="s">
-        <v>57</v>
+        <v>264</v>
       </c>
       <c r="B38" s="52" t="s">
-        <v>67</v>
+        <v>161</v>
       </c>
       <c r="C38" s="52" t="s">
-        <v>259</v>
+        <v>85</v>
       </c>
       <c r="D38" s="136">
         <v>0.3</v>
@@ -18335,7 +18332,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C39" s="52" t="s">
-        <v>260</v>
+        <v>86</v>
       </c>
       <c r="D39" s="136">
         <v>0.6</v>
@@ -18355,7 +18352,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C40" s="52" t="s">
-        <v>261</v>
+        <v>87</v>
       </c>
       <c r="D40" s="136">
         <v>0.45</v>
@@ -18375,10 +18372,10 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B41" s="52" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="C41" s="52" t="s">
-        <v>259</v>
+        <v>85</v>
       </c>
       <c r="D41" s="136">
         <v>0.3</v>
@@ -18398,7 +18395,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C42" s="52" t="s">
-        <v>260</v>
+        <v>86</v>
       </c>
       <c r="D42" s="136">
         <v>0.5</v>
@@ -18418,7 +18415,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C43" s="52" t="s">
-        <v>261</v>
+        <v>87</v>
       </c>
       <c r="D43" s="136">
         <v>0.63</v>
@@ -18438,13 +18435,13 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="52" t="s">
-        <v>80</v>
+        <v>255</v>
       </c>
       <c r="B44" s="52" t="s">
-        <v>67</v>
+        <v>161</v>
       </c>
       <c r="C44" s="52" t="s">
-        <v>259</v>
+        <v>85</v>
       </c>
       <c r="D44" s="136">
         <v>0.88</v>
@@ -18464,7 +18461,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C45" s="52" t="s">
-        <v>260</v>
+        <v>86</v>
       </c>
       <c r="D45" s="136">
         <v>0.8</v>
@@ -18484,13 +18481,13 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="52" t="s">
-        <v>81</v>
+        <v>263</v>
       </c>
       <c r="B46" s="52" t="s">
-        <v>67</v>
+        <v>161</v>
       </c>
       <c r="C46" s="52" t="s">
-        <v>259</v>
+        <v>85</v>
       </c>
       <c r="D46" s="136">
         <v>1</v>
@@ -18510,7 +18507,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C47" s="52" t="s">
-        <v>260</v>
+        <v>86</v>
       </c>
       <c r="D47" s="136">
         <v>0.76</v>
@@ -18530,13 +18527,13 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="52" t="s">
-        <v>188</v>
+        <v>248</v>
       </c>
       <c r="B48" s="52" t="s">
-        <v>12</v>
+        <v>156</v>
       </c>
       <c r="C48" s="52" t="s">
-        <v>259</v>
+        <v>85</v>
       </c>
       <c r="D48" s="136">
         <v>0.57999999999999996</v>
@@ -18556,7 +18553,7 @@
     </row>
     <row r="49" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C49" s="52" t="s">
-        <v>260</v>
+        <v>86</v>
       </c>
       <c r="D49" s="136">
         <v>0.88</v>
@@ -18575,7 +18572,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Md/pT90EEGQi0rcHJ7MAhAdpLBHyYk5k0rPpVpo8/IwXRxtnTxBscpR39WKc/IxwBBcGWjVIv7V15+KF9mafaA==" saltValue="k9sztKWF98bX/ivwyTO2zg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Sc/AMacdXe2Op95dtUpQrassmcybMPRYLR2eW2kT1TzcrdbcvGZX+3GgsmWG8Zz0eQ8lW+0qKVfLn0m0UU6Wfw==" saltValue="ucjd9hMcKOkj7uvVrF+z5A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -18603,35 +18600,35 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="119" t="s">
-        <v>65</v>
+        <v>226</v>
       </c>
       <c r="B1" s="119" t="s">
-        <v>257</v>
+        <v>83</v>
       </c>
       <c r="C1" s="119"/>
       <c r="D1" s="40" t="s">
-        <v>50</v>
+        <v>197</v>
       </c>
       <c r="E1" s="40" t="s">
-        <v>51</v>
+        <v>198</v>
       </c>
       <c r="F1" s="40" t="s">
-        <v>52</v>
+        <v>199</v>
       </c>
       <c r="G1" s="40" t="s">
-        <v>53</v>
+        <v>200</v>
       </c>
       <c r="H1" s="94"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="43" t="s">
-        <v>82</v>
+        <v>234</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>38</v>
+        <v>178</v>
       </c>
       <c r="C2" s="43" t="s">
-        <v>259</v>
+        <v>85</v>
       </c>
       <c r="D2" s="136">
         <v>1</v>
@@ -18649,7 +18646,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C3" s="35" t="s">
-        <v>260</v>
+        <v>86</v>
       </c>
       <c r="D3" s="136">
         <v>0.2</v>
@@ -18667,13 +18664,13 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="43" t="s">
-        <v>83</v>
+        <v>252</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>38</v>
+        <v>178</v>
       </c>
       <c r="C4" s="43" t="s">
-        <v>259</v>
+        <v>85</v>
       </c>
       <c r="D4" s="136">
         <v>1</v>
@@ -18692,7 +18689,7 @@
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="36"/>
       <c r="C5" s="35" t="s">
-        <v>260</v>
+        <v>86</v>
       </c>
       <c r="D5" s="136">
         <v>0.59</v>
@@ -18710,13 +18707,13 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="43" t="s">
-        <v>84</v>
+        <v>251</v>
       </c>
       <c r="B6" s="35" t="s">
-        <v>38</v>
+        <v>178</v>
       </c>
       <c r="C6" s="43" t="s">
-        <v>259</v>
+        <v>85</v>
       </c>
       <c r="D6" s="136">
         <v>1</v>
@@ -18735,7 +18732,7 @@
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="36"/>
       <c r="C7" s="35" t="s">
-        <v>260</v>
+        <v>86</v>
       </c>
       <c r="D7" s="136">
         <v>0.59</v>
@@ -18752,7 +18749,7 @@
       <c r="H7" s="128"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Erle//jLx2p7qAg8WpRpCGox526uZykpW6LxkRpp/sKBvV56bNUiRRtkuOU3TFnDyAJniBBlRGtHhPhSZ77UCA==" saltValue="q6x2Fws/8pFLafc7EeoIwg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="H9fk/Dz4e8FEFPWmHBnpZCuS9SaPc8PP8BkZr5VpGLVBjdNRnLMuu+caeTVPWemCh9KqWt/JW9/l5bfNRL8B7g==" saltValue="atn7dZUZV+WJvV82GKOpVg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -18788,13 +18785,13 @@
     </row>
     <row r="2" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>202</v>
+        <v>151</v>
       </c>
       <c r="B2" s="41" t="s">
-        <v>203</v>
+        <v>29</v>
       </c>
       <c r="C2" s="41" t="s">
-        <v>1</v>
+        <v>184</v>
       </c>
       <c r="D2" s="41"/>
       <c r="E2" s="41"/>
@@ -18803,7 +18800,7 @@
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="24" t="s">
-        <v>69</v>
+        <v>152</v>
       </c>
       <c r="C3" s="75">
         <v>2.7000000000000001E-3</v>
@@ -18811,7 +18808,7 @@
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="24" t="s">
-        <v>6</v>
+        <v>153</v>
       </c>
       <c r="C4" s="75">
         <v>0.1966</v>
@@ -18819,7 +18816,7 @@
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="24" t="s">
-        <v>7</v>
+        <v>154</v>
       </c>
       <c r="C5" s="75">
         <v>6.2100000000000002E-2</v>
@@ -18827,7 +18824,7 @@
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="24" t="s">
-        <v>9</v>
+        <v>155</v>
       </c>
       <c r="C6" s="75">
         <v>0.29289999999999999</v>
@@ -18835,7 +18832,7 @@
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="24" t="s">
-        <v>12</v>
+        <v>156</v>
       </c>
       <c r="C7" s="75">
         <v>0.24709999999999999</v>
@@ -18843,7 +18840,7 @@
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="24" t="s">
-        <v>268</v>
+        <v>157</v>
       </c>
       <c r="C8" s="75">
         <v>4.7999999999999996E-3</v>
@@ -18851,7 +18848,7 @@
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="24" t="s">
-        <v>25</v>
+        <v>158</v>
       </c>
       <c r="C9" s="75">
         <v>0.13200000000000001</v>
@@ -18859,7 +18856,7 @@
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="24" t="s">
-        <v>13</v>
+        <v>159</v>
       </c>
       <c r="C10" s="75">
         <v>6.1800000000000001E-2</v>
@@ -18867,7 +18864,7 @@
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="32" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C11" s="70">
         <f>SUM(C3:C10)</f>
@@ -18887,28 +18884,28 @@
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
-        <v>28</v>
+        <v>160</v>
       </c>
       <c r="B13" s="41" t="s">
-        <v>203</v>
+        <v>29</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>2</v>
+        <v>170</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>269</v>
+        <v>172</v>
       </c>
       <c r="F13" s="23" t="s">
-        <v>4</v>
+        <v>173</v>
       </c>
       <c r="G13" s="24"/>
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="24" t="s">
-        <v>67</v>
+        <v>161</v>
       </c>
       <c r="C14" s="75">
         <v>0.1368</v>
@@ -18925,7 +18922,7 @@
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="24" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="C15" s="75">
         <v>0.20660000000000001</v>
@@ -18942,7 +18939,7 @@
     </row>
     <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="24" t="s">
-        <v>15</v>
+        <v>163</v>
       </c>
       <c r="C16" s="75">
         <v>2.1100000000000001E-2</v>
@@ -18959,7 +18956,7 @@
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="24" t="s">
-        <v>16</v>
+        <v>164</v>
       </c>
       <c r="C17" s="75">
         <v>7.4999999999999997E-3</v>
@@ -18976,7 +18973,7 @@
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="24" t="s">
-        <v>17</v>
+        <v>165</v>
       </c>
       <c r="C18" s="75">
         <v>8.6199999999999999E-2</v>
@@ -18993,7 +18990,7 @@
     </row>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="24" t="s">
-        <v>18</v>
+        <v>166</v>
       </c>
       <c r="C19" s="75">
         <v>2.86E-2</v>
@@ -19010,7 +19007,7 @@
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="24" t="s">
-        <v>19</v>
+        <v>167</v>
       </c>
       <c r="C20" s="75">
         <v>1.5299999999999999E-2</v>
@@ -19027,7 +19024,7 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="24" t="s">
-        <v>20</v>
+        <v>168</v>
       </c>
       <c r="C21" s="75">
         <v>0.13589999999999999</v>
@@ -19044,7 +19041,7 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="24" t="s">
-        <v>21</v>
+        <v>169</v>
       </c>
       <c r="C22" s="75">
         <v>0.36199999999999999</v>
@@ -19061,7 +19058,7 @@
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="32" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C23" s="70">
         <f>SUM(C14:C22)</f>
@@ -19093,13 +19090,13 @@
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>174</v>
+      </c>
+      <c r="B25" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="41" t="s">
-        <v>203</v>
-      </c>
       <c r="C25" s="41" t="s">
-        <v>29</v>
+        <v>174</v>
       </c>
       <c r="D25" s="24"/>
       <c r="E25" s="24"/>
@@ -19109,7 +19106,7 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="24" t="s">
-        <v>35</v>
+        <v>175</v>
       </c>
       <c r="C26" s="75">
         <v>0.10082724000000001</v>
@@ -19117,7 +19114,7 @@
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="24" t="s">
-        <v>36</v>
+        <v>176</v>
       </c>
       <c r="C27" s="75">
         <v>3.1206000000000002E-4</v>
@@ -19125,7 +19122,7 @@
     </row>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="24" t="s">
-        <v>37</v>
+        <v>177</v>
       </c>
       <c r="C28" s="75">
         <v>0.15891214000000001</v>
@@ -19133,7 +19130,7 @@
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="24" t="s">
-        <v>38</v>
+        <v>178</v>
       </c>
       <c r="C29" s="75">
         <v>0.12598688999999999</v>
@@ -19141,7 +19138,7 @@
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="24" t="s">
-        <v>39</v>
+        <v>179</v>
       </c>
       <c r="C30" s="75">
         <v>0.12434007</v>
@@ -19149,7 +19146,7 @@
     </row>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="24" t="s">
-        <v>40</v>
+        <v>180</v>
       </c>
       <c r="C31" s="75">
         <v>3.9028409999999999E-2</v>
@@ -19157,7 +19154,7 @@
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="24" t="s">
-        <v>41</v>
+        <v>181</v>
       </c>
       <c r="C32" s="75">
         <v>8.5254999999999999E-4</v>
@@ -19165,7 +19162,7 @@
     </row>
     <row r="33" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="24" t="s">
-        <v>42</v>
+        <v>182</v>
       </c>
       <c r="C33" s="75">
         <v>6.8467810000000004E-2</v>
@@ -19173,7 +19170,7 @@
     </row>
     <row r="34" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="24" t="s">
-        <v>43</v>
+        <v>183</v>
       </c>
       <c r="C34" s="75">
         <v>0.38127283000000001</v>
@@ -19181,7 +19178,7 @@
     </row>
     <row r="35" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="32" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C35" s="70">
         <f>SUM(C26:C34)</f>
@@ -19189,7 +19186,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="fMkJSkY6NqRib/ZEP7XaLq6vBU5SMzXc2ugnZEhVQu1NS+MM0bP+aD6DUY32jIxdVWZRUU4fhs7l7pwvMN8CSg==" saltValue="0Sssisexzmia5H91OhNmzA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="qbhZ9axHnx8T0EFaBxeXnU4Ix8xg/VHAh/svsOWZrsq22NGA+3GFdtNjsWxHUakJyvzc8btxx6U9o9EDKSOZQg==" saltValue="E44dQ8PNWTWujdlyYQmZ2w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="69" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -19219,30 +19216,30 @@
         <v>Percentage of population in each category in baseline year (2017)</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>185</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>1</v>
+        <v>184</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>2</v>
+        <v>170</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>269</v>
+        <v>172</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>4</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>109</v>
+        <v>186</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>111</v>
+        <v>187</v>
       </c>
       <c r="C2" s="76">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C4:C5), 0, 1) + 1, 0, 1, TRUE), "")</f>
@@ -19268,7 +19265,7 @@
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
       <c r="B3" s="11" t="s">
-        <v>112</v>
+        <v>188</v>
       </c>
       <c r="C3" s="76">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C4:C5), 0, 1) + 1, 0, 1, TRUE) - SUM(C4:C5), "")</f>
@@ -19294,7 +19291,7 @@
     <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="11" t="s">
-        <v>110</v>
+        <v>189</v>
       </c>
       <c r="C4" s="77">
         <v>8.7000000000000008E-2</v>
@@ -19315,7 +19312,7 @@
     <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="11" t="s">
-        <v>113</v>
+        <v>190</v>
       </c>
       <c r="C5" s="77">
         <v>4.5999999999999999E-2</v>
@@ -19351,10 +19348,10 @@
     </row>
     <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>108</v>
+        <v>191</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>114</v>
+        <v>192</v>
       </c>
       <c r="C8" s="76">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C10:C11), 0, 1) + 1, 0, 1, TRUE), "")</f>
@@ -19379,7 +19376,7 @@
     </row>
     <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="7" t="s">
-        <v>115</v>
+        <v>193</v>
       </c>
       <c r="C9" s="76">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C10:C11), 0, 1) + 1, 0, 1, TRUE) - SUM(C10:C11), "")</f>
@@ -19404,7 +19401,7 @@
     </row>
     <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="7" t="s">
-        <v>116</v>
+        <v>194</v>
       </c>
       <c r="C10" s="77">
         <v>5.3999999999999999E-2</v>
@@ -19424,7 +19421,7 @@
     </row>
     <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="7" t="s">
-        <v>117</v>
+        <v>195</v>
       </c>
       <c r="C11" s="77">
         <v>0.04</v>
@@ -19458,51 +19455,51 @@
     </row>
     <row r="13" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
-        <v>66</v>
+        <v>196</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>1</v>
+        <v>184</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>2</v>
+        <v>170</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>269</v>
+        <v>172</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>4</v>
+        <v>173</v>
       </c>
       <c r="H13" s="23" t="s">
-        <v>50</v>
+        <v>197</v>
       </c>
       <c r="I13" s="23" t="s">
-        <v>51</v>
+        <v>198</v>
       </c>
       <c r="J13" s="23" t="s">
-        <v>52</v>
+        <v>199</v>
       </c>
       <c r="K13" s="23" t="s">
-        <v>53</v>
+        <v>200</v>
       </c>
       <c r="L13" s="23" t="s">
-        <v>46</v>
+        <v>144</v>
       </c>
       <c r="M13" s="23" t="s">
-        <v>47</v>
+        <v>145</v>
       </c>
       <c r="N13" s="23" t="s">
-        <v>48</v>
+        <v>146</v>
       </c>
       <c r="O13" s="23" t="s">
-        <v>49</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="16" t="s">
-        <v>124</v>
+        <v>201</v>
       </c>
       <c r="C14" s="78">
         <v>0.1</v>
@@ -19546,7 +19543,7 @@
     </row>
     <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="16" t="s">
-        <v>64</v>
+        <v>202</v>
       </c>
       <c r="C15" s="76">
         <f t="shared" ref="C15:O15" si="0">iron_deficiency_anaemia*C14</f>
@@ -19616,7 +19613,7 @@
       <c r="G17" s="8"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="o2Z7b0S8Rwo28ld2rsqV7B20w5Ry2xZrPI4j1lJjsg/UMMO4rBaHZVcV/SCN5geV+QJ8M3IsL8JgWyXeCaeMlg==" saltValue="VH15HAnf50HkDuJ4dStBSg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="wxZZYfeq6NAXp0e0Ke0/k15RBBfbpE96BgTesU6CLB1zQ9lsVTmCpvxHrgvQ9gtsWSBS0jmADDj4+eS+W/0bhw==" saltValue="QVLrZ9MVEhqYEwpumH73pA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
@@ -19646,30 +19643,30 @@
         <v>Percentage of children in each category in baseline year (2017)</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>185</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>1</v>
+        <v>184</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>2</v>
+        <v>170</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>269</v>
+        <v>172</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>4</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>22</v>
+        <v>203</v>
       </c>
       <c r="B2" s="43" t="s">
-        <v>159</v>
+        <v>204</v>
       </c>
       <c r="C2" s="77">
         <v>0.84</v>
@@ -19689,7 +19686,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3" s="43" t="s">
-        <v>160</v>
+        <v>205</v>
       </c>
       <c r="C3" s="77">
         <v>9.1999999999999998E-2</v>
@@ -19709,7 +19706,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B4" s="43" t="s">
-        <v>161</v>
+        <v>206</v>
       </c>
       <c r="C4" s="77">
         <v>5.8000000000000003E-2</v>
@@ -19729,7 +19726,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5" s="43" t="s">
-        <v>162</v>
+        <v>207</v>
       </c>
       <c r="C5" s="76">
         <f>1-SUM(C2:C4)</f>
@@ -19753,7 +19750,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="IHBRAVGWNNlA3tYY2amE6aiqbkiralwtJ/VBzgvkxd/XW9IghfxzrQiYgS+f3e/SV4slg0f205y+pdcmAzEdAQ==" saltValue="IjC1yHTDNEltlkM5ArEbnQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="A6Jdl+WUTAD1J0Rz5QJcx+ZeCq5AaQn98SIQiFP4h+dhKq/IP1FP3csQfIFEn4XZw887kKQQk/sl5HXYojbPQg==" saltValue="f7yQOO+fFc0GlMt4qsWZWQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -19779,10 +19776,10 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>131</v>
+        <v>208</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>138</v>
+        <v>7</v>
       </c>
       <c r="C1">
         <v>2017</v>
@@ -19829,13 +19826,13 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>132</v>
+        <v>209</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>136</v>
+        <v>6</v>
       </c>
       <c r="C2" s="28">
-        <f>(('Nutritional status distribution'!C4+'Nutritional status distribution'!C5)*(1/60)+('Nutritional status distribution'!D4+'Nutritional status distribution'!D5)*(5/60)+('Nutritional status distribution'!E4+'Nutritional status distribution'!E5)*(6/60)+('Nutritional status distribution'!F4+'Nutritional status distribution'!F5)*(12/60)+('Nutritional status distribution'!G4+'Nutritional status distribution'!G5)*(36/60))</f>
+        <f>(('Dist. de l''état nutritionnel'!C4+'Dist. de l''état nutritionnel'!C5)*(1/60)+('Dist. de l''état nutritionnel'!D4+'Dist. de l''état nutritionnel'!D5)*(5/60)+('Dist. de l''état nutritionnel'!E4+'Dist. de l''état nutritionnel'!E5)*(6/60)+('Dist. de l''état nutritionnel'!F4+'Dist. de l''état nutritionnel'!F5)*(12/60)+('Dist. de l''état nutritionnel'!G4+'Dist. de l''état nutritionnel'!G5)*(36/60))</f>
         <v>0.34434320222452625</v>
       </c>
       <c r="D2" s="28"/>
@@ -19859,13 +19856,13 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>133</v>
+        <v>210</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>136</v>
+        <v>6</v>
       </c>
       <c r="C4" s="28">
-        <f>(('Nutritional status distribution'!C10+'Nutritional status distribution'!C11)*(1/60)+('Nutritional status distribution'!D10+'Nutritional status distribution'!D11)*(5/60)+('Nutritional status distribution'!E10+'Nutritional status distribution'!E11)*(6/60)+('Nutritional status distribution'!F10+'Nutritional status distribution'!F11)*(12/60)+('Nutritional status distribution'!G10+'Nutritional status distribution'!G11)*(36/60))</f>
+        <f>(('Dist. de l''état nutritionnel'!C10+'Dist. de l''état nutritionnel'!C11)*(1/60)+('Dist. de l''état nutritionnel'!D10+'Dist. de l''état nutritionnel'!D11)*(5/60)+('Dist. de l''état nutritionnel'!E10+'Dist. de l''état nutritionnel'!E11)*(6/60)+('Dist. de l''état nutritionnel'!F10+'Dist. de l''état nutritionnel'!F11)*(12/60)+('Dist. de l''état nutritionnel'!G10+'Dist. de l''état nutritionnel'!G11)*(36/60))</f>
         <v>4.4702487716765882E-2</v>
       </c>
       <c r="D4" s="28"/>
@@ -19891,13 +19888,13 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>134</v>
+        <v>211</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>136</v>
+        <v>6</v>
       </c>
       <c r="C6" s="28">
-        <f>'Nutritional status distribution'!C15*(1/60)+'Nutritional status distribution'!D15*(5/60)+'Nutritional status distribution'!E15*(6/60)+'Nutritional status distribution'!F15*(12/60)+'Nutritional status distribution'!G15*(36/60)</f>
+        <f>'Dist. de l''état nutritionnel'!C15*(1/60)+'Dist. de l''état nutritionnel'!D15*(5/60)+'Dist. de l''état nutritionnel'!E15*(6/60)+'Dist. de l''état nutritionnel'!F15*(12/60)+'Dist. de l''état nutritionnel'!G15*(36/60)</f>
         <v>0.22016400000000003</v>
       </c>
       <c r="D6" s="28"/>
@@ -19918,10 +19915,10 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B7" s="14" t="s">
-        <v>29</v>
+        <v>174</v>
       </c>
       <c r="C7" s="28">
-        <f>('Nutritional status distribution'!H15*('Demographic projections'!C2/SUM('Demographic projections'!C2:F2))+'Nutritional status distribution'!I15*('Demographic projections'!D2/SUM('Demographic projections'!C2:F2))+'Nutritional status distribution'!J15*('Demographic projections'!E2/SUM('Demographic projections'!C2:F2))+'Nutritional status distribution'!K15*('Demographic projections'!F2/SUM('Demographic projections'!C2:F2)))</f>
+        <f>('Dist. de l''état nutritionnel'!H15*('Projections démographiques'!C2/SUM('Projections démographiques'!C2:F2))+'Dist. de l''état nutritionnel'!I15*('Projections démographiques'!D2/SUM('Projections démographiques'!C2:F2))+'Dist. de l''état nutritionnel'!J15*('Projections démographiques'!E2/SUM('Projections démographiques'!C2:F2))+'Dist. de l''état nutritionnel'!K15*('Projections démographiques'!F2/SUM('Projections démographiques'!C2:F2)))</f>
         <v>0.18837666072928053</v>
       </c>
       <c r="D7" s="28"/>
@@ -19942,10 +19939,10 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B8" s="14" t="s">
-        <v>137</v>
+        <v>212</v>
       </c>
       <c r="C8" s="28">
-        <f>('Nutritional status distribution'!L15*('Demographic projections'!C2/SUM('Demographic projections'!C2:F2))+'Nutritional status distribution'!M15*('Demographic projections'!D2/SUM('Demographic projections'!C2:F2))+'Nutritional status distribution'!N15*('Demographic projections'!E2/SUM('Demographic projections'!C2:F2))+'Nutritional status distribution'!O15*('Demographic projections'!F2/SUM('Demographic projections'!C2:F2)))</f>
+        <f>('Dist. de l''état nutritionnel'!L15*('Projections démographiques'!C2/SUM('Projections démographiques'!C2:F2))+'Dist. de l''état nutritionnel'!M15*('Projections démographiques'!D2/SUM('Projections démographiques'!C2:F2))+'Dist. de l''état nutritionnel'!N15*('Projections démographiques'!E2/SUM('Projections démographiques'!C2:F2))+'Dist. de l''état nutritionnel'!O15*('Projections démographiques'!F2/SUM('Projections démographiques'!C2:F2)))</f>
         <v>0.18837666072928053</v>
       </c>
       <c r="D8" s="28"/>
@@ -19968,13 +19965,13 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>135</v>
+        <v>213</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>140</v>
+        <v>214</v>
       </c>
       <c r="C10" s="28">
-        <f>('Breastfeeding distribution'!C2*(1/6)+'Breastfeeding distribution'!D2*(5/6))</f>
+        <f>('Dist. l''allaitement maternel'!C2*(1/6)+'Dist. l''allaitement maternel'!D2*(5/6))</f>
         <v>0.50922873745377717</v>
       </c>
       <c r="D10" s="28"/>
@@ -19995,10 +19992,10 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B11" s="34" t="s">
-        <v>139</v>
+        <v>215</v>
       </c>
       <c r="C11" s="28">
-        <f>(('Breastfeeding distribution'!E4)*(6/18)+('Breastfeeding distribution'!F4)*(12/18))</f>
+        <f>(('Dist. l''allaitement maternel'!E4)*(6/18)+('Dist. l''allaitement maternel'!F4)*(12/18))</f>
         <v>0.79221422376409367</v>
       </c>
       <c r="D11" s="28"/>
@@ -20019,10 +20016,10 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
-        <v>70</v>
+        <v>121</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>141</v>
+        <v>216</v>
       </c>
       <c r="C13" s="28">
         <f>U5_mortality/1000</f>
@@ -20046,7 +20043,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B14" s="16" t="s">
-        <v>163</v>
+        <v>217</v>
       </c>
       <c r="C14" s="28">
         <f>maternal_mortality/1000</f>
@@ -20069,7 +20066,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="RhnlT1C4Xc4foNdqdOyOrzdFlgVkkt509DOI5lw74lUXugiNsEvmaesM6+sPtL31Bi4JOy4zrY+crW1kA/4jNg==" saltValue="Fd+y9DX1tz6u4ClsEzURLg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="sRvMgpS/vrCbUfdisIa9ycvmu8PWXYP3YuI12IP/9RBboz6kcBpnVFxasSU19Cw5CobYH6DXbfSYZdaHYUO9DQ==" saltValue="M26eMHnezxxyDcZWv+hvAQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="193" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -20096,27 +20093,27 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="50" t="s">
-        <v>171</v>
+        <v>218</v>
       </c>
       <c r="B1" s="51" t="s">
-        <v>170</v>
+        <v>219</v>
       </c>
       <c r="C1" s="51" t="s">
-        <v>169</v>
+        <v>220</v>
       </c>
       <c r="D1" s="51" t="s">
-        <v>168</v>
+        <v>221</v>
       </c>
       <c r="E1" s="51" t="s">
-        <v>167</v>
+        <v>222</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="49" t="s">
-        <v>166</v>
+        <v>224</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>29</v>
+        <v>174</v>
       </c>
       <c r="C2" s="80"/>
       <c r="D2" s="80"/>
@@ -20128,7 +20125,7 @@
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="47"/>
       <c r="B3" s="46" t="s">
-        <v>1</v>
+        <v>184</v>
       </c>
       <c r="C3" s="80" t="b">
         <v>1</v>
@@ -20142,7 +20139,7 @@
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="47"/>
       <c r="B4" s="46" t="s">
-        <v>2</v>
+        <v>170</v>
       </c>
       <c r="C4" s="80" t="b">
         <v>1</v>
@@ -20156,7 +20153,7 @@
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="47"/>
       <c r="B5" s="46" t="s">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="C5" s="80" t="b">
         <v>1</v>
@@ -20170,7 +20167,7 @@
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="47"/>
       <c r="B6" s="46" t="s">
-        <v>269</v>
+        <v>172</v>
       </c>
       <c r="C6" s="80" t="b">
         <v>1</v>
@@ -20184,7 +20181,7 @@
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="47"/>
       <c r="B7" s="46" t="s">
-        <v>165</v>
+        <v>223</v>
       </c>
       <c r="C7" s="45"/>
       <c r="D7" s="44"/>
@@ -20192,10 +20189,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="49" t="s">
-        <v>191</v>
+        <v>225</v>
       </c>
       <c r="B9" s="46" t="s">
-        <v>29</v>
+        <v>174</v>
       </c>
       <c r="C9" s="80"/>
       <c r="D9" s="80" t="b">
@@ -20209,7 +20206,7 @@
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="47"/>
       <c r="B10" s="46" t="s">
-        <v>1</v>
+        <v>184</v>
       </c>
       <c r="C10" s="80"/>
       <c r="D10" s="80"/>
@@ -20221,7 +20218,7 @@
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="47"/>
       <c r="B11" s="46" t="s">
-        <v>2</v>
+        <v>170</v>
       </c>
       <c r="C11" s="80"/>
       <c r="D11" s="80"/>
@@ -20233,7 +20230,7 @@
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="47"/>
       <c r="B12" s="46" t="s">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="C12" s="80"/>
       <c r="D12" s="80"/>
@@ -20245,7 +20242,7 @@
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="47"/>
       <c r="B13" s="46" t="s">
-        <v>269</v>
+        <v>172</v>
       </c>
       <c r="C13" s="80"/>
       <c r="D13" s="80"/>
@@ -20257,24 +20254,24 @@
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="47"/>
       <c r="B14" s="46" t="s">
-        <v>165</v>
+        <v>223</v>
       </c>
       <c r="C14" s="45"/>
       <c r="D14" s="44"/>
       <c r="E14" s="80" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="49" t="s">
-        <v>192</v>
+        <v>28</v>
       </c>
       <c r="B16" s="46" t="s">
-        <v>29</v>
+        <v>174</v>
       </c>
       <c r="C16" s="80"/>
       <c r="D16" s="80" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="E16" s="57" t="str">
         <f>IF(E$7="","",E$7)</f>
@@ -20284,11 +20281,11 @@
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="47"/>
       <c r="B17" s="46" t="s">
-        <v>1</v>
+        <v>184</v>
       </c>
       <c r="C17" s="80"/>
       <c r="D17" s="80" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="E17" s="57" t="str">
         <f>IF(E$7="","",E$7)</f>
@@ -20298,11 +20295,11 @@
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="47"/>
       <c r="B18" s="46" t="s">
-        <v>2</v>
+        <v>170</v>
       </c>
       <c r="C18" s="80"/>
       <c r="D18" s="80" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="E18" s="57" t="str">
         <f>IF(E$7="","",E$7)</f>
@@ -20312,11 +20309,11 @@
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="47"/>
       <c r="B19" s="46" t="s">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="C19" s="80"/>
       <c r="D19" s="80" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="E19" s="57" t="str">
         <f>IF(E$7="","",E$7)</f>
@@ -20326,11 +20323,11 @@
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="47"/>
       <c r="B20" s="46" t="s">
-        <v>269</v>
+        <v>172</v>
       </c>
       <c r="C20" s="80"/>
       <c r="D20" s="80" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="E20" s="57" t="str">
         <f>IF(E$7="","",E$7)</f>
@@ -20340,14 +20337,14 @@
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="47"/>
       <c r="B21" s="46" t="s">
-        <v>165</v>
+        <v>223</v>
       </c>
       <c r="C21" s="45"/>
       <c r="D21" s="44"/>
       <c r="E21" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="cL23QcvRDzywBfIagbhKOmr5DpDX56xgZNz0seNKTwfY+VfefZBMIygDcpXf0gGYAJ4fnRFO4asQbS4YOPgGrQ==" saltValue="Hz04f4cSZr4kAMvyhAMaCw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="tmL+UhDe0fgIXITxlmfE4bOETh7B1bG5obAXyKdcvc94ezVx5ianFJdrwbbU8iq8RpD5V6HpusQdr7hVWphfhw==" saltValue="weA/yW8112gCW8V8o9inlQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -20374,44 +20371,44 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="60" t="s">
-        <v>157</v>
+        <v>22</v>
       </c>
       <c r="B1" s="51" t="s">
-        <v>174</v>
+        <v>228</v>
       </c>
       <c r="C1" s="61" t="s">
-        <v>175</v>
+        <v>24</v>
       </c>
       <c r="D1" s="61" t="s">
-        <v>179</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="61" t="s">
-        <v>65</v>
+        <v>226</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>63</v>
+        <v>227</v>
       </c>
       <c r="C2" s="46" t="s">
-        <v>176</v>
+        <v>25</v>
       </c>
       <c r="D2" s="80"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="61" t="s">
-        <v>178</v>
+        <v>230</v>
       </c>
       <c r="B3" s="46" t="s">
-        <v>169</v>
+        <v>220</v>
       </c>
       <c r="C3" s="46" t="s">
-        <v>177</v>
+        <v>26</v>
       </c>
       <c r="D3" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="8juoSNgc27aAtIM36BpmCYoYJv5b0Gppz2kG4Kxih82V+JEooCY2rVC46h5ngvECcN8W+0LWwaskMsU+y1u6oQ==" saltValue="cu1JQsaSf46hs5pUQcInIA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="qz78OQEGpua5FrSBW1Q3A/sDgIlyi7Cz2M/2NgBrB4kVcyA9SHCOwjawhUtVrYyq0JVS7n5O+iHD6Py49YdyLg==" saltValue="r4bbsMPsNKmpCxCA538oKg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -20439,25 +20436,25 @@
   <sheetData>
     <row r="1" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="54" t="s">
-        <v>65</v>
+        <v>226</v>
       </c>
       <c r="B1" s="62" t="str">
         <f>"Baseline ("&amp;start_year&amp;") coverage"</f>
         <v>Baseline (2017) coverage</v>
       </c>
       <c r="C1" s="53" t="s">
-        <v>193</v>
+        <v>231</v>
       </c>
       <c r="D1" s="53" t="s">
-        <v>264</v>
+        <v>90</v>
       </c>
       <c r="E1" s="53" t="s">
-        <v>198</v>
+        <v>232</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="52" t="s">
-        <v>26</v>
+        <v>233</v>
       </c>
       <c r="B2" s="81">
         <v>0</v>
@@ -20469,12 +20466,12 @@
         <v>25</v>
       </c>
       <c r="E2" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="52" t="s">
-        <v>82</v>
+        <v>234</v>
       </c>
       <c r="B3" s="81">
         <v>0</v>
@@ -20486,12 +20483,12 @@
         <v>1</v>
       </c>
       <c r="E3" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="52" t="s">
-        <v>58</v>
+        <v>235</v>
       </c>
       <c r="B4" s="81">
         <v>0</v>
@@ -20503,12 +20500,12 @@
         <v>90</v>
       </c>
       <c r="E4" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="52" t="s">
-        <v>142</v>
+        <v>236</v>
       </c>
       <c r="B5" s="81">
         <v>0</v>
@@ -20520,12 +20517,12 @@
         <v>1</v>
       </c>
       <c r="E5" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="52" t="s">
-        <v>190</v>
+        <v>237</v>
       </c>
       <c r="B6" s="81">
         <v>0</v>
@@ -20537,12 +20534,12 @@
         <v>0.82</v>
       </c>
       <c r="E6" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="52" t="s">
-        <v>271</v>
+        <v>238</v>
       </c>
       <c r="B7" s="81">
         <v>0.36</v>
@@ -20554,12 +20551,12 @@
         <v>0.25</v>
       </c>
       <c r="E7" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="52" t="s">
-        <v>60</v>
+        <v>239</v>
       </c>
       <c r="B8" s="81">
         <v>0</v>
@@ -20571,12 +20568,12 @@
         <v>0.75</v>
       </c>
       <c r="E8" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="52" t="s">
-        <v>59</v>
+        <v>240</v>
       </c>
       <c r="B9" s="81">
         <v>0</v>
@@ -20588,12 +20585,12 @@
         <v>0.19</v>
       </c>
       <c r="E9" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="59" t="s">
-        <v>181</v>
+        <v>241</v>
       </c>
       <c r="B10" s="81">
         <v>0</v>
@@ -20605,12 +20602,12 @@
         <v>0.73</v>
       </c>
       <c r="E10" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="59" t="s">
-        <v>199</v>
+        <v>242</v>
       </c>
       <c r="B11" s="81">
         <v>0</v>
@@ -20622,12 +20619,12 @@
         <v>1.78</v>
       </c>
       <c r="E11" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="59" t="s">
-        <v>182</v>
+        <v>243</v>
       </c>
       <c r="B12" s="81">
         <v>0</v>
@@ -20639,12 +20636,12 @@
         <v>0.24</v>
       </c>
       <c r="E12" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="59" t="s">
-        <v>183</v>
+        <v>244</v>
       </c>
       <c r="B13" s="81">
         <v>0</v>
@@ -20656,12 +20653,12 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="E13" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
-        <v>180</v>
+        <v>245</v>
       </c>
       <c r="B14" s="81">
         <v>0</v>
@@ -20673,12 +20670,12 @@
         <v>0.73</v>
       </c>
       <c r="E14" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
-        <v>200</v>
+        <v>246</v>
       </c>
       <c r="B15" s="81">
         <v>0</v>
@@ -20690,12 +20687,12 @@
         <v>1.78</v>
       </c>
       <c r="E15" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="52" t="s">
-        <v>54</v>
+        <v>3</v>
       </c>
       <c r="B16" s="81">
         <v>0.34599999999999997</v>
@@ -20707,12 +20704,12 @@
         <v>2.06</v>
       </c>
       <c r="E16" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="52" t="s">
-        <v>44</v>
+        <v>247</v>
       </c>
       <c r="B17" s="81">
         <v>0.80800000000000005</v>
@@ -20724,12 +20721,12 @@
         <v>0.05</v>
       </c>
       <c r="E17" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="52" t="s">
-        <v>166</v>
+        <v>224</v>
       </c>
       <c r="B18" s="81">
         <v>0</v>
@@ -20741,12 +20738,12 @@
         <v>5</v>
       </c>
       <c r="E18" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="52" t="s">
-        <v>191</v>
+        <v>225</v>
       </c>
       <c r="B19" s="81">
         <v>0</v>
@@ -20758,12 +20755,12 @@
         <v>5</v>
       </c>
       <c r="E19" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="52" t="s">
-        <v>192</v>
+        <v>28</v>
       </c>
       <c r="B20" s="81">
         <v>0</v>
@@ -20775,12 +20772,12 @@
         <v>5</v>
       </c>
       <c r="E20" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="52" t="s">
-        <v>188</v>
+        <v>248</v>
       </c>
       <c r="B21" s="81">
         <v>0</v>
@@ -20792,12 +20789,12 @@
         <v>8.84</v>
       </c>
       <c r="E21" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="52" t="s">
-        <v>129</v>
+        <v>249</v>
       </c>
       <c r="B22" s="81">
         <v>0</v>
@@ -20809,12 +20806,12 @@
         <v>50</v>
       </c>
       <c r="E22" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="52" t="s">
-        <v>31</v>
+        <v>250</v>
       </c>
       <c r="B23" s="81">
         <v>0.50800000000000001</v>
@@ -20826,12 +20823,12 @@
         <v>2.61</v>
       </c>
       <c r="E23" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="52" t="s">
-        <v>84</v>
+        <v>251</v>
       </c>
       <c r="B24" s="81">
         <v>0</v>
@@ -20843,12 +20840,12 @@
         <v>1</v>
       </c>
       <c r="E24" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="52" t="s">
-        <v>83</v>
+        <v>252</v>
       </c>
       <c r="B25" s="81">
         <v>0</v>
@@ -20860,12 +20857,12 @@
         <v>1</v>
       </c>
       <c r="E25" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="52" t="s">
-        <v>130</v>
+        <v>253</v>
       </c>
       <c r="B26" s="81">
         <v>0.1</v>
@@ -20877,12 +20874,12 @@
         <v>4.6500000000000004</v>
       </c>
       <c r="E26" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="52" t="s">
-        <v>56</v>
+        <v>254</v>
       </c>
       <c r="B27" s="81">
         <v>0.3538</v>
@@ -20894,12 +20891,12 @@
         <v>3.78</v>
       </c>
       <c r="E27" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="52" t="s">
-        <v>80</v>
+        <v>255</v>
       </c>
       <c r="B28" s="81">
         <v>0</v>
@@ -20911,12 +20908,12 @@
         <v>1</v>
       </c>
       <c r="E28" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="52" t="s">
-        <v>55</v>
+        <v>256</v>
       </c>
       <c r="B29" s="81">
         <v>0</v>
@@ -20928,12 +20925,12 @@
         <v>48</v>
       </c>
       <c r="E29" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="52" t="s">
-        <v>63</v>
+        <v>227</v>
       </c>
       <c r="B30" s="81">
         <v>0</v>
@@ -20945,12 +20942,12 @@
         <v>65</v>
       </c>
       <c r="E30" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="52" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="B31" s="81">
         <v>0.89970000000000006</v>
@@ -20962,12 +20959,12 @@
         <v>0.41</v>
       </c>
       <c r="E31" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="52" t="s">
-        <v>79</v>
+        <v>258</v>
       </c>
       <c r="B32" s="81">
         <v>0.80700000000000005</v>
@@ -20979,12 +20976,12 @@
         <v>0.9</v>
       </c>
       <c r="E32" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="52" t="s">
-        <v>78</v>
+        <v>259</v>
       </c>
       <c r="B33" s="81">
         <v>0.73199999999999998</v>
@@ -20996,12 +20993,12 @@
         <v>0.9</v>
       </c>
       <c r="E33" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="52" t="s">
-        <v>77</v>
+        <v>260</v>
       </c>
       <c r="B34" s="81">
         <v>0.316</v>
@@ -21013,12 +21010,12 @@
         <v>79</v>
       </c>
       <c r="E34" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="52" t="s">
-        <v>75</v>
+        <v>261</v>
       </c>
       <c r="B35" s="81">
         <v>0.59699999999999998</v>
@@ -21030,12 +21027,12 @@
         <v>31</v>
       </c>
       <c r="E35" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="36" spans="1:6" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="52" t="s">
-        <v>76</v>
+        <v>262</v>
       </c>
       <c r="B36" s="81">
         <v>0.19900000000000001</v>
@@ -21047,13 +21044,13 @@
         <v>102</v>
       </c>
       <c r="E36" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
       <c r="F36" s="35"/>
     </row>
     <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="52" t="s">
-        <v>81</v>
+        <v>263</v>
       </c>
       <c r="B37" s="81">
         <v>0.13400000000000001</v>
@@ -21065,12 +21062,12 @@
         <v>5.53</v>
       </c>
       <c r="E37" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="52" t="s">
-        <v>57</v>
+        <v>264</v>
       </c>
       <c r="B38" s="81">
         <v>0</v>
@@ -21082,14 +21079,14 @@
         <v>1</v>
       </c>
       <c r="E38" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F39" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="dVn65n3cjp8FmTEwGksIh3GZfbc6TfyE9UHf1WxN6MRSnfhpxAMEwzlECIYposoUkYMg6fmuaB69yj0BOqkgqw==" saltValue="bxvVXOwurFBhWRIa1tfU3A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="+omTRhmYfgdciu5JPBoW6euwNp4gUFTdDEUChxuEmRXLhJTtgeAOGU/gbq/Zk3xgqd+C+3LhHlBUmTbxhr9lbg==" saltValue="V6fFqAeGSYTb+eFVmzbWFQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D38">
     <sortCondition ref="A2:A38"/>
   </sortState>

--- a/inputs/fr/demo_demo_input.xlsx
+++ b/inputs/fr/demo_demo_input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\romesh\projects\nutrition\inputs\fr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E554107-71E5-4061-9696-48F70E6163B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C06B0EF7-562E-46DE-90BE-A610E518D85D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7620" yWindow="2085" windowWidth="27480" windowHeight="16170" tabRatio="885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7965" yWindow="2430" windowWidth="27480" windowHeight="16170" tabRatio="885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Donnees pop de l'annee de ref" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <sheet name="Coût et couverture du programme" sheetId="56" r:id="rId9"/>
     <sheet name="Programmes de référence" sheetId="59" state="hidden" r:id="rId10"/>
     <sheet name="Incidence of conditions" sheetId="7" state="hidden" r:id="rId11"/>
-    <sheet name="Programs target population" sheetId="21" r:id="rId12"/>
+    <sheet name="Population cible programmes" sheetId="21" r:id="rId12"/>
     <sheet name="Dépendances du programme" sheetId="58" r:id="rId13"/>
     <sheet name="Cost curve options" sheetId="61" state="hidden" r:id="rId14"/>
     <sheet name="Programs family planning" sheetId="54" state="hidden" r:id="rId15"/>
@@ -5206,7 +5206,7 @@
       <c r="A63" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="hu08WNTSMDMmvAfjKoaBY9VmdUFXgYG/N4ZvK+YONECsiayyXbC/xlXqLoKfnuBw8ZClM+FtCkwXy+pvRMbWCQ==" saltValue="EIoLjDGq/NA3mG2jMIs0tA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SAxx89qWh8FP+QEUsqYv2KxIq5N1YOuQD+ERUReRId0BYGfeThK/Cfg+pqubse3y8ISpIUO+ImW7ok9r0KRpwg==" saltValue="E0UWM0J3ydcbdNPHjbtamA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
 </worksheet>
@@ -5305,7 +5305,7 @@
       <c r="A19" s="48"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="8pT5jAWyda8pOEUeIks6xdlqUnNNsF/rohTHgRJN9sEP1I5+QPFYn3n2Kq49n9kYQD8/R6E2rB6JPsmmAqs0OQ==" saltValue="cB0FyewYXKxvXNXqxLq7Dw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="9unX8OKMc1XW7arD385PCm8pDs0JWQZH3/a8RxLHNDYjRlDpmqcGZzktwFGm9iVdFrKdEpt4OLeR+GAHsMz8hA==" saltValue="wVnHZPbnHHKvPZbKZVUnVQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -5420,7 +5420,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="yVv2kcMZzWBRbZY8bTkOOaxZ1m2jLjJ/MCjzEMiHaAiTCctN034kh7+OWAiNX+QhUl/USkJhu+t4OpyudEPnjA==" saltValue="ePYtWynGhh76R1h19EM7rQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="m5BUxY0MwG9yeXLMiPatwuK+DYh8zgYKD/7WRnCp/qfB9UaqzxCWHGlW1n849SrWLZR8mFk4xWYFIX0gZSCdvw==" saltValue="gOIY9JrdI6I8WLPdEikg1Q==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -7136,7 +7136,7 @@
       <c r="B39" s="33"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Zp/pjSPPGCHFZXrKtAOZdAeeudUZTXb4mvweB3M8R38A849ifk3rXhgKsfaRA0qApVUAEbmfvDJkJBvl2XPrtw==" saltValue="XJ2XXwAFz8BPJvU9DA6zxg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="i0kpjwnW2S7Qb7FGhg07BbLJ1P1+P8bdNiezI7+SO1aiALT2UbE9LRF16J4i4bYCD9Zo3z7Xv4V2/Vh3XAgU9Q==" saltValue="YBJduAOTqPRalp0XBzkfEA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B14:O21">
     <sortCondition ref="B14:B21"/>
   </sortState>
@@ -7287,7 +7287,7 @@
       <c r="C20" s="85"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="c1oUBbpe7sApt2o381nqbkThVazd/vlKGXdVtp88G8TS8/encL6XGZA321914iD0GQrbxTJWlWUhcAm6xEckmg==" saltValue="xlPO6/TnB6ucNhGZyY6pVg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="PwR6+kIagI3rH45oIxptGpf8DHn3HNZRZKToRa1XMzlNnuk6qMXBFiAy9Dkf32k9Y3k0/eQ+iowL5BEFrQkM+g==" saltValue="E6BxCcZAlKFHXx08kqzuzQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
@@ -7323,7 +7323,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="FWbr9z8ZMNGt8Qv8J4xnCHS2ZYSGy60RV2gDrGx8uqzIfrsAwp2SuYAydDXVvMAFAkgYgn/cCgAbrwisGcgRGQ==" saltValue="yAIhGqvG7rXirdu7L8mETQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="GQ026vMF+Rajh0DkcIxUfjxzv6QMJX/VNoCAuOocENz3TssA1+8m2Bw50NRDNfi9XMml8bQjEn4JBsThT6zY3g==" saltValue="xNNSMv0hvgFCO1r2IboVvw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7531,7 +7531,7 @@
       <c r="C11" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="RvGy3WlBzBMHx41HjAIm5dOgnMuGlI1AH0062SR/TYe4b+xeupEY0Ip6yD9I8fXiEAguFFuowU8CLrwT8/XPKQ==" saltValue="3gTx8E1sKEMOEO73RnW8CQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="TmpOI0XClPyxUkhf2u/cNF6gyHVrisOeDIxVp6ovh8hobngfYkpw/wmG7rXR4ncEhjro4sjuw3mMUCeKlbu40A==" saltValue="Mj+pJAQ1W/UVrZdEN747Dg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -9302,7 +9302,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="U0cgQLie2t9B/olQuuE3WR0ifdyuyt6NOp8b9pXaKjWxC2FTQPiAOv83RJUtydGnP3WvNnWJ9tq6hRj0LiVlJA==" saltValue="R8HF3RYw/yHSxR31pij8wQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="K41e583naNhfG5ul6MjLY98bqljmTYBaBLJmC5C7Pvrus1uGDGAhd9G7oGKpZuSOZD6sCrM/Tp3SGazgUDDFZw==" saltValue="/Cxmb8zkIQ6H/a0UP5dVVQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10048,7 +10048,7 @@
       <c r="K38" s="133"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="JjYdjFXM9y5XWWtt16biE6zKDkiELTdGqTWCP9cblB6vKik4ywZ1xJO+QqoBTyxBMkSbjfg58aeZMGQ3e+OOog==" saltValue="pRUCVkwhe3nU7QYd/fN0vg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="/HKSoJc01abChjFYpYfPW8Rck/UTJKrS9mtStL2qo1j2IYjghp+fG0vOlju7Svf4H9xGlTPfsKxbCySgM5+XiQ==" saltValue="BE9H9ZvvOY8D3muvJP4QWg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10422,7 +10422,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="02ZYSOMkH4cpIvEZre9ixEX9/myW2TXnPgLfHe/oU72Qzj4m3FmKeogZW5aDbMFBNDERKdG7nhKRIxQPB7EzHQ==" saltValue="GNH2RrpxqbhIb5HeUL2ytg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="PqBGMCgQB1ML7orTaz4PqsOBC5sPgXgyxjPbHb9kP83ubHnH/m9jfSV/R/p8xAz3XW/+Lusvs/DZhYZukdme9g==" saltValue="e6otEAoqA6rHXlOtFJE4eA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11543,7 +11543,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="gaJhmVVHPgoKFwnWiY7ujlnUeHksTdFwEdKValiPBT00Kg0wkwaEJgTi4JCceSD/V+uNvyONzeCh19UaA9YnPw==" saltValue="HhDlErbx5RqhYRCu3IfP5A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="VMtcmdz6BXSGHovag3Lt7JXjNiDKIgF966kHYMuO3nknqmZWGTtQYCzRTAqMHzSv5NfeZTJ8XFHYSoqgK9m3nA==" saltValue="PPPMYTkwD6C5fTZ47gQm+Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="B2:B4"/>
@@ -12651,7 +12651,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="tRf//NlhWd0LHZUP2/EuTRbMdW9Jk8/byt4JgccxUaH1uf3qn2Er8P1Wey740AgGWSFi45qKE4aeJViZ4XsOGw==" saltValue="OWt8Z5sk81Ucw5uC6RGLuA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="insEpQnUxHO/UlnQ9OQquZ+o7VKeN3oap5u1/9qSNW2fbrYiFzybxYMShr6HpDnhsFJnieAoI5pWTXiFZ4EdFg==" saltValue="5GAlT3/94HOuylXK5WfNJw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <conditionalFormatting sqref="B2:I40">
     <cfRule type="expression" dxfId="0" priority="9">
       <formula>$A2=""</formula>
@@ -13053,7 +13053,7 @@
       <c r="B28" s="40"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="/jRpMo2BbOHuNqXysJkwb0G/JzUXQ6bQ3OgUUZ2T3IYtUV7HVycmhCd9DXh7GLhVLmCAVvm0eMMEHYXKPw3LHg==" saltValue="sh9eYjSugJHrYcqVwU/AYA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="RZQafwiMpvO1/+7NeYaTZEeWaGpY7O2XbL5h3uUoeDrp0ZvAfE97/d6ayoUvtXIcLhY7iORu5yTQk26mByDzcQ==" saltValue="Umr0flWwKg+WkL8v1lC8eg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -15956,7 +15956,7 @@
       <c r="A111" s="40"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Odic1j5d4w9MloWklz90EN4xCQZPlUzRXuq6iX+Vp60pCHng36Z0AYH+R/pcYeT/GIH6Zus0CfXpe/pQLWyZLA==" saltValue="D0a7AvpOGOiks85vEjmp7g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="pMrUOnwiv1XTUQlW/DaGS8RsIrWGj1ONZ5ufuo91/Cyt+6MUwhsrE/5igjkNQQXh+BJBpY2MpFFvCkgKe0acGw==" saltValue="PhiaEKsiGxiotYWqjsd7lw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -16265,7 +16265,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="rN2f5LvyvWb52b4URUAkp1f5nXIzXh5f447rSSLmbECBO1tuCuhjiQlsYVDquRWDB+H/qQJnVjAkAfzBty/W5Q==" saltValue="vUjPYCyF5uDGBEHixSm+uQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="kO2KIukf5aD//lFbG805FjiRWQuofdMkfNPKdhtjlAnis0yYtf094ekruxnpdapiYlTgNjGZurIvJcNGGnPq1w==" saltValue="Vb1EyXOfSB8lsjE5omcfFQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -16545,7 +16545,7 @@
       <c r="A20" s="90"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="qxJHGVnRtfa6gnac/1YlCUXqEJIOBBxqUL/okxuCADsc36LBz+0dYagDyoFU/cwY1n2hlkS9+1O5trrVBSdggw==" saltValue="jCA5HyPtTdjejkYnc7oALA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="BxCXSxNL31HAyNE8Dq0rMv17RY5YVKuMWsjVnkFKBSpXoUjnZqhr4V4dCfRLz7fcSaKLe2G2CJ/yE8GkeiyENg==" saltValue="zerlBPpQ/TpU/Kk1Lo90sA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -17341,7 +17341,7 @@
       <c r="B28" s="43"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="FBhGLTjSyspzLxpZpnlzJynEdb5GtTZ4DQE+sn3/OXo3eZYaNOoz1pjsU/aburrxu9WvYN0zluZMqbZeNbtY+Q==" saltValue="Slxn+kfUX+uuZ/dtFNRhIQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="a0xpnRX4XBmshenm/j/vJLSCcsmbmNvnCRwT7X8/OTDG5WmeCj/ElRCsll2StsOyhvo9Yhku68K2NMic5ZijGg==" saltValue="5XwHe/Ezpx8E6O000XkmnQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -17442,7 +17442,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="5GB6o+u9+28RjgUHnuvo8suozue0PQsiRANYHZgl82tW10ACnwuWcw3FMtPwE30WIoPLMLXxk5BQrqpT+YCd1w==" saltValue="btVVScM+LADShIKbGvP0fw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="KatSR+f78zSnl9tna3edIlL9FJ2LijxMIaCmrXdgcKhlGL3XNuBAqo2USahLXjFwnuSr/HklA3wGoL43A4NClw==" saltValue="rc12VrsBwfHoToJbUu8Wew==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -18572,7 +18572,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Sc/AMacdXe2Op95dtUpQrassmcybMPRYLR2eW2kT1TzcrdbcvGZX+3GgsmWG8Zz0eQ8lW+0qKVfLn0m0UU6Wfw==" saltValue="ucjd9hMcKOkj7uvVrF+z5A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="vUEW8FrkQxdnNocbfWVdl540hv3vZL4zaw/pR71xWZ44CYFi2A+dTiSCRK184sYHZwgCDgwWUBAubbuJe/nh8Q==" saltValue="7h0ideEnmuNybUIPscDzYw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -18749,7 +18749,7 @@
       <c r="H7" s="128"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="H9fk/Dz4e8FEFPWmHBnpZCuS9SaPc8PP8BkZr5VpGLVBjdNRnLMuu+caeTVPWemCh9KqWt/JW9/l5bfNRL8B7g==" saltValue="atn7dZUZV+WJvV82GKOpVg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="4Hks6M+jM08pc7n9BvJUCHUg0ZSzKfF7hDbCaPUWEw93N8ewQS6AqDEaTdUs6WWyJw7nW99j53ZGC5OFK1vFPA==" saltValue="frj09XtGiGaLwwE7YXfOvw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -19186,7 +19186,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="qbhZ9axHnx8T0EFaBxeXnU4Ix8xg/VHAh/svsOWZrsq22NGA+3GFdtNjsWxHUakJyvzc8btxx6U9o9EDKSOZQg==" saltValue="E44dQ8PNWTWujdlyYQmZ2w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="c1ZdBQp1Yl2exWPVHta7wbzj1KviIph7jZtKZefCW1ql2wnL3GbPAYOzvsl5u+BdY4qOLTLhOnVb/YT2VgydkQ==" saltValue="jfKvgj/U7wrUTDa6g7mZNg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="69" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -19613,7 +19613,7 @@
       <c r="G17" s="8"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="wxZZYfeq6NAXp0e0Ke0/k15RBBfbpE96BgTesU6CLB1zQ9lsVTmCpvxHrgvQ9gtsWSBS0jmADDj4+eS+W/0bhw==" saltValue="QVLrZ9MVEhqYEwpumH73pA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="bY/i5Ba5SBzLmTQCe4b2PT36fx+05tkdhkXlFdt51hqoItBneaYx1WRLVzySDjIinRcR6IXtwhfIaeK55/K2+w==" saltValue="Xv+b5wIZJSScQE6IC3gTfw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
@@ -19750,7 +19750,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="A6Jdl+WUTAD1J0Rz5QJcx+ZeCq5AaQn98SIQiFP4h+dhKq/IP1FP3csQfIFEn4XZw887kKQQk/sl5HXYojbPQg==" saltValue="f7yQOO+fFc0GlMt4qsWZWQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="lMQ5zQMBg/X5tQkZAHp9cNWOF0JRZlJMdIMWD9Y0dsxXZ234us+vgTLB8gljL+lq6UM3Qm+4uveSlU+ov/geKQ==" saltValue="qvVfTC7N6HENTnpVgMmW/w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -20066,7 +20066,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="sRvMgpS/vrCbUfdisIa9ycvmu8PWXYP3YuI12IP/9RBboz6kcBpnVFxasSU19Cw5CobYH6DXbfSYZdaHYUO9DQ==" saltValue="M26eMHnezxxyDcZWv+hvAQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="dPN1/fIXX8xcxLhC2eAADUdPNMknj4fX4sJTzzO2RCmIbuKRfrkFLPQboJq8bQ3V3lKCX8QMpqacCkHFx2wNpw==" saltValue="dg0WnREdNaCSGolBmGd0BA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="193" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -20344,7 +20344,7 @@
       <c r="E21" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="tmL+UhDe0fgIXITxlmfE4bOETh7B1bG5obAXyKdcvc94ezVx5ianFJdrwbbU8iq8RpD5V6HpusQdr7hVWphfhw==" saltValue="weA/yW8112gCW8V8o9inlQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="pL4r3opcAbR6seX/MyaXgh9B8f+oEhGXdw5jgW1euprRPRNUXYN6cl2T5QPoiF/RyyGOco1F/eQ5YGSlZAhJfw==" saltValue="cKR5ztnGzsyW+RVBrxNIDQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -20408,7 +20408,7 @@
       <c r="D3" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="qz78OQEGpua5FrSBW1Q3A/sDgIlyi7Cz2M/2NgBrB4kVcyA9SHCOwjawhUtVrYyq0JVS7n5O+iHD6Py49YdyLg==" saltValue="r4bbsMPsNKmpCxCA538oKg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="h59EJYyxwUaK5vOQfO8FX7ZgJOe/7Wd72E1oB71z0ZyITcNgRpQEIMAqtPPhjr2ohfmq9ej0kTEHfW49FMPUVw==" saltValue="yzJi55RMZzjcE2X527/tHw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -21086,7 +21086,7 @@
       <c r="F39" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="+omTRhmYfgdciu5JPBoW6euwNp4gUFTdDEUChxuEmRXLhJTtgeAOGU/gbq/Zk3xgqd+C+3LhHlBUmTbxhr9lbg==" saltValue="V6fFqAeGSYTb+eFVmzbWFQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="2k8K+v6WZabjCWkGg76RN0GNHccjHFs47OY+XXcluTHdFh5Ngx2fWmrNePraZPiwI05YKloWRqIlXSCP/OU0EA==" saltValue="USpQFJzC/1jKbNnBqLQbhw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D38">
     <sortCondition ref="A2:A38"/>
   </sortState>

--- a/inputs/fr/demo_demo_input.xlsx
+++ b/inputs/fr/demo_demo_input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aimee.altermatt\Documents\GitHub\Nutrition\inputs\fr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B2F9B4B-EF62-49D2-93D6-901A42E1201E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C653898F-305D-423C-AC81-3B78BBEB5E73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1140" yWindow="1140" windowWidth="14400" windowHeight="7360" tabRatio="885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -510,7 +510,7 @@
     <t>Année finale</t>
   </si>
   <si>
-    <t>Données sur la population</t>
+    <t>Données démographiques</t>
   </si>
   <si>
     <t>Population des enfants de moins de 5 ans</t>
@@ -1056,7 +1056,7 @@
     <t>En forme de S (coût marginal décroissant puis croissant)</t>
   </si>
   <si>
-    <t>Efficacité</t>
+    <t>efficacité</t>
   </si>
   <si>
     <t>Retard de croissance</t>
@@ -1146,19 +1146,19 @@
     <t>Anémique</t>
   </si>
   <si>
-    <t xml:space="preserve">Risque relatif des causes du décès par mode d'allaitement maternel </t>
+    <t>Risque relatif des causes du décès par mode d'allaitement maternel</t>
   </si>
   <si>
     <t>Mode d'allaitement maternel</t>
   </si>
   <si>
-    <t xml:space="preserve">Risques relatifs de la diarrhée par mode d'allaitement maternel </t>
+    <t>Risques relatifs de la diarrhée par mode d'allaitement maternel</t>
   </si>
   <si>
     <t>Risque relatif des causes du décès par la distribution du poids-pour-taille (amaigrissement)</t>
   </si>
   <si>
-    <t>Avec retard de croissance précédent (HAZ &lt; -2 dans la tranche d'àge précédente)</t>
+    <t>Compte tenu du retard de croissance antérieur (HAZ &lt; -2 dans la tranche d’âge précédente)</t>
   </si>
   <si>
     <t>Diarrhée (par épisode supplémentaire)</t>
@@ -5191,7 +5191,7 @@
       <c r="A63" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="J0ExHI3s4jkyFfvkbLmdJsCccteNAQANHaVOdU+bVKcPLtCFpLg3+4Lma7JAdIHcCcasw4/hqQLgI0cs+0vE4w==" saltValue="phXyZBLA+o9ACGo2vXYwvA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="BcHNrpLfM7nfwFuJ56nBD9SekFreI/mU/6zZ3TLUqoPSRnl61RLTtXteRCJoQKoIRJWUp5toocaMt7Q1bjUcXg==" saltValue="2+7KvU1PSpS7lMsL4PCNEA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
 </worksheet>
@@ -5290,7 +5290,7 @@
       <c r="A19" s="48"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="9ihL1YCLP7ZMl6hlTFOyfpdEO/FzNNOY6nmroU1zLrPiABKkPNMUPegdQXpm2a11p6aaxO+4V/8mCYW6KK1h0Q==" saltValue="g0fvXNGZ2gFtdrD9Xloevw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="ZrcZpBKXqEqhkD4wC3YGwHqV8WAaJPIZxVitPdbv7Ahfn5D5qnWJ6OOUg9S+QDqlNjcPxl9p9F/OcoG26YWlJQ==" saltValue="eXyfJ2cmnQRkUj7gWiVp9g==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -5405,7 +5405,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="L6GDoSUFoKFzs2LL+lT4jaqsjL/mx2YvctEOLx1ukQE3gVEG/x/mIJUnE8JZai5uEAZD3q/1l7dFR9yd3URB2A==" saltValue="bNQXR6PGqnvQBhwf90BRPA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SZenVMSSUiDaRc0ObwgG6XL7c0CCtt4FSxcTCIKuGhu6mtS8tR2YpjptuCIspKHKXlMJqQlTItGuNt7S7oS5Zw==" saltValue="PvTxfjQ6oaunes608qC/CA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -7121,7 +7121,7 @@
       <c r="B39" s="33"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="yJrZ2yet0l4ltZfNaZfpjryY+cBYhp5nHeCuZ6iNkdICs3xeh4wa1rGC3bX/tK7Vqm8TsES2Gx7/p1ItSTVxPw==" saltValue="ngELuUobDIctXUAn4QHSTw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="wC3WhJriwjxt8T14kBd8nqcmbZnNfhedYSfOD0QEut+rKpkeP9JbXhe7Gmk8cxNScj1GRTHoVZ1DFzH7/dYniA==" saltValue="+MthxhPqON54l9/rQKVzXQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B14:O21">
     <sortCondition ref="B14:B21"/>
   </sortState>
@@ -7272,7 +7272,7 @@
       <c r="C20" s="85"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="gNI+cfC5WkNiY3iuz0jOdaL1gY6q2YWx39J8l98HXOWKhSrp0BNDtmWuOhFT8l7xqEZB9fzMd8ibRY19h4WTzg==" saltValue="j2l0TxVJV0GNKIEDVJLiTQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="sTnOSxlh9KLUcimGUPyUmb7/Q9vsM31I5lzsRHgTC7FaRre2YXLzVfwBrxoTiaUdStsxicxE59FWu+6THpDWdw==" saltValue="M4XWUDc0+PjxqyjkUv54Yw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
@@ -7308,7 +7308,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="kqto8WS3Wo1UXugiYqvpt+SRlI4kguMlzQOQlNsgqeIdUZQhcXmKIE+CvD7HOiwRwDXUor/D0KWfeZHF8plXZA==" saltValue="fRIcZcytZNT63fp5B3C+qg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="KBbLFAo9QuKoPXXBL04m0FbXgWrWVb+V9xNDnCHBpqhItolP8eohDSKzcpN+jBrLFqYUpnIfbsbcCUHVu524DQ==" saltValue="PkSMSBVhjGB4NOziHb5TRQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7516,7 +7516,7 @@
       <c r="C11" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="jPTGWNtqhMxXMaW6YKKDlEIlbPAql2Cu+zHd4oSZ8VyyK2qbqAnUfSYH26M/jP0Ho2HfWGT+D/+/k/fh94CIqQ==" saltValue="oIW1V1R/6VELmyARja3KBw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="gZhlmSGHPEXUilJ07M4WJd74LSNWpVktP92TVQHNsAYQzEvZbUJFWvjXFV+BuHIeSGVqxcJ7eohiwJNzHSDgUA==" saltValue="dK7BN+TI7aESKznhPGXKlA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -9287,7 +9287,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="KCTd60vzkoofIdr1a2+qat0ZDOKYvPW13fkurjcuCsnvep+Q4xZG8TDb+recmSY+Ek/kZtAQzFo6Ig8Edo1RVQ==" saltValue="Chz2eZpBzYGgG3e7ZtEkYw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="B7O//Gujh4Qr4UBSSWsLqJ60CPIkK5qRudWifcujmQSnh6hrTUQ76C/7SfugIkyuv0QeqWQchXfgk7ffzUABVA==" saltValue="l0s/M45O+iZdBkqu5O4o8A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10033,7 +10033,7 @@
       <c r="K38" s="133"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="JXAvslkaUWURPT13sBLs/dON7iUnXtJQ9Rnplurr7QOmFy0thjUsqlAt0ZXIhmTGGYbwEMKlWIJMsI6mD7jiUQ==" saltValue="OxhgvwQGbOQ8MwevG96lyA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="tI92hNUbbehs+KplGGIaUzxPW2S4UYoY5ImWizYT+eTCD8drfMh6gxASOt7l5oIWoFGb0W77oXscBfpZ7MxQBw==" saltValue="w0DejQQBvVf4ew41TeVHgw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10407,7 +10407,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="SXacT22WZtgFy1JIMMyqbf4tBGJEWf9pufTpVPaxXrfFZKLXZ7XcQE1vvhs4yRVWUzUK0pkVN+RQIZJIhJhO1Q==" saltValue="f9wEHgjWbR5jnZlRG2suLQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="MWBQvZIkdMeNHJP7INYBaKwpHahk8dhqAaLTGCq0ecnERJgO0PKQm1ikZB4iMyE3yM/htSF4JrYACGTXia3EHQ==" saltValue="cBAhJO2Yt2efi1rmAQJgVQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11528,7 +11528,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="3sU6FcIJI/f5DDxjZXG41nVBKx1gX5wrL3N463uEQscpN/7HWM939OUeepDmyFL0BKdIQzpX/ZE/BVdu1/nY1A==" saltValue="xBYrO9KE5UbcQjB1AQMdDw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="o5CDTHSK+TLhJAiqs8SV2AqTItqn3mY6qhyxVC1EmWchTDIAuBUL9NpJcmCVhURseG5YBDFo2YXylCMV5fvicw==" saltValue="9Z34lGhIteulbQl8a+b0ag==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="B2:B4"/>
@@ -12636,7 +12636,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="IvZ7QAE/hamg/WoK5UwRqYbYGwx2l2ZJplB/9UJjKujsySwoR06qUZxMnrh3GiFyyJugyx/g2NQEgPgAGLV8/A==" saltValue="Fb6YihupynY9JmtTCrE07g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="hAGFWxvf8YUfpcYWTC00AAMAkin1ZOHzWtDWSxCo5PC9wcOnOkn8brprMwU5Z+b59p8iZjuntjD6+HWixijp2A==" saltValue="y6vkIepzzJ98CAYDiKwVRg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <conditionalFormatting sqref="B2:I40">
     <cfRule type="expression" dxfId="0" priority="9">
       <formula>$A2=""</formula>
@@ -13038,7 +13038,7 @@
       <c r="B28" s="40"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="4JwenSzYu49LStpE1gLZwOtMGsqEMX2j74F+CEXLbot1D9gpsQk0t/Ec0PbaNr0DZsMl13wojnatoOgtmtHLpA==" saltValue="gBsUcLbVKtmQd66jcFQYyA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="d6NPMVWOcm0lsfz/SIT9rjITFQU19Nyxd9HBNeT0+49Syf17tPGdPkrvSf437igdvhVnwVQyLkeInG8/Zb7JQg==" saltValue="VQmdG8W65PmA79jqa/LLLg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -15941,7 +15941,7 @@
       <c r="A111" s="40"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="MA3EzEpJHh0yaFP0zI+WrM+x+hPNtx6pNoXXDsqUoC+7pN0IC1F3qcjb1s/o3EaUMwLusRwVb1TJ9nfoCs5Zqw==" saltValue="xPbcEEUBL6MLnQKofuLRCg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="i8mN3ZhyB0Nyaj6k903abhPx4HCgCvCMja3iAUYsWLrm71Y+YaBrjFwz2oMJXwgxODleJOxo3o21HOd6C0asPw==" saltValue="WexCPU1sWkYXt2Mhc9U/Hw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -16250,7 +16250,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="FO6TiQogdO5JpHf4M+bYH6DcOkg17pTJkdABx1tqdgGjANJS98Br3EC8eW5k/qw08IYlk9VJJmAyyqhMu/Quog==" saltValue="ClQqPYRxdo2s2dmC72me4w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="VMjARlJJax3cxDtxolkhCXTPbMRl9CDq1UxHhFbTH3Sqfaa/lAMdvdTI2EoQAB5qwgGqPeogVKR6cpF4thUa5g==" saltValue="OCPnDgxGMV/gUhDzLZARFw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -16530,7 +16530,7 @@
       <c r="A20" s="90"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="DTy9+BGKcThlt8PFZeWbSDnwNROA2O7TIehTAGNXMRQfXsqkNFELwy1BXaBUdNmFeGLGBnwqkbU/njsC4RJlLw==" saltValue="hNxQH2Hg0D2ed/hHQrW6Kw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="JspThBlELRPKHJ1KVh2DOEMK4wgz6rqAntWM+nVeqawAxH1UmdhguUvYtc6Yd4v2Qy4rhUsrdF8taBvVUs/KYA==" saltValue="ii9u4bX8w+bKxgub8ptSQA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -17326,7 +17326,7 @@
       <c r="B28" s="43"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="t3bMWFRoDp7g3XmpPbEO7kwWDvOq32r/r8NkvjC3oX96sHagsko9SnEjUUbqq/p1wi5YbELpNxEyoc4MCcyRKg==" saltValue="qimFG0o9IrelI3oktGy8mg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="u+IvWOJX34Vek7R1wBMfac8Wb6Vrv298j+ZxDWSBgCEi7LO8i2wFiugea7cCWGdBTZ1ESmsVX4+x4iOT/yD3cg==" saltValue="2yx7/2zQwLZ34uBBgLF7YQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -17427,7 +17427,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="gdXwEAJfZ4BberSgq9kz3Da3XY5TZ/gnAgOyfzhRIskzVmmdf9BAOsNaB7ekIRtGW4tmbaMert/GN5YIUI24gQ==" saltValue="w7GWq3PYuNptwLh72FYPNg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="MR9Z0ZT9pIEbm4eH4On9z1WeJKEHCCqD0NzqzqA7D3fBzk0PcnOQWe3lQPhQb8dfwQhz1b3LmdnAputHViynCQ==" saltValue="2ZkGISKaJxLSbg5GfAziEA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -18557,7 +18557,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="qF+EnXDI4Z9Mr2EnnvCHtBI5NWOzut6TlYht8oEwwcmdQ1D00blZqMVWkDgjM3LiNeJJYnmc1ZgKXxbmuJBBJA==" saltValue="rx2cbgRUeMKuCuUlToKImg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="R7uuK1Ez0KE90nGEXK3NWLyN0iq4P8giyyxTh8QIO989xOjVszOIw0bhzRdT+8c33/XqluGgIdtr/DCTU8GyZA==" saltValue="33ic6PQHnwj3dJk/Iso2yQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -18734,7 +18734,7 @@
       <c r="H7" s="128"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="2v7GocQwg7lVKT6tpKmOdElguP/1w1LW6iDRKYj+qn1Vd9wAzHXxEGsB72ZddF2BuD3KWjWMNfdu/KKyVMbA+A==" saltValue="2mgyTlbG1pKc1CT/jzA6lg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="q33I46+ainvlxUZ/jDewCVkdA89MBpdP/dr85m6EpHxDFlV8UT5+wMvPG1arhaY+MKoWqrgjIT5nC64NJNAOUg==" saltValue="ww+Tn9IQf6aEdEOE5ul5cQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -19171,7 +19171,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="3jax2JYBzEloiGEvSaLQBapifXu6WvJEVER8yjcK0GQhnRPSN5ITag/icO4pGYnQ6ctDRM1Y+JoMmPrXARSX5Q==" saltValue="L4dI3XKSXmvCk0ZNtZXjRA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="mjSMCGS04fWouObPbPfOmCSDQS4Ly2dAW7Po8grqEwAq+kJzPkT+QGhULnV5yICLz9ND/QumTmT/wjIxpsL47Q==" saltValue="fIChv0KkUDJAfv9W9EwDkQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="69" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -19598,7 +19598,7 @@
       <c r="G17" s="8"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="1wjMS14zhQfNj39i3pGUXyj/VyzDK27WmVBPQyLfotJvgyTgvFPjtus8yBhcBbKRTyIyhjwpPBa3AgZJO20bBw==" saltValue="9nedOfX2MXuibawerKlNfg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="2hYO+aWG3LxkebJaR15+A9FsxFPmaNIS1R0Y/8jl/iefSzZjNxPHBeJES6LoPlzGtQda6ttIMAjw5w4gtHY+3w==" saltValue="Oj1jFAPsHoLMHu2ieIgjJw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
@@ -19735,7 +19735,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="8BpDBQMRb+Rw4SBSBYVhfGD47Yms+D8Q3T/m5fDoHKn0gYbOttN/TT+e+feN2J83vb+gw/2hLrdX7pyWekJuBw==" saltValue="rSAYHKMh41nhbsABGhmohA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Qi0c2w0ySyoK27uxlajDrijllBG0Sc/wp3aAfokhpdyCba1q3gR675f1zhnNrmjp5lQ7OVAfM6s8rR2jm1iwzQ==" saltValue="I+oBbxi1evvpA/6foWDjIQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -20051,7 +20051,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="l/GQ1nHSnu1gD/S9wgBI36/mJbGpsMRSBgvq4IfIjzOryhHx3eLZ+eRXR9N8CyhuXm/CDyMMUVgSehmxW0EAfw==" saltValue="8iZsIAAgqbFO6rQfjZQLIQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="f3v6CIVjSmpIDg6PWBOcxvjm2suEjVyN1o8XhaWFEJpHynoBL16KNCFw2PxXEyGg/Vb+xk6UPz9zvrkzoZqjdA==" saltValue="2Gtsqdi23iwoA55Mi80l7w==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="193" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -20329,7 +20329,7 @@
       <c r="E21" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="nseBIhw/321h3D31G7r0kG29LldYqyrhb/Z/BjCHRWUA1FSUjNhuglh1wn8K17Rom0eD057VIOs88FPsVeg/rA==" saltValue="5mRwl8xohWflz8aymip2Sg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="0VbhM9vM9PYo4cScqUJEBVuuDvsOF+kTig/2/nmr515TvlBFLXi1oJN1oLMf+45M9IHN4iy9NQntw5y2bUkLcg==" saltValue="vjWp6CJPV5X7WnOtB7KgVA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -20393,7 +20393,7 @@
       <c r="D3" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Ii6hozaMnNg4Grfo/FZLLuFuIa3wsnqPVuPUktscN3UavKJcanXQ+rExzMUSx9+t3/m8DpbL54ykrILSNC8qxA==" saltValue="ugXLFjHpJ0KQMliFdPn5uA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="zt9kuH4/6vFabDm3Nb4VTfMaI06JqaNOCqctc8+/qM4bahPKEuWDDHuqE9AQLx+Te8i81JlQTN6kinwo2D8M8A==" saltValue="y3yixpcuW7Lxepmgy7l//A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -21071,7 +21071,7 @@
       <c r="F39" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="E9j8KwNzGT18Tmnia3DqE9y7CLvl/Oa8MinwXbCgJP8lIEtcpFZJjMOvgMN8dDy7LbCcTycKBAkDAOulzu+dtw==" saltValue="/YJUXdmfOc3PZjY64hPncA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="6P9i6LBVWPXUK6uLLq/zuDFVrxNzXiQUnYm7QdPj6An9L1a7HsjQJc/OJ6YBPrPOQLktADrPco2z47t6+TLRvA==" saltValue="iNw0QL/HtjfHoQTQCZtSyw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D38">
     <sortCondition ref="A2:A38"/>
   </sortState>

--- a/inputs/fr/demo_demo_input.xlsx
+++ b/inputs/fr/demo_demo_input.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aimee.altermatt\Documents\GitHub\Nutrition\inputs\fr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\romesh\projects\nutrition\inputs\fr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C653898F-305D-423C-AC81-3B78BBEB5E73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB6D1B94-37BA-4243-AAD4-A86CD0FF181F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="1140" windowWidth="14400" windowHeight="7360" tabRatio="885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6570" yWindow="3480" windowWidth="31215" windowHeight="14940" tabRatio="885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Donnees pop de l'annee de ref" sheetId="1" r:id="rId1"/>
@@ -4735,14 +4735,14 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.6328125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="38.6328125" style="16" customWidth="1"/>
-    <col min="3" max="16384" width="14.453125" style="12"/>
+    <col min="1" max="1" width="27.5703125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="38.5703125" style="16" customWidth="1"/>
+    <col min="3" max="16384" width="14.42578125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
@@ -4753,14 +4753,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
         <v>30</v>
       </c>
       <c r="B2" s="41"/>
       <c r="C2" s="41"/>
     </row>
-    <row r="3" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="7" t="s">
         <v>31</v>
@@ -4769,7 +4769,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="9" t="s">
         <v>32</v>
@@ -4778,17 +4778,17 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="41"/>
       <c r="C5" s="41"/>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="16" t="s">
         <v>34</v>
       </c>
@@ -4796,7 +4796,7 @@
         <v>9862402</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="7" t="s">
         <v>35</v>
       </c>
@@ -4804,7 +4804,7 @@
         <v>0.28199999999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="9" t="s">
         <v>36</v>
       </c>
@@ -4812,7 +4812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="9" t="s">
         <v>37</v>
       </c>
@@ -4820,7 +4820,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="7" t="s">
         <v>38</v>
       </c>
@@ -4828,7 +4828,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="7" t="s">
         <v>39</v>
       </c>
@@ -4836,7 +4836,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="7" t="s">
         <v>40</v>
       </c>
@@ -4844,17 +4844,17 @@
         <v>0.221</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="12"/>
     </row>
-    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
         <v>41</v>
       </c>
       <c r="B15" s="19"/>
       <c r="C15" s="3"/>
     </row>
-    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="9" t="s">
         <v>42</v>
       </c>
@@ -4862,7 +4862,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="9" t="s">
         <v>43</v>
       </c>
@@ -4870,7 +4870,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="9" t="s">
         <v>44</v>
       </c>
@@ -4878,7 +4878,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="9" t="s">
         <v>45</v>
       </c>
@@ -4886,7 +4886,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="9" t="s">
         <v>46</v>
       </c>
@@ -4895,15 +4895,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="12"/>
     </row>
-    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="12" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="20" t="s">
         <v>48</v>
       </c>
@@ -4911,7 +4911,7 @@
         <v>0.127</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="20" t="s">
         <v>49</v>
       </c>
@@ -4919,7 +4919,7 @@
         <v>0.45200000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="20" t="s">
         <v>50</v>
       </c>
@@ -4927,7 +4927,7 @@
         <v>0.33400000000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="20" t="s">
         <v>51</v>
       </c>
@@ -4935,18 +4935,18 @@
         <v>8.6999999999999994E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="20"/>
       <c r="C27" s="20"/>
     </row>
-    <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
         <v>52</v>
       </c>
       <c r="B28" s="20"/>
       <c r="C28" s="20"/>
     </row>
-    <row r="29" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="30" t="s">
         <v>53</v>
       </c>
@@ -4954,7 +4954,7 @@
         <v>0.20799999999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="30" t="s">
         <v>54</v>
       </c>
@@ -4962,7 +4962,7 @@
         <v>0.63700000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="30" t="s">
         <v>55</v>
       </c>
@@ -4970,7 +4970,7 @@
         <v>0.11899999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="30" t="s">
         <v>56</v>
       </c>
@@ -4978,7 +4978,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B33" s="32" t="s">
         <v>57</v>
       </c>
@@ -4987,20 +4987,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="12" t="s">
         <v>59</v>
       </c>
       <c r="B36" s="7"/>
       <c r="C36" s="13"/>
     </row>
-    <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="42" t="s">
         <v>60</v>
       </c>
@@ -5008,7 +5008,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="16" t="s">
         <v>61</v>
       </c>
@@ -5018,7 +5018,7 @@
       <c r="D38" s="17"/>
       <c r="E38" s="18"/>
     </row>
-    <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="16" t="s">
         <v>62</v>
       </c>
@@ -5028,7 +5028,7 @@
       <c r="D39" s="17"/>
       <c r="E39" s="17"/>
     </row>
-    <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="16" t="s">
         <v>63</v>
       </c>
@@ -5036,7 +5036,7 @@
         <v>4.01</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="16" t="s">
         <v>64</v>
       </c>
@@ -5044,7 +5044,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="42" t="s">
         <v>65</v>
       </c>
@@ -5052,16 +5052,16 @@
         <v>22.4</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D43" s="17"/>
     </row>
-    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="12" t="s">
         <v>66</v>
       </c>
       <c r="D44" s="17"/>
     </row>
-    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="16" t="s">
         <v>67</v>
       </c>
@@ -5070,7 +5070,7 @@
       </c>
       <c r="D45" s="17"/>
     </row>
-    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="16" t="s">
         <v>68</v>
       </c>
@@ -5079,7 +5079,7 @@
       </c>
       <c r="D46" s="17"/>
     </row>
-    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="16" t="s">
         <v>69</v>
       </c>
@@ -5089,7 +5089,7 @@
       <c r="D47" s="17"/>
       <c r="E47" s="18"/>
     </row>
-    <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="16" t="s">
         <v>70</v>
       </c>
@@ -5100,16 +5100,16 @@
       <c r="D48" s="17"/>
       <c r="E48" s="17"/>
     </row>
-    <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D49" s="17"/>
     </row>
-    <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="12" t="s">
         <v>71</v>
       </c>
       <c r="D50" s="17"/>
     </row>
-    <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="16" t="s">
         <v>72</v>
       </c>
@@ -5118,7 +5118,7 @@
       </c>
       <c r="D51" s="17"/>
     </row>
-    <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="16" t="s">
         <v>73</v>
       </c>
@@ -5126,7 +5126,7 @@
         <v>1.66</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="16" t="s">
         <v>74</v>
       </c>
@@ -5134,7 +5134,7 @@
         <v>5.64</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="16" t="s">
         <v>75</v>
       </c>
@@ -5142,7 +5142,7 @@
         <v>5.43</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="16" t="s">
         <v>76</v>
       </c>
@@ -5150,12 +5150,12 @@
         <v>1.91</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="12" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="7" t="s">
         <v>78</v>
       </c>
@@ -5163,7 +5163,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="16" t="s">
         <v>79</v>
       </c>
@@ -5171,7 +5171,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="16" t="s">
         <v>80</v>
       </c>
@@ -5179,7 +5179,7 @@
         <v>4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="16" t="s">
         <v>81</v>
       </c>
@@ -5187,11 +5187,11 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="BcHNrpLfM7nfwFuJ56nBD9SekFreI/mU/6zZ3TLUqoPSRnl61RLTtXteRCJoQKoIRJWUp5toocaMt7Q1bjUcXg==" saltValue="2+7KvU1PSpS7lMsL4PCNEA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="C8CnBtN26UT7t8sG3k+xKzGMQKhWTjNymcf2BYI4a6fTKtTapfYIOarC4+DvOyq3UOzex2sTNe6qlsGUxkWrVw==" saltValue="EazZx+/3Nh7WL6QZZotVNw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
 </worksheet>
@@ -5208,89 +5208,89 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.08984375" style="35" customWidth="1"/>
-    <col min="2" max="16384" width="11.453125" style="35"/>
+    <col min="1" max="1" width="30.140625" style="35" customWidth="1"/>
+    <col min="2" max="16384" width="11.42578125" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="48" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="48" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="48" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="48" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="48" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="48" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="48" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="48" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="48"/>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="48"/>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="48"/>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="48"/>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" s="48"/>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" s="48"/>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" s="48"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="48"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="48"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="48"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="ZrcZpBKXqEqhkD4wC3YGwHqV8WAaJPIZxVitPdbv7Ahfn5D5qnWJ6OOUg9S+QDqlNjcPxl9p9F/OcoG26YWlJQ==" saltValue="eXyfJ2cmnQRkUj7gWiVp9g==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Q93SNeQeulMxathxd6rkfFBGKIipW0Gtz614d66MIf3BQMQQUYmbADBQhW7gxZGaANfD54PPCN1emkNfSNbrNQ==" saltValue="5Ujl7S0dwcGsYckKDYBMTQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -5307,9 +5307,9 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -5329,7 +5329,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>101</v>
       </c>
@@ -5354,7 +5354,7 @@
         <v>1.91</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>207</v>
       </c>
@@ -5379,7 +5379,7 @@
         <v>5.8059717622450747E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>206</v>
       </c>
@@ -5405,7 +5405,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="SZenVMSSUiDaRc0ObwgG6XL7c0CCtt4FSxcTCIKuGhu6mtS8tR2YpjptuCIspKHKXlMJqQlTItGuNt7S7oS5Zw==" saltValue="PvTxfjQ6oaunes608qC/CA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="9jqJkdOJBmTzLkKwu8Co7MIyTkbwQdbCXrjiVI+1WIdt384f/f0Ik900SDBW7z4O7NgOJVBsvNdYvTMoy6Bygg==" saltValue="8AXl6rYR7Lgh3ybiLMoehA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -5422,19 +5422,19 @@
       <selection activeCell="C7" sqref="C7:G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.90625" customWidth="1"/>
-    <col min="3" max="3" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.85546875" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.90625" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>209</v>
       </c>
@@ -5481,7 +5481,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>100</v>
       </c>
@@ -5532,7 +5532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="7" t="s">
         <v>175</v>
       </c>
@@ -5576,7 +5576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="7" t="s">
         <v>187</v>
       </c>
@@ -5620,7 +5620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="11" t="s">
         <v>188</v>
       </c>
@@ -5666,7 +5666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="11" t="s">
         <v>192</v>
       </c>
@@ -5713,7 +5713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="33" t="s">
         <v>194</v>
       </c>
@@ -5762,7 +5762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="11" t="s">
         <v>195</v>
       </c>
@@ -5808,7 +5808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="11" t="s">
         <v>165</v>
       </c>
@@ -5856,7 +5856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="11" t="s">
         <v>196</v>
       </c>
@@ -5900,7 +5900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="33" t="s">
         <v>202</v>
       </c>
@@ -5949,7 +5949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="11" t="s">
         <v>203</v>
       </c>
@@ -5993,10 +5993,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="33"/>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>114</v>
       </c>
@@ -6047,7 +6047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="11" t="s">
         <v>173</v>
@@ -6092,7 +6092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="11" t="s">
         <v>184</v>
@@ -6141,7 +6141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="11" t="s">
         <v>185</v>
@@ -6190,7 +6190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="33" t="s">
         <v>2</v>
       </c>
@@ -6238,7 +6238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="11" t="s">
         <v>190</v>
       </c>
@@ -6282,7 +6282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="11" t="s">
         <v>191</v>
       </c>
@@ -6326,7 +6326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="33" t="s">
         <v>193</v>
       </c>
@@ -6374,10 +6374,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="33"/>
     </row>
-    <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="58" t="s">
         <v>90</v>
       </c>
@@ -6428,7 +6428,7 @@
         <v>0.221</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="59" t="s">
         <v>180</v>
       </c>
@@ -6476,7 +6476,7 @@
         <v>0.54921999999999993</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="59" t="s">
         <v>181</v>
       </c>
@@ -6524,7 +6524,7 @@
         <v>0.23537999999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="59" t="s">
         <v>182</v>
       </c>
@@ -6572,7 +6572,7 @@
         <v>0.21539999999999998</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="59" t="s">
         <v>183</v>
       </c>
@@ -6617,7 +6617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="11"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -6627,7 +6627,7 @@
       <c r="H28" s="10"/>
       <c r="I28" s="10"/>
     </row>
-    <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>208</v>
       </c>
@@ -6685,7 +6685,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="11" t="s">
         <v>178</v>
       </c>
@@ -6740,7 +6740,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="11" t="s">
         <v>179</v>
       </c>
@@ -6795,7 +6795,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="11" t="s">
         <v>186</v>
       </c>
@@ -6839,7 +6839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="11" t="s">
         <v>189</v>
       </c>
@@ -6896,7 +6896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="33" t="s">
         <v>197</v>
       </c>
@@ -6940,7 +6940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="5"/>
       <c r="B35" s="33" t="s">
         <v>198</v>
@@ -6985,7 +6985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="33" t="s">
         <v>199</v>
       </c>
@@ -7029,7 +7029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="33" t="s">
         <v>200</v>
       </c>
@@ -7073,7 +7073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="33" t="s">
         <v>201</v>
       </c>
@@ -7117,11 +7117,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="33"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="wC3WhJriwjxt8T14kBd8nqcmbZnNfhedYSfOD0QEut+rKpkeP9JbXhe7Gmk8cxNScj1GRTHoVZ1DFzH7/dYniA==" saltValue="+MthxhPqON54l9/rQKVzXQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="yG6ffxaPi1c9ARYzwnx5X+FjokR/krrcoAa6gb57O/VwMWrBis4N79Ut7ZqUpu7lVKT+xi+SCcOJ5asElSCHIQ==" saltValue="yM1mexHMiRX5+XY4k6zY1w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B14:O21">
     <sortCondition ref="B14:B21"/>
   </sortState>
@@ -7141,15 +7141,15 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="53" style="52" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.90625" style="35" customWidth="1"/>
-    <col min="3" max="3" width="42.453125" style="35" customWidth="1"/>
-    <col min="4" max="16384" width="11.453125" style="35"/>
+    <col min="2" max="2" width="47.85546875" style="35" customWidth="1"/>
+    <col min="3" max="3" width="42.42578125" style="35" customWidth="1"/>
+    <col min="4" max="16384" width="11.42578125" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
         <v>164</v>
       </c>
@@ -7160,7 +7160,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="83" t="s">
         <v>184</v>
       </c>
@@ -7169,7 +7169,7 @@
       </c>
       <c r="C2" s="80"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="83" t="s">
         <v>185</v>
       </c>
@@ -7178,7 +7178,7 @@
       </c>
       <c r="C3" s="80"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="84" t="s">
         <v>195</v>
       </c>
@@ -7187,7 +7187,7 @@
       </c>
       <c r="C4" s="80"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="84" t="s">
         <v>192</v>
       </c>
@@ -7196,83 +7196,83 @@
       </c>
       <c r="C5" s="80"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="84"/>
       <c r="B6" s="85"/>
       <c r="C6" s="85"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="84"/>
       <c r="B7" s="85"/>
       <c r="C7" s="85"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="84"/>
       <c r="B8" s="85"/>
       <c r="C8" s="85"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="84"/>
       <c r="B9" s="85"/>
       <c r="C9" s="85"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="84"/>
       <c r="B10" s="85"/>
       <c r="C10" s="85"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="86"/>
       <c r="B11" s="85"/>
       <c r="C11" s="85"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="86"/>
       <c r="B12" s="85"/>
       <c r="C12" s="85"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="86"/>
       <c r="B13" s="85"/>
       <c r="C13" s="85"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="86"/>
       <c r="B14" s="85"/>
       <c r="C14" s="85"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="86"/>
       <c r="B15" s="85"/>
       <c r="C15" s="85"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="86"/>
       <c r="B16" s="85"/>
       <c r="C16" s="85"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="86"/>
       <c r="B17" s="85"/>
       <c r="C17" s="85"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="86"/>
       <c r="B18" s="85"/>
       <c r="C18" s="85"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="84"/>
       <c r="B19" s="85"/>
       <c r="C19" s="85"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="84"/>
       <c r="B20" s="85"/>
       <c r="C20" s="85"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="sTnOSxlh9KLUcimGUPyUmb7/Q9vsM31I5lzsRHgTC7FaRre2YXLzVfwBrxoTiaUdStsxicxE59FWu+6THpDWdw==" saltValue="M4XWUDc0+PjxqyjkUv54Yw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="leew4CwIcigxHhlJpsU1GpVN3nIZVNkxsdVQIIdvisGbcy/mylcVarBKB6DKrPDKMTjIqcLNuhpreEzD3YIGIA==" saltValue="BuKvuMgGVuqxoB8+OdVihA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
@@ -7285,30 +7285,30 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
         <v>214</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="KBbLFAo9QuKoPXXBL04m0FbXgWrWVb+V9xNDnCHBpqhItolP8eohDSKzcpN+jBrLFqYUpnIfbsbcCUHVu524DQ==" saltValue="PkSMSBVhjGB4NOziHb5TRQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Ymppo5Glbb44aq0KhcZHnftiCaS8om3QxZoAaI4ckSFFilUc1vrZWvtiGPwsm/8qbaHSHL7dLRr1iCx1fcGE0Q==" saltValue="h87Q+or9VyXDNVHZkvqfNQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7324,16 +7324,16 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.6328125" style="35" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" style="35" customWidth="1"/>
-    <col min="3" max="4" width="11.453125" style="35"/>
-    <col min="5" max="5" width="17.453125" style="35" customWidth="1"/>
-    <col min="6" max="16384" width="11.453125" style="35"/>
+    <col min="1" max="1" width="33.5703125" style="35" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="35" customWidth="1"/>
+    <col min="3" max="4" width="11.42578125" style="35"/>
+    <col min="5" max="5" width="17.42578125" style="35" customWidth="1"/>
+    <col min="6" max="16384" width="11.42578125" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
         <v>16</v>
       </c>
@@ -7350,7 +7350,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="39" t="s">
         <v>12</v>
       </c>
@@ -7368,7 +7368,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="39" t="s">
         <v>11</v>
       </c>
@@ -7386,7 +7386,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="39" t="s">
         <v>10</v>
       </c>
@@ -7404,7 +7404,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="39" t="s">
         <v>9</v>
       </c>
@@ -7422,7 +7422,7 @@
         <v>0.126</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="39" t="s">
         <v>8</v>
       </c>
@@ -7440,7 +7440,7 @@
         <v>1.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A7" s="39" t="s">
         <v>7</v>
       </c>
@@ -7458,7 +7458,7 @@
         <v>0.40500000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="39" t="s">
         <v>6</v>
       </c>
@@ -7476,7 +7476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="39" t="s">
         <v>5</v>
       </c>
@@ -7494,7 +7494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" s="39" t="s">
         <v>4</v>
       </c>
@@ -7512,11 +7512,11 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C11" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="gZhlmSGHPEXUilJ07M4WJd74LSNWpVktP92TVQHNsAYQzEvZbUJFWvjXFV+BuHIeSGVqxcJ7eohiwJNzHSDgUA==" saltValue="dK7BN+TI7aESKznhPGXKlA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="kAqZP29fb0tg9Jdx+FZDIFboNUccDTLQAH2E9X4hiBOC8kZC2bQ8KIR9E8Gvr52Uqf/3SIlJV0dmOhIvbbq+wQ==" saltValue="I1VHCVMRSim7Xmco5Xe5RA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -7534,20 +7534,20 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.08984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="16.140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.1796875" style="55" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="58.90625" style="55" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.453125" style="55" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.08984375" style="55" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" style="55" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" style="55" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" style="55" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="55" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.08984375" style="55" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="15.36328125" style="55" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="16.90625" style="55" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="16.08984375" style="55"/>
+    <col min="6" max="7" width="13.140625" style="55" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="15.42578125" style="55" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="16.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="16.140625" style="55"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="56" t="s">
         <v>209</v>
       </c>
@@ -7594,7 +7594,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="56" t="s">
         <v>100</v>
       </c>
@@ -7641,7 +7641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="52" t="s">
         <v>175</v>
       </c>
@@ -7685,7 +7685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="52" t="s">
         <v>19</v>
       </c>
@@ -7729,7 +7729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="52" t="s">
         <v>22</v>
       </c>
@@ -7773,7 +7773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="52" t="s">
         <v>23</v>
       </c>
@@ -7817,7 +7817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="52" t="s">
         <v>187</v>
       </c>
@@ -7861,7 +7861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="52" t="s">
         <v>188</v>
       </c>
@@ -7905,7 +7905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="52" t="s">
         <v>192</v>
       </c>
@@ -7949,7 +7949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="52" t="s">
         <v>194</v>
       </c>
@@ -7993,7 +7993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="52" t="s">
         <v>195</v>
       </c>
@@ -8037,7 +8037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="52" t="s">
         <v>165</v>
       </c>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="52" t="s">
         <v>196</v>
       </c>
@@ -8125,7 +8125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="52" t="s">
         <v>202</v>
       </c>
@@ -8169,7 +8169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="52" t="s">
         <v>203</v>
       </c>
@@ -8213,7 +8213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="52"/>
       <c r="C16" s="129"/>
       <c r="D16" s="129"/>
@@ -8229,7 +8229,7 @@
       <c r="N16" s="129"/>
       <c r="O16" s="129"/>
     </row>
-    <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="56" t="s">
         <v>114</v>
       </c>
@@ -8276,7 +8276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="56"/>
       <c r="B18" s="52" t="s">
         <v>173</v>
@@ -8321,7 +8321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="90" t="s">
         <v>184</v>
       </c>
@@ -8365,7 +8365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="90" t="s">
         <v>185</v>
       </c>
@@ -8409,7 +8409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="91" t="s">
         <v>2</v>
       </c>
@@ -8453,7 +8453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="52" t="s">
         <v>190</v>
       </c>
@@ -8497,7 +8497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="52" t="s">
         <v>191</v>
       </c>
@@ -8541,7 +8541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="52" t="s">
         <v>193</v>
       </c>
@@ -8585,7 +8585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="52"/>
       <c r="C25" s="129"/>
       <c r="D25" s="129"/>
@@ -8601,7 +8601,7 @@
       <c r="N25" s="129"/>
       <c r="O25" s="129"/>
     </row>
-    <row r="26" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="56" t="s">
         <v>90</v>
       </c>
@@ -8649,7 +8649,7 @@
       </c>
       <c r="P26" s="92"/>
     </row>
-    <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="59" t="s">
         <v>180</v>
       </c>
@@ -8693,7 +8693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="56"/>
       <c r="B28" s="59" t="s">
         <v>181</v>
@@ -8738,7 +8738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="59" t="s">
         <v>182</v>
       </c>
@@ -8782,7 +8782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="59" t="s">
         <v>183</v>
       </c>
@@ -8826,7 +8826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="52"/>
       <c r="C31" s="130"/>
       <c r="D31" s="130"/>
@@ -8842,7 +8842,7 @@
       <c r="N31" s="129"/>
       <c r="O31" s="129"/>
     </row>
-    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="56" t="s">
         <v>208</v>
       </c>
@@ -8889,7 +8889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="52" t="s">
         <v>178</v>
       </c>
@@ -8933,7 +8933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="52" t="s">
         <v>179</v>
       </c>
@@ -8977,7 +8977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="52" t="s">
         <v>186</v>
       </c>
@@ -9021,7 +9021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="52" t="s">
         <v>189</v>
       </c>
@@ -9065,7 +9065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="93"/>
       <c r="B37" s="52" t="s">
         <v>197</v>
@@ -9110,7 +9110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" s="93" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:15" s="93" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="52" t="s">
         <v>198</v>
       </c>
@@ -9154,7 +9154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15" s="93" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:15" s="93" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="52" t="s">
         <v>199</v>
       </c>
@@ -9198,7 +9198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:15" s="93" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:15" s="93" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="52" t="s">
         <v>200</v>
       </c>
@@ -9242,7 +9242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="52" t="s">
         <v>201</v>
       </c>
@@ -9287,7 +9287,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="B7O//Gujh4Qr4UBSSWsLqJ60CPIkK5qRudWifcujmQSnh6hrTUQ76C/7SfugIkyuv0QeqWQchXfgk7ffzUABVA==" saltValue="l0s/M45O+iZdBkqu5O4o8A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="5kJEcxgqKVS4Kox+e3hoC/mltaOVZWynDbVkaAm8N7IbPddZO4GT4TXoAZtkAeCUQbCEqcT/BZuN/9b/92ic6g==" saltValue="BJRnjLFCtx8zd5q0P+CJCQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -9303,22 +9303,22 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="58.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.453125" style="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" style="35" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.81640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.81640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="12.81640625" style="35"/>
+    <col min="1" max="1" width="58.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" style="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" style="35" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="12.85546875" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
         <v>164</v>
       </c>
@@ -9353,7 +9353,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="52" t="s">
         <v>172</v>
       </c>
@@ -9370,7 +9370,7 @@
       <c r="J2" s="133"/>
       <c r="K2" s="133"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="52" t="s">
         <v>173</v>
       </c>
@@ -9387,7 +9387,7 @@
       <c r="J3" s="133"/>
       <c r="K3" s="133"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="52" t="s">
         <v>174</v>
       </c>
@@ -9404,7 +9404,7 @@
       <c r="J4" s="133"/>
       <c r="K4" s="133"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="52" t="s">
         <v>175</v>
       </c>
@@ -9421,7 +9421,7 @@
       <c r="J5" s="133"/>
       <c r="K5" s="133"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="52" t="s">
         <v>176</v>
       </c>
@@ -9440,7 +9440,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="52" t="s">
         <v>177</v>
       </c>
@@ -9459,7 +9459,7 @@
       <c r="J7" s="133"/>
       <c r="K7" s="133"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="52" t="s">
         <v>178</v>
       </c>
@@ -9478,7 +9478,7 @@
       <c r="J8" s="133"/>
       <c r="K8" s="133"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="52" t="s">
         <v>179</v>
       </c>
@@ -9497,7 +9497,7 @@
       <c r="J9" s="133"/>
       <c r="K9" s="133"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="59" t="s">
         <v>180</v>
       </c>
@@ -9514,7 +9514,7 @@
       <c r="J10" s="133"/>
       <c r="K10" s="133"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="59" t="s">
         <v>181</v>
       </c>
@@ -9531,7 +9531,7 @@
       <c r="J11" s="133"/>
       <c r="K11" s="133"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="59" t="s">
         <v>182</v>
       </c>
@@ -9548,7 +9548,7 @@
       <c r="J12" s="133"/>
       <c r="K12" s="133"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="59" t="s">
         <v>183</v>
       </c>
@@ -9565,7 +9565,7 @@
       <c r="J13" s="133"/>
       <c r="K13" s="133"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="90" t="s">
         <v>184</v>
       </c>
@@ -9584,7 +9584,7 @@
       <c r="J14" s="133"/>
       <c r="K14" s="133"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="90" t="s">
         <v>185</v>
       </c>
@@ -9603,7 +9603,7 @@
       <c r="J15" s="133"/>
       <c r="K15" s="133"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="52" t="s">
         <v>2</v>
       </c>
@@ -9624,7 +9624,7 @@
       <c r="J16" s="133"/>
       <c r="K16" s="133"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="52" t="s">
         <v>186</v>
       </c>
@@ -9641,7 +9641,7 @@
       <c r="J17" s="133"/>
       <c r="K17" s="133"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="52" t="s">
         <v>19</v>
       </c>
@@ -9660,7 +9660,7 @@
       <c r="J18" s="133"/>
       <c r="K18" s="133"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="52" t="s">
         <v>22</v>
       </c>
@@ -9679,7 +9679,7 @@
       <c r="J19" s="133"/>
       <c r="K19" s="133"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="52" t="s">
         <v>23</v>
       </c>
@@ -9698,7 +9698,7 @@
       <c r="J20" s="133"/>
       <c r="K20" s="133"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="52" t="s">
         <v>187</v>
       </c>
@@ -9717,7 +9717,7 @@
       <c r="J21" s="133"/>
       <c r="K21" s="133"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="52" t="s">
         <v>188</v>
       </c>
@@ -9738,7 +9738,7 @@
       <c r="J22" s="133"/>
       <c r="K22" s="133"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="52" t="s">
         <v>189</v>
       </c>
@@ -9757,7 +9757,7 @@
       <c r="J23" s="133"/>
       <c r="K23" s="133"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="52" t="s">
         <v>190</v>
       </c>
@@ -9774,7 +9774,7 @@
       <c r="J24" s="133"/>
       <c r="K24" s="133"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="52" t="s">
         <v>191</v>
       </c>
@@ -9791,7 +9791,7 @@
       <c r="J25" s="133"/>
       <c r="K25" s="133"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="52" t="s">
         <v>192</v>
       </c>
@@ -9808,7 +9808,7 @@
       <c r="J26" s="133"/>
       <c r="K26" s="133"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="52" t="s">
         <v>193</v>
       </c>
@@ -9827,7 +9827,7 @@
       <c r="J27" s="133"/>
       <c r="K27" s="133"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="52" t="s">
         <v>194</v>
       </c>
@@ -9844,7 +9844,7 @@
       <c r="J28" s="133"/>
       <c r="K28" s="133"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="52" t="s">
         <v>195</v>
       </c>
@@ -9863,7 +9863,7 @@
       <c r="J29" s="133"/>
       <c r="K29" s="133"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="52" t="s">
         <v>165</v>
       </c>
@@ -9880,7 +9880,7 @@
       <c r="J30" s="133"/>
       <c r="K30" s="133"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="52" t="s">
         <v>196</v>
       </c>
@@ -9899,7 +9899,7 @@
       <c r="J31" s="133"/>
       <c r="K31" s="133"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="52" t="s">
         <v>197</v>
       </c>
@@ -9918,7 +9918,7 @@
       <c r="J32" s="133"/>
       <c r="K32" s="133"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="52" t="s">
         <v>198</v>
       </c>
@@ -9937,7 +9937,7 @@
       <c r="J33" s="133"/>
       <c r="K33" s="133"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="52" t="s">
         <v>199</v>
       </c>
@@ -9956,7 +9956,7 @@
       <c r="J34" s="133"/>
       <c r="K34" s="133"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="52" t="s">
         <v>200</v>
       </c>
@@ -9975,7 +9975,7 @@
       <c r="J35" s="133"/>
       <c r="K35" s="133"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="52" t="s">
         <v>201</v>
       </c>
@@ -9994,7 +9994,7 @@
       <c r="J36" s="133"/>
       <c r="K36" s="133"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="52" t="s">
         <v>202</v>
       </c>
@@ -10011,7 +10011,7 @@
       <c r="J37" s="133"/>
       <c r="K37" s="133"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="52" t="s">
         <v>203</v>
       </c>
@@ -10033,7 +10033,7 @@
       <c r="K38" s="133"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="tI92hNUbbehs+KplGGIaUzxPW2S4UYoY5ImWizYT+eTCD8drfMh6gxASOt7l5oIWoFGb0W77oXscBfpZ7MxQBw==" saltValue="w0DejQQBvVf4ew41TeVHgw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Ykb2obhlRhu4QIi2PwF+Kp3c09Aw6JObk9xdcYQz7sQbLC60iQ5X+xXL0ruj85PVy2+iXstp3Kug5qfbxrqzFg==" saltValue="59d2r1bau0wlQALOP9IVZQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10049,22 +10049,22 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.453125" style="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" style="35" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.81640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.81640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="12.81640625" style="35"/>
+    <col min="1" max="1" width="16.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" style="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" style="35" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="12.85546875" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
         <v>220</v>
       </c>
@@ -10099,7 +10099,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="35" t="s">
         <v>123</v>
       </c>
@@ -10128,7 +10128,7 @@
       <c r="J2" s="133"/>
       <c r="K2" s="133"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="35" t="s">
         <v>110</v>
       </c>
@@ -10157,7 +10157,7 @@
       <c r="J3" s="133"/>
       <c r="K3" s="133"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="35" t="s">
         <v>111</v>
       </c>
@@ -10186,7 +10186,7 @@
       <c r="J4" s="133"/>
       <c r="K4" s="133"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="35" t="s">
         <v>112</v>
       </c>
@@ -10215,7 +10215,7 @@
       <c r="J5" s="133"/>
       <c r="K5" s="133"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="35" t="s">
         <v>113</v>
       </c>
@@ -10244,7 +10244,7 @@
       <c r="J6" s="133"/>
       <c r="K6" s="133"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="35" t="s">
         <v>136</v>
       </c>
@@ -10265,7 +10265,7 @@
       <c r="J7" s="133"/>
       <c r="K7" s="133"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="35" t="s">
         <v>137</v>
       </c>
@@ -10286,7 +10286,7 @@
       <c r="J8" s="133"/>
       <c r="K8" s="133"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="35" t="s">
         <v>138</v>
       </c>
@@ -10307,7 +10307,7 @@
       <c r="J9" s="133"/>
       <c r="K9" s="133"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="35" t="s">
         <v>139</v>
       </c>
@@ -10328,7 +10328,7 @@
       <c r="J10" s="133"/>
       <c r="K10" s="133"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="35" t="s">
         <v>84</v>
       </c>
@@ -10349,7 +10349,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="35" t="s">
         <v>85</v>
       </c>
@@ -10368,7 +10368,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="35" t="s">
         <v>86</v>
       </c>
@@ -10387,7 +10387,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="35" t="s">
         <v>87</v>
       </c>
@@ -10407,7 +10407,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="MWBQvZIkdMeNHJP7INYBaKwpHahk8dhqAaLTGCq0ecnERJgO0PKQm1ikZB4iMyE3yM/htSF4JrYACGTXia3EHQ==" saltValue="cBAhJO2Yt2efi1rmAQJgVQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="qSB+yNL7+Qwkhaum/ICR3QP5uQGWRhffDoy1mXZPykYgcaBx+woZmImh11lpyklDfj6TvlQ7kr22KWezkmnU2g==" saltValue="ErXsDiiniOLESE2WO3jUYw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10423,15 +10423,15 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="48.08984375" style="35" customWidth="1"/>
+    <col min="1" max="1" width="48.140625" style="35" customWidth="1"/>
     <col min="2" max="2" width="15" style="35" customWidth="1"/>
-    <col min="3" max="3" width="14.6328125" style="35" customWidth="1"/>
-    <col min="4" max="16384" width="12.81640625" style="35"/>
+    <col min="3" max="3" width="14.5703125" style="35" customWidth="1"/>
+    <col min="4" max="16384" width="12.85546875" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
         <v>221</v>
       </c>
@@ -10457,7 +10457,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="40" t="s">
         <v>222</v>
       </c>
@@ -10483,7 +10483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" s="137"/>
       <c r="C3" s="35" t="s">
         <v>161</v>
@@ -10505,7 +10505,7 @@
       </c>
       <c r="J3" s="95"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" s="137"/>
       <c r="C4" s="35" t="s">
         <v>162</v>
@@ -10527,7 +10527,7 @@
       </c>
       <c r="J4" s="95"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" s="137" t="s">
         <v>123</v>
       </c>
@@ -10551,7 +10551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6" s="137"/>
       <c r="C6" s="35" t="s">
         <v>161</v>
@@ -10572,7 +10572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" s="137"/>
       <c r="C7" s="35" t="s">
         <v>162</v>
@@ -10593,7 +10593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8" s="137" t="s">
         <v>110</v>
       </c>
@@ -10616,7 +10616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9" s="137"/>
       <c r="C9" s="35" t="s">
         <v>161</v>
@@ -10637,7 +10637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B10" s="137"/>
       <c r="C10" s="35" t="s">
         <v>162</v>
@@ -10658,7 +10658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B11" s="137" t="s">
         <v>111</v>
       </c>
@@ -10681,7 +10681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B12" s="137"/>
       <c r="C12" s="35" t="s">
         <v>161</v>
@@ -10702,7 +10702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B13" s="137"/>
       <c r="C13" s="35" t="s">
         <v>162</v>
@@ -10723,7 +10723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B14" s="137" t="s">
         <v>112</v>
       </c>
@@ -10746,7 +10746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B15" s="137"/>
       <c r="C15" s="35" t="s">
         <v>161</v>
@@ -10767,7 +10767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B16" s="137"/>
       <c r="C16" s="35" t="s">
         <v>162</v>
@@ -10788,7 +10788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B17" s="96" t="s">
         <v>163</v>
       </c>
@@ -10811,14 +10811,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D18" s="132"/>
       <c r="E18" s="132"/>
       <c r="F18" s="132"/>
       <c r="G18" s="132"/>
       <c r="H18" s="132"/>
     </row>
-    <row r="19" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="40" t="s">
         <v>223</v>
       </c>
@@ -10844,7 +10844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B20" s="137"/>
       <c r="C20" s="35" t="s">
         <v>161</v>
@@ -10865,7 +10865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B21" s="137"/>
       <c r="C21" s="35" t="s">
         <v>162</v>
@@ -10886,7 +10886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B22" s="137" t="s">
         <v>123</v>
       </c>
@@ -10909,7 +10909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B23" s="137"/>
       <c r="C23" s="35" t="s">
         <v>161</v>
@@ -10930,7 +10930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B24" s="137"/>
       <c r="C24" s="35" t="s">
         <v>162</v>
@@ -10951,7 +10951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B25" s="137" t="s">
         <v>110</v>
       </c>
@@ -10974,7 +10974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B26" s="137"/>
       <c r="C26" s="35" t="s">
         <v>161</v>
@@ -10995,7 +10995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B27" s="137"/>
       <c r="C27" s="35" t="s">
         <v>162</v>
@@ -11016,7 +11016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B28" s="137" t="s">
         <v>111</v>
       </c>
@@ -11039,7 +11039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B29" s="137"/>
       <c r="C29" s="35" t="s">
         <v>161</v>
@@ -11060,7 +11060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B30" s="137"/>
       <c r="C30" s="35" t="s">
         <v>162</v>
@@ -11081,7 +11081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B31" s="137" t="s">
         <v>112</v>
       </c>
@@ -11104,7 +11104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B32" s="137"/>
       <c r="C32" s="35" t="s">
         <v>161</v>
@@ -11125,7 +11125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B33" s="137"/>
       <c r="C33" s="35" t="s">
         <v>162</v>
@@ -11146,7 +11146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B34" s="96" t="s">
         <v>163</v>
       </c>
@@ -11169,14 +11169,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D35" s="132"/>
       <c r="E35" s="132"/>
       <c r="F35" s="132"/>
       <c r="G35" s="132"/>
       <c r="H35" s="132"/>
     </row>
-    <row r="36" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="97" t="s">
         <v>224</v>
       </c>
@@ -11202,7 +11202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B37" s="137"/>
       <c r="C37" s="35" t="s">
         <v>161</v>
@@ -11223,7 +11223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B38" s="137"/>
       <c r="C38" s="35" t="s">
         <v>162</v>
@@ -11244,7 +11244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B39" s="137" t="s">
         <v>123</v>
       </c>
@@ -11267,7 +11267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B40" s="137"/>
       <c r="C40" s="35" t="s">
         <v>161</v>
@@ -11288,7 +11288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B41" s="137"/>
       <c r="C41" s="35" t="s">
         <v>162</v>
@@ -11309,7 +11309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B42" s="137" t="s">
         <v>110</v>
       </c>
@@ -11332,7 +11332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B43" s="137"/>
       <c r="C43" s="35" t="s">
         <v>161</v>
@@ -11353,7 +11353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B44" s="137"/>
       <c r="C44" s="35" t="s">
         <v>162</v>
@@ -11374,7 +11374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B45" s="137" t="s">
         <v>111</v>
       </c>
@@ -11397,7 +11397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B46" s="137"/>
       <c r="C46" s="35" t="s">
         <v>161</v>
@@ -11418,7 +11418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B47" s="137"/>
       <c r="C47" s="35" t="s">
         <v>162</v>
@@ -11439,7 +11439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B48" s="137" t="s">
         <v>112</v>
       </c>
@@ -11462,7 +11462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B49" s="137"/>
       <c r="C49" s="35" t="s">
         <v>161</v>
@@ -11483,7 +11483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B50" s="137"/>
       <c r="C50" s="35" t="s">
         <v>162</v>
@@ -11504,7 +11504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B51" s="98" t="s">
         <v>163</v>
       </c>
@@ -11528,7 +11528,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="o5CDTHSK+TLhJAiqs8SV2AqTItqn3mY6qhyxVC1EmWchTDIAuBUL9NpJcmCVhURseG5YBDFo2YXylCMV5fvicw==" saltValue="9Z34lGhIteulbQl8a+b0ag==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="X0h7nsnp/v+IaLBgNwEx1KOc9d9CYLtk83x520s5vNvTkKxvSnNtUF5HckU8VnYz2WodMwlDayAEuToNJrJQjA==" saltValue="ucfDKiqO+Oy22RPxTAoJvg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="B2:B4"/>
@@ -11562,14 +11562,14 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.453125" style="12" customWidth="1"/>
-    <col min="2" max="9" width="16.90625" style="12" customWidth="1"/>
-    <col min="10" max="16384" width="14.453125" style="12"/>
+    <col min="1" max="1" width="8.42578125" style="12" customWidth="1"/>
+    <col min="2" max="9" width="16.85546875" style="12" customWidth="1"/>
+    <col min="10" max="16384" width="14.42578125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="31" t="s">
         <v>82</v>
       </c>
@@ -11598,7 +11598,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
         <f>start_year</f>
         <v>2017</v>
@@ -11631,7 +11631,7 @@
         <v>10889222.411291081</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
         <f t="shared" ref="A3:A40" si="2">IF($A$2+ROW(A3)-2&lt;=end_year,A2+1,"")</f>
         <v>2018</v>
@@ -11664,7 +11664,7 @@
         <v>11314876.916718401</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <f t="shared" si="2"/>
         <v>2019</v>
@@ -11697,7 +11697,7 @@
         <v>11742062.79850255</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <f t="shared" si="2"/>
         <v>2020</v>
@@ -11730,7 +11730,7 @@
         <v>12188008.303929869</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <f t="shared" si="2"/>
         <v>2021</v>
@@ -11763,7 +11763,7 @@
         <v>12645913.809357187</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <f t="shared" si="2"/>
         <v>2022</v>
@@ -11796,7 +11796,7 @@
         <v>13098634.691141337</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
         <f t="shared" si="2"/>
         <v>2023</v>
@@ -11829,7 +11829,7 @@
         <v>13560643.572925486</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <f t="shared" si="2"/>
         <v>2024</v>
@@ -11862,7 +11862,7 @@
         <v>14048879.078352805</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <f t="shared" si="2"/>
         <v>2025</v>
@@ -11895,7 +11895,7 @@
         <v>14530354.336493783</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <f t="shared" si="2"/>
         <v>2026</v>
@@ -11928,7 +11928,7 @@
         <v>15032265.218277931</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
         <f t="shared" si="2"/>
         <v>2027</v>
@@ -11961,7 +11961,7 @@
         <v>15550202.10006208</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
         <f t="shared" si="2"/>
         <v>2028</v>
@@ -11994,7 +11994,7 @@
         <v>16082324.981846228</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
         <f t="shared" si="2"/>
         <v>2029</v>
@@ -12027,7 +12027,7 @@
         <v>16613455.239987208</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
         <f t="shared" si="2"/>
         <v>2030</v>
@@ -12060,7 +12060,7 @@
         <v>17165139.121771358</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12083,7 +12083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12106,7 +12106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12129,7 +12129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12152,7 +12152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12175,7 +12175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12198,7 +12198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12221,7 +12221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12244,7 +12244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12267,7 +12267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12290,7 +12290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12313,7 +12313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12336,7 +12336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12359,7 +12359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12382,7 +12382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12405,7 +12405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12428,7 +12428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12451,7 +12451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12474,7 +12474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12497,7 +12497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12520,7 +12520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12543,7 +12543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12566,7 +12566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12589,7 +12589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12612,7 +12612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12636,7 +12636,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="hAGFWxvf8YUfpcYWTC00AAMAkin1ZOHzWtDWSxCo5PC9wcOnOkn8brprMwU5Z+b59p8iZjuntjD6+HWixijp2A==" saltValue="y6vkIepzzJ98CAYDiKwVRg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="007mZor9Ez5ZUlDATQ3XHRZ/wX7kZyFkc4aYkOxPlzYJZhawwJXbXwrLzjTSzchpNrkuzwI+gePB1QrEH1sG2Q==" saltValue="GHj/1na897Ij6AdMi+fMwg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <conditionalFormatting sqref="B2:I40">
     <cfRule type="expression" dxfId="0" priority="9">
       <formula>$A2=""</formula>
@@ -12658,22 +12658,22 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.08984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.90625" style="35" customWidth="1"/>
-    <col min="2" max="2" width="34.08984375" style="35" customWidth="1"/>
-    <col min="3" max="3" width="11.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.90625" style="35" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" style="35" customWidth="1"/>
+    <col min="2" max="2" width="34.140625" style="35" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="35" customWidth="1"/>
     <col min="5" max="6" width="15" style="35" customWidth="1"/>
-    <col min="7" max="16384" width="16.08984375" style="35"/>
+    <col min="7" max="16384" width="16.140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="100" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="100" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="99" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="101"/>
       <c r="C2" s="102" t="s">
         <v>70</v>
@@ -12688,7 +12688,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="40" t="s">
         <v>226</v>
       </c>
@@ -12698,7 +12698,7 @@
       <c r="E3" s="106"/>
       <c r="F3" s="106"/>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="107" t="s">
         <v>53</v>
       </c>
@@ -12715,7 +12715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="107" t="s">
         <v>54</v>
       </c>
@@ -12732,7 +12732,7 @@
         <v>3.03</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="107" t="s">
         <v>55</v>
       </c>
@@ -12749,7 +12749,7 @@
         <v>1.77</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="107" t="s">
         <v>56</v>
       </c>
@@ -12766,13 +12766,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="108"/>
       <c r="D8" s="95"/>
       <c r="E8" s="95"/>
       <c r="F8" s="95"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="40" t="s">
         <v>233</v>
       </c>
@@ -12790,14 +12790,14 @@
       </c>
       <c r="G9" s="109"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C10" s="108"/>
       <c r="D10" s="95"/>
       <c r="E10" s="95"/>
       <c r="F10" s="95"/>
       <c r="G10" s="109"/>
     </row>
-    <row r="11" spans="1:7" s="100" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" s="100" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="99" t="s">
         <v>227</v>
       </c>
@@ -12807,7 +12807,7 @@
       <c r="F11" s="111"/>
       <c r="G11" s="112"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="40" t="s">
         <v>228</v>
       </c>
@@ -12817,7 +12817,7 @@
       <c r="F12" s="95"/>
       <c r="G12" s="109"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="113" t="s">
         <v>229</v>
       </c>
@@ -12835,7 +12835,7 @@
       </c>
       <c r="G13" s="109"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="113" t="s">
         <v>230</v>
       </c>
@@ -12853,7 +12853,7 @@
       </c>
       <c r="G14" s="109"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="113" t="s">
         <v>231</v>
       </c>
@@ -12871,7 +12871,7 @@
       </c>
       <c r="G15" s="109"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="40"/>
       <c r="B16" s="113"/>
       <c r="C16" s="114"/>
@@ -12880,7 +12880,7 @@
       <c r="F16" s="95"/>
       <c r="G16" s="109"/>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="40" t="s">
         <v>232</v>
       </c>
@@ -12891,7 +12891,7 @@
       <c r="F17" s="116"/>
       <c r="G17" s="109"/>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="117" t="s">
         <v>92</v>
       </c>
@@ -12909,7 +12909,7 @@
       </c>
       <c r="G18" s="109"/>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="117" t="s">
         <v>93</v>
       </c>
@@ -12927,7 +12927,7 @@
       </c>
       <c r="G19" s="109"/>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="117" t="s">
         <v>94</v>
       </c>
@@ -12945,7 +12945,7 @@
       </c>
       <c r="G20" s="109"/>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="117" t="s">
         <v>95</v>
       </c>
@@ -12963,7 +12963,7 @@
       </c>
       <c r="G21" s="109"/>
     </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="117" t="s">
         <v>96</v>
       </c>
@@ -12980,7 +12980,7 @@
         <v>999.99</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="117" t="s">
         <v>97</v>
       </c>
@@ -12997,7 +12997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="117" t="s">
         <v>98</v>
       </c>
@@ -13014,7 +13014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="117" t="s">
         <v>99</v>
       </c>
@@ -13031,14 +13031,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="113"/>
     </row>
-    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="40"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="d6NPMVWOcm0lsfz/SIT9rjITFQU19Nyxd9HBNeT0+49Syf17tPGdPkrvSf437igdvhVnwVQyLkeInG8/Zb7JQg==" saltValue="VQmdG8W65PmA79jqa/LLLg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="gnfpxa1VZzzN1mNKA6APCsV9QLR5vMcesP6hPSCuZxfgDNOfiSLxNaHDOyYCijcoZPUB7/l58Mqjl/+S3owicA==" saltValue="vZSxq3HVMbHgsGMvh2DeIA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -13055,23 +13055,23 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.1796875" style="35" customWidth="1"/>
-    <col min="2" max="2" width="26.90625" style="35" customWidth="1"/>
-    <col min="3" max="3" width="18.36328125" style="35" customWidth="1"/>
-    <col min="4" max="8" width="14.81640625" style="35" customWidth="1"/>
-    <col min="9" max="12" width="15.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="16.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="12.81640625" style="35"/>
+    <col min="1" max="1" width="27.140625" style="35" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="35" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" style="35" customWidth="1"/>
+    <col min="4" max="8" width="14.85546875" style="35" customWidth="1"/>
+    <col min="9" max="12" width="15.42578125" style="35" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="16.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="12.85546875" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="100" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" s="100" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="99" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="118" t="s">
         <v>216</v>
       </c>
@@ -13105,7 +13105,7 @@
       <c r="O2" s="120"/>
       <c r="P2" s="120"/>
     </row>
-    <row r="3" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="40"/>
       <c r="B3" s="35" t="s">
         <v>101</v>
@@ -13137,7 +13137,7 @@
       <c r="O3" s="118"/>
       <c r="P3" s="118"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C4" s="43" t="s">
         <v>237</v>
       </c>
@@ -13165,7 +13165,7 @@
       <c r="O4" s="118"/>
       <c r="P4" s="118"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C5" s="43" t="s">
         <v>238</v>
       </c>
@@ -13193,7 +13193,7 @@
       <c r="O5" s="118"/>
       <c r="P5" s="118"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C6" s="43" t="s">
         <v>239</v>
       </c>
@@ -13221,7 +13221,7 @@
       <c r="O6" s="118"/>
       <c r="P6" s="118"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B7" s="35" t="s">
         <v>102</v>
       </c>
@@ -13252,7 +13252,7 @@
       <c r="O7" s="118"/>
       <c r="P7" s="118"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="43" t="s">
         <v>237</v>
       </c>
@@ -13280,7 +13280,7 @@
       <c r="O8" s="118"/>
       <c r="P8" s="118"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="43" t="s">
         <v>238</v>
       </c>
@@ -13308,7 +13308,7 @@
       <c r="O9" s="118"/>
       <c r="P9" s="118"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="43" t="s">
         <v>239</v>
       </c>
@@ -13336,7 +13336,7 @@
       <c r="O10" s="118"/>
       <c r="P10" s="118"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B11" s="35" t="s">
         <v>104</v>
       </c>
@@ -13367,7 +13367,7 @@
       <c r="O11" s="118"/>
       <c r="P11" s="118"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="43" t="s">
         <v>237</v>
       </c>
@@ -13395,7 +13395,7 @@
       <c r="O12" s="118"/>
       <c r="P12" s="118"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="43" t="s">
         <v>238</v>
       </c>
@@ -13423,7 +13423,7 @@
       <c r="O13" s="118"/>
       <c r="P13" s="118"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="43" t="s">
         <v>239</v>
       </c>
@@ -13451,7 +13451,7 @@
       <c r="O14" s="118"/>
       <c r="P14" s="118"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B15" s="35" t="s">
         <v>105</v>
       </c>
@@ -13482,7 +13482,7 @@
       <c r="O15" s="118"/>
       <c r="P15" s="118"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C16" s="43" t="s">
         <v>237</v>
       </c>
@@ -13510,7 +13510,7 @@
       <c r="O16" s="118"/>
       <c r="P16" s="118"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C17" s="43" t="s">
         <v>238</v>
       </c>
@@ -13538,7 +13538,7 @@
       <c r="O17" s="118"/>
       <c r="P17" s="118"/>
     </row>
-    <row r="18" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" s="43" t="s">
         <v>239</v>
       </c>
@@ -13566,7 +13566,7 @@
       <c r="O18" s="118"/>
       <c r="P18" s="118"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B19" s="36" t="s">
         <v>103</v>
       </c>
@@ -13597,7 +13597,7 @@
       <c r="O19" s="118"/>
       <c r="P19" s="118"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C20" s="43" t="s">
         <v>237</v>
       </c>
@@ -13625,7 +13625,7 @@
       <c r="O20" s="118"/>
       <c r="P20" s="118"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C21" s="43" t="s">
         <v>238</v>
       </c>
@@ -13653,7 +13653,7 @@
       <c r="O21" s="118"/>
       <c r="P21" s="118"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C22" s="43" t="s">
         <v>239</v>
       </c>
@@ -13681,7 +13681,7 @@
       <c r="O22" s="118"/>
       <c r="P22" s="118"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B23" s="36" t="s">
         <v>109</v>
       </c>
@@ -13712,7 +13712,7 @@
       <c r="O23" s="118"/>
       <c r="P23" s="118"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C24" s="43" t="s">
         <v>237</v>
       </c>
@@ -13740,7 +13740,7 @@
       <c r="O24" s="118"/>
       <c r="P24" s="118"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C25" s="43" t="s">
         <v>238</v>
       </c>
@@ -13768,7 +13768,7 @@
       <c r="O25" s="118"/>
       <c r="P25" s="118"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C26" s="43" t="s">
         <v>239</v>
       </c>
@@ -13796,12 +13796,12 @@
       <c r="O26" s="118"/>
       <c r="P26" s="118"/>
     </row>
-    <row r="28" spans="1:16" s="100" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" s="100" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="99" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="29" spans="1:16" s="36" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="121" t="s">
         <v>26</v>
       </c>
@@ -13835,7 +13835,7 @@
       <c r="O29" s="120"/>
       <c r="P29" s="120"/>
     </row>
-    <row r="30" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="40"/>
       <c r="B30" s="35" t="s">
         <v>101</v>
@@ -13867,7 +13867,7 @@
       <c r="O30" s="118"/>
       <c r="P30" s="118"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C31" s="43" t="s">
         <v>237</v>
       </c>
@@ -13895,7 +13895,7 @@
       <c r="O31" s="118"/>
       <c r="P31" s="118"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C32" s="43" t="s">
         <v>207</v>
       </c>
@@ -13923,7 +13923,7 @@
       <c r="O32" s="118"/>
       <c r="P32" s="118"/>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="43" t="s">
         <v>206</v>
       </c>
@@ -13951,7 +13951,7 @@
       <c r="O33" s="118"/>
       <c r="P33" s="118"/>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B34" s="35" t="s">
         <v>102</v>
       </c>
@@ -13982,7 +13982,7 @@
       <c r="O34" s="118"/>
       <c r="P34" s="118"/>
     </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="43" t="s">
         <v>237</v>
       </c>
@@ -14010,7 +14010,7 @@
       <c r="O35" s="118"/>
       <c r="P35" s="118"/>
     </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C36" s="43" t="s">
         <v>207</v>
       </c>
@@ -14038,7 +14038,7 @@
       <c r="O36" s="118"/>
       <c r="P36" s="118"/>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C37" s="43" t="s">
         <v>206</v>
       </c>
@@ -14066,7 +14066,7 @@
       <c r="O37" s="118"/>
       <c r="P37" s="118"/>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B38" s="35" t="s">
         <v>104</v>
       </c>
@@ -14097,7 +14097,7 @@
       <c r="O38" s="118"/>
       <c r="P38" s="118"/>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="43" t="s">
         <v>237</v>
       </c>
@@ -14125,7 +14125,7 @@
       <c r="O39" s="118"/>
       <c r="P39" s="118"/>
     </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="43" t="s">
         <v>207</v>
       </c>
@@ -14153,7 +14153,7 @@
       <c r="O40" s="118"/>
       <c r="P40" s="118"/>
     </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="43" t="s">
         <v>206</v>
       </c>
@@ -14181,7 +14181,7 @@
       <c r="O41" s="118"/>
       <c r="P41" s="118"/>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B42" s="35" t="s">
         <v>105</v>
       </c>
@@ -14212,7 +14212,7 @@
       <c r="O42" s="118"/>
       <c r="P42" s="118"/>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="43" t="s">
         <v>237</v>
       </c>
@@ -14240,7 +14240,7 @@
       <c r="O43" s="118"/>
       <c r="P43" s="118"/>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="43" t="s">
         <v>207</v>
       </c>
@@ -14268,7 +14268,7 @@
       <c r="O44" s="118"/>
       <c r="P44" s="118"/>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="43" t="s">
         <v>206</v>
       </c>
@@ -14296,7 +14296,7 @@
       <c r="O45" s="118"/>
       <c r="P45" s="118"/>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B46" s="35" t="s">
         <v>103</v>
       </c>
@@ -14327,7 +14327,7 @@
       <c r="O46" s="118"/>
       <c r="P46" s="118"/>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="43" t="s">
         <v>237</v>
       </c>
@@ -14355,7 +14355,7 @@
       <c r="O47" s="118"/>
       <c r="P47" s="118"/>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="43" t="s">
         <v>207</v>
       </c>
@@ -14383,7 +14383,7 @@
       <c r="O48" s="118"/>
       <c r="P48" s="118"/>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C49" s="43" t="s">
         <v>206</v>
       </c>
@@ -14411,7 +14411,7 @@
       <c r="O49" s="118"/>
       <c r="P49" s="118"/>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B50" s="35" t="s">
         <v>109</v>
       </c>
@@ -14442,7 +14442,7 @@
       <c r="O50" s="118"/>
       <c r="P50" s="118"/>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C51" s="43" t="s">
         <v>237</v>
       </c>
@@ -14470,7 +14470,7 @@
       <c r="O51" s="118"/>
       <c r="P51" s="118"/>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C52" s="43" t="s">
         <v>207</v>
       </c>
@@ -14498,7 +14498,7 @@
       <c r="O52" s="118"/>
       <c r="P52" s="118"/>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C53" s="43" t="s">
         <v>206</v>
       </c>
@@ -14526,16 +14526,16 @@
       <c r="O53" s="118"/>
       <c r="P53" s="118"/>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C54" s="43"/>
       <c r="D54" s="43"/>
     </row>
-    <row r="55" spans="1:16" s="100" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:16" s="100" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="99" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="56" spans="1:16" s="36" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16" s="36" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A56" s="121" t="s">
         <v>135</v>
       </c>
@@ -14563,7 +14563,7 @@
       <c r="O56" s="120"/>
       <c r="P56" s="120"/>
     </row>
-    <row r="57" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" s="40"/>
       <c r="B57" s="35" t="s">
         <v>115</v>
@@ -14589,7 +14589,7 @@
       <c r="O57" s="118"/>
       <c r="P57" s="118"/>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C58" s="43" t="s">
         <v>244</v>
       </c>
@@ -14611,7 +14611,7 @@
       <c r="O58" s="118"/>
       <c r="P58" s="118"/>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B59" s="35" t="s">
         <v>116</v>
       </c>
@@ -14636,7 +14636,7 @@
       <c r="O59" s="118"/>
       <c r="P59" s="118"/>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C60" s="43" t="s">
         <v>244</v>
       </c>
@@ -14658,7 +14658,7 @@
       <c r="O60" s="118"/>
       <c r="P60" s="118"/>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B61" s="35" t="s">
         <v>117</v>
       </c>
@@ -14683,7 +14683,7 @@
       <c r="O61" s="118"/>
       <c r="P61" s="118"/>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C62" s="43" t="s">
         <v>244</v>
       </c>
@@ -14705,16 +14705,16 @@
       <c r="O62" s="118"/>
       <c r="P62" s="118"/>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C63" s="43"/>
       <c r="D63" s="43"/>
     </row>
-    <row r="64" spans="1:16" s="100" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:16" s="100" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="99" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="65" spans="1:16" s="36" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:16" s="36" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A65" s="121" t="s">
         <v>142</v>
       </c>
@@ -14748,7 +14748,7 @@
       <c r="O65" s="120"/>
       <c r="P65" s="120"/>
     </row>
-    <row r="66" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66" s="125"/>
       <c r="B66" s="35" t="s">
         <v>92</v>
@@ -14780,7 +14780,7 @@
       <c r="O66" s="118"/>
       <c r="P66" s="118"/>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C67" s="43" t="s">
         <v>144</v>
       </c>
@@ -14808,7 +14808,7 @@
       <c r="O67" s="118"/>
       <c r="P67" s="118"/>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C68" s="43" t="s">
         <v>145</v>
       </c>
@@ -14836,7 +14836,7 @@
       <c r="O68" s="118"/>
       <c r="P68" s="118"/>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C69" s="43" t="s">
         <v>146</v>
       </c>
@@ -14864,7 +14864,7 @@
       <c r="O69" s="118"/>
       <c r="P69" s="118"/>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B70" s="35" t="s">
         <v>93</v>
       </c>
@@ -14895,7 +14895,7 @@
       <c r="O70" s="118"/>
       <c r="P70" s="118"/>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C71" s="43" t="s">
         <v>144</v>
       </c>
@@ -14923,7 +14923,7 @@
       <c r="O71" s="118"/>
       <c r="P71" s="118"/>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C72" s="43" t="s">
         <v>145</v>
       </c>
@@ -14951,7 +14951,7 @@
       <c r="O72" s="118"/>
       <c r="P72" s="118"/>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C73" s="43" t="s">
         <v>146</v>
       </c>
@@ -14979,7 +14979,7 @@
       <c r="O73" s="118"/>
       <c r="P73" s="118"/>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B74" s="35" t="s">
         <v>94</v>
       </c>
@@ -15010,7 +15010,7 @@
       <c r="O74" s="118"/>
       <c r="P74" s="118"/>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C75" s="43" t="s">
         <v>144</v>
       </c>
@@ -15038,7 +15038,7 @@
       <c r="O75" s="118"/>
       <c r="P75" s="118"/>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C76" s="43" t="s">
         <v>145</v>
       </c>
@@ -15066,7 +15066,7 @@
       <c r="O76" s="118"/>
       <c r="P76" s="118"/>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C77" s="43" t="s">
         <v>146</v>
       </c>
@@ -15094,7 +15094,7 @@
       <c r="O77" s="118"/>
       <c r="P77" s="118"/>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B78" s="35" t="s">
         <v>96</v>
       </c>
@@ -15125,7 +15125,7 @@
       <c r="O78" s="118"/>
       <c r="P78" s="118"/>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C79" s="43" t="s">
         <v>144</v>
       </c>
@@ -15153,7 +15153,7 @@
       <c r="O79" s="118"/>
       <c r="P79" s="118"/>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C80" s="43" t="s">
         <v>145</v>
       </c>
@@ -15181,7 +15181,7 @@
       <c r="O80" s="118"/>
       <c r="P80" s="118"/>
     </row>
-    <row r="81" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C81" s="43" t="s">
         <v>146</v>
       </c>
@@ -15209,7 +15209,7 @@
       <c r="O81" s="118"/>
       <c r="P81" s="118"/>
     </row>
-    <row r="82" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B82" s="35" t="s">
         <v>101</v>
       </c>
@@ -15240,7 +15240,7 @@
       <c r="O82" s="118"/>
       <c r="P82" s="118"/>
     </row>
-    <row r="83" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C83" s="43" t="s">
         <v>144</v>
       </c>
@@ -15268,7 +15268,7 @@
       <c r="O83" s="118"/>
       <c r="P83" s="118"/>
     </row>
-    <row r="84" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C84" s="43" t="s">
         <v>145</v>
       </c>
@@ -15296,7 +15296,7 @@
       <c r="O84" s="118"/>
       <c r="P84" s="118"/>
     </row>
-    <row r="85" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C85" s="43" t="s">
         <v>146</v>
       </c>
@@ -15324,7 +15324,7 @@
       <c r="O85" s="118"/>
       <c r="P85" s="118"/>
     </row>
-    <row r="86" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B86" s="35" t="s">
         <v>102</v>
       </c>
@@ -15355,7 +15355,7 @@
       <c r="O86" s="118"/>
       <c r="P86" s="118"/>
     </row>
-    <row r="87" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C87" s="43" t="s">
         <v>144</v>
       </c>
@@ -15383,7 +15383,7 @@
       <c r="O87" s="118"/>
       <c r="P87" s="118"/>
     </row>
-    <row r="88" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C88" s="43" t="s">
         <v>145</v>
       </c>
@@ -15411,7 +15411,7 @@
       <c r="O88" s="118"/>
       <c r="P88" s="118"/>
     </row>
-    <row r="89" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C89" s="43" t="s">
         <v>146</v>
       </c>
@@ -15439,7 +15439,7 @@
       <c r="O89" s="118"/>
       <c r="P89" s="118"/>
     </row>
-    <row r="90" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B90" s="35" t="s">
         <v>104</v>
       </c>
@@ -15470,7 +15470,7 @@
       <c r="O90" s="118"/>
       <c r="P90" s="118"/>
     </row>
-    <row r="91" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C91" s="43" t="s">
         <v>144</v>
       </c>
@@ -15498,7 +15498,7 @@
       <c r="O91" s="118"/>
       <c r="P91" s="118"/>
     </row>
-    <row r="92" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C92" s="43" t="s">
         <v>145</v>
       </c>
@@ -15526,7 +15526,7 @@
       <c r="O92" s="118"/>
       <c r="P92" s="118"/>
     </row>
-    <row r="93" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C93" s="43" t="s">
         <v>146</v>
       </c>
@@ -15554,7 +15554,7 @@
       <c r="O93" s="118"/>
       <c r="P93" s="118"/>
     </row>
-    <row r="94" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B94" s="35" t="s">
         <v>103</v>
       </c>
@@ -15585,7 +15585,7 @@
       <c r="O94" s="118"/>
       <c r="P94" s="118"/>
     </row>
-    <row r="95" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C95" s="43" t="s">
         <v>144</v>
       </c>
@@ -15613,7 +15613,7 @@
       <c r="O95" s="118"/>
       <c r="P95" s="118"/>
     </row>
-    <row r="96" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C96" s="43" t="s">
         <v>145</v>
       </c>
@@ -15641,7 +15641,7 @@
       <c r="O96" s="118"/>
       <c r="P96" s="118"/>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C97" s="43" t="s">
         <v>146</v>
       </c>
@@ -15669,7 +15669,7 @@
       <c r="O97" s="118"/>
       <c r="P97" s="118"/>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B98" s="35" t="s">
         <v>106</v>
       </c>
@@ -15700,7 +15700,7 @@
       <c r="O98" s="118"/>
       <c r="P98" s="118"/>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C99" s="43" t="s">
         <v>144</v>
       </c>
@@ -15728,7 +15728,7 @@
       <c r="O99" s="118"/>
       <c r="P99" s="118"/>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C100" s="43" t="s">
         <v>145</v>
       </c>
@@ -15756,7 +15756,7 @@
       <c r="O100" s="118"/>
       <c r="P100" s="118"/>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C101" s="43" t="s">
         <v>146</v>
       </c>
@@ -15784,12 +15784,12 @@
       <c r="O101" s="118"/>
       <c r="P101" s="118"/>
     </row>
-    <row r="103" spans="1:16" s="100" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:16" s="100" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="99" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="104" spans="1:16" s="36" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:16" s="36" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A104" s="121" t="s">
         <v>101</v>
       </c>
@@ -15823,7 +15823,7 @@
       <c r="O104" s="120"/>
       <c r="P104" s="120"/>
     </row>
-    <row r="105" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A105" s="40"/>
       <c r="B105" s="36"/>
       <c r="C105" s="43" t="s">
@@ -15853,7 +15853,7 @@
       <c r="O105" s="118"/>
       <c r="P105" s="118"/>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C106" s="43" t="s">
         <v>144</v>
       </c>
@@ -15881,7 +15881,7 @@
       <c r="O106" s="118"/>
       <c r="P106" s="118"/>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C107" s="43" t="s">
         <v>145</v>
       </c>
@@ -15909,7 +15909,7 @@
       <c r="O107" s="118"/>
       <c r="P107" s="118"/>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C108" s="43" t="s">
         <v>146</v>
       </c>
@@ -15937,11 +15937,11 @@
       <c r="O108" s="118"/>
       <c r="P108" s="118"/>
     </row>
-    <row r="111" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A111" s="40"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="i8mN3ZhyB0Nyaj6k903abhPx4HCgCvCMja3iAUYsWLrm71Y+YaBrjFwz2oMJXwgxODleJOxo3o21HOd6C0asPw==" saltValue="WexCPU1sWkYXt2Mhc9U/Hw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="PUgU1zVXUuANgPI6GxkV3dK32Z2sZ0dyhObjXhYIM0SGk+G5v4RUjHgR4DrVXvBSLPGp86L+sEr6UcTMf+LukQ==" saltValue="QbScJmd8Vi9qjVk3HXW3dQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -15958,24 +15958,24 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.81640625" style="35" customWidth="1"/>
-    <col min="2" max="2" width="44.453125" style="35" customWidth="1"/>
-    <col min="3" max="3" width="17.81640625" style="35" customWidth="1"/>
-    <col min="4" max="4" width="17.54296875" style="35" customWidth="1"/>
-    <col min="5" max="5" width="17.1796875" style="35" customWidth="1"/>
+    <col min="1" max="1" width="25.85546875" style="35" customWidth="1"/>
+    <col min="2" max="2" width="44.42578125" style="35" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" style="35" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" style="35" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" style="35" customWidth="1"/>
     <col min="6" max="6" width="15" style="35" customWidth="1"/>
-    <col min="7" max="7" width="13.6328125" style="35" customWidth="1"/>
-    <col min="8" max="16384" width="12.81640625" style="35"/>
+    <col min="7" max="7" width="13.5703125" style="35" customWidth="1"/>
+    <col min="8" max="16384" width="12.85546875" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="100" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="100" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="99" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="125" t="s">
         <v>0</v>
       </c>
@@ -15996,7 +15996,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="113" t="s">
         <v>249</v>
       </c>
@@ -16016,7 +16016,7 @@
         <v>174.7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="40"/>
       <c r="B4" s="117" t="s">
         <v>250</v>
@@ -16037,12 +16037,12 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="104" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="117" t="s">
         <v>195</v>
       </c>
@@ -16062,7 +16062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="117" t="s">
         <v>188</v>
       </c>
@@ -16082,7 +16082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="117" t="s">
         <v>203</v>
       </c>
@@ -16102,7 +16102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="117"/>
       <c r="C9" s="117"/>
       <c r="D9" s="117"/>
@@ -16110,12 +16110,12 @@
       <c r="F9" s="117"/>
       <c r="G9" s="117"/>
     </row>
-    <row r="10" spans="1:7" s="100" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" s="100" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="99" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="104"/>
       <c r="B11" s="113" t="s">
         <v>187</v>
@@ -16136,16 +16136,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="104"/>
       <c r="B12" s="113"/>
     </row>
-    <row r="13" spans="1:7" s="100" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" s="100" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="99" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="125" t="s">
         <v>26</v>
       </c>
@@ -16168,7 +16168,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="40"/>
       <c r="B15" s="117" t="s">
         <v>256</v>
@@ -16189,7 +16189,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="125" t="s">
         <v>135</v>
       </c>
@@ -16212,13 +16212,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="1:6" s="100" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="1:6" s="100" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="99" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="104" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" s="104" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C19" s="56" t="s">
         <v>84</v>
       </c>
@@ -16232,7 +16232,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B20" s="113" t="s">
         <v>176</v>
       </c>
@@ -16250,7 +16250,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="VMjARlJJax3cxDtxolkhCXTPbMRl9CDq1UxHhFbTH3Sqfaa/lAMdvdTI2EoQAB5qwgGqPeogVKR6cpF4thUa5g==" saltValue="OCPnDgxGMV/gUhDzLZARFw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Uek0Wtx9WSq+u+6KWIb2joJDSkT26lCpXOF7GKQOOUmGBr01dvVxkP48PcHiNyFtQo+4u5Kaz+9mDuZlry9dJQ==" saltValue="MJyqQEUbij/5XsZSwg3gng==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -16268,16 +16268,16 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.08984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="52.1796875" style="35" customWidth="1"/>
-    <col min="2" max="6" width="16.08984375" style="35"/>
-    <col min="7" max="7" width="17.1796875" style="35" customWidth="1"/>
-    <col min="8" max="8" width="16.08984375" style="35" customWidth="1"/>
-    <col min="9" max="16384" width="16.08984375" style="35"/>
+    <col min="1" max="1" width="52.140625" style="35" customWidth="1"/>
+    <col min="2" max="6" width="16.140625" style="35"/>
+    <col min="7" max="7" width="17.140625" style="35" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" style="35" customWidth="1"/>
+    <col min="9" max="16384" width="16.140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="119" t="s">
         <v>164</v>
       </c>
@@ -16295,7 +16295,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="90" t="s">
         <v>172</v>
       </c>
@@ -16315,7 +16315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="90"/>
       <c r="B3" s="90" t="s">
         <v>258</v>
@@ -16333,7 +16333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="90" t="s">
         <v>184</v>
       </c>
@@ -16353,7 +16353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="90"/>
       <c r="B5" s="90" t="s">
         <v>258</v>
@@ -16371,7 +16371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="90" t="s">
         <v>185</v>
       </c>
@@ -16391,7 +16391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="90"/>
       <c r="B7" s="90" t="s">
         <v>258</v>
@@ -16409,7 +16409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="90" t="s">
         <v>2</v>
       </c>
@@ -16429,7 +16429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="90"/>
       <c r="B9" s="90" t="s">
         <v>258</v>
@@ -16447,7 +16447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="90" t="s">
         <v>189</v>
       </c>
@@ -16467,7 +16467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="90"/>
       <c r="B11" s="90" t="s">
         <v>258</v>
@@ -16485,7 +16485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="90" t="s">
         <v>193</v>
       </c>
@@ -16505,7 +16505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="90"/>
       <c r="B13" s="90" t="s">
         <v>258</v>
@@ -16523,14 +16523,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="90"/>
     </row>
-    <row r="20" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="90"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="JspThBlELRPKHJ1KVh2DOEMK4wgz6rqAntWM+nVeqawAxH1UmdhguUvYtc6Yd4v2Qy4rhUsrdF8taBvVUs/KYA==" saltValue="ii9u4bX8w+bKxgub8ptSQA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="xnMTVQzadrnNO16rvFmSI1PDi8Djafq7pnMBXWA8SaqAVFGvIdE04LeviD08IPRB1yh25aHshBRTR+KFY8uhmA==" saltValue="qMoOSEOiGNe+BzrDvIvsyw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -16547,15 +16547,15 @@
       <selection activeCell="E20" sqref="E20:O20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" style="35" customWidth="1"/>
-    <col min="2" max="2" width="58.90625" style="35" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" style="35" customWidth="1"/>
+    <col min="2" max="2" width="58.85546875" style="35" bestFit="1" customWidth="1"/>
     <col min="3" max="15" width="15" style="35" customWidth="1"/>
-    <col min="16" max="16384" width="12.81640625" style="35"/>
+    <col min="16" max="16384" width="12.85546875" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="40"/>
       <c r="B1" s="40"/>
       <c r="C1" s="103" t="s">
@@ -16598,12 +16598,12 @@
         <v>139</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="40" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B3" s="59" t="s">
         <v>175</v>
       </c>
@@ -16647,7 +16647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B4" s="59" t="s">
         <v>180</v>
       </c>
@@ -16691,7 +16691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B5" s="59" t="s">
         <v>181</v>
       </c>
@@ -16735,7 +16735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="59" t="s">
         <v>182</v>
       </c>
@@ -16779,7 +16779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B7" s="59" t="s">
         <v>183</v>
       </c>
@@ -16823,7 +16823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B8" s="90" t="s">
         <v>184</v>
       </c>
@@ -16867,7 +16867,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B9" s="90" t="s">
         <v>185</v>
       </c>
@@ -16911,7 +16911,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B10" s="59" t="s">
         <v>2</v>
       </c>
@@ -16955,7 +16955,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B11" s="90" t="s">
         <v>188</v>
       </c>
@@ -16999,7 +16999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B12" s="59" t="s">
         <v>189</v>
       </c>
@@ -17043,7 +17043,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="59" t="s">
         <v>192</v>
       </c>
@@ -17087,7 +17087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B14" s="59" t="s">
         <v>193</v>
       </c>
@@ -17131,13 +17131,13 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="40" t="s">
         <v>260</v>
       </c>
       <c r="B16" s="59"/>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B17" s="90" t="s">
         <v>177</v>
       </c>
@@ -17181,7 +17181,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B18" s="90" t="s">
         <v>178</v>
       </c>
@@ -17225,7 +17225,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B19" s="90" t="s">
         <v>179</v>
       </c>
@@ -17269,7 +17269,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B20" s="90" t="s">
         <v>186</v>
       </c>
@@ -17313,20 +17313,20 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B25" s="43"/>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B26" s="43"/>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B27" s="43"/>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B28" s="43"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="u+IvWOJX34Vek7R1wBMfac8Wb6Vrv298j+ZxDWSBgCEi7LO8i2wFiugea7cCWGdBTZ1ESmsVX4+x4iOT/yD3cg==" saltValue="2yx7/2zQwLZ34uBBgLF7YQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="eEA8AmFpB4e5BBr9bH1kr5unP3kVvt0ACXvtR9uxbgo3/bs4QuOyP5L5K2PKjc92SShpx5GoS4pGa76rHV3SUw==" saltValue="pzprDyZ+qfWUIspdc7QmIw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -17343,15 +17343,15 @@
       <selection activeCell="D3" sqref="D3:G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.36328125" style="35" customWidth="1"/>
-    <col min="2" max="2" width="27.1796875" style="35" customWidth="1"/>
-    <col min="3" max="7" width="15.54296875" style="35" customWidth="1"/>
-    <col min="8" max="16384" width="12.81640625" style="35"/>
+    <col min="1" max="1" width="21.42578125" style="35" customWidth="1"/>
+    <col min="2" max="2" width="27.140625" style="35" customWidth="1"/>
+    <col min="3" max="7" width="15.5703125" style="35" customWidth="1"/>
+    <col min="8" max="16384" width="12.85546875" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="40"/>
       <c r="B1" s="119"/>
       <c r="C1" s="40" t="s">
@@ -17370,12 +17370,12 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="40" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3" s="59" t="s">
         <v>165</v>
       </c>
@@ -17395,7 +17395,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="40" t="s">
         <v>262</v>
       </c>
@@ -17406,7 +17406,7 @@
       <c r="F4" s="127"/>
       <c r="G4" s="127"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5" s="90" t="s">
         <v>169</v>
       </c>
@@ -17427,7 +17427,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="MR9Z0ZT9pIEbm4eH4On9z1WeJKEHCCqD0NzqzqA7D3fBzk0PcnOQWe3lQPhQb8dfwQhz1b3LmdnAputHViynCQ==" saltValue="2ZkGISKaJxLSbg5GfAziEA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="B2pQ8sxsr36JygVXivFCLR+n0jDr+7PpUjGXFomwA8EC1wTAFmGjLUqmRb+/nETMXkRGXKSx9EGpGkX4NWPJog==" saltValue="4Idad+JlhGHwvJVOgbvndA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -17444,20 +17444,20 @@
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="53" style="52" customWidth="1"/>
-    <col min="2" max="2" width="30.54296875" style="52" customWidth="1"/>
-    <col min="3" max="3" width="24.81640625" style="52" customWidth="1"/>
+    <col min="2" max="2" width="30.5703125" style="52" customWidth="1"/>
+    <col min="3" max="3" width="24.85546875" style="52" customWidth="1"/>
     <col min="4" max="4" width="15" style="35" customWidth="1"/>
-    <col min="5" max="5" width="13.6328125" style="35" customWidth="1"/>
-    <col min="6" max="6" width="14.453125" style="35" customWidth="1"/>
-    <col min="7" max="7" width="12.81640625" style="35"/>
-    <col min="8" max="8" width="17.54296875" style="35" customWidth="1"/>
-    <col min="9" max="16384" width="12.81640625" style="35"/>
+    <col min="5" max="5" width="13.5703125" style="35" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="35" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" style="35"/>
+    <col min="8" max="8" width="17.5703125" style="35" customWidth="1"/>
+    <col min="9" max="16384" width="12.85546875" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
         <v>164</v>
       </c>
@@ -17483,7 +17483,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="52" t="s">
         <v>196</v>
       </c>
@@ -17509,7 +17509,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C3" s="52" t="s">
         <v>264</v>
       </c>
@@ -17529,7 +17529,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C4" s="52" t="s">
         <v>265</v>
       </c>
@@ -17549,7 +17549,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="52" t="s">
         <v>195</v>
       </c>
@@ -17575,7 +17575,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C6" s="52" t="s">
         <v>265</v>
       </c>
@@ -17595,7 +17595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B7" s="52" t="s">
         <v>207</v>
       </c>
@@ -17618,7 +17618,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C8" s="52" t="s">
         <v>265</v>
       </c>
@@ -17638,7 +17638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="52" t="s">
         <v>188</v>
       </c>
@@ -17664,7 +17664,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C10" s="52" t="s">
         <v>265</v>
       </c>
@@ -17684,7 +17684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B11" s="52" t="s">
         <v>207</v>
       </c>
@@ -17707,7 +17707,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C12" s="52" t="s">
         <v>265</v>
       </c>
@@ -17727,7 +17727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="52" t="s">
         <v>174</v>
       </c>
@@ -17753,7 +17753,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C14" s="52" t="s">
         <v>265</v>
       </c>
@@ -17774,7 +17774,7 @@
       </c>
       <c r="I14" s="36"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B15" s="52" t="s">
         <v>207</v>
       </c>
@@ -17798,7 +17798,7 @@
       </c>
       <c r="I15" s="36"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C16" s="52" t="s">
         <v>265</v>
       </c>
@@ -17819,7 +17819,7 @@
       </c>
       <c r="I16" s="36"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="52" t="s">
         <v>179</v>
       </c>
@@ -17846,7 +17846,7 @@
       </c>
       <c r="I17" s="36"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C18" s="52" t="s">
         <v>264</v>
       </c>
@@ -17867,7 +17867,7 @@
       </c>
       <c r="I18" s="36"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="52" t="s">
         <v>177</v>
       </c>
@@ -17893,7 +17893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C20" s="52" t="s">
         <v>264</v>
       </c>
@@ -17913,7 +17913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="52" t="s">
         <v>178</v>
       </c>
@@ -17939,7 +17939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C22" s="52" t="s">
         <v>264</v>
       </c>
@@ -17959,7 +17959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="52" t="s">
         <v>200</v>
       </c>
@@ -17985,7 +17985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C24" s="52" t="s">
         <v>264</v>
       </c>
@@ -18005,7 +18005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C25" s="52" t="s">
         <v>265</v>
       </c>
@@ -18025,7 +18025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="52" t="s">
         <v>201</v>
       </c>
@@ -18051,7 +18051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C27" s="52" t="s">
         <v>264</v>
       </c>
@@ -18071,7 +18071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C28" s="52" t="s">
         <v>265</v>
       </c>
@@ -18091,7 +18091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="52" t="s">
         <v>199</v>
       </c>
@@ -18117,7 +18117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C30" s="52" t="s">
         <v>264</v>
       </c>
@@ -18137,7 +18137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C31" s="52" t="s">
         <v>265</v>
       </c>
@@ -18157,7 +18157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="52" t="s">
         <v>198</v>
       </c>
@@ -18183,7 +18183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C33" s="52" t="s">
         <v>264</v>
       </c>
@@ -18203,7 +18203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C34" s="52" t="s">
         <v>265</v>
       </c>
@@ -18223,7 +18223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="52" t="s">
         <v>197</v>
       </c>
@@ -18249,7 +18249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C36" s="52" t="s">
         <v>264</v>
       </c>
@@ -18269,7 +18269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C37" s="52" t="s">
         <v>265</v>
       </c>
@@ -18289,7 +18289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="52" t="s">
         <v>203</v>
       </c>
@@ -18315,7 +18315,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C39" s="52" t="s">
         <v>264</v>
       </c>
@@ -18335,7 +18335,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C40" s="52" t="s">
         <v>265</v>
       </c>
@@ -18355,7 +18355,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B41" s="52" t="s">
         <v>102</v>
       </c>
@@ -18378,7 +18378,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C42" s="52" t="s">
         <v>264</v>
       </c>
@@ -18398,7 +18398,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C43" s="52" t="s">
         <v>265</v>
       </c>
@@ -18418,7 +18418,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="52" t="s">
         <v>194</v>
       </c>
@@ -18444,7 +18444,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C45" s="52" t="s">
         <v>264</v>
       </c>
@@ -18464,7 +18464,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="52" t="s">
         <v>202</v>
       </c>
@@ -18490,7 +18490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C47" s="52" t="s">
         <v>264</v>
       </c>
@@ -18510,7 +18510,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="52" t="s">
         <v>187</v>
       </c>
@@ -18536,7 +18536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C49" s="52" t="s">
         <v>264</v>
       </c>
@@ -18557,7 +18557,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="R7uuK1Ez0KE90nGEXK3NWLyN0iq4P8giyyxTh8QIO989xOjVszOIw0bhzRdT+8c33/XqluGgIdtr/DCTU8GyZA==" saltValue="33ic6PQHnwj3dJk/Iso2yQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="+W+T4MIcO2m7O5q/auDpKMmauU0FTySxanwBmIcPpfUP9Omu/wHoPNrVx3/cjvg9Ua/oMo9+ylE9Zyez8xyHtg==" saltValue="oukuP3MrLAIOAuxTPNtBlg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -18574,16 +18574,16 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28" style="35" customWidth="1"/>
-    <col min="2" max="2" width="27.453125" style="35" customWidth="1"/>
-    <col min="3" max="3" width="23.6328125" style="35" customWidth="1"/>
-    <col min="4" max="7" width="17.1796875" style="35" customWidth="1"/>
-    <col min="8" max="16384" width="12.81640625" style="35"/>
+    <col min="2" max="2" width="27.42578125" style="35" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" style="35" customWidth="1"/>
+    <col min="4" max="7" width="17.140625" style="35" customWidth="1"/>
+    <col min="8" max="16384" width="12.85546875" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="119" t="s">
         <v>164</v>
       </c>
@@ -18605,7 +18605,7 @@
       </c>
       <c r="H1" s="94"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="43" t="s">
         <v>173</v>
       </c>
@@ -18629,7 +18629,7 @@
       </c>
       <c r="H2" s="90"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C3" s="35" t="s">
         <v>264</v>
       </c>
@@ -18647,7 +18647,7 @@
       </c>
       <c r="H3" s="128"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="43" t="s">
         <v>191</v>
       </c>
@@ -18671,7 +18671,7 @@
       </c>
       <c r="H4" s="128"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="36"/>
       <c r="C5" s="35" t="s">
         <v>264</v>
@@ -18690,7 +18690,7 @@
       </c>
       <c r="H5" s="90"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="43" t="s">
         <v>190</v>
       </c>
@@ -18714,7 +18714,7 @@
       </c>
       <c r="H6" s="90"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="36"/>
       <c r="C7" s="35" t="s">
         <v>264</v>
@@ -18734,7 +18734,7 @@
       <c r="H7" s="128"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="q33I46+ainvlxUZ/jDewCVkdA89MBpdP/dr85m6EpHxDFlV8UT5+wMvPG1arhaY+MKoWqrgjIT5nC64NJNAOUg==" saltValue="ww+Tn9IQf6aEdEOE5ul5cQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="ld1r6jx62zAmxbEZ8dADDf1HpKZnVIA7SyG/jFWzWXvNfIUmJZA32XPxR8bVu1/B0cAPObp5NRojxnpsClFa8g==" saltValue="QzxJAkJ1A3eyWImZirGNTg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -18750,14 +18750,14 @@
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.08984375" customWidth="1"/>
-    <col min="2" max="2" width="31.36328125" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" customWidth="1"/>
+    <col min="2" max="2" width="31.42578125" customWidth="1"/>
     <col min="3" max="8" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="str">
         <f>"Pourcentage des morts de l'année de référence ("&amp;start_year&amp;") imputable à chaque cause"</f>
         <v>Pourcentage des morts de l'année de référence (2017) imputable à chaque cause</v>
@@ -18768,7 +18768,7 @@
       <c r="E1" s="41"/>
       <c r="F1" s="41"/>
     </row>
-    <row r="2" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>91</v>
       </c>
@@ -18783,7 +18783,7 @@
       <c r="F2" s="41"/>
       <c r="G2" s="41"/>
     </row>
-    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="24" t="s">
         <v>92</v>
       </c>
@@ -18791,7 +18791,7 @@
         <v>2.7000000000000001E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="24" t="s">
         <v>93</v>
       </c>
@@ -18799,7 +18799,7 @@
         <v>0.1966</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="24" t="s">
         <v>94</v>
       </c>
@@ -18807,7 +18807,7 @@
         <v>6.2100000000000002E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="24" t="s">
         <v>95</v>
       </c>
@@ -18815,7 +18815,7 @@
         <v>0.29289999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="24" t="s">
         <v>96</v>
       </c>
@@ -18823,7 +18823,7 @@
         <v>0.24709999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="24" t="s">
         <v>97</v>
       </c>
@@ -18831,7 +18831,7 @@
         <v>4.7999999999999996E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="24" t="s">
         <v>98</v>
       </c>
@@ -18839,7 +18839,7 @@
         <v>0.13200000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="24" t="s">
         <v>99</v>
       </c>
@@ -18847,7 +18847,7 @@
         <v>6.1800000000000001E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="32" t="s">
         <v>57</v>
       </c>
@@ -18858,7 +18858,7 @@
       <c r="G11" s="24"/>
       <c r="H11" s="24"/>
     </row>
-    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="32"/>
       <c r="C12" s="24"/>
       <c r="D12" s="24"/>
@@ -18867,7 +18867,7 @@
       <c r="G12" s="24"/>
       <c r="H12" s="24"/>
     </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
         <v>100</v>
       </c>
@@ -18888,7 +18888,7 @@
       </c>
       <c r="G13" s="24"/>
     </row>
-    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="24" t="s">
         <v>101</v>
       </c>
@@ -18905,7 +18905,7 @@
         <v>0.1368</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="24" t="s">
         <v>102</v>
       </c>
@@ -18922,7 +18922,7 @@
         <v>0.20660000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="24" t="s">
         <v>103</v>
       </c>
@@ -18939,7 +18939,7 @@
         <v>2.1100000000000001E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="24" t="s">
         <v>104</v>
       </c>
@@ -18956,7 +18956,7 @@
         <v>7.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="24" t="s">
         <v>105</v>
       </c>
@@ -18973,7 +18973,7 @@
         <v>8.6199999999999999E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="24" t="s">
         <v>106</v>
       </c>
@@ -18990,7 +18990,7 @@
         <v>2.86E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="24" t="s">
         <v>107</v>
       </c>
@@ -19007,7 +19007,7 @@
         <v>1.5299999999999999E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="24" t="s">
         <v>108</v>
       </c>
@@ -19024,7 +19024,7 @@
         <v>0.13589999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="24" t="s">
         <v>109</v>
       </c>
@@ -19041,7 +19041,7 @@
         <v>0.36199999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="32" t="s">
         <v>57</v>
       </c>
@@ -19064,7 +19064,7 @@
       <c r="G23" s="24"/>
       <c r="H23" s="24"/>
     </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="32"/>
       <c r="C24" s="24"/>
       <c r="D24" s="24"/>
@@ -19073,7 +19073,7 @@
       <c r="G24" s="24"/>
       <c r="H24" s="24"/>
     </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>114</v>
       </c>
@@ -19089,7 +19089,7 @@
       <c r="G25" s="24"/>
       <c r="H25" s="24"/>
     </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="24" t="s">
         <v>115</v>
       </c>
@@ -19097,7 +19097,7 @@
         <v>0.10082724000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="24" t="s">
         <v>116</v>
       </c>
@@ -19105,7 +19105,7 @@
         <v>3.1206000000000002E-4</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="24" t="s">
         <v>117</v>
       </c>
@@ -19113,7 +19113,7 @@
         <v>0.15891214000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="24" t="s">
         <v>118</v>
       </c>
@@ -19121,7 +19121,7 @@
         <v>0.12598688999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="24" t="s">
         <v>1</v>
       </c>
@@ -19129,7 +19129,7 @@
         <v>0.12434007</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="24" t="s">
         <v>119</v>
       </c>
@@ -19137,7 +19137,7 @@
         <v>3.9028409999999999E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="24" t="s">
         <v>120</v>
       </c>
@@ -19145,7 +19145,7 @@
         <v>8.5254999999999999E-4</v>
       </c>
     </row>
-    <row r="33" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="24" t="s">
         <v>121</v>
       </c>
@@ -19153,7 +19153,7 @@
         <v>6.8467810000000004E-2</v>
       </c>
     </row>
-    <row r="34" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="24" t="s">
         <v>122</v>
       </c>
@@ -19161,7 +19161,7 @@
         <v>0.38127283000000001</v>
       </c>
     </row>
-    <row r="35" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="32" t="s">
         <v>57</v>
       </c>
@@ -19171,7 +19171,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="mjSMCGS04fWouObPbPfOmCSDQS4Ly2dAW7Po8grqEwAq+kJzPkT+QGhULnV5yICLz9ND/QumTmT/wjIxpsL47Q==" saltValue="fIChv0KkUDJAfv9W9EwDkQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="QHEnqlmY8Ht7Lip7/ODMQicvxh8N0HQRqt9ANqCaFEBvKGHHJFqpncx/PIE6bzraIKYeYywP3otMEXhq2xKdjg==" saltValue="bimPoq+r5grC71dmTRQrsg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="69" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -19189,13 +19189,13 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.453125" customWidth="1"/>
+    <col min="1" max="1" width="31.42578125" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="27" t="str">
         <f>"Pourcentage de la population dans chaque catégorie pendant l'année de référence ("&amp;start_year&amp;")"</f>
         <v>Pourcentage de la population dans chaque catégorie pendant l'année de référence (2017)</v>
@@ -19219,7 +19219,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>125</v>
       </c>
@@ -19247,7 +19247,7 @@
         <v>0.23269074767298425</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
       <c r="B3" s="11" t="s">
         <v>127</v>
@@ -19273,7 +19273,7 @@
         <v>0.37372365733745416</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="11" t="s">
         <v>128</v>
@@ -19294,7 +19294,7 @@
         <v>0.25929610299234518</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="11" t="s">
         <v>129</v>
@@ -19315,7 +19315,7 @@
         <v>0.13428949199721643</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="14"/>
       <c r="C6" s="29"/>
       <c r="D6" s="29"/>
@@ -19323,7 +19323,7 @@
       <c r="F6" s="29"/>
       <c r="G6" s="29"/>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="14"/>
       <c r="C7" s="29"/>
       <c r="D7" s="29"/>
@@ -19331,7 +19331,7 @@
       <c r="F7" s="29"/>
       <c r="G7" s="29"/>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>130</v>
       </c>
@@ -19359,7 +19359,7 @@
         <v>0.81212055177975573</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="7" t="s">
         <v>132</v>
       </c>
@@ -19384,7 +19384,7 @@
         <v>0.15821429221536368</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="7" t="s">
         <v>133</v>
       </c>
@@ -19404,7 +19404,7 @@
         <v>2.2330660624019519E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="7" t="s">
         <v>134</v>
       </c>
@@ -19424,7 +19424,7 @@
         <v>7.3344953808610778E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -19438,7 +19438,7 @@
       <c r="N12" s="15"/>
       <c r="O12" s="15"/>
     </row>
-    <row r="13" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
         <v>135</v>
       </c>
@@ -19482,7 +19482,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="16" t="s">
         <v>140</v>
       </c>
@@ -19526,7 +19526,7 @@
         <v>0.442</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="16" t="s">
         <v>141</v>
       </c>
@@ -19583,14 +19583,14 @@
         <v>0.18564</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
     </row>
-    <row r="17" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -19598,7 +19598,7 @@
       <c r="G17" s="8"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="2hYO+aWG3LxkebJaR15+A9FsxFPmaNIS1R0Y/8jl/iefSzZjNxPHBeJES6LoPlzGtQda6ttIMAjw5w4gtHY+3w==" saltValue="Oj1jFAPsHoLMHu2ieIgjJw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="kk/XWa0FCI11fpB8D4f393X/ht+TqyZNjVtNX3GFH2if92eaU9O9N/PxK1gs6DM9uB5n2DExPzfdOz4U65uP5Q==" saltValue="BPepyEbrwyseKaiegZy9cA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
@@ -19616,13 +19616,13 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.90625" customWidth="1"/>
-    <col min="2" max="7" width="13.453125" customWidth="1"/>
+    <col min="1" max="1" width="28.85546875" customWidth="1"/>
+    <col min="2" max="7" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="27" t="str">
         <f>"Pourcentage des enfants dans chaque catégorie pendant l'année de référence ("&amp;start_year&amp;")"</f>
         <v>Pourcentage des enfants dans chaque catégorie pendant l'année de référence (2017)</v>
@@ -19646,7 +19646,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>142</v>
       </c>
@@ -19669,7 +19669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3" s="43" t="s">
         <v>144</v>
       </c>
@@ -19689,7 +19689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B4" s="43" t="s">
         <v>145</v>
       </c>
@@ -19709,7 +19709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5" s="43" t="s">
         <v>146</v>
       </c>
@@ -19735,7 +19735,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Qi0c2w0ySyoK27uxlajDrijllBG0Sc/wp3aAfokhpdyCba1q3gR675f1zhnNrmjp5lQ7OVAfM6s8rR2jm1iwzQ==" saltValue="I+oBbxi1evvpA/6foWDjIQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="0S0xIjrT/yxwG8is2ZuSQb7Ho5IyjuGduyeLoDtwBeDDucB+tbsqQJjakk1Ph2JsLfuqR8fj5Xb9i4xDH21zZg==" saltValue="lGywY/S2B8NUNYjFP9nCjw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -19752,14 +19752,14 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="37" customWidth="1"/>
-    <col min="2" max="2" width="29.453125" customWidth="1"/>
-    <col min="3" max="3" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>147</v>
       </c>
@@ -19809,7 +19809,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>148</v>
       </c>
@@ -19836,10 +19836,10 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B3" s="14"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>149</v>
       </c>
@@ -19868,10 +19868,10 @@
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B5" s="14"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>150</v>
       </c>
@@ -19898,7 +19898,7 @@
         <v>0.19800000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B7" s="14" t="s">
         <v>114</v>
       </c>
@@ -19922,7 +19922,7 @@
         <v>0.17499999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B8" s="14" t="s">
         <v>151</v>
       </c>
@@ -19948,7 +19948,7 @@
         <v>0.17399999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>152</v>
       </c>
@@ -19975,7 +19975,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B11" s="34" t="s">
         <v>154</v>
       </c>
@@ -19999,7 +19999,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
         <v>59</v>
       </c>
@@ -20026,7 +20026,7 @@
         <v>6.7000000000000004E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B14" s="16" t="s">
         <v>156</v>
       </c>
@@ -20051,7 +20051,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="f3v6CIVjSmpIDg6PWBOcxvjm2suEjVyN1o8XhaWFEJpHynoBL16KNCFw2PxXEyGg/Vb+xk6UPz9zvrkzoZqjdA==" saltValue="2Gtsqdi23iwoA55Mi80l7w==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="yragG//Z+8NZR8Dba1b56x574tXbENDt0Flg0VLfdQWLEDVx/+vuha5P5CJjFGjLlR7Trrx50llNMra/vRArIA==" saltValue="YxkGxtrOBvyBT9z+o5G4dA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="193" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -20068,15 +20068,15 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17" style="35" customWidth="1"/>
-    <col min="2" max="2" width="19.08984375" style="35" customWidth="1"/>
-    <col min="3" max="3" width="13.453125" style="35" customWidth="1"/>
-    <col min="4" max="16384" width="11.453125" style="35"/>
+    <col min="2" max="2" width="19.140625" style="35" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" style="35" customWidth="1"/>
+    <col min="4" max="16384" width="11.42578125" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="50" t="s">
         <v>158</v>
       </c>
@@ -20093,7 +20093,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="49" t="s">
         <v>19</v>
       </c>
@@ -20107,7 +20107,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="47"/>
       <c r="B3" s="46" t="s">
         <v>123</v>
@@ -20121,7 +20121,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="47"/>
       <c r="B4" s="46" t="s">
         <v>110</v>
@@ -20135,7 +20135,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="47"/>
       <c r="B5" s="46" t="s">
         <v>111</v>
@@ -20149,7 +20149,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="47"/>
       <c r="B6" s="46" t="s">
         <v>112</v>
@@ -20163,7 +20163,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="47"/>
       <c r="B7" s="46" t="s">
         <v>163</v>
@@ -20172,7 +20172,7 @@
       <c r="D7" s="44"/>
       <c r="E7" s="80"/>
     </row>
-    <row r="9" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="49" t="s">
         <v>22</v>
       </c>
@@ -20188,7 +20188,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="47"/>
       <c r="B10" s="46" t="s">
         <v>123</v>
@@ -20200,7 +20200,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="47"/>
       <c r="B11" s="46" t="s">
         <v>110</v>
@@ -20212,7 +20212,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="47"/>
       <c r="B12" s="46" t="s">
         <v>111</v>
@@ -20224,7 +20224,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="47"/>
       <c r="B13" s="46" t="s">
         <v>112</v>
@@ -20236,7 +20236,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="47"/>
       <c r="B14" s="46" t="s">
         <v>163</v>
@@ -20247,7 +20247,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="49" t="s">
         <v>23</v>
       </c>
@@ -20263,7 +20263,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="47"/>
       <c r="B17" s="46" t="s">
         <v>123</v>
@@ -20277,7 +20277,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="47"/>
       <c r="B18" s="46" t="s">
         <v>110</v>
@@ -20291,7 +20291,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="47"/>
       <c r="B19" s="46" t="s">
         <v>111</v>
@@ -20305,7 +20305,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="47"/>
       <c r="B20" s="46" t="s">
         <v>112</v>
@@ -20319,7 +20319,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="47"/>
       <c r="B21" s="46" t="s">
         <v>163</v>
@@ -20329,7 +20329,7 @@
       <c r="E21" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="0VbhM9vM9PYo4cScqUJEBVuuDvsOF+kTig/2/nmr515TvlBFLXi1oJN1oLMf+45M9IHN4iy9NQntw5y2bUkLcg==" saltValue="vjWp6CJPV5X7WnOtB7KgVA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="3kSvlcroEGwJOrFvFJxg4zv29kpiDE84pow5B5Ursiq6e7bBgg1ocaXfnMntQ9eQk4BELhJdjsbfPQXibiOamQ==" saltValue="vF72DyrrU1qI8av5CAOEFg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -20346,15 +20346,15 @@
       <selection activeCell="D2" sqref="D2:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.6328125" customWidth="1"/>
-    <col min="2" max="2" width="15.453125" customWidth="1"/>
-    <col min="3" max="3" width="17.453125" customWidth="1"/>
-    <col min="4" max="4" width="12.90625" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="60" t="s">
         <v>17</v>
       </c>
@@ -20368,7 +20368,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="61" t="s">
         <v>164</v>
       </c>
@@ -20380,7 +20380,7 @@
       </c>
       <c r="D2" s="80"/>
     </row>
-    <row r="3" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="61" t="s">
         <v>168</v>
       </c>
@@ -20393,7 +20393,7 @@
       <c r="D3" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="zt9kuH4/6vFabDm3Nb4VTfMaI06JqaNOCqctc8+/qM4bahPKEuWDDHuqE9AQLx+Te8i81JlQTN6kinwo2D8M8A==" saltValue="y3yixpcuW7Lxepmgy7l//A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="CWWKSoc8asop9jFcdPYQ/IxWrFJYpzLhg6U6/LoW/KQKnxMlzxa7R3PbSEjXuoLgvP89MdjWQUj9ToxmCFRPuA==" saltValue="YgK4bVqFhPabaJ7Qh//UqQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -20409,17 +20409,17 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="56" style="52" customWidth="1"/>
     <col min="2" max="2" width="20" style="36" customWidth="1"/>
-    <col min="3" max="3" width="20.453125" style="35" customWidth="1"/>
-    <col min="4" max="4" width="20.08984375" style="35" customWidth="1"/>
-    <col min="5" max="5" width="32.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="14.453125" style="35"/>
+    <col min="3" max="3" width="20.42578125" style="35" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" style="35" customWidth="1"/>
+    <col min="5" max="5" width="32.42578125" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="14.42578125" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="54" t="s">
         <v>164</v>
       </c>
@@ -20437,7 +20437,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="52" t="s">
         <v>172</v>
       </c>
@@ -20454,7 +20454,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="52" t="s">
         <v>173</v>
       </c>
@@ -20471,7 +20471,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="52" t="s">
         <v>174</v>
       </c>
@@ -20488,7 +20488,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="52" t="s">
         <v>175</v>
       </c>
@@ -20505,7 +20505,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="52" t="s">
         <v>176</v>
       </c>
@@ -20522,7 +20522,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="52" t="s">
         <v>177</v>
       </c>
@@ -20539,7 +20539,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="52" t="s">
         <v>178</v>
       </c>
@@ -20556,7 +20556,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="52" t="s">
         <v>179</v>
       </c>
@@ -20573,7 +20573,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="59" t="s">
         <v>180</v>
       </c>
@@ -20590,7 +20590,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="59" t="s">
         <v>181</v>
       </c>
@@ -20607,7 +20607,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="59" t="s">
         <v>182</v>
       </c>
@@ -20624,7 +20624,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="59" t="s">
         <v>183</v>
       </c>
@@ -20641,7 +20641,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
         <v>184</v>
       </c>
@@ -20658,7 +20658,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
         <v>185</v>
       </c>
@@ -20675,7 +20675,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="52" t="s">
         <v>2</v>
       </c>
@@ -20692,7 +20692,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="52" t="s">
         <v>186</v>
       </c>
@@ -20709,7 +20709,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="52" t="s">
         <v>19</v>
       </c>
@@ -20726,7 +20726,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="52" t="s">
         <v>22</v>
       </c>
@@ -20743,7 +20743,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="52" t="s">
         <v>23</v>
       </c>
@@ -20760,7 +20760,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="52" t="s">
         <v>187</v>
       </c>
@@ -20777,7 +20777,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="52" t="s">
         <v>188</v>
       </c>
@@ -20794,7 +20794,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="52" t="s">
         <v>189</v>
       </c>
@@ -20811,7 +20811,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="52" t="s">
         <v>190</v>
       </c>
@@ -20828,7 +20828,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="52" t="s">
         <v>191</v>
       </c>
@@ -20845,7 +20845,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="52" t="s">
         <v>192</v>
       </c>
@@ -20862,7 +20862,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="52" t="s">
         <v>193</v>
       </c>
@@ -20879,7 +20879,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="52" t="s">
         <v>194</v>
       </c>
@@ -20896,7 +20896,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="52" t="s">
         <v>195</v>
       </c>
@@ -20913,7 +20913,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="52" t="s">
         <v>165</v>
       </c>
@@ -20930,7 +20930,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="52" t="s">
         <v>196</v>
       </c>
@@ -20947,7 +20947,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="52" t="s">
         <v>197</v>
       </c>
@@ -20964,7 +20964,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="52" t="s">
         <v>198</v>
       </c>
@@ -20981,7 +20981,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="52" t="s">
         <v>199</v>
       </c>
@@ -20998,7 +20998,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="52" t="s">
         <v>200</v>
       </c>
@@ -21015,7 +21015,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="36" spans="1:6" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="52" t="s">
         <v>201</v>
       </c>
@@ -21033,7 +21033,7 @@
       </c>
       <c r="F36" s="35"/>
     </row>
-    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="52" t="s">
         <v>202</v>
       </c>
@@ -21050,7 +21050,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="52" t="s">
         <v>203</v>
       </c>
@@ -21067,11 +21067,11 @@
         <v>204</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F39" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="6P9i6LBVWPXUK6uLLq/zuDFVrxNzXiQUnYm7QdPj6An9L1a7HsjQJc/OJ6YBPrPOQLktADrPco2z47t6+TLRvA==" saltValue="iNw0QL/HtjfHoQTQCZtSyw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="/HdGC6JQTBUKHRbYls+ExDQOIcKwbHT80vdSpF75rtNKVxDM/BOpM++RjbWzwT3A8/HOLZnvcjTG2hgFEjNL4Q==" saltValue="KTNHagq3yoEgKV5vVmW4xQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D38">
     <sortCondition ref="A2:A38"/>
   </sortState>

--- a/inputs/fr/demo_demo_input.xlsx
+++ b/inputs/fr/demo_demo_input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\romesh\projects\nutrition\inputs\fr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB6D1B94-37BA-4243-AAD4-A86CD0FF181F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B654674F-7456-4EEA-91F4-4A6BF5AB55BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6570" yWindow="3480" windowWidth="31215" windowHeight="14940" tabRatio="885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="3600" windowWidth="34980" windowHeight="15600" tabRatio="885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Donnees pop de l'annee de ref" sheetId="1" r:id="rId1"/>
@@ -1128,7 +1128,7 @@
     <t>Modéré</t>
   </si>
   <si>
-    <t>Elevé</t>
+    <t>Élevé</t>
   </si>
   <si>
     <t>Niveau WHZ</t>
@@ -5191,7 +5191,7 @@
       <c r="A63" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="C8CnBtN26UT7t8sG3k+xKzGMQKhWTjNymcf2BYI4a6fTKtTapfYIOarC4+DvOyq3UOzex2sTNe6qlsGUxkWrVw==" saltValue="EazZx+/3Nh7WL6QZZotVNw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="jV4c/4yPHoZshBaiqszOondcEIqA/StGy2nkVKUvz2T7VP//jDKNkzOG5u1NNFLtBO5iAuVpH50TfoMIDGMe4w==" saltValue="GEWvNDfJBQ8JsX6z9Fqkfg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
 </worksheet>
@@ -5290,7 +5290,7 @@
       <c r="A19" s="48"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Q93SNeQeulMxathxd6rkfFBGKIipW0Gtz614d66MIf3BQMQQUYmbADBQhW7gxZGaANfD54PPCN1emkNfSNbrNQ==" saltValue="5Ujl7S0dwcGsYckKDYBMTQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="/VDyT6MSLjBTbhYmZpBwg5/GLnAoPQRVFHP3ajU+SELBkBx3kYRvnYb6Ki658q1GqOxQdVpIqUH6X0tCGYdHww==" saltValue="Dkf41inUS6MdrJLl8yY7cw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -5405,7 +5405,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="9jqJkdOJBmTzLkKwu8Co7MIyTkbwQdbCXrjiVI+1WIdt384f/f0Ik900SDBW7z4O7NgOJVBsvNdYvTMoy6Bygg==" saltValue="8AXl6rYR7Lgh3ybiLMoehA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Bgr1XIxPtO1vs/9rQ7xuiuM/xXfLrtY+09pjX44DN2wdzvOoVVJwDFEpn+9bNDdqjFsL8W7eQWCzFyIJKaTUwQ==" saltValue="2p5a9+wjoZB05jq8+jOYEQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -7121,7 +7121,7 @@
       <c r="B39" s="33"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="yG6ffxaPi1c9ARYzwnx5X+FjokR/krrcoAa6gb57O/VwMWrBis4N79Ut7ZqUpu7lVKT+xi+SCcOJ5asElSCHIQ==" saltValue="yM1mexHMiRX5+XY4k6zY1w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="zmRloJjnO5SMkqm6ffKOPWlJnhDNgGrPUQCzS0fUXLoJW4QjS7XTFfxe1gs3/drBB0Te6fL1fhnseJsNK2kj0g==" saltValue="h8x2H0X/EYUDsFNyabH+zQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B14:O21">
     <sortCondition ref="B14:B21"/>
   </sortState>
@@ -7272,7 +7272,7 @@
       <c r="C20" s="85"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="leew4CwIcigxHhlJpsU1GpVN3nIZVNkxsdVQIIdvisGbcy/mylcVarBKB6DKrPDKMTjIqcLNuhpreEzD3YIGIA==" saltValue="BuKvuMgGVuqxoB8+OdVihA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="OSADTABYUQ/x53GmGwDdMWffgeMXwjGRgAmBMiziwp+VrvpMf7SB9B5260jOlBGkf+4A83Xwwl0yJY6qNWHurA==" saltValue="S/fmogEg8ZGJvjpomoM4ew==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
@@ -7308,7 +7308,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Ymppo5Glbb44aq0KhcZHnftiCaS8om3QxZoAaI4ckSFFilUc1vrZWvtiGPwsm/8qbaHSHL7dLRr1iCx1fcGE0Q==" saltValue="h87Q+or9VyXDNVHZkvqfNQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="nh9qCXs6lKVmuE70gkLXnA3qYa3LNWTvbzwe9tXaGKtJJsBqorZvolmHfskaEbLQi2vOYZhLWqDhw5KH//3BtQ==" saltValue="b2+NhgM3Si6uhPvuIJJ+gA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7516,7 +7516,7 @@
       <c r="C11" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="kAqZP29fb0tg9Jdx+FZDIFboNUccDTLQAH2E9X4hiBOC8kZC2bQ8KIR9E8Gvr52Uqf/3SIlJV0dmOhIvbbq+wQ==" saltValue="I1VHCVMRSim7Xmco5Xe5RA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="ktKHPtLmUUHnb34UBckC7u5AiZlH4HvpbF+EqozdzyMcBXKIGf6Ve96XMZA4cwVrlBIPB9mEi1l89DlflF072w==" saltValue="7Fxq/1T5NqpWyLay7fE1bw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -9287,7 +9287,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="5kJEcxgqKVS4Kox+e3hoC/mltaOVZWynDbVkaAm8N7IbPddZO4GT4TXoAZtkAeCUQbCEqcT/BZuN/9b/92ic6g==" saltValue="BJRnjLFCtx8zd5q0P+CJCQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="WSf55qUdCUokTnM7MPPtWUZVZqtPPoNi3kONtzOpGbWl3J+JZ1s1TyjFfNZPfRzFABaZEJgOBnz54zm3Ib25fQ==" saltValue="lAMNlTU/a5C4i5W+1Z6Q/Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10033,7 +10033,7 @@
       <c r="K38" s="133"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Ykb2obhlRhu4QIi2PwF+Kp3c09Aw6JObk9xdcYQz7sQbLC60iQ5X+xXL0ruj85PVy2+iXstp3Kug5qfbxrqzFg==" saltValue="59d2r1bau0wlQALOP9IVZQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Ct7X0bTJ3VA0g1S4Bm98jNlPqcEp6JSHGMyWmZn2MN/fyLXug3FvJ+9HF+1iL7k+Pyef2/yXX+uEiofERxpyeA==" saltValue="u/wVNbgI52qEdvZez5f76g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10407,7 +10407,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="qSB+yNL7+Qwkhaum/ICR3QP5uQGWRhffDoy1mXZPykYgcaBx+woZmImh11lpyklDfj6TvlQ7kr22KWezkmnU2g==" saltValue="ErXsDiiniOLESE2WO3jUYw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Afd83XgVIYUeINlZoideP5aRQhfc/6gda3WRHuPG29PdyMqIRHWwEi3v+XDigHjdkLDeJt7nlm2pYWZuXE6v7w==" saltValue="Qg+SxozYxPa/slcIRlB6oA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11528,7 +11528,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="X0h7nsnp/v+IaLBgNwEx1KOc9d9CYLtk83x520s5vNvTkKxvSnNtUF5HckU8VnYz2WodMwlDayAEuToNJrJQjA==" saltValue="ucfDKiqO+Oy22RPxTAoJvg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="tAI+l5hDfqKuyPD5EKW8ko26OglKiJorUecl+i2WGmsCPl6bwy/8JUJLvFkowGYFM8bymdH6NLINBF0j4c7j9w==" saltValue="cPR5ZT65oxEGy8v8komb1A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="B2:B4"/>
@@ -12636,7 +12636,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="007mZor9Ez5ZUlDATQ3XHRZ/wX7kZyFkc4aYkOxPlzYJZhawwJXbXwrLzjTSzchpNrkuzwI+gePB1QrEH1sG2Q==" saltValue="GHj/1na897Ij6AdMi+fMwg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="KKCBJjt8RbrtSDSlsTONv7Yy+aOORxotXLkQGBwIkUrRm7g1AEVUCL/h/izNKn8tFADRSY/U/ExwbuAhMCJHrg==" saltValue="LzTg5I40K92ekzTBTIoCEw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <conditionalFormatting sqref="B2:I40">
     <cfRule type="expression" dxfId="0" priority="9">
       <formula>$A2=""</formula>
@@ -13038,7 +13038,7 @@
       <c r="B28" s="40"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="gnfpxa1VZzzN1mNKA6APCsV9QLR5vMcesP6hPSCuZxfgDNOfiSLxNaHDOyYCijcoZPUB7/l58Mqjl/+S3owicA==" saltValue="vZSxq3HVMbHgsGMvh2DeIA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="JNoQrwW86FGUV9eOkdGQMzX8N6IzBVEF1wBkka69bp+o+m8GrHUJq1kcJhJfA7EIzUSoHPY1f0JJsSMdyzmCng==" saltValue="LFijr+38CNOb0Ux0OdV1jw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -15941,7 +15941,7 @@
       <c r="A111" s="40"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="PUgU1zVXUuANgPI6GxkV3dK32Z2sZ0dyhObjXhYIM0SGk+G5v4RUjHgR4DrVXvBSLPGp86L+sEr6UcTMf+LukQ==" saltValue="QbScJmd8Vi9qjVk3HXW3dQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="u3Vv/93M4tiU/r87xYtLJy/c/h6Ir044/M7a8vn/mPQUciaHNMDsoASWs8+j/GRK7Vjwlr9FblMMJ9D5IEWOTg==" saltValue="/rvN07YJREaP/NEL3HR+RA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -16250,7 +16250,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Uek0Wtx9WSq+u+6KWIb2joJDSkT26lCpXOF7GKQOOUmGBr01dvVxkP48PcHiNyFtQo+4u5Kaz+9mDuZlry9dJQ==" saltValue="MJyqQEUbij/5XsZSwg3gng==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="uVqj+fBSaVwZFfdwYBNJOf/ZgXnXD/fZ4sn7WUFH8LXfzWRzNAramCJmZngfrsmjp/Nvw65P2T63Bkz49iuIUQ==" saltValue="uifNtWgrllafTZdOJB1v1A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -16530,7 +16530,7 @@
       <c r="A20" s="90"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="xnMTVQzadrnNO16rvFmSI1PDi8Djafq7pnMBXWA8SaqAVFGvIdE04LeviD08IPRB1yh25aHshBRTR+KFY8uhmA==" saltValue="qMoOSEOiGNe+BzrDvIvsyw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="+86TjVf+T6cAE7aCTvwzidOKJbjq0GtPhYh4g0agsqSohntML3O8nRfvSFULpaV/xKVfZnfB/VpMVGRGxz7VUA==" saltValue="ehtbhMtqxoCuN9uMQJwv2g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -17326,7 +17326,7 @@
       <c r="B28" s="43"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="eEA8AmFpB4e5BBr9bH1kr5unP3kVvt0ACXvtR9uxbgo3/bs4QuOyP5L5K2PKjc92SShpx5GoS4pGa76rHV3SUw==" saltValue="pzprDyZ+qfWUIspdc7QmIw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="YQ12Q/Ku4woEW6vH2hptab6VWzQe+Ekcwlo67Y4De04phGAza/j3tP1TJ1sEmALcpNg7G63461UJ7sCXsGaF9A==" saltValue="+GwVeO3MtBqPAdApaI7IVw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -17427,7 +17427,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="B2pQ8sxsr36JygVXivFCLR+n0jDr+7PpUjGXFomwA8EC1wTAFmGjLUqmRb+/nETMXkRGXKSx9EGpGkX4NWPJog==" saltValue="4Idad+JlhGHwvJVOgbvndA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="h12DDXOFTMf+RSp/MdUO7/P2pxdomHqvfPH7SMGbLJVM0Rb4ZLc3WMJPfQdlJI6jedPiZ7uAiDjzZ1Wjt41JjQ==" saltValue="EN628IKsBLr1pN7ENn3uNQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -18557,7 +18557,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="+W+T4MIcO2m7O5q/auDpKMmauU0FTySxanwBmIcPpfUP9Omu/wHoPNrVx3/cjvg9Ua/oMo9+ylE9Zyez8xyHtg==" saltValue="oukuP3MrLAIOAuxTPNtBlg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="9zxmB/6RQGgnLZdZ7Qtzfv+eaXzPd5F5J7monoyhyeQ/tbhCHXw4007Q3yvgeGRFVSrjSChDm1lQ3378kuaZKg==" saltValue="kvYj5l7Lk7anCcLJ0reUbA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -18734,7 +18734,7 @@
       <c r="H7" s="128"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="ld1r6jx62zAmxbEZ8dADDf1HpKZnVIA7SyG/jFWzWXvNfIUmJZA32XPxR8bVu1/B0cAPObp5NRojxnpsClFa8g==" saltValue="QzxJAkJ1A3eyWImZirGNTg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="DfJJl8XfRrtUeqJ1S8lOiIFPHEdqeJy53P4gLtoIbItjtOg9wNVHiuRMyhWaA5l0E3GG7rLu2gipshOl2EkeHg==" saltValue="L5lSzVdGMZCb18Hlw/1ORQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -19171,7 +19171,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="QHEnqlmY8Ht7Lip7/ODMQicvxh8N0HQRqt9ANqCaFEBvKGHHJFqpncx/PIE6bzraIKYeYywP3otMEXhq2xKdjg==" saltValue="bimPoq+r5grC71dmTRQrsg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="ZuNwh/fkPZbM2mLrXqJX5KyouChOdjM7HSX2LYXQvILhQaz+MD18NoY4Yt0ATMMw+OlcI8FNSg9r3FY4M53rHw==" saltValue="vaaXbdFbtH47qo/aJftfWA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="69" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -19598,7 +19598,7 @@
       <c r="G17" s="8"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="kk/XWa0FCI11fpB8D4f393X/ht+TqyZNjVtNX3GFH2if92eaU9O9N/PxK1gs6DM9uB5n2DExPzfdOz4U65uP5Q==" saltValue="BPepyEbrwyseKaiegZy9cA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="tk/4xeN4BhvIPzz5w3ZLnzzf5VHnGKtTiGojFzHCqkMD1ERk/f1P92kNpsrUOKOPUQudfePS/GMYR2Fth+0X3Q==" saltValue="hecqzZJzU5v965N//1axfg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
@@ -19735,7 +19735,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="0S0xIjrT/yxwG8is2ZuSQb7Ho5IyjuGduyeLoDtwBeDDucB+tbsqQJjakk1Ph2JsLfuqR8fj5Xb9i4xDH21zZg==" saltValue="lGywY/S2B8NUNYjFP9nCjw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="1yI5H6Cqi/pVpStqzKvewMcFB/byeTOec5VQlyegUX5dRC+irMKMxYQMPzk3q0FaMHRWfny9sAD8y8CZHkTeqw==" saltValue="mwHc5jggIQp9lXx56U/c+A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -20051,7 +20051,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="yragG//Z+8NZR8Dba1b56x574tXbENDt0Flg0VLfdQWLEDVx/+vuha5P5CJjFGjLlR7Trrx50llNMra/vRArIA==" saltValue="YxkGxtrOBvyBT9z+o5G4dA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="58Qom4p2vWWIdioDWxxKn07KOMTDaGKd6dn8hPbcBTay2d8gCehf0zZGFm7G7jpgGp47OJMJ481iEXKJzE7tGw==" saltValue="aJsOH3rZVC3W5ba4bukIOA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="193" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -20329,7 +20329,7 @@
       <c r="E21" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="3kSvlcroEGwJOrFvFJxg4zv29kpiDE84pow5B5Ursiq6e7bBgg1ocaXfnMntQ9eQk4BELhJdjsbfPQXibiOamQ==" saltValue="vF72DyrrU1qI8av5CAOEFg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="atPjlyNz9YQhoexIJHBHaTagPMdMkBp2UTgk9aWfTsbJbzTgElB/Wk4qwi4lYS3mVpOY64EJVHnXdnzDfMW68Q==" saltValue="RxPMaFN1G0658Eyenwy6IA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -20393,7 +20393,7 @@
       <c r="D3" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="CWWKSoc8asop9jFcdPYQ/IxWrFJYpzLhg6U6/LoW/KQKnxMlzxa7R3PbSEjXuoLgvP89MdjWQUj9ToxmCFRPuA==" saltValue="YgK4bVqFhPabaJ7Qh//UqQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="pjEiAjKFaZiXMxdRLqRquudOn7tu0pI/x/fT2ryWY28CUYwp44k1rrB9uOA/L+IbGcLTE1dIm+wD943W/a8Cag==" saltValue="PzgPEbQERDXARsi3GgiUEQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -21071,7 +21071,7 @@
       <c r="F39" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="/HdGC6JQTBUKHRbYls+ExDQOIcKwbHT80vdSpF75rtNKVxDM/BOpM++RjbWzwT3A8/HOLZnvcjTG2hgFEjNL4Q==" saltValue="KTNHagq3yoEgKV5vVmW4xQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="kl0EoXACn2C2r8XPMplmpIov7VbM/mvmsKU1aSMfF+/5arXtK9fHgPB8PiEbyGnFFMr8QXp5XW7l83BGUK/t+g==" saltValue="b56KbfjgWObIl1pCyPREOg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D38">
     <sortCondition ref="A2:A38"/>
   </sortState>

--- a/inputs/fr/demo_demo_input.xlsx
+++ b/inputs/fr/demo_demo_input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\romesh\projects\nutrition\inputs\fr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B654674F-7456-4EEA-91F4-4A6BF5AB55BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4019404E-D49A-4888-9186-FE7684084150}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="3600" windowWidth="34980" windowHeight="15600" tabRatio="885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="180" yWindow="7815" windowWidth="30255" windowHeight="13185" tabRatio="885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Donnees pop de l'annee de ref" sheetId="1" r:id="rId1"/>
@@ -409,7 +409,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="268">
   <si>
     <t>Condition</t>
   </si>
@@ -489,9 +489,6 @@
     <t>Normal</t>
   </si>
   <si>
-    <t>Wasting</t>
-  </si>
-  <si>
     <t>N/A</t>
   </si>
   <si>
@@ -651,15 +648,48 @@
     <t>Pourcentage de l'anémie qui est ferriprive</t>
   </si>
   <si>
+    <t>Femmes enceintes</t>
+  </si>
+  <si>
+    <t>Risque</t>
+  </si>
+  <si>
+    <t>Prévalence du retard de croissance (%)</t>
+  </si>
+  <si>
+    <t>Prévalence de l'émaciation (%)</t>
+  </si>
+  <si>
+    <t>Prévalence de l'anémie (%)</t>
+  </si>
+  <si>
+    <t>Femmes en âge de procréer</t>
+  </si>
+  <si>
+    <t>Prévalence de l'allaitement maternel adapté à l'âge des enfants</t>
+  </si>
+  <si>
+    <t>Enfants âgés de 0 à 5 mois</t>
+  </si>
+  <si>
+    <t>Enfants âgés de 6 à 23 mois</t>
+  </si>
+  <si>
+    <t>Moins de cinq ans (décès pour 1 000 naissances)</t>
+  </si>
+  <si>
+    <t>Maternelle (décès pour 1 000 naissances)</t>
+  </si>
+  <si>
     <t>Prévalence de la pré-éclampsie</t>
   </si>
   <si>
+    <t>Enfants âgés de 0 à 59 mois</t>
+  </si>
+  <si>
     <t>Prévalence de l'éclampsie</t>
   </si>
   <si>
-    <t>Année</t>
-  </si>
-  <si>
     <t>Nombre de naissances</t>
   </si>
   <si>
@@ -684,6 +714,9 @@
     <t>FAP non enceintes</t>
   </si>
   <si>
+    <t>année</t>
+  </si>
+  <si>
     <t>Néonatal</t>
   </si>
   <si>
@@ -753,9 +786,6 @@
     <t>24-59 mois</t>
   </si>
   <si>
-    <t>Femmes enceintes</t>
-  </si>
-  <si>
     <t>Hémorragie antepartum</t>
   </si>
   <si>
@@ -852,39 +882,6 @@
     <t>Aucun</t>
   </si>
   <si>
-    <t>Risque</t>
-  </si>
-  <si>
-    <t>Prévalence du retard de croissance (%)</t>
-  </si>
-  <si>
-    <t>Prévalence de l'émaciation (%)</t>
-  </si>
-  <si>
-    <t>Prévalence de l'anémie (%)</t>
-  </si>
-  <si>
-    <t>Femmes en âge de procréer</t>
-  </si>
-  <si>
-    <t>Prévalence de l'allaitement maternel adapté à l'âge des enfants</t>
-  </si>
-  <si>
-    <t>Enfants âgés de 0 à 5 mois</t>
-  </si>
-  <si>
-    <t>Enfants âgés de 6 à 23 mois</t>
-  </si>
-  <si>
-    <t>Moins de cinq ans (décès pour 1 000 naissances)</t>
-  </si>
-  <si>
-    <t>Maternelle (décès pour 1 000 naissances)</t>
-  </si>
-  <si>
-    <t>Enfants âgés de 0 à 59 mois</t>
-  </si>
-  <si>
     <t>Paquet IYCF</t>
   </si>
   <si>
@@ -1056,135 +1053,141 @@
     <t>En forme de S (coût marginal décroissant puis croissant)</t>
   </si>
   <si>
+    <t>Efficacité</t>
+  </si>
+  <si>
+    <t>Retard de croissance</t>
+  </si>
+  <si>
+    <t>Prévention de l'amaigrissement</t>
+  </si>
+  <si>
+    <t>Traitement de l'amaigrissement</t>
+  </si>
+  <si>
+    <t>Résultats des naissances</t>
+  </si>
+  <si>
+    <t>Tranche d'âge</t>
+  </si>
+  <si>
+    <t>Comportement</t>
+  </si>
+  <si>
+    <t>Rapport des cotes pour l'allaitement maternelle correct</t>
+  </si>
+  <si>
+    <t>Rapport des cotes pour le retard de croissance</t>
+  </si>
+  <si>
+    <t>Rapport des cotes pour l'alimentation complémetaire</t>
+  </si>
+  <si>
+    <t>Facteurs de risque maternels contribuant aux résultats des naissances</t>
+  </si>
+  <si>
+    <t>Risque relatif par espacement des naissances</t>
+  </si>
+  <si>
+    <t>Risques pour les enfants touchés par chaque résultat des naissances</t>
+  </si>
+  <si>
+    <t>Rapport des cote pour des conditions</t>
+  </si>
+  <si>
+    <t>Amaigrissement (score-HAZ &lt; -2)</t>
+  </si>
+  <si>
+    <t>MM (Score-WHZ entre -3 et -2)</t>
+  </si>
+  <si>
+    <t>MAS (Score-WHZ &lt; -3)</t>
+  </si>
+  <si>
+    <t>Risques relatifs des causes du décès néonatales</t>
+  </si>
+  <si>
+    <t>Rapport des cotes pour les femmes avec l'anémie maternelle</t>
+  </si>
+  <si>
+    <t>Risque relatif des causes du décès par la distribution de la taille-pour-l'àge (retard de croissance)</t>
+  </si>
+  <si>
+    <t>Cause du décès</t>
+  </si>
+  <si>
+    <t>Niveau HAZ</t>
+  </si>
+  <si>
+    <t>Léger</t>
+  </si>
+  <si>
+    <t>Modéré</t>
+  </si>
+  <si>
+    <t>Élevé</t>
+  </si>
+  <si>
+    <t>Niveau WHZ</t>
+  </si>
+  <si>
+    <t>Risque relatif des causes du décès par condition anémique</t>
+  </si>
+  <si>
+    <t>Condition anémique</t>
+  </si>
+  <si>
+    <t>Pas anémique</t>
+  </si>
+  <si>
+    <t>Anémique</t>
+  </si>
+  <si>
+    <t>Risque relatif des causes du décès par mode d'allaitement maternel</t>
+  </si>
+  <si>
+    <t>Mode d'allaitement maternel</t>
+  </si>
+  <si>
+    <t>Risques relatifs de la diarrhée par mode d'allaitement maternel</t>
+  </si>
+  <si>
+    <t>Risque relatif des causes du décès par la distribution du poids-pour-taille (amaigrissement)</t>
+  </si>
+  <si>
+    <t>Amaigrissement</t>
+  </si>
+  <si>
+    <t>Compte tenu du retard de croissance antérieur (HAZ &lt; -2 dans la tranche d’âge précédente)</t>
+  </si>
+  <si>
+    <t>Diarrhée (par épisode supplémentaire)</t>
+  </si>
+  <si>
+    <t>Par programme</t>
+  </si>
+  <si>
+    <t>Rapports des cotes supplémentaires</t>
+  </si>
+  <si>
+    <t>Pour MAS par épisode supplémentaire de la diarrhée</t>
+  </si>
+  <si>
+    <t>Pour l'anémie par épisode supplémentaire de la diarrhée</t>
+  </si>
+  <si>
+    <t>Rapport des cotes pour allaitement maternel correct par programme</t>
+  </si>
+  <si>
+    <t>Pour MM par épisode supplémentaire de la diarrhée</t>
+  </si>
+  <si>
+    <t>Rapports des cotes pour espacement des naissances optimal par programme</t>
+  </si>
+  <si>
     <t>efficacité</t>
   </si>
   <si>
-    <t>Retard de croissance</t>
-  </si>
-  <si>
-    <t>Prévention de l'amaigrissement</t>
-  </si>
-  <si>
-    <t>Traitement de l'amaigrissement</t>
-  </si>
-  <si>
-    <t>Résultats des naissances</t>
-  </si>
-  <si>
-    <t>Tranche d'âge</t>
-  </si>
-  <si>
-    <t>Comportement</t>
-  </si>
-  <si>
-    <t>Rapport des cotes pour l'allaitement maternelle correct</t>
-  </si>
-  <si>
-    <t>Rapport des cotes pour le retard de croissance</t>
-  </si>
-  <si>
-    <t>Rapport des cotes pour l'alimentation complémetaire</t>
-  </si>
-  <si>
-    <t>Facteurs de risque maternels contribuant aux résultats des naissances</t>
-  </si>
-  <si>
-    <t>Risque relatif par espacement des naissances</t>
-  </si>
-  <si>
-    <t>Risques pour les enfants touchés par chaque résultat des naissances</t>
-  </si>
-  <si>
-    <t>Rapport des cote pour des conditions</t>
-  </si>
-  <si>
-    <t>Amaigrissement (score-HAZ &lt; -2)</t>
-  </si>
-  <si>
-    <t>MM (Score-WHZ entre -3 et -2)</t>
-  </si>
-  <si>
-    <t>MAS (Score-WHZ &lt; -3)</t>
-  </si>
-  <si>
-    <t>Risques relatifs des causes du décès néonatales</t>
-  </si>
-  <si>
-    <t>Rapport des cotes pour les femmes avec l'anémie maternelle</t>
-  </si>
-  <si>
-    <t>Risque relatif des causes du décès par la distribution de la taille-pour-l'àge (retard de croissance)</t>
-  </si>
-  <si>
-    <t>Cause du décès</t>
-  </si>
-  <si>
-    <t>Niveau HAZ</t>
-  </si>
-  <si>
-    <t>Léger</t>
-  </si>
-  <si>
-    <t>Modéré</t>
-  </si>
-  <si>
-    <t>Élevé</t>
-  </si>
-  <si>
-    <t>Niveau WHZ</t>
-  </si>
-  <si>
-    <t>Risque relatif des causes du décès par condition anémique</t>
-  </si>
-  <si>
-    <t>Condition anémique</t>
-  </si>
-  <si>
-    <t>Pas anémique</t>
-  </si>
-  <si>
-    <t>Anémique</t>
-  </si>
-  <si>
-    <t>Risque relatif des causes du décès par mode d'allaitement maternel</t>
-  </si>
-  <si>
-    <t>Mode d'allaitement maternel</t>
-  </si>
-  <si>
-    <t>Risques relatifs de la diarrhée par mode d'allaitement maternel</t>
-  </si>
-  <si>
-    <t>Risque relatif des causes du décès par la distribution du poids-pour-taille (amaigrissement)</t>
-  </si>
-  <si>
-    <t>Compte tenu du retard de croissance antérieur (HAZ &lt; -2 dans la tranche d’âge précédente)</t>
-  </si>
-  <si>
-    <t>Diarrhée (par épisode supplémentaire)</t>
-  </si>
-  <si>
-    <t>Par programme</t>
-  </si>
-  <si>
-    <t>Rapports des cotes supplémentaires</t>
-  </si>
-  <si>
-    <t>Pour MAS par épisode supplémentaire de la diarrhée</t>
-  </si>
-  <si>
-    <t>Pour l'anémie par épisode supplémentaire de la diarrhée</t>
-  </si>
-  <si>
-    <t>Rapport des cotes pour allaitement maternel correct par programme</t>
-  </si>
-  <si>
-    <t>Pour MM par épisode supplémentaire de la diarrhée</t>
-  </si>
-  <si>
-    <t>Rapports des cotes pour espacement des naissances optimal par programme</t>
-  </si>
-  <si>
     <t>fraction touchée</t>
   </si>
   <si>
@@ -1201,6 +1204,9 @@
   </si>
   <si>
     <t>Condition ciblée</t>
+  </si>
+  <si>
+    <t>Fraction touchée</t>
   </si>
   <si>
     <t>Efficacité à prévenir une mort</t>
@@ -4744,7 +4750,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1" s="41" t="s">
         <v>17</v>
@@ -4755,7 +4761,7 @@
     </row>
     <row r="2" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="41"/>
       <c r="C2" s="41"/>
@@ -4763,7 +4769,7 @@
     <row r="3" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3" s="63">
         <v>2017</v>
@@ -4772,7 +4778,7 @@
     <row r="4" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C4" s="64">
         <v>2030</v>
@@ -4785,12 +4791,12 @@
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C7" s="65">
         <v>9862402</v>
@@ -4798,7 +4804,7 @@
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C8" s="66">
         <v>0.28199999999999997</v>
@@ -4806,7 +4812,7 @@
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C9" s="67">
         <v>1</v>
@@ -4814,7 +4820,7 @@
     </row>
     <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C10" s="67">
         <v>0.23</v>
@@ -4822,7 +4828,7 @@
     </row>
     <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C11" s="66">
         <v>0.51</v>
@@ -4830,7 +4836,7 @@
     </row>
     <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C12" s="66">
         <v>0.37</v>
@@ -4838,7 +4844,7 @@
     </row>
     <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" s="66">
         <v>0.221</v>
@@ -4849,14 +4855,14 @@
     </row>
     <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B15" s="19"/>
       <c r="C15" s="3"/>
     </row>
     <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C16" s="67">
         <v>0.3</v>
@@ -4864,7 +4870,7 @@
     </row>
     <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C17" s="67">
         <v>0.1</v>
@@ -4872,7 +4878,7 @@
     </row>
     <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C18" s="67">
         <v>0.1</v>
@@ -4880,7 +4886,7 @@
     </row>
     <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C19" s="67">
         <v>0.8</v>
@@ -4888,7 +4894,7 @@
     </row>
     <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C20" s="68">
         <f>1-frac_rice-frac_wheat-frac_maize</f>
@@ -4900,12 +4906,12 @@
     </row>
     <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C23" s="67">
         <v>0.127</v>
@@ -4913,7 +4919,7 @@
     </row>
     <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C24" s="67">
         <v>0.45200000000000001</v>
@@ -4921,7 +4927,7 @@
     </row>
     <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C25" s="67">
         <v>0.33400000000000002</v>
@@ -4929,7 +4935,7 @@
     </row>
     <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C26" s="67">
         <v>8.6999999999999994E-2</v>
@@ -4941,14 +4947,14 @@
     </row>
     <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B28" s="20"/>
       <c r="C28" s="20"/>
     </row>
     <row r="29" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C29" s="69">
         <v>0.20799999999999999</v>
@@ -4956,7 +4962,7 @@
     </row>
     <row r="30" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C30" s="69">
         <v>0.63700000000000001</v>
@@ -4964,7 +4970,7 @@
     </row>
     <row r="31" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C31" s="69">
         <v>0.11899999999999999</v>
@@ -4972,7 +4978,7 @@
     </row>
     <row r="32" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C32" s="69">
         <v>3.5999999999999997E-2</v>
@@ -4980,7 +4986,7 @@
     </row>
     <row r="33" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B33" s="32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C33" s="70">
         <f>SUM(C29:C32)</f>
@@ -4990,19 +4996,19 @@
     <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B36" s="7"/>
       <c r="C36" s="13"/>
     </row>
     <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C37" s="71">
         <v>25</v>
@@ -5010,7 +5016,7 @@
     </row>
     <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C38" s="71">
         <v>43</v>
@@ -5020,7 +5026,7 @@
     </row>
     <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C39" s="71">
         <v>67</v>
@@ -5030,7 +5036,7 @@
     </row>
     <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C40" s="71">
         <v>4.01</v>
@@ -5038,7 +5044,7 @@
     </row>
     <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C41" s="67">
         <v>0.13</v>
@@ -5046,7 +5052,7 @@
     </row>
     <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="42" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C42" s="71">
         <v>22.4</v>
@@ -5057,13 +5063,13 @@
     </row>
     <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D44" s="17"/>
     </row>
     <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C45" s="67">
         <v>3.1E-2</v>
@@ -5072,7 +5078,7 @@
     </row>
     <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C46" s="67">
         <v>0.109</v>
@@ -5081,7 +5087,7 @@
     </row>
     <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C47" s="67">
         <v>0.36499999999999999</v>
@@ -5091,7 +5097,7 @@
     </row>
     <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C48" s="68">
         <f>1-term_SGA-preterm_AGA-preterm_SGA</f>
@@ -5105,13 +5111,13 @@
     </row>
     <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D50" s="17"/>
     </row>
     <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C51" s="72">
         <v>1.66</v>
@@ -5120,7 +5126,7 @@
     </row>
     <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C52" s="72">
         <v>1.66</v>
@@ -5128,7 +5134,7 @@
     </row>
     <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C53" s="72">
         <v>5.64</v>
@@ -5136,7 +5142,7 @@
     </row>
     <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C54" s="72">
         <v>5.43</v>
@@ -5144,7 +5150,7 @@
     </row>
     <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C55" s="72">
         <v>1.91</v>
@@ -5152,12 +5158,12 @@
     </row>
     <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C58" s="66">
         <v>0.2</v>
@@ -5165,7 +5171,7 @@
     </row>
     <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C59" s="66">
         <v>0.42</v>
@@ -5173,7 +5179,7 @@
     </row>
     <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="16" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="C60" s="66">
         <v>4.5999999999999999E-2</v>
@@ -5181,7 +5187,7 @@
     </row>
     <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="16" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="C61" s="66">
         <v>1.4E-2</v>
@@ -5191,7 +5197,7 @@
       <c r="A63" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="jV4c/4yPHoZshBaiqszOondcEIqA/StGy2nkVKUvz2T7VP//jDKNkzOG5u1NNFLtBO5iAuVpH50TfoMIDGMe4w==" saltValue="GEWvNDfJBQ8JsX6z9Fqkfg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="hcxllZjMecgIitZ0pYiwNiQXVvyoAcOatjwApNL+CpeH6HEhEUxG7Do/mDOXF0KsvrsogvL5yqIrxJlM8m4/lQ==" saltValue="4tcTFQ8vObZP8NOjdskbTw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
 </worksheet>
@@ -5216,12 +5222,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="48" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
@@ -5231,32 +5237,32 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="48" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="48" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="48" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="48" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="48" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="48" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
@@ -5290,7 +5296,7 @@
       <c r="A19" s="48"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="/VDyT6MSLjBTbhYmZpBwg5/GLnAoPQRVFHP3ajU+SELBkBx3kYRvnYb6Ki658q1GqOxQdVpIqUH6X0tCGYdHww==" saltValue="Dkf41inUS6MdrJLl8yY7cw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="kQcbQL8cvTsWxyZ2sd0zz0/NvGWx0VFrIEPrxVEBYqg1+YkKSsxWkOzuaHqfyAZf4e415iIG+2aBBsnNdIU7fA==" saltValue="u7bdB2YC9wFmcw3Xwz+X7g==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -5314,24 +5320,24 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E1" t="s">
         <v>123</v>
       </c>
-      <c r="C1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D1" t="s">
-        <v>111</v>
-      </c>
-      <c r="E1" t="s">
-        <v>112</v>
-      </c>
       <c r="F1" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="B2" s="26">
         <f>'Donnees pop de l''annee de ref'!C51</f>
@@ -5356,7 +5362,7 @@
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B3" s="26">
         <f>frac_mam_1month * 2.6</f>
@@ -5381,7 +5387,7 @@
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B4" s="26">
         <f>frac_sam_1month * 2.6</f>
@@ -5405,7 +5411,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Bgr1XIxPtO1vs/9rQ7xuiuM/xXfLrtY+09pjX44DN2wdzvOoVVJwDFEpn+9bNDdqjFsL8W7eQWCzFyIJKaTUwQ==" saltValue="2p5a9+wjoZB05jq8+jOYEQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="hNM82DBEr9RlEFhrZDxVnnGF2lhsUzKdmr3LU1duSpSIPl7zLqAFqOAEw0TgdsahFliD9PnVyKoPw/jJ8z40VQ==" saltValue="RJwcRGz8+VoZpkpA6HhCSg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -5436,57 +5442,57 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>112</v>
-      </c>
       <c r="G1" s="4" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C2" s="87">
         <v>0</v>
@@ -5534,7 +5540,7 @@
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C3" s="87">
         <v>1</v>
@@ -5578,7 +5584,7 @@
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C4" s="87">
         <v>1</v>
@@ -5622,7 +5628,7 @@
     </row>
     <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C5" s="87">
         <v>0</v>
@@ -5668,7 +5674,7 @@
     </row>
     <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C6" s="87">
         <v>0</v>
@@ -5715,7 +5721,7 @@
     </row>
     <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="33" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C7" s="87">
         <f>diarrhoea_1mo</f>
@@ -5764,7 +5770,7 @@
     </row>
     <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C8" s="87">
         <v>0</v>
@@ -5810,7 +5816,7 @@
     </row>
     <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C9" s="87">
         <v>0</v>
@@ -5858,7 +5864,7 @@
     </row>
     <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C10" s="87">
         <v>0</v>
@@ -5902,7 +5908,7 @@
     </row>
     <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="33" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C11" s="87">
         <f>diarrhoea_1mo</f>
@@ -5951,7 +5957,7 @@
     </row>
     <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="11" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C12" s="87">
         <v>0</v>
@@ -5998,10 +6004,10 @@
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C14" s="88">
         <v>0</v>
@@ -6050,7 +6056,7 @@
     <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C15" s="88">
         <v>0</v>
@@ -6095,7 +6101,7 @@
     <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C16" s="88">
         <v>0</v>
@@ -6144,7 +6150,7 @@
     <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C17" s="88">
         <v>0</v>
@@ -6240,7 +6246,7 @@
     </row>
     <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C19" s="88">
         <v>0</v>
@@ -6284,7 +6290,7 @@
     </row>
     <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C20" s="88">
         <v>0</v>
@@ -6328,7 +6334,7 @@
     </row>
     <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="33" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C21" s="88">
         <v>0</v>
@@ -6379,10 +6385,10 @@
     </row>
     <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="58" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B23" s="59" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C23" s="88">
         <v>0</v>
@@ -6430,7 +6436,7 @@
     </row>
     <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="59" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C24" s="88">
         <v>0</v>
@@ -6478,7 +6484,7 @@
     </row>
     <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="59" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C25" s="88">
         <v>0</v>
@@ -6526,7 +6532,7 @@
     </row>
     <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="59" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C26" s="88">
         <v>0</v>
@@ -6574,7 +6580,7 @@
     </row>
     <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="59" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C27" s="88">
         <v>0</v>
@@ -6629,10 +6635,10 @@
     </row>
     <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C29" s="87">
         <v>0</v>
@@ -6687,7 +6693,7 @@
     </row>
     <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C30" s="87">
         <v>0</v>
@@ -6742,7 +6748,7 @@
     </row>
     <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C31" s="87">
         <v>0</v>
@@ -6797,7 +6803,7 @@
     </row>
     <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C32" s="87">
         <v>0</v>
@@ -6841,7 +6847,7 @@
     </row>
     <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C33" s="87">
         <f t="shared" ref="C33:O33" si="3">frac_malaria_risk</f>
@@ -6898,7 +6904,7 @@
     </row>
     <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="33" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C34" s="87">
         <v>1</v>
@@ -6943,7 +6949,7 @@
     <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="5"/>
       <c r="B35" s="33" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C35" s="87">
         <v>1</v>
@@ -6987,7 +6993,7 @@
     </row>
     <row r="36" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="33" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C36" s="87">
         <v>1</v>
@@ -7031,7 +7037,7 @@
     </row>
     <row r="37" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="33" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C37" s="87">
         <v>1</v>
@@ -7075,7 +7081,7 @@
     </row>
     <row r="38" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="33" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C38" s="87">
         <v>1</v>
@@ -7121,7 +7127,7 @@
       <c r="B39" s="33"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="zmRloJjnO5SMkqm6ffKOPWlJnhDNgGrPUQCzS0fUXLoJW4QjS7XTFfxe1gs3/drBB0Te6fL1fhnseJsNK2kj0g==" saltValue="h8x2H0X/EYUDsFNyabH+zQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="5C9ephY/RAb7ZglueU/RluYX7b6TJvvjuiz10cB6QE1NeDE7AbP9SmfQbkzCYik5YcsJK7FYVQrDbSOl2vRTfA==" saltValue="fVywioAMRJPPcr05QfjC4A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B14:O21">
     <sortCondition ref="B14:B21"/>
   </sortState>
@@ -7151,48 +7157,48 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B1" s="40" t="s">
+        <v>209</v>
+      </c>
+      <c r="C1" s="40" t="s">
         <v>210</v>
-      </c>
-      <c r="C1" s="40" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="83" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B2" s="80" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C2" s="80"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="83" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B3" s="80" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C3" s="80"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="84" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B4" s="80" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C4" s="80"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="84" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B5" s="80" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C5" s="80"/>
     </row>
@@ -7272,7 +7278,7 @@
       <c r="C20" s="85"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="OSADTABYUQ/x53GmGwDdMWffgeMXwjGRgAmBMiziwp+VrvpMf7SB9B5260jOlBGkf+4A83Xwwl0yJY6qNWHurA==" saltValue="S/fmogEg8ZGJvjpomoM4ew==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="aH5rR+LYR1YvQNrtAVQYF1kz96EG/L/8srPa6mrYO3QWpQq52evHX2lIpXn0nmbjPDHOxSuaGpftBhpsx4/jjw==" saltValue="Zu2Ea7+Til+zYNQg2PKYzA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
@@ -7289,26 +7295,26 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="nh9qCXs6lKVmuE70gkLXnA3qYa3LNWTvbzwe9tXaGKtJJsBqorZvolmHfskaEbLQi2vOYZhLWqDhw5KH//3BtQ==" saltValue="b2+NhgM3Si6uhPvuIJJ+gA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="9nA0IrZf0ZW6YVxmREXVWusBdDdUkcvnm5YmgH/07H1+TwjpWfFpi1j96zHPSQwATF34BCE+1F8CkHGLrR2tPA==" saltValue="kMktS8ON+iA+H0xCD5OyJQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7338,7 +7344,7 @@
         <v>16</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C1" s="40" t="s">
         <v>15</v>
@@ -7516,7 +7522,7 @@
       <c r="C11" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="ktKHPtLmUUHnb34UBckC7u5AiZlH4HvpbF+EqozdzyMcBXKIGf6Ve96XMZA4cwVrlBIPB9mEi1l89DlflF072w==" saltValue="7Fxq/1T5NqpWyLay7fE1bw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="g05LlyWGYJlZ858AzPQLFHbVY+xHkpjLaa6DNc2zfwJG6CSJ4jv6DYD+0L4HzplFqCsd7jBGXj8nmd9F2YK/HQ==" saltValue="hVpcNF3vNhVFxjS4lqqbnA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -7549,57 +7555,57 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="56" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B1" s="89" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C1" s="56" t="s">
+        <v>133</v>
+      </c>
+      <c r="D1" s="56" t="s">
+        <v>121</v>
+      </c>
+      <c r="E1" s="56" t="s">
+        <v>122</v>
+      </c>
+      <c r="F1" s="56" t="s">
         <v>123</v>
       </c>
-      <c r="D1" s="56" t="s">
-        <v>110</v>
-      </c>
-      <c r="E1" s="56" t="s">
-        <v>111</v>
-      </c>
-      <c r="F1" s="56" t="s">
-        <v>112</v>
-      </c>
       <c r="G1" s="56" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="H1" s="56" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="I1" s="56" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="J1" s="56" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="K1" s="56" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="L1" s="56" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="M1" s="56" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="N1" s="56" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="O1" s="56" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="56" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="B2" s="52" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C2" s="133">
         <v>0</v>
@@ -7643,7 +7649,7 @@
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="52" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C3" s="133">
         <v>1</v>
@@ -7819,7 +7825,7 @@
     </row>
     <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="52" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C7" s="133">
         <v>1</v>
@@ -7863,7 +7869,7 @@
     </row>
     <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="52" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C8" s="133">
         <v>0</v>
@@ -7907,7 +7913,7 @@
     </row>
     <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="52" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C9" s="133">
         <v>0</v>
@@ -7951,7 +7957,7 @@
     </row>
     <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="52" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C10" s="133">
         <v>1</v>
@@ -7995,7 +8001,7 @@
     </row>
     <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="52" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C11" s="133">
         <v>0</v>
@@ -8039,7 +8045,7 @@
     </row>
     <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="52" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C12" s="133">
         <v>0</v>
@@ -8083,7 +8089,7 @@
     </row>
     <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="52" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C13" s="133">
         <v>0</v>
@@ -8127,7 +8133,7 @@
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="52" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C14" s="133">
         <v>1</v>
@@ -8171,7 +8177,7 @@
     </row>
     <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="52" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C15" s="133">
         <v>0</v>
@@ -8231,10 +8237,10 @@
     </row>
     <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="56" t="s">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="B17" s="52" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C17" s="133">
         <v>0</v>
@@ -8279,7 +8285,7 @@
     <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="56"/>
       <c r="B18" s="52" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C18" s="133">
         <v>0</v>
@@ -8323,7 +8329,7 @@
     </row>
     <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="90" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C19" s="133">
         <v>0</v>
@@ -8367,7 +8373,7 @@
     </row>
     <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="90" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C20" s="133">
         <v>0</v>
@@ -8455,7 +8461,7 @@
     </row>
     <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="52" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C22" s="133">
         <v>0</v>
@@ -8499,7 +8505,7 @@
     </row>
     <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="52" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C23" s="133">
         <v>0</v>
@@ -8543,7 +8549,7 @@
     </row>
     <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="52" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C24" s="133">
         <v>0</v>
@@ -8603,10 +8609,10 @@
     </row>
     <row r="26" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="56" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B26" s="52" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C26" s="133">
         <v>0</v>
@@ -8651,7 +8657,7 @@
     </row>
     <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="59" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C27" s="133">
         <v>0</v>
@@ -8696,7 +8702,7 @@
     <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="56"/>
       <c r="B28" s="59" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C28" s="133">
         <v>0</v>
@@ -8740,7 +8746,7 @@
     </row>
     <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="59" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C29" s="133">
         <v>0</v>
@@ -8784,7 +8790,7 @@
     </row>
     <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="59" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C30" s="133">
         <v>0</v>
@@ -8844,10 +8850,10 @@
     </row>
     <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="56" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B32" s="52" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C32" s="133">
         <v>1</v>
@@ -8891,7 +8897,7 @@
     </row>
     <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="52" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C33" s="133">
         <v>1</v>
@@ -8935,7 +8941,7 @@
     </row>
     <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="52" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C34" s="133">
         <v>1</v>
@@ -8979,7 +8985,7 @@
     </row>
     <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="52" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C35" s="133">
         <v>1</v>
@@ -9023,7 +9029,7 @@
     </row>
     <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="52" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C36" s="133">
         <v>1</v>
@@ -9068,7 +9074,7 @@
     <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="93"/>
       <c r="B37" s="52" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C37" s="133">
         <v>1</v>
@@ -9112,7 +9118,7 @@
     </row>
     <row r="38" spans="1:15" s="93" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="52" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C38" s="133">
         <v>1</v>
@@ -9156,7 +9162,7 @@
     </row>
     <row r="39" spans="1:15" s="93" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="52" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C39" s="133">
         <v>1</v>
@@ -9200,7 +9206,7 @@
     </row>
     <row r="40" spans="1:15" s="93" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="52" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C40" s="133">
         <v>1</v>
@@ -9244,7 +9250,7 @@
     </row>
     <row r="41" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="52" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C41" s="133">
         <v>1</v>
@@ -9287,7 +9293,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="WSf55qUdCUokTnM7MPPtWUZVZqtPPoNi3kONtzOpGbWl3J+JZ1s1TyjFfNZPfRzFABaZEJgOBnz54zm3Ib25fQ==" saltValue="lAMNlTU/a5C4i5W+1Z6Q/Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="DeZtMBH/uEHo9HkkrB9UsyCYxOti9rEVcqIkMPTDegvpb2hd2c9VBCW6v7UVIDKVXGouPNu8K1eZ/6NZEy4B8Q==" saltValue="XOVZt6M/eZDJKJVnoh6lYg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -9320,42 +9326,42 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B1" s="35" t="s">
+        <v>215</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1" s="35" t="s">
         <v>216</v>
       </c>
-      <c r="C1" s="35" t="s">
-        <v>135</v>
-      </c>
-      <c r="D1" s="35" t="s">
+      <c r="E1" s="35" t="s">
         <v>217</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="F1" s="35" t="s">
+        <v>152</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="H1" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="I1" s="35" t="s">
         <v>218</v>
       </c>
-      <c r="F1" s="35" t="s">
-        <v>142</v>
-      </c>
-      <c r="G1" s="35" t="s">
-        <v>101</v>
-      </c>
-      <c r="H1" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="I1" s="35" t="s">
-        <v>219</v>
-      </c>
       <c r="J1" s="35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K1" s="35" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="52" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B2" s="133"/>
       <c r="C2" s="133"/>
@@ -9372,7 +9378,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="52" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B3" s="133"/>
       <c r="C3" s="133"/>
@@ -9389,7 +9395,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="52" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B4" s="133"/>
       <c r="C4" s="133"/>
@@ -9406,7 +9412,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="52" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B5" s="133"/>
       <c r="C5" s="133" t="s">
@@ -9423,7 +9429,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="52" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B6" s="133"/>
       <c r="C6" s="133"/>
@@ -9442,7 +9448,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="52" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B7" s="133"/>
       <c r="C7" s="133" t="s">
@@ -9461,7 +9467,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="52" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B8" s="133"/>
       <c r="C8" s="133" t="s">
@@ -9480,7 +9486,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="52" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B9" s="133"/>
       <c r="C9" s="133" t="s">
@@ -9499,7 +9505,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="59" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B10" s="133"/>
       <c r="C10" s="133" t="s">
@@ -9516,7 +9522,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="59" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B11" s="133"/>
       <c r="C11" s="133" t="s">
@@ -9533,7 +9539,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="59" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B12" s="133"/>
       <c r="C12" s="133" t="s">
@@ -9550,7 +9556,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="59" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B13" s="133"/>
       <c r="C13" s="133" t="s">
@@ -9567,7 +9573,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="90" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B14" s="133"/>
       <c r="C14" s="133" t="s">
@@ -9586,7 +9592,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="90" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B15" s="133"/>
       <c r="C15" s="133" t="s">
@@ -9626,7 +9632,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="52" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B17" s="133"/>
       <c r="C17" s="133" t="s">
@@ -9700,7 +9706,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="52" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B21" s="133"/>
       <c r="C21" s="133"/>
@@ -9719,7 +9725,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="52" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B22" s="133" t="s">
         <v>21</v>
@@ -9740,7 +9746,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="52" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B23" s="133"/>
       <c r="C23" s="133" t="s">
@@ -9759,7 +9765,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="52" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B24" s="133"/>
       <c r="C24" s="133"/>
@@ -9776,7 +9782,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="52" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B25" s="133"/>
       <c r="C25" s="133"/>
@@ -9793,7 +9799,7 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="52" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B26" s="133"/>
       <c r="C26" s="133" t="s">
@@ -9810,7 +9816,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="52" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B27" s="133"/>
       <c r="C27" s="133" t="s">
@@ -9829,7 +9835,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="52" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B28" s="133"/>
       <c r="C28" s="133"/>
@@ -9846,7 +9852,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="52" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B29" s="133" t="s">
         <v>21</v>
@@ -9865,7 +9871,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="52" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B30" s="133"/>
       <c r="C30" s="133"/>
@@ -9882,7 +9888,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="52" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B31" s="133"/>
       <c r="C31" s="133"/>
@@ -9901,7 +9907,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="52" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B32" s="133"/>
       <c r="C32" s="133"/>
@@ -9920,7 +9926,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="52" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B33" s="133"/>
       <c r="C33" s="133"/>
@@ -9939,7 +9945,7 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="52" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B34" s="133"/>
       <c r="C34" s="133"/>
@@ -9958,7 +9964,7 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="52" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B35" s="133"/>
       <c r="C35" s="133"/>
@@ -9977,7 +9983,7 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="52" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B36" s="133"/>
       <c r="C36" s="133"/>
@@ -9996,7 +10002,7 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="52" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B37" s="133"/>
       <c r="C37" s="133"/>
@@ -10013,7 +10019,7 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="52" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B38" s="133" t="s">
         <v>21</v>
@@ -10033,7 +10039,7 @@
       <c r="K38" s="133"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Ct7X0bTJ3VA0g1S4Bm98jNlPqcEp6JSHGMyWmZn2MN/fyLXug3FvJ+9HF+1iL7k+Pyef2/yXX+uEiofERxpyeA==" saltValue="u/wVNbgI52qEdvZez5f76g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="e7fnbsYPcdZS/ocfx4wHgLIdNwCTApmqeIbzwfTF3ibd4oo3NrKBhfxplcpbQrtBTxC8jvUH7QnkyvYrn6kPrA==" saltValue="2axY87ZkqWQWCu999deT2A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10066,42 +10072,42 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B1" s="35" t="s">
+        <v>215</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1" s="35" t="s">
         <v>216</v>
       </c>
-      <c r="C1" s="35" t="s">
-        <v>135</v>
-      </c>
-      <c r="D1" s="35" t="s">
+      <c r="E1" s="35" t="s">
         <v>217</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="F1" s="35" t="s">
+        <v>152</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="H1" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="I1" s="35" t="s">
         <v>218</v>
       </c>
-      <c r="F1" s="35" t="s">
-        <v>142</v>
-      </c>
-      <c r="G1" s="35" t="s">
-        <v>101</v>
-      </c>
-      <c r="H1" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="I1" s="35" t="s">
-        <v>219</v>
-      </c>
       <c r="J1" s="35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K1" s="35" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="35" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="B2" s="133" t="s">
         <v>21</v>
@@ -10130,7 +10136,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="35" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="B3" s="133" t="s">
         <v>21</v>
@@ -10159,7 +10165,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="35" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="B4" s="133" t="s">
         <v>21</v>
@@ -10188,7 +10194,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="35" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="B5" s="133" t="s">
         <v>21</v>
@@ -10217,7 +10223,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="35" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="B6" s="133" t="s">
         <v>21</v>
@@ -10246,7 +10252,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="35" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="B7" s="133"/>
       <c r="C7" s="133" t="s">
@@ -10267,7 +10273,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="35" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="B8" s="133"/>
       <c r="C8" s="133" t="s">
@@ -10288,7 +10294,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="35" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="B9" s="133"/>
       <c r="C9" s="133" t="s">
@@ -10309,7 +10315,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="35" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="B10" s="133"/>
       <c r="C10" s="133" t="s">
@@ -10330,7 +10336,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="35" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="B11" s="133"/>
       <c r="C11" s="133" t="s">
@@ -10351,7 +10357,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="35" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="B12" s="133"/>
       <c r="C12" s="133" t="s">
@@ -10370,7 +10376,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="35" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="B13" s="133"/>
       <c r="C13" s="133" t="s">
@@ -10389,7 +10395,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="35" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="B14" s="133"/>
       <c r="C14" s="133" t="s">
@@ -10407,7 +10413,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Afd83XgVIYUeINlZoideP5aRQhfc/6gda3WRHuPG29PdyMqIRHWwEi3v+XDigHjdkLDeJt7nlm2pYWZuXE6v7w==" saltValue="Qg+SxozYxPa/slcIRlB6oA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="gAhe5OFuhxGCJlbkIcLMKzEUbgg+PGDvkNLrwDIiHrjAMsUiyIgyCv6eaz3RSBYi96xVp6/xZxHr64fBTHI89Q==" saltValue="wAyF7y15tDazDqQLykGVHg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10433,39 +10439,39 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C1" s="40" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D1" s="40" t="s">
+        <v>133</v>
+      </c>
+      <c r="E1" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="F1" s="40" t="s">
+        <v>122</v>
+      </c>
+      <c r="G1" s="40" t="s">
         <v>123</v>
       </c>
-      <c r="E1" s="40" t="s">
-        <v>110</v>
-      </c>
-      <c r="F1" s="40" t="s">
-        <v>111</v>
-      </c>
-      <c r="G1" s="40" t="s">
-        <v>112</v>
-      </c>
       <c r="H1" s="94" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="40" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B2" s="137" t="s">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D2" s="134">
         <v>1</v>
@@ -10486,7 +10492,7 @@
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" s="137"/>
       <c r="C3" s="35" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D3" s="134">
         <v>1</v>
@@ -10508,7 +10514,7 @@
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" s="137"/>
       <c r="C4" s="35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D4" s="134">
         <v>1</v>
@@ -10529,10 +10535,10 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" s="137" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="C5" s="35" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D5" s="134">
         <f>5.16</f>
@@ -10554,7 +10560,7 @@
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6" s="137"/>
       <c r="C6" s="35" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D6" s="134">
         <v>5.16</v>
@@ -10575,7 +10581,7 @@
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" s="137"/>
       <c r="C7" s="35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D7" s="134">
         <v>1</v>
@@ -10595,10 +10601,10 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8" s="137" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D8" s="134">
         <v>1</v>
@@ -10619,7 +10625,7 @@
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9" s="137"/>
       <c r="C9" s="35" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D9" s="134">
         <v>1</v>
@@ -10640,7 +10646,7 @@
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B10" s="137"/>
       <c r="C10" s="35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D10" s="134">
         <v>1</v>
@@ -10660,10 +10666,10 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B11" s="137" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="C11" s="35" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D11" s="134">
         <v>1</v>
@@ -10684,7 +10690,7 @@
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B12" s="137"/>
       <c r="C12" s="35" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D12" s="134">
         <v>1</v>
@@ -10705,7 +10711,7 @@
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B13" s="137"/>
       <c r="C13" s="35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D13" s="134">
         <v>1</v>
@@ -10725,10 +10731,10 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B14" s="137" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D14" s="134">
         <v>1</v>
@@ -10749,7 +10755,7 @@
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B15" s="137"/>
       <c r="C15" s="35" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D15" s="134">
         <v>1</v>
@@ -10770,7 +10776,7 @@
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B16" s="137"/>
       <c r="C16" s="35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D16" s="134">
         <v>1</v>
@@ -10790,10 +10796,10 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B17" s="96" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C17" s="35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D17" s="134">
         <v>1.05</v>
@@ -10820,13 +10826,13 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="40" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B19" s="137" t="s">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="C19" s="35" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D19" s="134">
         <v>1</v>
@@ -10847,7 +10853,7 @@
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B20" s="137"/>
       <c r="C20" s="35" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D20" s="134">
         <v>1</v>
@@ -10868,7 +10874,7 @@
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B21" s="137"/>
       <c r="C21" s="35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D21" s="134">
         <v>1</v>
@@ -10888,10 +10894,10 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B22" s="137" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="C22" s="35" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D22" s="134">
         <v>1</v>
@@ -10912,7 +10918,7 @@
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B23" s="137"/>
       <c r="C23" s="35" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D23" s="134">
         <v>1</v>
@@ -10933,7 +10939,7 @@
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B24" s="137"/>
       <c r="C24" s="35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D24" s="134">
         <v>1</v>
@@ -10953,10 +10959,10 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B25" s="137" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="C25" s="35" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D25" s="134">
         <v>1</v>
@@ -10977,7 +10983,7 @@
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B26" s="137"/>
       <c r="C26" s="35" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D26" s="134">
         <v>1</v>
@@ -10998,7 +11004,7 @@
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B27" s="137"/>
       <c r="C27" s="35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D27" s="134">
         <v>1</v>
@@ -11018,10 +11024,10 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B28" s="137" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="C28" s="35" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D28" s="134">
         <v>1</v>
@@ -11042,7 +11048,7 @@
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B29" s="137"/>
       <c r="C29" s="35" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D29" s="134">
         <v>1</v>
@@ -11063,7 +11069,7 @@
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B30" s="137"/>
       <c r="C30" s="35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D30" s="134">
         <v>1</v>
@@ -11083,10 +11089,10 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B31" s="137" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="C31" s="35" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D31" s="134">
         <v>1</v>
@@ -11107,7 +11113,7 @@
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B32" s="137"/>
       <c r="C32" s="35" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D32" s="134">
         <v>1</v>
@@ -11128,7 +11134,7 @@
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B33" s="137"/>
       <c r="C33" s="35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D33" s="134">
         <v>1</v>
@@ -11148,10 +11154,10 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B34" s="96" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C34" s="35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D34" s="134">
         <v>1</v>
@@ -11178,13 +11184,13 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="97" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B36" s="137" t="s">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="C36" s="35" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D36" s="134">
         <v>1</v>
@@ -11205,7 +11211,7 @@
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B37" s="137"/>
       <c r="C37" s="35" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D37" s="134">
         <v>1</v>
@@ -11226,7 +11232,7 @@
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B38" s="137"/>
       <c r="C38" s="35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D38" s="134">
         <v>1</v>
@@ -11246,10 +11252,10 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B39" s="137" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="C39" s="35" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D39" s="134">
         <v>1</v>
@@ -11270,7 +11276,7 @@
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B40" s="137"/>
       <c r="C40" s="35" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D40" s="134">
         <v>1</v>
@@ -11291,7 +11297,7 @@
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B41" s="137"/>
       <c r="C41" s="35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D41" s="134">
         <v>1</v>
@@ -11311,10 +11317,10 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B42" s="137" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="C42" s="35" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D42" s="134">
         <v>1</v>
@@ -11335,7 +11341,7 @@
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B43" s="137"/>
       <c r="C43" s="35" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D43" s="134">
         <v>1</v>
@@ -11356,7 +11362,7 @@
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B44" s="137"/>
       <c r="C44" s="35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D44" s="134">
         <v>1</v>
@@ -11376,10 +11382,10 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B45" s="137" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="C45" s="35" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D45" s="134">
         <v>1</v>
@@ -11400,7 +11406,7 @@
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B46" s="137"/>
       <c r="C46" s="35" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D46" s="134">
         <v>1</v>
@@ -11421,7 +11427,7 @@
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B47" s="137"/>
       <c r="C47" s="35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D47" s="134">
         <v>1</v>
@@ -11441,10 +11447,10 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B48" s="137" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="C48" s="35" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D48" s="134">
         <v>1</v>
@@ -11465,7 +11471,7 @@
     <row r="49" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B49" s="137"/>
       <c r="C49" s="35" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D49" s="134">
         <v>1</v>
@@ -11486,7 +11492,7 @@
     <row r="50" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B50" s="137"/>
       <c r="C50" s="35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D50" s="134">
         <v>1</v>
@@ -11506,10 +11512,10 @@
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B51" s="98" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C51" s="35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D51" s="134">
         <v>1.05</v>
@@ -11528,7 +11534,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="tAI+l5hDfqKuyPD5EKW8ko26OglKiJorUecl+i2WGmsCPl6bwy/8JUJLvFkowGYFM8bymdH6NLINBF0j4c7j9w==" saltValue="cPR5ZT65oxEGy8v8komb1A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="hlmrmC6hWTT9aT31aFXzyLn47dhKCAuiSsaAMTmbptpqFl1Zrs0Qh1JcYY3uRuzvcQvb0PC34ykdd3mISyjMtw==" saltValue="uq1kE6P3rfaH72ZdAAugpg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="B2:B4"/>
@@ -11571,31 +11577,31 @@
   <sheetData>
     <row r="1" spans="1:9" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="31" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="E1" s="23" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="G1" s="23" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="H1" s="23" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="I1" s="23" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12636,7 +12642,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="KKCBJjt8RbrtSDSlsTONv7Yy+aOORxotXLkQGBwIkUrRm7g1AEVUCL/h/izNKn8tFADRSY/U/ExwbuAhMCJHrg==" saltValue="LzTg5I40K92ekzTBTIoCEw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="+9mV19wzI/xTlXcpvBerPJlozguWZvKi1bwaKVI1EgIKsVIGTuh5la+IC9KPTfvbJ3vShxJc+1yuykRdv39gAw==" saltValue="GcL9L79nmaa70vhGLD16/Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <conditionalFormatting sqref="B2:I40">
     <cfRule type="expression" dxfId="0" priority="9">
       <formula>$A2=""</formula>
@@ -12670,27 +12676,27 @@
   <sheetData>
     <row r="1" spans="1:7" s="100" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="99" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="101"/>
       <c r="C2" s="102" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D2" s="103" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E2" s="103" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F2" s="103" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="40" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B3" s="104"/>
       <c r="C3" s="105"/>
@@ -12700,7 +12706,7 @@
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="107" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C4" s="135">
         <v>1</v>
@@ -12717,7 +12723,7 @@
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="107" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C5" s="135">
         <v>1</v>
@@ -12734,7 +12740,7 @@
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="107" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C6" s="135">
         <v>1</v>
@@ -12751,7 +12757,7 @@
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="107" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C7" s="135">
         <v>1</v>
@@ -12774,7 +12780,7 @@
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="40" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C9" s="135">
         <v>1</v>
@@ -12799,7 +12805,7 @@
     </row>
     <row r="11" spans="1:7" s="100" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="99" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C11" s="110"/>
       <c r="D11" s="111"/>
@@ -12809,7 +12815,7 @@
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="40" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C12" s="108"/>
       <c r="D12" s="95"/>
@@ -12819,7 +12825,7 @@
     </row>
     <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="113" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C13" s="135">
         <v>1</v>
@@ -12837,7 +12843,7 @@
     </row>
     <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="113" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C14" s="135">
         <v>1</v>
@@ -12855,7 +12861,7 @@
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="113" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C15" s="135">
         <v>1</v>
@@ -12882,7 +12888,7 @@
     </row>
     <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="40" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B17" s="104"/>
       <c r="C17" s="115"/>
@@ -12893,7 +12899,7 @@
     </row>
     <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="117" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="C18" s="135">
         <v>1</v>
@@ -12911,7 +12917,7 @@
     </row>
     <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="117" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="C19" s="135">
         <v>1</v>
@@ -12929,7 +12935,7 @@
     </row>
     <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="117" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="C20" s="135">
         <v>1</v>
@@ -12947,7 +12953,7 @@
     </row>
     <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="117" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="C21" s="135">
         <v>1</v>
@@ -12965,7 +12971,7 @@
     </row>
     <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="117" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="C22" s="135">
         <v>1</v>
@@ -12982,7 +12988,7 @@
     </row>
     <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="117" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="C23" s="135">
         <v>1</v>
@@ -12999,7 +13005,7 @@
     </row>
     <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="117" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="C24" s="135">
         <v>1</v>
@@ -13016,7 +13022,7 @@
     </row>
     <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="117" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="C25" s="135">
         <v>1</v>
@@ -13038,7 +13044,7 @@
       <c r="B28" s="40"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="JNoQrwW86FGUV9eOkdGQMzX8N6IzBVEF1wBkka69bp+o+m8GrHUJq1kcJhJfA7EIzUSoHPY1f0JJsSMdyzmCng==" saltValue="LFijr+38CNOb0Ux0OdV1jw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="HCZ0cQVu0vNRRkmbgymsnblwPp65X0OEw9NzJBQp/tKMdXADkXjkjdNsGNN2cBpezhJt5VzcGSfUCsCFRfpJ4Q==" saltValue="4Mt67mquEdxZ4BS6liybfw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -13068,33 +13074,33 @@
   <sheetData>
     <row r="1" spans="1:16" s="100" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="99" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="118" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B2" s="119" t="s">
+        <v>234</v>
+      </c>
+      <c r="C2" s="119" t="s">
         <v>235</v>
       </c>
-      <c r="C2" s="119" t="s">
-        <v>236</v>
-      </c>
       <c r="D2" s="103" t="s">
+        <v>133</v>
+      </c>
+      <c r="E2" s="103" t="s">
+        <v>121</v>
+      </c>
+      <c r="F2" s="103" t="s">
+        <v>122</v>
+      </c>
+      <c r="G2" s="103" t="s">
         <v>123</v>
       </c>
-      <c r="E2" s="103" t="s">
-        <v>110</v>
-      </c>
-      <c r="F2" s="103" t="s">
-        <v>111</v>
-      </c>
-      <c r="G2" s="103" t="s">
-        <v>112</v>
-      </c>
       <c r="H2" s="103" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="I2" s="120"/>
       <c r="J2" s="120"/>
@@ -13108,7 +13114,7 @@
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="40"/>
       <c r="B3" s="35" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="C3" s="43" t="s">
         <v>25</v>
@@ -13139,7 +13145,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C4" s="43" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D4" s="136">
         <v>1</v>
@@ -13167,7 +13173,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C5" s="43" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D5" s="136">
         <v>1</v>
@@ -13195,7 +13201,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C6" s="43" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D6" s="136">
         <v>1</v>
@@ -13223,7 +13229,7 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B7" s="35" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="C7" s="43" t="s">
         <v>25</v>
@@ -13254,7 +13260,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="43" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D8" s="136">
         <v>1</v>
@@ -13282,7 +13288,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="43" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D9" s="136">
         <v>1</v>
@@ -13310,7 +13316,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="43" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D10" s="136">
         <v>1</v>
@@ -13338,7 +13344,7 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B11" s="35" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="C11" s="43" t="s">
         <v>25</v>
@@ -13369,7 +13375,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="43" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D12" s="136">
         <v>1</v>
@@ -13397,7 +13403,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="43" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D13" s="136">
         <v>1</v>
@@ -13425,7 +13431,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="43" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D14" s="136">
         <v>1</v>
@@ -13453,7 +13459,7 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B15" s="35" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="C15" s="43" t="s">
         <v>25</v>
@@ -13484,7 +13490,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C16" s="43" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D16" s="136">
         <v>1</v>
@@ -13512,7 +13518,7 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C17" s="43" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D17" s="136">
         <v>1</v>
@@ -13540,7 +13546,7 @@
     </row>
     <row r="18" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" s="43" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D18" s="136">
         <v>1</v>
@@ -13568,7 +13574,7 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B19" s="36" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="C19" s="43" t="s">
         <v>25</v>
@@ -13599,7 +13605,7 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C20" s="43" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D20" s="136">
         <v>1</v>
@@ -13627,7 +13633,7 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C21" s="43" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D21" s="136">
         <v>1</v>
@@ -13655,7 +13661,7 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C22" s="43" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D22" s="136">
         <v>1</v>
@@ -13683,7 +13689,7 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B23" s="36" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="C23" s="43" t="s">
         <v>25</v>
@@ -13714,7 +13720,7 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C24" s="43" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D24" s="136">
         <v>1</v>
@@ -13742,7 +13748,7 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C25" s="43" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D25" s="136">
         <v>1</v>
@@ -13770,7 +13776,7 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C26" s="43" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D26" s="136">
         <v>1</v>
@@ -13798,33 +13804,33 @@
     </row>
     <row r="28" spans="1:16" s="100" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="99" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="121" t="s">
-        <v>26</v>
+        <v>248</v>
       </c>
       <c r="B29" s="94" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C29" s="94" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D29" s="103" t="s">
+        <v>133</v>
+      </c>
+      <c r="E29" s="103" t="s">
+        <v>121</v>
+      </c>
+      <c r="F29" s="103" t="s">
+        <v>122</v>
+      </c>
+      <c r="G29" s="103" t="s">
         <v>123</v>
       </c>
-      <c r="E29" s="103" t="s">
-        <v>110</v>
-      </c>
-      <c r="F29" s="103" t="s">
-        <v>111</v>
-      </c>
-      <c r="G29" s="103" t="s">
-        <v>112</v>
-      </c>
       <c r="H29" s="103" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="I29" s="120"/>
       <c r="J29" s="120"/>
@@ -13838,7 +13844,7 @@
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="40"/>
       <c r="B30" s="35" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="C30" s="43" t="s">
         <v>25</v>
@@ -13869,7 +13875,7 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C31" s="43" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D31" s="136">
         <v>1</v>
@@ -13897,7 +13903,7 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C32" s="43" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D32" s="136">
         <v>1</v>
@@ -13925,7 +13931,7 @@
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="43" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D33" s="136">
         <v>1</v>
@@ -13953,7 +13959,7 @@
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B34" s="35" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="C34" s="43" t="s">
         <v>25</v>
@@ -13984,7 +13990,7 @@
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="43" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D35" s="136">
         <v>1</v>
@@ -14012,7 +14018,7 @@
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C36" s="43" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D36" s="136">
         <v>1</v>
@@ -14040,7 +14046,7 @@
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C37" s="43" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D37" s="136">
         <v>1</v>
@@ -14068,7 +14074,7 @@
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B38" s="35" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="C38" s="43" t="s">
         <v>25</v>
@@ -14099,7 +14105,7 @@
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="43" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D39" s="136">
         <v>1</v>
@@ -14127,7 +14133,7 @@
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="43" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D40" s="136">
         <v>1</v>
@@ -14155,7 +14161,7 @@
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="43" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D41" s="136">
         <v>1</v>
@@ -14183,7 +14189,7 @@
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B42" s="35" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="C42" s="43" t="s">
         <v>25</v>
@@ -14214,7 +14220,7 @@
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="43" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D43" s="136">
         <v>1</v>
@@ -14242,7 +14248,7 @@
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="43" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D44" s="136">
         <v>1</v>
@@ -14270,7 +14276,7 @@
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="43" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D45" s="136">
         <v>1</v>
@@ -14298,7 +14304,7 @@
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B46" s="35" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="C46" s="43" t="s">
         <v>25</v>
@@ -14329,7 +14335,7 @@
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="43" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D47" s="136">
         <v>1</v>
@@ -14357,7 +14363,7 @@
     </row>
     <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="43" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D48" s="136">
         <v>1</v>
@@ -14385,7 +14391,7 @@
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C49" s="43" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D49" s="136">
         <v>1</v>
@@ -14413,7 +14419,7 @@
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B50" s="35" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="C50" s="43" t="s">
         <v>25</v>
@@ -14444,7 +14450,7 @@
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C51" s="43" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D51" s="136">
         <v>1</v>
@@ -14472,7 +14478,7 @@
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C52" s="43" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D52" s="136">
         <v>1</v>
@@ -14500,7 +14506,7 @@
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C53" s="43" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D53" s="136">
         <v>1</v>
@@ -14532,30 +14538,30 @@
     </row>
     <row r="55" spans="1:16" s="100" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="99" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="56" spans="1:16" s="36" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A56" s="121" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="B56" s="94" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C56" s="123" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D56" s="103" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="E56" s="103" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="F56" s="103" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="G56" s="103" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="H56" s="120"/>
       <c r="M56" s="120"/>
@@ -14566,10 +14572,10 @@
     <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" s="40"/>
       <c r="B57" s="35" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="C57" s="43" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D57" s="135">
         <v>1</v>
@@ -14591,7 +14597,7 @@
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C58" s="43" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D58" s="136">
         <v>10.675000000000001</v>
@@ -14613,10 +14619,10 @@
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B59" s="35" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="C59" s="43" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D59" s="135">
         <v>1</v>
@@ -14638,7 +14644,7 @@
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C60" s="43" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D60" s="136">
         <v>10.675000000000001</v>
@@ -14660,10 +14666,10 @@
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B61" s="35" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C61" s="43" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D61" s="135">
         <v>1</v>
@@ -14685,7 +14691,7 @@
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C62" s="43" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D62" s="136">
         <v>10.675000000000001</v>
@@ -14711,33 +14717,33 @@
     </row>
     <row r="64" spans="1:16" s="100" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="99" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="65" spans="1:16" s="36" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A65" s="121" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="B65" s="94" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C65" s="123" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D65" s="103" t="s">
+        <v>133</v>
+      </c>
+      <c r="E65" s="103" t="s">
+        <v>121</v>
+      </c>
+      <c r="F65" s="103" t="s">
+        <v>122</v>
+      </c>
+      <c r="G65" s="103" t="s">
         <v>123</v>
       </c>
-      <c r="E65" s="103" t="s">
-        <v>110</v>
-      </c>
-      <c r="F65" s="103" t="s">
-        <v>111</v>
-      </c>
-      <c r="G65" s="103" t="s">
-        <v>112</v>
-      </c>
       <c r="H65" s="124" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="I65" s="120"/>
       <c r="J65" s="120"/>
@@ -14751,10 +14757,10 @@
     <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66" s="125"/>
       <c r="B66" s="35" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="C66" s="43" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="D66" s="135">
         <v>1</v>
@@ -14782,7 +14788,7 @@
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C67" s="43" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="D67" s="136">
         <v>1.35</v>
@@ -14810,7 +14816,7 @@
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C68" s="43" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="D68" s="136">
         <v>1.35</v>
@@ -14838,7 +14844,7 @@
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C69" s="43" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="D69" s="136">
         <v>5.4</v>
@@ -14866,10 +14872,10 @@
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B70" s="35" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="C70" s="43" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="D70" s="135">
         <v>1</v>
@@ -14897,7 +14903,7 @@
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C71" s="43" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="D71" s="136">
         <v>1.35</v>
@@ -14925,7 +14931,7 @@
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C72" s="43" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="D72" s="136">
         <v>1.35</v>
@@ -14953,7 +14959,7 @@
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C73" s="43" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="D73" s="136">
         <v>5.4</v>
@@ -14981,10 +14987,10 @@
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B74" s="35" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="C74" s="43" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="D74" s="135">
         <v>1</v>
@@ -15012,7 +15018,7 @@
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C75" s="43" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="D75" s="136">
         <v>1.35</v>
@@ -15040,7 +15046,7 @@
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C76" s="43" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="D76" s="136">
         <v>1.35</v>
@@ -15068,7 +15074,7 @@
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C77" s="43" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="D77" s="136">
         <v>5.4</v>
@@ -15096,10 +15102,10 @@
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B78" s="35" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="C78" s="43" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="D78" s="135">
         <v>1</v>
@@ -15127,7 +15133,7 @@
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C79" s="43" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="D79" s="136">
         <v>1</v>
@@ -15155,7 +15161,7 @@
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C80" s="43" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="D80" s="136">
         <v>1</v>
@@ -15183,7 +15189,7 @@
     </row>
     <row r="81" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C81" s="43" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="D81" s="136">
         <v>1</v>
@@ -15211,10 +15217,10 @@
     </row>
     <row r="82" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B82" s="35" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="C82" s="43" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="D82" s="135">
         <v>1</v>
@@ -15242,7 +15248,7 @@
     </row>
     <row r="83" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C83" s="43" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="D83" s="136">
         <v>1</v>
@@ -15270,7 +15276,7 @@
     </row>
     <row r="84" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C84" s="43" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="D84" s="136">
         <v>1</v>
@@ -15298,7 +15304,7 @@
     </row>
     <row r="85" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C85" s="43" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="D85" s="136">
         <v>1</v>
@@ -15326,10 +15332,10 @@
     </row>
     <row r="86" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B86" s="35" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="C86" s="43" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="D86" s="135">
         <v>1</v>
@@ -15357,7 +15363,7 @@
     </row>
     <row r="87" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C87" s="43" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="D87" s="136">
         <v>1</v>
@@ -15385,7 +15391,7 @@
     </row>
     <row r="88" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C88" s="43" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="D88" s="136">
         <v>1</v>
@@ -15413,7 +15419,7 @@
     </row>
     <row r="89" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C89" s="43" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="D89" s="136">
         <v>1</v>
@@ -15441,10 +15447,10 @@
     </row>
     <row r="90" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B90" s="35" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="C90" s="43" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="D90" s="135">
         <v>1</v>
@@ -15472,7 +15478,7 @@
     </row>
     <row r="91" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C91" s="43" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="D91" s="136">
         <v>1</v>
@@ -15500,7 +15506,7 @@
     </row>
     <row r="92" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C92" s="43" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="D92" s="136">
         <v>1</v>
@@ -15528,7 +15534,7 @@
     </row>
     <row r="93" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C93" s="43" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="D93" s="136">
         <v>1</v>
@@ -15556,10 +15562,10 @@
     </row>
     <row r="94" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B94" s="35" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="C94" s="43" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="D94" s="135">
         <v>1</v>
@@ -15587,7 +15593,7 @@
     </row>
     <row r="95" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C95" s="43" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="D95" s="136">
         <v>1</v>
@@ -15615,7 +15621,7 @@
     </row>
     <row r="96" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C96" s="43" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="D96" s="136">
         <v>1</v>
@@ -15643,7 +15649,7 @@
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C97" s="43" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="D97" s="136">
         <v>1</v>
@@ -15671,10 +15677,10 @@
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B98" s="35" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="C98" s="43" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="D98" s="135">
         <v>1</v>
@@ -15702,7 +15708,7 @@
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C99" s="43" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="D99" s="136">
         <v>1</v>
@@ -15730,7 +15736,7 @@
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C100" s="43" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="D100" s="136">
         <v>1</v>
@@ -15758,7 +15764,7 @@
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C101" s="43" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="D101" s="136">
         <v>1</v>
@@ -15786,33 +15792,33 @@
     </row>
     <row r="103" spans="1:16" s="100" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="99" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="104" spans="1:16" s="36" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" s="36" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A104" s="121" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="B104" s="126" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="C104" s="123" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D104" s="103" t="s">
+        <v>133</v>
+      </c>
+      <c r="E104" s="103" t="s">
+        <v>121</v>
+      </c>
+      <c r="F104" s="103" t="s">
+        <v>122</v>
+      </c>
+      <c r="G104" s="103" t="s">
         <v>123</v>
       </c>
-      <c r="E104" s="103" t="s">
-        <v>110</v>
-      </c>
-      <c r="F104" s="103" t="s">
-        <v>111</v>
-      </c>
-      <c r="G104" s="103" t="s">
-        <v>112</v>
-      </c>
       <c r="H104" s="124" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="I104" s="120"/>
       <c r="J104" s="120"/>
@@ -15827,7 +15833,7 @@
       <c r="A105" s="40"/>
       <c r="B105" s="36"/>
       <c r="C105" s="43" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="D105" s="135">
         <v>1</v>
@@ -15855,7 +15861,7 @@
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C106" s="43" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="D106" s="136">
         <v>1.26</v>
@@ -15883,7 +15889,7 @@
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C107" s="43" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="D107" s="136">
         <v>1.68</v>
@@ -15911,7 +15917,7 @@
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C108" s="43" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="D108" s="136">
         <v>2.65</v>
@@ -15941,7 +15947,7 @@
       <c r="A111" s="40"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="u3Vv/93M4tiU/r87xYtLJy/c/h6Ir044/M7a8vn/mPQUciaHNMDsoASWs8+j/GRK7Vjwlr9FblMMJ9D5IEWOTg==" saltValue="/rvN07YJREaP/NEL3HR+RA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="0frD7vLoOH4eucxG0NuzM4YbTHRsOnm4smDaFRGMFC7nV+Ys0yU9zLtC/KvAZFBWAxCtma9cQ5BhS7sTI9ETQA==" saltValue="/sPv+aHA8+stMa6xBfMa7g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -15972,7 +15978,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="100" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="99" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -15981,19 +15987,19 @@
       </c>
       <c r="B2" s="119"/>
       <c r="C2" s="40" t="s">
+        <v>133</v>
+      </c>
+      <c r="D2" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="E2" s="40" t="s">
+        <v>122</v>
+      </c>
+      <c r="F2" s="40" t="s">
         <v>123</v>
       </c>
-      <c r="D2" s="40" t="s">
-        <v>110</v>
-      </c>
-      <c r="E2" s="40" t="s">
-        <v>111</v>
-      </c>
-      <c r="F2" s="40" t="s">
-        <v>112</v>
-      </c>
       <c r="G2" s="40" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -16001,7 +16007,7 @@
         <v>249</v>
       </c>
       <c r="C3" s="136" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" s="136">
         <v>45</v>
@@ -16044,7 +16050,7 @@
     </row>
     <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="117" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C6" s="136">
         <v>1</v>
@@ -16064,7 +16070,7 @@
     </row>
     <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="117" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C7" s="136">
         <v>1</v>
@@ -16084,7 +16090,7 @@
     </row>
     <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="117" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C8" s="136">
         <v>1</v>
@@ -16118,7 +16124,7 @@
     <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="104"/>
       <c r="B11" s="113" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C11" s="136">
         <v>1.5</v>
@@ -16147,7 +16153,7 @@
     </row>
     <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="125" t="s">
-        <v>26</v>
+        <v>248</v>
       </c>
       <c r="B14" s="117" t="s">
         <v>253</v>
@@ -16191,7 +16197,7 @@
     </row>
     <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="125" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="B16" s="113" t="s">
         <v>254</v>
@@ -16220,21 +16226,21 @@
     </row>
     <row r="19" spans="1:6" s="104" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C19" s="56" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="D19" s="56" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="E19" s="56" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="F19" s="56" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B20" s="113" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C20" s="136">
         <v>1.52</v>
@@ -16250,7 +16256,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="uVqj+fBSaVwZFfdwYBNJOf/ZgXnXD/fZ4sn7WUFH8LXfzWRzNAramCJmZngfrsmjp/Nvw65P2T63Bkz49iuIUQ==" saltValue="uifNtWgrllafTZdOJB1v1A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="066uLYfUXFPeJH1ezVf6w/BUb4oq5WMXGUCo19VmJQ7PkWZE0I9D8mYAw0omvND/6lU6Z63DzIRplyxzPh+qgQ==" saltValue="TVJ81z5yoerqD21Oxojvxg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -16279,28 +16285,28 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="119" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B1" s="40"/>
       <c r="C1" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="F1" s="119" t="s">
         <v>69</v>
-      </c>
-      <c r="E1" s="40" t="s">
-        <v>68</v>
-      </c>
-      <c r="F1" s="119" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="90" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B2" s="90" t="s">
-        <v>215</v>
+        <v>258</v>
       </c>
       <c r="C2" s="136">
         <v>0.21</v>
@@ -16318,7 +16324,7 @@
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="90"/>
       <c r="B3" s="90" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C3" s="136">
         <v>1</v>
@@ -16335,10 +16341,10 @@
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="90" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B4" s="90" t="s">
-        <v>215</v>
+        <v>258</v>
       </c>
       <c r="C4" s="136">
         <v>0</v>
@@ -16356,7 +16362,7 @@
     <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="90"/>
       <c r="B5" s="90" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C5" s="136">
         <v>1</v>
@@ -16373,10 +16379,10 @@
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="90" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B6" s="90" t="s">
-        <v>215</v>
+        <v>258</v>
       </c>
       <c r="C6" s="136">
         <v>0</v>
@@ -16394,7 +16400,7 @@
     <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="90"/>
       <c r="B7" s="90" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C7" s="136">
         <v>1</v>
@@ -16414,7 +16420,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="90" t="s">
-        <v>215</v>
+        <v>258</v>
       </c>
       <c r="C8" s="136">
         <v>0.35</v>
@@ -16432,7 +16438,7 @@
     <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="90"/>
       <c r="B9" s="90" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C9" s="136">
         <v>1</v>
@@ -16449,10 +16455,10 @@
     </row>
     <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="90" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B10" s="90" t="s">
-        <v>215</v>
+        <v>258</v>
       </c>
       <c r="C10" s="136">
         <v>0.35</v>
@@ -16470,7 +16476,7 @@
     <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="90"/>
       <c r="B11" s="90" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C11" s="136">
         <v>1</v>
@@ -16487,10 +16493,10 @@
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="90" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B12" s="90" t="s">
-        <v>215</v>
+        <v>258</v>
       </c>
       <c r="C12" s="136">
         <v>0.08</v>
@@ -16508,7 +16514,7 @@
     <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="90"/>
       <c r="B13" s="90" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C13" s="136">
         <v>1</v>
@@ -16530,7 +16536,7 @@
       <c r="A20" s="90"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="+86TjVf+T6cAE7aCTvwzidOKJbjq0GtPhYh4g0agsqSohntML3O8nRfvSFULpaV/xKVfZnfB/VpMVGRGxz7VUA==" saltValue="ehtbhMtqxoCuN9uMQJwv2g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="1zOSljpB9iq0uZ/Phj0RimIQsiv2B6I1QenTHfytc48KF+rPnDSivZWTZIKlm50HJOMd1EDEa2BvO4TfxZhSHw==" saltValue="pRQuXULye+NMq2gYDqxnZQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -16559,53 +16565,53 @@
       <c r="A1" s="40"/>
       <c r="B1" s="40"/>
       <c r="C1" s="103" t="s">
+        <v>133</v>
+      </c>
+      <c r="D1" s="103" t="s">
+        <v>121</v>
+      </c>
+      <c r="E1" s="103" t="s">
+        <v>122</v>
+      </c>
+      <c r="F1" s="103" t="s">
         <v>123</v>
       </c>
-      <c r="D1" s="103" t="s">
-        <v>110</v>
-      </c>
-      <c r="E1" s="103" t="s">
-        <v>111</v>
-      </c>
-      <c r="F1" s="103" t="s">
-        <v>112</v>
-      </c>
       <c r="G1" s="103" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="H1" s="103" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="I1" s="103" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="J1" s="103" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="K1" s="103" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="L1" s="103" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="M1" s="103" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="N1" s="103" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="O1" s="103" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="40" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B3" s="59" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C3" s="136">
         <v>0.53</v>
@@ -16649,7 +16655,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B4" s="59" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C4" s="136">
         <v>1</v>
@@ -16693,7 +16699,7 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B5" s="59" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C5" s="136">
         <v>1</v>
@@ -16737,7 +16743,7 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="59" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C6" s="136">
         <v>1</v>
@@ -16781,7 +16787,7 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B7" s="59" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C7" s="136">
         <v>1</v>
@@ -16825,7 +16831,7 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B8" s="90" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C8" s="136">
         <v>1</v>
@@ -16869,7 +16875,7 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B9" s="90" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C9" s="136">
         <v>1</v>
@@ -16957,7 +16963,7 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B11" s="90" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C11" s="136">
         <v>1</v>
@@ -17001,7 +17007,7 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B12" s="59" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C12" s="136">
         <v>0.83</v>
@@ -17045,7 +17051,7 @@
     </row>
     <row r="13" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="59" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C13" s="136">
         <v>1</v>
@@ -17089,7 +17095,7 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B14" s="59" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C14" s="136">
         <v>1</v>
@@ -17133,13 +17139,13 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="40" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B16" s="59"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B17" s="90" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C17" s="136">
         <v>1</v>
@@ -17183,7 +17189,7 @@
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B18" s="90" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C18" s="136">
         <v>1</v>
@@ -17227,7 +17233,7 @@
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B19" s="90" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C19" s="136">
         <v>1</v>
@@ -17271,7 +17277,7 @@
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B20" s="90" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C20" s="136">
         <v>1</v>
@@ -17326,7 +17332,7 @@
       <c r="B28" s="43"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="YQ12Q/Ku4woEW6vH2hptab6VWzQe+Ekcwlo67Y4De04phGAza/j3tP1TJ1sEmALcpNg7G63461UJ7sCXsGaF9A==" saltValue="+GwVeO3MtBqPAdApaI7IVw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="WX1ZNwuKppgs+9RxLqtQI25mwByEuK8KRK89DYAKnGa1DAo1YWdmc73EGy/agNZmNsBHJBkdCT452sMUVv17aQ==" saltValue="seuGdtpvffBiDOqkiHlkGw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -17355,29 +17361,29 @@
       <c r="A1" s="40"/>
       <c r="B1" s="119"/>
       <c r="C1" s="40" t="s">
+        <v>133</v>
+      </c>
+      <c r="D1" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="E1" s="40" t="s">
+        <v>122</v>
+      </c>
+      <c r="F1" s="40" t="s">
         <v>123</v>
       </c>
-      <c r="D1" s="40" t="s">
-        <v>110</v>
-      </c>
-      <c r="E1" s="40" t="s">
-        <v>111</v>
-      </c>
-      <c r="F1" s="40" t="s">
-        <v>112</v>
-      </c>
       <c r="G1" s="40" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="40" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3" s="59" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C3" s="136">
         <v>1</v>
@@ -17397,7 +17403,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="40" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B4" s="59"/>
       <c r="C4" s="127"/>
@@ -17408,7 +17414,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5" s="90" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C5" s="136">
         <v>1</v>
@@ -17427,7 +17433,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="h12DDXOFTMf+RSp/MdUO7/P2pxdomHqvfPH7SMGbLJVM0Rb4ZLc3WMJPfQdlJI6jedPiZ7uAiDjzZ1Wjt41JjQ==" saltValue="EN628IKsBLr1pN7ENn3uNQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="S4vp7EyeyF4eWaoF/MoDZKFEuqDaTo22f6PrI/uZgJnJC5l94trqWoHcIArd/kXcG9qUPIjRw8tv/Yy/OXgY4w==" saltValue="aAHcbXIDdAAF7SKWW8IJGQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -17459,39 +17465,39 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C1" s="125" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1" s="40" t="s">
+        <v>133</v>
+      </c>
+      <c r="E1" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="F1" s="40" t="s">
+        <v>122</v>
+      </c>
+      <c r="G1" s="40" t="s">
         <v>123</v>
       </c>
-      <c r="E1" s="40" t="s">
-        <v>110</v>
-      </c>
-      <c r="F1" s="40" t="s">
-        <v>111</v>
-      </c>
-      <c r="G1" s="40" t="s">
-        <v>112</v>
-      </c>
       <c r="H1" s="40" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="52" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B2" s="52" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="C2" s="52" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="D2" s="136">
         <v>0</v>
@@ -17511,7 +17517,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C3" s="52" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D3" s="136">
         <v>0</v>
@@ -17531,7 +17537,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C4" s="52" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D4" s="136">
         <v>0</v>
@@ -17551,13 +17557,13 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="52" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B5" s="52" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C5" s="52" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="D5" s="136">
         <v>0</v>
@@ -17577,7 +17583,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C6" s="52" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D6" s="136">
         <v>0</v>
@@ -17597,10 +17603,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B7" s="52" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C7" s="52" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="D7" s="136">
         <v>0</v>
@@ -17620,7 +17626,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C8" s="52" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D8" s="136">
         <v>0</v>
@@ -17640,13 +17646,13 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="52" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B9" s="52" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C9" s="52" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="D9" s="136">
         <v>0</v>
@@ -17666,7 +17672,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C10" s="52" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D10" s="136">
         <v>0</v>
@@ -17686,10 +17692,10 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B11" s="52" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C11" s="52" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="D11" s="136">
         <v>0</v>
@@ -17709,7 +17715,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C12" s="52" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D12" s="136">
         <v>0</v>
@@ -17729,13 +17735,13 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="52" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B13" s="52" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C13" s="52" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="D13" s="136">
         <v>0</v>
@@ -17755,7 +17761,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C14" s="52" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D14" s="136">
         <v>0</v>
@@ -17776,10 +17782,10 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B15" s="52" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C15" s="52" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="D15" s="136">
         <v>0</v>
@@ -17800,7 +17806,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C16" s="52" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D16" s="136">
         <v>0</v>
@@ -17821,13 +17827,13 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="52" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B17" s="52" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="C17" s="52" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="D17" s="136">
         <v>0.7</v>
@@ -17848,7 +17854,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C18" s="52" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D18" s="136">
         <v>0.186</v>
@@ -17869,13 +17875,13 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="52" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B19" s="52" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="C19" s="52" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="D19" s="136">
         <v>0.7</v>
@@ -17895,7 +17901,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C20" s="52" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D20" s="136">
         <v>0.186</v>
@@ -17915,13 +17921,13 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="52" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B21" s="52" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="C21" s="52" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="D21" s="136">
         <v>0.7</v>
@@ -17941,7 +17947,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C22" s="52" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D22" s="136">
         <v>0.186</v>
@@ -17961,13 +17967,13 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="52" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B23" s="52" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="C23" s="52" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="D23" s="136">
         <v>1</v>
@@ -17987,7 +17993,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C24" s="52" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D24" s="136">
         <v>0</v>
@@ -18007,7 +18013,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C25" s="52" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D25" s="136">
         <v>0</v>
@@ -18027,13 +18033,13 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="52" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B26" s="52" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="C26" s="52" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="D26" s="136">
         <v>1</v>
@@ -18053,7 +18059,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C27" s="52" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D27" s="136">
         <v>0</v>
@@ -18073,7 +18079,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C28" s="52" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D28" s="136">
         <v>0</v>
@@ -18093,13 +18099,13 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="52" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B29" s="52" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="C29" s="52" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="D29" s="136">
         <v>1</v>
@@ -18119,7 +18125,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C30" s="52" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D30" s="136">
         <v>0</v>
@@ -18139,7 +18145,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C31" s="52" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D31" s="136">
         <v>0</v>
@@ -18159,13 +18165,13 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="52" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B32" s="52" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="C32" s="52" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="D32" s="136">
         <v>1</v>
@@ -18185,7 +18191,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C33" s="52" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D33" s="136">
         <v>0</v>
@@ -18205,7 +18211,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C34" s="52" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D34" s="136">
         <v>0</v>
@@ -18225,13 +18231,13 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="52" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B35" s="52" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="C35" s="52" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="D35" s="136">
         <v>1</v>
@@ -18251,7 +18257,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C36" s="52" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D36" s="136">
         <v>0</v>
@@ -18271,7 +18277,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C37" s="52" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D37" s="136">
         <v>0</v>
@@ -18291,13 +18297,13 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="52" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B38" s="52" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="C38" s="52" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="D38" s="136">
         <v>0.3</v>
@@ -18317,7 +18323,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C39" s="52" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D39" s="136">
         <v>0.6</v>
@@ -18337,7 +18343,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C40" s="52" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D40" s="136">
         <v>0.45</v>
@@ -18357,10 +18363,10 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B41" s="52" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="C41" s="52" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="D41" s="136">
         <v>0.3</v>
@@ -18380,7 +18386,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C42" s="52" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D42" s="136">
         <v>0.5</v>
@@ -18400,7 +18406,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C43" s="52" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D43" s="136">
         <v>0.63</v>
@@ -18420,13 +18426,13 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="52" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B44" s="52" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="C44" s="52" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="D44" s="136">
         <v>0.88</v>
@@ -18446,7 +18452,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C45" s="52" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D45" s="136">
         <v>0.8</v>
@@ -18466,13 +18472,13 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="52" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B46" s="52" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="C46" s="52" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="D46" s="136">
         <v>1</v>
@@ -18492,7 +18498,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C47" s="52" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D47" s="136">
         <v>0.76</v>
@@ -18512,13 +18518,13 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="52" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B48" s="52" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="C48" s="52" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="D48" s="136">
         <v>0.57999999999999996</v>
@@ -18538,7 +18544,7 @@
     </row>
     <row r="49" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C49" s="52" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D49" s="136">
         <v>0.88</v>
@@ -18557,7 +18563,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="9zxmB/6RQGgnLZdZ7Qtzfv+eaXzPd5F5J7monoyhyeQ/tbhCHXw4007Q3yvgeGRFVSrjSChDm1lQ3378kuaZKg==" saltValue="kvYj5l7Lk7anCcLJ0reUbA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="zGdSrlPXqJrlqtuIcKOlSTgjoLs8n8mZdGz/Jq8YcWPBE2VO/Em4cOSeHsZjaBGvDePyWgG6cBcMcaIjTrVmLw==" saltValue="vpI0DPe4Aeyehc56zO+z8g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -18585,35 +18591,35 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="119" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B1" s="119" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C1" s="119"/>
       <c r="D1" s="40" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="E1" s="40" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="F1" s="40" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="G1" s="40" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="H1" s="94"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="43" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="C2" s="43" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="D2" s="136">
         <v>1</v>
@@ -18631,7 +18637,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C3" s="35" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D3" s="136">
         <v>0.2</v>
@@ -18649,13 +18655,13 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="43" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="C4" s="43" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="D4" s="136">
         <v>1</v>
@@ -18674,7 +18680,7 @@
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="36"/>
       <c r="C5" s="35" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D5" s="136">
         <v>0.59</v>
@@ -18692,13 +18698,13 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="43" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B6" s="35" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="C6" s="43" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="D6" s="136">
         <v>1</v>
@@ -18717,7 +18723,7 @@
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="36"/>
       <c r="C7" s="35" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D7" s="136">
         <v>0.59</v>
@@ -18734,7 +18740,7 @@
       <c r="H7" s="128"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="DfJJl8XfRrtUeqJ1S8lOiIFPHEdqeJy53P4gLtoIbItjtOg9wNVHiuRMyhWaA5l0E3GG7rLu2gipshOl2EkeHg==" saltValue="L5lSzVdGMZCb18Hlw/1ORQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="/oVwGPsGwJ0Dei674I+b29KNf1sDlimv/co8xZ6VDp+3dQIMKII84nyRzxsDT9OWuDKo5iIunJWdc221ixGKpA==" saltValue="doFjsPAd91oliXLvMHmfMg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -18770,13 +18776,13 @@
     </row>
     <row r="2" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="B2" s="41" t="s">
         <v>24</v>
       </c>
       <c r="C2" s="41" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="D2" s="41"/>
       <c r="E2" s="41"/>
@@ -18785,7 +18791,7 @@
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="24" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="C3" s="75">
         <v>2.7000000000000001E-3</v>
@@ -18793,7 +18799,7 @@
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="24" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="C4" s="75">
         <v>0.1966</v>
@@ -18801,7 +18807,7 @@
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="24" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="C5" s="75">
         <v>6.2100000000000002E-2</v>
@@ -18809,7 +18815,7 @@
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="24" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="C6" s="75">
         <v>0.29289999999999999</v>
@@ -18817,7 +18823,7 @@
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="24" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="C7" s="75">
         <v>0.24709999999999999</v>
@@ -18825,7 +18831,7 @@
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="24" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="C8" s="75">
         <v>4.7999999999999996E-3</v>
@@ -18833,7 +18839,7 @@
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="24" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="C9" s="75">
         <v>0.13200000000000001</v>
@@ -18841,7 +18847,7 @@
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="24" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="C10" s="75">
         <v>6.1800000000000001E-2</v>
@@ -18849,7 +18855,7 @@
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C11" s="70">
         <f>SUM(C3:C10)</f>
@@ -18869,28 +18875,28 @@
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="B13" s="41" t="s">
         <v>24</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="F13" s="23" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="G13" s="24"/>
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="24" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="C14" s="75">
         <v>0.1368</v>
@@ -18907,7 +18913,7 @@
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="24" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="C15" s="75">
         <v>0.20660000000000001</v>
@@ -18924,7 +18930,7 @@
     </row>
     <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="24" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="C16" s="75">
         <v>2.1100000000000001E-2</v>
@@ -18941,7 +18947,7 @@
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="24" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="C17" s="75">
         <v>7.4999999999999997E-3</v>
@@ -18958,7 +18964,7 @@
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="24" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="C18" s="75">
         <v>8.6199999999999999E-2</v>
@@ -18975,7 +18981,7 @@
     </row>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="24" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="C19" s="75">
         <v>2.86E-2</v>
@@ -18992,7 +18998,7 @@
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="24" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="C20" s="75">
         <v>1.5299999999999999E-2</v>
@@ -19009,7 +19015,7 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="24" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="C21" s="75">
         <v>0.13589999999999999</v>
@@ -19026,7 +19032,7 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="24" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="C22" s="75">
         <v>0.36199999999999999</v>
@@ -19043,7 +19049,7 @@
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C23" s="70">
         <f>SUM(C14:C22)</f>
@@ -19075,13 +19081,13 @@
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="B25" s="41" t="s">
         <v>24</v>
       </c>
       <c r="C25" s="41" t="s">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="D25" s="24"/>
       <c r="E25" s="24"/>
@@ -19091,7 +19097,7 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="24" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="C26" s="75">
         <v>0.10082724000000001</v>
@@ -19099,7 +19105,7 @@
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="24" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="C27" s="75">
         <v>3.1206000000000002E-4</v>
@@ -19107,7 +19113,7 @@
     </row>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="24" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C28" s="75">
         <v>0.15891214000000001</v>
@@ -19115,7 +19121,7 @@
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="24" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="C29" s="75">
         <v>0.12598688999999999</v>
@@ -19131,7 +19137,7 @@
     </row>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="24" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="C31" s="75">
         <v>3.9028409999999999E-2</v>
@@ -19139,7 +19145,7 @@
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="24" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="C32" s="75">
         <v>8.5254999999999999E-4</v>
@@ -19147,7 +19153,7 @@
     </row>
     <row r="33" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="24" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="C33" s="75">
         <v>6.8467810000000004E-2</v>
@@ -19155,7 +19161,7 @@
     </row>
     <row r="34" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="24" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="C34" s="75">
         <v>0.38127283000000001</v>
@@ -19163,7 +19169,7 @@
     </row>
     <row r="35" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C35" s="70">
         <f>SUM(C26:C34)</f>
@@ -19171,7 +19177,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="ZuNwh/fkPZbM2mLrXqJX5KyouChOdjM7HSX2LYXQvILhQaz+MD18NoY4Yt0ATMMw+OlcI8FNSg9r3FY4M53rHw==" saltValue="vaaXbdFbtH47qo/aJftfWA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="DNocr1rQbVHMeRTiohQiFlqTO5nCvjMKqKPj5wzS+bB44FYoNEfjaywnRBP9wmEHD7yjqgSvgSxN7PHcE7x+qg==" saltValue="b4LFOXdSoZrDhLxKs+H7/w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="69" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -19201,30 +19207,30 @@
         <v>Pourcentage de la population dans chaque catégorie pendant l'année de référence (2017)</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="G1" s="16" t="s">
         <v>124</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="C2" s="76">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C4:C5), 0, 1) + 1, 0, 1, TRUE), "")</f>
@@ -19250,7 +19256,7 @@
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
       <c r="B3" s="11" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="C3" s="76">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C4:C5), 0, 1) + 1, 0, 1, TRUE) - SUM(C4:C5), "")</f>
@@ -19276,7 +19282,7 @@
     <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="11" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="C4" s="77">
         <v>8.7000000000000008E-2</v>
@@ -19297,7 +19303,7 @@
     <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="11" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="C5" s="77">
         <v>4.5999999999999999E-2</v>
@@ -19333,10 +19339,10 @@
     </row>
     <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="C8" s="76">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C10:C11), 0, 1) + 1, 0, 1, TRUE), "")</f>
@@ -19361,7 +19367,7 @@
     </row>
     <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="7" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="C9" s="76">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C10:C11), 0, 1) + 1, 0, 1, TRUE) - SUM(C10:C11), "")</f>
@@ -19386,7 +19392,7 @@
     </row>
     <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="7" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="C10" s="77">
         <v>5.3999999999999999E-2</v>
@@ -19406,7 +19412,7 @@
     </row>
     <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="7" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="C11" s="77">
         <v>0.04</v>
@@ -19440,51 +19446,51 @@
     </row>
     <row r="13" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="C13" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="F13" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="D13" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>112</v>
-      </c>
       <c r="G13" s="16" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="H13" s="23" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="I13" s="23" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="J13" s="23" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="K13" s="23" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="L13" s="23" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="M13" s="23" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="N13" s="23" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="O13" s="23" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="16" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="C14" s="78">
         <v>0.1</v>
@@ -19528,7 +19534,7 @@
     </row>
     <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="16" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="C15" s="76">
         <f t="shared" ref="C15:O15" si="0">iron_deficiency_anaemia*C14</f>
@@ -19598,7 +19604,7 @@
       <c r="G17" s="8"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="tk/4xeN4BhvIPzz5w3ZLnzzf5VHnGKtTiGojFzHCqkMD1ERk/f1P92kNpsrUOKOPUQudfePS/GMYR2Fth+0X3Q==" saltValue="hecqzZJzU5v965N//1axfg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="r72nAbkY3UYp1eMBs8rkoEIdi+pcYQ+JCaXVCY0zPrK65eqbFE0e1FSNBmSSdNkh/U/ypVynoRkXx+CiLDzx2g==" saltValue="TwmU9wfKCCZ95G4CIOe4NQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
@@ -19628,30 +19634,30 @@
         <v>Pourcentage des enfants dans chaque catégorie pendant l'année de référence (2017)</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="G1" s="12" t="s">
         <v>124</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="B2" s="43" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="C2" s="77">
         <v>0.84</v>
@@ -19671,7 +19677,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3" s="43" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="C3" s="77">
         <v>9.1999999999999998E-2</v>
@@ -19691,7 +19697,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B4" s="43" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="C4" s="77">
         <v>5.8000000000000003E-2</v>
@@ -19711,7 +19717,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5" s="43" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="C5" s="76">
         <f>1-SUM(C2:C4)</f>
@@ -19735,7 +19741,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="1yI5H6Cqi/pVpStqzKvewMcFB/byeTOec5VQlyegUX5dRC+irMKMxYQMPzk3q0FaMHRWfny9sAD8y8CZHkTeqw==" saltValue="mwHc5jggIQp9lXx56U/c+A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="VdANo6wg6PLwLSI8Zf3OuD6gFkKwM7dlaukyLhgElNUg82gz8MamgdRSjAufPuW8xsAHlg2W4EeXz/zOX/7zYQ==" saltValue="ccZj3H8+MjQG3CJCxuom9w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -19761,7 +19767,7 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>147</v>
+        <v>80</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>3</v>
@@ -19811,10 +19817,10 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>148</v>
+        <v>81</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>157</v>
+        <v>91</v>
       </c>
       <c r="C2" s="28">
         <f>(('Dist. de l''état nutritionnel'!C4+'Dist. de l''état nutritionnel'!C5)*(1/60)+('Dist. de l''état nutritionnel'!D4+'Dist. de l''état nutritionnel'!D5)*(5/60)+('Dist. de l''état nutritionnel'!E4+'Dist. de l''état nutritionnel'!E5)*(6/60)+('Dist. de l''état nutritionnel'!F4+'Dist. de l''état nutritionnel'!F5)*(12/60)+('Dist. de l''état nutritionnel'!G4+'Dist. de l''état nutritionnel'!G5)*(36/60))</f>
@@ -19841,10 +19847,10 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>149</v>
+        <v>82</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>157</v>
+        <v>91</v>
       </c>
       <c r="C4" s="28">
         <f>(('Dist. de l''état nutritionnel'!C10+'Dist. de l''état nutritionnel'!C11)*(1/60)+('Dist. de l''état nutritionnel'!D10+'Dist. de l''état nutritionnel'!D11)*(5/60)+('Dist. de l''état nutritionnel'!E10+'Dist. de l''état nutritionnel'!E11)*(6/60)+('Dist. de l''état nutritionnel'!F10+'Dist. de l''état nutritionnel'!F11)*(12/60)+('Dist. de l''état nutritionnel'!G10+'Dist. de l''état nutritionnel'!G11)*(36/60))</f>
@@ -19873,10 +19879,10 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>150</v>
+        <v>83</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>157</v>
+        <v>91</v>
       </c>
       <c r="C6" s="28">
         <f>'Dist. de l''état nutritionnel'!C15*(1/60)+'Dist. de l''état nutritionnel'!D15*(5/60)+'Dist. de l''état nutritionnel'!E15*(6/60)+'Dist. de l''état nutritionnel'!F15*(12/60)+'Dist. de l''état nutritionnel'!G15*(36/60)</f>
@@ -19900,7 +19906,7 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B7" s="14" t="s">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="C7" s="28">
         <f>('Dist. de l''état nutritionnel'!H15*('Projections démographiques'!C2/SUM('Projections démographiques'!C2:F2))+'Dist. de l''état nutritionnel'!I15*('Projections démographiques'!D2/SUM('Projections démographiques'!C2:F2))+'Dist. de l''état nutritionnel'!J15*('Projections démographiques'!E2/SUM('Projections démographiques'!C2:F2))+'Dist. de l''état nutritionnel'!K15*('Projections démographiques'!F2/SUM('Projections démographiques'!C2:F2)))</f>
@@ -19924,7 +19930,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B8" s="14" t="s">
-        <v>151</v>
+        <v>84</v>
       </c>
       <c r="C8" s="28">
         <f>('Dist. de l''état nutritionnel'!L15*('Projections démographiques'!C2/SUM('Projections démographiques'!C2:F2))+'Dist. de l''état nutritionnel'!M15*('Projections démographiques'!D2/SUM('Projections démographiques'!C2:F2))+'Dist. de l''état nutritionnel'!N15*('Projections démographiques'!E2/SUM('Projections démographiques'!C2:F2))+'Dist. de l''état nutritionnel'!O15*('Projections démographiques'!F2/SUM('Projections démographiques'!C2:F2)))</f>
@@ -19950,10 +19956,10 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>152</v>
+        <v>85</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>153</v>
+        <v>86</v>
       </c>
       <c r="C10" s="28">
         <f>('Dist. l''allaitement maternel'!C2*(1/6)+'Dist. l''allaitement maternel'!D2*(5/6))</f>
@@ -19977,7 +19983,7 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B11" s="34" t="s">
-        <v>154</v>
+        <v>87</v>
       </c>
       <c r="C11" s="28">
         <f>(('Dist. l''allaitement maternel'!E4)*(6/18)+('Dist. l''allaitement maternel'!F4)*(12/18))</f>
@@ -20001,10 +20007,10 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>155</v>
+        <v>88</v>
       </c>
       <c r="C13" s="28">
         <f>U5_mortality/1000</f>
@@ -20028,7 +20034,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B14" s="16" t="s">
-        <v>156</v>
+        <v>89</v>
       </c>
       <c r="C14" s="28">
         <f>maternal_mortality/1000</f>
@@ -20051,7 +20057,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="58Qom4p2vWWIdioDWxxKn07KOMTDaGKd6dn8hPbcBTay2d8gCehf0zZGFm7G7jpgGp47OJMJ481iEXKJzE7tGw==" saltValue="aJsOH3rZVC3W5ba4bukIOA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="fQLDbYYylUtGwm3IMgLorEDWn0TikQol/atCeNznNJ9CsW2LBejEVTW9HbA0mMBqJJtN+KOHTLcfAhtemY/Wng==" saltValue="AouqVbya16sIVSQOYBI1Fg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="193" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -20078,19 +20084,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="50" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1" s="51" t="s">
         <v>158</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="C1" s="51" t="s">
         <v>159</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="D1" s="51" t="s">
         <v>160</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="E1" s="51" t="s">
         <v>161</v>
-      </c>
-      <c r="E1" s="51" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -20098,7 +20104,7 @@
         <v>19</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="C2" s="80"/>
       <c r="D2" s="80"/>
@@ -20110,7 +20116,7 @@
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="47"/>
       <c r="B3" s="46" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="C3" s="80" t="b">
         <v>1</v>
@@ -20124,7 +20130,7 @@
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="47"/>
       <c r="B4" s="46" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="C4" s="80" t="b">
         <v>1</v>
@@ -20138,7 +20144,7 @@
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="47"/>
       <c r="B5" s="46" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="C5" s="80" t="b">
         <v>1</v>
@@ -20152,7 +20158,7 @@
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="47"/>
       <c r="B6" s="46" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="C6" s="80" t="b">
         <v>1</v>
@@ -20166,7 +20172,7 @@
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="47"/>
       <c r="B7" s="46" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C7" s="45"/>
       <c r="D7" s="44"/>
@@ -20177,7 +20183,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="46" t="s">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="C9" s="80"/>
       <c r="D9" s="80" t="b">
@@ -20191,7 +20197,7 @@
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="47"/>
       <c r="B10" s="46" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="C10" s="80"/>
       <c r="D10" s="80"/>
@@ -20203,7 +20209,7 @@
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="47"/>
       <c r="B11" s="46" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="C11" s="80"/>
       <c r="D11" s="80"/>
@@ -20215,7 +20221,7 @@
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="47"/>
       <c r="B12" s="46" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="C12" s="80"/>
       <c r="D12" s="80"/>
@@ -20227,7 +20233,7 @@
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="47"/>
       <c r="B13" s="46" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="C13" s="80"/>
       <c r="D13" s="80"/>
@@ -20239,7 +20245,7 @@
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="47"/>
       <c r="B14" s="46" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C14" s="45"/>
       <c r="D14" s="44"/>
@@ -20252,7 +20258,7 @@
         <v>23</v>
       </c>
       <c r="B16" s="46" t="s">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="C16" s="80"/>
       <c r="D16" s="80" t="s">
@@ -20266,7 +20272,7 @@
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="47"/>
       <c r="B17" s="46" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="C17" s="80"/>
       <c r="D17" s="80" t="s">
@@ -20280,7 +20286,7 @@
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="47"/>
       <c r="B18" s="46" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="C18" s="80"/>
       <c r="D18" s="80" t="s">
@@ -20294,7 +20300,7 @@
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="47"/>
       <c r="B19" s="46" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="C19" s="80"/>
       <c r="D19" s="80" t="s">
@@ -20308,7 +20314,7 @@
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="47"/>
       <c r="B20" s="46" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="C20" s="80"/>
       <c r="D20" s="80" t="s">
@@ -20322,14 +20328,14 @@
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="47"/>
       <c r="B21" s="46" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C21" s="45"/>
       <c r="D21" s="44"/>
       <c r="E21" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="atPjlyNz9YQhoexIJHBHaTagPMdMkBp2UTgk9aWfTsbJbzTgElB/Wk4qwi4lYS3mVpOY64EJVHnXdnzDfMW68Q==" saltValue="RxPMaFN1G0658Eyenwy6IA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="RXCimge2+2VB8IbshMyrN7e2T7frqLk88AC0gGHAqsuzZKDl4qZT/jJL9Epgqexi8KnXw9Sic11W6M1WKnEEMQ==" saltValue="I+oHg8CdLMKtZZxO2faDFw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -20359,41 +20365,41 @@
         <v>17</v>
       </c>
       <c r="B1" s="51" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C1" s="61" t="s">
         <v>20</v>
       </c>
       <c r="D1" s="61" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="61" t="s">
+        <v>163</v>
+      </c>
+      <c r="B2" s="46" t="s">
         <v>164</v>
       </c>
-      <c r="B2" s="46" t="s">
-        <v>165</v>
-      </c>
       <c r="C2" s="46" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D2" s="80"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="61" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B3" s="46" t="s">
+        <v>159</v>
+      </c>
+      <c r="C3" s="46" t="s">
         <v>160</v>
       </c>
-      <c r="C3" s="46" t="s">
-        <v>161</v>
-      </c>
       <c r="D3" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="pjEiAjKFaZiXMxdRLqRquudOn7tu0pI/x/fT2ryWY28CUYwp44k1rrB9uOA/L+IbGcLTE1dIm+wD943W/a8Cag==" saltValue="PzgPEbQERDXARsi3GgiUEQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Ue/IlcJxRK7fxvc21ac+mRjMD2YANf6iYiU+7HVYjuNgTSmfy1eUf9ZbVLv1W3GyKXipu5cMheTNehYQgaUezQ==" saltValue="bLZ6WaHHy4qFx/nrQyCiMw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -20421,25 +20427,25 @@
   <sheetData>
     <row r="1" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="54" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B1" s="62" t="str">
-        <f>"Baseline ("&amp;start_year&amp;") coverage"</f>
-        <v>Baseline (2017) coverage</v>
+        <f>"Couverture de l'année de référence ("&amp;start_year&amp;")"</f>
+        <v>Couverture de l'année de référence (2017)</v>
       </c>
       <c r="C1" s="53" t="s">
+        <v>169</v>
+      </c>
+      <c r="D1" s="53" t="s">
+        <v>204</v>
+      </c>
+      <c r="E1" s="53" t="s">
         <v>170</v>
-      </c>
-      <c r="D1" s="53" t="s">
-        <v>205</v>
-      </c>
-      <c r="E1" s="53" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="52" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B2" s="81">
         <v>0</v>
@@ -20451,12 +20457,12 @@
         <v>25</v>
       </c>
       <c r="E2" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="52" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B3" s="81">
         <v>0</v>
@@ -20468,12 +20474,12 @@
         <v>1</v>
       </c>
       <c r="E3" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="52" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B4" s="81">
         <v>0</v>
@@ -20485,12 +20491,12 @@
         <v>90</v>
       </c>
       <c r="E4" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="52" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B5" s="81">
         <v>0</v>
@@ -20502,12 +20508,12 @@
         <v>1</v>
       </c>
       <c r="E5" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="52" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B6" s="81">
         <v>0</v>
@@ -20519,12 +20525,12 @@
         <v>0.82</v>
       </c>
       <c r="E6" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="52" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B7" s="81">
         <v>0.36</v>
@@ -20536,12 +20542,12 @@
         <v>0.25</v>
       </c>
       <c r="E7" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="52" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B8" s="81">
         <v>0</v>
@@ -20553,12 +20559,12 @@
         <v>0.75</v>
       </c>
       <c r="E8" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="52" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B9" s="81">
         <v>0</v>
@@ -20570,12 +20576,12 @@
         <v>0.19</v>
       </c>
       <c r="E9" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="59" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B10" s="81">
         <v>0</v>
@@ -20587,12 +20593,12 @@
         <v>0.73</v>
       </c>
       <c r="E10" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="59" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B11" s="81">
         <v>0</v>
@@ -20604,12 +20610,12 @@
         <v>1.78</v>
       </c>
       <c r="E11" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="59" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B12" s="81">
         <v>0</v>
@@ -20621,12 +20627,12 @@
         <v>0.24</v>
       </c>
       <c r="E12" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="59" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B13" s="81">
         <v>0</v>
@@ -20638,12 +20644,12 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="E13" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B14" s="81">
         <v>0</v>
@@ -20655,12 +20661,12 @@
         <v>0.73</v>
       </c>
       <c r="E14" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B15" s="81">
         <v>0</v>
@@ -20672,7 +20678,7 @@
         <v>1.78</v>
       </c>
       <c r="E15" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -20689,12 +20695,12 @@
         <v>2.06</v>
       </c>
       <c r="E16" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="52" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B17" s="81">
         <v>0.80800000000000005</v>
@@ -20706,7 +20712,7 @@
         <v>0.05</v>
       </c>
       <c r="E17" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -20723,7 +20729,7 @@
         <v>5</v>
       </c>
       <c r="E18" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -20740,7 +20746,7 @@
         <v>5</v>
       </c>
       <c r="E19" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -20757,12 +20763,12 @@
         <v>5</v>
       </c>
       <c r="E20" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="52" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B21" s="81">
         <v>0</v>
@@ -20774,12 +20780,12 @@
         <v>8.84</v>
       </c>
       <c r="E21" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="52" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B22" s="81">
         <v>0</v>
@@ -20791,12 +20797,12 @@
         <v>50</v>
       </c>
       <c r="E22" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="52" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B23" s="81">
         <v>0.50800000000000001</v>
@@ -20808,12 +20814,12 @@
         <v>2.61</v>
       </c>
       <c r="E23" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="52" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B24" s="81">
         <v>0</v>
@@ -20825,12 +20831,12 @@
         <v>1</v>
       </c>
       <c r="E24" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="52" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B25" s="81">
         <v>0</v>
@@ -20842,12 +20848,12 @@
         <v>1</v>
       </c>
       <c r="E25" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="52" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B26" s="81">
         <v>0.1</v>
@@ -20859,12 +20865,12 @@
         <v>4.6500000000000004</v>
       </c>
       <c r="E26" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="52" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B27" s="81">
         <v>0.3538</v>
@@ -20876,12 +20882,12 @@
         <v>3.78</v>
       </c>
       <c r="E27" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="52" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B28" s="81">
         <v>0</v>
@@ -20893,12 +20899,12 @@
         <v>1</v>
       </c>
       <c r="E28" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="52" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B29" s="81">
         <v>0</v>
@@ -20910,12 +20916,12 @@
         <v>48</v>
       </c>
       <c r="E29" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="52" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B30" s="81">
         <v>0</v>
@@ -20927,12 +20933,12 @@
         <v>65</v>
       </c>
       <c r="E30" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="52" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B31" s="81">
         <v>0.89970000000000006</v>
@@ -20944,12 +20950,12 @@
         <v>0.41</v>
       </c>
       <c r="E31" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="52" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B32" s="81">
         <v>0.80700000000000005</v>
@@ -20961,12 +20967,12 @@
         <v>0.9</v>
       </c>
       <c r="E32" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="52" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B33" s="81">
         <v>0.73199999999999998</v>
@@ -20978,12 +20984,12 @@
         <v>0.9</v>
       </c>
       <c r="E33" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="52" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B34" s="81">
         <v>0.316</v>
@@ -20995,12 +21001,12 @@
         <v>79</v>
       </c>
       <c r="E34" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="52" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B35" s="81">
         <v>0.59699999999999998</v>
@@ -21012,12 +21018,12 @@
         <v>31</v>
       </c>
       <c r="E35" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="36" spans="1:6" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="52" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B36" s="81">
         <v>0.19900000000000001</v>
@@ -21029,13 +21035,13 @@
         <v>102</v>
       </c>
       <c r="E36" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F36" s="35"/>
     </row>
     <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="52" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B37" s="81">
         <v>0.13400000000000001</v>
@@ -21047,12 +21053,12 @@
         <v>5.53</v>
       </c>
       <c r="E37" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="52" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B38" s="81">
         <v>0</v>
@@ -21064,14 +21070,14 @@
         <v>1</v>
       </c>
       <c r="E38" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F39" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="kl0EoXACn2C2r8XPMplmpIov7VbM/mvmsKU1aSMfF+/5arXtK9fHgPB8PiEbyGnFFMr8QXp5XW7l83BGUK/t+g==" saltValue="b56KbfjgWObIl1pCyPREOg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="17kINMnY9InJI6bPnqReZ+voy9dcC+PIdma6cAzq3qCufwjQeoinIsIUijDekK+qy71HGlSSfu99mU0ds2xeyA==" saltValue="Iw7TrtZEHamCKb/aazG23g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D38">
     <sortCondition ref="A2:A38"/>
   </sortState>

--- a/inputs/fr/demo_demo_input.xlsx
+++ b/inputs/fr/demo_demo_input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\romesh\projects\nutrition\inputs\fr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4019404E-D49A-4888-9186-FE7684084150}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DDA4CFE0-0609-4B87-9D6F-F6AC4267060C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="7815" windowWidth="30255" windowHeight="13185" tabRatio="885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5985" yWindow="0" windowWidth="30255" windowHeight="13185" tabRatio="885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Donnees pop de l'annee de ref" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <sheet name="Traitement de la MAS" sheetId="60" r:id="rId8"/>
     <sheet name="Coût et couverture du programme" sheetId="56" r:id="rId9"/>
     <sheet name="Programmes de référence" sheetId="59" state="hidden" r:id="rId10"/>
-    <sheet name="Incidence of conditions" sheetId="7" state="hidden" r:id="rId11"/>
+    <sheet name="Incidence des conditions" sheetId="7" state="hidden" r:id="rId11"/>
     <sheet name="Population cible programmes" sheetId="21" r:id="rId12"/>
     <sheet name="Dépendances du programme" sheetId="58" r:id="rId13"/>
     <sheet name="Cost curve options" sheetId="61" state="hidden" r:id="rId14"/>
@@ -36,7 +36,7 @@
     <sheet name="Risques relatifs" sheetId="67" state="hidden" r:id="rId21"/>
     <sheet name="Rapports des cotes" sheetId="68" state="hidden" r:id="rId22"/>
     <sheet name="Programmes-rés. des naissances" sheetId="69" state="hidden" r:id="rId23"/>
-    <sheet name="Programs anemia" sheetId="70" state="hidden" r:id="rId24"/>
+    <sheet name="Programmes-anémie" sheetId="70" state="hidden" r:id="rId24"/>
     <sheet name="Programmes-amaigrissement" sheetId="71" state="hidden" r:id="rId25"/>
     <sheet name="Programmes pour les enfants" sheetId="72" state="hidden" r:id="rId26"/>
     <sheet name="Programmes pour les FE" sheetId="73" state="hidden" r:id="rId27"/>
@@ -465,9 +465,6 @@
     <t>Field</t>
   </si>
   <si>
-    <t>Data</t>
-  </si>
-  <si>
     <t>IYCF 1</t>
   </si>
   <si>
@@ -624,19 +621,19 @@
     <t>Incidence de la diarrhée</t>
   </si>
   <si>
-    <t>Nombre moyen d'épisodes par an : &lt;1 mois</t>
-  </si>
-  <si>
-    <t>Nombre moyen d'épisodes par an : 1-5 mois</t>
-  </si>
-  <si>
-    <t>Nombre moyen d'épisodes par an : 6-11 mois</t>
-  </si>
-  <si>
-    <t>Nombre moyen d'épisodes par an : 12-23 mois</t>
-  </si>
-  <si>
-    <t>Nombre moyen d'épisodes par an : 24-59 mois</t>
+    <t>Nombre moyen d'épisodes par an: &lt;1 mois</t>
+  </si>
+  <si>
+    <t>Nombre moyen d'épisodes par an: 1-5 mois</t>
+  </si>
+  <si>
+    <t>Nombre moyen d'épisodes par an: 6-11 mois</t>
+  </si>
+  <si>
+    <t>Nombre moyen d'épisodes par an: 12-23 mois</t>
+  </si>
+  <si>
+    <t>Nombre moyen d'épisodes par an: 24-59 mois</t>
   </si>
   <si>
     <t>Autres risques</t>
@@ -690,19 +687,22 @@
     <t>Prévalence de l'éclampsie</t>
   </si>
   <si>
+    <t>Données</t>
+  </si>
+  <si>
     <t>Nombre de naissances</t>
   </si>
   <si>
-    <t>FAP : 15-19 ans</t>
-  </si>
-  <si>
-    <t>FAP : 20-29 ans</t>
-  </si>
-  <si>
-    <t>FAP : 30-39 ans</t>
-  </si>
-  <si>
-    <t>FAP : 40-49 ans</t>
+    <t>FAP: 15-19 ans</t>
+  </si>
+  <si>
+    <t>FAP: 20-29 ans</t>
+  </si>
+  <si>
+    <t>FAP: 30-39 ans</t>
+  </si>
+  <si>
+    <t>FAP: 40-49 ans</t>
   </si>
   <si>
     <t>Total FAP</t>
@@ -849,16 +849,16 @@
     <t>Anémie</t>
   </si>
   <si>
-    <t>FE : 15-19 ans</t>
-  </si>
-  <si>
-    <t>FE : 20-29 ans</t>
-  </si>
-  <si>
-    <t>FE : 30-39 ans</t>
-  </si>
-  <si>
-    <t>FE : 40-49 ans</t>
+    <t>FE: 15-19 ans</t>
+  </si>
+  <si>
+    <t>FE: 20-29 ans</t>
+  </si>
+  <si>
+    <t>FE: 30-39 ans</t>
+  </si>
+  <si>
+    <t>FE: 40-49 ans</t>
   </si>
   <si>
     <t>Prévalence de l'anémie</t>
@@ -999,19 +999,19 @@
     <t>Supplémentation en vitamine A</t>
   </si>
   <si>
-    <t>WASH : lavage des mains</t>
-  </si>
-  <si>
-    <t>WASH : Élimination hygiénique</t>
-  </si>
-  <si>
-    <t>WASH : Amélioration de l'assainissement</t>
-  </si>
-  <si>
-    <t>WASH : Source d'eau améliorée</t>
-  </si>
-  <si>
-    <t>WASH : Eau courante</t>
+    <t>WASH: lavage des mains</t>
+  </si>
+  <si>
+    <t>WASH: Élimination hygiénique</t>
+  </si>
+  <si>
+    <t>WASH: Amélioration de l'assainissement</t>
+  </si>
+  <si>
+    <t>WASH: Source d'eau améliorée</t>
+  </si>
+  <si>
+    <t>WASH: Eau courante</t>
   </si>
   <si>
     <t>Zinc pour le traitement + SRO</t>
@@ -4750,18 +4750,18 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" s="41" t="s">
         <v>17</v>
       </c>
       <c r="C1" s="41" t="s">
-        <v>18</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2" s="41"/>
       <c r="C2" s="41"/>
@@ -4769,7 +4769,7 @@
     <row r="3" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C3" s="63">
         <v>2017</v>
@@ -4778,7 +4778,7 @@
     <row r="4" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C4" s="64">
         <v>2030</v>
@@ -4791,12 +4791,12 @@
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C7" s="65">
         <v>9862402</v>
@@ -4804,7 +4804,7 @@
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C8" s="66">
         <v>0.28199999999999997</v>
@@ -4812,7 +4812,7 @@
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C9" s="67">
         <v>1</v>
@@ -4820,7 +4820,7 @@
     </row>
     <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C10" s="67">
         <v>0.23</v>
@@ -4828,7 +4828,7 @@
     </row>
     <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C11" s="66">
         <v>0.51</v>
@@ -4836,7 +4836,7 @@
     </row>
     <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C12" s="66">
         <v>0.37</v>
@@ -4844,7 +4844,7 @@
     </row>
     <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C13" s="66">
         <v>0.221</v>
@@ -4855,14 +4855,14 @@
     </row>
     <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B15" s="19"/>
       <c r="C15" s="3"/>
     </row>
     <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C16" s="67">
         <v>0.3</v>
@@ -4870,7 +4870,7 @@
     </row>
     <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C17" s="67">
         <v>0.1</v>
@@ -4878,7 +4878,7 @@
     </row>
     <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C18" s="67">
         <v>0.1</v>
@@ -4886,7 +4886,7 @@
     </row>
     <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C19" s="67">
         <v>0.8</v>
@@ -4894,7 +4894,7 @@
     </row>
     <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C20" s="68">
         <f>1-frac_rice-frac_wheat-frac_maize</f>
@@ -4906,12 +4906,12 @@
     </row>
     <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C23" s="67">
         <v>0.127</v>
@@ -4919,7 +4919,7 @@
     </row>
     <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C24" s="67">
         <v>0.45200000000000001</v>
@@ -4927,7 +4927,7 @@
     </row>
     <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C25" s="67">
         <v>0.33400000000000002</v>
@@ -4935,7 +4935,7 @@
     </row>
     <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C26" s="67">
         <v>8.6999999999999994E-2</v>
@@ -4947,14 +4947,14 @@
     </row>
     <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B28" s="20"/>
       <c r="C28" s="20"/>
     </row>
     <row r="29" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C29" s="69">
         <v>0.20799999999999999</v>
@@ -4962,7 +4962,7 @@
     </row>
     <row r="30" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C30" s="69">
         <v>0.63700000000000001</v>
@@ -4970,7 +4970,7 @@
     </row>
     <row r="31" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C31" s="69">
         <v>0.11899999999999999</v>
@@ -4978,7 +4978,7 @@
     </row>
     <row r="32" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C32" s="69">
         <v>3.5999999999999997E-2</v>
@@ -4986,7 +4986,7 @@
     </row>
     <row r="33" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B33" s="32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C33" s="70">
         <f>SUM(C29:C32)</f>
@@ -4996,19 +4996,19 @@
     <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B36" s="7"/>
       <c r="C36" s="13"/>
     </row>
     <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="42" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C37" s="71">
         <v>25</v>
@@ -5016,7 +5016,7 @@
     </row>
     <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C38" s="71">
         <v>43</v>
@@ -5026,7 +5026,7 @@
     </row>
     <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C39" s="71">
         <v>67</v>
@@ -5036,7 +5036,7 @@
     </row>
     <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C40" s="71">
         <v>4.01</v>
@@ -5044,7 +5044,7 @@
     </row>
     <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C41" s="67">
         <v>0.13</v>
@@ -5052,7 +5052,7 @@
     </row>
     <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="42" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C42" s="71">
         <v>22.4</v>
@@ -5063,13 +5063,13 @@
     </row>
     <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D44" s="17"/>
     </row>
     <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C45" s="67">
         <v>3.1E-2</v>
@@ -5078,7 +5078,7 @@
     </row>
     <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C46" s="67">
         <v>0.109</v>
@@ -5087,7 +5087,7 @@
     </row>
     <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C47" s="67">
         <v>0.36499999999999999</v>
@@ -5097,7 +5097,7 @@
     </row>
     <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C48" s="68">
         <f>1-term_SGA-preterm_AGA-preterm_SGA</f>
@@ -5111,13 +5111,13 @@
     </row>
     <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D50" s="17"/>
     </row>
     <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C51" s="72">
         <v>1.66</v>
@@ -5126,7 +5126,7 @@
     </row>
     <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C52" s="72">
         <v>1.66</v>
@@ -5134,7 +5134,7 @@
     </row>
     <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C53" s="72">
         <v>5.64</v>
@@ -5142,7 +5142,7 @@
     </row>
     <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C54" s="72">
         <v>5.43</v>
@@ -5150,7 +5150,7 @@
     </row>
     <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C55" s="72">
         <v>1.91</v>
@@ -5158,12 +5158,12 @@
     </row>
     <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C58" s="66">
         <v>0.2</v>
@@ -5171,7 +5171,7 @@
     </row>
     <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C59" s="66">
         <v>0.42</v>
@@ -5179,7 +5179,7 @@
     </row>
     <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C60" s="66">
         <v>4.5999999999999999E-2</v>
@@ -5187,7 +5187,7 @@
     </row>
     <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C61" s="66">
         <v>1.4E-2</v>
@@ -5197,7 +5197,7 @@
       <c r="A63" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="hcxllZjMecgIitZ0pYiwNiQXVvyoAcOatjwApNL+CpeH6HEhEUxG7Do/mDOXF0KsvrsogvL5yqIrxJlM8m4/lQ==" saltValue="4tcTFQ8vObZP8NOjdskbTw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="11bgHPM6OhZHldZsih+byLzPQ8RJWgkW4n9q7AWJGSzczWNuC08iCLdegEkOK9ijtOFonZb+F/c7AHymKLNqVw==" saltValue="5b6pthUyUhwJWDpjok7MjQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
 </worksheet>
@@ -5296,7 +5296,7 @@
       <c r="A19" s="48"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="kQcbQL8cvTsWxyZ2sd0zz0/NvGWx0VFrIEPrxVEBYqg1+YkKSsxWkOzuaHqfyAZf4e415iIG+2aBBsnNdIU7fA==" saltValue="u7bdB2YC9wFmcw3Xwz+X7g==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Uzygf4kWn7vraIujNBmiANo+MKfQK8ZG0a7e1ZcepzNMsfedIsOVgYzUBtuyfjYqn3t2OvYhqUfAndhC/Jr9Gw==" saltValue="Dog+m3M+TBQFoqeRJYphHQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -5411,7 +5411,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="hNM82DBEr9RlEFhrZDxVnnGF2lhsUzKdmr3LU1duSpSIPl7zLqAFqOAEw0TgdsahFliD9PnVyKoPw/jJ8z40VQ==" saltValue="RJwcRGz8+VoZpkpA6HhCSg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="mRQkzrDS8KNyNGFpjVKL5dsEofwmMVTOLqnNT4OoLqaezB7vaeBHnMewpZRlQ5hmtmTT4g99Wx0RN/sK5WI9yg==" saltValue="cBgIL7SZGnxUHj8QKnIQRw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -6004,7 +6004,7 @@
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B14" s="33" t="s">
         <v>171</v>
@@ -7127,7 +7127,7 @@
       <c r="B39" s="33"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="5C9ephY/RAb7ZglueU/RluYX7b6TJvvjuiz10cB6QE1NeDE7AbP9SmfQbkzCYik5YcsJK7FYVQrDbSOl2vRTfA==" saltValue="fVywioAMRJPPcr05QfjC4A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="S4BCf+3dQ1yDxwyCyGXFYPR5D/kDR8KeLxUTzgkWNPXNUJgj4BNPS9NcJ0fq6NBxGU058dbDOshX7qVEsNOngA==" saltValue="NAxu3UnaknudktW86lo0SQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B14:O21">
     <sortCondition ref="B14:B21"/>
   </sortState>
@@ -7278,7 +7278,7 @@
       <c r="C20" s="85"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="aH5rR+LYR1YvQNrtAVQYF1kz96EG/L/8srPa6mrYO3QWpQq52evHX2lIpXn0nmbjPDHOxSuaGpftBhpsx4/jjw==" saltValue="Zu2Ea7+Til+zYNQg2PKYzA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="W2y+8crxAnI2YcT0vYMqm2zCX3Ktsr+wwlc4t0CNyxOD6uMsU1OmAu2Mb/ZRMRf8ZG69VUElUonwG9gcXFOAxw==" saltValue="q+zonrkw9CCEe/dLUxPQZA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
@@ -7314,7 +7314,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="9nA0IrZf0ZW6YVxmREXVWusBdDdUkcvnm5YmgH/07H1+TwjpWfFpi1j96zHPSQwATF34BCE+1F8CkHGLrR2tPA==" saltValue="kMktS8ON+iA+H0xCD5OyJQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="IB8AWv3E+meqX+2p0SLyHgYSXjZpaKOCJVSsRDJa4Qvxq7aes0nKjkB68QkVq7b28YHBx9swyabA1FitoFQAkQ==" saltValue="zEOHxDd7u1u9zy1LjWJ7sQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7522,7 +7522,7 @@
       <c r="C11" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="g05LlyWGYJlZ858AzPQLFHbVY+xHkpjLaa6DNc2zfwJG6CSJ4jv6DYD+0L4HzplFqCsd7jBGXj8nmd9F2YK/HQ==" saltValue="hVpcNF3vNhVFxjS4lqqbnA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="qvsq9W53oUV/5ShPtQATSdtOySvQKTtqMkc9no+Bij3i6wl8CQ++3FTHevfgkF8xQ+koPgTCZBckk/xWHFZ4eg==" saltValue="FwH0guo4sgQs5gfeo+GJJQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -7693,7 +7693,7 @@
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="52" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" s="133">
         <v>1</v>
@@ -7737,7 +7737,7 @@
     </row>
     <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="52" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" s="133">
         <v>1</v>
@@ -7781,7 +7781,7 @@
     </row>
     <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="52" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" s="133">
         <v>1</v>
@@ -8237,7 +8237,7 @@
     </row>
     <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="56" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B17" s="52" t="s">
         <v>171</v>
@@ -9293,7 +9293,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="DeZtMBH/uEHo9HkkrB9UsyCYxOti9rEVcqIkMPTDegvpb2hd2c9VBCW6v7UVIDKVXGouPNu8K1eZ/6NZEy4B8Q==" saltValue="XOVZt6M/eZDJKJVnoh6lYg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="ovyHS3Ipl0axcTS/iW/q9JKdbPObLjyWToGx1J7Si6nUlif9mEF56AltS+iXW1/bPeu9A45bdcPbvrSur1JO0A==" saltValue="0g83J1iqaLIGklN2HCrlCg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -9347,13 +9347,13 @@
         <v>112</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I1" s="35" t="s">
         <v>218</v>
       </c>
       <c r="J1" s="35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K1" s="35" t="s">
         <v>93</v>
@@ -9371,7 +9371,7 @@
       <c r="G2" s="133"/>
       <c r="H2" s="133"/>
       <c r="I2" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J2" s="133"/>
       <c r="K2" s="133"/>
@@ -9387,7 +9387,7 @@
       <c r="F3" s="133"/>
       <c r="G3" s="133"/>
       <c r="H3" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I3" s="133"/>
       <c r="J3" s="133"/>
@@ -9400,7 +9400,7 @@
       <c r="B4" s="133"/>
       <c r="C4" s="133"/>
       <c r="D4" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4" s="133"/>
       <c r="F4" s="133"/>
@@ -9416,7 +9416,7 @@
       </c>
       <c r="B5" s="133"/>
       <c r="C5" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5" s="133"/>
       <c r="E5" s="133"/>
@@ -9440,10 +9440,10 @@
       <c r="H6" s="133"/>
       <c r="I6" s="133"/>
       <c r="J6" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K6" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -9452,14 +9452,14 @@
       </c>
       <c r="B7" s="133"/>
       <c r="C7" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D7" s="133"/>
       <c r="E7" s="133"/>
       <c r="F7" s="133"/>
       <c r="G7" s="133"/>
       <c r="H7" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I7" s="133"/>
       <c r="J7" s="133"/>
@@ -9471,14 +9471,14 @@
       </c>
       <c r="B8" s="133"/>
       <c r="C8" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D8" s="133"/>
       <c r="E8" s="133"/>
       <c r="F8" s="133"/>
       <c r="G8" s="133"/>
       <c r="H8" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I8" s="133"/>
       <c r="J8" s="133"/>
@@ -9490,14 +9490,14 @@
       </c>
       <c r="B9" s="133"/>
       <c r="C9" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" s="133"/>
       <c r="E9" s="133"/>
       <c r="F9" s="133"/>
       <c r="G9" s="133"/>
       <c r="H9" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I9" s="133"/>
       <c r="J9" s="133"/>
@@ -9509,7 +9509,7 @@
       </c>
       <c r="B10" s="133"/>
       <c r="C10" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D10" s="133"/>
       <c r="E10" s="133"/>
@@ -9526,7 +9526,7 @@
       </c>
       <c r="B11" s="133"/>
       <c r="C11" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D11" s="133"/>
       <c r="E11" s="133"/>
@@ -9543,7 +9543,7 @@
       </c>
       <c r="B12" s="133"/>
       <c r="C12" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D12" s="133"/>
       <c r="E12" s="133"/>
@@ -9560,7 +9560,7 @@
       </c>
       <c r="B13" s="133"/>
       <c r="C13" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D13" s="133"/>
       <c r="E13" s="133"/>
@@ -9577,7 +9577,7 @@
       </c>
       <c r="B14" s="133"/>
       <c r="C14" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D14" s="133"/>
       <c r="E14" s="133"/>
@@ -9585,7 +9585,7 @@
       <c r="G14" s="133"/>
       <c r="H14" s="133"/>
       <c r="I14" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J14" s="133"/>
       <c r="K14" s="133"/>
@@ -9596,7 +9596,7 @@
       </c>
       <c r="B15" s="133"/>
       <c r="C15" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D15" s="133"/>
       <c r="E15" s="133"/>
@@ -9604,7 +9604,7 @@
       <c r="G15" s="133"/>
       <c r="H15" s="133"/>
       <c r="I15" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J15" s="133"/>
       <c r="K15" s="133"/>
@@ -9615,17 +9615,17 @@
       </c>
       <c r="B16" s="133"/>
       <c r="C16" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D16" s="133"/>
       <c r="E16" s="133"/>
       <c r="F16" s="133"/>
       <c r="G16" s="133"/>
       <c r="H16" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I16" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J16" s="133"/>
       <c r="K16" s="133"/>
@@ -9636,7 +9636,7 @@
       </c>
       <c r="B17" s="133"/>
       <c r="C17" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D17" s="133"/>
       <c r="E17" s="133"/>
@@ -9649,16 +9649,16 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="52" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C18" s="133"/>
       <c r="D18" s="133"/>
       <c r="E18" s="133"/>
       <c r="F18" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G18" s="133"/>
       <c r="H18" s="133"/>
@@ -9668,16 +9668,16 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="52" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C19" s="133"/>
       <c r="D19" s="133"/>
       <c r="E19" s="133"/>
       <c r="F19" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G19" s="133"/>
       <c r="H19" s="133"/>
@@ -9687,16 +9687,16 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="52" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C20" s="133"/>
       <c r="D20" s="133"/>
       <c r="E20" s="133"/>
       <c r="F20" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G20" s="133"/>
       <c r="H20" s="133"/>
@@ -9715,10 +9715,10 @@
       <c r="F21" s="133"/>
       <c r="G21" s="133"/>
       <c r="H21" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I21" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J21" s="133"/>
       <c r="K21" s="133"/>
@@ -9728,13 +9728,13 @@
         <v>187</v>
       </c>
       <c r="B22" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C22" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D22" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E22" s="133"/>
       <c r="F22" s="133"/>
@@ -9750,7 +9750,7 @@
       </c>
       <c r="B23" s="133"/>
       <c r="C23" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D23" s="133"/>
       <c r="E23" s="133"/>
@@ -9758,7 +9758,7 @@
       <c r="G23" s="133"/>
       <c r="H23" s="133"/>
       <c r="I23" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J23" s="133"/>
       <c r="K23" s="133"/>
@@ -9774,7 +9774,7 @@
       <c r="F24" s="133"/>
       <c r="G24" s="133"/>
       <c r="H24" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I24" s="133"/>
       <c r="J24" s="133"/>
@@ -9791,7 +9791,7 @@
       <c r="F25" s="133"/>
       <c r="G25" s="133"/>
       <c r="H25" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I25" s="133"/>
       <c r="J25" s="133"/>
@@ -9803,7 +9803,7 @@
       </c>
       <c r="B26" s="133"/>
       <c r="C26" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D26" s="133"/>
       <c r="E26" s="133"/>
@@ -9820,7 +9820,7 @@
       </c>
       <c r="B27" s="133"/>
       <c r="C27" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D27" s="133"/>
       <c r="E27" s="133"/>
@@ -9828,7 +9828,7 @@
       <c r="G27" s="133"/>
       <c r="H27" s="133"/>
       <c r="I27" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J27" s="133"/>
       <c r="K27" s="133"/>
@@ -9844,7 +9844,7 @@
       <c r="F28" s="133"/>
       <c r="G28" s="133"/>
       <c r="H28" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I28" s="133"/>
       <c r="J28" s="133"/>
@@ -9855,11 +9855,11 @@
         <v>194</v>
       </c>
       <c r="B29" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C29" s="133"/>
       <c r="D29" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E29" s="133"/>
       <c r="F29" s="133"/>
@@ -9877,7 +9877,7 @@
       <c r="C30" s="133"/>
       <c r="D30" s="133"/>
       <c r="E30" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F30" s="133"/>
       <c r="G30" s="133"/>
@@ -9896,10 +9896,10 @@
       <c r="E31" s="133"/>
       <c r="F31" s="133"/>
       <c r="G31" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H31" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I31" s="133"/>
       <c r="J31" s="133"/>
@@ -9915,10 +9915,10 @@
       <c r="E32" s="133"/>
       <c r="F32" s="133"/>
       <c r="G32" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H32" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I32" s="133"/>
       <c r="J32" s="133"/>
@@ -9934,10 +9934,10 @@
       <c r="E33" s="133"/>
       <c r="F33" s="133"/>
       <c r="G33" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H33" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I33" s="133"/>
       <c r="J33" s="133"/>
@@ -9953,10 +9953,10 @@
       <c r="E34" s="133"/>
       <c r="F34" s="133"/>
       <c r="G34" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H34" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I34" s="133"/>
       <c r="J34" s="133"/>
@@ -9972,10 +9972,10 @@
       <c r="E35" s="133"/>
       <c r="F35" s="133"/>
       <c r="G35" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H35" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I35" s="133"/>
       <c r="J35" s="133"/>
@@ -9991,10 +9991,10 @@
       <c r="E36" s="133"/>
       <c r="F36" s="133"/>
       <c r="G36" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H36" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I36" s="133"/>
       <c r="J36" s="133"/>
@@ -10011,7 +10011,7 @@
       <c r="F37" s="133"/>
       <c r="G37" s="133"/>
       <c r="H37" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I37" s="133"/>
       <c r="J37" s="133"/>
@@ -10022,24 +10022,24 @@
         <v>202</v>
       </c>
       <c r="B38" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C38" s="133"/>
       <c r="D38" s="133"/>
       <c r="E38" s="133"/>
       <c r="F38" s="133"/>
       <c r="G38" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H38" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I38" s="133"/>
       <c r="J38" s="133"/>
       <c r="K38" s="133"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="e7fnbsYPcdZS/ocfx4wHgLIdNwCTApmqeIbzwfTF3ibd4oo3NrKBhfxplcpbQrtBTxC8jvUH7QnkyvYrn6kPrA==" saltValue="2axY87ZkqWQWCu999deT2A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="u7tNxRqhRDomvm6szgd0lC74lt3f6fUT1eS205Ci6NvbIhH5Pkk3z6iRMm3XKvqFiReBCYwtiz+NpfH5QxtUxg==" saltValue="ZTtCZuyf2HquKk+ZMz121Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10093,13 +10093,13 @@
         <v>112</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I1" s="35" t="s">
         <v>218</v>
       </c>
       <c r="J1" s="35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K1" s="35" t="s">
         <v>93</v>
@@ -10110,25 +10110,25 @@
         <v>133</v>
       </c>
       <c r="B2" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D2" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F2" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G2" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H2" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I2" s="133"/>
       <c r="J2" s="133"/>
@@ -10139,25 +10139,25 @@
         <v>121</v>
       </c>
       <c r="B3" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D3" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F3" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G3" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H3" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I3" s="133"/>
       <c r="J3" s="133"/>
@@ -10168,25 +10168,25 @@
         <v>122</v>
       </c>
       <c r="B4" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D4" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F4" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G4" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H4" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I4" s="133"/>
       <c r="J4" s="133"/>
@@ -10197,25 +10197,25 @@
         <v>123</v>
       </c>
       <c r="B5" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F5" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G5" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H5" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I5" s="133"/>
       <c r="J5" s="133"/>
@@ -10226,25 +10226,25 @@
         <v>124</v>
       </c>
       <c r="B6" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D6" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F6" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G6" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H6" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I6" s="133"/>
       <c r="J6" s="133"/>
@@ -10256,17 +10256,17 @@
       </c>
       <c r="B7" s="133"/>
       <c r="C7" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D7" s="133"/>
       <c r="E7" s="133"/>
       <c r="F7" s="133"/>
       <c r="G7" s="133"/>
       <c r="H7" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I7" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J7" s="133"/>
       <c r="K7" s="133"/>
@@ -10277,17 +10277,17 @@
       </c>
       <c r="B8" s="133"/>
       <c r="C8" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D8" s="133"/>
       <c r="E8" s="133"/>
       <c r="F8" s="133"/>
       <c r="G8" s="133"/>
       <c r="H8" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I8" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J8" s="133"/>
       <c r="K8" s="133"/>
@@ -10298,17 +10298,17 @@
       </c>
       <c r="B9" s="133"/>
       <c r="C9" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" s="133"/>
       <c r="E9" s="133"/>
       <c r="F9" s="133"/>
       <c r="G9" s="133"/>
       <c r="H9" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I9" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J9" s="133"/>
       <c r="K9" s="133"/>
@@ -10319,17 +10319,17 @@
       </c>
       <c r="B10" s="133"/>
       <c r="C10" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D10" s="133"/>
       <c r="E10" s="133"/>
       <c r="F10" s="133"/>
       <c r="G10" s="133"/>
       <c r="H10" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I10" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J10" s="133"/>
       <c r="K10" s="133"/>
@@ -10340,7 +10340,7 @@
       </c>
       <c r="B11" s="133"/>
       <c r="C11" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D11" s="133"/>
       <c r="E11" s="133"/>
@@ -10349,10 +10349,10 @@
       <c r="H11" s="133"/>
       <c r="I11" s="133"/>
       <c r="J11" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K11" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
@@ -10361,7 +10361,7 @@
       </c>
       <c r="B12" s="133"/>
       <c r="C12" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D12" s="133"/>
       <c r="E12" s="133"/>
@@ -10371,7 +10371,7 @@
       <c r="I12" s="133"/>
       <c r="J12" s="133"/>
       <c r="K12" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -10380,7 +10380,7 @@
       </c>
       <c r="B13" s="133"/>
       <c r="C13" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D13" s="133"/>
       <c r="E13" s="133"/>
@@ -10390,7 +10390,7 @@
       <c r="I13" s="133"/>
       <c r="J13" s="133"/>
       <c r="K13" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -10399,7 +10399,7 @@
       </c>
       <c r="B14" s="133"/>
       <c r="C14" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D14" s="133"/>
       <c r="E14" s="133"/>
@@ -10409,11 +10409,11 @@
       <c r="I14" s="133"/>
       <c r="J14" s="133"/>
       <c r="K14" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="gAhe5OFuhxGCJlbkIcLMKzEUbgg+PGDvkNLrwDIiHrjAMsUiyIgyCv6eaz3RSBYi96xVp6/xZxHr64fBTHI89Q==" saltValue="wAyF7y15tDazDqQLykGVHg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="XUShlBSAfqlhdUkd5DIqML4pcSU+JdjTaRiqNc7j76gP9A9DA2hX6stiNkisWNQzez+gtMoJdDvTw34WNoYoYA==" saltValue="bdmAmC7jrj3zCOx41iS9jA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10468,7 +10468,7 @@
         <v>221</v>
       </c>
       <c r="B2" s="137" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C2" s="35" t="s">
         <v>159</v>
@@ -10829,7 +10829,7 @@
         <v>222</v>
       </c>
       <c r="B19" s="137" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C19" s="35" t="s">
         <v>159</v>
@@ -11187,7 +11187,7 @@
         <v>223</v>
       </c>
       <c r="B36" s="137" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C36" s="35" t="s">
         <v>159</v>
@@ -11534,7 +11534,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="hlmrmC6hWTT9aT31aFXzyLn47dhKCAuiSsaAMTmbptpqFl1Zrs0Qh1JcYY3uRuzvcQvb0PC34ykdd3mISyjMtw==" saltValue="uq1kE6P3rfaH72ZdAAugpg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="YAAYwqTg14l+KQ0f1zJUC6usgGIfWSuc8vas/TKvGCAfyiwtQ8hpek5anqNiBFSmqZA/4li1e81tqXF7FIGaDw==" saltValue="UeIbqxbRSHcYd8C7rEoMCw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="B2:B4"/>
@@ -12642,7 +12642,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="+9mV19wzI/xTlXcpvBerPJlozguWZvKi1bwaKVI1EgIKsVIGTuh5la+IC9KPTfvbJ3vShxJc+1yuykRdv39gAw==" saltValue="GcL9L79nmaa70vhGLD16/Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="zAKEcOBSgum6IwCYjPFunhjX+2wtukbmxQTCJYaI5qlGi3Gr0ILeRSobJoermf3gxTxI6q9wPNxzwrU29//XtQ==" saltValue="HYD7GK4CXnYxLQ3lzw4Ahw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <conditionalFormatting sqref="B2:I40">
     <cfRule type="expression" dxfId="0" priority="9">
       <formula>$A2=""</formula>
@@ -12682,16 +12682,16 @@
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="101"/>
       <c r="C2" s="102" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D2" s="103" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E2" s="103" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F2" s="103" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12706,7 +12706,7 @@
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="107" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C4" s="135">
         <v>1</v>
@@ -12723,7 +12723,7 @@
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="107" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C5" s="135">
         <v>1</v>
@@ -12740,7 +12740,7 @@
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="107" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C6" s="135">
         <v>1</v>
@@ -12757,7 +12757,7 @@
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="107" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C7" s="135">
         <v>1</v>
@@ -13044,7 +13044,7 @@
       <c r="B28" s="40"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="HCZ0cQVu0vNRRkmbgymsnblwPp65X0OEw9NzJBQp/tKMdXADkXjkjdNsGNN2cBpezhJt5VzcGSfUCsCFRfpJ4Q==" saltValue="4Mt67mquEdxZ4BS6liybfw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="G5Gkv8qq2e7IX5tWkbvSzaq0g+uQpHM/6nrmFR0vuVwPGj2UpCFVI9ZF0lFAs1mSIg6NG5B2BfmPgu4ifPYzEg==" saltValue="3D/mB6NeJA2dKIenR0HW1Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -13117,7 +13117,7 @@
         <v>112</v>
       </c>
       <c r="C3" s="43" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3" s="135">
         <v>1</v>
@@ -13232,7 +13232,7 @@
         <v>113</v>
       </c>
       <c r="C7" s="43" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" s="135">
         <v>1</v>
@@ -13347,7 +13347,7 @@
         <v>115</v>
       </c>
       <c r="C11" s="43" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11" s="135">
         <v>1</v>
@@ -13462,7 +13462,7 @@
         <v>116</v>
       </c>
       <c r="C15" s="43" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D15" s="135">
         <v>1</v>
@@ -13577,7 +13577,7 @@
         <v>114</v>
       </c>
       <c r="C19" s="43" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D19" s="135">
         <v>1</v>
@@ -13692,7 +13692,7 @@
         <v>120</v>
       </c>
       <c r="C23" s="43" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D23" s="135">
         <v>1</v>
@@ -13847,7 +13847,7 @@
         <v>112</v>
       </c>
       <c r="C30" s="43" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D30" s="135">
         <v>1</v>
@@ -13962,7 +13962,7 @@
         <v>113</v>
       </c>
       <c r="C34" s="43" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D34" s="135">
         <v>1</v>
@@ -14077,7 +14077,7 @@
         <v>115</v>
       </c>
       <c r="C38" s="43" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D38" s="135">
         <v>1</v>
@@ -14192,7 +14192,7 @@
         <v>116</v>
       </c>
       <c r="C42" s="43" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D42" s="135">
         <v>1</v>
@@ -14307,7 +14307,7 @@
         <v>114</v>
       </c>
       <c r="C46" s="43" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D46" s="135">
         <v>1</v>
@@ -14422,7 +14422,7 @@
         <v>120</v>
       </c>
       <c r="C50" s="43" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D50" s="135">
         <v>1</v>
@@ -15947,7 +15947,7 @@
       <c r="A111" s="40"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="0frD7vLoOH4eucxG0NuzM4YbTHRsOnm4smDaFRGMFC7nV+Ys0yU9zLtC/KvAZFBWAxCtma9cQ5BhS7sTI9ETQA==" saltValue="/sPv+aHA8+stMa6xBfMa7g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="mwSu2GgS3s/iIUOWYKKB2AcDjwiC3hJrRbUpphm3rji1pEx8L9iKDGwWGngsE8meGhJEXhRpJuJNtPbxvpd9Ng==" saltValue="EmjpAdOzEwMj/oydmuiqmg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -16007,7 +16007,7 @@
         <v>249</v>
       </c>
       <c r="C3" s="136" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" s="136">
         <v>45</v>
@@ -16256,7 +16256,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="066uLYfUXFPeJH1ezVf6w/BUb4oq5WMXGUCo19VmJQ7PkWZE0I9D8mYAw0omvND/6lU6Z63DzIRplyxzPh+qgQ==" saltValue="TVJ81z5yoerqD21Oxojvxg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="YGpdrGMsf+weOagly0hntRt0SsOvWrhMs3AkxkhZEFMZme/vXgUO7400HSTuDK4Iz5x4Cc1VYPkCMdoCtQkFEw==" saltValue="uOGxRy1Z2F5C4MouJOoqlA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -16289,16 +16289,16 @@
       </c>
       <c r="B1" s="40"/>
       <c r="C1" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="F1" s="119" t="s">
         <v>68</v>
-      </c>
-      <c r="E1" s="40" t="s">
-        <v>67</v>
-      </c>
-      <c r="F1" s="119" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -16536,7 +16536,7 @@
       <c r="A20" s="90"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="1zOSljpB9iq0uZ/Phj0RimIQsiv2B6I1QenTHfytc48KF+rPnDSivZWTZIKlm50HJOMd1EDEa2BvO4TfxZhSHw==" saltValue="pRQuXULye+NMq2gYDqxnZQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="u+2XHF00H8Kg4YwNEdVvoB8rwhFJFkYAu7N1e6qtBGeZFYLgJM8XH++tU4IjeTn/nUJO4iiPmYQkfFGyT5k81g==" saltValue="EMqbP5sKSzqcp9HANiVQlw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -17332,7 +17332,7 @@
       <c r="B28" s="43"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="WX1ZNwuKppgs+9RxLqtQI25mwByEuK8KRK89DYAKnGa1DAo1YWdmc73EGy/agNZmNsBHJBkdCT452sMUVv17aQ==" saltValue="seuGdtpvffBiDOqkiHlkGw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="BjW6b+fChbnm5j70+oQ3rVKtBxtMrE+c9xPdNKQNSpK5cKxvcVI0oFtwZx7+iJL12e3mplOrhXytm81MFKZZgA==" saltValue="/wYuoSkdvGlIZ8GDCwMSBQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -17433,7 +17433,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="S4vp7EyeyF4eWaoF/MoDZKFEuqDaTo22f6PrI/uZgJnJC5l94trqWoHcIArd/kXcG9qUPIjRw8tv/Yy/OXgY4w==" saltValue="aAHcbXIDdAAF7SKWW8IJGQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="HzsGCoCy5Yu7sn3Bu7u54hMQVCgD3Xz52YoztMVZyAn2p2u4XLLKLujxVWgGUMTw7rJu1j2x2SStdjRurtI8Ew==" saltValue="t64RQVzWGRLPpi8yuoAuzg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -17471,7 +17471,7 @@
         <v>264</v>
       </c>
       <c r="C1" s="125" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D1" s="40" t="s">
         <v>133</v>
@@ -18563,7 +18563,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="zGdSrlPXqJrlqtuIcKOlSTgjoLs8n8mZdGz/Jq8YcWPBE2VO/Em4cOSeHsZjaBGvDePyWgG6cBcMcaIjTrVmLw==" saltValue="vpI0DPe4Aeyehc56zO+z8g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="CZz15x6VE/9JES6M9UvnYLRJQb6f2QHVnqGFSiOnbnccip88eEiD6suoHnIfx5sM0fjNdT8xw6hkwg+V9DjH1w==" saltValue="bSrNhXk+kjRDKMtxqTqlSA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -18740,7 +18740,7 @@
       <c r="H7" s="128"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="/oVwGPsGwJ0Dei674I+b29KNf1sDlimv/co8xZ6VDp+3dQIMKII84nyRzxsDT9OWuDKo5iIunJWdc221ixGKpA==" saltValue="doFjsPAd91oliXLvMHmfMg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="L9ZLkqIQpNlGFoxvaOc8f0eOnc2zF6qbnznLZkKMEjqcvuWCv1YBC+VW5VcIcrJgC99OBHFicNXbmkX2osuSGg==" saltValue="Coism/gVMeASMXfJYZVRcA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -18779,7 +18779,7 @@
         <v>102</v>
       </c>
       <c r="B2" s="41" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" s="41" t="s">
         <v>133</v>
@@ -18855,7 +18855,7 @@
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C11" s="70">
         <f>SUM(C3:C10)</f>
@@ -18878,7 +18878,7 @@
         <v>111</v>
       </c>
       <c r="B13" s="41" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" s="23" t="s">
         <v>121</v>
@@ -19049,7 +19049,7 @@
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C23" s="70">
         <f>SUM(C14:C22)</f>
@@ -19081,13 +19081,13 @@
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B25" s="41" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C25" s="41" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D25" s="24"/>
       <c r="E25" s="24"/>
@@ -19169,7 +19169,7 @@
     </row>
     <row r="35" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C35" s="70">
         <f>SUM(C26:C34)</f>
@@ -19177,7 +19177,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="DNocr1rQbVHMeRTiohQiFlqTO5nCvjMKqKPj5wzS+bB44FYoNEfjaywnRBP9wmEHD7yjqgSvgSxN7PHcE7x+qg==" saltValue="b4LFOXdSoZrDhLxKs+H7/w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="3DpPWT37UrMlRTlVTsV3kHQqVu+uCw6dJDVcrnH03+GXuekbVqx8S0uwD2StmmwgHoy8RNRPOfFm7QUVseTUPA==" saltValue="7isbelzyy7hlIF+zGvXBJQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="69" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -19604,7 +19604,7 @@
       <c r="G17" s="8"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="r72nAbkY3UYp1eMBs8rkoEIdi+pcYQ+JCaXVCY0zPrK65eqbFE0e1FSNBmSSdNkh/U/ypVynoRkXx+CiLDzx2g==" saltValue="TwmU9wfKCCZ95G4CIOe4NQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="qIN4+72KOdzunttYs3nZchkI6A5sPNO7wsdG2p/1ZBKo+eJPuf21W+e6QvUu6KzPVqvnKSzd4L1a7DgLajI1PQ==" saltValue="yPSoielEeKqIhJTy8fyT/A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
@@ -19741,7 +19741,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="VdANo6wg6PLwLSI8Zf3OuD6gFkKwM7dlaukyLhgElNUg82gz8MamgdRSjAufPuW8xsAHlg2W4EeXz/zOX/7zYQ==" saltValue="ccZj3H8+MjQG3CJCxuom9w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="eY+04IUBeiyaxCObLs0fvVR2korsKqr36qxfZ4icTqmHrSZ8FcMOIb+Q+CnTCB2XaiHXtAYdKWW+N6n7rjwKIw==" saltValue="rvFYyd/BSVmQbVLKvpoSVA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -19767,7 +19767,7 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>3</v>
@@ -19817,10 +19817,10 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C2" s="28">
         <f>(('Dist. de l''état nutritionnel'!C4+'Dist. de l''état nutritionnel'!C5)*(1/60)+('Dist. de l''état nutritionnel'!D4+'Dist. de l''état nutritionnel'!D5)*(5/60)+('Dist. de l''état nutritionnel'!E4+'Dist. de l''état nutritionnel'!E5)*(6/60)+('Dist. de l''état nutritionnel'!F4+'Dist. de l''état nutritionnel'!F5)*(12/60)+('Dist. de l''état nutritionnel'!G4+'Dist. de l''état nutritionnel'!G5)*(36/60))</f>
@@ -19847,10 +19847,10 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C4" s="28">
         <f>(('Dist. de l''état nutritionnel'!C10+'Dist. de l''état nutritionnel'!C11)*(1/60)+('Dist. de l''état nutritionnel'!D10+'Dist. de l''état nutritionnel'!D11)*(5/60)+('Dist. de l''état nutritionnel'!E10+'Dist. de l''état nutritionnel'!E11)*(6/60)+('Dist. de l''état nutritionnel'!F10+'Dist. de l''état nutritionnel'!F11)*(12/60)+('Dist. de l''état nutritionnel'!G10+'Dist. de l''état nutritionnel'!G11)*(36/60))</f>
@@ -19879,10 +19879,10 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C6" s="28">
         <f>'Dist. de l''état nutritionnel'!C15*(1/60)+'Dist. de l''état nutritionnel'!D15*(5/60)+'Dist. de l''état nutritionnel'!E15*(6/60)+'Dist. de l''état nutritionnel'!F15*(12/60)+'Dist. de l''état nutritionnel'!G15*(36/60)</f>
@@ -19906,7 +19906,7 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B7" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C7" s="28">
         <f>('Dist. de l''état nutritionnel'!H15*('Projections démographiques'!C2/SUM('Projections démographiques'!C2:F2))+'Dist. de l''état nutritionnel'!I15*('Projections démographiques'!D2/SUM('Projections démographiques'!C2:F2))+'Dist. de l''état nutritionnel'!J15*('Projections démographiques'!E2/SUM('Projections démographiques'!C2:F2))+'Dist. de l''état nutritionnel'!K15*('Projections démographiques'!F2/SUM('Projections démographiques'!C2:F2)))</f>
@@ -19930,7 +19930,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B8" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C8" s="28">
         <f>('Dist. de l''état nutritionnel'!L15*('Projections démographiques'!C2/SUM('Projections démographiques'!C2:F2))+'Dist. de l''état nutritionnel'!M15*('Projections démographiques'!D2/SUM('Projections démographiques'!C2:F2))+'Dist. de l''état nutritionnel'!N15*('Projections démographiques'!E2/SUM('Projections démographiques'!C2:F2))+'Dist. de l''état nutritionnel'!O15*('Projections démographiques'!F2/SUM('Projections démographiques'!C2:F2)))</f>
@@ -19956,10 +19956,10 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10" s="16" t="s">
         <v>85</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>86</v>
       </c>
       <c r="C10" s="28">
         <f>('Dist. l''allaitement maternel'!C2*(1/6)+'Dist. l''allaitement maternel'!D2*(5/6))</f>
@@ -19983,7 +19983,7 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B11" s="34" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C11" s="28">
         <f>(('Dist. l''allaitement maternel'!E4)*(6/18)+('Dist. l''allaitement maternel'!F4)*(12/18))</f>
@@ -20007,10 +20007,10 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C13" s="28">
         <f>U5_mortality/1000</f>
@@ -20034,7 +20034,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B14" s="16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C14" s="28">
         <f>maternal_mortality/1000</f>
@@ -20057,7 +20057,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="fQLDbYYylUtGwm3IMgLorEDWn0TikQol/atCeNznNJ9CsW2LBejEVTW9HbA0mMBqJJtN+KOHTLcfAhtemY/Wng==" saltValue="AouqVbya16sIVSQOYBI1Fg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="gvAUFA0XM5MixZAKqGIaDFf4IGLa+S6GYnfbzvMow8ytIw8/ZR3Ahzr+02IMVJVh3TKfMpCodcOQMQqSsBhGfw==" saltValue="QjkkP5m6UV9R+O23GCkNFQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="193" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -20101,10 +20101,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="49" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C2" s="80"/>
       <c r="D2" s="80"/>
@@ -20180,10 +20180,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="49" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" s="46" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C9" s="80"/>
       <c r="D9" s="80" t="b">
@@ -20250,19 +20250,19 @@
       <c r="C14" s="45"/>
       <c r="D14" s="44"/>
       <c r="E14" s="80" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="49" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" s="46" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C16" s="80"/>
       <c r="D16" s="80" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E16" s="57" t="str">
         <f>IF(E$7="","",E$7)</f>
@@ -20276,7 +20276,7 @@
       </c>
       <c r="C17" s="80"/>
       <c r="D17" s="80" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E17" s="57" t="str">
         <f>IF(E$7="","",E$7)</f>
@@ -20290,7 +20290,7 @@
       </c>
       <c r="C18" s="80"/>
       <c r="D18" s="80" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E18" s="57" t="str">
         <f>IF(E$7="","",E$7)</f>
@@ -20304,7 +20304,7 @@
       </c>
       <c r="C19" s="80"/>
       <c r="D19" s="80" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E19" s="57" t="str">
         <f>IF(E$7="","",E$7)</f>
@@ -20318,7 +20318,7 @@
       </c>
       <c r="C20" s="80"/>
       <c r="D20" s="80" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E20" s="57" t="str">
         <f>IF(E$7="","",E$7)</f>
@@ -20335,7 +20335,7 @@
       <c r="E21" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="RXCimge2+2VB8IbshMyrN7e2T7frqLk88AC0gGHAqsuzZKDl4qZT/jJL9Epgqexi8KnXw9Sic11W6M1WKnEEMQ==" saltValue="I+oHg8CdLMKtZZxO2faDFw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Zi8uKAHs4uorPOmRZIojaC5Dquj9o5X5E2QB+7suyWwPTppvOOnhgyT6EWKHhU98YWifT2bsh5pyBbQafm9drA==" saltValue="HNex2TfYgUdjC8HrvDugIQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -20368,7 +20368,7 @@
         <v>165</v>
       </c>
       <c r="C1" s="61" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D1" s="61" t="s">
         <v>166</v>
@@ -20399,7 +20399,7 @@
       <c r="D3" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Ue/IlcJxRK7fxvc21ac+mRjMD2YANf6iYiU+7HVYjuNgTSmfy1eUf9ZbVLv1W3GyKXipu5cMheTNehYQgaUezQ==" saltValue="bLZ6WaHHy4qFx/nrQyCiMw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="3nYD7qaZrcidiT5h5a8479TfqDtMKTspqh65I390mjv/iuQYbByICGPw7tVIjkL010N5M9KYLJPkFY/zxBnG/Q==" saltValue="jXqn9P/dncwI/wa9K4YCFg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -20717,7 +20717,7 @@
     </row>
     <row r="18" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="52" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18" s="81">
         <v>0</v>
@@ -20734,7 +20734,7 @@
     </row>
     <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="52" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" s="81">
         <v>0</v>
@@ -20751,7 +20751,7 @@
     </row>
     <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="52" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" s="81">
         <v>0</v>
@@ -21077,7 +21077,7 @@
       <c r="F39" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="17kINMnY9InJI6bPnqReZ+voy9dcC+PIdma6cAzq3qCufwjQeoinIsIUijDekK+qy71HGlSSfu99mU0ds2xeyA==" saltValue="Iw7TrtZEHamCKb/aazG23g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="d8oAAz79wkbJJeQfNsfaRnd/1+VeEQLyYvhCnGLSkKahfMV3ySVtmM/KJGze+oEq0jvqlyvfBQ2bF3MI1CZkJA==" saltValue="I/sze94wiyxoN231ewD9zg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D38">
     <sortCondition ref="A2:A38"/>
   </sortState>

--- a/inputs/fr/demo_demo_input.xlsx
+++ b/inputs/fr/demo_demo_input.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aimee.altermatt\Documents\GitHub\Nutrition\inputs\fr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\romesh\projects\nutrition\inputs\fr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{13AF9014-BB2B-4C36-8DDE-858091348552}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{697713BE-80CC-434D-9312-2DB36E4AE0D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="30" windowWidth="29040" windowHeight="15840" tabRatio="885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="735" yWindow="7020" windowWidth="29265" windowHeight="12300" tabRatio="885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Donnees pop de l'annee de ref" sheetId="1" r:id="rId1"/>
@@ -4741,14 +4741,14 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.6328125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="38.6328125" style="16" customWidth="1"/>
-    <col min="3" max="16384" width="14.453125" style="12"/>
+    <col min="1" max="1" width="27.5703125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="38.5703125" style="16" customWidth="1"/>
+    <col min="3" max="16384" width="14.42578125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -4759,14 +4759,14 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="41"/>
       <c r="C2" s="41"/>
     </row>
-    <row r="3" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="7" t="s">
         <v>19</v>
@@ -4775,7 +4775,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="9" t="s">
         <v>20</v>
@@ -4784,17 +4784,17 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="41"/>
       <c r="C5" s="41"/>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="16" t="s">
         <v>22</v>
       </c>
@@ -4802,7 +4802,7 @@
         <v>9862402</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="7" t="s">
         <v>23</v>
       </c>
@@ -4810,7 +4810,7 @@
         <v>0.28199999999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="9" t="s">
         <v>24</v>
       </c>
@@ -4818,7 +4818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="9" t="s">
         <v>25</v>
       </c>
@@ -4826,7 +4826,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="7" t="s">
         <v>26</v>
       </c>
@@ -4834,7 +4834,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="7" t="s">
         <v>27</v>
       </c>
@@ -4842,7 +4842,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="7" t="s">
         <v>28</v>
       </c>
@@ -4850,17 +4850,17 @@
         <v>0.221</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="12"/>
     </row>
-    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B15" s="19"/>
       <c r="C15" s="3"/>
     </row>
-    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="9" t="s">
         <v>30</v>
       </c>
@@ -4868,7 +4868,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="9" t="s">
         <v>31</v>
       </c>
@@ -4876,7 +4876,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="9" t="s">
         <v>32</v>
       </c>
@@ -4884,7 +4884,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="9" t="s">
         <v>33</v>
       </c>
@@ -4892,7 +4892,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="9" t="s">
         <v>34</v>
       </c>
@@ -4901,15 +4901,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="12"/>
     </row>
-    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="12" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="20" t="s">
         <v>36</v>
       </c>
@@ -4917,7 +4917,7 @@
         <v>0.127</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="20" t="s">
         <v>37</v>
       </c>
@@ -4925,7 +4925,7 @@
         <v>0.45200000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="20" t="s">
         <v>38</v>
       </c>
@@ -4933,7 +4933,7 @@
         <v>0.33400000000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="20" t="s">
         <v>39</v>
       </c>
@@ -4941,18 +4941,18 @@
         <v>8.6999999999999994E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="20"/>
       <c r="C27" s="20"/>
     </row>
-    <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
         <v>40</v>
       </c>
       <c r="B28" s="20"/>
       <c r="C28" s="20"/>
     </row>
-    <row r="29" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="30" t="s">
         <v>41</v>
       </c>
@@ -4960,7 +4960,7 @@
         <v>0.20799999999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="30" t="s">
         <v>42</v>
       </c>
@@ -4968,7 +4968,7 @@
         <v>0.63700000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="30" t="s">
         <v>43</v>
       </c>
@@ -4976,7 +4976,7 @@
         <v>0.11899999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="30" t="s">
         <v>44</v>
       </c>
@@ -4984,7 +4984,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B33" s="32" t="s">
         <v>45</v>
       </c>
@@ -4993,20 +4993,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="12" t="s">
         <v>47</v>
       </c>
       <c r="B36" s="7"/>
       <c r="C36" s="13"/>
     </row>
-    <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="42" t="s">
         <v>48</v>
       </c>
@@ -5014,7 +5014,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="16" t="s">
         <v>49</v>
       </c>
@@ -5024,7 +5024,7 @@
       <c r="D38" s="17"/>
       <c r="E38" s="18"/>
     </row>
-    <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="16" t="s">
         <v>50</v>
       </c>
@@ -5034,7 +5034,7 @@
       <c r="D39" s="17"/>
       <c r="E39" s="17"/>
     </row>
-    <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="16" t="s">
         <v>51</v>
       </c>
@@ -5042,7 +5042,7 @@
         <v>4.01</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="16" t="s">
         <v>52</v>
       </c>
@@ -5050,7 +5050,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="42" t="s">
         <v>53</v>
       </c>
@@ -5058,16 +5058,16 @@
         <v>22.4</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D43" s="17"/>
     </row>
-    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="12" t="s">
         <v>54</v>
       </c>
       <c r="D44" s="17"/>
     </row>
-    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="16" t="s">
         <v>55</v>
       </c>
@@ -5076,7 +5076,7 @@
       </c>
       <c r="D45" s="17"/>
     </row>
-    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="16" t="s">
         <v>56</v>
       </c>
@@ -5085,7 +5085,7 @@
       </c>
       <c r="D46" s="17"/>
     </row>
-    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="16" t="s">
         <v>57</v>
       </c>
@@ -5095,7 +5095,7 @@
       <c r="D47" s="17"/>
       <c r="E47" s="18"/>
     </row>
-    <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="16" t="s">
         <v>58</v>
       </c>
@@ -5106,16 +5106,16 @@
       <c r="D48" s="17"/>
       <c r="E48" s="17"/>
     </row>
-    <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D49" s="17"/>
     </row>
-    <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="12" t="s">
         <v>59</v>
       </c>
       <c r="D50" s="17"/>
     </row>
-    <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="16" t="s">
         <v>60</v>
       </c>
@@ -5124,7 +5124,7 @@
       </c>
       <c r="D51" s="17"/>
     </row>
-    <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="16" t="s">
         <v>61</v>
       </c>
@@ -5132,7 +5132,7 @@
         <v>1.66</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="16" t="s">
         <v>62</v>
       </c>
@@ -5140,7 +5140,7 @@
         <v>5.64</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="16" t="s">
         <v>63</v>
       </c>
@@ -5148,7 +5148,7 @@
         <v>5.43</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="16" t="s">
         <v>64</v>
       </c>
@@ -5156,12 +5156,12 @@
         <v>1.91</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="12" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="7" t="s">
         <v>66</v>
       </c>
@@ -5169,7 +5169,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="16" t="s">
         <v>67</v>
       </c>
@@ -5177,7 +5177,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="16" t="s">
         <v>68</v>
       </c>
@@ -5185,7 +5185,7 @@
         <v>4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="16" t="s">
         <v>69</v>
       </c>
@@ -5193,11 +5193,11 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="BJRrJo6/qGTFu4Zx1e+eFQeQU5CXVNAGENbAgJKJnxaD6MlsDEfcGNcRmOwb89RtZhRC7BxHndthC5GtZBC3ow==" saltValue="SugLKT0KcC7bCdhOzTHqyA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="KfkE4VnC+si07L62WHXlkQUSIByB3eATkfJKZ7QD7FMTlGHQU0VLWm090tf/sWw+VnhLmQuG55jADw/h0c2xcw==" saltValue="7fuOHmalrbR28vwYBXclgg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
 </worksheet>
@@ -5214,89 +5214,89 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.08984375" style="35" customWidth="1"/>
-    <col min="2" max="16384" width="11.453125" style="35"/>
+    <col min="1" max="1" width="30.140625" style="35" customWidth="1"/>
+    <col min="2" max="16384" width="11.42578125" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="48" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="48" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="48" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="48" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="48" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="48" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="48" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="48" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="48"/>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="48"/>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="48"/>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="48"/>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" s="48"/>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" s="48"/>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" s="48"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="48"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="48"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="48"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="5RSE7xp107z9WI1g+Hb8We4xupM4tmaTUhtLVwHR4sUZmZUCsNGVB16dbHu2P8tI+xvw5SjxcGJHYO9EM4M8MA==" saltValue="LAJpC19Rg6cJlWHtho1k7Q==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="NRgh7r3PTISdPF4ScbJhTQZiEHlXk+f+OZk8LpbLorti6v3pFGzCQgotM/QghIIoni/rqhx3aHBzygDP7O03vw==" saltValue="zsToC2I8KU6KLWVacGGHgA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -5313,9 +5313,9 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -5335,7 +5335,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>90</v>
       </c>
@@ -5360,7 +5360,7 @@
         <v>1.91</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>196</v>
       </c>
@@ -5385,7 +5385,7 @@
         <v>5.8059717622450747E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>195</v>
       </c>
@@ -5411,7 +5411,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="EKnw5uRjptRdCmaEFeSd+IAzRAlbZaIiCKqzuSwYMjt5fJhe/BHkUyrgJVvjGHIWB2Q7CShTL/N3HE/ty80+9w==" saltValue="BYI2vvMi7e+Jp6cEUcEl5A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="9z5Myxew9wkVQyvug07ElcuSYsQ40FJDyk1HwjWzozR/vhrySdnzordEt6V5h7ZaKeGY4tZa5Dk0/jlM4F1a4Q==" saltValue="lEj70pQbFDryc7bli/9Ayw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -5428,19 +5428,19 @@
       <selection activeCell="C7" sqref="C7:G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.90625" customWidth="1"/>
-    <col min="3" max="3" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.85546875" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.90625" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>198</v>
       </c>
@@ -5487,7 +5487,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>89</v>
       </c>
@@ -5538,7 +5538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="7" t="s">
         <v>164</v>
       </c>
@@ -5582,7 +5582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="7" t="s">
         <v>176</v>
       </c>
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="11" t="s">
         <v>177</v>
       </c>
@@ -5672,7 +5672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="11" t="s">
         <v>181</v>
       </c>
@@ -5719,7 +5719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="33" t="s">
         <v>183</v>
       </c>
@@ -5768,7 +5768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="11" t="s">
         <v>184</v>
       </c>
@@ -5814,7 +5814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="11" t="s">
         <v>154</v>
       </c>
@@ -5862,7 +5862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="11" t="s">
         <v>185</v>
       </c>
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="33" t="s">
         <v>191</v>
       </c>
@@ -5955,7 +5955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="11" t="s">
         <v>192</v>
       </c>
@@ -5999,10 +5999,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="33"/>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>103</v>
       </c>
@@ -6053,7 +6053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="11" t="s">
         <v>162</v>
@@ -6098,7 +6098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="11" t="s">
         <v>173</v>
@@ -6147,7 +6147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="11" t="s">
         <v>174</v>
@@ -6196,7 +6196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="33" t="s">
         <v>2</v>
       </c>
@@ -6244,7 +6244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="11" t="s">
         <v>179</v>
       </c>
@@ -6288,7 +6288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="11" t="s">
         <v>180</v>
       </c>
@@ -6332,7 +6332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="33" t="s">
         <v>182</v>
       </c>
@@ -6380,10 +6380,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="33"/>
     </row>
-    <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="58" t="s">
         <v>78</v>
       </c>
@@ -6434,7 +6434,7 @@
         <v>0.221</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="59" t="s">
         <v>169</v>
       </c>
@@ -6482,7 +6482,7 @@
         <v>0.54921999999999993</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="59" t="s">
         <v>170</v>
       </c>
@@ -6530,7 +6530,7 @@
         <v>0.23537999999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="59" t="s">
         <v>171</v>
       </c>
@@ -6578,7 +6578,7 @@
         <v>0.21539999999999998</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="59" t="s">
         <v>172</v>
       </c>
@@ -6623,7 +6623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="11"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -6633,7 +6633,7 @@
       <c r="H28" s="10"/>
       <c r="I28" s="10"/>
     </row>
-    <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>197</v>
       </c>
@@ -6691,7 +6691,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="11" t="s">
         <v>167</v>
       </c>
@@ -6746,7 +6746,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="11" t="s">
         <v>168</v>
       </c>
@@ -6801,7 +6801,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="11" t="s">
         <v>175</v>
       </c>
@@ -6845,7 +6845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="11" t="s">
         <v>178</v>
       </c>
@@ -6902,7 +6902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="33" t="s">
         <v>186</v>
       </c>
@@ -6946,7 +6946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="5"/>
       <c r="B35" s="33" t="s">
         <v>187</v>
@@ -6991,7 +6991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="33" t="s">
         <v>188</v>
       </c>
@@ -7035,7 +7035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="33" t="s">
         <v>189</v>
       </c>
@@ -7079,7 +7079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="33" t="s">
         <v>190</v>
       </c>
@@ -7123,11 +7123,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="33"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="9O8Tg21ZXcZ91GxuJ867CkDM+hTTGz6vAoEX1D26eHuJuQEX27F46i2d9JhiO+DCE9EbUGHaqMMhUaMiTkQyyg==" saltValue="RibTLGhzYuToTrSja7+WWw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="QGOpDfFAI+dxZ5LIQz2RtbZOwYrfqllmqCBKgdF9OYr9Mh7EsFSb8lXRaJx6MzvSywL9tRPMeJ4RVaQSD/045w==" saltValue="kcAHHYaNtlCl3sg75DugLw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B14:O21">
     <sortCondition ref="B14:B21"/>
   </sortState>
@@ -7147,15 +7147,15 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="53" style="52" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.90625" style="35" customWidth="1"/>
-    <col min="3" max="3" width="42.453125" style="35" customWidth="1"/>
-    <col min="4" max="16384" width="11.453125" style="35"/>
+    <col min="2" max="2" width="47.85546875" style="35" customWidth="1"/>
+    <col min="3" max="3" width="42.42578125" style="35" customWidth="1"/>
+    <col min="4" max="16384" width="11.42578125" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
         <v>153</v>
       </c>
@@ -7166,7 +7166,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="83" t="s">
         <v>173</v>
       </c>
@@ -7175,7 +7175,7 @@
       </c>
       <c r="C2" s="80"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="83" t="s">
         <v>174</v>
       </c>
@@ -7184,7 +7184,7 @@
       </c>
       <c r="C3" s="80"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="84" t="s">
         <v>184</v>
       </c>
@@ -7193,7 +7193,7 @@
       </c>
       <c r="C4" s="80"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="84" t="s">
         <v>181</v>
       </c>
@@ -7202,83 +7202,83 @@
       </c>
       <c r="C5" s="80"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="84"/>
       <c r="B6" s="85"/>
       <c r="C6" s="85"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="84"/>
       <c r="B7" s="85"/>
       <c r="C7" s="85"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="84"/>
       <c r="B8" s="85"/>
       <c r="C8" s="85"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="84"/>
       <c r="B9" s="85"/>
       <c r="C9" s="85"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="84"/>
       <c r="B10" s="85"/>
       <c r="C10" s="85"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="86"/>
       <c r="B11" s="85"/>
       <c r="C11" s="85"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="86"/>
       <c r="B12" s="85"/>
       <c r="C12" s="85"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="86"/>
       <c r="B13" s="85"/>
       <c r="C13" s="85"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="86"/>
       <c r="B14" s="85"/>
       <c r="C14" s="85"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="86"/>
       <c r="B15" s="85"/>
       <c r="C15" s="85"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="86"/>
       <c r="B16" s="85"/>
       <c r="C16" s="85"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="86"/>
       <c r="B17" s="85"/>
       <c r="C17" s="85"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="86"/>
       <c r="B18" s="85"/>
       <c r="C18" s="85"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="84"/>
       <c r="B19" s="85"/>
       <c r="C19" s="85"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="84"/>
       <c r="B20" s="85"/>
       <c r="C20" s="85"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="BbiHduz4eZTuWXMhiBgfJEKzI3y16mMQsDX6H3TFw+fwpgcayIw37gmoAykN2AfqAEo6AV4yGoE2/M2wyq4HZw==" saltValue="eBVaOBokgMKs9ta0QW+oeg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="RKWCztYyR+NTo7W2zRXOWLCTPR+LBUiQd2FVpOQiPOkLKODaZ45XmzUdf4E+B7lcBpnomqtYN5bq0d/snobnTQ==" saltValue="c9NuZQwqR9iQT7EyqYyUOg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
@@ -7291,30 +7291,30 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
         <v>203</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="ybp69NH7KF1kTY96/8hFMACWQShZPG2fIxPjMYhj/+AR2RNG12dHciTn2MGaoND2oU2etzl/tMwJ8ywy6Mv3Jg==" saltValue="OtJ4m34WX2fm2Eswh6fIuw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="l4OEKtuiKaSTO69hqMoolhc4akGsnp7/eECRV3Yh4uxqOdf+S3Uj/JeNHTkJRyGjfIDJx28xzyMXNX3JK/Jq8Q==" saltValue="Dn7oeTxgupYCPYvxVnyleQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7330,16 +7330,16 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.6328125" style="35" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" style="35" customWidth="1"/>
-    <col min="3" max="4" width="11.453125" style="35"/>
-    <col min="5" max="5" width="17.453125" style="35" customWidth="1"/>
-    <col min="6" max="16384" width="11.453125" style="35"/>
+    <col min="1" max="1" width="33.5703125" style="35" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="35" customWidth="1"/>
+    <col min="3" max="4" width="11.42578125" style="35"/>
+    <col min="5" max="5" width="17.42578125" style="35" customWidth="1"/>
+    <col min="6" max="16384" width="11.42578125" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
         <v>205</v>
       </c>
@@ -7356,7 +7356,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="39" t="s">
         <v>206</v>
       </c>
@@ -7374,7 +7374,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="39" t="s">
         <v>207</v>
       </c>
@@ -7392,7 +7392,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="39" t="s">
         <v>208</v>
       </c>
@@ -7410,7 +7410,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="39" t="s">
         <v>209</v>
       </c>
@@ -7428,7 +7428,7 @@
         <v>0.126</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="39" t="s">
         <v>4</v>
       </c>
@@ -7446,7 +7446,7 @@
         <v>1.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A7" s="39" t="s">
         <v>210</v>
       </c>
@@ -7464,7 +7464,7 @@
         <v>0.40500000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="39" t="s">
         <v>211</v>
       </c>
@@ -7482,7 +7482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="39" t="s">
         <v>212</v>
       </c>
@@ -7500,7 +7500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" s="39" t="s">
         <v>213</v>
       </c>
@@ -7518,11 +7518,11 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C11" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Uhb8lfnbzJoqovbcYcOs77Wav2yYC9qArWVnEhoR1eN72dlxXsFc77QwzTNb4HdL7DAda4QzjH2Ol9xWpbi/5A==" saltValue="+45DIgV6iJTCYbgFX9p3TA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="c1QPvIDU5Adc3++DM3F8R6w78kMt7hGhExxqO+7QlPVdyEREknote7la9JwPxEZpigEjbwNRxUyNCvb4/TaYIg==" saltValue="sVM2JBZzXohh1b2RuAoKwA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -7540,20 +7540,20 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.08984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="16.140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.1796875" style="55" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="58.90625" style="55" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.453125" style="55" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.08984375" style="55" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" style="55" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" style="55" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" style="55" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="55" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.08984375" style="55" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="15.36328125" style="55" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="16.90625" style="55" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="16.08984375" style="55"/>
+    <col min="6" max="7" width="13.140625" style="55" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="15.42578125" style="55" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="16.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="16.140625" style="55"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="56" t="s">
         <v>198</v>
       </c>
@@ -7600,7 +7600,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="56" t="s">
         <v>89</v>
       </c>
@@ -7647,7 +7647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="52" t="s">
         <v>164</v>
       </c>
@@ -7691,7 +7691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="52" t="s">
         <v>8</v>
       </c>
@@ -7735,7 +7735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="52" t="s">
         <v>11</v>
       </c>
@@ -7779,7 +7779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="52" t="s">
         <v>12</v>
       </c>
@@ -7823,7 +7823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="52" t="s">
         <v>176</v>
       </c>
@@ -7867,7 +7867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="52" t="s">
         <v>177</v>
       </c>
@@ -7911,7 +7911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="52" t="s">
         <v>181</v>
       </c>
@@ -7955,7 +7955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="52" t="s">
         <v>183</v>
       </c>
@@ -7999,7 +7999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="52" t="s">
         <v>184</v>
       </c>
@@ -8043,7 +8043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="52" t="s">
         <v>154</v>
       </c>
@@ -8087,7 +8087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="52" t="s">
         <v>185</v>
       </c>
@@ -8131,7 +8131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="52" t="s">
         <v>191</v>
       </c>
@@ -8175,7 +8175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="52" t="s">
         <v>192</v>
       </c>
@@ -8219,7 +8219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="52"/>
       <c r="C16" s="129"/>
       <c r="D16" s="129"/>
@@ -8235,7 +8235,7 @@
       <c r="N16" s="129"/>
       <c r="O16" s="129"/>
     </row>
-    <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="56" t="s">
         <v>103</v>
       </c>
@@ -8282,7 +8282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="56"/>
       <c r="B18" s="52" t="s">
         <v>162</v>
@@ -8327,7 +8327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="90" t="s">
         <v>173</v>
       </c>
@@ -8371,7 +8371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="90" t="s">
         <v>174</v>
       </c>
@@ -8415,7 +8415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="91" t="s">
         <v>2</v>
       </c>
@@ -8459,7 +8459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="52" t="s">
         <v>179</v>
       </c>
@@ -8503,7 +8503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="52" t="s">
         <v>180</v>
       </c>
@@ -8547,7 +8547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="52" t="s">
         <v>182</v>
       </c>
@@ -8591,7 +8591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="52"/>
       <c r="C25" s="129"/>
       <c r="D25" s="129"/>
@@ -8607,7 +8607,7 @@
       <c r="N25" s="129"/>
       <c r="O25" s="129"/>
     </row>
-    <row r="26" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="56" t="s">
         <v>78</v>
       </c>
@@ -8655,7 +8655,7 @@
       </c>
       <c r="P26" s="92"/>
     </row>
-    <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="59" t="s">
         <v>169</v>
       </c>
@@ -8699,7 +8699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="56"/>
       <c r="B28" s="59" t="s">
         <v>170</v>
@@ -8744,7 +8744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="59" t="s">
         <v>171</v>
       </c>
@@ -8788,7 +8788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="59" t="s">
         <v>172</v>
       </c>
@@ -8832,7 +8832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="52"/>
       <c r="C31" s="130"/>
       <c r="D31" s="130"/>
@@ -8848,7 +8848,7 @@
       <c r="N31" s="129"/>
       <c r="O31" s="129"/>
     </row>
-    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="56" t="s">
         <v>197</v>
       </c>
@@ -8895,7 +8895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="52" t="s">
         <v>167</v>
       </c>
@@ -8939,7 +8939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="52" t="s">
         <v>168</v>
       </c>
@@ -8983,7 +8983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="52" t="s">
         <v>175</v>
       </c>
@@ -9027,7 +9027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="52" t="s">
         <v>178</v>
       </c>
@@ -9071,7 +9071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="93"/>
       <c r="B37" s="52" t="s">
         <v>186</v>
@@ -9116,7 +9116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" s="93" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:15" s="93" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="52" t="s">
         <v>187</v>
       </c>
@@ -9160,7 +9160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15" s="93" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:15" s="93" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="52" t="s">
         <v>188</v>
       </c>
@@ -9204,7 +9204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:15" s="93" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:15" s="93" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="52" t="s">
         <v>189</v>
       </c>
@@ -9248,7 +9248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="52" t="s">
         <v>190</v>
       </c>
@@ -9293,7 +9293,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="hfpe4EOUT7EnhekYkba7QUVfCyqnXUj1ZuqSovyu4FeLe4eUpOzDhCHNLeh6A48oxO4Aiu1wcK3QNEwcT6KNvg==" saltValue="yLi4Jbmx0xIwz2aroBwQsw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="EKuwHIw+sixPH/zuQg7flloAJ6azsoA8eo2893aL7YE39gupDStYQUpZMXd1tkHc3nS33epXu62QsW10HunHFA==" saltValue="Mo6uye9+TZABFfBe7+4Izg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -9309,22 +9309,22 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="58.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.453125" style="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" style="35" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.81640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.81640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="12.81640625" style="35"/>
+    <col min="1" max="1" width="58.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" style="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" style="35" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="12.85546875" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
         <v>153</v>
       </c>
@@ -9359,7 +9359,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="52" t="s">
         <v>161</v>
       </c>
@@ -9376,7 +9376,7 @@
       <c r="J2" s="133"/>
       <c r="K2" s="133"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="52" t="s">
         <v>162</v>
       </c>
@@ -9393,7 +9393,7 @@
       <c r="J3" s="133"/>
       <c r="K3" s="133"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="52" t="s">
         <v>163</v>
       </c>
@@ -9410,7 +9410,7 @@
       <c r="J4" s="133"/>
       <c r="K4" s="133"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="52" t="s">
         <v>164</v>
       </c>
@@ -9427,7 +9427,7 @@
       <c r="J5" s="133"/>
       <c r="K5" s="133"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="52" t="s">
         <v>165</v>
       </c>
@@ -9446,7 +9446,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="52" t="s">
         <v>166</v>
       </c>
@@ -9465,7 +9465,7 @@
       <c r="J7" s="133"/>
       <c r="K7" s="133"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="52" t="s">
         <v>167</v>
       </c>
@@ -9484,7 +9484,7 @@
       <c r="J8" s="133"/>
       <c r="K8" s="133"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="52" t="s">
         <v>168</v>
       </c>
@@ -9503,7 +9503,7 @@
       <c r="J9" s="133"/>
       <c r="K9" s="133"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="59" t="s">
         <v>169</v>
       </c>
@@ -9520,7 +9520,7 @@
       <c r="J10" s="133"/>
       <c r="K10" s="133"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="59" t="s">
         <v>170</v>
       </c>
@@ -9537,7 +9537,7 @@
       <c r="J11" s="133"/>
       <c r="K11" s="133"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="59" t="s">
         <v>171</v>
       </c>
@@ -9554,7 +9554,7 @@
       <c r="J12" s="133"/>
       <c r="K12" s="133"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="59" t="s">
         <v>172</v>
       </c>
@@ -9571,7 +9571,7 @@
       <c r="J13" s="133"/>
       <c r="K13" s="133"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="90" t="s">
         <v>173</v>
       </c>
@@ -9590,7 +9590,7 @@
       <c r="J14" s="133"/>
       <c r="K14" s="133"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="90" t="s">
         <v>174</v>
       </c>
@@ -9609,7 +9609,7 @@
       <c r="J15" s="133"/>
       <c r="K15" s="133"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="52" t="s">
         <v>2</v>
       </c>
@@ -9630,7 +9630,7 @@
       <c r="J16" s="133"/>
       <c r="K16" s="133"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="52" t="s">
         <v>175</v>
       </c>
@@ -9647,7 +9647,7 @@
       <c r="J17" s="133"/>
       <c r="K17" s="133"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="52" t="s">
         <v>8</v>
       </c>
@@ -9666,7 +9666,7 @@
       <c r="J18" s="133"/>
       <c r="K18" s="133"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="52" t="s">
         <v>11</v>
       </c>
@@ -9685,7 +9685,7 @@
       <c r="J19" s="133"/>
       <c r="K19" s="133"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="52" t="s">
         <v>12</v>
       </c>
@@ -9704,7 +9704,7 @@
       <c r="J20" s="133"/>
       <c r="K20" s="133"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="52" t="s">
         <v>176</v>
       </c>
@@ -9723,7 +9723,7 @@
       <c r="J21" s="133"/>
       <c r="K21" s="133"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="52" t="s">
         <v>177</v>
       </c>
@@ -9744,7 +9744,7 @@
       <c r="J22" s="133"/>
       <c r="K22" s="133"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="52" t="s">
         <v>178</v>
       </c>
@@ -9763,7 +9763,7 @@
       <c r="J23" s="133"/>
       <c r="K23" s="133"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="52" t="s">
         <v>179</v>
       </c>
@@ -9780,7 +9780,7 @@
       <c r="J24" s="133"/>
       <c r="K24" s="133"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="52" t="s">
         <v>180</v>
       </c>
@@ -9797,7 +9797,7 @@
       <c r="J25" s="133"/>
       <c r="K25" s="133"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="52" t="s">
         <v>181</v>
       </c>
@@ -9814,7 +9814,7 @@
       <c r="J26" s="133"/>
       <c r="K26" s="133"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="52" t="s">
         <v>182</v>
       </c>
@@ -9833,7 +9833,7 @@
       <c r="J27" s="133"/>
       <c r="K27" s="133"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="52" t="s">
         <v>183</v>
       </c>
@@ -9850,7 +9850,7 @@
       <c r="J28" s="133"/>
       <c r="K28" s="133"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="52" t="s">
         <v>184</v>
       </c>
@@ -9869,7 +9869,7 @@
       <c r="J29" s="133"/>
       <c r="K29" s="133"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="52" t="s">
         <v>154</v>
       </c>
@@ -9886,7 +9886,7 @@
       <c r="J30" s="133"/>
       <c r="K30" s="133"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="52" t="s">
         <v>185</v>
       </c>
@@ -9905,7 +9905,7 @@
       <c r="J31" s="133"/>
       <c r="K31" s="133"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="52" t="s">
         <v>186</v>
       </c>
@@ -9924,7 +9924,7 @@
       <c r="J32" s="133"/>
       <c r="K32" s="133"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="52" t="s">
         <v>187</v>
       </c>
@@ -9943,7 +9943,7 @@
       <c r="J33" s="133"/>
       <c r="K33" s="133"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="52" t="s">
         <v>188</v>
       </c>
@@ -9962,7 +9962,7 @@
       <c r="J34" s="133"/>
       <c r="K34" s="133"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="52" t="s">
         <v>189</v>
       </c>
@@ -9981,7 +9981,7 @@
       <c r="J35" s="133"/>
       <c r="K35" s="133"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="52" t="s">
         <v>190</v>
       </c>
@@ -10000,7 +10000,7 @@
       <c r="J36" s="133"/>
       <c r="K36" s="133"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="52" t="s">
         <v>191</v>
       </c>
@@ -10017,7 +10017,7 @@
       <c r="J37" s="133"/>
       <c r="K37" s="133"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="52" t="s">
         <v>192</v>
       </c>
@@ -10039,7 +10039,7 @@
       <c r="K38" s="133"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="9y6IvW8p5O3tCssL4dzYMX0wsXFnepvBG1nXR2RQfctBKazD2LjBojqP4F9UNm47nfTOT4IIRu285MprnHcoWg==" saltValue="rQOvHyr+WOY1C9iFCkaq4Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="FPo56bG7T0OuhSo5hgrDWyA16ODBw/tMYgF4kq9bbP8O105YyNF5N2q4VXeL60igHf64g/QyIz5ThCgDy5TLqQ==" saltValue="+8jTZb1MmFlEGpfMO4F4Bw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10055,22 +10055,22 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.453125" style="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" style="35" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.81640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.81640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="12.81640625" style="35"/>
+    <col min="1" max="1" width="16.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" style="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" style="35" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="12.85546875" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
         <v>219</v>
       </c>
@@ -10105,7 +10105,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="35" t="s">
         <v>112</v>
       </c>
@@ -10134,7 +10134,7 @@
       <c r="J2" s="133"/>
       <c r="K2" s="133"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="35" t="s">
         <v>99</v>
       </c>
@@ -10163,7 +10163,7 @@
       <c r="J3" s="133"/>
       <c r="K3" s="133"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="35" t="s">
         <v>100</v>
       </c>
@@ -10192,7 +10192,7 @@
       <c r="J4" s="133"/>
       <c r="K4" s="133"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="35" t="s">
         <v>101</v>
       </c>
@@ -10221,7 +10221,7 @@
       <c r="J5" s="133"/>
       <c r="K5" s="133"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="35" t="s">
         <v>102</v>
       </c>
@@ -10250,7 +10250,7 @@
       <c r="J6" s="133"/>
       <c r="K6" s="133"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="35" t="s">
         <v>125</v>
       </c>
@@ -10271,7 +10271,7 @@
       <c r="J7" s="133"/>
       <c r="K7" s="133"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="35" t="s">
         <v>126</v>
       </c>
@@ -10292,7 +10292,7 @@
       <c r="J8" s="133"/>
       <c r="K8" s="133"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="35" t="s">
         <v>127</v>
       </c>
@@ -10313,7 +10313,7 @@
       <c r="J9" s="133"/>
       <c r="K9" s="133"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="35" t="s">
         <v>128</v>
       </c>
@@ -10334,7 +10334,7 @@
       <c r="J10" s="133"/>
       <c r="K10" s="133"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="35" t="s">
         <v>72</v>
       </c>
@@ -10355,7 +10355,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="35" t="s">
         <v>73</v>
       </c>
@@ -10374,7 +10374,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="35" t="s">
         <v>74</v>
       </c>
@@ -10393,7 +10393,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="35" t="s">
         <v>75</v>
       </c>
@@ -10413,7 +10413,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="KoPRYw8GuPXVlnxysYqnnhTs6kcXml4rbPQyHIjNmQ8KalrVs/beuUI+ccp0DMPSeBh5o/371c5/mWUuX8Q0wg==" saltValue="iZjJgA4bBvAGH3+y+c8MNw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="NO1c7ZgzFIVBKCWPkyhG89fFsSzV60KIY/oSIuqVE3U+KcdWEGiFoIebB3f9Dn5Qlt0Gn+RzW6Cl/pC7nVv1Cg==" saltValue="JgAl0F3j3kX1qVMmlWJ8Bw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10429,15 +10429,15 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="48.08984375" style="35" customWidth="1"/>
+    <col min="1" max="1" width="48.140625" style="35" customWidth="1"/>
     <col min="2" max="2" width="15" style="35" customWidth="1"/>
-    <col min="3" max="3" width="14.6328125" style="35" customWidth="1"/>
-    <col min="4" max="16384" width="12.81640625" style="35"/>
+    <col min="3" max="3" width="14.5703125" style="35" customWidth="1"/>
+    <col min="4" max="16384" width="12.85546875" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
         <v>220</v>
       </c>
@@ -10463,7 +10463,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="40" t="s">
         <v>221</v>
       </c>
@@ -10489,7 +10489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" s="137"/>
       <c r="C3" s="35" t="s">
         <v>150</v>
@@ -10511,7 +10511,7 @@
       </c>
       <c r="J3" s="95"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" s="137"/>
       <c r="C4" s="35" t="s">
         <v>151</v>
@@ -10533,7 +10533,7 @@
       </c>
       <c r="J4" s="95"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" s="137" t="s">
         <v>112</v>
       </c>
@@ -10557,7 +10557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6" s="137"/>
       <c r="C6" s="35" t="s">
         <v>150</v>
@@ -10578,7 +10578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" s="137"/>
       <c r="C7" s="35" t="s">
         <v>151</v>
@@ -10599,7 +10599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8" s="137" t="s">
         <v>99</v>
       </c>
@@ -10622,7 +10622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9" s="137"/>
       <c r="C9" s="35" t="s">
         <v>150</v>
@@ -10643,7 +10643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B10" s="137"/>
       <c r="C10" s="35" t="s">
         <v>151</v>
@@ -10664,7 +10664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B11" s="137" t="s">
         <v>100</v>
       </c>
@@ -10687,7 +10687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B12" s="137"/>
       <c r="C12" s="35" t="s">
         <v>150</v>
@@ -10708,7 +10708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B13" s="137"/>
       <c r="C13" s="35" t="s">
         <v>151</v>
@@ -10729,7 +10729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B14" s="137" t="s">
         <v>101</v>
       </c>
@@ -10752,7 +10752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B15" s="137"/>
       <c r="C15" s="35" t="s">
         <v>150</v>
@@ -10773,7 +10773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B16" s="137"/>
       <c r="C16" s="35" t="s">
         <v>151</v>
@@ -10794,7 +10794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B17" s="96" t="s">
         <v>152</v>
       </c>
@@ -10817,14 +10817,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D18" s="132"/>
       <c r="E18" s="132"/>
       <c r="F18" s="132"/>
       <c r="G18" s="132"/>
       <c r="H18" s="132"/>
     </row>
-    <row r="19" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="40" t="s">
         <v>222</v>
       </c>
@@ -10850,7 +10850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B20" s="137"/>
       <c r="C20" s="35" t="s">
         <v>150</v>
@@ -10871,7 +10871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B21" s="137"/>
       <c r="C21" s="35" t="s">
         <v>151</v>
@@ -10892,7 +10892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B22" s="137" t="s">
         <v>112</v>
       </c>
@@ -10915,7 +10915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B23" s="137"/>
       <c r="C23" s="35" t="s">
         <v>150</v>
@@ -10936,7 +10936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B24" s="137"/>
       <c r="C24" s="35" t="s">
         <v>151</v>
@@ -10957,7 +10957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B25" s="137" t="s">
         <v>99</v>
       </c>
@@ -10980,7 +10980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B26" s="137"/>
       <c r="C26" s="35" t="s">
         <v>150</v>
@@ -11001,7 +11001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B27" s="137"/>
       <c r="C27" s="35" t="s">
         <v>151</v>
@@ -11022,7 +11022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B28" s="137" t="s">
         <v>100</v>
       </c>
@@ -11045,7 +11045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B29" s="137"/>
       <c r="C29" s="35" t="s">
         <v>150</v>
@@ -11066,7 +11066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B30" s="137"/>
       <c r="C30" s="35" t="s">
         <v>151</v>
@@ -11087,7 +11087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B31" s="137" t="s">
         <v>101</v>
       </c>
@@ -11110,7 +11110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B32" s="137"/>
       <c r="C32" s="35" t="s">
         <v>150</v>
@@ -11131,7 +11131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B33" s="137"/>
       <c r="C33" s="35" t="s">
         <v>151</v>
@@ -11152,7 +11152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B34" s="96" t="s">
         <v>152</v>
       </c>
@@ -11175,14 +11175,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D35" s="132"/>
       <c r="E35" s="132"/>
       <c r="F35" s="132"/>
       <c r="G35" s="132"/>
       <c r="H35" s="132"/>
     </row>
-    <row r="36" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="97" t="s">
         <v>223</v>
       </c>
@@ -11208,7 +11208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B37" s="137"/>
       <c r="C37" s="35" t="s">
         <v>150</v>
@@ -11229,7 +11229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B38" s="137"/>
       <c r="C38" s="35" t="s">
         <v>151</v>
@@ -11250,7 +11250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B39" s="137" t="s">
         <v>112</v>
       </c>
@@ -11273,7 +11273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B40" s="137"/>
       <c r="C40" s="35" t="s">
         <v>150</v>
@@ -11294,7 +11294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B41" s="137"/>
       <c r="C41" s="35" t="s">
         <v>151</v>
@@ -11315,7 +11315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B42" s="137" t="s">
         <v>99</v>
       </c>
@@ -11338,7 +11338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B43" s="137"/>
       <c r="C43" s="35" t="s">
         <v>150</v>
@@ -11359,7 +11359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B44" s="137"/>
       <c r="C44" s="35" t="s">
         <v>151</v>
@@ -11380,7 +11380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B45" s="137" t="s">
         <v>100</v>
       </c>
@@ -11403,7 +11403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B46" s="137"/>
       <c r="C46" s="35" t="s">
         <v>150</v>
@@ -11424,7 +11424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B47" s="137"/>
       <c r="C47" s="35" t="s">
         <v>151</v>
@@ -11445,7 +11445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B48" s="137" t="s">
         <v>101</v>
       </c>
@@ -11468,7 +11468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B49" s="137"/>
       <c r="C49" s="35" t="s">
         <v>150</v>
@@ -11489,7 +11489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B50" s="137"/>
       <c r="C50" s="35" t="s">
         <v>151</v>
@@ -11510,7 +11510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B51" s="98" t="s">
         <v>152</v>
       </c>
@@ -11534,7 +11534,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="dGuBUB1U94r4eHVlITDUuuiW6VfHoshGLaDnuJThwT3yp9xBp2v0NytWiKJn03ffkM3kEaBEy0sT8V5ejqgh8Q==" saltValue="3mLvc6fQ8MbfqamG2B2Aeg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="msq6TvvxmOC/ybefshNjN9j6SqSNP8CmwJMEUi/hvejC8AuUomNfqYFOJoSOzkxsxi/r6XCbtZKIRgg0tU0rLg==" saltValue="13upcVTGjmKw3GJNXc9mJA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="B2:B4"/>
@@ -11568,14 +11568,14 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.453125" style="12" customWidth="1"/>
-    <col min="2" max="9" width="16.90625" style="12" customWidth="1"/>
-    <col min="10" max="16384" width="14.453125" style="12"/>
+    <col min="1" max="1" width="8.42578125" style="12" customWidth="1"/>
+    <col min="2" max="9" width="16.85546875" style="12" customWidth="1"/>
+    <col min="10" max="16384" width="14.42578125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="31" t="s">
         <v>79</v>
       </c>
@@ -11604,7 +11604,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
         <f>start_year</f>
         <v>2017</v>
@@ -11637,7 +11637,7 @@
         <v>10889222.411291081</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
         <f t="shared" ref="A3:A40" si="2">IF($A$2+ROW(A3)-2&lt;=end_year,A2+1,"")</f>
         <v>2018</v>
@@ -11670,7 +11670,7 @@
         <v>11314876.916718401</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <f t="shared" si="2"/>
         <v>2019</v>
@@ -11703,7 +11703,7 @@
         <v>11742062.79850255</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <f t="shared" si="2"/>
         <v>2020</v>
@@ -11736,7 +11736,7 @@
         <v>12188008.303929869</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <f t="shared" si="2"/>
         <v>2021</v>
@@ -11769,7 +11769,7 @@
         <v>12645913.809357187</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <f t="shared" si="2"/>
         <v>2022</v>
@@ -11802,7 +11802,7 @@
         <v>13098634.691141337</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
         <f t="shared" si="2"/>
         <v>2023</v>
@@ -11835,7 +11835,7 @@
         <v>13560643.572925486</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <f t="shared" si="2"/>
         <v>2024</v>
@@ -11868,7 +11868,7 @@
         <v>14048879.078352805</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <f t="shared" si="2"/>
         <v>2025</v>
@@ -11901,7 +11901,7 @@
         <v>14530354.336493783</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <f t="shared" si="2"/>
         <v>2026</v>
@@ -11934,7 +11934,7 @@
         <v>15032265.218277931</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
         <f t="shared" si="2"/>
         <v>2027</v>
@@ -11967,7 +11967,7 @@
         <v>15550202.10006208</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
         <f t="shared" si="2"/>
         <v>2028</v>
@@ -12000,7 +12000,7 @@
         <v>16082324.981846228</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
         <f t="shared" si="2"/>
         <v>2029</v>
@@ -12033,7 +12033,7 @@
         <v>16613455.239987208</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
         <f t="shared" si="2"/>
         <v>2030</v>
@@ -12066,7 +12066,7 @@
         <v>17165139.121771358</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12089,7 +12089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12112,7 +12112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12135,7 +12135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12158,7 +12158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12181,7 +12181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12204,7 +12204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12227,7 +12227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12250,7 +12250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12273,7 +12273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12296,7 +12296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12319,7 +12319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12342,7 +12342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12365,7 +12365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12388,7 +12388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12411,7 +12411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12434,7 +12434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12457,7 +12457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12480,7 +12480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12503,7 +12503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12526,7 +12526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12549,7 +12549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12572,7 +12572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12595,7 +12595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12618,7 +12618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12642,7 +12642,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="e+mbeon7PWF/xOmO7Qs1Nzb6ddpY8lhChrWBK0g95+5j2mBVaVTBX0eFnEScULQ1UCZGZGgOkZv7gLyPVU0I+w==" saltValue="bJNu8nVgsQ1rVh9Cydi4gw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="vjPkDknrLcELW6wrSdNuXulRHw5yRFwr0KTVIA3qbqjUeCOlpc8ikWaHTdv1w3UT8cKGch2WEanZ+VDYAkid8A==" saltValue="xMX3nAGj4j1wTlYGMrKpAg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <conditionalFormatting sqref="B2:I40">
     <cfRule type="expression" dxfId="0" priority="9">
       <formula>$A2=""</formula>
@@ -12664,22 +12664,22 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.08984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.90625" style="35" customWidth="1"/>
-    <col min="2" max="2" width="34.08984375" style="35" customWidth="1"/>
-    <col min="3" max="3" width="11.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.90625" style="35" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" style="35" customWidth="1"/>
+    <col min="2" max="2" width="34.140625" style="35" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="35" customWidth="1"/>
     <col min="5" max="6" width="15" style="35" customWidth="1"/>
-    <col min="7" max="16384" width="16.08984375" style="35"/>
+    <col min="7" max="16384" width="16.140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="100" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="100" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="99" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="101"/>
       <c r="C2" s="102" t="s">
         <v>58</v>
@@ -12694,7 +12694,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="40" t="s">
         <v>225</v>
       </c>
@@ -12704,7 +12704,7 @@
       <c r="E3" s="106"/>
       <c r="F3" s="106"/>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="107" t="s">
         <v>41</v>
       </c>
@@ -12721,7 +12721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="107" t="s">
         <v>42</v>
       </c>
@@ -12738,7 +12738,7 @@
         <v>3.03</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="107" t="s">
         <v>43</v>
       </c>
@@ -12755,7 +12755,7 @@
         <v>1.77</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="107" t="s">
         <v>44</v>
       </c>
@@ -12772,13 +12772,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="108"/>
       <c r="D8" s="95"/>
       <c r="E8" s="95"/>
       <c r="F8" s="95"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="40" t="s">
         <v>232</v>
       </c>
@@ -12796,14 +12796,14 @@
       </c>
       <c r="G9" s="109"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C10" s="108"/>
       <c r="D10" s="95"/>
       <c r="E10" s="95"/>
       <c r="F10" s="95"/>
       <c r="G10" s="109"/>
     </row>
-    <row r="11" spans="1:7" s="100" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" s="100" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="99" t="s">
         <v>226</v>
       </c>
@@ -12813,7 +12813,7 @@
       <c r="F11" s="111"/>
       <c r="G11" s="112"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="40" t="s">
         <v>227</v>
       </c>
@@ -12823,7 +12823,7 @@
       <c r="F12" s="95"/>
       <c r="G12" s="109"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="113" t="s">
         <v>228</v>
       </c>
@@ -12841,7 +12841,7 @@
       </c>
       <c r="G13" s="109"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="113" t="s">
         <v>229</v>
       </c>
@@ -12859,7 +12859,7 @@
       </c>
       <c r="G14" s="109"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="113" t="s">
         <v>230</v>
       </c>
@@ -12877,7 +12877,7 @@
       </c>
       <c r="G15" s="109"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="40"/>
       <c r="B16" s="113"/>
       <c r="C16" s="114"/>
@@ -12886,7 +12886,7 @@
       <c r="F16" s="95"/>
       <c r="G16" s="109"/>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="40" t="s">
         <v>231</v>
       </c>
@@ -12897,7 +12897,7 @@
       <c r="F17" s="116"/>
       <c r="G17" s="109"/>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="117" t="s">
         <v>81</v>
       </c>
@@ -12915,7 +12915,7 @@
       </c>
       <c r="G18" s="109"/>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="117" t="s">
         <v>82</v>
       </c>
@@ -12933,7 +12933,7 @@
       </c>
       <c r="G19" s="109"/>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="117" t="s">
         <v>83</v>
       </c>
@@ -12951,7 +12951,7 @@
       </c>
       <c r="G20" s="109"/>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="117" t="s">
         <v>84</v>
       </c>
@@ -12969,7 +12969,7 @@
       </c>
       <c r="G21" s="109"/>
     </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="117" t="s">
         <v>85</v>
       </c>
@@ -12986,7 +12986,7 @@
         <v>999.99</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="117" t="s">
         <v>86</v>
       </c>
@@ -13003,7 +13003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="117" t="s">
         <v>87</v>
       </c>
@@ -13020,7 +13020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="117" t="s">
         <v>88</v>
       </c>
@@ -13037,14 +13037,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="113"/>
     </row>
-    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="40"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="EkF5JSVbaGGfPN2s41k+WVa7BKP9wXrsIePsLBLwpWNmfMd/TQL77w3lFq1NfYTyGN6Xs8VhZbbBlpDzvnxUdg==" saltValue="Teq4Cz+6jsa+vEDPBCsJNQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="QA68/v3OvmBY016rJXz93eMYfHBLZ13CSyjDF9+knd8tvLIC+KOd9w5yp+mWlfq+SYe4HkLRraYE9N4DMQBG6Q==" saltValue="Ct6Omyevd+4k/PM/WioesA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -13061,23 +13061,23 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.1796875" style="35" customWidth="1"/>
-    <col min="2" max="2" width="26.90625" style="35" customWidth="1"/>
-    <col min="3" max="3" width="18.36328125" style="35" customWidth="1"/>
-    <col min="4" max="8" width="14.81640625" style="35" customWidth="1"/>
-    <col min="9" max="12" width="15.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="16.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="12.81640625" style="35"/>
+    <col min="1" max="1" width="27.140625" style="35" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="35" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" style="35" customWidth="1"/>
+    <col min="4" max="8" width="14.85546875" style="35" customWidth="1"/>
+    <col min="9" max="12" width="15.42578125" style="35" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="16.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="12.85546875" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="100" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" s="100" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="99" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="118" t="s">
         <v>215</v>
       </c>
@@ -13111,7 +13111,7 @@
       <c r="O2" s="120"/>
       <c r="P2" s="120"/>
     </row>
-    <row r="3" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="40"/>
       <c r="B3" s="35" t="s">
         <v>90</v>
@@ -13143,7 +13143,7 @@
       <c r="O3" s="118"/>
       <c r="P3" s="118"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C4" s="43" t="s">
         <v>236</v>
       </c>
@@ -13171,7 +13171,7 @@
       <c r="O4" s="118"/>
       <c r="P4" s="118"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C5" s="43" t="s">
         <v>237</v>
       </c>
@@ -13199,7 +13199,7 @@
       <c r="O5" s="118"/>
       <c r="P5" s="118"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C6" s="43" t="s">
         <v>238</v>
       </c>
@@ -13227,7 +13227,7 @@
       <c r="O6" s="118"/>
       <c r="P6" s="118"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B7" s="35" t="s">
         <v>91</v>
       </c>
@@ -13258,7 +13258,7 @@
       <c r="O7" s="118"/>
       <c r="P7" s="118"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="43" t="s">
         <v>236</v>
       </c>
@@ -13286,7 +13286,7 @@
       <c r="O8" s="118"/>
       <c r="P8" s="118"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="43" t="s">
         <v>237</v>
       </c>
@@ -13314,7 +13314,7 @@
       <c r="O9" s="118"/>
       <c r="P9" s="118"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="43" t="s">
         <v>238</v>
       </c>
@@ -13342,7 +13342,7 @@
       <c r="O10" s="118"/>
       <c r="P10" s="118"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B11" s="35" t="s">
         <v>93</v>
       </c>
@@ -13373,7 +13373,7 @@
       <c r="O11" s="118"/>
       <c r="P11" s="118"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="43" t="s">
         <v>236</v>
       </c>
@@ -13401,7 +13401,7 @@
       <c r="O12" s="118"/>
       <c r="P12" s="118"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="43" t="s">
         <v>237</v>
       </c>
@@ -13429,7 +13429,7 @@
       <c r="O13" s="118"/>
       <c r="P13" s="118"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="43" t="s">
         <v>238</v>
       </c>
@@ -13457,7 +13457,7 @@
       <c r="O14" s="118"/>
       <c r="P14" s="118"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B15" s="35" t="s">
         <v>94</v>
       </c>
@@ -13488,7 +13488,7 @@
       <c r="O15" s="118"/>
       <c r="P15" s="118"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C16" s="43" t="s">
         <v>236</v>
       </c>
@@ -13516,7 +13516,7 @@
       <c r="O16" s="118"/>
       <c r="P16" s="118"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C17" s="43" t="s">
         <v>237</v>
       </c>
@@ -13544,7 +13544,7 @@
       <c r="O17" s="118"/>
       <c r="P17" s="118"/>
     </row>
-    <row r="18" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" s="43" t="s">
         <v>238</v>
       </c>
@@ -13572,7 +13572,7 @@
       <c r="O18" s="118"/>
       <c r="P18" s="118"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B19" s="36" t="s">
         <v>92</v>
       </c>
@@ -13603,7 +13603,7 @@
       <c r="O19" s="118"/>
       <c r="P19" s="118"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C20" s="43" t="s">
         <v>236</v>
       </c>
@@ -13631,7 +13631,7 @@
       <c r="O20" s="118"/>
       <c r="P20" s="118"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C21" s="43" t="s">
         <v>237</v>
       </c>
@@ -13659,7 +13659,7 @@
       <c r="O21" s="118"/>
       <c r="P21" s="118"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C22" s="43" t="s">
         <v>238</v>
       </c>
@@ -13687,7 +13687,7 @@
       <c r="O22" s="118"/>
       <c r="P22" s="118"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B23" s="36" t="s">
         <v>98</v>
       </c>
@@ -13718,7 +13718,7 @@
       <c r="O23" s="118"/>
       <c r="P23" s="118"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C24" s="43" t="s">
         <v>236</v>
       </c>
@@ -13746,7 +13746,7 @@
       <c r="O24" s="118"/>
       <c r="P24" s="118"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C25" s="43" t="s">
         <v>237</v>
       </c>
@@ -13774,7 +13774,7 @@
       <c r="O25" s="118"/>
       <c r="P25" s="118"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C26" s="43" t="s">
         <v>238</v>
       </c>
@@ -13802,12 +13802,12 @@
       <c r="O26" s="118"/>
       <c r="P26" s="118"/>
     </row>
-    <row r="28" spans="1:16" s="100" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" s="100" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="99" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="29" spans="1:16" s="36" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="121" t="s">
         <v>248</v>
       </c>
@@ -13841,7 +13841,7 @@
       <c r="O29" s="120"/>
       <c r="P29" s="120"/>
     </row>
-    <row r="30" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="40"/>
       <c r="B30" s="35" t="s">
         <v>90</v>
@@ -13873,7 +13873,7 @@
       <c r="O30" s="118"/>
       <c r="P30" s="118"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C31" s="43" t="s">
         <v>236</v>
       </c>
@@ -13901,7 +13901,7 @@
       <c r="O31" s="118"/>
       <c r="P31" s="118"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C32" s="43" t="s">
         <v>196</v>
       </c>
@@ -13929,7 +13929,7 @@
       <c r="O32" s="118"/>
       <c r="P32" s="118"/>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="43" t="s">
         <v>195</v>
       </c>
@@ -13957,7 +13957,7 @@
       <c r="O33" s="118"/>
       <c r="P33" s="118"/>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B34" s="35" t="s">
         <v>91</v>
       </c>
@@ -13988,7 +13988,7 @@
       <c r="O34" s="118"/>
       <c r="P34" s="118"/>
     </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="43" t="s">
         <v>236</v>
       </c>
@@ -14016,7 +14016,7 @@
       <c r="O35" s="118"/>
       <c r="P35" s="118"/>
     </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C36" s="43" t="s">
         <v>196</v>
       </c>
@@ -14044,7 +14044,7 @@
       <c r="O36" s="118"/>
       <c r="P36" s="118"/>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C37" s="43" t="s">
         <v>195</v>
       </c>
@@ -14072,7 +14072,7 @@
       <c r="O37" s="118"/>
       <c r="P37" s="118"/>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B38" s="35" t="s">
         <v>93</v>
       </c>
@@ -14103,7 +14103,7 @@
       <c r="O38" s="118"/>
       <c r="P38" s="118"/>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="43" t="s">
         <v>236</v>
       </c>
@@ -14131,7 +14131,7 @@
       <c r="O39" s="118"/>
       <c r="P39" s="118"/>
     </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="43" t="s">
         <v>196</v>
       </c>
@@ -14159,7 +14159,7 @@
       <c r="O40" s="118"/>
       <c r="P40" s="118"/>
     </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="43" t="s">
         <v>195</v>
       </c>
@@ -14187,7 +14187,7 @@
       <c r="O41" s="118"/>
       <c r="P41" s="118"/>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B42" s="35" t="s">
         <v>94</v>
       </c>
@@ -14218,7 +14218,7 @@
       <c r="O42" s="118"/>
       <c r="P42" s="118"/>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="43" t="s">
         <v>236</v>
       </c>
@@ -14246,7 +14246,7 @@
       <c r="O43" s="118"/>
       <c r="P43" s="118"/>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="43" t="s">
         <v>196</v>
       </c>
@@ -14274,7 +14274,7 @@
       <c r="O44" s="118"/>
       <c r="P44" s="118"/>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="43" t="s">
         <v>195</v>
       </c>
@@ -14302,7 +14302,7 @@
       <c r="O45" s="118"/>
       <c r="P45" s="118"/>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B46" s="35" t="s">
         <v>92</v>
       </c>
@@ -14333,7 +14333,7 @@
       <c r="O46" s="118"/>
       <c r="P46" s="118"/>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="43" t="s">
         <v>236</v>
       </c>
@@ -14361,7 +14361,7 @@
       <c r="O47" s="118"/>
       <c r="P47" s="118"/>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="43" t="s">
         <v>196</v>
       </c>
@@ -14389,7 +14389,7 @@
       <c r="O48" s="118"/>
       <c r="P48" s="118"/>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C49" s="43" t="s">
         <v>195</v>
       </c>
@@ -14417,7 +14417,7 @@
       <c r="O49" s="118"/>
       <c r="P49" s="118"/>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B50" s="35" t="s">
         <v>98</v>
       </c>
@@ -14448,7 +14448,7 @@
       <c r="O50" s="118"/>
       <c r="P50" s="118"/>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C51" s="43" t="s">
         <v>236</v>
       </c>
@@ -14476,7 +14476,7 @@
       <c r="O51" s="118"/>
       <c r="P51" s="118"/>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C52" s="43" t="s">
         <v>196</v>
       </c>
@@ -14504,7 +14504,7 @@
       <c r="O52" s="118"/>
       <c r="P52" s="118"/>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C53" s="43" t="s">
         <v>195</v>
       </c>
@@ -14532,16 +14532,16 @@
       <c r="O53" s="118"/>
       <c r="P53" s="118"/>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C54" s="43"/>
       <c r="D54" s="43"/>
     </row>
-    <row r="55" spans="1:16" s="100" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:16" s="100" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="99" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="56" spans="1:16" s="36" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16" s="36" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A56" s="121" t="s">
         <v>124</v>
       </c>
@@ -14569,7 +14569,7 @@
       <c r="O56" s="120"/>
       <c r="P56" s="120"/>
     </row>
-    <row r="57" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" s="40"/>
       <c r="B57" s="35" t="s">
         <v>104</v>
@@ -14595,7 +14595,7 @@
       <c r="O57" s="118"/>
       <c r="P57" s="118"/>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C58" s="43" t="s">
         <v>243</v>
       </c>
@@ -14617,7 +14617,7 @@
       <c r="O58" s="118"/>
       <c r="P58" s="118"/>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B59" s="35" t="s">
         <v>105</v>
       </c>
@@ -14642,7 +14642,7 @@
       <c r="O59" s="118"/>
       <c r="P59" s="118"/>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C60" s="43" t="s">
         <v>243</v>
       </c>
@@ -14664,7 +14664,7 @@
       <c r="O60" s="118"/>
       <c r="P60" s="118"/>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B61" s="35" t="s">
         <v>106</v>
       </c>
@@ -14689,7 +14689,7 @@
       <c r="O61" s="118"/>
       <c r="P61" s="118"/>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C62" s="43" t="s">
         <v>243</v>
       </c>
@@ -14711,16 +14711,16 @@
       <c r="O62" s="118"/>
       <c r="P62" s="118"/>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C63" s="43"/>
       <c r="D63" s="43"/>
     </row>
-    <row r="64" spans="1:16" s="100" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:16" s="100" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="99" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="65" spans="1:16" s="36" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:16" s="36" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A65" s="121" t="s">
         <v>131</v>
       </c>
@@ -14754,7 +14754,7 @@
       <c r="O65" s="120"/>
       <c r="P65" s="120"/>
     </row>
-    <row r="66" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66" s="125"/>
       <c r="B66" s="35" t="s">
         <v>81</v>
@@ -14786,7 +14786,7 @@
       <c r="O66" s="118"/>
       <c r="P66" s="118"/>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C67" s="43" t="s">
         <v>133</v>
       </c>
@@ -14814,7 +14814,7 @@
       <c r="O67" s="118"/>
       <c r="P67" s="118"/>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C68" s="43" t="s">
         <v>134</v>
       </c>
@@ -14842,7 +14842,7 @@
       <c r="O68" s="118"/>
       <c r="P68" s="118"/>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C69" s="43" t="s">
         <v>135</v>
       </c>
@@ -14870,7 +14870,7 @@
       <c r="O69" s="118"/>
       <c r="P69" s="118"/>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B70" s="35" t="s">
         <v>82</v>
       </c>
@@ -14901,7 +14901,7 @@
       <c r="O70" s="118"/>
       <c r="P70" s="118"/>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C71" s="43" t="s">
         <v>133</v>
       </c>
@@ -14929,7 +14929,7 @@
       <c r="O71" s="118"/>
       <c r="P71" s="118"/>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C72" s="43" t="s">
         <v>134</v>
       </c>
@@ -14957,7 +14957,7 @@
       <c r="O72" s="118"/>
       <c r="P72" s="118"/>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C73" s="43" t="s">
         <v>135</v>
       </c>
@@ -14985,7 +14985,7 @@
       <c r="O73" s="118"/>
       <c r="P73" s="118"/>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B74" s="35" t="s">
         <v>83</v>
       </c>
@@ -15016,7 +15016,7 @@
       <c r="O74" s="118"/>
       <c r="P74" s="118"/>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C75" s="43" t="s">
         <v>133</v>
       </c>
@@ -15044,7 +15044,7 @@
       <c r="O75" s="118"/>
       <c r="P75" s="118"/>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C76" s="43" t="s">
         <v>134</v>
       </c>
@@ -15072,7 +15072,7 @@
       <c r="O76" s="118"/>
       <c r="P76" s="118"/>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C77" s="43" t="s">
         <v>135</v>
       </c>
@@ -15100,7 +15100,7 @@
       <c r="O77" s="118"/>
       <c r="P77" s="118"/>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B78" s="35" t="s">
         <v>85</v>
       </c>
@@ -15131,7 +15131,7 @@
       <c r="O78" s="118"/>
       <c r="P78" s="118"/>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C79" s="43" t="s">
         <v>133</v>
       </c>
@@ -15159,7 +15159,7 @@
       <c r="O79" s="118"/>
       <c r="P79" s="118"/>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C80" s="43" t="s">
         <v>134</v>
       </c>
@@ -15187,7 +15187,7 @@
       <c r="O80" s="118"/>
       <c r="P80" s="118"/>
     </row>
-    <row r="81" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C81" s="43" t="s">
         <v>135</v>
       </c>
@@ -15215,7 +15215,7 @@
       <c r="O81" s="118"/>
       <c r="P81" s="118"/>
     </row>
-    <row r="82" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B82" s="35" t="s">
         <v>90</v>
       </c>
@@ -15246,7 +15246,7 @@
       <c r="O82" s="118"/>
       <c r="P82" s="118"/>
     </row>
-    <row r="83" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C83" s="43" t="s">
         <v>133</v>
       </c>
@@ -15274,7 +15274,7 @@
       <c r="O83" s="118"/>
       <c r="P83" s="118"/>
     </row>
-    <row r="84" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C84" s="43" t="s">
         <v>134</v>
       </c>
@@ -15302,7 +15302,7 @@
       <c r="O84" s="118"/>
       <c r="P84" s="118"/>
     </row>
-    <row r="85" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C85" s="43" t="s">
         <v>135</v>
       </c>
@@ -15330,7 +15330,7 @@
       <c r="O85" s="118"/>
       <c r="P85" s="118"/>
     </row>
-    <row r="86" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B86" s="35" t="s">
         <v>91</v>
       </c>
@@ -15361,7 +15361,7 @@
       <c r="O86" s="118"/>
       <c r="P86" s="118"/>
     </row>
-    <row r="87" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C87" s="43" t="s">
         <v>133</v>
       </c>
@@ -15389,7 +15389,7 @@
       <c r="O87" s="118"/>
       <c r="P87" s="118"/>
     </row>
-    <row r="88" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C88" s="43" t="s">
         <v>134</v>
       </c>
@@ -15417,7 +15417,7 @@
       <c r="O88" s="118"/>
       <c r="P88" s="118"/>
     </row>
-    <row r="89" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C89" s="43" t="s">
         <v>135</v>
       </c>
@@ -15445,7 +15445,7 @@
       <c r="O89" s="118"/>
       <c r="P89" s="118"/>
     </row>
-    <row r="90" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B90" s="35" t="s">
         <v>93</v>
       </c>
@@ -15476,7 +15476,7 @@
       <c r="O90" s="118"/>
       <c r="P90" s="118"/>
     </row>
-    <row r="91" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C91" s="43" t="s">
         <v>133</v>
       </c>
@@ -15504,7 +15504,7 @@
       <c r="O91" s="118"/>
       <c r="P91" s="118"/>
     </row>
-    <row r="92" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C92" s="43" t="s">
         <v>134</v>
       </c>
@@ -15532,7 +15532,7 @@
       <c r="O92" s="118"/>
       <c r="P92" s="118"/>
     </row>
-    <row r="93" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C93" s="43" t="s">
         <v>135</v>
       </c>
@@ -15560,7 +15560,7 @@
       <c r="O93" s="118"/>
       <c r="P93" s="118"/>
     </row>
-    <row r="94" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B94" s="35" t="s">
         <v>92</v>
       </c>
@@ -15591,7 +15591,7 @@
       <c r="O94" s="118"/>
       <c r="P94" s="118"/>
     </row>
-    <row r="95" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C95" s="43" t="s">
         <v>133</v>
       </c>
@@ -15619,7 +15619,7 @@
       <c r="O95" s="118"/>
       <c r="P95" s="118"/>
     </row>
-    <row r="96" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C96" s="43" t="s">
         <v>134</v>
       </c>
@@ -15647,7 +15647,7 @@
       <c r="O96" s="118"/>
       <c r="P96" s="118"/>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C97" s="43" t="s">
         <v>135</v>
       </c>
@@ -15675,7 +15675,7 @@
       <c r="O97" s="118"/>
       <c r="P97" s="118"/>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B98" s="35" t="s">
         <v>95</v>
       </c>
@@ -15706,7 +15706,7 @@
       <c r="O98" s="118"/>
       <c r="P98" s="118"/>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C99" s="43" t="s">
         <v>133</v>
       </c>
@@ -15734,7 +15734,7 @@
       <c r="O99" s="118"/>
       <c r="P99" s="118"/>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C100" s="43" t="s">
         <v>134</v>
       </c>
@@ -15762,7 +15762,7 @@
       <c r="O100" s="118"/>
       <c r="P100" s="118"/>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C101" s="43" t="s">
         <v>135</v>
       </c>
@@ -15790,12 +15790,12 @@
       <c r="O101" s="118"/>
       <c r="P101" s="118"/>
     </row>
-    <row r="103" spans="1:16" s="100" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:16" s="100" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="99" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="104" spans="1:16" s="36" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:16" s="36" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A104" s="121" t="s">
         <v>90</v>
       </c>
@@ -15829,7 +15829,7 @@
       <c r="O104" s="120"/>
       <c r="P104" s="120"/>
     </row>
-    <row r="105" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A105" s="40"/>
       <c r="B105" s="36"/>
       <c r="C105" s="43" t="s">
@@ -15859,7 +15859,7 @@
       <c r="O105" s="118"/>
       <c r="P105" s="118"/>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C106" s="43" t="s">
         <v>133</v>
       </c>
@@ -15887,7 +15887,7 @@
       <c r="O106" s="118"/>
       <c r="P106" s="118"/>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C107" s="43" t="s">
         <v>134</v>
       </c>
@@ -15915,7 +15915,7 @@
       <c r="O107" s="118"/>
       <c r="P107" s="118"/>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C108" s="43" t="s">
         <v>135</v>
       </c>
@@ -15943,11 +15943,11 @@
       <c r="O108" s="118"/>
       <c r="P108" s="118"/>
     </row>
-    <row r="111" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A111" s="40"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="OT7e5fsGr65Ky02jXaCHof0PH9x6Q7WKpiF9ul3DeqN8aotllyJutgKVPTExD00SNzTOcjcpsIUbVNBRT+g0Ug==" saltValue="7kurPHgh+50FPK2LB/PnOg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="wrL+nf9aOZ6FRgWPQYzNxFxqWL+lcjzY7w7k119hiCY7MlKLHx+66ULKgZLC8fzxZDzDH398p50CKdIygpAI8w==" saltValue="KepDOBb7ZibvJ+MhcNiDkw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -15964,24 +15964,24 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.81640625" style="35" customWidth="1"/>
-    <col min="2" max="2" width="44.453125" style="35" customWidth="1"/>
-    <col min="3" max="3" width="17.81640625" style="35" customWidth="1"/>
-    <col min="4" max="4" width="17.54296875" style="35" customWidth="1"/>
-    <col min="5" max="5" width="17.1796875" style="35" customWidth="1"/>
+    <col min="1" max="1" width="25.85546875" style="35" customWidth="1"/>
+    <col min="2" max="2" width="44.42578125" style="35" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" style="35" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" style="35" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" style="35" customWidth="1"/>
     <col min="6" max="6" width="15" style="35" customWidth="1"/>
-    <col min="7" max="7" width="13.6328125" style="35" customWidth="1"/>
-    <col min="8" max="16384" width="12.81640625" style="35"/>
+    <col min="7" max="7" width="13.5703125" style="35" customWidth="1"/>
+    <col min="8" max="16384" width="12.85546875" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="100" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="100" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="99" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="125" t="s">
         <v>0</v>
       </c>
@@ -16002,7 +16002,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="113" t="s">
         <v>249</v>
       </c>
@@ -16022,7 +16022,7 @@
         <v>174.7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="40"/>
       <c r="B4" s="117" t="s">
         <v>250</v>
@@ -16043,12 +16043,12 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="104" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="117" t="s">
         <v>184</v>
       </c>
@@ -16068,7 +16068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="117" t="s">
         <v>177</v>
       </c>
@@ -16088,7 +16088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="117" t="s">
         <v>192</v>
       </c>
@@ -16108,7 +16108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="117"/>
       <c r="C9" s="117"/>
       <c r="D9" s="117"/>
@@ -16116,12 +16116,12 @@
       <c r="F9" s="117"/>
       <c r="G9" s="117"/>
     </row>
-    <row r="10" spans="1:7" s="100" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" s="100" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="99" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="104"/>
       <c r="B11" s="113" t="s">
         <v>176</v>
@@ -16142,16 +16142,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="104"/>
       <c r="B12" s="113"/>
     </row>
-    <row r="13" spans="1:7" s="100" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" s="100" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="99" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="125" t="s">
         <v>248</v>
       </c>
@@ -16174,7 +16174,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="40"/>
       <c r="B15" s="117" t="s">
         <v>256</v>
@@ -16195,7 +16195,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="125" t="s">
         <v>124</v>
       </c>
@@ -16218,13 +16218,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="1:6" s="100" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="1:6" s="100" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="99" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="104" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" s="104" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C19" s="56" t="s">
         <v>72</v>
       </c>
@@ -16238,7 +16238,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B20" s="113" t="s">
         <v>165</v>
       </c>
@@ -16256,7 +16256,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="n7+N6lVyQoGs9wm6Le03BVVhz4Mb4pOGztJGy+9qHrVCICOmM88FaFbp9tB5bsZObMbxnrFm25Fm/1Og3pkCTQ==" saltValue="7MUHEuiCQrZBc8PtQBtkXw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="ZKJBH2w4sWio8zh5OBWJ+oTrE+QlPhIqPlokFmpwWLOHtOu5xGupkB04HiAssHv7zmKM6KW+EVyijpnJeYehIQ==" saltValue="J2nH/3JiJEUS+hTc5HAy5w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -16274,16 +16274,16 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.08984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="52.1796875" style="35" customWidth="1"/>
-    <col min="2" max="6" width="16.08984375" style="35"/>
-    <col min="7" max="7" width="17.1796875" style="35" customWidth="1"/>
-    <col min="8" max="8" width="16.08984375" style="35" customWidth="1"/>
-    <col min="9" max="16384" width="16.08984375" style="35"/>
+    <col min="1" max="1" width="52.140625" style="35" customWidth="1"/>
+    <col min="2" max="6" width="16.140625" style="35"/>
+    <col min="7" max="7" width="17.140625" style="35" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" style="35" customWidth="1"/>
+    <col min="9" max="16384" width="16.140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="119" t="s">
         <v>153</v>
       </c>
@@ -16301,7 +16301,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="90" t="s">
         <v>161</v>
       </c>
@@ -16321,7 +16321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="90"/>
       <c r="B3" s="90" t="s">
         <v>259</v>
@@ -16339,7 +16339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="90" t="s">
         <v>173</v>
       </c>
@@ -16359,7 +16359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="90"/>
       <c r="B5" s="90" t="s">
         <v>259</v>
@@ -16377,7 +16377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="90" t="s">
         <v>174</v>
       </c>
@@ -16397,7 +16397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="90"/>
       <c r="B7" s="90" t="s">
         <v>259</v>
@@ -16415,7 +16415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="90" t="s">
         <v>2</v>
       </c>
@@ -16435,7 +16435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="90"/>
       <c r="B9" s="90" t="s">
         <v>259</v>
@@ -16453,7 +16453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="90" t="s">
         <v>178</v>
       </c>
@@ -16473,7 +16473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="90"/>
       <c r="B11" s="90" t="s">
         <v>259</v>
@@ -16491,7 +16491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="90" t="s">
         <v>182</v>
       </c>
@@ -16511,7 +16511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="90"/>
       <c r="B13" s="90" t="s">
         <v>259</v>
@@ -16529,14 +16529,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="90"/>
     </row>
-    <row r="20" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="90"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="U7s4lt6WKwRkf6iwshhDxs9SyI6taR8UeSLci9ezgOH+uQssxayDMbB9Ub1dPTFAWzdir5oCKNTPp0ues5WQsw==" saltValue="jDvT2UzBsMHeWDyFF1IcMA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="rTtFa4da/pft8s53P1l+eFHd6gX7YmazCjA+97qds/Hi9nstDkdW/eTnA94y7th/7bJN/UEuP7LdQ+Lh7S3GQA==" saltValue="kZF8A70/gVYUT50WnFOtYw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -16553,15 +16553,15 @@
       <selection activeCell="E20" sqref="E20:O20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" style="35" customWidth="1"/>
-    <col min="2" max="2" width="58.90625" style="35" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" style="35" customWidth="1"/>
+    <col min="2" max="2" width="58.85546875" style="35" bestFit="1" customWidth="1"/>
     <col min="3" max="15" width="15" style="35" customWidth="1"/>
-    <col min="16" max="16384" width="12.81640625" style="35"/>
+    <col min="16" max="16384" width="12.85546875" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="40"/>
       <c r="B1" s="40"/>
       <c r="C1" s="103" t="s">
@@ -16604,12 +16604,12 @@
         <v>128</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="40" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B3" s="59" t="s">
         <v>164</v>
       </c>
@@ -16653,7 +16653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B4" s="59" t="s">
         <v>169</v>
       </c>
@@ -16697,7 +16697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B5" s="59" t="s">
         <v>170</v>
       </c>
@@ -16741,7 +16741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="59" t="s">
         <v>171</v>
       </c>
@@ -16785,7 +16785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B7" s="59" t="s">
         <v>172</v>
       </c>
@@ -16829,7 +16829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B8" s="90" t="s">
         <v>173</v>
       </c>
@@ -16873,7 +16873,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B9" s="90" t="s">
         <v>174</v>
       </c>
@@ -16917,7 +16917,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B10" s="59" t="s">
         <v>2</v>
       </c>
@@ -16961,7 +16961,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B11" s="90" t="s">
         <v>177</v>
       </c>
@@ -17005,7 +17005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B12" s="59" t="s">
         <v>178</v>
       </c>
@@ -17049,7 +17049,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="59" t="s">
         <v>181</v>
       </c>
@@ -17093,7 +17093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B14" s="59" t="s">
         <v>182</v>
       </c>
@@ -17137,13 +17137,13 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="40" t="s">
         <v>261</v>
       </c>
       <c r="B16" s="59"/>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B17" s="90" t="s">
         <v>166</v>
       </c>
@@ -17187,7 +17187,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B18" s="90" t="s">
         <v>167</v>
       </c>
@@ -17231,7 +17231,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B19" s="90" t="s">
         <v>168</v>
       </c>
@@ -17275,7 +17275,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B20" s="90" t="s">
         <v>175</v>
       </c>
@@ -17319,20 +17319,20 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B25" s="43"/>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B26" s="43"/>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B27" s="43"/>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B28" s="43"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="DYj3tX2KH7aaTkNMEc0ZbftGzUZaJrHuq5A8NSRMHnfQwbbAac7wMoakz9faIWwWp1JuyIi84lFvRj2T+dSg4Q==" saltValue="+1cZIRzxZ2pDwwVAPmTm/A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="B/RcdocpCz+MYed//50/0sO368bKajvjD4Jov5W2sR8AZsvWCoEmN0PhFBZodikWkavHlr9qK/E26UPy9GF5dw==" saltValue="8nwIklRThh64nfhx6M+p5A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -17349,15 +17349,15 @@
       <selection activeCell="D3" sqref="D3:G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.36328125" style="35" customWidth="1"/>
-    <col min="2" max="2" width="27.1796875" style="35" customWidth="1"/>
-    <col min="3" max="7" width="15.54296875" style="35" customWidth="1"/>
-    <col min="8" max="16384" width="12.81640625" style="35"/>
+    <col min="1" max="1" width="21.42578125" style="35" customWidth="1"/>
+    <col min="2" max="2" width="27.140625" style="35" customWidth="1"/>
+    <col min="3" max="7" width="15.5703125" style="35" customWidth="1"/>
+    <col min="8" max="16384" width="12.85546875" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="40"/>
       <c r="B1" s="119"/>
       <c r="C1" s="40" t="s">
@@ -17376,12 +17376,12 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="40" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3" s="59" t="s">
         <v>154</v>
       </c>
@@ -17401,7 +17401,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="40" t="s">
         <v>263</v>
       </c>
@@ -17412,7 +17412,7 @@
       <c r="F4" s="127"/>
       <c r="G4" s="127"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5" s="90" t="s">
         <v>158</v>
       </c>
@@ -17433,7 +17433,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="RR0s64ltfdGSuVLBTAr8G/Ltkhqb0DWd0fvRoxbRdpwGAISf09fIZLHzQUVzFRz+azXsJuT43tJHdxypqtdQzQ==" saltValue="BUYVAKo/EDm2E9yErNGmWg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="OpIuYbqUzCX0MDXrzbtwh1Yn7zr3nMgX2D7oZaAO2d4xWMOSeQ6cli+Ii43ngVRPMVdkuOUhhzXMPTyIpAeVag==" saltValue="9sUldCd1GS/JIRPVkPT1eQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -17450,20 +17450,20 @@
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="53" style="52" customWidth="1"/>
-    <col min="2" max="2" width="30.54296875" style="52" customWidth="1"/>
-    <col min="3" max="3" width="24.81640625" style="52" customWidth="1"/>
+    <col min="2" max="2" width="30.5703125" style="52" customWidth="1"/>
+    <col min="3" max="3" width="24.85546875" style="52" customWidth="1"/>
     <col min="4" max="4" width="15" style="35" customWidth="1"/>
-    <col min="5" max="5" width="13.6328125" style="35" customWidth="1"/>
-    <col min="6" max="6" width="14.453125" style="35" customWidth="1"/>
-    <col min="7" max="7" width="12.81640625" style="35"/>
-    <col min="8" max="8" width="17.54296875" style="35" customWidth="1"/>
-    <col min="9" max="16384" width="12.81640625" style="35"/>
+    <col min="5" max="5" width="13.5703125" style="35" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="35" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" style="35"/>
+    <col min="8" max="8" width="17.5703125" style="35" customWidth="1"/>
+    <col min="9" max="16384" width="12.85546875" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
         <v>153</v>
       </c>
@@ -17489,7 +17489,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="52" t="s">
         <v>185</v>
       </c>
@@ -17515,7 +17515,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C3" s="52" t="s">
         <v>266</v>
       </c>
@@ -17535,7 +17535,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C4" s="52" t="s">
         <v>267</v>
       </c>
@@ -17555,7 +17555,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="52" t="s">
         <v>184</v>
       </c>
@@ -17581,7 +17581,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C6" s="52" t="s">
         <v>267</v>
       </c>
@@ -17601,7 +17601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B7" s="52" t="s">
         <v>196</v>
       </c>
@@ -17624,7 +17624,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C8" s="52" t="s">
         <v>267</v>
       </c>
@@ -17644,7 +17644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="52" t="s">
         <v>177</v>
       </c>
@@ -17670,7 +17670,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C10" s="52" t="s">
         <v>267</v>
       </c>
@@ -17690,7 +17690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B11" s="52" t="s">
         <v>196</v>
       </c>
@@ -17713,7 +17713,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C12" s="52" t="s">
         <v>267</v>
       </c>
@@ -17733,7 +17733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="52" t="s">
         <v>163</v>
       </c>
@@ -17759,7 +17759,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C14" s="52" t="s">
         <v>267</v>
       </c>
@@ -17780,7 +17780,7 @@
       </c>
       <c r="I14" s="36"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B15" s="52" t="s">
         <v>196</v>
       </c>
@@ -17804,7 +17804,7 @@
       </c>
       <c r="I15" s="36"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C16" s="52" t="s">
         <v>267</v>
       </c>
@@ -17825,7 +17825,7 @@
       </c>
       <c r="I16" s="36"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="52" t="s">
         <v>168</v>
       </c>
@@ -17852,7 +17852,7 @@
       </c>
       <c r="I17" s="36"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C18" s="52" t="s">
         <v>266</v>
       </c>
@@ -17873,7 +17873,7 @@
       </c>
       <c r="I18" s="36"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="52" t="s">
         <v>166</v>
       </c>
@@ -17899,7 +17899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C20" s="52" t="s">
         <v>266</v>
       </c>
@@ -17919,7 +17919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="52" t="s">
         <v>167</v>
       </c>
@@ -17945,7 +17945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C22" s="52" t="s">
         <v>266</v>
       </c>
@@ -17965,7 +17965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="52" t="s">
         <v>189</v>
       </c>
@@ -17991,7 +17991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C24" s="52" t="s">
         <v>266</v>
       </c>
@@ -18011,7 +18011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C25" s="52" t="s">
         <v>267</v>
       </c>
@@ -18031,7 +18031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="52" t="s">
         <v>190</v>
       </c>
@@ -18057,7 +18057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C27" s="52" t="s">
         <v>266</v>
       </c>
@@ -18077,7 +18077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C28" s="52" t="s">
         <v>267</v>
       </c>
@@ -18097,7 +18097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="52" t="s">
         <v>188</v>
       </c>
@@ -18123,7 +18123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C30" s="52" t="s">
         <v>266</v>
       </c>
@@ -18143,7 +18143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C31" s="52" t="s">
         <v>267</v>
       </c>
@@ -18163,7 +18163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="52" t="s">
         <v>187</v>
       </c>
@@ -18189,7 +18189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C33" s="52" t="s">
         <v>266</v>
       </c>
@@ -18209,7 +18209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C34" s="52" t="s">
         <v>267</v>
       </c>
@@ -18229,7 +18229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="52" t="s">
         <v>186</v>
       </c>
@@ -18255,7 +18255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C36" s="52" t="s">
         <v>266</v>
       </c>
@@ -18275,7 +18275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C37" s="52" t="s">
         <v>267</v>
       </c>
@@ -18295,7 +18295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="52" t="s">
         <v>192</v>
       </c>
@@ -18321,7 +18321,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C39" s="52" t="s">
         <v>266</v>
       </c>
@@ -18341,7 +18341,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C40" s="52" t="s">
         <v>267</v>
       </c>
@@ -18361,7 +18361,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B41" s="52" t="s">
         <v>91</v>
       </c>
@@ -18384,7 +18384,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C42" s="52" t="s">
         <v>266</v>
       </c>
@@ -18404,7 +18404,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C43" s="52" t="s">
         <v>267</v>
       </c>
@@ -18424,7 +18424,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="52" t="s">
         <v>183</v>
       </c>
@@ -18450,7 +18450,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C45" s="52" t="s">
         <v>266</v>
       </c>
@@ -18470,7 +18470,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="52" t="s">
         <v>191</v>
       </c>
@@ -18496,7 +18496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C47" s="52" t="s">
         <v>266</v>
       </c>
@@ -18516,7 +18516,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="52" t="s">
         <v>176</v>
       </c>
@@ -18542,7 +18542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C49" s="52" t="s">
         <v>266</v>
       </c>
@@ -18563,7 +18563,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="hwga1QmOZIxv1I4ubnMP05Y6p9ukX7g2PPq4LCYUztZJ9kJLG8g1oz/JduzR0NeTK2Q6HlST82zak/9Goj5w1A==" saltValue="dDah+CZaSX1ktV4QmsS7wA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="HhiwKUCG3UI9jxP+xXt4QcHcLpWVl5Ds1gchezZap0LsHzmxqYho6ljCDB93mj6jhrp2ObTW8PhcWzfvZJnluA==" saltValue="Wh99w+ymbHlcC4IYyCSSWg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -18580,16 +18580,16 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28" style="35" customWidth="1"/>
-    <col min="2" max="2" width="27.453125" style="35" customWidth="1"/>
-    <col min="3" max="3" width="23.6328125" style="35" customWidth="1"/>
-    <col min="4" max="7" width="17.1796875" style="35" customWidth="1"/>
-    <col min="8" max="16384" width="12.81640625" style="35"/>
+    <col min="2" max="2" width="27.42578125" style="35" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" style="35" customWidth="1"/>
+    <col min="4" max="7" width="17.140625" style="35" customWidth="1"/>
+    <col min="8" max="16384" width="12.85546875" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="119" t="s">
         <v>153</v>
       </c>
@@ -18611,7 +18611,7 @@
       </c>
       <c r="H1" s="94"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="43" t="s">
         <v>162</v>
       </c>
@@ -18635,7 +18635,7 @@
       </c>
       <c r="H2" s="90"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C3" s="35" t="s">
         <v>266</v>
       </c>
@@ -18653,7 +18653,7 @@
       </c>
       <c r="H3" s="128"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="43" t="s">
         <v>180</v>
       </c>
@@ -18677,7 +18677,7 @@
       </c>
       <c r="H4" s="128"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="36"/>
       <c r="C5" s="35" t="s">
         <v>266</v>
@@ -18696,7 +18696,7 @@
       </c>
       <c r="H5" s="90"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="43" t="s">
         <v>179</v>
       </c>
@@ -18720,7 +18720,7 @@
       </c>
       <c r="H6" s="90"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="36"/>
       <c r="C7" s="35" t="s">
         <v>266</v>
@@ -18740,7 +18740,7 @@
       <c r="H7" s="128"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="bnYpmi8VncxTlFMUiYAwZK7pX5tBC9bzaTi6swRIe10wNatBd2rk18lpedvZO6QsRUd4psWnHrj4aku368H9ng==" saltValue="LNQJ0taLz+wrrQZwl9w3FA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="y3GOxihJ/KDRwVtdNl7Ht5DvpRZbYMG2sTjzMjPviZwAFNWYVClrnsTd1b7r7XE2lhAs2M/wHYbg3qEqYPVYIA==" saltValue="UhNmdMF+MKEtxV5STsnDcA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -18756,14 +18756,14 @@
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.08984375" customWidth="1"/>
-    <col min="2" max="2" width="31.36328125" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" customWidth="1"/>
+    <col min="2" max="2" width="31.42578125" customWidth="1"/>
     <col min="3" max="8" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="str">
         <f>"Pourcentage des morts de l'année de référence ("&amp;start_year&amp;") imputable à chaque cause"</f>
         <v>Pourcentage des morts de l'année de référence (2017) imputable à chaque cause</v>
@@ -18774,7 +18774,7 @@
       <c r="E1" s="41"/>
       <c r="F1" s="41"/>
     </row>
-    <row r="2" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>80</v>
       </c>
@@ -18789,7 +18789,7 @@
       <c r="F2" s="41"/>
       <c r="G2" s="41"/>
     </row>
-    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="24" t="s">
         <v>81</v>
       </c>
@@ -18797,7 +18797,7 @@
         <v>2.7000000000000001E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="24" t="s">
         <v>82</v>
       </c>
@@ -18805,7 +18805,7 @@
         <v>0.1966</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="24" t="s">
         <v>83</v>
       </c>
@@ -18813,7 +18813,7 @@
         <v>6.2100000000000002E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="24" t="s">
         <v>84</v>
       </c>
@@ -18821,7 +18821,7 @@
         <v>0.29289999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="24" t="s">
         <v>85</v>
       </c>
@@ -18829,7 +18829,7 @@
         <v>0.24709999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="24" t="s">
         <v>86</v>
       </c>
@@ -18837,7 +18837,7 @@
         <v>4.7999999999999996E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="24" t="s">
         <v>87</v>
       </c>
@@ -18845,7 +18845,7 @@
         <v>0.13200000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="24" t="s">
         <v>88</v>
       </c>
@@ -18853,7 +18853,7 @@
         <v>6.1800000000000001E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="32" t="s">
         <v>45</v>
       </c>
@@ -18864,7 +18864,7 @@
       <c r="G11" s="24"/>
       <c r="H11" s="24"/>
     </row>
-    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="32"/>
       <c r="C12" s="24"/>
       <c r="D12" s="24"/>
@@ -18873,7 +18873,7 @@
       <c r="G12" s="24"/>
       <c r="H12" s="24"/>
     </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
         <v>89</v>
       </c>
@@ -18894,7 +18894,7 @@
       </c>
       <c r="G13" s="24"/>
     </row>
-    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="24" t="s">
         <v>90</v>
       </c>
@@ -18911,7 +18911,7 @@
         <v>0.1368</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="24" t="s">
         <v>91</v>
       </c>
@@ -18928,7 +18928,7 @@
         <v>0.20660000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="24" t="s">
         <v>92</v>
       </c>
@@ -18945,7 +18945,7 @@
         <v>2.1100000000000001E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="24" t="s">
         <v>93</v>
       </c>
@@ -18962,7 +18962,7 @@
         <v>7.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="24" t="s">
         <v>94</v>
       </c>
@@ -18979,7 +18979,7 @@
         <v>8.6199999999999999E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="24" t="s">
         <v>95</v>
       </c>
@@ -18996,7 +18996,7 @@
         <v>2.86E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="24" t="s">
         <v>96</v>
       </c>
@@ -19013,7 +19013,7 @@
         <v>1.5299999999999999E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="24" t="s">
         <v>97</v>
       </c>
@@ -19030,7 +19030,7 @@
         <v>0.13589999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="24" t="s">
         <v>98</v>
       </c>
@@ -19047,7 +19047,7 @@
         <v>0.36199999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="32" t="s">
         <v>45</v>
       </c>
@@ -19070,7 +19070,7 @@
       <c r="G23" s="24"/>
       <c r="H23" s="24"/>
     </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="32"/>
       <c r="C24" s="24"/>
       <c r="D24" s="24"/>
@@ -19079,7 +19079,7 @@
       <c r="G24" s="24"/>
       <c r="H24" s="24"/>
     </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>103</v>
       </c>
@@ -19095,7 +19095,7 @@
       <c r="G25" s="24"/>
       <c r="H25" s="24"/>
     </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="24" t="s">
         <v>104</v>
       </c>
@@ -19103,7 +19103,7 @@
         <v>0.10082724000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="24" t="s">
         <v>105</v>
       </c>
@@ -19111,7 +19111,7 @@
         <v>3.1206000000000002E-4</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="24" t="s">
         <v>106</v>
       </c>
@@ -19119,7 +19119,7 @@
         <v>0.15891214000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="24" t="s">
         <v>107</v>
       </c>
@@ -19127,7 +19127,7 @@
         <v>0.12598688999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="24" t="s">
         <v>1</v>
       </c>
@@ -19135,7 +19135,7 @@
         <v>0.12434007</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="24" t="s">
         <v>108</v>
       </c>
@@ -19143,7 +19143,7 @@
         <v>3.9028409999999999E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="24" t="s">
         <v>109</v>
       </c>
@@ -19151,7 +19151,7 @@
         <v>8.5254999999999999E-4</v>
       </c>
     </row>
-    <row r="33" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="24" t="s">
         <v>110</v>
       </c>
@@ -19159,7 +19159,7 @@
         <v>6.8467810000000004E-2</v>
       </c>
     </row>
-    <row r="34" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="24" t="s">
         <v>111</v>
       </c>
@@ -19167,7 +19167,7 @@
         <v>0.38127283000000001</v>
       </c>
     </row>
-    <row r="35" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="32" t="s">
         <v>45</v>
       </c>
@@ -19177,7 +19177,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="JJk47+gxnwYS7P9D+LzyAxEWMojzTnqLmYTqhMcgZevWs+ffYC7b8eppSAJjQ64xMbVtcpGsvxgpJ4Qh80vj+w==" saltValue="VIZ1LXIcGu76g2xb0ECaVw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="HWindOpHeg7Y8WB4w0Vk2laQ09/SrA6Hjvzwh2b/Cy88daZ4fHMSZY8bPRgqkqSCADfn9PGFpaWxsWAb31h9DA==" saltValue="v4lThCQWCTVemzQXvaDGyQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="69" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -19195,13 +19195,13 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.453125" customWidth="1"/>
+    <col min="1" max="1" width="31.42578125" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="27" t="str">
         <f>"Pourcentage de la population dans chaque catégorie pendant l'année de référence ("&amp;start_year&amp;")"</f>
         <v>Pourcentage de la population dans chaque catégorie pendant l'année de référence (2017)</v>
@@ -19225,7 +19225,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>114</v>
       </c>
@@ -19253,7 +19253,7 @@
         <v>0.23269074767298425</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
       <c r="B3" s="11" t="s">
         <v>116</v>
@@ -19279,7 +19279,7 @@
         <v>0.37372365733745416</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="11" t="s">
         <v>117</v>
@@ -19300,7 +19300,7 @@
         <v>0.25929610299234518</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="11" t="s">
         <v>118</v>
@@ -19321,7 +19321,7 @@
         <v>0.13428949199721643</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="14"/>
       <c r="C6" s="29"/>
       <c r="D6" s="29"/>
@@ -19329,7 +19329,7 @@
       <c r="F6" s="29"/>
       <c r="G6" s="29"/>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="14"/>
       <c r="C7" s="29"/>
       <c r="D7" s="29"/>
@@ -19337,7 +19337,7 @@
       <c r="F7" s="29"/>
       <c r="G7" s="29"/>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>119</v>
       </c>
@@ -19365,7 +19365,7 @@
         <v>0.81212055177975573</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="7" t="s">
         <v>121</v>
       </c>
@@ -19390,7 +19390,7 @@
         <v>0.15821429221536368</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="7" t="s">
         <v>122</v>
       </c>
@@ -19410,7 +19410,7 @@
         <v>2.2330660624019519E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="7" t="s">
         <v>123</v>
       </c>
@@ -19430,7 +19430,7 @@
         <v>7.3344953808610778E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -19444,7 +19444,7 @@
       <c r="N12" s="15"/>
       <c r="O12" s="15"/>
     </row>
-    <row r="13" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
         <v>124</v>
       </c>
@@ -19488,7 +19488,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="16" t="s">
         <v>129</v>
       </c>
@@ -19532,7 +19532,7 @@
         <v>0.442</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="16" t="s">
         <v>130</v>
       </c>
@@ -19589,14 +19589,14 @@
         <v>0.18564</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
     </row>
-    <row r="17" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -19604,7 +19604,7 @@
       <c r="G17" s="8"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="LYl9XHv2sZoKqBp7/ubrY23AjR5951v/xz7gN9ezcvhKwo835U1nrCKb19p4y16/xiiZZfDtlXcXn0zzP2fzVQ==" saltValue="CCajPefTmncdU4PnSwE1Kw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="4w9q/lZ4BssTgHPCdb9KxkCKoui9RJD7+tGDAo2Ikdos12EKKqi2AAhHgqnl/SDMai9f6QBx8CsMFx0KC4tLWQ==" saltValue="PdjV9n0zGUYNIAyoK8StZA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
@@ -19622,13 +19622,13 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.90625" customWidth="1"/>
-    <col min="2" max="7" width="13.453125" customWidth="1"/>
+    <col min="1" max="1" width="28.85546875" customWidth="1"/>
+    <col min="2" max="7" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="27" t="str">
         <f>"Pourcentage des enfants dans chaque catégorie pendant l'année de référence ("&amp;start_year&amp;")"</f>
         <v>Pourcentage des enfants dans chaque catégorie pendant l'année de référence (2017)</v>
@@ -19652,7 +19652,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>131</v>
       </c>
@@ -19675,7 +19675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3" s="43" t="s">
         <v>133</v>
       </c>
@@ -19695,7 +19695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B4" s="43" t="s">
         <v>134</v>
       </c>
@@ -19715,7 +19715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5" s="43" t="s">
         <v>135</v>
       </c>
@@ -19741,7 +19741,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="xbp1hU4JTJUlW7YfJEaZLePCTNoQAeb3k00W4q12W0h5gQNRJMZ4gyR8GCililQKuJ+G32I7Rvu32TKA62uO0Q==" saltValue="Y4eiY2qhmtHCelPYFLERYg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="5X9NQ2D4f1IfkdlGT8/zRO4AGgZ8Udln4tpmz4wMEPVGepWk7XYCxANDa0I6o40Zsvf9+H3JlsSASwe9m3zpgw==" saltValue="9kClU2LyJtLQLwH/aABRfA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -19758,14 +19758,14 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="37" customWidth="1"/>
-    <col min="2" max="2" width="29.453125" customWidth="1"/>
-    <col min="3" max="3" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>136</v>
       </c>
@@ -19815,7 +19815,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>137</v>
       </c>
@@ -19842,10 +19842,10 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B3" s="14"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>138</v>
       </c>
@@ -19874,10 +19874,10 @@
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B5" s="14"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>139</v>
       </c>
@@ -19904,7 +19904,7 @@
         <v>0.19800000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B7" s="14" t="s">
         <v>103</v>
       </c>
@@ -19928,7 +19928,7 @@
         <v>0.17499999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B8" s="14" t="s">
         <v>140</v>
       </c>
@@ -19954,7 +19954,7 @@
         <v>0.17399999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>141</v>
       </c>
@@ -19981,7 +19981,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B11" s="34" t="s">
         <v>143</v>
       </c>
@@ -20005,7 +20005,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
         <v>47</v>
       </c>
@@ -20032,7 +20032,7 @@
         <v>6.7000000000000004E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B14" s="16" t="s">
         <v>145</v>
       </c>
@@ -20057,7 +20057,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="00gk2yPlyB6zh6x3bGe+yUpOtlPCRFMMtPSyiIVXRFLXdSKv+9khayq7avbBRgKS0Vj7wrVsW6tXd+M5x1ZqNw==" saltValue="AYbggsXwq1HkrzevufXDsg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="w4gzLSlW/jL0yAEVwqXRJKIeG3WjHtcPcMdSqnPCoFi6gr8VBXlk2ocrIP4pnktpwr2loSLFZOKGNipgSR+tPA==" saltValue="EQiDmFPHpjON7F1aM/ikBQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="193" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -20074,15 +20074,15 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17" style="35" customWidth="1"/>
-    <col min="2" max="2" width="19.08984375" style="35" customWidth="1"/>
-    <col min="3" max="3" width="13.453125" style="35" customWidth="1"/>
-    <col min="4" max="16384" width="11.453125" style="35"/>
+    <col min="2" max="2" width="19.140625" style="35" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" style="35" customWidth="1"/>
+    <col min="4" max="16384" width="11.42578125" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="50" t="s">
         <v>147</v>
       </c>
@@ -20099,7 +20099,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="49" t="s">
         <v>8</v>
       </c>
@@ -20113,7 +20113,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="47"/>
       <c r="B3" s="46" t="s">
         <v>112</v>
@@ -20127,7 +20127,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="47"/>
       <c r="B4" s="46" t="s">
         <v>99</v>
@@ -20141,7 +20141,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="47"/>
       <c r="B5" s="46" t="s">
         <v>100</v>
@@ -20155,7 +20155,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="47"/>
       <c r="B6" s="46" t="s">
         <v>101</v>
@@ -20169,7 +20169,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="47"/>
       <c r="B7" s="46" t="s">
         <v>152</v>
@@ -20178,7 +20178,7 @@
       <c r="D7" s="44"/>
       <c r="E7" s="80"/>
     </row>
-    <row r="9" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="49" t="s">
         <v>11</v>
       </c>
@@ -20194,7 +20194,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="47"/>
       <c r="B10" s="46" t="s">
         <v>112</v>
@@ -20206,7 +20206,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="47"/>
       <c r="B11" s="46" t="s">
         <v>99</v>
@@ -20218,7 +20218,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="47"/>
       <c r="B12" s="46" t="s">
         <v>100</v>
@@ -20230,7 +20230,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="47"/>
       <c r="B13" s="46" t="s">
         <v>101</v>
@@ -20242,7 +20242,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="47"/>
       <c r="B14" s="46" t="s">
         <v>152</v>
@@ -20253,7 +20253,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="49" t="s">
         <v>12</v>
       </c>
@@ -20269,7 +20269,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="47"/>
       <c r="B17" s="46" t="s">
         <v>112</v>
@@ -20283,7 +20283,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="47"/>
       <c r="B18" s="46" t="s">
         <v>99</v>
@@ -20297,7 +20297,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="47"/>
       <c r="B19" s="46" t="s">
         <v>100</v>
@@ -20311,7 +20311,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="47"/>
       <c r="B20" s="46" t="s">
         <v>101</v>
@@ -20325,7 +20325,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="47"/>
       <c r="B21" s="46" t="s">
         <v>152</v>
@@ -20335,7 +20335,7 @@
       <c r="E21" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="aIz0AFmtJz1JiDlEZxvLceJ3AKMJh0C9ip2sv5KMH9bjB76XaKb07hkEX6fY7GEaZGUINmMayvUYpkyCFUOrbQ==" saltValue="QJe/xrzGp5nk0+oVRbOKJA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="3nhVSzPMedA1nSD82LiYTgLPgmE4t0Nq1lh3lT57uMSPdN449g3yZruFsjH/eulDAPixU74umOc0qsS/xl4vfg==" saltValue="MHj4OsuBpBrExQ6emXaMnQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -20352,15 +20352,15 @@
       <selection activeCell="D2" sqref="D2:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.6328125" customWidth="1"/>
-    <col min="2" max="2" width="15.453125" customWidth="1"/>
-    <col min="3" max="3" width="17.453125" customWidth="1"/>
-    <col min="4" max="4" width="12.90625" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="60" t="s">
         <v>7</v>
       </c>
@@ -20374,7 +20374,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="61" t="s">
         <v>153</v>
       </c>
@@ -20386,7 +20386,7 @@
       </c>
       <c r="D2" s="80"/>
     </row>
-    <row r="3" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="61" t="s">
         <v>157</v>
       </c>
@@ -20399,7 +20399,7 @@
       <c r="D3" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="soit6H2KbxsoSF46W8Mry1JADLR7q7u0CHEM5xYH06rX4X0N6REO8guNehQB/gK1N8vZtrBOLOalXTItZkScxA==" saltValue="bcJ9mJGDyFFTpaWX6zisgQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Y/IEIY1s95jUJMS2J7Jmc/rVeGz+WQqUbFZFVGfxurmEwGjAYlXIKHalYWUMTUG1j60GbEDAaNMdkIvplsGUSQ==" saltValue="suncbIflxiP7KANAV1hakg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -20415,17 +20415,17 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="56" style="52" customWidth="1"/>
     <col min="2" max="2" width="20" style="36" customWidth="1"/>
-    <col min="3" max="3" width="20.453125" style="35" customWidth="1"/>
-    <col min="4" max="4" width="20.08984375" style="35" customWidth="1"/>
-    <col min="5" max="5" width="32.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="14.453125" style="35"/>
+    <col min="3" max="3" width="20.42578125" style="35" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" style="35" customWidth="1"/>
+    <col min="5" max="5" width="32.42578125" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="14.42578125" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="54" t="s">
         <v>153</v>
       </c>
@@ -20443,7 +20443,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="52" t="s">
         <v>161</v>
       </c>
@@ -20460,7 +20460,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="52" t="s">
         <v>162</v>
       </c>
@@ -20477,7 +20477,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="52" t="s">
         <v>163</v>
       </c>
@@ -20494,7 +20494,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="52" t="s">
         <v>164</v>
       </c>
@@ -20511,7 +20511,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="52" t="s">
         <v>165</v>
       </c>
@@ -20528,7 +20528,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="52" t="s">
         <v>166</v>
       </c>
@@ -20545,7 +20545,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="52" t="s">
         <v>167</v>
       </c>
@@ -20562,7 +20562,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="52" t="s">
         <v>168</v>
       </c>
@@ -20579,7 +20579,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="59" t="s">
         <v>169</v>
       </c>
@@ -20596,7 +20596,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="59" t="s">
         <v>170</v>
       </c>
@@ -20613,7 +20613,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="59" t="s">
         <v>171</v>
       </c>
@@ -20630,7 +20630,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="59" t="s">
         <v>172</v>
       </c>
@@ -20647,7 +20647,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
         <v>173</v>
       </c>
@@ -20664,7 +20664,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
         <v>174</v>
       </c>
@@ -20681,7 +20681,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="52" t="s">
         <v>2</v>
       </c>
@@ -20698,7 +20698,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="52" t="s">
         <v>175</v>
       </c>
@@ -20715,7 +20715,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="52" t="s">
         <v>8</v>
       </c>
@@ -20732,7 +20732,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="52" t="s">
         <v>11</v>
       </c>
@@ -20749,7 +20749,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="52" t="s">
         <v>12</v>
       </c>
@@ -20766,7 +20766,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="52" t="s">
         <v>176</v>
       </c>
@@ -20783,7 +20783,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="52" t="s">
         <v>177</v>
       </c>
@@ -20800,7 +20800,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="52" t="s">
         <v>178</v>
       </c>
@@ -20817,7 +20817,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="52" t="s">
         <v>179</v>
       </c>
@@ -20834,7 +20834,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="52" t="s">
         <v>180</v>
       </c>
@@ -20851,7 +20851,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="52" t="s">
         <v>181</v>
       </c>
@@ -20868,7 +20868,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="52" t="s">
         <v>182</v>
       </c>
@@ -20885,7 +20885,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="52" t="s">
         <v>183</v>
       </c>
@@ -20902,7 +20902,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="52" t="s">
         <v>184</v>
       </c>
@@ -20919,7 +20919,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="52" t="s">
         <v>154</v>
       </c>
@@ -20936,7 +20936,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="52" t="s">
         <v>185</v>
       </c>
@@ -20953,7 +20953,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="52" t="s">
         <v>186</v>
       </c>
@@ -20970,7 +20970,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="52" t="s">
         <v>187</v>
       </c>
@@ -20987,7 +20987,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="52" t="s">
         <v>188</v>
       </c>
@@ -21004,7 +21004,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="52" t="s">
         <v>189</v>
       </c>
@@ -21021,7 +21021,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="36" spans="1:6" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="52" t="s">
         <v>190</v>
       </c>
@@ -21039,7 +21039,7 @@
       </c>
       <c r="F36" s="35"/>
     </row>
-    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="52" t="s">
         <v>191</v>
       </c>
@@ -21056,7 +21056,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="52" t="s">
         <v>192</v>
       </c>
@@ -21073,11 +21073,11 @@
         <v>193</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F39" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="CHSdL5UwQtGO+EnmdNBj7jk6gacTCn9USDS1+W0291xrvl9N2POnFf7cUPp7Mp/IaAQ+dYhAnZSCEFu2BsxZtA==" saltValue="zRPbim3IlBWEVRwwcYdlaA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="EyuBdl8DBDIVJiOy1+bLBtbXVQx4SrAvt48zUqzkeL8D+KLlu8cSJ32k6xekaddzr1JeMsuqyjkpVtPZIjgORQ==" saltValue="ZCLVTFBStDrsVdCPslcdXQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D38">
     <sortCondition ref="A2:A38"/>
   </sortState>

--- a/inputs/fr/demo_demo_input.xlsx
+++ b/inputs/fr/demo_demo_input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\romesh\projects\nutrition\inputs\fr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7556E52-4BBE-448B-9764-B4022ADEA2A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8FE3DCA1-ECBB-4B69-8D30-90740D6D7C2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8520" yWindow="6315" windowWidth="29130" windowHeight="12660" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -609,9 +609,6 @@
     <t>Type</t>
   </si>
   <si>
-    <t>High (HAZ-score &lt; -3)</t>
-  </si>
-  <si>
     <t>Données de l'année de référence</t>
   </si>
   <si>
@@ -913,6 +910,9 @@
   </si>
   <si>
     <t>Modéré (score HAZ entre -3 et -2)</t>
+  </si>
+  <si>
+    <t>Élevé (score HAZ &lt; -3)</t>
   </si>
   <si>
     <t>Amaigrissement (poids-pour-taille)</t>
@@ -5123,18 +5123,18 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="41" t="s">
         <v>6</v>
       </c>
       <c r="C1" s="41" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="41"/>
       <c r="C2" s="41"/>
@@ -5142,7 +5142,7 @@
     <row r="3" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" s="63">
         <v>2017</v>
@@ -5151,7 +5151,7 @@
     <row r="4" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" s="64">
         <v>2030</v>
@@ -5164,12 +5164,12 @@
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" s="65">
         <v>9862402</v>
@@ -5177,7 +5177,7 @@
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" s="66">
         <v>0.28199999999999997</v>
@@ -5185,7 +5185,7 @@
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" s="67">
         <v>1</v>
@@ -5193,7 +5193,7 @@
     </row>
     <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" s="67">
         <v>0.23</v>
@@ -5201,7 +5201,7 @@
     </row>
     <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" s="66">
         <v>0.51</v>
@@ -5209,7 +5209,7 @@
     </row>
     <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C12" s="66">
         <v>0.37</v>
@@ -5217,7 +5217,7 @@
     </row>
     <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C13" s="66">
         <v>0.221</v>
@@ -5228,14 +5228,14 @@
     </row>
     <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B15" s="19"/>
       <c r="C15" s="3"/>
     </row>
     <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C16" s="67">
         <v>0.3</v>
@@ -5243,7 +5243,7 @@
     </row>
     <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C17" s="67">
         <v>0.1</v>
@@ -5251,7 +5251,7 @@
     </row>
     <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C18" s="67">
         <v>0.1</v>
@@ -5259,7 +5259,7 @@
     </row>
     <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C19" s="67">
         <v>0.8</v>
@@ -5267,7 +5267,7 @@
     </row>
     <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C20" s="68">
         <f>1-frac_rice-frac_wheat-frac_maize</f>
@@ -5279,12 +5279,12 @@
     </row>
     <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C23" s="67">
         <v>0.127</v>
@@ -5292,7 +5292,7 @@
     </row>
     <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C24" s="67">
         <v>0.45200000000000001</v>
@@ -5300,7 +5300,7 @@
     </row>
     <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C25" s="67">
         <v>0.33400000000000002</v>
@@ -5308,7 +5308,7 @@
     </row>
     <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C26" s="67">
         <v>8.6999999999999994E-2</v>
@@ -5320,14 +5320,14 @@
     </row>
     <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B28" s="20"/>
       <c r="C28" s="20"/>
     </row>
     <row r="29" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C29" s="69">
         <v>0.20799999999999999</v>
@@ -5335,7 +5335,7 @@
     </row>
     <row r="30" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C30" s="69">
         <v>0.63700000000000001</v>
@@ -5343,7 +5343,7 @@
     </row>
     <row r="31" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C31" s="69">
         <v>0.11899999999999999</v>
@@ -5351,7 +5351,7 @@
     </row>
     <row r="32" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C32" s="69">
         <v>3.5999999999999997E-2</v>
@@ -5359,7 +5359,7 @@
     </row>
     <row r="33" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B33" s="32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C33" s="70">
         <f>SUM(C29:C32)</f>
@@ -5369,19 +5369,19 @@
     <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B36" s="7"/>
       <c r="C36" s="13"/>
     </row>
     <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="42" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C37" s="71">
         <v>25</v>
@@ -5389,7 +5389,7 @@
     </row>
     <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C38" s="71">
         <v>43</v>
@@ -5399,7 +5399,7 @@
     </row>
     <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C39" s="71">
         <v>67</v>
@@ -5409,7 +5409,7 @@
     </row>
     <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C40" s="71">
         <v>4.01</v>
@@ -5417,7 +5417,7 @@
     </row>
     <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C41" s="67">
         <v>0.13</v>
@@ -5425,7 +5425,7 @@
     </row>
     <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="42" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C42" s="71">
         <v>22.4</v>
@@ -5436,13 +5436,13 @@
     </row>
     <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D44" s="17"/>
     </row>
     <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C45" s="67">
         <v>3.1E-2</v>
@@ -5451,7 +5451,7 @@
     </row>
     <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C46" s="67">
         <v>0.109</v>
@@ -5460,7 +5460,7 @@
     </row>
     <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C47" s="67">
         <v>0.36499999999999999</v>
@@ -5470,7 +5470,7 @@
     </row>
     <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C48" s="68">
         <f>1-term_SGA-preterm_AGA-preterm_SGA</f>
@@ -5484,13 +5484,13 @@
     </row>
     <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D50" s="17"/>
     </row>
     <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C51" s="72">
         <v>1.66</v>
@@ -5499,7 +5499,7 @@
     </row>
     <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C52" s="72">
         <v>1.66</v>
@@ -5507,7 +5507,7 @@
     </row>
     <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C53" s="72">
         <v>5.64</v>
@@ -5515,7 +5515,7 @@
     </row>
     <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C54" s="72">
         <v>5.43</v>
@@ -5523,7 +5523,7 @@
     </row>
     <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C55" s="72">
         <v>1.91</v>
@@ -5531,12 +5531,12 @@
     </row>
     <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C58" s="66">
         <v>0.2</v>
@@ -5544,7 +5544,7 @@
     </row>
     <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C59" s="66">
         <v>0.42</v>
@@ -5552,7 +5552,7 @@
     </row>
     <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C60" s="66">
         <v>4.5999999999999999E-2</v>
@@ -5560,7 +5560,7 @@
     </row>
     <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C61" s="66">
         <v>1.4E-2</v>
@@ -5570,7 +5570,7 @@
       <c r="A63" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="PUmBciPHdIYk7883rdkgN1i4oprVDgMOjf6VSVVlFRsDqJZSy7hLMPbW3h9fNJ4+YNUm27dLOXbddqOAz0N7yA==" saltValue="9Io251kYYLkNOMAXh6effw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="eQ+6rx/HZmU72+aEzY+aCC8IkbkL3gFkfkxKfyFamGp78TiMTRpHFK/1HzUNZTGgEXGUnAFMry5vZDZj/tlQWg==" saltValue="JQxz3uzHA0ziBkKSM7YUow==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
 </worksheet>
@@ -6478,7 +6478,7 @@
       <c r="F39" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="HVE4ByPn7TOW8AqUzjKKCmfQ/V7rQVfM9w3/chyywaboINnJjl4pPF2XHtp/wsuqgYpZfNWdjmGx57kEW4cYoQ==" saltValue="bFi4r9MyhI43O8Rb2XoiVQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="irO5J+2RjH7HLTK8Ax0OOMHEgBXrbjy1Hm5DweWmh1XZ/4rc03ok+gDp60C3X/rc2P/hawh3iXx5Y/Uu+choNw==" saltValue="/2DIgLxoIusvJpuQPd2L2A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D38">
     <sortCondition ref="A2:A38"/>
   </sortState>
@@ -6642,7 +6642,7 @@
       <c r="C20" s="85"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="kJoON65M9c40p7hkk/bGDRtqhHzitwsm2q24unrljE0qx0Xw0e1mtPb84B6v/Q2Y8xsWffbucNSyjWod5Gk/Eg==" saltValue="XCOiF0vXNEklIP3OOp7JMw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="MtE9YHmDw361FmOFrnU1LLvVg8HBJ2E9iRWcfI9vnGZpGASA8vJ/rbDcLh8wbBbaKzKSkgUCAqOX24e98Yeesg==" saltValue="zrTzi+mUSshyZIhg6Bufbw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
@@ -6742,7 +6742,7 @@
       <c r="A19" s="48"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="hMJJwepulHcCrfERAi/LUYZZ5w19pMQc/3SIp7PCwnOyfVidehTKx2eOL91Nxt9V4UEKqT+DRgZ5qz8u6UadTg==" saltValue="u9JomlTPjscTPfvOj7vVRQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="X/9doAaaWv/uFFbvd0MI6emo20uAcSV+653OONASie4OqnvyGdqIky9r9AzF0r1z9zMag8aaE4y1HQjtPejtqg==" saltValue="4uMOkpMqWxFofrEwFf/C/Q==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -6766,24 +6766,24 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1" t="s">
         <v>100</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>101</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>102</v>
-      </c>
-      <c r="F1" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B2" s="26">
         <f>'Donnees pop de l''annee de ref'!C51</f>
@@ -6857,7 +6857,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="wthnvxhA2RuvYDEg0oJqN0QC9dz9UFI5V2EtQzOQQihThGW43Z/s+HBWkLInchqkct7n9Xcq98s7DE4C9A8fqA==" saltValue="lRNUwZdmGT10auypNUnuzg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="VINb4mvOfdkrlvMPaXgcGtOR6dGfn5D/sEDJ3+6JE1ni7yeo6AQXKmUsjjGfrEqAvmi26mKkr7leZ83X6QXDHg==" saltValue="9mkfZx7y8JGNB4Uw684Khw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -6894,19 +6894,19 @@
         <v>160</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>102</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>103</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>125</v>
@@ -6921,21 +6921,21 @@
         <v>128</v>
       </c>
       <c r="L1" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>75</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>170</v>
@@ -7450,7 +7450,7 @@
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B14" s="33" t="s">
         <v>168</v>
@@ -7831,7 +7831,7 @@
     </row>
     <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="58" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B23" s="59" t="s">
         <v>172</v>
@@ -8573,7 +8573,7 @@
       <c r="B39" s="33"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="rNRXPWHsFveU96Kt/hj25arqs90UPhHbE30+jffY1nQp0aL1XobNb3iPQNWbgtE67Ml+TbVJ+seAbcVbF2ctUg==" saltValue="I++GEorI0fp0cDQKTzUaZw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="J2fecCJWjPxHIdCA/6mNEXL2zgyCnY7n7EO0/7a11NjQMFgdAdu9SboO/gdYLjHN7Iy7NClRC+j3JajxYHKoBw==" saltValue="hVER4VOcIyoEsK+xTb+Dmw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B14:O21">
     <sortCondition ref="B14:B21"/>
   </sortState>
@@ -8611,7 +8611,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="8OP/HhtzomjRQQ1HSrlK05ttY40qFpUY01HlYGMFtk9VtXY/P50vLq/rLJUDwny8eDmewS5yNtixahuB2WDJfg==" saltValue="wX8n55ws3Ins7Q8RAkdeLA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Dsi0n7/omnndr+OZ+pLXzFNKQN1+l/uZAEwG0wdNx3RIV+CcOkLzVrEwCy6NtOrKb+djeQwdjG/9nsnBONtHFQ==" saltValue="4ypYL5RDTGE+Jg6vVQ3Omw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8819,7 +8819,7 @@
       <c r="C11" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="O0yvSL3/SyrciHc6HWNmCyjFcitdV8nAJ+x+A7gWkBTlf6pFm4Z05JwrnbW7+oMTtwJhLXp6kGW7wa5EBKAuVg==" saltValue="4/qmm8zVOntORr3uz1UUZA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="3aCfyLKhQVD0pKIX8M17jneW00rZ0o8b5IFuRn4PpwkknRe0MtHVm4Ekrn4yLXdSxYgkEAknV1TR1KWJMXMHzg==" saltValue="POMnvf5vwIAx7kYJBuWi8w==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -8858,19 +8858,19 @@
         <v>160</v>
       </c>
       <c r="C1" s="56" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D1" s="56" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" s="56" t="s">
         <v>100</v>
       </c>
-      <c r="E1" s="56" t="s">
+      <c r="F1" s="56" t="s">
         <v>101</v>
       </c>
-      <c r="F1" s="56" t="s">
+      <c r="G1" s="56" t="s">
         <v>102</v>
-      </c>
-      <c r="G1" s="56" t="s">
-        <v>103</v>
       </c>
       <c r="H1" s="56" t="s">
         <v>125</v>
@@ -8885,21 +8885,21 @@
         <v>128</v>
       </c>
       <c r="L1" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="M1" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="M1" s="56" t="s">
+      <c r="N1" s="56" t="s">
         <v>74</v>
       </c>
-      <c r="N1" s="56" t="s">
+      <c r="O1" s="56" t="s">
         <v>75</v>
-      </c>
-      <c r="O1" s="56" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="56" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B2" s="52" t="s">
         <v>170</v>
@@ -9534,7 +9534,7 @@
     </row>
     <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="56" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B17" s="52" t="s">
         <v>168</v>
@@ -9906,7 +9906,7 @@
     </row>
     <row r="26" spans="1:16" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="56" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B26" s="52" t="s">
         <v>172</v>
@@ -10590,7 +10590,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="cwGvEBuRLZw8Ai25IFHhgAYhQo3gs5H/TqvJDJY4UQNRPtNf1GweGh3Y8FnQ+b0qkzUDuicihBPfPNu2ZhXWVw==" saltValue="EBZAsdf+VzvpMEbK10VTqA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="8PGxkzQ38ycK6J4iLTVVOschiBUufQU0sfr61oeM3kGyXUmof5sxTHzG+Y62apMIVt22NDRvCWXLJpQO7YwGyQ==" saltValue="56fhVNKezCuZjVxULOc3nw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10641,19 +10641,19 @@
         <v>131</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I1" s="35" t="s">
         <v>227</v>
       </c>
       <c r="J1" s="35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K1" s="35" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -11336,7 +11336,7 @@
       <c r="K38" s="133"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="jXoblhm2EBawjqXFV2Lvo6YxHMmVL7Rkja5JrVppU5iHw6763Ucat4/JPvb61ZRTQmyqN6m4p73AzgROLOE06g==" saltValue="SHyzqkIGzF0ucCRY2+H3cA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="ZQ8oS19XaIx4dOA6JN5OHIcKCxVrOUC5YQv7Ud1D19MLUpk5Gg97/jYwd26ltiH8QILl5U1z+vJH5pr7VeRCpQ==" saltValue="JvKs9uba08heALu1DlbEvQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11387,24 +11387,24 @@
         <v>131</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I1" s="35" t="s">
         <v>227</v>
       </c>
       <c r="J1" s="35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K1" s="35" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="35" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B2" s="133" t="s">
         <v>9</v>
@@ -11433,7 +11433,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="35" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B3" s="133" t="s">
         <v>9</v>
@@ -11462,7 +11462,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="35" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B4" s="133" t="s">
         <v>9</v>
@@ -11491,7 +11491,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="35" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B5" s="133" t="s">
         <v>9</v>
@@ -11520,7 +11520,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="35" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B6" s="133" t="s">
         <v>9</v>
@@ -11633,7 +11633,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B11" s="133"/>
       <c r="C11" s="133" t="s">
@@ -11654,7 +11654,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B12" s="133"/>
       <c r="C12" s="133" t="s">
@@ -11673,7 +11673,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="35" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B13" s="133"/>
       <c r="C13" s="133" t="s">
@@ -11692,7 +11692,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="35" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B14" s="133"/>
       <c r="C14" s="133" t="s">
@@ -11710,7 +11710,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="EPOlrZDobH8kWWl4qxL3amrB6bkK80ipASpu4wSd+Vw5NQ48NqfEXf3/D6GtAK313JrXNfwpi2Gi31HJLx79IA==" saltValue="GJTwMf2VvRx4qFRnSkJtFA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="r3jsIE3yjkv4IQUs1eSqI1c9ARsjhE1UFCzd6EzoybHx2xVd6FbEqRDv/Pk2hv7w9fgIZLjLnzzOEEHTm/jmUA==" saltValue="zXmDANFO9KiOEf/Bmp0y6A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11735,31 +11735,31 @@
   <sheetData>
     <row r="1" spans="1:9" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="31" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B1" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="D1" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="E1" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="F1" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="G1" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="H1" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="I1" s="23" t="s">
         <v>78</v>
-      </c>
-      <c r="I1" s="23" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12799,7 +12799,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="+3viT1hVpz89Yk3EIGQYDwdg6D8Ys4zHf65TyOhsA/NwnvOR4bz5CiMpe0+R0Neuay7SfJUiqWmfxyPVxTDF+Q==" saltValue="370eiUPx3DcwR5sd0WWtHw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="/ca47vh/TMs0PfJ3E+FhwA7aVpmEqQoIrk6eH2nKqMfmrV781mSHiHCVy5Ue978/o3Xay+S1L7rE+C5248ImWg==" saltValue="Ug50x3OATkOeCoIQgr2NbA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <conditionalFormatting sqref="B2:I16 B18:I40 B17:C17 E17:I17">
     <cfRule type="expression" dxfId="0" priority="9">
       <formula>$A2=""</formula>
@@ -12840,19 +12840,19 @@
         <v>164</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E1" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="G1" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="G1" s="40" t="s">
+      <c r="H1" s="94" t="s">
         <v>102</v>
-      </c>
-      <c r="H1" s="94" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -12860,7 +12860,7 @@
         <v>230</v>
       </c>
       <c r="B2" s="148" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C2" s="35" t="s">
         <v>156</v>
@@ -12927,7 +12927,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" s="148" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C5" s="35" t="s">
         <v>156</v>
@@ -12993,7 +12993,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8" s="148" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C8" s="35" t="s">
         <v>156</v>
@@ -13058,7 +13058,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B11" s="148" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C11" s="35" t="s">
         <v>156</v>
@@ -13123,7 +13123,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B14" s="148" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C14" s="35" t="s">
         <v>156</v>
@@ -13221,7 +13221,7 @@
         <v>231</v>
       </c>
       <c r="B19" s="148" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C19" s="35" t="s">
         <v>156</v>
@@ -13286,7 +13286,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B22" s="148" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C22" s="35" t="s">
         <v>156</v>
@@ -13351,7 +13351,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B25" s="148" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C25" s="35" t="s">
         <v>156</v>
@@ -13416,7 +13416,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B28" s="148" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C28" s="35" t="s">
         <v>156</v>
@@ -13481,7 +13481,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B31" s="148" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C31" s="35" t="s">
         <v>156</v>
@@ -13579,7 +13579,7 @@
         <v>232</v>
       </c>
       <c r="B36" s="148" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C36" s="35" t="s">
         <v>156</v>
@@ -13644,7 +13644,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B39" s="148" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C39" s="35" t="s">
         <v>156</v>
@@ -13709,7 +13709,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B42" s="148" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C42" s="35" t="s">
         <v>156</v>
@@ -13774,7 +13774,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B45" s="148" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C45" s="35" t="s">
         <v>156</v>
@@ -13839,7 +13839,7 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B48" s="148" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C48" s="35" t="s">
         <v>156</v>
@@ -13948,19 +13948,19 @@
         <v>164</v>
       </c>
       <c r="D54" s="40" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E54" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="F54" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="F54" s="40" t="s">
+      <c r="G54" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="G54" s="40" t="s">
+      <c r="H54" s="94" t="s">
         <v>102</v>
-      </c>
-      <c r="H54" s="94" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
@@ -13968,7 +13968,7 @@
         <v>234</v>
       </c>
       <c r="B55" s="148" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C55" s="35" t="s">
         <v>156</v>
@@ -14048,7 +14048,7 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B58" s="148" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C58" s="35" t="s">
         <v>156</v>
@@ -14128,7 +14128,7 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B61" s="148" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C61" s="35" t="s">
         <v>156</v>
@@ -14208,7 +14208,7 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B64" s="148" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C64" s="35" t="s">
         <v>156</v>
@@ -14288,7 +14288,7 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B67" s="148" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C67" s="35" t="s">
         <v>156</v>
@@ -14406,7 +14406,7 @@
         <v>235</v>
       </c>
       <c r="B72" s="148" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C72" s="35" t="s">
         <v>156</v>
@@ -14486,7 +14486,7 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B75" s="148" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C75" s="35" t="s">
         <v>156</v>
@@ -14566,7 +14566,7 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B78" s="148" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C78" s="35" t="s">
         <v>156</v>
@@ -14646,7 +14646,7 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B81" s="148" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C81" s="35" t="s">
         <v>156</v>
@@ -14726,7 +14726,7 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B84" s="148" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C84" s="35" t="s">
         <v>156</v>
@@ -14844,7 +14844,7 @@
         <v>236</v>
       </c>
       <c r="B89" s="148" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C89" s="35" t="s">
         <v>156</v>
@@ -14924,7 +14924,7 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B92" s="148" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C92" s="35" t="s">
         <v>156</v>
@@ -15004,7 +15004,7 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B95" s="148" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C95" s="35" t="s">
         <v>156</v>
@@ -15084,7 +15084,7 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B98" s="148" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C98" s="35" t="s">
         <v>156</v>
@@ -15164,7 +15164,7 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B101" s="148" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C101" s="35" t="s">
         <v>156</v>
@@ -15293,19 +15293,19 @@
         <v>164</v>
       </c>
       <c r="D107" s="40" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E107" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="F107" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="F107" s="40" t="s">
+      <c r="G107" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="G107" s="40" t="s">
+      <c r="H107" s="94" t="s">
         <v>102</v>
-      </c>
-      <c r="H107" s="94" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
@@ -15313,7 +15313,7 @@
         <v>238</v>
       </c>
       <c r="B108" s="148" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C108" s="35" t="s">
         <v>156</v>
@@ -15393,7 +15393,7 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B111" s="148" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C111" s="35" t="s">
         <v>156</v>
@@ -15473,7 +15473,7 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B114" s="148" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C114" s="35" t="s">
         <v>156</v>
@@ -15553,7 +15553,7 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B117" s="148" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C117" s="35" t="s">
         <v>156</v>
@@ -15633,7 +15633,7 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B120" s="148" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C120" s="35" t="s">
         <v>156</v>
@@ -15751,7 +15751,7 @@
         <v>239</v>
       </c>
       <c r="B125" s="148" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C125" s="35" t="s">
         <v>156</v>
@@ -15831,7 +15831,7 @@
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B128" s="148" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C128" s="35" t="s">
         <v>156</v>
@@ -15911,7 +15911,7 @@
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B131" s="148" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C131" s="35" t="s">
         <v>156</v>
@@ -15991,7 +15991,7 @@
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B134" s="148" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C134" s="35" t="s">
         <v>156</v>
@@ -16071,7 +16071,7 @@
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B137" s="148" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C137" s="35" t="s">
         <v>156</v>
@@ -16189,7 +16189,7 @@
         <v>240</v>
       </c>
       <c r="B142" s="148" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C142" s="35" t="s">
         <v>156</v>
@@ -16269,7 +16269,7 @@
     </row>
     <row r="145" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B145" s="148" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C145" s="35" t="s">
         <v>156</v>
@@ -16349,7 +16349,7 @@
     </row>
     <row r="148" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B148" s="148" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C148" s="35" t="s">
         <v>156</v>
@@ -16429,7 +16429,7 @@
     </row>
     <row r="151" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B151" s="148" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C151" s="35" t="s">
         <v>156</v>
@@ -16509,7 +16509,7 @@
     </row>
     <row r="154" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B154" s="148" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C154" s="35" t="s">
         <v>156</v>
@@ -16616,7 +16616,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="O6T0B9/jTA+ehyHishi3aEMCZPuOuYsEEZaSLWIzxFBDIXguguBqwGjmxtDB0tOVRtwCxBLOQMqskWDhzNetSQ==" saltValue="xt0TbyC4+nazpFgV504CEw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="DFv9JvUwBIZU6UBGyZ4RuHQm39W05RrwJyNyZa21nxg791EuhjwHm55VLHcTbCQqbrXpoB77REa6/WZtxKKVIw==" saltValue="7Xz05BQ+ZMpx6h4pMpIKtQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="45">
     <mergeCell ref="B145:B147"/>
     <mergeCell ref="B148:B150"/>
@@ -16701,16 +16701,16 @@
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="101"/>
       <c r="C2" s="102" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D2" s="103" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E2" s="103" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F2" s="103" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -16725,7 +16725,7 @@
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="107" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C4" s="135">
         <v>1</v>
@@ -16742,7 +16742,7 @@
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="107" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C5" s="135">
         <v>1</v>
@@ -16759,7 +16759,7 @@
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="107" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C6" s="135">
         <v>1</v>
@@ -16776,7 +16776,7 @@
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="107" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C7" s="135">
         <v>1</v>
@@ -16918,7 +16918,7 @@
     </row>
     <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="117" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C18" s="135">
         <v>1</v>
@@ -16936,7 +16936,7 @@
     </row>
     <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="117" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C19" s="135">
         <v>1</v>
@@ -16954,7 +16954,7 @@
     </row>
     <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="117" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C20" s="135">
         <v>1</v>
@@ -16972,7 +16972,7 @@
     </row>
     <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="117" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C21" s="135">
         <v>1</v>
@@ -16990,7 +16990,7 @@
     </row>
     <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="117" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C22" s="135">
         <v>1</v>
@@ -17007,7 +17007,7 @@
     </row>
     <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="117" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C23" s="135">
         <v>1</v>
@@ -17024,7 +17024,7 @@
     </row>
     <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="117" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C24" s="135">
         <v>1</v>
@@ -17041,7 +17041,7 @@
     </row>
     <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="117" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C25" s="135">
         <v>1</v>
@@ -17077,16 +17077,16 @@
     <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="101"/>
       <c r="C29" s="102" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D29" s="103" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E29" s="103" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F29" s="103" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17101,7 +17101,7 @@
     </row>
     <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="107" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C31" s="139">
         <f>C4*0.7</f>
@@ -17122,7 +17122,7 @@
     </row>
     <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="107" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C32" s="139">
         <f t="shared" ref="C32:F32" si="1">C5*0.7</f>
@@ -17143,7 +17143,7 @@
     </row>
     <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="107" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C33" s="139">
         <f t="shared" ref="C33:F33" si="2">C6*0.7</f>
@@ -17164,7 +17164,7 @@
     </row>
     <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="107" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C34" s="139">
         <f t="shared" ref="C34:F34" si="3">C7*0.7</f>
@@ -17312,7 +17312,7 @@
     </row>
     <row r="45" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="117" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C45" s="139">
         <f>C18*0.7</f>
@@ -17333,7 +17333,7 @@
     </row>
     <row r="46" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="117" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C46" s="139">
         <f t="shared" ref="C46:F46" si="9">C19*0.7</f>
@@ -17354,7 +17354,7 @@
     </row>
     <row r="47" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="117" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C47" s="139">
         <f t="shared" ref="C47:F47" si="10">C20*0.7</f>
@@ -17375,7 +17375,7 @@
     </row>
     <row r="48" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="117" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C48" s="139">
         <f t="shared" ref="C48:F48" si="11">C21*0.7</f>
@@ -17396,7 +17396,7 @@
     </row>
     <row r="49" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="117" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C49" s="139">
         <f t="shared" ref="C49:F49" si="12">C22*0.7</f>
@@ -17417,7 +17417,7 @@
     </row>
     <row r="50" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="117" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C50" s="139">
         <f t="shared" ref="C50:F50" si="13">C23*0.7</f>
@@ -17438,7 +17438,7 @@
     </row>
     <row r="51" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="117" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C51" s="139">
         <f t="shared" ref="C51:F51" si="14">C24*0.7</f>
@@ -17459,7 +17459,7 @@
     </row>
     <row r="52" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="117" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C52" s="139">
         <f t="shared" ref="C52:F52" si="15">C25*0.7</f>
@@ -17496,16 +17496,16 @@
     <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="101"/>
       <c r="C56" s="102" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D56" s="103" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E56" s="103" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F56" s="103" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17520,7 +17520,7 @@
     </row>
     <row r="58" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="107" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C58" s="139">
         <f>C4*1.3</f>
@@ -17541,7 +17541,7 @@
     </row>
     <row r="59" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="107" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C59" s="139">
         <f t="shared" ref="C59:F59" si="17">C5*1.3</f>
@@ -17562,7 +17562,7 @@
     </row>
     <row r="60" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="107" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C60" s="139">
         <f t="shared" ref="C60:F60" si="18">C6*1.3</f>
@@ -17583,7 +17583,7 @@
     </row>
     <row r="61" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="107" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C61" s="139">
         <f t="shared" ref="C61:F61" si="19">C7*1.3</f>
@@ -17731,7 +17731,7 @@
     </row>
     <row r="72" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B72" s="117" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C72" s="139">
         <f>C18*1.3</f>
@@ -17752,7 +17752,7 @@
     </row>
     <row r="73" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B73" s="117" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C73" s="139">
         <f t="shared" ref="C73:F73" si="25">C19*1.3</f>
@@ -17773,7 +17773,7 @@
     </row>
     <row r="74" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B74" s="117" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C74" s="139">
         <f t="shared" ref="C74:F74" si="26">C20*1.3</f>
@@ -17794,7 +17794,7 @@
     </row>
     <row r="75" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="117" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C75" s="139">
         <f t="shared" ref="C75:F75" si="27">C21*1.3</f>
@@ -17815,7 +17815,7 @@
     </row>
     <row r="76" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B76" s="117" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C76" s="139">
         <f t="shared" ref="C76:F76" si="28">C22*1.3</f>
@@ -17836,7 +17836,7 @@
     </row>
     <row r="77" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B77" s="117" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C77" s="139">
         <f t="shared" ref="C77:F77" si="29">C23*1.3</f>
@@ -17857,7 +17857,7 @@
     </row>
     <row r="78" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B78" s="117" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C78" s="139">
         <f t="shared" ref="C78:F78" si="30">C24*1.3</f>
@@ -17878,7 +17878,7 @@
     </row>
     <row r="79" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B79" s="117" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C79" s="139">
         <f t="shared" ref="C79:F79" si="31">C25*1.3</f>
@@ -17898,7 +17898,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="aSdti28G8Zn3DzubEbx7ToNze8cpXuOxd6VBmijevTTNfWJLyQAAVDPcqenWCl7EBDwfY3Bu5Kxz+RKqZObrog==" saltValue="6p6+OwpXRV6Qlnw3AF67DA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="v2ri/bB0Yaia2N+80xz7qPbouj7IW5cm6hC1jaJtPI0xXY1TtcjTH2J0Fw9C+qbwWEIRy75UZj0p3d5Ll3a87Q==" saltValue="Wb3du2rNftZfZIbx2fWgqg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -17945,19 +17945,19 @@
         <v>264</v>
       </c>
       <c r="D2" s="103" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E2" s="103" t="s">
+        <v>99</v>
+      </c>
+      <c r="F2" s="103" t="s">
         <v>100</v>
       </c>
-      <c r="F2" s="103" t="s">
+      <c r="G2" s="103" t="s">
         <v>101</v>
       </c>
-      <c r="G2" s="103" t="s">
+      <c r="H2" s="103" t="s">
         <v>102</v>
-      </c>
-      <c r="H2" s="103" t="s">
-        <v>103</v>
       </c>
       <c r="I2" s="120"/>
       <c r="J2" s="120"/>
@@ -17971,7 +17971,7 @@
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="40"/>
       <c r="B3" s="35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C3" s="43" t="s">
         <v>13</v>
@@ -18086,7 +18086,7 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B7" s="35" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C7" s="43" t="s">
         <v>13</v>
@@ -18201,7 +18201,7 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B11" s="35" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C11" s="43" t="s">
         <v>13</v>
@@ -18316,7 +18316,7 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B15" s="35" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C15" s="43" t="s">
         <v>13</v>
@@ -18431,7 +18431,7 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B19" s="36" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C19" s="43" t="s">
         <v>13</v>
@@ -18546,7 +18546,7 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B23" s="36" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C23" s="43" t="s">
         <v>13</v>
@@ -18675,19 +18675,19 @@
         <v>268</v>
       </c>
       <c r="D29" s="103" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E29" s="103" t="s">
+        <v>99</v>
+      </c>
+      <c r="F29" s="103" t="s">
         <v>100</v>
       </c>
-      <c r="F29" s="103" t="s">
+      <c r="G29" s="103" t="s">
         <v>101</v>
       </c>
-      <c r="G29" s="103" t="s">
+      <c r="H29" s="103" t="s">
         <v>102</v>
-      </c>
-      <c r="H29" s="103" t="s">
-        <v>103</v>
       </c>
       <c r="I29" s="120"/>
       <c r="J29" s="120"/>
@@ -18701,7 +18701,7 @@
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="40"/>
       <c r="B30" s="35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C30" s="43" t="s">
         <v>13</v>
@@ -18816,7 +18816,7 @@
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B34" s="35" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C34" s="43" t="s">
         <v>13</v>
@@ -18931,7 +18931,7 @@
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B38" s="35" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C38" s="43" t="s">
         <v>13</v>
@@ -19046,7 +19046,7 @@
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B42" s="35" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C42" s="43" t="s">
         <v>13</v>
@@ -19161,7 +19161,7 @@
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B46" s="35" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C46" s="43" t="s">
         <v>13</v>
@@ -19276,7 +19276,7 @@
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B50" s="35" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C50" s="43" t="s">
         <v>13</v>
@@ -19429,7 +19429,7 @@
     <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" s="40"/>
       <c r="B57" s="35" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C57" s="43" t="s">
         <v>271</v>
@@ -19476,7 +19476,7 @@
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B59" s="35" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C59" s="43" t="s">
         <v>271</v>
@@ -19523,7 +19523,7 @@
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B61" s="35" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C61" s="43" t="s">
         <v>271</v>
@@ -19588,19 +19588,19 @@
         <v>274</v>
       </c>
       <c r="D65" s="103" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E65" s="103" t="s">
+        <v>99</v>
+      </c>
+      <c r="F65" s="103" t="s">
         <v>100</v>
       </c>
-      <c r="F65" s="103" t="s">
+      <c r="G65" s="103" t="s">
         <v>101</v>
       </c>
-      <c r="G65" s="103" t="s">
+      <c r="H65" s="124" t="s">
         <v>102</v>
-      </c>
-      <c r="H65" s="124" t="s">
-        <v>103</v>
       </c>
       <c r="I65" s="120"/>
       <c r="J65" s="120"/>
@@ -19614,7 +19614,7 @@
     <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66" s="125"/>
       <c r="B66" s="35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C66" s="43" t="s">
         <v>132</v>
@@ -19729,7 +19729,7 @@
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B70" s="35" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C70" s="43" t="s">
         <v>132</v>
@@ -19844,7 +19844,7 @@
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B74" s="35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C74" s="43" t="s">
         <v>132</v>
@@ -19959,7 +19959,7 @@
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B78" s="35" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C78" s="43" t="s">
         <v>132</v>
@@ -20074,7 +20074,7 @@
     </row>
     <row r="82" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B82" s="35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C82" s="43" t="s">
         <v>132</v>
@@ -20189,7 +20189,7 @@
     </row>
     <row r="86" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B86" s="35" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C86" s="43" t="s">
         <v>132</v>
@@ -20304,7 +20304,7 @@
     </row>
     <row r="90" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B90" s="35" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C90" s="43" t="s">
         <v>132</v>
@@ -20419,7 +20419,7 @@
     </row>
     <row r="94" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B94" s="35" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C94" s="43" t="s">
         <v>132</v>
@@ -20534,7 +20534,7 @@
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B98" s="35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C98" s="43" t="s">
         <v>132</v>
@@ -20654,7 +20654,7 @@
     </row>
     <row r="104" spans="1:16" s="36" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A104" s="121" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B104" s="126" t="s">
         <v>135</v>
@@ -20663,19 +20663,19 @@
         <v>274</v>
       </c>
       <c r="D104" s="103" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E104" s="103" t="s">
+        <v>99</v>
+      </c>
+      <c r="F104" s="103" t="s">
         <v>100</v>
       </c>
-      <c r="F104" s="103" t="s">
+      <c r="G104" s="103" t="s">
         <v>101</v>
       </c>
-      <c r="G104" s="103" t="s">
+      <c r="H104" s="124" t="s">
         <v>102</v>
-      </c>
-      <c r="H104" s="124" t="s">
-        <v>103</v>
       </c>
       <c r="I104" s="120"/>
       <c r="J104" s="120"/>
@@ -20829,25 +20829,25 @@
         <v>264</v>
       </c>
       <c r="D112" s="103" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E112" s="103" t="s">
+        <v>99</v>
+      </c>
+      <c r="F112" s="103" t="s">
         <v>100</v>
       </c>
-      <c r="F112" s="103" t="s">
+      <c r="G112" s="103" t="s">
         <v>101</v>
       </c>
-      <c r="G112" s="103" t="s">
+      <c r="H112" s="103" t="s">
         <v>102</v>
-      </c>
-      <c r="H112" s="103" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" s="40"/>
       <c r="B113" s="35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C113" s="43" t="s">
         <v>13</v>
@@ -20950,7 +20950,7 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B117" s="35" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C117" s="43" t="s">
         <v>13</v>
@@ -21053,7 +21053,7 @@
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B121" s="35" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C121" s="43" t="s">
         <v>13</v>
@@ -21156,7 +21156,7 @@
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B125" s="35" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C125" s="43" t="s">
         <v>13</v>
@@ -21259,7 +21259,7 @@
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B129" s="36" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C129" s="43" t="s">
         <v>13</v>
@@ -21362,7 +21362,7 @@
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B133" s="36" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C133" s="43" t="s">
         <v>13</v>
@@ -21486,25 +21486,25 @@
         <v>268</v>
       </c>
       <c r="D139" s="103" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E139" s="103" t="s">
+        <v>99</v>
+      </c>
+      <c r="F139" s="103" t="s">
         <v>100</v>
       </c>
-      <c r="F139" s="103" t="s">
+      <c r="G139" s="103" t="s">
         <v>101</v>
       </c>
-      <c r="G139" s="103" t="s">
+      <c r="H139" s="103" t="s">
         <v>102</v>
-      </c>
-      <c r="H139" s="103" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140" s="40"/>
       <c r="B140" s="35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C140" s="43" t="s">
         <v>13</v>
@@ -21607,7 +21607,7 @@
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B144" s="35" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C144" s="43" t="s">
         <v>13</v>
@@ -21710,7 +21710,7 @@
     </row>
     <row r="148" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B148" s="35" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C148" s="43" t="s">
         <v>13</v>
@@ -21813,7 +21813,7 @@
     </row>
     <row r="152" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B152" s="35" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C152" s="43" t="s">
         <v>13</v>
@@ -21916,7 +21916,7 @@
     </row>
     <row r="156" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B156" s="35" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C156" s="43" t="s">
         <v>13</v>
@@ -22019,7 +22019,7 @@
     </row>
     <row r="160" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B160" s="35" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C160" s="43" t="s">
         <v>13</v>
@@ -22163,7 +22163,7 @@
     <row r="167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A167" s="40"/>
       <c r="B167" s="35" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C167" s="43" t="s">
         <v>271</v>
@@ -22210,7 +22210,7 @@
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B169" s="35" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C169" s="43" t="s">
         <v>271</v>
@@ -22257,7 +22257,7 @@
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B171" s="35" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C171" s="43" t="s">
         <v>271</v>
@@ -22329,25 +22329,25 @@
         <v>274</v>
       </c>
       <c r="D175" s="103" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E175" s="103" t="s">
+        <v>99</v>
+      </c>
+      <c r="F175" s="103" t="s">
         <v>100</v>
       </c>
-      <c r="F175" s="103" t="s">
+      <c r="G175" s="103" t="s">
         <v>101</v>
       </c>
-      <c r="G175" s="103" t="s">
+      <c r="H175" s="124" t="s">
         <v>102</v>
-      </c>
-      <c r="H175" s="124" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A176" s="125"/>
       <c r="B176" s="35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C176" s="43" t="s">
         <v>132</v>
@@ -22446,7 +22446,7 @@
     </row>
     <row r="180" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B180" s="35" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C180" s="43" t="s">
         <v>132</v>
@@ -22545,7 +22545,7 @@
     </row>
     <row r="184" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B184" s="35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C184" s="43" t="s">
         <v>132</v>
@@ -22644,7 +22644,7 @@
     </row>
     <row r="188" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B188" s="35" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C188" s="43" t="s">
         <v>132</v>
@@ -22743,7 +22743,7 @@
     </row>
     <row r="192" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B192" s="35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C192" s="43" t="s">
         <v>132</v>
@@ -22842,7 +22842,7 @@
     </row>
     <row r="196" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B196" s="35" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C196" s="43" t="s">
         <v>132</v>
@@ -22941,7 +22941,7 @@
     </row>
     <row r="200" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B200" s="35" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C200" s="43" t="s">
         <v>132</v>
@@ -23040,7 +23040,7 @@
     </row>
     <row r="204" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B204" s="35" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C204" s="43" t="s">
         <v>132</v>
@@ -23139,7 +23139,7 @@
     </row>
     <row r="208" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B208" s="35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C208" s="43" t="s">
         <v>132</v>
@@ -23250,7 +23250,7 @@
     </row>
     <row r="214" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A214" s="121" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B214" s="126" t="s">
         <v>135</v>
@@ -23259,19 +23259,19 @@
         <v>274</v>
       </c>
       <c r="D214" s="103" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E214" s="103" t="s">
+        <v>99</v>
+      </c>
+      <c r="F214" s="103" t="s">
         <v>100</v>
       </c>
-      <c r="F214" s="103" t="s">
+      <c r="G214" s="103" t="s">
         <v>101</v>
       </c>
-      <c r="G214" s="103" t="s">
+      <c r="H214" s="124" t="s">
         <v>102</v>
-      </c>
-      <c r="H214" s="124" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.2">
@@ -23402,26 +23402,26 @@
         <v>264</v>
       </c>
       <c r="D222" s="103" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E222" s="103" t="s">
+        <v>99</v>
+      </c>
+      <c r="F222" s="103" t="s">
         <v>100</v>
       </c>
-      <c r="F222" s="103" t="s">
+      <c r="G222" s="103" t="s">
         <v>101</v>
       </c>
-      <c r="G222" s="103" t="s">
+      <c r="H222" s="103" t="s">
         <v>102</v>
-      </c>
-      <c r="H222" s="103" t="s">
-        <v>103</v>
       </c>
       <c r="I222" s="120"/>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A223" s="40"/>
       <c r="B223" s="35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C223" s="43" t="s">
         <v>13</v>
@@ -23528,7 +23528,7 @@
     </row>
     <row r="227" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B227" s="35" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C227" s="43" t="s">
         <v>13</v>
@@ -23635,7 +23635,7 @@
     </row>
     <row r="231" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B231" s="35" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C231" s="43" t="s">
         <v>13</v>
@@ -23742,7 +23742,7 @@
     </row>
     <row r="235" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B235" s="35" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C235" s="43" t="s">
         <v>13</v>
@@ -23849,7 +23849,7 @@
     </row>
     <row r="239" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B239" s="36" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C239" s="43" t="s">
         <v>13</v>
@@ -23956,7 +23956,7 @@
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B243" s="36" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C243" s="43" t="s">
         <v>13</v>
@@ -24085,26 +24085,26 @@
         <v>268</v>
       </c>
       <c r="D249" s="103" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E249" s="103" t="s">
+        <v>99</v>
+      </c>
+      <c r="F249" s="103" t="s">
         <v>100</v>
       </c>
-      <c r="F249" s="103" t="s">
+      <c r="G249" s="103" t="s">
         <v>101</v>
       </c>
-      <c r="G249" s="103" t="s">
+      <c r="H249" s="103" t="s">
         <v>102</v>
-      </c>
-      <c r="H249" s="103" t="s">
-        <v>103</v>
       </c>
       <c r="I249" s="120"/>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A250" s="40"/>
       <c r="B250" s="35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C250" s="43" t="s">
         <v>13</v>
@@ -24211,7 +24211,7 @@
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B254" s="35" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C254" s="43" t="s">
         <v>13</v>
@@ -24318,7 +24318,7 @@
     </row>
     <row r="258" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B258" s="35" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C258" s="43" t="s">
         <v>13</v>
@@ -24425,7 +24425,7 @@
     </row>
     <row r="262" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B262" s="35" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C262" s="43" t="s">
         <v>13</v>
@@ -24532,7 +24532,7 @@
     </row>
     <row r="266" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B266" s="35" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C266" s="43" t="s">
         <v>13</v>
@@ -24639,7 +24639,7 @@
     </row>
     <row r="270" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B270" s="35" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C270" s="43" t="s">
         <v>13</v>
@@ -24789,7 +24789,7 @@
     <row r="277" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A277" s="40"/>
       <c r="B277" s="35" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C277" s="43" t="s">
         <v>271</v>
@@ -24836,7 +24836,7 @@
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B279" s="35" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C279" s="43" t="s">
         <v>271</v>
@@ -24883,7 +24883,7 @@
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B281" s="35" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C281" s="43" t="s">
         <v>271</v>
@@ -24956,26 +24956,26 @@
         <v>274</v>
       </c>
       <c r="D285" s="103" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E285" s="103" t="s">
+        <v>99</v>
+      </c>
+      <c r="F285" s="103" t="s">
         <v>100</v>
       </c>
-      <c r="F285" s="103" t="s">
+      <c r="G285" s="103" t="s">
         <v>101</v>
       </c>
-      <c r="G285" s="103" t="s">
+      <c r="H285" s="124" t="s">
         <v>102</v>
-      </c>
-      <c r="H285" s="124" t="s">
-        <v>103</v>
       </c>
       <c r="I285" s="120"/>
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A286" s="125"/>
       <c r="B286" s="35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C286" s="43" t="s">
         <v>132</v>
@@ -25078,7 +25078,7 @@
     </row>
     <row r="290" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B290" s="35" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C290" s="43" t="s">
         <v>132</v>
@@ -25181,7 +25181,7 @@
     </row>
     <row r="294" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B294" s="35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C294" s="43" t="s">
         <v>132</v>
@@ -25284,7 +25284,7 @@
     </row>
     <row r="298" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B298" s="35" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C298" s="43" t="s">
         <v>132</v>
@@ -25387,7 +25387,7 @@
     </row>
     <row r="302" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B302" s="35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C302" s="43" t="s">
         <v>132</v>
@@ -25490,7 +25490,7 @@
     </row>
     <row r="306" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B306" s="35" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C306" s="43" t="s">
         <v>132</v>
@@ -25593,7 +25593,7 @@
     </row>
     <row r="310" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B310" s="35" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C310" s="43" t="s">
         <v>132</v>
@@ -25696,7 +25696,7 @@
     </row>
     <row r="314" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B314" s="35" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C314" s="43" t="s">
         <v>132</v>
@@ -25799,7 +25799,7 @@
     </row>
     <row r="318" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B318" s="35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C318" s="43" t="s">
         <v>132</v>
@@ -25915,7 +25915,7 @@
     </row>
     <row r="324" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A324" s="121" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B324" s="126" t="s">
         <v>135</v>
@@ -25924,19 +25924,19 @@
         <v>274</v>
       </c>
       <c r="D324" s="103" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E324" s="103" t="s">
+        <v>99</v>
+      </c>
+      <c r="F324" s="103" t="s">
         <v>100</v>
       </c>
-      <c r="F324" s="103" t="s">
+      <c r="G324" s="103" t="s">
         <v>101</v>
       </c>
-      <c r="G324" s="103" t="s">
+      <c r="H324" s="124" t="s">
         <v>102</v>
-      </c>
-      <c r="H324" s="124" t="s">
-        <v>103</v>
       </c>
       <c r="I324" s="120"/>
     </row>
@@ -26043,7 +26043,7 @@
       <c r="I328" s="118"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="ui5RTwBS210ZyWbFUj+MpTmQMGSf6QnIYkinWei3FZq5Q8U/Vks6EwCpqi03oWMdIeNosZl6FxX6tDz6j9N7WA==" saltValue="tGRNkSA2WdgmzO7uQ2hIBQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="GP7Qx6S1C9MDF3griAXnUFkXkv2MYizuCY1qlZLiKAHz1LhyuW8CBKY97atAm3/NTMYhBOpEVX0UgT4AoeOy0w==" saltValue="mTYD06zjMV1Ia+xToMgKnA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -26086,19 +26086,19 @@
       </c>
       <c r="B2" s="119"/>
       <c r="C2" s="40" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D2" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="E2" s="40" t="s">
+      <c r="F2" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="F2" s="40" t="s">
+      <c r="G2" s="40" t="s">
         <v>102</v>
-      </c>
-      <c r="G2" s="40" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -26325,16 +26325,16 @@
     </row>
     <row r="19" spans="1:7" s="104" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C19" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="D19" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="D19" s="56" t="s">
+      <c r="E19" s="56" t="s">
         <v>74</v>
       </c>
-      <c r="E19" s="56" t="s">
+      <c r="F19" s="56" t="s">
         <v>75</v>
-      </c>
-      <c r="F19" s="56" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -26376,19 +26376,19 @@
       </c>
       <c r="B24" s="119"/>
       <c r="C24" s="40" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D24" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="E24" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="E24" s="40" t="s">
+      <c r="F24" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="F24" s="40" t="s">
+      <c r="G24" s="40" t="s">
         <v>102</v>
-      </c>
-      <c r="G24" s="40" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
@@ -26675,16 +26675,16 @@
       <c r="A41" s="104"/>
       <c r="B41" s="104"/>
       <c r="C41" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="D41" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="D41" s="56" t="s">
+      <c r="E41" s="56" t="s">
         <v>74</v>
       </c>
-      <c r="E41" s="56" t="s">
+      <c r="F41" s="56" t="s">
         <v>75</v>
-      </c>
-      <c r="F41" s="56" t="s">
-        <v>76</v>
       </c>
       <c r="G41" s="104"/>
     </row>
@@ -26731,19 +26731,19 @@
       </c>
       <c r="B46" s="119"/>
       <c r="C46" s="40" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D46" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="E46" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="E46" s="40" t="s">
+      <c r="F46" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="F46" s="40" t="s">
+      <c r="G46" s="40" t="s">
         <v>102</v>
-      </c>
-      <c r="G46" s="40" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
@@ -27030,16 +27030,16 @@
       <c r="A63" s="104"/>
       <c r="B63" s="104"/>
       <c r="C63" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="D63" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="D63" s="56" t="s">
+      <c r="E63" s="56" t="s">
         <v>74</v>
       </c>
-      <c r="E63" s="56" t="s">
+      <c r="F63" s="56" t="s">
         <v>75</v>
-      </c>
-      <c r="F63" s="56" t="s">
-        <v>76</v>
       </c>
       <c r="G63" s="104"/>
     </row>
@@ -27065,7 +27065,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="jnn2r/uXxOGasUiT2ClFENHvZtm1myZOhOZQbWvwHbGpR0E89DhxdAKpiyMuWAp93qa2qvmQmCyS1q3JLy+K6g==" saltValue="gqqVGwJNyyxBFI9fNjuUUw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="INqBzbQttSk/Icq/mW6dEKf7Z9DHxPEHWTouui1GRLueEeOAqV1iHFRYqJkJANfDNFukNeayzXQNi5SFrqB4Rg==" saltValue="0hxq07Sdu3jZMV/7v1iixA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -27101,16 +27101,16 @@
       </c>
       <c r="B1" s="40"/>
       <c r="C1" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="F1" s="119" t="s">
         <v>58</v>
-      </c>
-      <c r="E1" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="F1" s="119" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -27352,16 +27352,16 @@
       </c>
       <c r="B16" s="40"/>
       <c r="C16" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="D16" s="40" t="s">
+      <c r="F16" s="119" t="s">
         <v>58</v>
-      </c>
-      <c r="E16" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="F16" s="119" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -27651,16 +27651,16 @@
       </c>
       <c r="B31" s="40"/>
       <c r="C31" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="D31" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="E31" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="D31" s="40" t="s">
+      <c r="F31" s="119" t="s">
         <v>58</v>
-      </c>
-      <c r="E31" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="F31" s="119" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -27940,7 +27940,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="so3qp57iSfp46dYnYOMTqP/+kbjVb+O6o3tJCQgnfiXYxIKW4zvWkbqCDrgkn3Da8b4vSBfywsu0fv40L6TPXg==" saltValue="MTxv3upeJxA2XyBy0HYO0w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="grUU8D9ykPTJ1ljLj8JE9IeXyA9Div6OBPlWf2Pk2vYt96Sz/nr8DHCJzETFmJ/y1BNfpAIJBhJbnFkC4tPsoA==" saltValue="ZnezEDcJbHcoQqjwc1xtTQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -27972,31 +27972,31 @@
       <c r="A1" s="40"/>
       <c r="B1" s="40"/>
       <c r="C1" s="103" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D1" s="103" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" s="103" t="s">
         <v>100</v>
       </c>
-      <c r="E1" s="103" t="s">
+      <c r="F1" s="103" t="s">
         <v>101</v>
       </c>
-      <c r="F1" s="103" t="s">
+      <c r="G1" s="103" t="s">
         <v>102</v>
       </c>
-      <c r="G1" s="103" t="s">
-        <v>103</v>
-      </c>
       <c r="H1" s="103" t="s">
+        <v>72</v>
+      </c>
+      <c r="I1" s="103" t="s">
         <v>73</v>
       </c>
-      <c r="I1" s="103" t="s">
+      <c r="J1" s="103" t="s">
         <v>74</v>
       </c>
-      <c r="J1" s="103" t="s">
+      <c r="K1" s="103" t="s">
         <v>75</v>
-      </c>
-      <c r="K1" s="103" t="s">
-        <v>76</v>
       </c>
       <c r="L1" s="103" t="s">
         <v>125</v>
@@ -28735,31 +28735,31 @@
       <c r="A23" s="40"/>
       <c r="B23" s="40"/>
       <c r="C23" s="103" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D23" s="103" t="s">
+        <v>99</v>
+      </c>
+      <c r="E23" s="103" t="s">
         <v>100</v>
       </c>
-      <c r="E23" s="103" t="s">
+      <c r="F23" s="103" t="s">
         <v>101</v>
       </c>
-      <c r="F23" s="103" t="s">
+      <c r="G23" s="103" t="s">
         <v>102</v>
       </c>
-      <c r="G23" s="103" t="s">
-        <v>103</v>
-      </c>
       <c r="H23" s="103" t="s">
+        <v>72</v>
+      </c>
+      <c r="I23" s="103" t="s">
         <v>73</v>
       </c>
-      <c r="I23" s="103" t="s">
+      <c r="J23" s="103" t="s">
         <v>74</v>
       </c>
-      <c r="J23" s="103" t="s">
+      <c r="K23" s="103" t="s">
         <v>75</v>
-      </c>
-      <c r="K23" s="103" t="s">
-        <v>76</v>
       </c>
       <c r="L23" s="103" t="s">
         <v>125</v>
@@ -29706,31 +29706,31 @@
       <c r="A45" s="40"/>
       <c r="B45" s="40"/>
       <c r="C45" s="103" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D45" s="103" t="s">
+        <v>99</v>
+      </c>
+      <c r="E45" s="103" t="s">
         <v>100</v>
       </c>
-      <c r="E45" s="103" t="s">
+      <c r="F45" s="103" t="s">
         <v>101</v>
       </c>
-      <c r="F45" s="103" t="s">
+      <c r="G45" s="103" t="s">
         <v>102</v>
       </c>
-      <c r="G45" s="103" t="s">
-        <v>103</v>
-      </c>
       <c r="H45" s="103" t="s">
+        <v>72</v>
+      </c>
+      <c r="I45" s="103" t="s">
         <v>73</v>
       </c>
-      <c r="I45" s="103" t="s">
+      <c r="J45" s="103" t="s">
         <v>74</v>
       </c>
-      <c r="J45" s="103" t="s">
+      <c r="K45" s="103" t="s">
         <v>75</v>
-      </c>
-      <c r="K45" s="103" t="s">
-        <v>76</v>
       </c>
       <c r="L45" s="103" t="s">
         <v>125</v>
@@ -30669,7 +30669,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="PGgs7DoMl3bI6fY7cVFwerikkp0cdSXxxTwynvnfSDeb4meu6OXxF0pCK9KKPCP+MPdqADyMpUku9VKp9rs1DQ==" saltValue="3et1lhebQOkMp0rI71FsVg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="haxzXHHzaJV+eZZAlzJKVZnSLwVikFyyYDuzQSUPsttpF36pegyZQu0eKTHMqLTyIg7GmaAqx9BaoFUpCI/jLA==" saltValue="8a34eHl6D7vXecSsk6jxMQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -30701,19 +30701,19 @@
       <c r="A1" s="40"/>
       <c r="B1" s="119"/>
       <c r="C1" s="40" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D1" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="F1" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="G1" s="40" t="s">
         <v>102</v>
-      </c>
-      <c r="G1" s="40" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -30781,19 +30781,19 @@
       <c r="A8" s="40"/>
       <c r="B8" s="119"/>
       <c r="C8" s="40" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D8" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="E8" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="E8" s="40" t="s">
+      <c r="F8" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="F8" s="40" t="s">
+      <c r="G8" s="40" t="s">
         <v>102</v>
-      </c>
-      <c r="G8" s="40" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -30871,19 +30871,19 @@
       <c r="A15" s="40"/>
       <c r="B15" s="119"/>
       <c r="C15" s="40" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D15" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="E15" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="E15" s="40" t="s">
+      <c r="F15" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="F15" s="40" t="s">
+      <c r="G15" s="40" t="s">
         <v>102</v>
-      </c>
-      <c r="G15" s="40" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -30953,7 +30953,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="4IHO6Tcnr0FFzwsIKRzKRhSjFPOLMPtBR2oo8SIYEoTIM5Eaxr8dV4l1JS5xMtDE6hngv//UCibNvciqyors6w==" saltValue="kKrU+sidJe6rYHxtmjUuEA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="ZGIhu3m2xhTb9aat3o9Ug9SAwQztI8CazzZ3h8BfVy1vMbVfJHnZyVZfXeJ6a5VjAfPH3iZ7leXgf4iUXNnNjg==" saltValue="dQcxNXPSMDKzPlamRfy0kw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <ignoredErrors>
@@ -30997,19 +30997,19 @@
         <v>15</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E1" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="G1" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="G1" s="40" t="s">
+      <c r="H1" s="40" t="s">
         <v>102</v>
-      </c>
-      <c r="H1" s="40" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -31017,7 +31017,7 @@
         <v>192</v>
       </c>
       <c r="B2" s="52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C2" s="52" t="s">
         <v>330</v>
@@ -31353,7 +31353,7 @@
         <v>175</v>
       </c>
       <c r="B17" s="52" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C17" s="52" t="s">
         <v>330</v>
@@ -31401,7 +31401,7 @@
         <v>173</v>
       </c>
       <c r="B19" s="52" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C19" s="52" t="s">
         <v>330</v>
@@ -31447,7 +31447,7 @@
         <v>174</v>
       </c>
       <c r="B21" s="52" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C21" s="52" t="s">
         <v>330</v>
@@ -31493,7 +31493,7 @@
         <v>196</v>
       </c>
       <c r="B23" s="52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C23" s="52" t="s">
         <v>330</v>
@@ -31559,7 +31559,7 @@
         <v>197</v>
       </c>
       <c r="B26" s="52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C26" s="52" t="s">
         <v>330</v>
@@ -31625,7 +31625,7 @@
         <v>195</v>
       </c>
       <c r="B29" s="52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C29" s="52" t="s">
         <v>330</v>
@@ -31691,7 +31691,7 @@
         <v>194</v>
       </c>
       <c r="B32" s="52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C32" s="52" t="s">
         <v>330</v>
@@ -31757,7 +31757,7 @@
         <v>193</v>
       </c>
       <c r="B35" s="52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C35" s="52" t="s">
         <v>330</v>
@@ -31823,7 +31823,7 @@
         <v>199</v>
       </c>
       <c r="B38" s="52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C38" s="52" t="s">
         <v>330</v>
@@ -31886,7 +31886,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B41" s="52" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C41" s="52" t="s">
         <v>330</v>
@@ -31952,7 +31952,7 @@
         <v>190</v>
       </c>
       <c r="B44" s="52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C44" s="52" t="s">
         <v>330</v>
@@ -31998,7 +31998,7 @@
         <v>198</v>
       </c>
       <c r="B46" s="52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C46" s="52" t="s">
         <v>330</v>
@@ -32044,7 +32044,7 @@
         <v>183</v>
       </c>
       <c r="B48" s="52" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C48" s="52" t="s">
         <v>330</v>
@@ -32103,19 +32103,19 @@
         <v>15</v>
       </c>
       <c r="D52" s="40" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E52" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="F52" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="F52" s="40" t="s">
+      <c r="G52" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="G52" s="40" t="s">
+      <c r="H52" s="40" t="s">
         <v>102</v>
-      </c>
-      <c r="H52" s="40" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
@@ -32123,7 +32123,7 @@
         <v>192</v>
       </c>
       <c r="B53" s="52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C53" s="52" t="s">
         <v>330</v>
@@ -32531,7 +32531,7 @@
         <v>175</v>
       </c>
       <c r="B68" s="52" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C68" s="52" t="s">
         <v>330</v>
@@ -32587,7 +32587,7 @@
         <v>173</v>
       </c>
       <c r="B70" s="52" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C70" s="52" t="s">
         <v>330</v>
@@ -32643,7 +32643,7 @@
         <v>174</v>
       </c>
       <c r="B72" s="52" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C72" s="52" t="s">
         <v>330</v>
@@ -32699,7 +32699,7 @@
         <v>196</v>
       </c>
       <c r="B74" s="52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C74" s="52" t="s">
         <v>330</v>
@@ -32780,7 +32780,7 @@
         <v>197</v>
       </c>
       <c r="B77" s="52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C77" s="52" t="s">
         <v>330</v>
@@ -32861,7 +32861,7 @@
         <v>195</v>
       </c>
       <c r="B80" s="52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C80" s="52" t="s">
         <v>330</v>
@@ -32942,7 +32942,7 @@
         <v>194</v>
       </c>
       <c r="B83" s="52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C83" s="52" t="s">
         <v>330</v>
@@ -33023,7 +33023,7 @@
         <v>193</v>
       </c>
       <c r="B86" s="52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C86" s="52" t="s">
         <v>330</v>
@@ -33104,7 +33104,7 @@
         <v>199</v>
       </c>
       <c r="B89" s="52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C89" s="52" t="s">
         <v>330</v>
@@ -33182,7 +33182,7 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B92" s="52" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C92" s="52" t="s">
         <v>330</v>
@@ -33263,7 +33263,7 @@
         <v>190</v>
       </c>
       <c r="B95" s="52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C95" s="52" t="s">
         <v>330</v>
@@ -33319,7 +33319,7 @@
         <v>198</v>
       </c>
       <c r="B97" s="52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C97" s="52" t="s">
         <v>330</v>
@@ -33375,7 +33375,7 @@
         <v>183</v>
       </c>
       <c r="B99" s="52" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C99" s="52" t="s">
         <v>330</v>
@@ -33444,19 +33444,19 @@
         <v>15</v>
       </c>
       <c r="D103" s="40" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E103" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="F103" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="F103" s="40" t="s">
+      <c r="G103" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="G103" s="40" t="s">
+      <c r="H103" s="40" t="s">
         <v>102</v>
-      </c>
-      <c r="H103" s="40" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
@@ -33464,7 +33464,7 @@
         <v>192</v>
       </c>
       <c r="B104" s="52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C104" s="52" t="s">
         <v>330</v>
@@ -33872,7 +33872,7 @@
         <v>175</v>
       </c>
       <c r="B119" s="52" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C119" s="52" t="s">
         <v>330</v>
@@ -33928,7 +33928,7 @@
         <v>173</v>
       </c>
       <c r="B121" s="52" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C121" s="52" t="s">
         <v>330</v>
@@ -33984,7 +33984,7 @@
         <v>174</v>
       </c>
       <c r="B123" s="52" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C123" s="52" t="s">
         <v>330</v>
@@ -34040,7 +34040,7 @@
         <v>196</v>
       </c>
       <c r="B125" s="52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C125" s="52" t="s">
         <v>330</v>
@@ -34121,7 +34121,7 @@
         <v>197</v>
       </c>
       <c r="B128" s="52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C128" s="52" t="s">
         <v>330</v>
@@ -34202,7 +34202,7 @@
         <v>195</v>
       </c>
       <c r="B131" s="52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C131" s="52" t="s">
         <v>330</v>
@@ -34283,7 +34283,7 @@
         <v>194</v>
       </c>
       <c r="B134" s="52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C134" s="52" t="s">
         <v>330</v>
@@ -34364,7 +34364,7 @@
         <v>193</v>
       </c>
       <c r="B137" s="52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C137" s="52" t="s">
         <v>330</v>
@@ -34445,7 +34445,7 @@
         <v>199</v>
       </c>
       <c r="B140" s="52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C140" s="52" t="s">
         <v>330</v>
@@ -34523,7 +34523,7 @@
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B143" s="52" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C143" s="52" t="s">
         <v>330</v>
@@ -34604,7 +34604,7 @@
         <v>190</v>
       </c>
       <c r="B146" s="52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C146" s="52" t="s">
         <v>330</v>
@@ -34660,7 +34660,7 @@
         <v>198</v>
       </c>
       <c r="B148" s="52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C148" s="52" t="s">
         <v>330</v>
@@ -34716,7 +34716,7 @@
         <v>183</v>
       </c>
       <c r="B150" s="52" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C150" s="52" t="s">
         <v>330</v>
@@ -34768,7 +34768,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="67CMDCeUJuYbDX87xejWMy6nuOGRmXQpdFeDMoLfJiPGRIM5wn8NVecHiS0Wh89xbMQGJ57mPrhzNrlRXnBmng==" saltValue="Ke1lYOwCj/cniLI2UdUkFA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="EEZTuHVN+eN+5W+k4n7nOAd4LlKIXm9oL0Sy8iDrDSz3lsPcDrv3IHoRbSsVI/+ZdKm4JSsJ0EYMzNFDEXijlg==" saltValue="FYzXMS5hmBzlS/c+Pi/RYg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -34824,7 +34824,7 @@
         <v>169</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C2" s="43" t="s">
         <v>330</v>
@@ -34866,7 +34866,7 @@
         <v>187</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C4" s="43" t="s">
         <v>330</v>
@@ -34909,7 +34909,7 @@
         <v>186</v>
       </c>
       <c r="B6" s="35" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C6" s="43" t="s">
         <v>330</v>
@@ -34978,7 +34978,7 @@
         <v>169</v>
       </c>
       <c r="B11" s="35" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C11" s="43" t="s">
         <v>330</v>
@@ -35026,7 +35026,7 @@
         <v>187</v>
       </c>
       <c r="B13" s="35" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C13" s="43" t="s">
         <v>330</v>
@@ -35075,7 +35075,7 @@
         <v>186</v>
       </c>
       <c r="B15" s="35" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C15" s="43" t="s">
         <v>330</v>
@@ -35150,7 +35150,7 @@
         <v>169</v>
       </c>
       <c r="B20" s="35" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C20" s="43" t="s">
         <v>330</v>
@@ -35198,7 +35198,7 @@
         <v>187</v>
       </c>
       <c r="B22" s="35" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C22" s="43" t="s">
         <v>330</v>
@@ -35247,7 +35247,7 @@
         <v>186</v>
       </c>
       <c r="B24" s="35" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C24" s="43" t="s">
         <v>330</v>
@@ -35292,7 +35292,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="f22Zf00Ici2YPZPgW6wRID0xXaMQSAtrMBSh82KVdncZ7VnpA0VXdCeBEvB1XmphcM6hkODiG5kLJWvCUR3juQ==" saltValue="rPWqLghQw1zDOhEJeuToxQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Xtxx74flikWsje8lTR5Y8svF1G4pc811bJU0KEOc5IgnMcotRaRyeDIP6HiE5RkazMdfLQZ0F3oKJHQ1ecNOKA==" saltValue="Y/c5YzGjii2bZ0TrfjeaOw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="D11:G16 D20:G25" unlockedFormula="1"/>
@@ -35331,13 +35331,13 @@
     </row>
     <row r="2" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B2" s="41" t="s">
         <v>12</v>
       </c>
       <c r="C2" s="41" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D2" s="41"/>
       <c r="E2" s="41"/>
@@ -35346,7 +35346,7 @@
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C3" s="75">
         <v>2.7000000000000001E-3</v>
@@ -35354,7 +35354,7 @@
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C4" s="75">
         <v>0.1966</v>
@@ -35362,7 +35362,7 @@
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C5" s="75">
         <v>6.2100000000000002E-2</v>
@@ -35370,7 +35370,7 @@
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C6" s="75">
         <v>0.29289999999999999</v>
@@ -35378,7 +35378,7 @@
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C7" s="75">
         <v>0.24709999999999999</v>
@@ -35386,7 +35386,7 @@
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C8" s="75">
         <v>4.7999999999999996E-3</v>
@@ -35394,7 +35394,7 @@
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C9" s="75">
         <v>0.13200000000000001</v>
@@ -35402,7 +35402,7 @@
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C10" s="75">
         <v>6.1800000000000001E-2</v>
@@ -35410,7 +35410,7 @@
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C11" s="70">
         <f>SUM(C3:C10)</f>
@@ -35430,28 +35430,28 @@
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B13" s="41" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="D13" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="D13" s="23" t="s">
+      <c r="E13" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="E13" s="23" t="s">
+      <c r="F13" s="23" t="s">
         <v>102</v>
-      </c>
-      <c r="F13" s="23" t="s">
-        <v>103</v>
       </c>
       <c r="G13" s="24"/>
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C14" s="75">
         <v>0.1368</v>
@@ -35468,7 +35468,7 @@
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C15" s="75">
         <v>0.20660000000000001</v>
@@ -35485,7 +35485,7 @@
     </row>
     <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C16" s="75">
         <v>2.1100000000000001E-2</v>
@@ -35502,7 +35502,7 @@
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C17" s="75">
         <v>7.4999999999999997E-3</v>
@@ -35519,7 +35519,7 @@
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C18" s="75">
         <v>8.6199999999999999E-2</v>
@@ -35536,7 +35536,7 @@
     </row>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C19" s="75">
         <v>2.86E-2</v>
@@ -35553,7 +35553,7 @@
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C20" s="75">
         <v>1.5299999999999999E-2</v>
@@ -35570,7 +35570,7 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="24" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C21" s="75">
         <v>0.13589999999999999</v>
@@ -35587,7 +35587,7 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="24" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C22" s="75">
         <v>0.36199999999999999</v>
@@ -35604,7 +35604,7 @@
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C23" s="70">
         <f>SUM(C14:C22)</f>
@@ -35636,13 +35636,13 @@
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B25" s="41" t="s">
         <v>12</v>
       </c>
       <c r="C25" s="41" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D25" s="24"/>
       <c r="E25" s="24"/>
@@ -35652,7 +35652,7 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C26" s="75">
         <v>0.10082724000000001</v>
@@ -35660,7 +35660,7 @@
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="24" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C27" s="75">
         <v>3.1206000000000002E-4</v>
@@ -35668,7 +35668,7 @@
     </row>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="24" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C28" s="75">
         <v>0.15891214000000001</v>
@@ -35676,7 +35676,7 @@
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C29" s="75">
         <v>0.12598688999999999</v>
@@ -35692,7 +35692,7 @@
     </row>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C31" s="75">
         <v>3.9028409999999999E-2</v>
@@ -35700,7 +35700,7 @@
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C32" s="75">
         <v>8.5254999999999999E-4</v>
@@ -35708,7 +35708,7 @@
     </row>
     <row r="33" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C33" s="75">
         <v>6.8467810000000004E-2</v>
@@ -35716,7 +35716,7 @@
     </row>
     <row r="34" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="24" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C34" s="75">
         <v>0.38127283000000001</v>
@@ -35724,7 +35724,7 @@
     </row>
     <row r="35" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C35" s="70">
         <f>SUM(C26:C34)</f>
@@ -35732,7 +35732,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="epzGlfth5FFKy8q07Odi3XyRTVMym6Nyp8Jqd+LT9OOVG7RkUp860+yOikNdiz5hPksAFMsJlQu0cZ3RKdwc+g==" saltValue="E2zwxKb+iI/foLVkfXP1zQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="kHgW31JvdW7N8l1r0IeU3X1DzqqwKknhAXcVG5DgqZMYcbpC9fi+xZPm8reupiBCOoqz07KNTDh33x04vhF54Q==" saltValue="FzGWPn636a4ifv+htrQKFw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="69" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -35762,30 +35762,30 @@
         <v>Pourcentage de la population dans chaque catégorie pendant l'année de référence (2017)</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D1" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="F1" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="G1" s="16" t="s">
         <v>102</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>115</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>116</v>
       </c>
       <c r="C2" s="76">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C4:C5), 0, 1) + 1, 0, 1, TRUE), "")</f>
@@ -35811,7 +35811,7 @@
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
       <c r="B3" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C3" s="76">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C4:C5), 0, 1) + 1, 0, 1, TRUE) - SUM(C4:C5), "")</f>
@@ -35837,7 +35837,7 @@
     <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C4" s="77">
         <v>8.7000000000000008E-2</v>
@@ -35858,7 +35858,7 @@
     <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="11" t="s">
-        <v>17</v>
+        <v>118</v>
       </c>
       <c r="C5" s="77">
         <v>4.5999999999999999E-2</v>
@@ -36004,19 +36004,19 @@
         <v>124</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D13" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="E13" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="F13" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="F13" s="16" t="s">
+      <c r="G13" s="16" t="s">
         <v>102</v>
-      </c>
-      <c r="G13" s="16" t="s">
-        <v>103</v>
       </c>
       <c r="H13" s="23" t="s">
         <v>125</v>
@@ -36031,16 +36031,16 @@
         <v>128</v>
       </c>
       <c r="L13" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="M13" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="M13" s="23" t="s">
+      <c r="N13" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="N13" s="23" t="s">
+      <c r="O13" s="23" t="s">
         <v>75</v>
-      </c>
-      <c r="O13" s="23" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -36159,7 +36159,7 @@
       <c r="G17" s="8"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Jv5lF+PmQqzcroKpyc0cqOjvcKx8iU9sImH/Qw8MfW+TKYiPg1/iJzHRDRJwePw1RQQrqzD2Wl6+qieqUdYx7g==" saltValue="Qu8OA/IQI2J/8lLHcoV2Jg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Y8MOuhreLqyS8twSEkSTw/rMfnnp1gWV2KnmBKMRsrtrjBa3PeJWnGzqbI76TMvVySonuoHIOOasUPh9Z0AGQA==" saltValue="9TQjbZ59ZGZcHJIYvGK0nw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
@@ -36189,22 +36189,22 @@
         <v>Pourcentage des enfants dans chaque catégorie pendant l'année de référence (2017)</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D1" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="F1" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="G1" s="12" t="s">
         <v>102</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -36296,7 +36296,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="rnvqeKUOSGr4OJq9GbDuOPaZdMMHpaXQzCfSTc3bC6iPlQsfNv48qovMvwwKg9h9YVuAOl8uT+vwYhnKqCBZhg==" saltValue="5M30RlVIra5KU8kf2Y3z4Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="9XfxP5mnQhLLmYIuJjBvfLIP+EbZLmdhLvLyFrvzg1nuNkHohVOMoar5O4VXij/SX9ineBNt8pSgwlAbK/+xuA==" saltValue="2X6z6UbRgkPvysu6a/Dd7A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -36413,7 +36413,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B7" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C7" s="28"/>
       <c r="D7" s="28"/>
@@ -36472,7 +36472,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B13" s="34" t="s">
         <v>144</v>
@@ -36502,7 +36502,7 @@
       <c r="K14" s="28"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="hgxrIWpV49oogHFda1Iqb5YErHWoQqh9DOqQfCWS6rkRWvxOhPuMpWGoII/a+1FgFl2cVwdWDj7kr1Gv35uwFw==" saltValue="0n1AvghdimipHXkA9oDANg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="aN6wA3mH+E4JyHLggVRFv+DI0Yq2Sk74mgmRcPnOftj8qd2G154iJifUeYXyZdglfQgYQA/cn7CLIwOS1abtLg==" saltValue="8Lj7yPIr7GI/UGVTNc5/HA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="193" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -36580,7 +36580,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="mfoi++yRQ0GX45yTpjLc1YEawTlVup9+sxTQHAT3bapd1sMVAFM1EjmDnVLym1e0QvXrVAzb4OuWgjWi+lWckA==" saltValue="YitncZbKPcbcX5r76B0zTQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="+L8zIK9488OG9SJ7s5TSj1M85qZrDUxB5mHarNcpXCxLlyOy/+IFSrVmEMmS5IYbHcuyFxP71Ygf+6LZCFFEuQ==" saltValue="Tc81JiKztWDpLe0CjM/hFQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -36626,7 +36626,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C2" s="80"/>
       <c r="D2" s="80"/>
@@ -36638,7 +36638,7 @@
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="47"/>
       <c r="B3" s="46" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C3" s="80" t="b">
         <v>1</v>
@@ -36652,7 +36652,7 @@
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="47"/>
       <c r="B4" s="46" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C4" s="80" t="b">
         <v>1</v>
@@ -36666,7 +36666,7 @@
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="47"/>
       <c r="B5" s="46" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C5" s="80" t="b">
         <v>1</v>
@@ -36680,7 +36680,7 @@
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="47"/>
       <c r="B6" s="46" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C6" s="80" t="b">
         <v>1</v>
@@ -36705,7 +36705,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="46" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C9" s="80"/>
       <c r="D9" s="80" t="b">
@@ -36719,7 +36719,7 @@
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="47"/>
       <c r="B10" s="46" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C10" s="80"/>
       <c r="D10" s="80"/>
@@ -36731,7 +36731,7 @@
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="47"/>
       <c r="B11" s="46" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C11" s="80"/>
       <c r="D11" s="80"/>
@@ -36743,7 +36743,7 @@
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="47"/>
       <c r="B12" s="46" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C12" s="80"/>
       <c r="D12" s="80"/>
@@ -36755,7 +36755,7 @@
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="47"/>
       <c r="B13" s="46" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C13" s="80"/>
       <c r="D13" s="80"/>
@@ -36780,7 +36780,7 @@
         <v>11</v>
       </c>
       <c r="B16" s="46" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C16" s="80"/>
       <c r="D16" s="80" t="s">
@@ -36794,7 +36794,7 @@
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="47"/>
       <c r="B17" s="46" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C17" s="80"/>
       <c r="D17" s="80" t="s">
@@ -36808,7 +36808,7 @@
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="47"/>
       <c r="B18" s="46" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C18" s="80"/>
       <c r="D18" s="80" t="s">
@@ -36822,7 +36822,7 @@
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="47"/>
       <c r="B19" s="46" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C19" s="80"/>
       <c r="D19" s="80" t="s">
@@ -36836,7 +36836,7 @@
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="47"/>
       <c r="B20" s="46" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C20" s="80"/>
       <c r="D20" s="80" t="s">
@@ -36857,7 +36857,7 @@
       <c r="E21" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="qQ6YQOrtUDYcmswNOduCFvPsjxms4YSxfNfwMzppPMA8RMqZ8d/8P0Xk/5iKh1CAQ1SuksS7J2pNHfslmazfEw==" saltValue="FAuPpf+EqxhKQTqC7rWZbA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="arne7wgtpEao5ND5JZEHURZ2FXIuELnUD8pR4DHCI7bXyz2EFS0xL1lw6zdD+n9vI/w2bjLDTrytucX+E9i1iA==" saltValue="NZu0Pl6sXRZxRJ+Ssq07OA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -36921,7 +36921,7 @@
       <c r="D3" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="UmEvTvrsQH6ZVq6opA6JzB9MI64l4nyOYbLIFpZx/LACKuXXE+zDC3h+JmnaRonUcJvYdqhso7ERy2RtZw6ubQ==" saltValue="yH7zcdI7wNkHN09AgSzPxg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="CKlmNLqGxDknvmUQYeGrW6wcfTqP+wDC9Thnakt3QxIQhze/k1UF4uGARoQ9vVPKnfQr1NYPtCm3GXdEjLfxWA==" saltValue="JxGTx+QG936bay896AQ5vg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/inputs/fr/demo_demo_input.xlsx
+++ b/inputs/fr/demo_demo_input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\romesh\projects\nutrition\inputs\fr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{75F0D84F-6C64-471D-B6D3-661FF4F927AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9519FD9-16D1-44B4-9FD4-5168881C2E64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23280" yWindow="3555" windowWidth="28800" windowHeight="15435" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1515" yWindow="1515" windowWidth="28800" windowHeight="15435" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Donnees pop de l'annee de ref" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Dist. l'allaitement maternel" sheetId="50" r:id="rId5"/>
     <sheet name="Tendances temporelles" sheetId="51" r:id="rId6"/>
     <sheet name="Perte économique" sheetId="74" r:id="rId7"/>
-    <sheet name="Paquets IYCF" sheetId="55" r:id="rId8"/>
+    <sheet name="Paquets ANJE" sheetId="55" r:id="rId8"/>
     <sheet name="Traitement de la MAS" sheetId="60" r:id="rId9"/>
     <sheet name="Coût et couverture du programme" sheetId="56" r:id="rId10"/>
     <sheet name="Dépendances du programme" sheetId="58" r:id="rId11"/>
@@ -32,13 +32,13 @@
     <sheet name="Programmes - population touchée" sheetId="62" state="hidden" r:id="rId17"/>
     <sheet name="Programme - secteurs à risque" sheetId="63" r:id="rId18"/>
     <sheet name="Population des sect. à risque" sheetId="64" state="hidden" r:id="rId19"/>
-    <sheet name="Rapport des cotes IYCF" sheetId="65" r:id="rId20"/>
+    <sheet name="Rapport des cotes ANJE" sheetId="65" r:id="rId20"/>
     <sheet name="Risques des rés. des naissances" sheetId="66" r:id="rId21"/>
     <sheet name="Risques relatifs" sheetId="67" r:id="rId22"/>
     <sheet name="Rapports des cotes" sheetId="68" r:id="rId23"/>
     <sheet name="Programmes-rés. des naissances" sheetId="69" r:id="rId24"/>
     <sheet name="Programmes-anémie" sheetId="70" r:id="rId25"/>
-    <sheet name="Programmes-amaigrissement" sheetId="71" r:id="rId26"/>
+    <sheet name="Programmes-émaciation" sheetId="71" r:id="rId26"/>
     <sheet name="Programmes pour les enfants" sheetId="72" r:id="rId27"/>
     <sheet name="Programmes pour les FE" sheetId="73" r:id="rId28"/>
   </sheets>
@@ -598,9 +598,6 @@
     <t>Sepsis</t>
   </si>
   <si>
-    <t>IPTp</t>
-  </si>
-  <si>
     <t>Population</t>
   </si>
   <si>
@@ -613,19 +610,10 @@
     <t>Field</t>
   </si>
   <si>
-    <t>IYCF 1</t>
-  </si>
-  <si>
     <t>Extension</t>
   </si>
   <si>
     <t>x</t>
-  </si>
-  <si>
-    <t>IYCF 2</t>
-  </si>
-  <si>
-    <t>IYCF 3</t>
   </si>
   <si>
     <t>Causes</t>
@@ -937,7 +925,7 @@
     <t>État</t>
   </si>
   <si>
-    <t>Retard de croissance (taille-pour-l'âge)</t>
+    <t>Retard de croissance (taille-pour-âge)</t>
   </si>
   <si>
     <t>Normal (score HAZ &gt; -1)</t>
@@ -952,7 +940,7 @@
     <t>Élevé (score HAZ &lt; -3)</t>
   </si>
   <si>
-    <t>Amaigrissement (poids-pour-taille)</t>
+    <t>Émaciation (poids-pour-taille)</t>
   </si>
   <si>
     <t>Normal (score WHZ &gt; -1)</t>
@@ -1009,7 +997,7 @@
     <t>Prévalence du retard de croissance (%)</t>
   </si>
   <si>
-    <t>Prévalence de l'amaigrissement (%)</t>
+    <t>Prévalence de l'émaciation (%)</t>
   </si>
   <si>
     <t>Prévalence de l'anémie (%)</t>
@@ -1039,7 +1027,7 @@
     <t>Coût</t>
   </si>
   <si>
-    <t>Épisode d'amaigrissement d'un enfant</t>
+    <t>Épisode d'émaciation d'un enfant</t>
   </si>
   <si>
     <t>Décès d'enfant</t>
@@ -1057,7 +1045,7 @@
     <t>Enfant souffrant d'un retard de croissance qui aura 5 ans (au cours de sa vie)</t>
   </si>
   <si>
-    <t>Paquet IYCF</t>
+    <t>Paquet ANJE</t>
   </si>
   <si>
     <t>Population cible</t>
@@ -1073,6 +1061,15 @@
   </si>
   <si>
     <t>Tous</t>
+  </si>
+  <si>
+    <t>ANJE 1</t>
+  </si>
+  <si>
+    <t>ANJE 2</t>
+  </si>
+  <si>
+    <t>ANJE 3</t>
   </si>
   <si>
     <t>Programme</t>
@@ -1141,10 +1138,13 @@
     <t>SFAF pour les femmes enceintes (établissement de santé)</t>
   </si>
   <si>
+    <t>TPIg</t>
+  </si>
+  <si>
     <t>Enrichissement du sel en fer et en iode</t>
   </si>
   <si>
-    <t>Méthode mère kangourou</t>
+    <t>Soins maternals kangourou</t>
   </si>
   <si>
     <t>Supplémentation en nutriments à base de lipides</t>
@@ -1189,7 +1189,7 @@
     <t>WASH: Eau courante</t>
   </si>
   <si>
-    <t>Zinc pour le traitement + SRO</t>
+    <t>SRO+Zn pour le traitement de la diarrhée</t>
   </si>
   <si>
     <t>Supplémentation en zinc</t>
@@ -1273,10 +1273,10 @@
     <t>Retard de croissance</t>
   </si>
   <si>
-    <t>Prévention de l'amaigrissement</t>
+    <t>Prévention de l'émaciation</t>
   </si>
   <si>
-    <t>Traitement de l'amaigrissement</t>
+    <t>Traitement de l'émaciation</t>
   </si>
   <si>
     <t>Résultats des naissances</t>
@@ -1333,7 +1333,7 @@
     <t>Rapport des cote pour des conditions</t>
   </si>
   <si>
-    <t>Amaigrissement (score-HAZ &lt; -2)</t>
+    <t>Émaciation (score-HAZ &lt; -2)</t>
   </si>
   <si>
     <t>Risques relatifs des causes du décès néonatales</t>
@@ -1384,7 +1384,7 @@
     <t>Rapports des cotes pour les femmes avec l'anémie maternelle - supérieur</t>
   </si>
   <si>
-    <t>Risque relatif des causes du décès par la distribution de la taille-pour-l'àge (retard de croissance)</t>
+    <t>Risque relatif des causes du décès par la distribution de la taille-pour-âge (retard de croissance)</t>
   </si>
   <si>
     <t>Cause du décès</t>
@@ -1426,10 +1426,10 @@
     <t>Risques relatifs de la diarrhée par mode d'allaitement maternel</t>
   </si>
   <si>
-    <t>Risque relatif des causes du décès par la distribution du poids-pour-taille (amaigrissement)</t>
+    <t>Risque relatif des causes du décès par la distribution du poids-pour-taille (émaciation)</t>
   </si>
   <si>
-    <t>Amaigrissement</t>
+    <t>Émaciation</t>
   </si>
   <si>
     <t>Compte tenu du retard de croissance antérieur (HAZ &lt; -2 dans la tranche d’âge précédente)</t>
@@ -1480,7 +1480,7 @@
     <t>Rapport des cotes pour allaitement correct par programme - inférieur</t>
   </si>
   <si>
-    <t>Méthode mère kangourou - inférieur</t>
+    <t>Soins maternals kangourou - inférieur</t>
   </si>
   <si>
     <t>Pour MAS par épisode supplémentaire de la diarrhée - inférieur</t>
@@ -1519,7 +1519,7 @@
     <t>Rapport des cotes pour allaitement correct par programme - supérieur</t>
   </si>
   <si>
-    <t>Méthode mère kangourou - supérieur</t>
+    <t>Soins maternals kangourou - supérieur</t>
   </si>
   <si>
     <t>Pour MAS par épisode supplémentaire de la diarrhée - supérieur</t>
@@ -5169,18 +5169,18 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B1" s="41" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1" s="41" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B2" s="41"/>
       <c r="C2" s="41"/>
@@ -5188,7 +5188,7 @@
     <row r="3" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="7" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C3" s="63">
         <v>2017</v>
@@ -5197,7 +5197,7 @@
     <row r="4" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="9" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C4" s="64">
         <v>2030</v>
@@ -5210,12 +5210,12 @@
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="16" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C7" s="65">
         <v>9862402</v>
@@ -5223,7 +5223,7 @@
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C8" s="66">
         <v>0.28199999999999997</v>
@@ -5231,7 +5231,7 @@
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="9" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C9" s="67">
         <v>1</v>
@@ -5239,7 +5239,7 @@
     </row>
     <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C10" s="67">
         <v>0.23</v>
@@ -5247,7 +5247,7 @@
     </row>
     <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C11" s="66">
         <v>0.51</v>
@@ -5255,7 +5255,7 @@
     </row>
     <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C12" s="66">
         <v>0.37</v>
@@ -5263,7 +5263,7 @@
     </row>
     <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C13" s="66">
         <v>0.221</v>
@@ -5274,14 +5274,14 @@
     </row>
     <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B15" s="19"/>
       <c r="C15" s="3"/>
     </row>
     <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="9" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C16" s="67">
         <v>0.3</v>
@@ -5289,7 +5289,7 @@
     </row>
     <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="9" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C17" s="67">
         <v>0.1</v>
@@ -5297,7 +5297,7 @@
     </row>
     <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="9" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C18" s="67">
         <v>0.1</v>
@@ -5305,7 +5305,7 @@
     </row>
     <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="9" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C19" s="67">
         <v>0.8</v>
@@ -5313,7 +5313,7 @@
     </row>
     <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="9" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C20" s="68">
         <f>1-frac_rice-frac_wheat-frac_maize</f>
@@ -5325,12 +5325,12 @@
     </row>
     <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="12" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="20" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C23" s="67">
         <v>0.127</v>
@@ -5338,7 +5338,7 @@
     </row>
     <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="20" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C24" s="67">
         <v>0.45200000000000001</v>
@@ -5346,7 +5346,7 @@
     </row>
     <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="20" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C25" s="67">
         <v>0.33400000000000002</v>
@@ -5354,7 +5354,7 @@
     </row>
     <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="20" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C26" s="67">
         <v>8.6999999999999994E-2</v>
@@ -5366,14 +5366,14 @@
     </row>
     <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B28" s="20"/>
       <c r="C28" s="20"/>
     </row>
     <row r="29" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="30" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C29" s="69">
         <v>0.20799999999999999</v>
@@ -5381,7 +5381,7 @@
     </row>
     <row r="30" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="30" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C30" s="69">
         <v>0.63700000000000001</v>
@@ -5389,7 +5389,7 @@
     </row>
     <row r="31" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="30" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C31" s="69">
         <v>0.11899999999999999</v>
@@ -5397,7 +5397,7 @@
     </row>
     <row r="32" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="30" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C32" s="69">
         <v>3.5999999999999997E-2</v>
@@ -5405,7 +5405,7 @@
     </row>
     <row r="33" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B33" s="32" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C33" s="70">
         <f>SUM(C29:C32)</f>
@@ -5415,19 +5415,19 @@
     <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="12" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B36" s="7"/>
       <c r="C36" s="13"/>
     </row>
     <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="42" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C37" s="71">
         <v>25</v>
@@ -5435,7 +5435,7 @@
     </row>
     <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="16" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C38" s="71">
         <v>43</v>
@@ -5445,7 +5445,7 @@
     </row>
     <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="16" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C39" s="71">
         <v>67</v>
@@ -5455,7 +5455,7 @@
     </row>
     <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="16" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C40" s="71">
         <v>4.01</v>
@@ -5463,7 +5463,7 @@
     </row>
     <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="16" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C41" s="67">
         <v>0.13</v>
@@ -5471,7 +5471,7 @@
     </row>
     <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="42" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C42" s="71">
         <v>22.4</v>
@@ -5482,13 +5482,13 @@
     </row>
     <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="12" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D44" s="17"/>
     </row>
     <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="16" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C45" s="67">
         <v>3.1E-2</v>
@@ -5497,7 +5497,7 @@
     </row>
     <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="16" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C46" s="67">
         <v>0.109</v>
@@ -5506,7 +5506,7 @@
     </row>
     <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="16" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C47" s="67">
         <v>0.36499999999999999</v>
@@ -5516,7 +5516,7 @@
     </row>
     <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="16" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C48" s="68">
         <f>1-term_SGA-preterm_AGA-preterm_SGA</f>
@@ -5530,13 +5530,13 @@
     </row>
     <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="12" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D50" s="17"/>
     </row>
     <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="16" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C51" s="72">
         <v>1.66</v>
@@ -5545,7 +5545,7 @@
     </row>
     <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="16" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C52" s="72">
         <v>1.66</v>
@@ -5553,7 +5553,7 @@
     </row>
     <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="16" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C53" s="72">
         <v>5.64</v>
@@ -5561,7 +5561,7 @@
     </row>
     <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="16" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C54" s="72">
         <v>5.43</v>
@@ -5569,7 +5569,7 @@
     </row>
     <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="16" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C55" s="72">
         <v>1.91</v>
@@ -5577,12 +5577,12 @@
     </row>
     <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="12" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C58" s="66">
         <v>0.2</v>
@@ -5590,7 +5590,7 @@
     </row>
     <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="16" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C59" s="66">
         <v>0.42</v>
@@ -5598,7 +5598,7 @@
     </row>
     <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="16" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C60" s="66">
         <v>4.5999999999999999E-2</v>
@@ -5606,7 +5606,7 @@
     </row>
     <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="16" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C61" s="66">
         <v>1.4E-2</v>
@@ -5614,7 +5614,7 @@
     </row>
     <row r="62" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62" s="16" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C62" s="66">
         <v>0.02</v>
@@ -5624,7 +5624,7 @@
       <c r="A63" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="kMnNKyZtLvxxfD1+mUcwXojgEZNS44Vh4sPC03tAEf38NIlwOV+tm3pzlurEAsUhCKMWMDUmpl4EzEgUZ7zrjg==" saltValue="j43hmiFxidt9m16JQKOgCw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="ZGxYmLuZKvWOwYaeNTosFTVntSKHnpcKxWrj6fOJPPa9/aHxJFAqgcPrhHcrcgERQVkVNjjYFAVFwb7+LbmU/w==" saltValue="7K16vAHD6uOwaxf6r/cwqA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -5656,20 +5656,20 @@
   <sheetData>
     <row r="1" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="54" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B1" s="62" t="str">
         <f>"Couverture de l'année de référence ("&amp;start_year&amp;")"</f>
         <v>Couverture de l'année de référence (2017)</v>
       </c>
       <c r="C1" s="53" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D1" s="53" t="s">
         <v>203</v>
       </c>
       <c r="E1" s="53" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F1" s="53" t="s">
         <v>204</v>
@@ -5680,7 +5680,7 @@
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="52" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B2" s="81">
         <v>0</v>
@@ -5703,7 +5703,7 @@
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="52" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B3" s="81">
         <v>0</v>
@@ -5726,7 +5726,7 @@
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="52" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B4" s="81">
         <v>0</v>
@@ -5749,7 +5749,7 @@
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="52" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B5" s="81">
         <v>0</v>
@@ -5772,7 +5772,7 @@
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="52" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B6" s="81">
         <v>0</v>
@@ -5795,7 +5795,7 @@
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="52" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B7" s="81">
         <v>0.36</v>
@@ -5818,7 +5818,7 @@
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="52" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B8" s="81">
         <v>0</v>
@@ -5841,7 +5841,7 @@
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="52" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B9" s="81">
         <v>0</v>
@@ -5864,7 +5864,7 @@
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="59" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B10" s="81">
         <v>0</v>
@@ -5887,7 +5887,7 @@
     </row>
     <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="59" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B11" s="81">
         <v>0</v>
@@ -5910,7 +5910,7 @@
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="59" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B12" s="81">
         <v>0</v>
@@ -5933,7 +5933,7 @@
     </row>
     <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="59" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B13" s="81">
         <v>0</v>
@@ -5956,7 +5956,7 @@
     </row>
     <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B14" s="81">
         <v>0</v>
@@ -5979,7 +5979,7 @@
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B15" s="81">
         <v>0</v>
@@ -6002,7 +6002,7 @@
     </row>
     <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="52" t="s">
-        <v>2</v>
+        <v>182</v>
       </c>
       <c r="B16" s="81">
         <v>0.9</v>
@@ -6048,7 +6048,7 @@
     </row>
     <row r="18" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="52" t="s">
-        <v>7</v>
+        <v>157</v>
       </c>
       <c r="B18" s="81">
         <v>0</v>
@@ -6071,7 +6071,7 @@
     </row>
     <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="52" t="s">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="B19" s="81">
         <v>0</v>
@@ -6094,7 +6094,7 @@
     </row>
     <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="52" t="s">
-        <v>11</v>
+        <v>159</v>
       </c>
       <c r="B20" s="81">
         <v>0</v>
@@ -6347,7 +6347,7 @@
     </row>
     <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="52" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B31" s="81">
         <v>0</v>
@@ -6556,7 +6556,7 @@
       <c r="F40" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Q1uPozQdQfJzkEG+lWRmdkyfEWe4VYA3jkUVS/0+KYzIFH8TCF91Ic5Q21+5XGjTvECAnnLYa5D3WNdyXQ+PsA==" saltValue="A7rSyuQCF8VMM/tCg+aNVg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="fiNzy4yyd2SIX56nm0lo2QeJEjOla1eFGlKxoHoAeHbxrViSMTSHZs17yPbddDeLoAA/CD1fQPsdL+3dLorgKQ==" saltValue="BEs/+rvleNfVUYpY2WxeSw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D39">
     <sortCondition ref="A2:A39"/>
   </sortState>
@@ -6599,7 +6599,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B1" s="40" t="s">
         <v>207</v>
@@ -6610,7 +6610,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="83" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B2" s="80" t="s">
         <v>190</v>
@@ -6619,7 +6619,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="83" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B3" s="80" t="s">
         <v>190</v>
@@ -6720,7 +6720,7 @@
       <c r="C20" s="85"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="RStU2edmxY2cczeZLwntVWIGw7ESjqNKy2v+2mkZHVzwp4mXYUnRg2Y2NRo8CwMxt99KTP0dpHS7KQN7oDt4Kw==" saltValue="smXNnj0Fh5W0mzMWOLsgaQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="UrXibKFEeiRA8kzNxaL8fvL97+fgD0e/l8jhFWORXKwEzIVsgi9inpPU5BcTgb3m7VYwDxiUJDqf+hiMeq91Lg==" saltValue="k5nyb738zS71XBmRi+85pg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
@@ -6746,17 +6746,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="48" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="48" t="s">
-        <v>2</v>
+        <v>182</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
@@ -6820,7 +6820,7 @@
       <c r="A19" s="48"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="0mJXok6/juaFl4JpJyKjFwSnvG2Ij6aJNwIAebJiL9f3r76SJgcX0gaqi0I0pZ7DN9sGvRYwyL9WfLJQ2Sn4zA==" saltValue="qz1YoitUg5+5HGM9vgV40Q==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="gs83k0TTgF33/lkPOEvGrkxcZYbsCElsIK1Bd2A759wOld/KQdLDCjJY5mYonIw/ptLK0MRcvP5MOqsk3Xh7aQ==" saltValue="3ox7q/ZgZ559bzCtsjlxrg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -6844,24 +6844,24 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B2" s="26">
         <f>'Donnees pop de l''annee de ref'!C51</f>
@@ -6935,7 +6935,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="oyl+Ho1kNAS9J6QfM+e7PInTohNAiHNbVM/DEnjXVnG3FfhQY4qc/go/LyJLVeHhutWh0gHeN9zw2P87hh5u8A==" saltValue="q8KtG0YpZCKOyKcA9ao9TQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="iPjH2h42K5MlZDTskJBFQCsUXrb0DCEE1mC753H3HXdsBOmAL1dKrjC4BhZVbKgl78I0JV9hix0RXWdipp3d/A==" saltValue="46xNhhLJliZ5pUlGn0e4Cg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -6969,54 +6969,54 @@
         <v>212</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C2" s="87">
         <v>0</v>
@@ -7064,7 +7064,7 @@
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C3" s="87">
         <v>1</v>
@@ -7386,7 +7386,7 @@
     </row>
     <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C10" s="87">
         <v>0</v>
@@ -7574,10 +7574,10 @@
     </row>
     <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C15" s="88">
         <v>0</v>
@@ -7626,7 +7626,7 @@
     <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C16" s="88">
         <v>0</v>
@@ -7671,7 +7671,7 @@
     <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C17" s="88">
         <v>0</v>
@@ -7720,7 +7720,7 @@
     <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
       <c r="B18" s="11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C18" s="88">
         <v>0</v>
@@ -7768,7 +7768,7 @@
     </row>
     <row r="19" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="33" t="s">
-        <v>2</v>
+        <v>182</v>
       </c>
       <c r="C19" s="88">
         <v>0</v>
@@ -7955,10 +7955,10 @@
     </row>
     <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="58" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B24" s="59" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C24" s="88">
         <v>0</v>
@@ -8006,7 +8006,7 @@
     </row>
     <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="59" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C25" s="88">
         <v>0</v>
@@ -8054,7 +8054,7 @@
     </row>
     <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="59" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C26" s="88">
         <v>0</v>
@@ -8102,7 +8102,7 @@
     </row>
     <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="59" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C27" s="88">
         <v>0</v>
@@ -8150,7 +8150,7 @@
     </row>
     <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="59" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C28" s="88">
         <v>0</v>
@@ -8208,7 +8208,7 @@
         <v>211</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C30" s="87">
         <v>0</v>
@@ -8263,7 +8263,7 @@
     </row>
     <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C31" s="87">
         <v>0</v>
@@ -8318,7 +8318,7 @@
     </row>
     <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C32" s="87">
         <v>0</v>
@@ -8697,7 +8697,7 @@
       <c r="B40" s="33"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="HtMAQWitMs6za0GgYqZhaAZi3ijwrD/Yx218sJZPSdn2MibyfO+uiAdt7JeUZFxslG8kx+uLIziIV/xJhK1ZDA==" saltValue="ZT8HBAEX4uz5PTJwcSSpEw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="PMQAmaCjYZYryI7Zc/OY9Cs+85Sz9grp9GpkMOZ05HDnCl4yEZ5FdKXz94+yIuhS6wFEqEWRkgyL8jB9o6qQsA==" saltValue="fSA82Nz0InfO5mxVsi7quQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B15:O22">
     <sortCondition ref="B15:B22"/>
   </sortState>
@@ -8735,7 +8735,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="WCgDoFB6T4pWcIrJx0mooRN9Tf5C7vIBHkdZCOD0OHrR0dP8p2B2nVgrwJR5C1Kd+oY5zsj3nquBy0WDpQJVbQ==" saltValue="oMv8S1QcraqhHhU/Rnlj8Q==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="FXx6LL4S50tRsw/um2IIHrj07jsJrbyiOoUu1MbC9h5H2p1QJu+nusElBXRIXlj+w6ISm+HTV0LOk8QOKPa36Q==" saltValue="vNmw3gBKW8QWc5OvnkIkag==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8768,10 +8768,10 @@
         <v>215</v>
       </c>
       <c r="C1" s="40" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E1" s="40" t="s">
         <v>225</v>
@@ -8851,7 +8851,7 @@
     </row>
     <row r="6" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="39" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="38">
         <v>1</v>
@@ -8943,7 +8943,7 @@
       <c r="C11" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="1iqdIsvdcxGxCaNeGcX08zfQ/kJl7rQ73rKGOAh66Xeiqiegos7uM6O2lgiBymMGSdZb7w38tYvyB4GWlhv0eQ==" saltValue="9fBMlkkXPgUm2C4eDBweQg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="9lFRj3Dyqor+F6sO0iGjL8ByBwygCUVIhkHbHyXqR/ITtzZhf6UhEZNReVChqepUaNPptNWLhKzYbe01xkbWrQ==" saltValue="nzAtxuAs131/MP2Q5lHS+A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -8979,54 +8979,54 @@
         <v>212</v>
       </c>
       <c r="B1" s="89" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C1" s="56" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D1" s="56" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E1" s="56" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F1" s="56" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G1" s="56" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="H1" s="56" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="I1" s="56" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="J1" s="56" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="K1" s="56" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="L1" s="56" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="M1" s="56" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="N1" s="56" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="O1" s="56" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="56" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B2" s="52" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C2" s="133">
         <v>0</v>
@@ -9070,7 +9070,7 @@
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="52" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C3" s="133">
         <v>1</v>
@@ -9114,7 +9114,7 @@
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="52" t="s">
-        <v>7</v>
+        <v>157</v>
       </c>
       <c r="C4" s="133">
         <v>1</v>
@@ -9158,7 +9158,7 @@
     </row>
     <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="52" t="s">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="C5" s="133">
         <v>1</v>
@@ -9202,7 +9202,7 @@
     </row>
     <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="52" t="s">
-        <v>11</v>
+        <v>159</v>
       </c>
       <c r="C6" s="133">
         <v>1</v>
@@ -9510,7 +9510,7 @@
     </row>
     <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="52" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C13" s="133">
         <v>0</v>
@@ -9702,10 +9702,10 @@
     </row>
     <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="56" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B18" s="52" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C18" s="133">
         <v>0</v>
@@ -9750,7 +9750,7 @@
     <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="56"/>
       <c r="B19" s="52" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C19" s="133">
         <v>0</v>
@@ -9794,7 +9794,7 @@
     </row>
     <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="90" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C20" s="133">
         <v>0</v>
@@ -9838,7 +9838,7 @@
     </row>
     <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="90" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C21" s="133">
         <v>0</v>
@@ -9882,7 +9882,7 @@
     </row>
     <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="91" t="s">
-        <v>2</v>
+        <v>182</v>
       </c>
       <c r="C22" s="133">
         <v>0</v>
@@ -10074,10 +10074,10 @@
     </row>
     <row r="27" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="56" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B27" s="52" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C27" s="133">
         <v>0</v>
@@ -10122,7 +10122,7 @@
     </row>
     <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="59" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C28" s="133">
         <v>0</v>
@@ -10167,7 +10167,7 @@
     <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="56"/>
       <c r="B29" s="59" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C29" s="133">
         <v>0</v>
@@ -10211,7 +10211,7 @@
     </row>
     <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="59" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C30" s="133">
         <v>0</v>
@@ -10255,7 +10255,7 @@
     </row>
     <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="59" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C31" s="133">
         <v>0</v>
@@ -10318,7 +10318,7 @@
         <v>211</v>
       </c>
       <c r="B33" s="52" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C33" s="133">
         <v>1</v>
@@ -10362,7 +10362,7 @@
     </row>
     <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="52" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C34" s="133">
         <v>1</v>
@@ -10406,7 +10406,7 @@
     </row>
     <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="52" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C35" s="133">
         <v>1</v>
@@ -10758,7 +10758,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="ICJ7GEWSnX9tREFSmBiLRclOzbKsTY0paDFNqtOiKrqt/donnnVAmIPSDki8DUc+GPa8J2NR9JZzMgDP6I7JLQ==" saltValue="oCJZEp/20kzFpQtNT2qhcw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="lAUNyZTCVuwMFphdkGLM1OP+WygivBZIRz+oGuZARY7lsCMzh5Ng3m6ZCevHKL4I41xxyafNkx2wz/cTxTjJBw==" saltValue="v2JQFMXjJ3N9eWGt6L2dYg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10791,13 +10791,13 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B1" s="35" t="s">
         <v>226</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D1" s="35" t="s">
         <v>227</v>
@@ -10806,27 +10806,27 @@
         <v>228</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="I1" s="35" t="s">
         <v>229</v>
       </c>
       <c r="J1" s="35" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K1" s="35" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="52" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B2" s="133"/>
       <c r="C2" s="133"/>
@@ -10836,14 +10836,14 @@
       <c r="G2" s="133"/>
       <c r="H2" s="133"/>
       <c r="I2" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J2" s="133"/>
       <c r="K2" s="133"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="52" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B3" s="133"/>
       <c r="C3" s="133"/>
@@ -10852,7 +10852,7 @@
       <c r="F3" s="133"/>
       <c r="G3" s="133"/>
       <c r="H3" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I3" s="133"/>
       <c r="J3" s="133"/>
@@ -10860,12 +10860,12 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="52" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B4" s="133"/>
       <c r="C4" s="133"/>
       <c r="D4" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E4" s="133"/>
       <c r="F4" s="133"/>
@@ -10877,11 +10877,11 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="52" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B5" s="133"/>
       <c r="C5" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D5" s="133"/>
       <c r="E5" s="133"/>
@@ -10894,7 +10894,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="52" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B6" s="133"/>
       <c r="C6" s="133"/>
@@ -10905,26 +10905,26 @@
       <c r="H6" s="133"/>
       <c r="I6" s="133"/>
       <c r="J6" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K6" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="52" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B7" s="133"/>
       <c r="C7" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D7" s="133"/>
       <c r="E7" s="133"/>
       <c r="F7" s="133"/>
       <c r="G7" s="133"/>
       <c r="H7" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I7" s="133"/>
       <c r="J7" s="133"/>
@@ -10932,18 +10932,18 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="52" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B8" s="133"/>
       <c r="C8" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D8" s="133"/>
       <c r="E8" s="133"/>
       <c r="F8" s="133"/>
       <c r="G8" s="133"/>
       <c r="H8" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I8" s="133"/>
       <c r="J8" s="133"/>
@@ -10951,18 +10951,18 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="52" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B9" s="133"/>
       <c r="C9" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D9" s="133"/>
       <c r="E9" s="133"/>
       <c r="F9" s="133"/>
       <c r="G9" s="133"/>
       <c r="H9" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I9" s="133"/>
       <c r="J9" s="133"/>
@@ -10970,11 +10970,11 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="59" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B10" s="133"/>
       <c r="C10" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D10" s="133"/>
       <c r="E10" s="133"/>
@@ -10987,11 +10987,11 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="59" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B11" s="133"/>
       <c r="C11" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D11" s="133"/>
       <c r="E11" s="133"/>
@@ -11004,11 +11004,11 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="59" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B12" s="133"/>
       <c r="C12" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D12" s="133"/>
       <c r="E12" s="133"/>
@@ -11021,11 +11021,11 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="59" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B13" s="133"/>
       <c r="C13" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D13" s="133"/>
       <c r="E13" s="133"/>
@@ -11038,11 +11038,11 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="90" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B14" s="133"/>
       <c r="C14" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D14" s="133"/>
       <c r="E14" s="133"/>
@@ -11050,18 +11050,18 @@
       <c r="G14" s="133"/>
       <c r="H14" s="133"/>
       <c r="I14" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J14" s="133"/>
       <c r="K14" s="133"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="90" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B15" s="133"/>
       <c r="C15" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D15" s="133"/>
       <c r="E15" s="133"/>
@@ -11069,28 +11069,28 @@
       <c r="G15" s="133"/>
       <c r="H15" s="133"/>
       <c r="I15" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J15" s="133"/>
       <c r="K15" s="133"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="52" t="s">
-        <v>2</v>
+        <v>182</v>
       </c>
       <c r="B16" s="133"/>
       <c r="C16" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D16" s="133"/>
       <c r="E16" s="133"/>
       <c r="F16" s="133"/>
       <c r="G16" s="133"/>
       <c r="H16" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I16" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J16" s="133"/>
       <c r="K16" s="133"/>
@@ -11101,7 +11101,7 @@
       </c>
       <c r="B17" s="133"/>
       <c r="C17" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D17" s="133"/>
       <c r="E17" s="133"/>
@@ -11114,16 +11114,16 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="52" t="s">
+        <v>157</v>
+      </c>
+      <c r="B18" s="133" t="s">
         <v>7</v>
-      </c>
-      <c r="B18" s="133" t="s">
-        <v>9</v>
       </c>
       <c r="C18" s="133"/>
       <c r="D18" s="133"/>
       <c r="E18" s="133"/>
       <c r="F18" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G18" s="133"/>
       <c r="H18" s="133"/>
@@ -11133,16 +11133,16 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="52" t="s">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="B19" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C19" s="133"/>
       <c r="D19" s="133"/>
       <c r="E19" s="133"/>
       <c r="F19" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G19" s="133"/>
       <c r="H19" s="133"/>
@@ -11152,16 +11152,16 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="52" t="s">
-        <v>11</v>
+        <v>159</v>
       </c>
       <c r="B20" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C20" s="133"/>
       <c r="D20" s="133"/>
       <c r="E20" s="133"/>
       <c r="F20" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G20" s="133"/>
       <c r="H20" s="133"/>
@@ -11180,10 +11180,10 @@
       <c r="F21" s="133"/>
       <c r="G21" s="133"/>
       <c r="H21" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I21" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J21" s="133"/>
       <c r="K21" s="133"/>
@@ -11193,13 +11193,13 @@
         <v>185</v>
       </c>
       <c r="B22" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C22" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D22" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E22" s="133"/>
       <c r="F22" s="133"/>
@@ -11215,7 +11215,7 @@
       </c>
       <c r="B23" s="133"/>
       <c r="C23" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D23" s="133"/>
       <c r="E23" s="133"/>
@@ -11223,7 +11223,7 @@
       <c r="G23" s="133"/>
       <c r="H23" s="133"/>
       <c r="I23" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J23" s="133"/>
       <c r="K23" s="133"/>
@@ -11239,7 +11239,7 @@
       <c r="F24" s="133"/>
       <c r="G24" s="133"/>
       <c r="H24" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I24" s="133"/>
       <c r="J24" s="133"/>
@@ -11256,7 +11256,7 @@
       <c r="F25" s="133"/>
       <c r="G25" s="133"/>
       <c r="H25" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I25" s="133"/>
       <c r="J25" s="133"/>
@@ -11268,7 +11268,7 @@
       </c>
       <c r="B26" s="133"/>
       <c r="C26" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D26" s="133"/>
       <c r="E26" s="133"/>
@@ -11285,7 +11285,7 @@
       </c>
       <c r="B27" s="133"/>
       <c r="C27" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D27" s="133"/>
       <c r="E27" s="133"/>
@@ -11293,7 +11293,7 @@
       <c r="G27" s="133"/>
       <c r="H27" s="133"/>
       <c r="I27" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J27" s="133"/>
       <c r="K27" s="133"/>
@@ -11309,7 +11309,7 @@
       <c r="F28" s="133"/>
       <c r="G28" s="133"/>
       <c r="H28" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I28" s="133"/>
       <c r="J28" s="133"/>
@@ -11320,11 +11320,11 @@
         <v>192</v>
       </c>
       <c r="B29" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C29" s="133"/>
       <c r="D29" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E29" s="133"/>
       <c r="F29" s="133"/>
@@ -11339,13 +11339,13 @@
         <v>206</v>
       </c>
       <c r="B30" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C30" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D30" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E30" s="133"/>
       <c r="F30" s="133"/>
@@ -11357,13 +11357,13 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="52" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B31" s="133"/>
       <c r="C31" s="133"/>
       <c r="D31" s="133"/>
       <c r="E31" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F31" s="133"/>
       <c r="G31" s="133"/>
@@ -11382,10 +11382,10 @@
       <c r="E32" s="133"/>
       <c r="F32" s="133"/>
       <c r="G32" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H32" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I32" s="133"/>
       <c r="J32" s="133"/>
@@ -11401,10 +11401,10 @@
       <c r="E33" s="133"/>
       <c r="F33" s="133"/>
       <c r="G33" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H33" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I33" s="133"/>
       <c r="J33" s="133"/>
@@ -11420,10 +11420,10 @@
       <c r="E34" s="133"/>
       <c r="F34" s="133"/>
       <c r="G34" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H34" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I34" s="133"/>
       <c r="J34" s="133"/>
@@ -11439,10 +11439,10 @@
       <c r="E35" s="133"/>
       <c r="F35" s="133"/>
       <c r="G35" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H35" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I35" s="133"/>
       <c r="J35" s="133"/>
@@ -11458,10 +11458,10 @@
       <c r="E36" s="133"/>
       <c r="F36" s="133"/>
       <c r="G36" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H36" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I36" s="133"/>
       <c r="J36" s="133"/>
@@ -11477,10 +11477,10 @@
       <c r="E37" s="133"/>
       <c r="F37" s="133"/>
       <c r="G37" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H37" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I37" s="133"/>
       <c r="J37" s="133"/>
@@ -11497,7 +11497,7 @@
       <c r="F38" s="133"/>
       <c r="G38" s="133"/>
       <c r="H38" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I38" s="133"/>
       <c r="J38" s="133"/>
@@ -11508,24 +11508,24 @@
         <v>200</v>
       </c>
       <c r="B39" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C39" s="133"/>
       <c r="D39" s="133"/>
       <c r="E39" s="133"/>
       <c r="F39" s="133"/>
       <c r="G39" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H39" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I39" s="133"/>
       <c r="J39" s="133"/>
       <c r="K39" s="133"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="vu5RAqX4yFGYAqNAkgYEOOeF8z6wFkf1vw+PKCe+dK/87QURy8Rv4fgBD3rGjkBGo0M9+yLiVv5nMDntHuDVMg==" saltValue="2d2zRq/0wmVsHRfrZZn87w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="c7iOW6gdImiba2+t7qH8MaF0BKtq/jVGjazf/aDSDFDYjUcUxKSbFiEDTWiVlewBX4XADrx4zdghti2g7STwmQ==" saltValue="j1heI97ixIkzRAZFEDLviw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11564,7 +11564,7 @@
         <v>226</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D1" s="35" t="s">
         <v>227</v>
@@ -11573,48 +11573,48 @@
         <v>228</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="I1" s="35" t="s">
         <v>229</v>
       </c>
       <c r="J1" s="35" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K1" s="35" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="35" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B2" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C2" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D2" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E2" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F2" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G2" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H2" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I2" s="133"/>
       <c r="J2" s="133"/>
@@ -11622,28 +11622,28 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="35" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B3" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C3" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D3" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E3" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F3" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G3" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H3" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I3" s="133"/>
       <c r="J3" s="133"/>
@@ -11651,28 +11651,28 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="35" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B4" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D4" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E4" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F4" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G4" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H4" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I4" s="133"/>
       <c r="J4" s="133"/>
@@ -11680,28 +11680,28 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="35" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B5" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D5" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E5" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F5" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G5" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H5" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I5" s="133"/>
       <c r="J5" s="133"/>
@@ -11709,28 +11709,28 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="35" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B6" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C6" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D6" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E6" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F6" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G6" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H6" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I6" s="133"/>
       <c r="J6" s="133"/>
@@ -11738,95 +11738,95 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="35" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B7" s="133"/>
       <c r="C7" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D7" s="133"/>
       <c r="E7" s="133"/>
       <c r="F7" s="133"/>
       <c r="G7" s="133"/>
       <c r="H7" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I7" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J7" s="133"/>
       <c r="K7" s="133"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="35" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B8" s="133"/>
       <c r="C8" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D8" s="133"/>
       <c r="E8" s="133"/>
       <c r="F8" s="133"/>
       <c r="G8" s="133"/>
       <c r="H8" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I8" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J8" s="133"/>
       <c r="K8" s="133"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="35" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B9" s="133"/>
       <c r="C9" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D9" s="133"/>
       <c r="E9" s="133"/>
       <c r="F9" s="133"/>
       <c r="G9" s="133"/>
       <c r="H9" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I9" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J9" s="133"/>
       <c r="K9" s="133"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="35" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B10" s="133"/>
       <c r="C10" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D10" s="133"/>
       <c r="E10" s="133"/>
       <c r="F10" s="133"/>
       <c r="G10" s="133"/>
       <c r="H10" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I10" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J10" s="133"/>
       <c r="K10" s="133"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="35" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B11" s="133"/>
       <c r="C11" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D11" s="133"/>
       <c r="E11" s="133"/>
@@ -11835,19 +11835,19 @@
       <c r="H11" s="133"/>
       <c r="I11" s="133"/>
       <c r="J11" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K11" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="35" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B12" s="133"/>
       <c r="C12" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D12" s="133"/>
       <c r="E12" s="133"/>
@@ -11857,16 +11857,16 @@
       <c r="I12" s="133"/>
       <c r="J12" s="133"/>
       <c r="K12" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="35" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B13" s="133"/>
       <c r="C13" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D13" s="133"/>
       <c r="E13" s="133"/>
@@ -11876,16 +11876,16 @@
       <c r="I13" s="133"/>
       <c r="J13" s="133"/>
       <c r="K13" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="35" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B14" s="133"/>
       <c r="C14" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D14" s="133"/>
       <c r="E14" s="133"/>
@@ -11895,11 +11895,11 @@
       <c r="I14" s="133"/>
       <c r="J14" s="133"/>
       <c r="K14" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="8arDLTie2XEdXpYFhO+3mBVg8Jj7x/Mi1Jp8dV32NbaWiGMJHwYU9+8Gp900OeqlM2HU4YiGpdzOwanrWv7rUw==" saltValue="OQhYitEuc3hUb4nRxyGxKA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="ZUB0CuDT1Lx6hnt8DrOWgnxRjBdjhykNmJQVgNExe3EPVy6ebYLQ/JCvyLDxrviTR/5Sd7fiI1QrJipKiWxU4w==" saltValue="tgQMqG0JQ2XJOEA2goDSCw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11924,31 +11924,31 @@
   <sheetData>
     <row r="1" spans="1:9" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="31" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B1" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="G1" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="H1" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="I1" s="23" t="s">
         <v>75</v>
-      </c>
-      <c r="F1" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="G1" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="H1" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="I1" s="23" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12988,7 +12988,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="It2D0CjorCXkMOZAUTIFhXyvF9lAuL8Qc3LK7SZcoRk8I+23eReGY4H+kMuE19b3XVXMu2nf+8UnBMOEyTTNHA==" saltValue="X1Cs8QN3PKM2t7EUjQg1WQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="oJA52mDN02oZrdg6TKfo9ZwE/y+iDHFl0HQfq3V2HLIZwFcbjfR/75Qhjz4Rz1IPIr81yf/zvaPLh2kpv6u2CQ==" saltValue="ZA20SHGQTUlK6+lUsiNeBQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <conditionalFormatting sqref="B2:I16 B18:I40 B17:C17 E17:I17">
     <cfRule type="expression" dxfId="0" priority="9">
       <formula>$A2=""</formula>
@@ -13023,25 +13023,25 @@
         <v>231</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C1" s="40" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E1" s="40" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F1" s="40" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G1" s="40" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H1" s="94" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -13049,10 +13049,10 @@
         <v>232</v>
       </c>
       <c r="B2" s="148" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D2" s="134">
         <v>1</v>
@@ -13073,7 +13073,7 @@
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" s="148"/>
       <c r="C3" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D3" s="134">
         <v>1</v>
@@ -13095,7 +13095,7 @@
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" s="148"/>
       <c r="C4" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D4" s="134">
         <v>1</v>
@@ -13116,10 +13116,10 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" s="148" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C5" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D5" s="134">
         <f>5.16</f>
@@ -13141,7 +13141,7 @@
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6" s="148"/>
       <c r="C6" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D6" s="134">
         <v>5.16</v>
@@ -13162,7 +13162,7 @@
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" s="148"/>
       <c r="C7" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D7" s="134">
         <v>1</v>
@@ -13182,10 +13182,10 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8" s="148" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D8" s="134">
         <v>1</v>
@@ -13206,7 +13206,7 @@
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9" s="148"/>
       <c r="C9" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D9" s="134">
         <v>1</v>
@@ -13227,7 +13227,7 @@
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B10" s="148"/>
       <c r="C10" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D10" s="134">
         <v>1</v>
@@ -13247,10 +13247,10 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B11" s="148" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C11" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D11" s="134">
         <v>1</v>
@@ -13271,7 +13271,7 @@
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B12" s="148"/>
       <c r="C12" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D12" s="134">
         <v>1</v>
@@ -13292,7 +13292,7 @@
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B13" s="148"/>
       <c r="C13" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D13" s="134">
         <v>1</v>
@@ -13312,10 +13312,10 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B14" s="148" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D14" s="134">
         <v>1</v>
@@ -13336,7 +13336,7 @@
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B15" s="148"/>
       <c r="C15" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D15" s="134">
         <v>1</v>
@@ -13357,7 +13357,7 @@
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B16" s="148"/>
       <c r="C16" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D16" s="134">
         <v>1</v>
@@ -13377,10 +13377,10 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B17" s="96" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C17" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D17" s="134">
         <v>1.05</v>
@@ -13410,10 +13410,10 @@
         <v>233</v>
       </c>
       <c r="B19" s="148" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C19" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D19" s="134">
         <v>1</v>
@@ -13434,7 +13434,7 @@
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B20" s="148"/>
       <c r="C20" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D20" s="134">
         <v>1</v>
@@ -13455,7 +13455,7 @@
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B21" s="148"/>
       <c r="C21" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D21" s="134">
         <v>1</v>
@@ -13475,10 +13475,10 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B22" s="148" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C22" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D22" s="134">
         <v>1</v>
@@ -13499,7 +13499,7 @@
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B23" s="148"/>
       <c r="C23" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D23" s="134">
         <v>1</v>
@@ -13520,7 +13520,7 @@
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B24" s="148"/>
       <c r="C24" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D24" s="134">
         <v>1</v>
@@ -13540,10 +13540,10 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B25" s="148" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C25" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D25" s="134">
         <v>1</v>
@@ -13564,7 +13564,7 @@
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B26" s="148"/>
       <c r="C26" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D26" s="134">
         <v>1</v>
@@ -13585,7 +13585,7 @@
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B27" s="148"/>
       <c r="C27" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D27" s="134">
         <v>1</v>
@@ -13605,10 +13605,10 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B28" s="148" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C28" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D28" s="134">
         <v>1</v>
@@ -13629,7 +13629,7 @@
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B29" s="148"/>
       <c r="C29" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D29" s="134">
         <v>1</v>
@@ -13650,7 +13650,7 @@
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B30" s="148"/>
       <c r="C30" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D30" s="134">
         <v>1</v>
@@ -13670,10 +13670,10 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B31" s="148" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C31" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D31" s="134">
         <v>1</v>
@@ -13694,7 +13694,7 @@
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B32" s="148"/>
       <c r="C32" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D32" s="134">
         <v>1</v>
@@ -13715,7 +13715,7 @@
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B33" s="148"/>
       <c r="C33" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D33" s="134">
         <v>1</v>
@@ -13735,10 +13735,10 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B34" s="96" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C34" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D34" s="134">
         <v>1</v>
@@ -13768,10 +13768,10 @@
         <v>234</v>
       </c>
       <c r="B36" s="148" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C36" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D36" s="134">
         <v>1</v>
@@ -13792,7 +13792,7 @@
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B37" s="148"/>
       <c r="C37" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D37" s="134">
         <v>1</v>
@@ -13813,7 +13813,7 @@
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B38" s="148"/>
       <c r="C38" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D38" s="134">
         <v>1</v>
@@ -13833,10 +13833,10 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B39" s="148" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C39" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D39" s="134">
         <v>1</v>
@@ -13857,7 +13857,7 @@
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B40" s="148"/>
       <c r="C40" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D40" s="134">
         <v>1</v>
@@ -13878,7 +13878,7 @@
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B41" s="148"/>
       <c r="C41" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D41" s="134">
         <v>1</v>
@@ -13898,10 +13898,10 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B42" s="148" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C42" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D42" s="134">
         <v>1</v>
@@ -13922,7 +13922,7 @@
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B43" s="148"/>
       <c r="C43" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D43" s="134">
         <v>1</v>
@@ -13943,7 +13943,7 @@
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B44" s="148"/>
       <c r="C44" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D44" s="134">
         <v>1</v>
@@ -13963,10 +13963,10 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B45" s="148" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C45" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D45" s="134">
         <v>1</v>
@@ -13987,7 +13987,7 @@
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B46" s="148"/>
       <c r="C46" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D46" s="134">
         <v>1</v>
@@ -14008,7 +14008,7 @@
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B47" s="148"/>
       <c r="C47" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D47" s="134">
         <v>1</v>
@@ -14028,10 +14028,10 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B48" s="148" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C48" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D48" s="134">
         <v>1</v>
@@ -14052,7 +14052,7 @@
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B49" s="148"/>
       <c r="C49" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D49" s="134">
         <v>1</v>
@@ -14073,7 +14073,7 @@
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B50" s="148"/>
       <c r="C50" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D50" s="134">
         <v>1</v>
@@ -14093,10 +14093,10 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B51" s="98" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C51" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D51" s="134">
         <v>1.05</v>
@@ -14131,25 +14131,25 @@
         <v>231</v>
       </c>
       <c r="B54" s="40" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C54" s="40" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D54" s="40" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E54" s="40" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F54" s="40" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G54" s="40" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H54" s="94" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
@@ -14157,10 +14157,10 @@
         <v>236</v>
       </c>
       <c r="B55" s="148" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C55" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D55" s="134">
         <f>D2*0.9</f>
@@ -14186,7 +14186,7 @@
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B56" s="148"/>
       <c r="C56" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D56" s="134">
         <f t="shared" ref="D56:H56" si="1">D3*0.9</f>
@@ -14212,7 +14212,7 @@
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B57" s="148"/>
       <c r="C57" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D57" s="134">
         <f t="shared" ref="D57:H57" si="2">D4*0.9</f>
@@ -14237,10 +14237,10 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B58" s="148" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C58" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D58" s="134">
         <f t="shared" ref="D58:H58" si="3">D5*0.9</f>
@@ -14266,7 +14266,7 @@
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B59" s="148"/>
       <c r="C59" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D59" s="134">
         <f t="shared" ref="D59:H59" si="4">D6*0.9</f>
@@ -14292,7 +14292,7 @@
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B60" s="148"/>
       <c r="C60" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D60" s="134">
         <f t="shared" ref="D60:H60" si="5">D7*0.9</f>
@@ -14317,10 +14317,10 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B61" s="148" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C61" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D61" s="134">
         <f t="shared" ref="D61:H61" si="6">D8*0.9</f>
@@ -14346,7 +14346,7 @@
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B62" s="148"/>
       <c r="C62" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D62" s="134">
         <f t="shared" ref="D62:H62" si="7">D9*0.9</f>
@@ -14372,7 +14372,7 @@
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B63" s="148"/>
       <c r="C63" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D63" s="134">
         <f t="shared" ref="D63:H63" si="8">D10*0.9</f>
@@ -14397,10 +14397,10 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B64" s="148" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C64" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D64" s="134">
         <f t="shared" ref="D64:H64" si="9">D11*0.9</f>
@@ -14426,7 +14426,7 @@
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B65" s="148"/>
       <c r="C65" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D65" s="134">
         <f t="shared" ref="D65:H65" si="10">D12*0.9</f>
@@ -14452,7 +14452,7 @@
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B66" s="148"/>
       <c r="C66" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D66" s="134">
         <f t="shared" ref="D66:H66" si="11">D13*0.9</f>
@@ -14477,10 +14477,10 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B67" s="148" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C67" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D67" s="134">
         <f t="shared" ref="D67:H67" si="12">D14*0.9</f>
@@ -14506,7 +14506,7 @@
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B68" s="148"/>
       <c r="C68" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D68" s="134">
         <f t="shared" ref="D68:H68" si="13">D15*0.9</f>
@@ -14532,7 +14532,7 @@
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B69" s="148"/>
       <c r="C69" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D69" s="134">
         <f t="shared" ref="D69:H69" si="14">D16*0.9</f>
@@ -14557,10 +14557,10 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B70" s="138" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C70" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D70" s="134">
         <f t="shared" ref="D70:H70" si="15">D17*0.9</f>
@@ -14595,10 +14595,10 @@
         <v>237</v>
       </c>
       <c r="B72" s="148" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C72" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D72" s="134">
         <f>D19*0.9</f>
@@ -14624,7 +14624,7 @@
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B73" s="148"/>
       <c r="C73" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D73" s="134">
         <f t="shared" ref="D73:D87" si="17">D20*0.9</f>
@@ -14650,7 +14650,7 @@
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B74" s="148"/>
       <c r="C74" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D74" s="134">
         <f t="shared" si="17"/>
@@ -14675,10 +14675,10 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B75" s="148" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C75" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D75" s="134">
         <f t="shared" si="17"/>
@@ -14704,7 +14704,7 @@
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B76" s="148"/>
       <c r="C76" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D76" s="134">
         <f t="shared" si="17"/>
@@ -14730,7 +14730,7 @@
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B77" s="148"/>
       <c r="C77" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D77" s="134">
         <f t="shared" si="17"/>
@@ -14755,10 +14755,10 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B78" s="148" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C78" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D78" s="134">
         <f t="shared" si="17"/>
@@ -14784,7 +14784,7 @@
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B79" s="148"/>
       <c r="C79" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D79" s="134">
         <f t="shared" si="17"/>
@@ -14810,7 +14810,7 @@
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B80" s="148"/>
       <c r="C80" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D80" s="134">
         <f t="shared" si="17"/>
@@ -14835,10 +14835,10 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B81" s="148" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C81" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D81" s="134">
         <f t="shared" si="17"/>
@@ -14864,7 +14864,7 @@
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B82" s="148"/>
       <c r="C82" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D82" s="134">
         <f t="shared" si="17"/>
@@ -14890,7 +14890,7 @@
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B83" s="148"/>
       <c r="C83" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D83" s="134">
         <f t="shared" si="17"/>
@@ -14915,10 +14915,10 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B84" s="148" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C84" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D84" s="134">
         <f t="shared" si="17"/>
@@ -14944,7 +14944,7 @@
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B85" s="148"/>
       <c r="C85" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D85" s="134">
         <f t="shared" si="17"/>
@@ -14970,7 +14970,7 @@
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B86" s="148"/>
       <c r="C86" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D86" s="134">
         <f t="shared" si="17"/>
@@ -14995,10 +14995,10 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B87" s="138" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C87" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D87" s="134">
         <f t="shared" si="17"/>
@@ -15033,10 +15033,10 @@
         <v>238</v>
       </c>
       <c r="B89" s="148" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C89" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D89" s="134">
         <f>D36*0.9</f>
@@ -15062,7 +15062,7 @@
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B90" s="148"/>
       <c r="C90" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D90" s="134">
         <f t="shared" ref="D90:D104" si="34">D37*0.9</f>
@@ -15088,7 +15088,7 @@
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B91" s="148"/>
       <c r="C91" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D91" s="134">
         <f t="shared" si="34"/>
@@ -15113,10 +15113,10 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B92" s="148" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C92" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D92" s="134">
         <f t="shared" si="34"/>
@@ -15142,7 +15142,7 @@
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B93" s="148"/>
       <c r="C93" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D93" s="134">
         <f t="shared" si="34"/>
@@ -15168,7 +15168,7 @@
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B94" s="148"/>
       <c r="C94" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D94" s="134">
         <f t="shared" si="34"/>
@@ -15193,10 +15193,10 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B95" s="148" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C95" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D95" s="134">
         <f t="shared" si="34"/>
@@ -15222,7 +15222,7 @@
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B96" s="148"/>
       <c r="C96" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D96" s="134">
         <f t="shared" si="34"/>
@@ -15248,7 +15248,7 @@
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B97" s="148"/>
       <c r="C97" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D97" s="134">
         <f t="shared" si="34"/>
@@ -15273,10 +15273,10 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B98" s="148" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C98" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D98" s="134">
         <f t="shared" si="34"/>
@@ -15302,7 +15302,7 @@
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B99" s="148"/>
       <c r="C99" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D99" s="134">
         <f t="shared" si="34"/>
@@ -15328,7 +15328,7 @@
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B100" s="148"/>
       <c r="C100" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D100" s="134">
         <f t="shared" si="34"/>
@@ -15353,10 +15353,10 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B101" s="148" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C101" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D101" s="134">
         <f t="shared" si="34"/>
@@ -15382,7 +15382,7 @@
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B102" s="148"/>
       <c r="C102" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D102" s="134">
         <f t="shared" si="34"/>
@@ -15408,7 +15408,7 @@
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B103" s="148"/>
       <c r="C103" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D103" s="134">
         <f t="shared" si="34"/>
@@ -15433,10 +15433,10 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B104" s="98" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C104" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D104" s="134">
         <f t="shared" si="34"/>
@@ -15476,25 +15476,25 @@
         <v>231</v>
       </c>
       <c r="B107" s="40" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C107" s="40" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D107" s="40" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E107" s="40" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F107" s="40" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G107" s="40" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H107" s="94" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
@@ -15502,10 +15502,10 @@
         <v>240</v>
       </c>
       <c r="B108" s="148" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C108" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D108" s="134">
         <f>D2*1.05</f>
@@ -15531,7 +15531,7 @@
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B109" s="148"/>
       <c r="C109" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D109" s="134">
         <f t="shared" ref="D109:D112" si="51">D3*1.05</f>
@@ -15557,7 +15557,7 @@
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B110" s="148"/>
       <c r="C110" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D110" s="134">
         <f t="shared" si="51"/>
@@ -15582,10 +15582,10 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B111" s="148" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C111" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D111" s="134">
         <f t="shared" si="51"/>
@@ -15611,7 +15611,7 @@
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B112" s="148"/>
       <c r="C112" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D112" s="134">
         <f t="shared" si="51"/>
@@ -15637,7 +15637,7 @@
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B113" s="148"/>
       <c r="C113" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D113" s="134">
         <f t="shared" ref="D113:H113" si="56">D7*1.05</f>
@@ -15662,10 +15662,10 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B114" s="148" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C114" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D114" s="134">
         <f t="shared" ref="D114:H114" si="57">D8*1.05</f>
@@ -15691,7 +15691,7 @@
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B115" s="148"/>
       <c r="C115" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D115" s="134">
         <f t="shared" ref="D115:H115" si="58">D9*1.05</f>
@@ -15717,7 +15717,7 @@
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B116" s="148"/>
       <c r="C116" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D116" s="134">
         <f t="shared" ref="D116:H116" si="59">D10*1.05</f>
@@ -15742,10 +15742,10 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B117" s="148" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C117" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D117" s="134">
         <f t="shared" ref="D117:H117" si="60">D11*1.05</f>
@@ -15771,7 +15771,7 @@
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B118" s="148"/>
       <c r="C118" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D118" s="134">
         <f t="shared" ref="D118:H118" si="61">D12*1.05</f>
@@ -15797,7 +15797,7 @@
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B119" s="148"/>
       <c r="C119" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D119" s="134">
         <f t="shared" ref="D119:H119" si="62">D13*1.05</f>
@@ -15822,10 +15822,10 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B120" s="148" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C120" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D120" s="134">
         <f t="shared" ref="D120:H120" si="63">D14*1.05</f>
@@ -15851,7 +15851,7 @@
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B121" s="148"/>
       <c r="C121" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D121" s="134">
         <f t="shared" ref="D121:H121" si="64">D15*1.05</f>
@@ -15877,7 +15877,7 @@
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B122" s="148"/>
       <c r="C122" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D122" s="134">
         <f t="shared" ref="D122:H122" si="65">D16*1.05</f>
@@ -15902,10 +15902,10 @@
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B123" s="138" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C123" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D123" s="134">
         <f t="shared" ref="D123:H123" si="66">D17*1.05</f>
@@ -15940,10 +15940,10 @@
         <v>241</v>
       </c>
       <c r="B125" s="148" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C125" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D125" s="134">
         <f>D19*1.05</f>
@@ -15969,7 +15969,7 @@
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B126" s="148"/>
       <c r="C126" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D126" s="134">
         <f t="shared" ref="D126:H126" si="68">D20*1.05</f>
@@ -15995,7 +15995,7 @@
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B127" s="148"/>
       <c r="C127" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D127" s="134">
         <f t="shared" ref="D127:H127" si="69">D21*1.05</f>
@@ -16020,10 +16020,10 @@
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B128" s="148" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C128" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D128" s="134">
         <f t="shared" ref="D128:H128" si="70">D22*1.05</f>
@@ -16049,7 +16049,7 @@
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B129" s="148"/>
       <c r="C129" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D129" s="134">
         <f t="shared" ref="D129:H129" si="71">D23*1.05</f>
@@ -16075,7 +16075,7 @@
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B130" s="148"/>
       <c r="C130" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D130" s="134">
         <f t="shared" ref="D130:H130" si="72">D24*1.05</f>
@@ -16100,10 +16100,10 @@
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B131" s="148" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C131" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D131" s="134">
         <f t="shared" ref="D131:H131" si="73">D25*1.05</f>
@@ -16129,7 +16129,7 @@
     <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B132" s="148"/>
       <c r="C132" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D132" s="134">
         <f t="shared" ref="D132:H132" si="74">D26*1.05</f>
@@ -16155,7 +16155,7 @@
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B133" s="148"/>
       <c r="C133" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D133" s="134">
         <f t="shared" ref="D133:H133" si="75">D27*1.05</f>
@@ -16180,10 +16180,10 @@
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B134" s="148" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C134" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D134" s="134">
         <f t="shared" ref="D134:H134" si="76">D28*1.05</f>
@@ -16209,7 +16209,7 @@
     <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B135" s="148"/>
       <c r="C135" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D135" s="134">
         <f t="shared" ref="D135:H135" si="77">D29*1.05</f>
@@ -16235,7 +16235,7 @@
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B136" s="148"/>
       <c r="C136" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D136" s="134">
         <f t="shared" ref="D136:H136" si="78">D30*1.05</f>
@@ -16260,10 +16260,10 @@
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B137" s="148" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C137" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D137" s="134">
         <f t="shared" ref="D137:H137" si="79">D31*1.05</f>
@@ -16289,7 +16289,7 @@
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B138" s="148"/>
       <c r="C138" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D138" s="134">
         <f t="shared" ref="D138:H138" si="80">D32*1.05</f>
@@ -16315,7 +16315,7 @@
     <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B139" s="148"/>
       <c r="C139" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D139" s="134">
         <f t="shared" ref="D139:H139" si="81">D33*1.05</f>
@@ -16340,10 +16340,10 @@
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B140" s="138" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C140" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D140" s="134">
         <f t="shared" ref="D140:H140" si="82">D34*1.05</f>
@@ -16378,10 +16378,10 @@
         <v>242</v>
       </c>
       <c r="B142" s="148" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C142" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D142" s="134">
         <f>D36*1.05</f>
@@ -16407,7 +16407,7 @@
     <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B143" s="148"/>
       <c r="C143" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D143" s="134">
         <f t="shared" ref="D143:H143" si="84">D37*1.05</f>
@@ -16433,7 +16433,7 @@
     <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B144" s="148"/>
       <c r="C144" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D144" s="134">
         <f t="shared" ref="D144:H144" si="85">D38*1.05</f>
@@ -16458,10 +16458,10 @@
     </row>
     <row r="145" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B145" s="148" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C145" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D145" s="134">
         <f t="shared" ref="D145:H145" si="86">D39*1.05</f>
@@ -16487,7 +16487,7 @@
     <row r="146" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B146" s="148"/>
       <c r="C146" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D146" s="134">
         <f t="shared" ref="D146:H146" si="87">D40*1.05</f>
@@ -16513,7 +16513,7 @@
     <row r="147" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B147" s="148"/>
       <c r="C147" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D147" s="134">
         <f t="shared" ref="D147:H147" si="88">D41*1.05</f>
@@ -16538,10 +16538,10 @@
     </row>
     <row r="148" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B148" s="148" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C148" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D148" s="134">
         <f t="shared" ref="D148:H148" si="89">D42*1.05</f>
@@ -16567,7 +16567,7 @@
     <row r="149" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B149" s="148"/>
       <c r="C149" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D149" s="134">
         <f t="shared" ref="D149:H149" si="90">D43*1.05</f>
@@ -16593,7 +16593,7 @@
     <row r="150" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B150" s="148"/>
       <c r="C150" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D150" s="134">
         <f t="shared" ref="D150:H150" si="91">D44*1.05</f>
@@ -16618,10 +16618,10 @@
     </row>
     <row r="151" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B151" s="148" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C151" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D151" s="134">
         <f t="shared" ref="D151:H151" si="92">D45*1.05</f>
@@ -16647,7 +16647,7 @@
     <row r="152" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B152" s="148"/>
       <c r="C152" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D152" s="134">
         <f t="shared" ref="D152:H152" si="93">D46*1.05</f>
@@ -16673,7 +16673,7 @@
     <row r="153" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B153" s="148"/>
       <c r="C153" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D153" s="134">
         <f t="shared" ref="D153:H153" si="94">D47*1.05</f>
@@ -16698,10 +16698,10 @@
     </row>
     <row r="154" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B154" s="148" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C154" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D154" s="134">
         <f t="shared" ref="D154:H154" si="95">D48*1.05</f>
@@ -16727,7 +16727,7 @@
     <row r="155" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B155" s="148"/>
       <c r="C155" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D155" s="134">
         <f t="shared" ref="D155:H155" si="96">D49*1.05</f>
@@ -16753,7 +16753,7 @@
     <row r="156" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B156" s="148"/>
       <c r="C156" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D156" s="134">
         <f t="shared" ref="D156:H156" si="97">D50*1.05</f>
@@ -16778,10 +16778,10 @@
     </row>
     <row r="157" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B157" s="98" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C157" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D157" s="134">
         <f t="shared" ref="D157:H157" si="98">D51*1.05</f>
@@ -16805,7 +16805,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="VKlSVu8zV+U+fUnq+avBsqexNOjbX6FBcjHpjao4oPKrqa86XAhY+4+LXMqHiqNsJYeJobuUfUWeqta5mZWajw==" saltValue="BmLV4eWZsAjT7wrVazUqhw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="/VKbnjmnpvyhNGG8UMQ/gXX7+BA1CUSJE/y23F1bjxMTjC48YH5foR6BFBiMcu2Yt/4XKoQCchGKAcemupWl5Q==" saltValue="CCTbzcZUsFIgQFzlDBvg8w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="45">
     <mergeCell ref="B145:B147"/>
     <mergeCell ref="B148:B150"/>
@@ -16890,16 +16890,16 @@
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="101"/>
       <c r="C2" s="102" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D2" s="103" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E2" s="103" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F2" s="103" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -16914,7 +16914,7 @@
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="107" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C4" s="135">
         <v>1</v>
@@ -16931,7 +16931,7 @@
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="107" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C5" s="135">
         <v>1</v>
@@ -16948,7 +16948,7 @@
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="107" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C6" s="135">
         <v>1</v>
@@ -16965,7 +16965,7 @@
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="107" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C7" s="135">
         <v>1</v>
@@ -17051,7 +17051,7 @@
     </row>
     <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="113" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C14" s="135">
         <v>1</v>
@@ -17069,7 +17069,7 @@
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="113" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C15" s="135">
         <v>1</v>
@@ -17107,7 +17107,7 @@
     </row>
     <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="117" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C18" s="135">
         <v>1</v>
@@ -17125,7 +17125,7 @@
     </row>
     <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="117" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C19" s="135">
         <v>1</v>
@@ -17143,7 +17143,7 @@
     </row>
     <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="117" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C20" s="135">
         <v>1</v>
@@ -17161,7 +17161,7 @@
     </row>
     <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="117" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C21" s="135">
         <v>1</v>
@@ -17179,7 +17179,7 @@
     </row>
     <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="117" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C22" s="135">
         <v>1</v>
@@ -17196,7 +17196,7 @@
     </row>
     <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="117" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C23" s="135">
         <v>1</v>
@@ -17213,7 +17213,7 @@
     </row>
     <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="117" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C24" s="135">
         <v>1</v>
@@ -17230,7 +17230,7 @@
     </row>
     <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="117" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C25" s="135">
         <v>1</v>
@@ -17266,16 +17266,16 @@
     <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="101"/>
       <c r="C29" s="102" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D29" s="103" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E29" s="103" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F29" s="103" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17290,7 +17290,7 @@
     </row>
     <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="107" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C31" s="139">
         <f>C4*0.7</f>
@@ -17311,7 +17311,7 @@
     </row>
     <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="107" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C32" s="139">
         <f t="shared" ref="C32:F32" si="1">C5*0.7</f>
@@ -17332,7 +17332,7 @@
     </row>
     <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="107" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C33" s="139">
         <f t="shared" ref="C33:F33" si="2">C6*0.7</f>
@@ -17353,7 +17353,7 @@
     </row>
     <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="107" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C34" s="139">
         <f t="shared" ref="C34:F34" si="3">C7*0.7</f>
@@ -17501,7 +17501,7 @@
     </row>
     <row r="45" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="117" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C45" s="139">
         <f>C18*0.7</f>
@@ -17522,7 +17522,7 @@
     </row>
     <row r="46" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="117" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C46" s="139">
         <f t="shared" ref="C46:F46" si="9">C19*0.7</f>
@@ -17543,7 +17543,7 @@
     </row>
     <row r="47" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="117" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C47" s="139">
         <f t="shared" ref="C47:F47" si="10">C20*0.7</f>
@@ -17564,7 +17564,7 @@
     </row>
     <row r="48" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="117" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C48" s="139">
         <f t="shared" ref="C48:F48" si="11">C21*0.7</f>
@@ -17585,7 +17585,7 @@
     </row>
     <row r="49" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="117" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C49" s="139">
         <f t="shared" ref="C49:F49" si="12">C22*0.7</f>
@@ -17606,7 +17606,7 @@
     </row>
     <row r="50" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="117" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C50" s="139">
         <f t="shared" ref="C50:F50" si="13">C23*0.7</f>
@@ -17627,7 +17627,7 @@
     </row>
     <row r="51" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="117" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C51" s="139">
         <f t="shared" ref="C51:F51" si="14">C24*0.7</f>
@@ -17648,7 +17648,7 @@
     </row>
     <row r="52" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="117" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C52" s="139">
         <f t="shared" ref="C52:F52" si="15">C25*0.7</f>
@@ -17685,16 +17685,16 @@
     <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="101"/>
       <c r="C56" s="102" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D56" s="103" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E56" s="103" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F56" s="103" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17709,7 +17709,7 @@
     </row>
     <row r="58" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="107" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C58" s="139">
         <f>C4*1.3</f>
@@ -17730,7 +17730,7 @@
     </row>
     <row r="59" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="107" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C59" s="139">
         <f t="shared" ref="C59:F59" si="17">C5*1.3</f>
@@ -17751,7 +17751,7 @@
     </row>
     <row r="60" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="107" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C60" s="139">
         <f t="shared" ref="C60:F60" si="18">C6*1.3</f>
@@ -17772,7 +17772,7 @@
     </row>
     <row r="61" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="107" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C61" s="139">
         <f t="shared" ref="C61:F61" si="19">C7*1.3</f>
@@ -17920,7 +17920,7 @@
     </row>
     <row r="72" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B72" s="117" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C72" s="139">
         <f>C18*1.3</f>
@@ -17941,7 +17941,7 @@
     </row>
     <row r="73" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B73" s="117" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C73" s="139">
         <f t="shared" ref="C73:F73" si="25">C19*1.3</f>
@@ -17962,7 +17962,7 @@
     </row>
     <row r="74" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B74" s="117" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C74" s="139">
         <f t="shared" ref="C74:F74" si="26">C20*1.3</f>
@@ -17983,7 +17983,7 @@
     </row>
     <row r="75" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="117" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C75" s="139">
         <f t="shared" ref="C75:F75" si="27">C21*1.3</f>
@@ -18004,7 +18004,7 @@
     </row>
     <row r="76" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B76" s="117" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C76" s="139">
         <f t="shared" ref="C76:F76" si="28">C22*1.3</f>
@@ -18025,7 +18025,7 @@
     </row>
     <row r="77" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B77" s="117" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C77" s="139">
         <f t="shared" ref="C77:F77" si="29">C23*1.3</f>
@@ -18046,7 +18046,7 @@
     </row>
     <row r="78" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B78" s="117" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C78" s="139">
         <f t="shared" ref="C78:F78" si="30">C24*1.3</f>
@@ -18067,7 +18067,7 @@
     </row>
     <row r="79" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B79" s="117" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C79" s="139">
         <f t="shared" ref="C79:F79" si="31">C25*1.3</f>
@@ -18087,7 +18087,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="FlOHf0M6sGIxvw/Vs5AG/SZPxLWRktI7iSxHlI5F+HilLXw3wH83nX9GAlWqGWZRZ5HuYAD0VhOvOtAW1y/GiQ==" saltValue="W3Zqs8gamtnTM4yEmWdoYQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="1SchIY6oBiVn6WbWe7vnYmPCiNOj5zfZhUl82EPLZllI86govMApPgzrkWLRDRarhSH87J+xYbWOAnorx9zvlg==" saltValue="4y3ICwBDqr0tCEWZcYPU+Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -18134,19 +18134,19 @@
         <v>266</v>
       </c>
       <c r="D2" s="103" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E2" s="103" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F2" s="103" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G2" s="103" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H2" s="103" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="I2" s="120"/>
       <c r="J2" s="120"/>
@@ -18160,10 +18160,10 @@
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="40"/>
       <c r="B3" s="35" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C3" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D3" s="135">
         <v>1</v>
@@ -18275,10 +18275,10 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B7" s="35" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C7" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D7" s="135">
         <v>1</v>
@@ -18390,10 +18390,10 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B11" s="35" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C11" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D11" s="135">
         <v>1</v>
@@ -18505,10 +18505,10 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B15" s="35" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C15" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D15" s="135">
         <v>1</v>
@@ -18620,10 +18620,10 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B19" s="36" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C19" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D19" s="135">
         <v>1</v>
@@ -18735,10 +18735,10 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B23" s="36" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C23" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D23" s="135">
         <v>1</v>
@@ -18864,19 +18864,19 @@
         <v>270</v>
       </c>
       <c r="D29" s="103" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E29" s="103" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F29" s="103" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G29" s="103" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H29" s="103" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="I29" s="120"/>
       <c r="J29" s="120"/>
@@ -18890,10 +18890,10 @@
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="40"/>
       <c r="B30" s="35" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C30" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D30" s="135">
         <v>1</v>
@@ -19005,10 +19005,10 @@
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B34" s="35" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C34" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D34" s="135">
         <v>1</v>
@@ -19120,10 +19120,10 @@
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B38" s="35" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C38" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D38" s="135">
         <v>1</v>
@@ -19235,10 +19235,10 @@
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B42" s="35" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C42" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D42" s="135">
         <v>1</v>
@@ -19350,10 +19350,10 @@
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B46" s="35" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C46" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D46" s="135">
         <v>1</v>
@@ -19465,10 +19465,10 @@
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B50" s="35" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C50" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D50" s="135">
         <v>1</v>
@@ -19589,7 +19589,7 @@
     </row>
     <row r="56" spans="1:16" s="36" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A56" s="121" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B56" s="94" t="s">
         <v>265</v>
@@ -19598,16 +19598,16 @@
         <v>272</v>
       </c>
       <c r="D56" s="103" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E56" s="103" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F56" s="103" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G56" s="103" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="H56" s="120"/>
       <c r="M56" s="120"/>
@@ -19618,7 +19618,7 @@
     <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" s="40"/>
       <c r="B57" s="35" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C57" s="43" t="s">
         <v>273</v>
@@ -19665,7 +19665,7 @@
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B59" s="35" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C59" s="43" t="s">
         <v>273</v>
@@ -19712,7 +19712,7 @@
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B61" s="35" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C61" s="43" t="s">
         <v>273</v>
@@ -19768,7 +19768,7 @@
     </row>
     <row r="65" spans="1:16" s="36" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A65" s="121" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B65" s="94" t="s">
         <v>265</v>
@@ -19777,19 +19777,19 @@
         <v>276</v>
       </c>
       <c r="D65" s="103" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E65" s="103" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F65" s="103" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G65" s="103" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H65" s="124" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="I65" s="120"/>
       <c r="J65" s="120"/>
@@ -19803,10 +19803,10 @@
     <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66" s="125"/>
       <c r="B66" s="35" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C66" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D66" s="135">
         <v>1</v>
@@ -19834,7 +19834,7 @@
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C67" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D67" s="136">
         <v>1.35</v>
@@ -19862,7 +19862,7 @@
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C68" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D68" s="136">
         <v>1.35</v>
@@ -19890,7 +19890,7 @@
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C69" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D69" s="136">
         <v>5.4</v>
@@ -19918,10 +19918,10 @@
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B70" s="35" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C70" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D70" s="135">
         <v>1</v>
@@ -19949,7 +19949,7 @@
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C71" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D71" s="136">
         <v>1.35</v>
@@ -19977,7 +19977,7 @@
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C72" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D72" s="136">
         <v>1.35</v>
@@ -20005,7 +20005,7 @@
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C73" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D73" s="136">
         <v>5.4</v>
@@ -20033,10 +20033,10 @@
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B74" s="35" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C74" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D74" s="135">
         <v>1</v>
@@ -20064,7 +20064,7 @@
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C75" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D75" s="136">
         <v>1.35</v>
@@ -20092,7 +20092,7 @@
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C76" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D76" s="136">
         <v>1.35</v>
@@ -20120,7 +20120,7 @@
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C77" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D77" s="136">
         <v>5.4</v>
@@ -20148,10 +20148,10 @@
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B78" s="35" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C78" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D78" s="135">
         <v>1</v>
@@ -20179,7 +20179,7 @@
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C79" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D79" s="136">
         <v>1</v>
@@ -20207,7 +20207,7 @@
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C80" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D80" s="136">
         <v>1</v>
@@ -20235,7 +20235,7 @@
     </row>
     <row r="81" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C81" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D81" s="136">
         <v>1</v>
@@ -20263,10 +20263,10 @@
     </row>
     <row r="82" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B82" s="35" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C82" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D82" s="135">
         <v>1</v>
@@ -20294,7 +20294,7 @@
     </row>
     <row r="83" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C83" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D83" s="136">
         <v>1</v>
@@ -20322,7 +20322,7 @@
     </row>
     <row r="84" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C84" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D84" s="136">
         <v>1</v>
@@ -20350,7 +20350,7 @@
     </row>
     <row r="85" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C85" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D85" s="136">
         <v>1</v>
@@ -20378,10 +20378,10 @@
     </row>
     <row r="86" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B86" s="35" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C86" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D86" s="135">
         <v>1</v>
@@ -20409,7 +20409,7 @@
     </row>
     <row r="87" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C87" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D87" s="136">
         <v>1</v>
@@ -20437,7 +20437,7 @@
     </row>
     <row r="88" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C88" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D88" s="136">
         <v>1</v>
@@ -20465,7 +20465,7 @@
     </row>
     <row r="89" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C89" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D89" s="136">
         <v>1</v>
@@ -20493,10 +20493,10 @@
     </row>
     <row r="90" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B90" s="35" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C90" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D90" s="135">
         <v>1</v>
@@ -20524,7 +20524,7 @@
     </row>
     <row r="91" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C91" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D91" s="136">
         <v>1</v>
@@ -20552,7 +20552,7 @@
     </row>
     <row r="92" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C92" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D92" s="136">
         <v>1</v>
@@ -20580,7 +20580,7 @@
     </row>
     <row r="93" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C93" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D93" s="136">
         <v>1</v>
@@ -20608,10 +20608,10 @@
     </row>
     <row r="94" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B94" s="35" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C94" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D94" s="135">
         <v>1</v>
@@ -20639,7 +20639,7 @@
     </row>
     <row r="95" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C95" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D95" s="136">
         <v>1</v>
@@ -20667,7 +20667,7 @@
     </row>
     <row r="96" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C96" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D96" s="136">
         <v>1</v>
@@ -20695,7 +20695,7 @@
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C97" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D97" s="136">
         <v>1</v>
@@ -20723,10 +20723,10 @@
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B98" s="35" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C98" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D98" s="135">
         <v>1</v>
@@ -20754,7 +20754,7 @@
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C99" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D99" s="136">
         <v>1</v>
@@ -20782,7 +20782,7 @@
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C100" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D100" s="136">
         <v>1</v>
@@ -20810,7 +20810,7 @@
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C101" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D101" s="136">
         <v>1</v>
@@ -20843,28 +20843,28 @@
     </row>
     <row r="104" spans="1:16" s="36" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A104" s="121" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B104" s="126" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C104" s="123" t="s">
         <v>276</v>
       </c>
       <c r="D104" s="103" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E104" s="103" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F104" s="103" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G104" s="103" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H104" s="124" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="I104" s="120"/>
       <c r="J104" s="120"/>
@@ -20879,7 +20879,7 @@
       <c r="A105" s="40"/>
       <c r="B105" s="36"/>
       <c r="C105" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D105" s="135">
         <v>1</v>
@@ -20907,7 +20907,7 @@
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C106" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D106" s="136">
         <v>1.26</v>
@@ -20935,7 +20935,7 @@
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C107" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D107" s="136">
         <v>1.68</v>
@@ -20963,7 +20963,7 @@
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C108" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D108" s="136">
         <v>2.65</v>
@@ -21018,28 +21018,28 @@
         <v>266</v>
       </c>
       <c r="D112" s="103" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E112" s="103" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F112" s="103" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G112" s="103" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H112" s="103" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" s="40"/>
       <c r="B113" s="35" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C113" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D113" s="139">
         <f>D3*0.8</f>
@@ -21139,10 +21139,10 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B117" s="35" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C117" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D117" s="139">
         <f t="shared" ref="D117:H117" si="4">D7*0.8</f>
@@ -21242,10 +21242,10 @@
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B121" s="35" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C121" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D121" s="139">
         <f t="shared" ref="D121:H121" si="8">D11*0.8</f>
@@ -21345,10 +21345,10 @@
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B125" s="35" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C125" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D125" s="139">
         <f t="shared" ref="D125:H125" si="12">D15*0.8</f>
@@ -21448,10 +21448,10 @@
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B129" s="36" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C129" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D129" s="139">
         <f t="shared" ref="D129:H129" si="16">D19*0.8</f>
@@ -21551,10 +21551,10 @@
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B133" s="36" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C133" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D133" s="139">
         <f t="shared" ref="D133:H133" si="20">D23*0.8</f>
@@ -21675,28 +21675,28 @@
         <v>270</v>
       </c>
       <c r="D139" s="103" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E139" s="103" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F139" s="103" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G139" s="103" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H139" s="103" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140" s="40"/>
       <c r="B140" s="35" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C140" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D140" s="139">
         <f>D30*0.7</f>
@@ -21796,10 +21796,10 @@
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B144" s="35" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C144" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D144" s="139">
         <f t="shared" ref="D144:H144" si="28">D34*0.7</f>
@@ -21899,10 +21899,10 @@
     </row>
     <row r="148" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B148" s="35" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C148" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D148" s="139">
         <f t="shared" ref="D148:H148" si="32">D38*0.7</f>
@@ -22002,10 +22002,10 @@
     </row>
     <row r="152" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B152" s="35" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C152" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D152" s="139">
         <f t="shared" ref="D152:H152" si="36">D42*0.7</f>
@@ -22105,10 +22105,10 @@
     </row>
     <row r="156" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B156" s="35" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C156" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D156" s="139">
         <f t="shared" ref="D156:H156" si="40">D46*0.7</f>
@@ -22208,10 +22208,10 @@
     </row>
     <row r="160" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B160" s="35" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C160" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D160" s="139">
         <f t="shared" ref="D160:H160" si="44">D50*0.7</f>
@@ -22327,7 +22327,7 @@
     </row>
     <row r="166" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A166" s="121" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B166" s="94" t="s">
         <v>265</v>
@@ -22336,23 +22336,23 @@
         <v>272</v>
       </c>
       <c r="D166" s="103" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E166" s="103" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F166" s="103" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G166" s="103" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="H166" s="120"/>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A167" s="40"/>
       <c r="B167" s="35" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C167" s="43" t="s">
         <v>273</v>
@@ -22399,7 +22399,7 @@
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B169" s="35" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C169" s="43" t="s">
         <v>273</v>
@@ -22446,7 +22446,7 @@
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B171" s="35" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C171" s="43" t="s">
         <v>273</v>
@@ -22509,7 +22509,7 @@
     </row>
     <row r="175" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A175" s="121" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B175" s="94" t="s">
         <v>265</v>
@@ -22518,28 +22518,28 @@
         <v>276</v>
       </c>
       <c r="D175" s="103" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E175" s="103" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F175" s="103" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G175" s="103" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H175" s="124" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A176" s="125"/>
       <c r="B176" s="35" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C176" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D176" s="139">
         <f>D66*0.7</f>
@@ -22563,7 +22563,7 @@
     </row>
     <row r="177" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C177" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D177" s="139">
         <f t="shared" ref="D177:G177" si="55">D67*0.7</f>
@@ -22587,7 +22587,7 @@
     </row>
     <row r="178" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C178" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D178" s="139">
         <f t="shared" ref="D178:G178" si="56">D68*0.7</f>
@@ -22611,7 +22611,7 @@
     </row>
     <row r="179" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C179" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D179" s="139">
         <f t="shared" ref="D179:G179" si="57">D69*0.7</f>
@@ -22635,10 +22635,10 @@
     </row>
     <row r="180" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B180" s="35" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C180" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D180" s="139">
         <f t="shared" ref="D180:G180" si="58">D70*0.7</f>
@@ -22662,7 +22662,7 @@
     </row>
     <row r="181" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C181" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D181" s="139">
         <f t="shared" ref="D181:G181" si="59">D71*0.7</f>
@@ -22686,7 +22686,7 @@
     </row>
     <row r="182" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C182" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D182" s="139">
         <f t="shared" ref="D182:G182" si="60">D72*0.7</f>
@@ -22710,7 +22710,7 @@
     </row>
     <row r="183" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C183" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D183" s="139">
         <f t="shared" ref="D183:G183" si="61">D73*0.7</f>
@@ -22734,10 +22734,10 @@
     </row>
     <row r="184" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B184" s="35" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C184" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D184" s="139">
         <f t="shared" ref="D184:G184" si="62">D74*0.7</f>
@@ -22761,7 +22761,7 @@
     </row>
     <row r="185" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C185" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D185" s="139">
         <f t="shared" ref="D185:G185" si="63">D75*0.7</f>
@@ -22785,7 +22785,7 @@
     </row>
     <row r="186" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C186" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D186" s="139">
         <f t="shared" ref="D186:G186" si="64">D76*0.7</f>
@@ -22809,7 +22809,7 @@
     </row>
     <row r="187" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C187" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D187" s="139">
         <f t="shared" ref="D187:G187" si="65">D77*0.7</f>
@@ -22833,10 +22833,10 @@
     </row>
     <row r="188" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B188" s="35" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C188" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D188" s="139">
         <f t="shared" ref="D188:G188" si="66">D78*0.7</f>
@@ -22860,7 +22860,7 @@
     </row>
     <row r="189" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C189" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D189" s="139">
         <f t="shared" ref="D189:G189" si="67">D79*0.7</f>
@@ -22884,7 +22884,7 @@
     </row>
     <row r="190" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C190" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D190" s="139">
         <f t="shared" ref="D190:G190" si="68">D80*0.7</f>
@@ -22908,7 +22908,7 @@
     </row>
     <row r="191" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C191" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D191" s="139">
         <f t="shared" ref="D191:G191" si="69">D81*0.7</f>
@@ -22932,10 +22932,10 @@
     </row>
     <row r="192" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B192" s="35" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C192" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D192" s="139">
         <f t="shared" ref="D192:G192" si="70">D82*0.7</f>
@@ -22959,7 +22959,7 @@
     </row>
     <row r="193" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C193" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D193" s="139">
         <f t="shared" ref="D193:G193" si="71">D83*0.7</f>
@@ -22983,7 +22983,7 @@
     </row>
     <row r="194" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C194" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D194" s="139">
         <f t="shared" ref="D194:G194" si="72">D84*0.7</f>
@@ -23007,7 +23007,7 @@
     </row>
     <row r="195" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C195" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D195" s="139">
         <f t="shared" ref="D195:G195" si="73">D85*0.7</f>
@@ -23031,10 +23031,10 @@
     </row>
     <row r="196" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B196" s="35" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C196" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D196" s="139">
         <f t="shared" ref="D196:G196" si="74">D86*0.7</f>
@@ -23058,7 +23058,7 @@
     </row>
     <row r="197" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C197" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D197" s="139">
         <f t="shared" ref="D197:G197" si="75">D87*0.7</f>
@@ -23082,7 +23082,7 @@
     </row>
     <row r="198" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C198" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D198" s="139">
         <f t="shared" ref="D198:G198" si="76">D88*0.7</f>
@@ -23106,7 +23106,7 @@
     </row>
     <row r="199" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C199" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D199" s="139">
         <f t="shared" ref="D199:G199" si="77">D89*0.7</f>
@@ -23130,10 +23130,10 @@
     </row>
     <row r="200" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B200" s="35" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C200" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D200" s="139">
         <f t="shared" ref="D200:G200" si="78">D90*0.7</f>
@@ -23157,7 +23157,7 @@
     </row>
     <row r="201" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C201" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D201" s="139">
         <f t="shared" ref="D201:G201" si="79">D91*0.7</f>
@@ -23181,7 +23181,7 @@
     </row>
     <row r="202" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C202" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D202" s="139">
         <f t="shared" ref="D202:G202" si="80">D92*0.7</f>
@@ -23205,7 +23205,7 @@
     </row>
     <row r="203" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C203" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D203" s="139">
         <f t="shared" ref="D203:G203" si="81">D93*0.7</f>
@@ -23229,10 +23229,10 @@
     </row>
     <row r="204" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B204" s="35" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C204" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D204" s="139">
         <f t="shared" ref="D204:G204" si="82">D94*0.7</f>
@@ -23256,7 +23256,7 @@
     </row>
     <row r="205" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C205" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D205" s="139">
         <f t="shared" ref="D205:G205" si="83">D95*0.7</f>
@@ -23280,7 +23280,7 @@
     </row>
     <row r="206" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C206" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D206" s="139">
         <f t="shared" ref="D206:G206" si="84">D96*0.7</f>
@@ -23304,7 +23304,7 @@
     </row>
     <row r="207" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C207" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D207" s="139">
         <f t="shared" ref="D207:G207" si="85">D97*0.7</f>
@@ -23328,10 +23328,10 @@
     </row>
     <row r="208" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B208" s="35" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C208" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D208" s="139">
         <f t="shared" ref="D208:G208" si="86">D98*0.7</f>
@@ -23355,7 +23355,7 @@
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C209" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D209" s="139">
         <f t="shared" ref="D209:G209" si="87">D99*0.7</f>
@@ -23379,7 +23379,7 @@
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C210" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D210" s="139">
         <f t="shared" ref="D210:G210" si="88">D100*0.7</f>
@@ -23403,7 +23403,7 @@
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C211" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D211" s="139">
         <f t="shared" ref="D211:G211" si="89">D101*0.7</f>
@@ -23439,35 +23439,35 @@
     </row>
     <row r="214" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A214" s="121" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B214" s="126" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C214" s="123" t="s">
         <v>276</v>
       </c>
       <c r="D214" s="103" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E214" s="103" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F214" s="103" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G214" s="103" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H214" s="124" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A215" s="40"/>
       <c r="B215" s="36"/>
       <c r="C215" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D215" s="139">
         <f>D105*0.7</f>
@@ -23491,7 +23491,7 @@
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C216" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D216" s="139">
         <f t="shared" ref="D216:G216" si="91">D106*0.7</f>
@@ -23515,7 +23515,7 @@
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C217" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D217" s="139">
         <f t="shared" ref="D217:G217" si="92">D107*0.7</f>
@@ -23539,7 +23539,7 @@
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C218" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D218" s="139">
         <f t="shared" ref="D218:G218" si="93">D108*0.7</f>
@@ -23591,29 +23591,29 @@
         <v>266</v>
       </c>
       <c r="D222" s="103" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E222" s="103" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F222" s="103" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G222" s="103" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H222" s="103" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="I222" s="120"/>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A223" s="40"/>
       <c r="B223" s="35" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C223" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D223" s="139">
         <f>D3*1.2</f>
@@ -23717,10 +23717,10 @@
     </row>
     <row r="227" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B227" s="35" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C227" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D227" s="139">
         <f t="shared" ref="D227:H227" si="98">D7*1.2</f>
@@ -23824,10 +23824,10 @@
     </row>
     <row r="231" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B231" s="35" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C231" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D231" s="139">
         <f t="shared" ref="D231:H231" si="102">D11*1.2</f>
@@ -23931,10 +23931,10 @@
     </row>
     <row r="235" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B235" s="35" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C235" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D235" s="139">
         <f t="shared" ref="D235:H235" si="106">D15*1.2</f>
@@ -24038,10 +24038,10 @@
     </row>
     <row r="239" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B239" s="36" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C239" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D239" s="139">
         <f t="shared" ref="D239:H239" si="110">D19*1.2</f>
@@ -24145,10 +24145,10 @@
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B243" s="36" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C243" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D243" s="139">
         <f t="shared" ref="D243:H243" si="114">D23*1.2</f>
@@ -24274,29 +24274,29 @@
         <v>270</v>
       </c>
       <c r="D249" s="103" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E249" s="103" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F249" s="103" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G249" s="103" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H249" s="103" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="I249" s="120"/>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A250" s="40"/>
       <c r="B250" s="35" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C250" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D250" s="139">
         <f>D30*1.2</f>
@@ -24400,10 +24400,10 @@
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B254" s="35" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C254" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D254" s="139">
         <f t="shared" ref="D254:H254" si="122">D34*1.2</f>
@@ -24507,10 +24507,10 @@
     </row>
     <row r="258" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B258" s="35" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C258" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D258" s="139">
         <f t="shared" ref="D258:H258" si="126">D38*1.2</f>
@@ -24614,10 +24614,10 @@
     </row>
     <row r="262" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B262" s="35" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C262" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D262" s="139">
         <f t="shared" ref="D262:H262" si="130">D42*1.2</f>
@@ -24721,10 +24721,10 @@
     </row>
     <row r="266" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B266" s="35" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C266" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D266" s="139">
         <f t="shared" ref="D266:H266" si="134">D46*1.2</f>
@@ -24828,10 +24828,10 @@
     </row>
     <row r="270" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B270" s="35" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C270" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D270" s="139">
         <f t="shared" ref="D270:H270" si="138">D50*1.2</f>
@@ -24952,7 +24952,7 @@
     </row>
     <row r="276" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A276" s="121" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B276" s="94" t="s">
         <v>265</v>
@@ -24961,16 +24961,16 @@
         <v>272</v>
       </c>
       <c r="D276" s="103" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E276" s="103" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F276" s="103" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G276" s="103" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="H276" s="120"/>
       <c r="I276" s="36"/>
@@ -24978,7 +24978,7 @@
     <row r="277" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A277" s="40"/>
       <c r="B277" s="35" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C277" s="43" t="s">
         <v>273</v>
@@ -25025,7 +25025,7 @@
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B279" s="35" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C279" s="43" t="s">
         <v>273</v>
@@ -25072,7 +25072,7 @@
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B281" s="35" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C281" s="43" t="s">
         <v>273</v>
@@ -25136,7 +25136,7 @@
     </row>
     <row r="285" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A285" s="121" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B285" s="94" t="s">
         <v>265</v>
@@ -25145,29 +25145,29 @@
         <v>276</v>
       </c>
       <c r="D285" s="103" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E285" s="103" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F285" s="103" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G285" s="103" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H285" s="124" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="I285" s="120"/>
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A286" s="125"/>
       <c r="B286" s="35" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C286" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D286" s="139">
         <f>D66*1.2</f>
@@ -25192,7 +25192,7 @@
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C287" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D287" s="139">
         <f t="shared" ref="D287:G287" si="149">D67*1.2</f>
@@ -25217,7 +25217,7 @@
     </row>
     <row r="288" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C288" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D288" s="139">
         <f t="shared" ref="D288:G288" si="150">D68*1.2</f>
@@ -25242,7 +25242,7 @@
     </row>
     <row r="289" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C289" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D289" s="139">
         <f t="shared" ref="D289:G289" si="151">D69*1.2</f>
@@ -25267,10 +25267,10 @@
     </row>
     <row r="290" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B290" s="35" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C290" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D290" s="139">
         <f t="shared" ref="D290:G290" si="152">D70*1.2</f>
@@ -25295,7 +25295,7 @@
     </row>
     <row r="291" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C291" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D291" s="139">
         <f t="shared" ref="D291:G291" si="153">D71*1.2</f>
@@ -25320,7 +25320,7 @@
     </row>
     <row r="292" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C292" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D292" s="139">
         <f t="shared" ref="D292:G292" si="154">D72*1.2</f>
@@ -25345,7 +25345,7 @@
     </row>
     <row r="293" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C293" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D293" s="139">
         <f t="shared" ref="D293:G293" si="155">D73*1.2</f>
@@ -25370,10 +25370,10 @@
     </row>
     <row r="294" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B294" s="35" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C294" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D294" s="139">
         <f t="shared" ref="D294:G294" si="156">D74*1.2</f>
@@ -25398,7 +25398,7 @@
     </row>
     <row r="295" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C295" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D295" s="139">
         <f t="shared" ref="D295:G295" si="157">D75*1.2</f>
@@ -25423,7 +25423,7 @@
     </row>
     <row r="296" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C296" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D296" s="139">
         <f t="shared" ref="D296:G296" si="158">D76*1.2</f>
@@ -25448,7 +25448,7 @@
     </row>
     <row r="297" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C297" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D297" s="139">
         <f t="shared" ref="D297:G297" si="159">D77*1.2</f>
@@ -25473,10 +25473,10 @@
     </row>
     <row r="298" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B298" s="35" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C298" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D298" s="139">
         <f t="shared" ref="D298:G298" si="160">D78*1.2</f>
@@ -25501,7 +25501,7 @@
     </row>
     <row r="299" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C299" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D299" s="139">
         <f t="shared" ref="D299:G299" si="161">D79*1.2</f>
@@ -25526,7 +25526,7 @@
     </row>
     <row r="300" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C300" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D300" s="139">
         <f t="shared" ref="D300:G300" si="162">D80*1.2</f>
@@ -25551,7 +25551,7 @@
     </row>
     <row r="301" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C301" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D301" s="139">
         <f t="shared" ref="D301:G301" si="163">D81*1.2</f>
@@ -25576,10 +25576,10 @@
     </row>
     <row r="302" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B302" s="35" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C302" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D302" s="139">
         <f t="shared" ref="D302:G302" si="164">D82*1.2</f>
@@ -25604,7 +25604,7 @@
     </row>
     <row r="303" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C303" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D303" s="139">
         <f t="shared" ref="D303:G303" si="165">D83*1.2</f>
@@ -25629,7 +25629,7 @@
     </row>
     <row r="304" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C304" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D304" s="139">
         <f t="shared" ref="D304:G304" si="166">D84*1.2</f>
@@ -25654,7 +25654,7 @@
     </row>
     <row r="305" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C305" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D305" s="139">
         <f t="shared" ref="D305:G305" si="167">D85*1.2</f>
@@ -25679,10 +25679,10 @@
     </row>
     <row r="306" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B306" s="35" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C306" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D306" s="139">
         <f t="shared" ref="D306:G306" si="168">D86*1.2</f>
@@ -25707,7 +25707,7 @@
     </row>
     <row r="307" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C307" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D307" s="139">
         <f t="shared" ref="D307:G307" si="169">D87*1.2</f>
@@ -25732,7 +25732,7 @@
     </row>
     <row r="308" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C308" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D308" s="139">
         <f t="shared" ref="D308:G308" si="170">D88*1.2</f>
@@ -25757,7 +25757,7 @@
     </row>
     <row r="309" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C309" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D309" s="139">
         <f t="shared" ref="D309:G309" si="171">D89*1.2</f>
@@ -25782,10 +25782,10 @@
     </row>
     <row r="310" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B310" s="35" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C310" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D310" s="139">
         <f t="shared" ref="D310:G310" si="172">D90*1.2</f>
@@ -25810,7 +25810,7 @@
     </row>
     <row r="311" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C311" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D311" s="139">
         <f t="shared" ref="D311:G311" si="173">D91*1.2</f>
@@ -25835,7 +25835,7 @@
     </row>
     <row r="312" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C312" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D312" s="139">
         <f t="shared" ref="D312:G312" si="174">D92*1.2</f>
@@ -25860,7 +25860,7 @@
     </row>
     <row r="313" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C313" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D313" s="139">
         <f t="shared" ref="D313:G313" si="175">D93*1.2</f>
@@ -25885,10 +25885,10 @@
     </row>
     <row r="314" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B314" s="35" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C314" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D314" s="139">
         <f t="shared" ref="D314:G314" si="176">D94*1.2</f>
@@ -25913,7 +25913,7 @@
     </row>
     <row r="315" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C315" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D315" s="139">
         <f t="shared" ref="D315:G315" si="177">D95*1.2</f>
@@ -25938,7 +25938,7 @@
     </row>
     <row r="316" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C316" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D316" s="139">
         <f t="shared" ref="D316:G316" si="178">D96*1.2</f>
@@ -25963,7 +25963,7 @@
     </row>
     <row r="317" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C317" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D317" s="139">
         <f t="shared" ref="D317:G317" si="179">D97*1.2</f>
@@ -25988,10 +25988,10 @@
     </row>
     <row r="318" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B318" s="35" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C318" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D318" s="139">
         <f t="shared" ref="D318:G318" si="180">D98*1.2</f>
@@ -26016,7 +26016,7 @@
     </row>
     <row r="319" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C319" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D319" s="139">
         <f t="shared" ref="D319:G319" si="181">D99*1.2</f>
@@ -26041,7 +26041,7 @@
     </row>
     <row r="320" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C320" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D320" s="139">
         <f t="shared" ref="D320:G320" si="182">D100*1.2</f>
@@ -26066,7 +26066,7 @@
     </row>
     <row r="321" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C321" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D321" s="139">
         <f t="shared" ref="D321:G321" si="183">D101*1.2</f>
@@ -26104,28 +26104,28 @@
     </row>
     <row r="324" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A324" s="121" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B324" s="126" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C324" s="123" t="s">
         <v>276</v>
       </c>
       <c r="D324" s="103" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E324" s="103" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F324" s="103" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G324" s="103" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H324" s="124" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="I324" s="120"/>
     </row>
@@ -26133,7 +26133,7 @@
       <c r="A325" s="40"/>
       <c r="B325" s="36"/>
       <c r="C325" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D325" s="139">
         <f>D105*1.2</f>
@@ -26158,7 +26158,7 @@
     </row>
     <row r="326" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C326" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D326" s="139">
         <f t="shared" ref="D326:G326" si="185">D106*1.2</f>
@@ -26183,7 +26183,7 @@
     </row>
     <row r="327" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C327" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D327" s="139">
         <f t="shared" ref="D327:G327" si="186">D107*1.2</f>
@@ -26208,7 +26208,7 @@
     </row>
     <row r="328" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C328" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D328" s="139">
         <f t="shared" ref="D328:G328" si="187">D108*1.2</f>
@@ -26232,7 +26232,7 @@
       <c r="I328" s="118"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="aKsYIv8yRWK4egQ57c1PjxPhMBu0jvnZql/3qLEp+0ByP1Fm1RF3ymJ4DWzxCQDKNWSuu0nG5YTT4TO+jwG4jw==" saltValue="X7avJhJnhrIy80DCukM3fA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="+rsrkfO6+bv5+Ru3u7N/RkLFiICHQnxM6zoeWJUEqC6CVvuTXa3JfxwhpzzKv4Qnu/Ci+UHWLpso63mO3/KfdQ==" saltValue="bkTKEsdSYfy/y25odaQ1+w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -26275,19 +26275,19 @@
       </c>
       <c r="B2" s="119"/>
       <c r="C2" s="40" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D2" s="40" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E2" s="40" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F2" s="40" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G2" s="40" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -26295,7 +26295,7 @@
         <v>280</v>
       </c>
       <c r="C3" s="136" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D3" s="136">
         <v>45</v>
@@ -26505,7 +26505,7 @@
     </row>
     <row r="17" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="125" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B17" s="113" t="s">
         <v>285</v>
@@ -26534,21 +26534,21 @@
     </row>
     <row r="20" spans="1:7" s="104" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C20" s="56" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D20" s="56" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E20" s="56" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F20" s="56" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B21" s="113" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C21" s="136">
         <v>1.52</v>
@@ -26585,19 +26585,19 @@
       </c>
       <c r="B25" s="119"/>
       <c r="C25" s="40" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D25" s="40" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E25" s="40" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F25" s="40" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G25" s="40" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -26605,7 +26605,7 @@
         <v>289</v>
       </c>
       <c r="C26" s="136" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D26" s="136">
         <f t="shared" ref="D26:G27" si="0">D3*0.9</f>
@@ -26868,7 +26868,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="125" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B40" s="113" t="s">
         <v>299</v>
@@ -26909,16 +26909,16 @@
       <c r="A43" s="104"/>
       <c r="B43" s="104"/>
       <c r="C43" s="56" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D43" s="56" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E43" s="56" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F43" s="56" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G43" s="104"/>
     </row>
@@ -26965,19 +26965,19 @@
       </c>
       <c r="B48" s="119"/>
       <c r="C48" s="40" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D48" s="40" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E48" s="40" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F48" s="40" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G48" s="40" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
@@ -26985,7 +26985,7 @@
         <v>302</v>
       </c>
       <c r="C49" s="136" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D49" s="136">
         <f t="shared" ref="D49:G50" si="9">D3*1.05</f>
@@ -27248,7 +27248,7 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="125" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B63" s="113" t="s">
         <v>312</v>
@@ -27289,16 +27289,16 @@
       <c r="A66" s="104"/>
       <c r="B66" s="104"/>
       <c r="C66" s="56" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D66" s="56" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E66" s="56" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F66" s="56" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G66" s="104"/>
     </row>
@@ -27324,7 +27324,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="CIkLZdcx94hyQaxqb+yBbSfTERuF9J6PTuDJyiX3F7GxHtF/7h/asj0spribCcgbeSa6B8kmHciX7cy0WzvvHg==" saltValue="8BWp/Dp34D+o2PIUtdnb3w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="G4oKHGcqwyD1Szqqlf7lX2BqzxP70vSpRokU3XKmM9L8XQxGLLWEIUP/QhNAkN6loptbsEXWmdxoBxjpTUlPEQ==" saltValue="NyDZngX1OsYEkPdhecS84A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -27356,25 +27356,25 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="119" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B1" s="40"/>
       <c r="C1" s="40" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E1" s="40" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F1" s="119" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="90" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B2" s="90" t="s">
         <v>317</v>
@@ -27412,7 +27412,7 @@
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="90" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B4" s="90" t="s">
         <v>317</v>
@@ -27450,7 +27450,7 @@
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="90" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B6" s="90" t="s">
         <v>317</v>
@@ -27488,7 +27488,7 @@
     </row>
     <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="90" t="s">
-        <v>2</v>
+        <v>182</v>
       </c>
       <c r="B8" s="90" t="s">
         <v>317</v>
@@ -27607,25 +27607,25 @@
     </row>
     <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="119" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B16" s="40"/>
       <c r="C16" s="40" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D16" s="40" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E16" s="40" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F16" s="119" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="90" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B17" s="90" t="s">
         <v>317</v>
@@ -27671,7 +27671,7 @@
     </row>
     <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="90" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B19" s="90" t="s">
         <v>317</v>
@@ -27717,7 +27717,7 @@
     </row>
     <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="90" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B21" s="90" t="s">
         <v>317</v>
@@ -27763,7 +27763,7 @@
     </row>
     <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="90" t="s">
-        <v>2</v>
+        <v>182</v>
       </c>
       <c r="B23" s="90" t="s">
         <v>317</v>
@@ -27906,25 +27906,25 @@
     </row>
     <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="119" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B31" s="40"/>
       <c r="C31" s="40" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D31" s="40" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E31" s="40" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F31" s="119" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="90" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B32" s="90" t="s">
         <v>317</v>
@@ -27970,7 +27970,7 @@
     </row>
     <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="90" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B34" s="90" t="s">
         <v>317</v>
@@ -28016,7 +28016,7 @@
     </row>
     <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="90" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B36" s="90" t="s">
         <v>317</v>
@@ -28062,7 +28062,7 @@
     </row>
     <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="90" t="s">
-        <v>2</v>
+        <v>182</v>
       </c>
       <c r="B38" s="90" t="s">
         <v>317</v>
@@ -28199,7 +28199,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="X70fFnuhhuHlZ6NJR5rCP7bR4kKbDUfTZ9aWXY5QfD42Z/IjmV9+93kjijV+01ol/4CY/9V1uXqA2f4/VduAnA==" saltValue="CSxl6XNS6FgSnNl/Z+HuNg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="+wmWrg1vn+AhGPPjhSrowH4IGoODwmb0nswAqPFXzFCY/AQ4FmWaqkQytulaDQSrYitLDPLhZ5NrvCktdiHJgg==" saltValue="l2/0icZ9o9rbOPD8wE/pAQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -28231,43 +28231,43 @@
       <c r="A1" s="40"/>
       <c r="B1" s="40"/>
       <c r="C1" s="103" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D1" s="103" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E1" s="103" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F1" s="103" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G1" s="103" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="H1" s="103" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="I1" s="103" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="J1" s="103" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="K1" s="103" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="L1" s="103" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="M1" s="103" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="N1" s="103" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="O1" s="103" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
@@ -28277,7 +28277,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B3" s="59" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C3" s="136">
         <v>0.53</v>
@@ -28321,7 +28321,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B4" s="59" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C4" s="136">
         <v>1</v>
@@ -28365,7 +28365,7 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B5" s="59" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C5" s="136">
         <v>1</v>
@@ -28409,7 +28409,7 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="59" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C6" s="136">
         <v>1</v>
@@ -28453,7 +28453,7 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B7" s="59" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C7" s="136">
         <v>1</v>
@@ -28497,7 +28497,7 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B8" s="90" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C8" s="136">
         <v>1</v>
@@ -28541,7 +28541,7 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B9" s="90" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C9" s="136">
         <v>1</v>
@@ -28585,7 +28585,7 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B10" s="59" t="s">
-        <v>2</v>
+        <v>182</v>
       </c>
       <c r="C10" s="136">
         <v>1</v>
@@ -28855,7 +28855,7 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B18" s="90" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C18" s="136">
         <v>1</v>
@@ -28899,7 +28899,7 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B19" s="90" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C19" s="136">
         <v>1</v>
@@ -28943,7 +28943,7 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B20" s="90" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C20" s="136">
         <v>1</v>
@@ -29038,43 +29038,43 @@
       <c r="A24" s="40"/>
       <c r="B24" s="40"/>
       <c r="C24" s="103" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D24" s="103" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E24" s="103" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F24" s="103" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G24" s="103" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="H24" s="103" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="I24" s="103" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="J24" s="103" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="K24" s="103" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="L24" s="103" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="M24" s="103" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="N24" s="103" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="O24" s="103" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
@@ -29084,7 +29084,7 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B26" s="59" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C26" s="136">
         <f>C3*0.9</f>
@@ -29141,7 +29141,7 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B27" s="59" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C27" s="136">
         <f t="shared" ref="C27:O27" si="1">C4*0.9</f>
@@ -29198,7 +29198,7 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B28" s="59" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C28" s="136">
         <f t="shared" ref="C28:O28" si="2">C5*0.9</f>
@@ -29255,7 +29255,7 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B29" s="59" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C29" s="136">
         <f t="shared" ref="C29:O29" si="3">C6*0.9</f>
@@ -29312,7 +29312,7 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B30" s="59" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C30" s="136">
         <f t="shared" ref="C30:O30" si="4">C7*0.9</f>
@@ -29369,7 +29369,7 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B31" s="90" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C31" s="136">
         <f t="shared" ref="C31:O31" si="5">C8*0.9</f>
@@ -29426,7 +29426,7 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B32" s="90" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C32" s="136">
         <f t="shared" ref="C32:O32" si="6">C9*0.9</f>
@@ -29483,7 +29483,7 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B33" s="59" t="s">
-        <v>2</v>
+        <v>182</v>
       </c>
       <c r="C33" s="136">
         <f t="shared" ref="C33:O33" si="7">C10*0.9</f>
@@ -29831,7 +29831,7 @@
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B41" s="90" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C41" s="136">
         <f>C18*0.9</f>
@@ -29888,7 +29888,7 @@
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B42" s="90" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C42" s="136">
         <f t="shared" ref="C42:O42" si="13">C19*0.9</f>
@@ -29945,7 +29945,7 @@
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B43" s="90" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C43" s="136">
         <f t="shared" ref="C43:O43" si="14">C20*0.9</f>
@@ -30066,43 +30066,43 @@
       <c r="A47" s="40"/>
       <c r="B47" s="40"/>
       <c r="C47" s="103" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D47" s="103" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E47" s="103" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F47" s="103" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G47" s="103" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="H47" s="103" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="I47" s="103" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="J47" s="103" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="K47" s="103" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="L47" s="103" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="M47" s="103" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="N47" s="103" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="O47" s="103" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.2">
@@ -30112,7 +30112,7 @@
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B49" s="59" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C49" s="136">
         <f>C3*1.05</f>
@@ -30169,7 +30169,7 @@
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B50" s="59" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C50" s="136">
         <f t="shared" ref="C50:O50" si="17">C4*1.05</f>
@@ -30226,7 +30226,7 @@
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B51" s="59" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C51" s="136">
         <f t="shared" ref="C51:O51" si="18">C5*1.05</f>
@@ -30283,7 +30283,7 @@
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B52" s="59" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C52" s="136">
         <f t="shared" ref="C52:O52" si="19">C6*1.05</f>
@@ -30340,7 +30340,7 @@
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B53" s="59" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C53" s="136">
         <f t="shared" ref="C53:O53" si="20">C7*1.05</f>
@@ -30397,7 +30397,7 @@
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B54" s="90" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C54" s="136">
         <f t="shared" ref="C54:O54" si="21">C8*1.05</f>
@@ -30454,7 +30454,7 @@
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B55" s="90" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C55" s="136">
         <f t="shared" ref="C55:O55" si="22">C9*1.05</f>
@@ -30511,7 +30511,7 @@
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B56" s="59" t="s">
-        <v>2</v>
+        <v>182</v>
       </c>
       <c r="C56" s="136">
         <f t="shared" ref="C56:O56" si="23">C10*1.05</f>
@@ -30859,7 +30859,7 @@
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B64" s="90" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C64" s="136">
         <f>C18*1.05</f>
@@ -30916,7 +30916,7 @@
     </row>
     <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B65" s="90" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C65" s="136">
         <f t="shared" ref="C65:O65" si="29">C19*1.05</f>
@@ -30973,7 +30973,7 @@
     </row>
     <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B66" s="90" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C66" s="136">
         <f t="shared" ref="C66:O66" si="30">C20*1.05</f>
@@ -31086,7 +31086,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="n4hjjDCdj9zFqPSy4NCUyaZ5xyBjRGghNnvxes2i/RCTZGRJ9CW1Aoj3A/NEywxZmc3MR997AAHhrJmrNzMq4g==" saltValue="3pvgyAzPvUkGg/maKS3Z6g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="lQ4/2POK7nB1PQ/IgE9CDBWnUzDCHgsdo0g/KFI05JqbCDim9p/BlVwT9ORqwYRabArw6P1F6eqoe56JBkXrjA==" saltValue="QyvZMNsl2BDoRZs8y+ubTw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -31118,19 +31118,19 @@
       <c r="A1" s="40"/>
       <c r="B1" s="119"/>
       <c r="C1" s="40" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E1" s="40" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F1" s="40" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G1" s="40" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -31140,7 +31140,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3" s="59" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C3" s="136">
         <v>1</v>
@@ -31171,7 +31171,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5" s="90" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C5" s="136">
         <v>1</v>
@@ -31198,19 +31198,19 @@
       <c r="A8" s="40"/>
       <c r="B8" s="119"/>
       <c r="C8" s="40" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D8" s="40" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E8" s="40" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F8" s="40" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G8" s="40" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -31220,7 +31220,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B10" s="59" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C10" s="136">
         <f>C3*0.9</f>
@@ -31256,7 +31256,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B12" s="90" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C12" s="136">
         <f>C5*0.9</f>
@@ -31288,19 +31288,19 @@
       <c r="A15" s="40"/>
       <c r="B15" s="119"/>
       <c r="C15" s="40" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D15" s="40" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E15" s="40" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F15" s="40" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G15" s="40" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -31310,7 +31310,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B17" s="59" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C17" s="136">
         <f>C3*1.05</f>
@@ -31346,7 +31346,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B19" s="90" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C19" s="136">
         <f>C5*1.05</f>
@@ -31370,7 +31370,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="FEv4CR1JQzCm9GSLSV8gDy+u2jTkCXgPwyz9AiMq5mCfhtY+/37jb1CJ5kXc7N9N+GOAZGuikEJitDaDiOD4TA==" saltValue="G8/koPp/LmFPUwIBqizejg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="dMSb0SAnYBeL9EWfpKuIpt6P5Sd7UMmWheCE//d7cLMlwoIG9cTLOWHqOo22yQOLyBPQ8S+PJkqZ786rySKF4w==" saltValue="hOf6HWjvJvA87TRwXh66jg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <ignoredErrors>
@@ -31405,28 +31405,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B1" s="40" t="s">
         <v>333</v>
       </c>
       <c r="C1" s="125" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E1" s="40" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F1" s="40" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G1" s="40" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H1" s="40" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -31434,7 +31434,7 @@
         <v>193</v>
       </c>
       <c r="B2" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C2" s="52" t="s">
         <v>334</v>
@@ -31764,7 +31764,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="52" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B17" s="52" t="s">
         <v>209</v>
@@ -31856,10 +31856,10 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="52" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B21" s="52" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C21" s="52" t="s">
         <v>334</v>
@@ -31904,10 +31904,10 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="52" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B23" s="52" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C23" s="52" t="s">
         <v>334</v>
@@ -31950,10 +31950,10 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="52" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B25" s="52" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C25" s="52" t="s">
         <v>334</v>
@@ -31999,7 +31999,7 @@
         <v>197</v>
       </c>
       <c r="B27" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C27" s="52" t="s">
         <v>334</v>
@@ -32065,7 +32065,7 @@
         <v>198</v>
       </c>
       <c r="B30" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C30" s="52" t="s">
         <v>334</v>
@@ -32131,7 +32131,7 @@
         <v>196</v>
       </c>
       <c r="B33" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C33" s="52" t="s">
         <v>334</v>
@@ -32197,7 +32197,7 @@
         <v>195</v>
       </c>
       <c r="B36" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C36" s="52" t="s">
         <v>334</v>
@@ -32263,7 +32263,7 @@
         <v>194</v>
       </c>
       <c r="B39" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C39" s="52" t="s">
         <v>334</v>
@@ -32329,7 +32329,7 @@
         <v>200</v>
       </c>
       <c r="B42" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C42" s="52" t="s">
         <v>334</v>
@@ -32392,7 +32392,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B45" s="52" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C45" s="52" t="s">
         <v>334</v>
@@ -32458,7 +32458,7 @@
         <v>191</v>
       </c>
       <c r="B48" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C48" s="52" t="s">
         <v>334</v>
@@ -32504,7 +32504,7 @@
         <v>199</v>
       </c>
       <c r="B50" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C50" s="52" t="s">
         <v>334</v>
@@ -32550,7 +32550,7 @@
         <v>184</v>
       </c>
       <c r="B52" s="52" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C52" s="52" t="s">
         <v>334</v>
@@ -32600,28 +32600,28 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="40" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B56" s="40" t="s">
         <v>333</v>
       </c>
       <c r="C56" s="125" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D56" s="40" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E56" s="40" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F56" s="40" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G56" s="40" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H56" s="40" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
@@ -32629,7 +32629,7 @@
         <v>193</v>
       </c>
       <c r="B57" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C57" s="52" t="s">
         <v>334</v>
@@ -33034,7 +33034,7 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="52" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B72" s="52" t="s">
         <v>209</v>
@@ -33143,10 +33143,10 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="52" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B76" s="52" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C76" s="52" t="s">
         <v>334</v>
@@ -33199,10 +33199,10 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="52" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B78" s="52" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C78" s="52" t="s">
         <v>334</v>
@@ -33255,10 +33255,10 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="52" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B80" s="52" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C80" s="52" t="s">
         <v>334</v>
@@ -33314,7 +33314,7 @@
         <v>197</v>
       </c>
       <c r="B82" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C82" s="52" t="s">
         <v>334</v>
@@ -33395,7 +33395,7 @@
         <v>198</v>
       </c>
       <c r="B85" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C85" s="52" t="s">
         <v>334</v>
@@ -33476,7 +33476,7 @@
         <v>196</v>
       </c>
       <c r="B88" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C88" s="52" t="s">
         <v>334</v>
@@ -33557,7 +33557,7 @@
         <v>195</v>
       </c>
       <c r="B91" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C91" s="52" t="s">
         <v>334</v>
@@ -33638,7 +33638,7 @@
         <v>194</v>
       </c>
       <c r="B94" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C94" s="52" t="s">
         <v>334</v>
@@ -33719,7 +33719,7 @@
         <v>200</v>
       </c>
       <c r="B97" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C97" s="52" t="s">
         <v>334</v>
@@ -33797,7 +33797,7 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B100" s="52" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C100" s="52" t="s">
         <v>334</v>
@@ -33878,7 +33878,7 @@
         <v>191</v>
       </c>
       <c r="B103" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C103" s="52" t="s">
         <v>334</v>
@@ -33934,7 +33934,7 @@
         <v>199</v>
       </c>
       <c r="B105" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C105" s="52" t="s">
         <v>334</v>
@@ -33990,7 +33990,7 @@
         <v>184</v>
       </c>
       <c r="B107" s="52" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C107" s="52" t="s">
         <v>334</v>
@@ -34050,28 +34050,28 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" s="40" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B111" s="40" t="s">
         <v>333</v>
       </c>
       <c r="C111" s="125" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D111" s="40" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E111" s="40" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F111" s="40" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G111" s="40" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H111" s="40" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
@@ -34079,7 +34079,7 @@
         <v>193</v>
       </c>
       <c r="B112" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C112" s="52" t="s">
         <v>334</v>
@@ -34484,7 +34484,7 @@
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" s="52" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B127" s="52" t="s">
         <v>209</v>
@@ -34593,10 +34593,10 @@
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131" s="52" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B131" s="52" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C131" s="52" t="s">
         <v>334</v>
@@ -34649,10 +34649,10 @@
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133" s="52" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B133" s="52" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C133" s="52" t="s">
         <v>334</v>
@@ -34705,10 +34705,10 @@
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135" s="52" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B135" s="52" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C135" s="52" t="s">
         <v>334</v>
@@ -34764,7 +34764,7 @@
         <v>197</v>
       </c>
       <c r="B137" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C137" s="52" t="s">
         <v>334</v>
@@ -34845,7 +34845,7 @@
         <v>198</v>
       </c>
       <c r="B140" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C140" s="52" t="s">
         <v>334</v>
@@ -34926,7 +34926,7 @@
         <v>196</v>
       </c>
       <c r="B143" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C143" s="52" t="s">
         <v>334</v>
@@ -35007,7 +35007,7 @@
         <v>195</v>
       </c>
       <c r="B146" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C146" s="52" t="s">
         <v>334</v>
@@ -35088,7 +35088,7 @@
         <v>194</v>
       </c>
       <c r="B149" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C149" s="52" t="s">
         <v>334</v>
@@ -35169,7 +35169,7 @@
         <v>200</v>
       </c>
       <c r="B152" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C152" s="52" t="s">
         <v>334</v>
@@ -35247,7 +35247,7 @@
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B155" s="52" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C155" s="52" t="s">
         <v>334</v>
@@ -35328,7 +35328,7 @@
         <v>191</v>
       </c>
       <c r="B158" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C158" s="52" t="s">
         <v>334</v>
@@ -35384,7 +35384,7 @@
         <v>199</v>
       </c>
       <c r="B160" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C160" s="52" t="s">
         <v>334</v>
@@ -35440,7 +35440,7 @@
         <v>184</v>
       </c>
       <c r="B162" s="52" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C162" s="52" t="s">
         <v>334</v>
@@ -35492,7 +35492,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="6uOBciyuQCG1m6l4CvoTq8uGpN4fHT46YnNbTT6bVqRALLj/zenWEXFwrtBoUNPQiGAM2hRMLPfV0jQVIPIMbw==" saltValue="G+QB9lSj2fEwL3gkwHJ/AQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="h76sb6AZXCBz8dNJFUxBRKWCfhYSli4GCHPehN22vn0MU0ANgXQuEu3cnc5sG6yZOMt46rTAlmUaAcEIKu+p3w==" saltValue="WbJNqSmNRicGAMTJ8fnenw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -35523,32 +35523,32 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="119" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B1" s="119" t="s">
         <v>333</v>
       </c>
       <c r="C1" s="119"/>
       <c r="D1" s="40" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E1" s="40" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F1" s="40" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G1" s="40" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="H1" s="94"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="43" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C2" s="43" t="s">
         <v>334</v>
@@ -35590,7 +35590,7 @@
         <v>188</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C4" s="43" t="s">
         <v>334</v>
@@ -35633,7 +35633,7 @@
         <v>187</v>
       </c>
       <c r="B6" s="35" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C6" s="43" t="s">
         <v>334</v>
@@ -35678,31 +35678,31 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="119" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B10" s="119" t="s">
         <v>333</v>
       </c>
       <c r="C10" s="119"/>
       <c r="D10" s="40" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E10" s="40" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F10" s="40" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G10" s="40" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="43" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B11" s="35" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C11" s="43" t="s">
         <v>334</v>
@@ -35750,7 +35750,7 @@
         <v>188</v>
       </c>
       <c r="B13" s="35" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C13" s="43" t="s">
         <v>334</v>
@@ -35799,7 +35799,7 @@
         <v>187</v>
       </c>
       <c r="B15" s="35" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C15" s="43" t="s">
         <v>334</v>
@@ -35850,31 +35850,31 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="119" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B19" s="119" t="s">
         <v>333</v>
       </c>
       <c r="C19" s="119"/>
       <c r="D19" s="40" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E19" s="40" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F19" s="40" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G19" s="40" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="43" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B20" s="35" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C20" s="43" t="s">
         <v>334</v>
@@ -35922,7 +35922,7 @@
         <v>188</v>
       </c>
       <c r="B22" s="35" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C22" s="43" t="s">
         <v>334</v>
@@ -35971,7 +35971,7 @@
         <v>187</v>
       </c>
       <c r="B24" s="35" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C24" s="43" t="s">
         <v>334</v>
@@ -36016,7 +36016,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="4scF5kBGSvqvD1GlElM1IAX33tqyY3fXgHwHzuSg7Lg09s6z4afkqpn25nrrvMy5NE/W7dMqxzIIg148V48gpg==" saltValue="JoxdNotodhZvq6EjYFSJ1Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="4RuwuDAAybeRolh6lm6NZNDqkz49Yl5ztb4XnB84q/j8GCGhiezFZKd19ZDTLBy8cErB4nqI3QIyangTR9KcLg==" saltValue="2kBNSBf5ypz5bW6pX+q+Fw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="D11:G16 D20:G25" unlockedFormula="1"/>
@@ -36055,13 +36055,13 @@
     </row>
     <row r="2" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B2" s="41" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C2" s="41" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D2" s="41"/>
       <c r="E2" s="41"/>
@@ -36070,7 +36070,7 @@
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="24" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C3" s="75">
         <v>2.7000000000000001E-3</v>
@@ -36078,7 +36078,7 @@
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="24" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C4" s="75">
         <v>0.1966</v>
@@ -36086,7 +36086,7 @@
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="24" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C5" s="75">
         <v>6.2100000000000002E-2</v>
@@ -36094,7 +36094,7 @@
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="24" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C6" s="75">
         <v>0.29289999999999999</v>
@@ -36102,7 +36102,7 @@
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="24" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C7" s="75">
         <v>0.24709999999999999</v>
@@ -36110,7 +36110,7 @@
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="24" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C8" s="75">
         <v>4.7999999999999996E-3</v>
@@ -36118,7 +36118,7 @@
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="24" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C9" s="75">
         <v>0.13200000000000001</v>
@@ -36126,7 +36126,7 @@
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="24" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C10" s="75">
         <v>6.1800000000000001E-2</v>
@@ -36134,7 +36134,7 @@
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="32" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C11" s="70">
         <f>SUM(C3:C10)</f>
@@ -36154,28 +36154,28 @@
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B13" s="41" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F13" s="23" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="G13" s="24"/>
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="24" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C14" s="75">
         <v>0.1368</v>
@@ -36192,7 +36192,7 @@
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="24" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C15" s="75">
         <v>0.20660000000000001</v>
@@ -36209,7 +36209,7 @@
     </row>
     <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="24" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C16" s="75">
         <v>2.1100000000000001E-2</v>
@@ -36226,7 +36226,7 @@
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="24" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C17" s="75">
         <v>7.4999999999999997E-3</v>
@@ -36243,7 +36243,7 @@
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="24" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C18" s="75">
         <v>8.6199999999999999E-2</v>
@@ -36260,7 +36260,7 @@
     </row>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="24" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C19" s="75">
         <v>2.86E-2</v>
@@ -36277,7 +36277,7 @@
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="24" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C20" s="75">
         <v>1.5299999999999999E-2</v>
@@ -36294,7 +36294,7 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="24" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C21" s="75">
         <v>0.13589999999999999</v>
@@ -36311,7 +36311,7 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="24" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C22" s="75">
         <v>0.36199999999999999</v>
@@ -36328,7 +36328,7 @@
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="32" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C23" s="70">
         <f>SUM(C14:C22)</f>
@@ -36360,13 +36360,13 @@
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B25" s="41" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C25" s="41" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D25" s="24"/>
       <c r="E25" s="24"/>
@@ -36376,7 +36376,7 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="24" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C26" s="75">
         <v>0.10082724000000001</v>
@@ -36384,7 +36384,7 @@
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="24" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C27" s="75">
         <v>3.1206000000000002E-4</v>
@@ -36392,7 +36392,7 @@
     </row>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="24" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C28" s="75">
         <v>0.15891214000000001</v>
@@ -36400,7 +36400,7 @@
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="24" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C29" s="75">
         <v>0.12598688999999999</v>
@@ -36416,7 +36416,7 @@
     </row>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="24" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C31" s="75">
         <v>3.9028409999999999E-2</v>
@@ -36424,7 +36424,7 @@
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="24" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C32" s="75">
         <v>8.5254999999999999E-4</v>
@@ -36432,7 +36432,7 @@
     </row>
     <row r="33" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="24" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C33" s="75">
         <v>6.8467810000000004E-2</v>
@@ -36440,7 +36440,7 @@
     </row>
     <row r="34" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="24" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C34" s="75">
         <v>0.38127283000000001</v>
@@ -36448,7 +36448,7 @@
     </row>
     <row r="35" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="32" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C35" s="70">
         <f>SUM(C26:C34)</f>
@@ -36456,7 +36456,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="5JzHxjdUFvcNrCJtd7DjZZL1UVDK0p4isKgqLvoYvLF0eLycJpDsHy6/CLMbOgItNYtPMlooOyyym7vrD2njjw==" saltValue="DNmm4KnrgsIg5hti1R9Nhg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="PwA8ezK2Xf+j4T8BfiV82o4d+4WhgZlt71cvujFzf2GmdkYQC3AX1jBc9cXBke294dEaIB8g7KYUIPkpwIsYGg==" saltValue="uoA5VS/rMbROVVycK5643w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="69" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -36486,30 +36486,30 @@
         <v>Pourcentage de la population dans chaque catégorie pendant l'année de référence (2017)</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C2" s="76">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C4:C5), 0, 1) + 1, 0, 1, TRUE), "")</f>
@@ -36535,7 +36535,7 @@
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
       <c r="B3" s="11" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C3" s="76">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C4:C5), 0, 1) + 1, 0, 1, TRUE) - SUM(C4:C5), "")</f>
@@ -36561,7 +36561,7 @@
     <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="11" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C4" s="77">
         <v>8.7000000000000008E-2</v>
@@ -36582,7 +36582,7 @@
     <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="11" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C5" s="77">
         <v>4.5999999999999999E-2</v>
@@ -36618,10 +36618,10 @@
     </row>
     <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C8" s="76">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C10:C11), 0, 1) + 1, 0, 1, TRUE), "")</f>
@@ -36646,7 +36646,7 @@
     </row>
     <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C9" s="76">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C10:C11), 0, 1) + 1, 0, 1, TRUE) - SUM(C10:C11), "")</f>
@@ -36671,7 +36671,7 @@
     </row>
     <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C10" s="77">
         <v>5.3999999999999999E-2</v>
@@ -36691,7 +36691,7 @@
     </row>
     <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C11" s="77">
         <v>0.04</v>
@@ -36725,51 +36725,51 @@
     </row>
     <row r="13" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="H13" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="I13" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="J13" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="K13" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="C13" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="G13" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="H13" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="I13" s="23" t="s">
-        <v>127</v>
-      </c>
-      <c r="J13" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="K13" s="23" t="s">
-        <v>129</v>
-      </c>
       <c r="L13" s="23" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="M13" s="23" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="N13" s="23" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="O13" s="23" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="16" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C14" s="78">
         <v>0.1</v>
@@ -36813,7 +36813,7 @@
     </row>
     <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="16" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C15" s="76">
         <f t="shared" ref="C15:O15" si="0">iron_deficiency_anaemia*C14</f>
@@ -36883,7 +36883,7 @@
       <c r="G17" s="8"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="em/ZVLoVIu0rZf5a+JKchy26k/DIEYQrxKK8ATHqhfZhOMRi1NM++0+IR7ni3qLo6/uMzkU7lK3ZaiSSunytuw==" saltValue="mcRGFNKd9WuusjUNr7bogg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="7GI84Rc0u+QzVBKi3/RpjUOP9GsAP34GkAJoooAnY7/DPdt7myHoDkNlJlAePl7ksE5ICI7rNn8r3sgqRpuZEg==" saltValue="SA9Jec/k/EJL0FTN/i7avg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
@@ -36913,30 +36913,30 @@
         <v>Pourcentage des enfants dans chaque catégorie pendant l'année de référence (2017)</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B2" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C2" s="77">
         <v>0.84</v>
@@ -36956,7 +36956,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C3" s="77">
         <v>9.1999999999999998E-2</v>
@@ -36976,7 +36976,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B4" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C4" s="77">
         <v>5.8000000000000003E-2</v>
@@ -36996,7 +36996,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C5" s="76">
         <f>1-SUM(C2:C4)</f>
@@ -37020,7 +37020,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="3n1zW8sPrY9RmNesXx8rzAU4+CjLdhJ3IzQQdo15EI6u1Av/Nk2VlXL3S9URYG+YKPolDJWERLARzU8pj6efVw==" saltValue="VwrwjmWl3AO0qsFpL8zmeg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="/728EeNmjPpDdcUTK6b1OFZ2g26E3W9XmPj4XxzjSgCWbAely56rUfugJ2VRnFLujmQGJoICvms4mSS9AWgTGg==" saltValue="3XD1IVw4OqfCYvm1b0hN/A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -37045,10 +37045,10 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C1">
         <v>2010</v>
@@ -37080,10 +37080,10 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C2" s="28"/>
       <c r="D2" s="28"/>
@@ -37100,10 +37100,10 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C4" s="28"/>
       <c r="D4" s="28"/>
@@ -37120,10 +37120,10 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C6" s="28"/>
       <c r="D6" s="28"/>
@@ -37137,7 +37137,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B7" s="14" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C7" s="28"/>
       <c r="D7" s="28"/>
@@ -37151,7 +37151,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B8" s="14" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C8" s="28"/>
       <c r="D8" s="28"/>
@@ -37165,10 +37165,10 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C10" s="28"/>
       <c r="D10" s="28"/>
@@ -37182,7 +37182,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B11" s="34" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C11" s="28"/>
       <c r="D11" s="28"/>
@@ -37196,10 +37196,10 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C13" s="28"/>
       <c r="D13" s="28"/>
@@ -37213,7 +37213,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B14" s="16" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C14" s="28"/>
       <c r="D14" s="28"/>
@@ -37226,7 +37226,7 @@
       <c r="K14" s="28"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="jp2UW6A53+i/QCmkjQPqqNi6os3bt3YjjGlziyGTENgfkFQnuETKS0xlD1Yp7GHVFdlxBNuBkaLFHvj2UsCkjQ==" saltValue="TWURs3OeivLO7RMVDtuBAw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="NoaXWj/u9CrMmi+CanwpZ6RjAzrp+p4gEn+w0+fhkP9DnI6VgwgaO+ykKORSAkRNLyFCTfqZExqG+EZvJLw4iw==" saltValue="UTrD8zx6qv2msR17bEGYig==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="193" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -37249,15 +37249,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B2" s="147">
         <v>10</v>
@@ -37265,7 +37265,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B3" s="147">
         <v>10</v>
@@ -37273,7 +37273,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B4" s="147">
         <v>50</v>
@@ -37281,7 +37281,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="146" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B5" s="147">
         <v>100</v>
@@ -37289,7 +37289,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="146" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B6" s="147">
         <v>5</v>
@@ -37297,14 +37297,14 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="146" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B7" s="147">
         <v>5</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="sSU/Bd8Rs5FVGqYaPUcC1cJxg89Psdw4FK7dO3xYQnytcEWxahXmx5/yhXioj+PP0NuWdK3uanPo/pHfOekJ2Q==" saltValue="XW9C2/bOh3lU6bafkcBozg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="gHK9OSPJapNLiRFNoyhR2EiHE7T7pOhJeOmv4TDIgMimS1pL+BtQzACWE7P2xcILdvzX2Dq/skd9mFbgr+keOw==" saltValue="+Fw4dg6eZy/EHo4h4S4YmA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -37330,27 +37330,27 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="50" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1" s="51" t="s">
+        <v>152</v>
+      </c>
+      <c r="C1" s="51" t="s">
+        <v>153</v>
+      </c>
+      <c r="D1" s="51" t="s">
+        <v>154</v>
+      </c>
+      <c r="E1" s="51" t="s">
         <v>155</v>
-      </c>
-      <c r="B1" s="51" t="s">
-        <v>156</v>
-      </c>
-      <c r="C1" s="51" t="s">
-        <v>157</v>
-      </c>
-      <c r="D1" s="51" t="s">
-        <v>158</v>
-      </c>
-      <c r="E1" s="51" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="49" t="s">
-        <v>7</v>
+        <v>157</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C2" s="80"/>
       <c r="D2" s="80"/>
@@ -37362,7 +37362,7 @@
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="47"/>
       <c r="B3" s="46" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C3" s="80" t="b">
         <v>1</v>
@@ -37376,7 +37376,7 @@
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="47"/>
       <c r="B4" s="46" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C4" s="80" t="b">
         <v>1</v>
@@ -37390,7 +37390,7 @@
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="47"/>
       <c r="B5" s="46" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C5" s="80" t="b">
         <v>1</v>
@@ -37404,7 +37404,7 @@
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="47"/>
       <c r="B6" s="46" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C6" s="80" t="b">
         <v>1</v>
@@ -37418,7 +37418,7 @@
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="47"/>
       <c r="B7" s="46" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C7" s="45"/>
       <c r="D7" s="44"/>
@@ -37426,10 +37426,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="49" t="s">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="B9" s="46" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C9" s="80"/>
       <c r="D9" s="80" t="b">
@@ -37443,7 +37443,7 @@
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="47"/>
       <c r="B10" s="46" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C10" s="80"/>
       <c r="D10" s="80"/>
@@ -37455,7 +37455,7 @@
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="47"/>
       <c r="B11" s="46" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C11" s="80"/>
       <c r="D11" s="80"/>
@@ -37467,7 +37467,7 @@
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="47"/>
       <c r="B12" s="46" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C12" s="80"/>
       <c r="D12" s="80"/>
@@ -37479,7 +37479,7 @@
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="47"/>
       <c r="B13" s="46" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C13" s="80"/>
       <c r="D13" s="80"/>
@@ -37491,24 +37491,24 @@
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="47"/>
       <c r="B14" s="46" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C14" s="45"/>
       <c r="D14" s="44"/>
       <c r="E14" s="80" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="49" t="s">
-        <v>11</v>
+        <v>159</v>
       </c>
       <c r="B16" s="46" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C16" s="80"/>
       <c r="D16" s="80" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E16" s="57" t="str">
         <f>IF(E$7="","",E$7)</f>
@@ -37518,11 +37518,11 @@
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="47"/>
       <c r="B17" s="46" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C17" s="80"/>
       <c r="D17" s="80" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E17" s="57" t="str">
         <f>IF(E$7="","",E$7)</f>
@@ -37532,11 +37532,11 @@
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="47"/>
       <c r="B18" s="46" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C18" s="80"/>
       <c r="D18" s="80" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E18" s="57" t="str">
         <f>IF(E$7="","",E$7)</f>
@@ -37546,11 +37546,11 @@
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="47"/>
       <c r="B19" s="46" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C19" s="80"/>
       <c r="D19" s="80" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E19" s="57" t="str">
         <f>IF(E$7="","",E$7)</f>
@@ -37560,11 +37560,11 @@
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="47"/>
       <c r="B20" s="46" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C20" s="80"/>
       <c r="D20" s="80" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E20" s="57" t="str">
         <f>IF(E$7="","",E$7)</f>
@@ -37574,14 +37574,14 @@
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="47"/>
       <c r="B21" s="46" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C21" s="45"/>
       <c r="D21" s="44"/>
       <c r="E21" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="CE0SURvE8phhRoB5AIq0MseWXaz8KKQq+iUmIbtS43d2S2DL+GAAnn2zkIRKw9seqprCD3Xs01UMgigmCyVKSQ==" saltValue="ZWb48ph9sNAigC4TabCZAQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="hNkMzmYnKeloN56ubV0zZSQDCeyNfB8XzwN1skpXbxVxiMAlWbnhwvXxXtw0TWNs1kAcesqpSihrHS/mnykr6w==" saltValue="QGfex9dapBy1Ahr3NsfVtg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -37608,44 +37608,44 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="51" t="s">
+        <v>162</v>
+      </c>
+      <c r="C1" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="D1" s="61" t="s">
         <v>163</v>
-      </c>
-      <c r="C1" s="61" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="61" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="61" t="s">
+        <v>160</v>
+      </c>
+      <c r="B2" s="46" t="s">
         <v>161</v>
       </c>
-      <c r="B2" s="46" t="s">
-        <v>162</v>
-      </c>
       <c r="C2" s="46" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D2" s="80"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="61" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B3" s="46" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C3" s="46" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D3" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="LHx7YwjJrZnsWDkH49t93uuc9cTNCxZIc/lhLcgVtSjOWfeJyHgH8E9fouNwNA/zuUbv+JqQc7Yn9/0Knm9GwA==" saltValue="aDpbwAf+NN50UICvbljiBA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="XIOwVbqkqTCnPegCJrhsbuHjtuU+4tzeDhTLp3+0fcFTz+zFvzIQM4sNCuhR0MDIr552pV2CD7F9M2Bqgc2+rQ==" saltValue="qGuBnyW06Pvp3G5FxqacFg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/inputs/fr/demo_demo_input.xlsx
+++ b/inputs/fr/demo_demo_input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\romesh\projects\nutrition\inputs\fr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9519FD9-16D1-44B4-9FD4-5168881C2E64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FBD67C15-19EF-4DC5-938F-0A9EAE9340B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1515" yWindow="1515" windowWidth="28800" windowHeight="15435" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1110" yWindow="8970" windowWidth="28800" windowHeight="15435" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Donnees pop de l'annee de ref" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="Perte économique" sheetId="74" r:id="rId7"/>
     <sheet name="Paquets ANJE" sheetId="55" r:id="rId8"/>
     <sheet name="Traitement de la MAS" sheetId="60" r:id="rId9"/>
-    <sheet name="Coût et couverture du programme" sheetId="56" r:id="rId10"/>
+    <sheet name="Coûts et couvertures des prgms" sheetId="56" r:id="rId10"/>
     <sheet name="Dépendances du programme" sheetId="58" r:id="rId11"/>
     <sheet name="Programmes de référence" sheetId="59" state="hidden" r:id="rId12"/>
     <sheet name="Incidence des conditions" sheetId="7" r:id="rId13"/>
@@ -5624,7 +5624,7 @@
       <c r="A63" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="ZGxYmLuZKvWOwYaeNTosFTVntSKHnpcKxWrj6fOJPPa9/aHxJFAqgcPrhHcrcgERQVkVNjjYFAVFwb7+LbmU/w==" saltValue="7K16vAHD6uOwaxf6r/cwqA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="C5WCueIE9gMXKAeFpAZnDfIMNFvJtC+uL7V9xDhhatxzZDXzQcsGLT7ZhOXnjYIVLMBtftn53+9Iid0XSIXPnA==" saltValue="Zy3+HSSPKvcQvSR4f0Hp4A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -6556,7 +6556,7 @@
       <c r="F40" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="fiNzy4yyd2SIX56nm0lo2QeJEjOla1eFGlKxoHoAeHbxrViSMTSHZs17yPbddDeLoAA/CD1fQPsdL+3dLorgKQ==" saltValue="BEs/+rvleNfVUYpY2WxeSw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="GXJm6uKyEP+iPHX8hHfMRiWA2B98R3DhOLCNA7R18hWLLm3f7Bl1omykv5DqzQLhEFhp31TSur6hV91EhZHoSw==" saltValue="a3dTW0B1et0dTRwsWdhgRw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D39">
     <sortCondition ref="A2:A39"/>
   </sortState>
@@ -6720,7 +6720,7 @@
       <c r="C20" s="85"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="UrXibKFEeiRA8kzNxaL8fvL97+fgD0e/l8jhFWORXKwEzIVsgi9inpPU5BcTgb3m7VYwDxiUJDqf+hiMeq91Lg==" saltValue="k5nyb738zS71XBmRi+85pg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="g+2XtnpTkh7Z13dthgvNeWA+UqbdGdeAddCm/TYRBfu88K51P1OTzzK7yOw4VICIr4JtEQfzN9RlZLT1/8CPCw==" saltValue="R2JzPJLV0n59Cv5tGL6z7w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
@@ -6820,7 +6820,7 @@
       <c r="A19" s="48"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="gs83k0TTgF33/lkPOEvGrkxcZYbsCElsIK1Bd2A759wOld/KQdLDCjJY5mYonIw/ptLK0MRcvP5MOqsk3Xh7aQ==" saltValue="3ox7q/ZgZ559bzCtsjlxrg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="M3R8fbIkOlaYQmYOKdOr6wI5c3EGT9xG2Mj42Im23jYDPlfUlHLlbQEhOWn5Ez37rQ8QswDX4ytp+VQvxuaiFg==" saltValue="mTFn+UxmDXnlLdqn7qsNlg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -6935,7 +6935,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="iPjH2h42K5MlZDTskJBFQCsUXrb0DCEE1mC753H3HXdsBOmAL1dKrjC4BhZVbKgl78I0JV9hix0RXWdipp3d/A==" saltValue="46xNhhLJliZ5pUlGn0e4Cg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="xdmTEHlX3sNDNr6gc6Tq0p0owP61V7kmmtzvCwr7wceq1eyz3s3NKY4g72qkrJdvDaQX6xcNx9Win+enWAkfcw==" saltValue="mWmaR/zh/kJEErlxN/uwAg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -8697,7 +8697,7 @@
       <c r="B40" s="33"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="PMQAmaCjYZYryI7Zc/OY9Cs+85Sz9grp9GpkMOZ05HDnCl4yEZ5FdKXz94+yIuhS6wFEqEWRkgyL8jB9o6qQsA==" saltValue="fSA82Nz0InfO5mxVsi7quQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="R3EPNkwgFpGp4L2ed/EL+oEAQ5wA9tXKssbGBaZpttVNPy+wYU7Hz3KmUTPKTu0blL9ylJDNuyQalzv+ZsOvyA==" saltValue="gTpz5MRtPDXtWWg2ocLlWQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B15:O22">
     <sortCondition ref="B15:B22"/>
   </sortState>
@@ -8735,7 +8735,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="FXx6LL4S50tRsw/um2IIHrj07jsJrbyiOoUu1MbC9h5H2p1QJu+nusElBXRIXlj+w6ISm+HTV0LOk8QOKPa36Q==" saltValue="vNmw3gBKW8QWc5OvnkIkag==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="mHWBEPsxadAAI12sx9JRdUn+BZmKNH2iQjQipSKq7lveBbfJG5Y/e7eHDAknVBXcrvJAd4R4RNOMsBIbVKEq+g==" saltValue="Do32ZJkIRk2jH7bVd3DrTw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8943,7 +8943,7 @@
       <c r="C11" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="9lFRj3Dyqor+F6sO0iGjL8ByBwygCUVIhkHbHyXqR/ITtzZhf6UhEZNReVChqepUaNPptNWLhKzYbe01xkbWrQ==" saltValue="nzAtxuAs131/MP2Q5lHS+A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="piV7df1HVsiQxXcV7jfAlS8dqNOJrWpU3IRY3GfqANhu1jOdLD4HORWWy+HWeEZSB1Fz9mQjQw2T4fCNH86XVg==" saltValue="XSMfsJk0gYZXwu9zNg5cDQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -10758,7 +10758,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="lAUNyZTCVuwMFphdkGLM1OP+WygivBZIRz+oGuZARY7lsCMzh5Ng3m6ZCevHKL4I41xxyafNkx2wz/cTxTjJBw==" saltValue="v2JQFMXjJ3N9eWGt6L2dYg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="jbGoipPWEgj1FJbiyAzv88nbuf1VwKwAkl4qmjpeJJTf+Epf6PoYMfN0xa0SrmKkOZGqMTy56gHEbS60HUbnjw==" saltValue="jomwzCNGcDOsZ8v5SJ29+Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11525,7 +11525,7 @@
       <c r="K39" s="133"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="c7iOW6gdImiba2+t7qH8MaF0BKtq/jVGjazf/aDSDFDYjUcUxKSbFiEDTWiVlewBX4XADrx4zdghti2g7STwmQ==" saltValue="j1heI97ixIkzRAZFEDLviw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="M12JKFrLyRBmwFwJ0E5+0ku6KwhchFqXURHSOXcn+CRMnEt2UF1S/siWVJz9wnYqJ3RAnnaC5AkpGb18ZbK3TA==" saltValue="izbGAf9xL9JvAl5Iky22Jg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11899,7 +11899,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="ZUB0CuDT1Lx6hnt8DrOWgnxRjBdjhykNmJQVgNExe3EPVy6ebYLQ/JCvyLDxrviTR/5Sd7fiI1QrJipKiWxU4w==" saltValue="tgQMqG0JQ2XJOEA2goDSCw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SJiBGk6JNbYeeypRIMvlDMVWEiRQnwL+pErxyhKcifFHZbzRyeqo/CyDkNAjSN2XnPDzwtgp9z9flW3ovPIcNg==" saltValue="bZfVcmNAyI6ekd2m10k7PA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -12988,7 +12988,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="oJA52mDN02oZrdg6TKfo9ZwE/y+iDHFl0HQfq3V2HLIZwFcbjfR/75Qhjz4Rz1IPIr81yf/zvaPLh2kpv6u2CQ==" saltValue="ZA20SHGQTUlK6+lUsiNeBQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="BucsMj6WF90oqvPlQsVBWNO9fSicDE0+E6ntf8lCJLFcx8n0138YlTLfXhraWi1m3dg3vfZaGD+UAGSl4EvAmg==" saltValue="5U8GfLr8AXFhBbUM+DPEpg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <conditionalFormatting sqref="B2:I16 B18:I40 B17:C17 E17:I17">
     <cfRule type="expression" dxfId="0" priority="9">
       <formula>$A2=""</formula>
@@ -16805,7 +16805,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="/VKbnjmnpvyhNGG8UMQ/gXX7+BA1CUSJE/y23F1bjxMTjC48YH5foR6BFBiMcu2Yt/4XKoQCchGKAcemupWl5Q==" saltValue="CCTbzcZUsFIgQFzlDBvg8w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="8QwP5mPA7kovxNxnUkOQUQnRFE0Id7dcOk/O/rxQqaZwL1QYR0k9P5ytzEB9FFRqMhXgGTKuTGml9UNm7VQ0CA==" saltValue="zSMo5RlUNiL4bfOUmMwThg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="45">
     <mergeCell ref="B145:B147"/>
     <mergeCell ref="B148:B150"/>
@@ -18087,7 +18087,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="1SchIY6oBiVn6WbWe7vnYmPCiNOj5zfZhUl82EPLZllI86govMApPgzrkWLRDRarhSH87J+xYbWOAnorx9zvlg==" saltValue="4y3ICwBDqr0tCEWZcYPU+Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Guyf9U0OIhXvbKEKnhiyMf+7chV02hdkWh5jJXo0/5bEpSD+lopEQa6/SbGuNkT77nVSeg2oX4ITwOzepVIbOA==" saltValue="alKNicvqFo6iZhehRjg+Bw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -25134,7 +25134,7 @@
       <c r="H284" s="100"/>
       <c r="I284" s="100"/>
     </row>
-    <row r="285" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A285" s="121" t="s">
         <v>128</v>
       </c>
@@ -26102,7 +26102,7 @@
       <c r="H323" s="100"/>
       <c r="I323" s="100"/>
     </row>
-    <row r="324" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A324" s="121" t="s">
         <v>87</v>
       </c>
@@ -26232,7 +26232,7 @@
       <c r="I328" s="118"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="+rsrkfO6+bv5+Ru3u7N/RkLFiICHQnxM6zoeWJUEqC6CVvuTXa3JfxwhpzzKv4Qnu/Ci+UHWLpso63mO3/KfdQ==" saltValue="bkTKEsdSYfy/y25odaQ1+w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="twGiJptDUHLT12C5FsCUkSrzNLsLm7T7JaGW5zlgKQgy4TyzPbrNQEHDUa6CTJL71LmT2ikGmyIUC+bOqZcZsg==" saltValue="5SS7uS50Nkvf4g+ji3YudA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -27324,7 +27324,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="G4oKHGcqwyD1Szqqlf7lX2BqzxP70vSpRokU3XKmM9L8XQxGLLWEIUP/QhNAkN6loptbsEXWmdxoBxjpTUlPEQ==" saltValue="NyDZngX1OsYEkPdhecS84A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="rXaIlOjoTYkJmKekn/jLV7tB3ztsSxlZFmGM8snwRqgbCb1hmi4ymixvqB9QZ+ME0HczNY6wq0VB/paXPqT6bw==" saltValue="4gOHUrsjvUF0M9HvbB1WvA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -28199,7 +28199,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="+wmWrg1vn+AhGPPjhSrowH4IGoODwmb0nswAqPFXzFCY/AQ4FmWaqkQytulaDQSrYitLDPLhZ5NrvCktdiHJgg==" saltValue="l2/0icZ9o9rbOPD8wE/pAQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="OLdoV47mzkgxdwMJ552z9N+J4PNteoUugdWIDox3fSKWQ87XoVLXIgFFUt/9Y2Xbrw6zsJkm7MoiVrszhn/W9g==" saltValue="Ndead6MFDU2C9kslpu8drg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -31086,7 +31086,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="lQ4/2POK7nB1PQ/IgE9CDBWnUzDCHgsdo0g/KFI05JqbCDim9p/BlVwT9ORqwYRabArw6P1F6eqoe56JBkXrjA==" saltValue="QyvZMNsl2BDoRZs8y+ubTw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="bNcZ6Lhambn3lq7yKMKyw9MRT/T3k6YcJDiw8TCC0azGmQ80Nc6qOW/BBhx0kIyPDJpDsTj2HwIkI7e0YjU7LQ==" saltValue="Tw9/GgTfGnVk60Nzz6SJ2Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -31370,7 +31370,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="dMSb0SAnYBeL9EWfpKuIpt6P5Sd7UMmWheCE//d7cLMlwoIG9cTLOWHqOo22yQOLyBPQ8S+PJkqZ786rySKF4w==" saltValue="hOf6HWjvJvA87TRwXh66jg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="+zPaPKSRsnlox66pFYW3egMBOWk2Lkls51TkxJ54wakLaZR6WUTufY2RzSd34MqYliFIMDTGPf5CmPPY6CmxXA==" saltValue="zr9XLZ1Ejke/6JR96wqFQg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <ignoredErrors>
@@ -35492,7 +35492,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="h76sb6AZXCBz8dNJFUxBRKWCfhYSli4GCHPehN22vn0MU0ANgXQuEu3cnc5sG6yZOMt46rTAlmUaAcEIKu+p3w==" saltValue="WbJNqSmNRicGAMTJ8fnenw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="g6rY3FPThXU/hfYdR7OIK92gaE11BjCR1J25k2ayTUkJXStd5aP3+p6DEW6zuYuLaTchRqt0GKaQB93bwby27A==" saltValue="2wV7AXZuNxH90a5aX/WgjQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -36016,7 +36016,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="4RuwuDAAybeRolh6lm6NZNDqkz49Yl5ztb4XnB84q/j8GCGhiezFZKd19ZDTLBy8cErB4nqI3QIyangTR9KcLg==" saltValue="2kBNSBf5ypz5bW6pX+q+Fw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="BZhzoUVnZHskbLMHVQ4+uIoKqivb9zIwbwSraFaemPyn3g9awZzbvaVUPJpmRuXECkN1bl3B+srd4Qb45C7LgA==" saltValue="eEq00l9Sn5oefNW8SVPsZg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="D11:G16 D20:G25" unlockedFormula="1"/>
@@ -36456,7 +36456,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="PwA8ezK2Xf+j4T8BfiV82o4d+4WhgZlt71cvujFzf2GmdkYQC3AX1jBc9cXBke294dEaIB8g7KYUIPkpwIsYGg==" saltValue="uoA5VS/rMbROVVycK5643w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="lShvgktAi7KMiKp9J8auokhJwjl6iNmJKhWhAnUcfc0nynslM7Wi0EbGieuc7bcOG3Ny/Rkk4AIL6H2Xojt5RQ==" saltValue="Hg8tqGpRYT4Icv+ouidl+A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="69" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -36883,7 +36883,7 @@
       <c r="G17" s="8"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="7GI84Rc0u+QzVBKi3/RpjUOP9GsAP34GkAJoooAnY7/DPdt7myHoDkNlJlAePl7ksE5ICI7rNn8r3sgqRpuZEg==" saltValue="SA9Jec/k/EJL0FTN/i7avg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="mSFqe6Nqh6GOVjRUXEultWELNerIqIv2PAQBjpwhgwBFY4LZsWGneeBIOFOiayztkUe5Wr1FoJ8xJimAQdaeUg==" saltValue="Zq9tqt52O5RO5A2mSle06Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
@@ -37020,7 +37020,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="/728EeNmjPpDdcUTK6b1OFZ2g26E3W9XmPj4XxzjSgCWbAely56rUfugJ2VRnFLujmQGJoICvms4mSS9AWgTGg==" saltValue="3XD1IVw4OqfCYvm1b0hN/A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="1Xn2ZeQdpclk26BVaT9TuoooniQQIKOXjVAKABZpk6K16TqtRAZhZ3iFZuxv9GsUfCe+i14Gw83ox+8LeUq0WQ==" saltValue="9luvTL5FjJ+J0Ecc3FpTYw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -37226,7 +37226,7 @@
       <c r="K14" s="28"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="NoaXWj/u9CrMmi+CanwpZ6RjAzrp+p4gEn+w0+fhkP9DnI6VgwgaO+ykKORSAkRNLyFCTfqZExqG+EZvJLw4iw==" saltValue="UTrD8zx6qv2msR17bEGYig==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="JfQhJw7tG2UN0Z6P/rwdG83JdZ9cnx7sQFzx6/YvzenfIYDz9LLh25f7E5bsxoZXJlHVhK23iHcOJQaidMlV9A==" saltValue="SSoQUSzU3qXVvmci5TVfiA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="193" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -37304,7 +37304,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="gHK9OSPJapNLiRFNoyhR2EiHE7T7pOhJeOmv4TDIgMimS1pL+BtQzACWE7P2xcILdvzX2Dq/skd9mFbgr+keOw==" saltValue="+Fw4dg6eZy/EHo4h4S4YmA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="bhFPqwA1GvoWF0jtDAH83Lfw2YHdwHMoKjlNCEwIWrnRYOddgNGOTGbtvD85nKV0zaZ4BpQDaBwd/7w9T8jIbw==" saltValue="nwsvcVA7mET58Egm5iS4kA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -37581,7 +37581,7 @@
       <c r="E21" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="hNkMzmYnKeloN56ubV0zZSQDCeyNfB8XzwN1skpXbxVxiMAlWbnhwvXxXtw0TWNs1kAcesqpSihrHS/mnykr6w==" saltValue="QGfex9dapBy1Ahr3NsfVtg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="3F0Z4MVqqgI8ieSXFEyEZlX5xd6qlr0A7M8kniR/TvvJbKSUhcJOAO2+eJ34GH+T7xcRyZ2dHmV7b9itXazt3A==" saltValue="ss4W15iKV/49rL5YcuejyQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -37645,7 +37645,7 @@
       <c r="D3" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="XIOwVbqkqTCnPegCJrhsbuHjtuU+4tzeDhTLp3+0fcFTz+zFvzIQM4sNCuhR0MDIr552pV2CD7F9M2Bqgc2+rQ==" saltValue="qGuBnyW06Pvp3G5FxqacFg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="hyum1HIY7orydKS1TBZdN2yOK+xktR4SZEPmEJ0UKmpX7zYYZO7MWCA6S/seEG4zTq0OmYoXWhva+RZrOof3Kg==" saltValue="9ilKR5cAh+LHs4pGYv/jow==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/inputs/fr/demo_demo_input.xlsx
+++ b/inputs/fr/demo_demo_input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Covid-India-UP\Nutrition\inputs\fr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BF87819-0BF1-4598-AF60-4D41E09F02BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA54E740-C09A-4554-A6AF-BB24373107BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="961" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="36" yWindow="24" windowWidth="23004" windowHeight="12336" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Donnees pop de l'annee de ref" sheetId="1" r:id="rId1"/>
@@ -1198,9 +1198,6 @@
     <t>Linéaire (coût marginal constant) [par défaut].</t>
   </si>
   <si>
-    <t>Courbe avec coût marginal croissant</t>
-  </si>
-  <si>
     <t>Coût à l'unité (US$)</t>
   </si>
   <si>
@@ -1229,6 +1226,9 @@
   </si>
   <si>
     <t>Groupe général de la population</t>
+  </si>
+  <si>
+    <t>Courbe avec coût marginal croissant</t>
   </si>
   <si>
     <t>Courbe avec coût marginal décroissant</t>
@@ -5156,14 +5156,14 @@
   </sheetPr>
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.5546875" style="12" customWidth="1"/>
-    <col min="2" max="2" width="38.5546875" style="16" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="38.6640625" style="16" customWidth="1"/>
     <col min="3" max="16384" width="14.44140625" style="12"/>
   </cols>
   <sheetData>
@@ -5624,7 +5624,7 @@
       <c r="A63" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Ug68LiP4YMUPp/jsZFbgcmMQPKPgxus+FURwxESh2Cf8h1+EGc7YYXTXQ84wxk22gF+UrabFU4ZaTQoZQB2m5Q==" saltValue="pYKRD70SPPqfnmkhgz6Hxg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="X5UjM3K4BWqBsWo9kQ9ik+d2Y0FCfMXKaqFDOJfWxTZaaIzaTLuTzAnigy4AI601GbpyHi+ZtJeJr+SNOHRvJw==" saltValue="xLVMxDQwsSVkD5g0lFDhmw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -5638,7 +5638,7 @@
   </sheetPr>
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="F2" sqref="F2:G39"/>
     </sheetView>
   </sheetViews>
@@ -5648,13 +5648,13 @@
     <col min="2" max="2" width="20" style="36" customWidth="1"/>
     <col min="3" max="3" width="20.44140625" style="35" customWidth="1"/>
     <col min="4" max="4" width="20.109375" style="35" customWidth="1"/>
-    <col min="5" max="5" width="36.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.33203125" style="35" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23" style="35" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.5546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.6640625" style="35" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="14.44140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A1" s="54" t="s">
         <v>160</v>
       </c>
@@ -5666,16 +5666,16 @@
         <v>166</v>
       </c>
       <c r="D1" s="53" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E1" s="53" t="s">
         <v>167</v>
       </c>
       <c r="F1" s="53" t="s">
+        <v>203</v>
+      </c>
+      <c r="G1" s="53" t="s">
         <v>204</v>
-      </c>
-      <c r="G1" s="53" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6324,7 +6324,7 @@
     </row>
     <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="52" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B30" s="81">
         <v>0</v>
@@ -6556,7 +6556,7 @@
       <c r="F40" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="0tv0arsMSqsYQn4V+FwiWLaL00dKdL3BSqmOijGdcfbzXuVhicuPIrHr4iRt7RZsMKGe+WMaQkLSb6+R8Bdvlw==" saltValue="8Rn+xNf7HoYq2yv3SWRFqA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="vxTcbLAY70xfNqfIM1oVFXAjjkKZsfOvKVg+z6+FBWRI5ghANy6e5RxruMVzngnepW7MKYVIiA6kZ752NYjFRg==" saltValue="gqhLGjP2RtJNJThx9FeRKw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D39">
     <sortCondition ref="A2:A39"/>
   </sortState>
@@ -6602,10 +6602,10 @@
         <v>160</v>
       </c>
       <c r="B1" s="40" t="s">
+        <v>206</v>
+      </c>
+      <c r="C1" s="40" t="s">
         <v>207</v>
-      </c>
-      <c r="C1" s="40" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -6720,7 +6720,7 @@
       <c r="C20" s="85"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="K3/JddDFoNNQ92D4LMGm3s5n9SRXKavkumwypxlJL0jilpbkftBynQsiZp2mWfq5OgKd5jFuoiJF9EjOOLdsng==" saltValue="4I7t0Z7u/hgTo1YKscQJFA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="qAEKyuwUC/OR1SSZlB9aNuBs+d1XlXlBgBgNQfT/m2e21FE2ewosWaCNNgsSMgK8MKQ+rQ3MIGksSrPX2f+x5w==" saltValue="gXcovVYYXz5oEmTAhAeUTw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
@@ -6820,7 +6820,7 @@
       <c r="A19" s="48"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="DsQrOfu58SOMJ8l15NdfLynaiTPw8G+++H+E2Ppt9oP7gNXCSFHkN9q0ImmZ241n3PFJcKFE0csaghOe8ItpUg==" saltValue="Rocp4q4snqoSAPMa/bdn8w==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="hiGZ/7PRBafUIZy4NnFrT1VCpGVNWxNYIctU7/kSbBFaIfbCT72zhvL3t4npjAKh/vW2lWBTnvUNeENb2ET4Ww==" saltValue="XW9Sr1Fi0REYYWYV3o7/oA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -6886,7 +6886,7 @@
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B3" s="26">
         <f>frac_mam_1month * 2.6</f>
@@ -6911,7 +6911,7 @@
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B4" s="26">
         <f>frac_sam_1month * 2.6</f>
@@ -6935,7 +6935,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="qp77YqtkV2lfxMUSCy4ddija3VUwz7ymLnu+DeOGzdTc9WgSoFV+4hh9EKzRlg5xwpcE/L2bIUJyN1jYGCZsOA==" saltValue="4VDu3nif7PQQd53gI9Vk2Q==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="LoopEQoGZL0FwqHJok8yJ9e2RDhQTowZKGBA9gmcM1s6eQTmJ2LJDSJJIwdMmEX8S/+qQC62b7L454Vbpegd7A==" saltValue="/GAyFn/IJH0SzuFtw4bijA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -6966,7 +6966,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>160</v>
@@ -7340,7 +7340,7 @@
     </row>
     <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="11" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C9" s="87">
         <v>0</v>
@@ -8205,7 +8205,7 @@
     </row>
     <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B30" s="11" t="s">
         <v>173</v>
@@ -8697,7 +8697,7 @@
       <c r="B40" s="33"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="KlT4G4DzbgTBxh2NN/ZTA22mYxY4Zm8cszb0EWAiTO6XrAtDrMhv9xIjkBHNRmG1MVR4m0GaELyl0jGHpkK7UA==" saltValue="qOgc0rQFe1OA+hmRPwFExA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="AagF9Ti2Lx75dtZB2hFuWKvfpoYA7+NuWkoxpnX2RJV6z2X0cPX6p3iDrUJ9wCdYuKKR8uL+YRLv7+JwUEuvOA==" saltValue="gedDDlGFKNELf9HBW4qhvg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B15:O22">
     <sortCondition ref="B15:B22"/>
   </sortState>
@@ -8721,7 +8721,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -8735,7 +8735,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="f8AItsgLjKLa11E8Qj7En1tP839z0YUlSu3OUMoG/UHRdWE7NuT9t2ZWyQphLpBsAFyCVtUZYWB8k8O9L1vXfA==" saltValue="bJfynGkYBZzldrZvvhEM9w==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="FtDKZ7smDW+eeBAn7rwI9UGE1K1yIxwb/563T/MuRMfyyiV4FBqM+p6ALWCdquvKNG6rm6gCo0LWBr9Jp35XkA==" saltValue="f6LvqqrJnMJmuAQ1GGuWGg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8753,7 +8753,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.5546875" style="35" customWidth="1"/>
+    <col min="1" max="1" width="33.6640625" style="35" customWidth="1"/>
     <col min="2" max="2" width="12.44140625" style="35" customWidth="1"/>
     <col min="3" max="4" width="11.44140625" style="35"/>
     <col min="5" max="5" width="17.44140625" style="35" customWidth="1"/>
@@ -8943,7 +8943,7 @@
       <c r="C11" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="zbd136AQLbmtxpoX4lPhNheqIhsCzKYUNmbj6VFKxkdyNHA+HoxpMmt2fw2P+dSQRuV1SPcrf4scifRzTmhuPQ==" saltValue="AOzUEjMfKrwJUINyrzb1pg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="mXGsAa57Ors0yEhl6dDj2wVoCKqdAeVbYMNDEoNCwztP51H6PVv0pbkqgw876xN38lJE/A/GSMjskx9f+PtATA==" saltValue="IWXknC5hWDO7Qn4C0suoQQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -8963,20 +8963,20 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.21875" style="55" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="58.88671875" style="55" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.44140625" style="55" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.109375" style="55" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="55" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="13.109375" style="55" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="15.44140625" style="55" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="15.33203125" style="55" bestFit="1" customWidth="1"/>
     <col min="12" max="15" width="16.88671875" style="55" bestFit="1" customWidth="1"/>
     <col min="16" max="16384" width="16.109375" style="55"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="56" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B1" s="89" t="s">
         <v>160</v>
@@ -9466,7 +9466,7 @@
     </row>
     <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="52" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C12" s="133">
         <v>0</v>
@@ -10072,7 +10072,7 @@
       <c r="N26" s="129"/>
       <c r="O26" s="129"/>
     </row>
-    <row r="27" spans="1:16" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="56" t="s">
         <v>75</v>
       </c>
@@ -10315,7 +10315,7 @@
     </row>
     <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="56" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B33" s="52" t="s">
         <v>173</v>
@@ -10758,7 +10758,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Hgeqmxh2JcTQezElwD/q4XLQFShZsa5a71AtXBBVC1EmkaNVlmlVv/9Lph4HqymULnvD1cm9tZKPRtPSbX6VFg==" saltValue="3QHSY4wjkPXOqV+NQS30Zw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="qQUVb4obbc4Of99VMcr/lr1E3XT8A8WPG3R4qD68cjm+1pLqe96ja00DdLUMMNwqUI/9T3EibeOjA4Um2OX14w==" saltValue="AuGc71a7iE5/vMpgFAFEhw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10774,19 +10774,19 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="58.88671875" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" style="35" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.88671875" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" style="35" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.44140625" style="35" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.5546875" style="35" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.88671875" style="35" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.77734375" style="35" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.88671875" style="35" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.88671875" style="35" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.44140625" style="35" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="12.88671875" style="35"/>
+    <col min="9" max="9" width="14.77734375" style="35" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" style="35" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -11336,7 +11336,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="52" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B30" s="133" t="s">
         <v>7</v>
@@ -11525,7 +11525,7 @@
       <c r="K39" s="133"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="36vckW3bdr0N+iWZ/NTRumh/BbOSTj2fSURyIuZWBtRVqrLTCl2s5SaT6AGFNPIyQLxAn8SMUPP2GqoKrwOPsw==" saltValue="/0OPUcgaYDFC8rzPpsxMtg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="8DGIbNF2ZKlzOWQYPvRxZQJCypqXuk5WvLeQpQf2h1tGddDlZui7sR0bCM0s0f86+uBUsoZM4tU8wS08b6rNZQ==" saltValue="9btnn+OkYMAQjcDZUFxmBg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11541,19 +11541,19 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.88671875" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" style="35" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.88671875" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" style="35" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.44140625" style="35" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.5546875" style="35" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.88671875" style="35" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.77734375" style="35" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.88671875" style="35" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.88671875" style="35" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.44140625" style="35" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="12.88671875" style="35"/>
+    <col min="9" max="9" width="14.77734375" style="35" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" style="35" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -11899,7 +11899,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="rUcC7qLJXs7S25+HG10zdDjWXLce0tnqIWLzkvnpMGrctykL3zRoj1lTJ40CgDiPW8YzrUa8V6nC9XvT5sQSHA==" saltValue="vybVofVSoyP+I3i0rTy1GQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="0yJBnUY3nst+WJPRtS2EcyCR2dQ0BQbtPRT12aRigmFD0+zUCCCZFPpQoWcIWRHqLKbK3ddDO61QdU8+6iYBGQ==" saltValue="NonpRMwHHBUbvWjVW1dMgA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -12988,7 +12988,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="/6YE5KBNf5umkGFRBft1WzKCLkFescTseENB075YvLljHRfsk+CvCaG7pTqhI65OMx7ZSGpO3/yG0q/N44tohw==" saltValue="yVUmCJ8Uek1uwPz+ihXCaA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="YxzhA3HJZzbKaxd7qtMbBFj8FHkrU+YGHZVqKd8rzt7lBs1J0NJ1em7rgmMz2/IJ8o8yzlgkSTwLjnFj55xYLQ==" saltValue="Qpx3PJ9CqP4FWNisIUMdcg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <conditionalFormatting sqref="B2:I16 B18:I40 B17:C17 E17:I17">
     <cfRule type="expression" dxfId="0" priority="9">
       <formula>$A2=""</formula>
@@ -13010,12 +13010,12 @@
       <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="48.109375" style="35" customWidth="1"/>
     <col min="2" max="2" width="15" style="35" customWidth="1"/>
-    <col min="3" max="3" width="14.5546875" style="35" customWidth="1"/>
-    <col min="4" max="16384" width="12.88671875" style="35"/>
+    <col min="3" max="3" width="14.6640625" style="35" customWidth="1"/>
+    <col min="4" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -16805,7 +16805,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="VMuR7HZzYQvOvs47dCcmEFAmU0IIaXDkaR+AqMgaf/vzFRz3jaTWja1GS+DO5P4twauV08zZAZ3EbdirQiXQag==" saltValue="HOOXJxUHPJhgw8jhBY78mw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="NBmskQsU2Ame6EJLfdWAouRPPfxC/NFBJDiq7ZuBlPlGqA/Dav1DitywOJ2tm7apwO+fAISX7s2Lk6f17AKDyw==" saltValue="P5iuNeUIQ133Aw8DT+6AJw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="45">
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="B2:B4"/>
@@ -16876,7 +16876,7 @@
   <cols>
     <col min="1" max="1" width="23.88671875" style="35" customWidth="1"/>
     <col min="2" max="2" width="34.109375" style="35" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" style="35" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.88671875" style="35" customWidth="1"/>
     <col min="5" max="6" width="15" style="35" customWidth="1"/>
     <col min="7" max="16384" width="16.109375" style="35"/>
@@ -18087,7 +18087,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="kiBlw/nQH0ErTyLqIdP8orwIaonRMN3jCGwupzTddBCKAYLPrw6S4QQ/01OWwp5W9CRcymPL1nI9gRfxSnsqjw==" saltValue="0PGCFfu4dx+AoJBFCSMOMw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="atMCbD9ScRuBj/8+aZPQEILRQvXaNGSSoxhr+b5lEgE0T+9Q985Kg2sDEwg18ls3+mUmUSXI2RbJXT0ay0H/lg==" saltValue="TqXuAsp8FiD6EDV+j6k/+g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -18107,15 +18107,15 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.109375" style="35" customWidth="1"/>
+    <col min="1" max="1" width="27.21875" style="35" customWidth="1"/>
     <col min="2" max="2" width="26.88671875" style="35" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" style="35" customWidth="1"/>
-    <col min="4" max="8" width="14.88671875" style="35" customWidth="1"/>
-    <col min="9" max="12" width="15.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" style="35" customWidth="1"/>
+    <col min="4" max="8" width="14.77734375" style="35" customWidth="1"/>
+    <col min="9" max="12" width="15.33203125" style="35" bestFit="1" customWidth="1"/>
     <col min="13" max="16" width="16.88671875" style="35" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="12.88671875" style="35"/>
+    <col min="17" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="100" customFormat="1" x14ac:dyDescent="0.25">
@@ -18590,7 +18590,7 @@
       <c r="O17" s="118"/>
       <c r="P17" s="118"/>
     </row>
-    <row r="18" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="43" t="s">
         <v>269</v>
       </c>
@@ -18949,7 +18949,7 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C32" s="43" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D32" s="136">
         <v>1</v>
@@ -18977,7 +18977,7 @@
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C33" s="43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D33" s="136">
         <v>1</v>
@@ -19064,7 +19064,7 @@
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C36" s="43" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D36" s="136">
         <v>1</v>
@@ -19092,7 +19092,7 @@
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C37" s="43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D37" s="136">
         <v>1</v>
@@ -19179,7 +19179,7 @@
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C40" s="43" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D40" s="136">
         <v>1</v>
@@ -19207,7 +19207,7 @@
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C41" s="43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D41" s="136">
         <v>1</v>
@@ -19294,7 +19294,7 @@
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C44" s="43" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D44" s="136">
         <v>1</v>
@@ -19322,7 +19322,7 @@
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C45" s="43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D45" s="136">
         <v>1</v>
@@ -19409,7 +19409,7 @@
     </row>
     <row r="48" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C48" s="43" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D48" s="136">
         <v>1</v>
@@ -19437,7 +19437,7 @@
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C49" s="43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D49" s="136">
         <v>1</v>
@@ -19524,7 +19524,7 @@
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C52" s="43" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D52" s="136">
         <v>1</v>
@@ -19552,7 +19552,7 @@
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C53" s="43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D53" s="136">
         <v>1</v>
@@ -21746,7 +21746,7 @@
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C142" s="43" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D142" s="139">
         <f t="shared" ref="D142:H142" si="26">D32*0.7</f>
@@ -21771,7 +21771,7 @@
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C143" s="43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D143" s="139">
         <f t="shared" ref="D143:H143" si="27">D33*0.7</f>
@@ -21849,7 +21849,7 @@
     </row>
     <row r="146" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C146" s="43" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D146" s="139">
         <f t="shared" ref="D146:H146" si="30">D36*0.7</f>
@@ -21874,7 +21874,7 @@
     </row>
     <row r="147" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C147" s="43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D147" s="139">
         <f t="shared" ref="D147:H147" si="31">D37*0.7</f>
@@ -21952,7 +21952,7 @@
     </row>
     <row r="150" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C150" s="43" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D150" s="139">
         <f t="shared" ref="D150:H150" si="34">D40*0.7</f>
@@ -21977,7 +21977,7 @@
     </row>
     <row r="151" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C151" s="43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D151" s="139">
         <f t="shared" ref="D151:H151" si="35">D41*0.7</f>
@@ -22055,7 +22055,7 @@
     </row>
     <row r="154" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C154" s="43" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D154" s="139">
         <f t="shared" ref="D154:H154" si="38">D44*0.7</f>
@@ -22080,7 +22080,7 @@
     </row>
     <row r="155" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C155" s="43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D155" s="139">
         <f t="shared" ref="D155:H155" si="39">D45*0.7</f>
@@ -22158,7 +22158,7 @@
     </row>
     <row r="158" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C158" s="43" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D158" s="139">
         <f t="shared" ref="D158:H158" si="42">D48*0.7</f>
@@ -22183,7 +22183,7 @@
     </row>
     <row r="159" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C159" s="43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D159" s="139">
         <f t="shared" ref="D159:H159" si="43">D49*0.7</f>
@@ -22261,7 +22261,7 @@
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C162" s="43" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D162" s="139">
         <f t="shared" ref="D162:H162" si="46">D52*0.7</f>
@@ -22286,7 +22286,7 @@
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C163" s="43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D163" s="139">
         <f t="shared" ref="D163:H163" si="47">D53*0.7</f>
@@ -24348,7 +24348,7 @@
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C252" s="43" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D252" s="139">
         <f t="shared" ref="D252:H252" si="120">D32*1.2</f>
@@ -24374,7 +24374,7 @@
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C253" s="43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D253" s="139">
         <f t="shared" ref="D253:H253" si="121">D33*1.2</f>
@@ -24455,7 +24455,7 @@
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C256" s="43" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D256" s="139">
         <f t="shared" ref="D256:H256" si="124">D36*1.2</f>
@@ -24481,7 +24481,7 @@
     </row>
     <row r="257" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C257" s="43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D257" s="139">
         <f t="shared" ref="D257:H257" si="125">D37*1.2</f>
@@ -24562,7 +24562,7 @@
     </row>
     <row r="260" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C260" s="43" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D260" s="139">
         <f t="shared" ref="D260:H260" si="128">D40*1.2</f>
@@ -24588,7 +24588,7 @@
     </row>
     <row r="261" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C261" s="43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D261" s="139">
         <f t="shared" ref="D261:H261" si="129">D41*1.2</f>
@@ -24669,7 +24669,7 @@
     </row>
     <row r="264" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C264" s="43" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D264" s="139">
         <f t="shared" ref="D264:H264" si="132">D44*1.2</f>
@@ -24695,7 +24695,7 @@
     </row>
     <row r="265" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C265" s="43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D265" s="139">
         <f t="shared" ref="D265:H265" si="133">D45*1.2</f>
@@ -24776,7 +24776,7 @@
     </row>
     <row r="268" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C268" s="43" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D268" s="139">
         <f t="shared" ref="D268:H268" si="136">D48*1.2</f>
@@ -24802,7 +24802,7 @@
     </row>
     <row r="269" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C269" s="43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D269" s="139">
         <f t="shared" ref="D269:H269" si="137">D49*1.2</f>
@@ -24883,7 +24883,7 @@
     </row>
     <row r="272" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C272" s="43" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D272" s="139">
         <f t="shared" ref="D272:H272" si="140">D52*1.2</f>
@@ -24909,7 +24909,7 @@
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C273" s="43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D273" s="139">
         <f t="shared" ref="D273:H273" si="141">D53*1.2</f>
@@ -26232,7 +26232,7 @@
       <c r="I328" s="118"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="HaMUE2KMK8irVBuX+prTxUbtimvyv9HYiHo7WXLuqE4PYdg/uHKjtj+vAnRbZerVqpmmIhRBK8yHKToGZ62umg==" saltValue="qmQaIJnwB4qhJMw+IdJAHg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="69MBKHaWSFFZIIm3+4IlGhgXzu/PJTj5Omk6bWWIWqshTB8WgPWrtU302AuxtI4p3tYymCTreeobxWoTFOetSw==" saltValue="CiJUPLgBSPHw8Wke+67iKQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -26252,16 +26252,16 @@
       <selection activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="44.88671875" style="35" customWidth="1"/>
     <col min="2" max="2" width="44.44140625" style="35" customWidth="1"/>
-    <col min="3" max="3" width="17.88671875" style="35" customWidth="1"/>
+    <col min="3" max="3" width="17.77734375" style="35" customWidth="1"/>
     <col min="4" max="4" width="17.5546875" style="35" customWidth="1"/>
-    <col min="5" max="5" width="17.109375" style="35" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="35" customWidth="1"/>
     <col min="6" max="6" width="15" style="35" customWidth="1"/>
-    <col min="7" max="7" width="13.5546875" style="35" customWidth="1"/>
-    <col min="8" max="16384" width="12.88671875" style="35"/>
+    <col min="7" max="7" width="13.6640625" style="35" customWidth="1"/>
+    <col min="8" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="100" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -26378,7 +26378,7 @@
     </row>
     <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="117" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C8" s="136">
         <v>1</v>
@@ -27324,7 +27324,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Q15Q9sPq2BOBBXwdxJaEDgzqb6L9tvWM8Psknlo4otD8k1CVn2FrF5r9Odf6/SSMpq4xrYfvlvG+F+aFIa4wcA==" saltValue="LV1Py2iAEibFXil8zkTawA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="2brbw5Fh2gV3HWeKa4JRDY9eTWBchMQ+gCzGl/FIxUgSdT64iW3SJDa4SLQ3mM4aWwLEb1PpqTyF3r1bjh7Eag==" saltValue="uaCmWadMfQGR1oCTuUuj9g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -27347,9 +27347,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.109375" style="35" customWidth="1"/>
+    <col min="1" max="1" width="52.21875" style="35" customWidth="1"/>
     <col min="2" max="6" width="16.109375" style="35"/>
-    <col min="7" max="7" width="17.109375" style="35" customWidth="1"/>
+    <col min="7" max="7" width="17.21875" style="35" customWidth="1"/>
     <col min="8" max="8" width="16.109375" style="35" customWidth="1"/>
     <col min="9" max="16384" width="16.109375" style="35"/>
   </cols>
@@ -28199,7 +28199,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="yr7sm/9iHbmPx1cemwQFhK+45BH3pzaESPGLvs1GXREaEr1ZSgWF9wvEx+DxR9ygdTUFPO6ryQNx06tEBv1WXA==" saltValue="bovU8thWwARntB/e6ep8sQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="EMf/UYHnAkFKdxsVG0jXD54j80G+nuxCrK7YfHJTukd++k9gUkOVosF69t9zBw4WXfPNdUKLu/NzHcHeovPuzg==" saltValue="XC3BH4AIMpqb7u0OAuOh3Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -28219,12 +28219,12 @@
       <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.5546875" style="35" customWidth="1"/>
     <col min="2" max="2" width="58.88671875" style="35" bestFit="1" customWidth="1"/>
     <col min="3" max="15" width="15" style="35" customWidth="1"/>
-    <col min="16" max="16384" width="12.88671875" style="35"/>
+    <col min="16" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -28715,7 +28715,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="59" t="s">
         <v>189</v>
       </c>
@@ -28805,7 +28805,7 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B15" s="90" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C15" s="136">
         <v>1</v>
@@ -29034,7 +29034,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A24" s="40"/>
       <c r="B24" s="40"/>
       <c r="C24" s="103" t="s">
@@ -29768,7 +29768,7 @@
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B38" s="90" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C38" s="136">
         <f t="shared" si="11"/>
@@ -30062,7 +30062,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A47" s="40"/>
       <c r="B47" s="40"/>
       <c r="C47" s="103" t="s">
@@ -30796,7 +30796,7 @@
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B61" s="90" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C61" s="136">
         <f t="shared" si="27"/>
@@ -31086,7 +31086,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="jgUOpPOxUX5ugvDW1F+QeDUYzb2w8nvqdvGBJCjLIvkPov3Q4lzAv69EmW/Qp5vqUzOMGqi9wlPCuTMf9kNwPA==" saltValue="OIQZfI6tsz4op9yLmvYv7Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="4OanEIxfC+jrgYDCMJ1mFBV/k5VOgWzVsSTJ3gp73tn2Wgqco+faAuaKrHPoWUfDMgaPiiRT6gm1alEKTAbrkg==" saltValue="X/lbTkgyXD1dGw+lC0zMVg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -31106,12 +31106,12 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.44140625" style="35" customWidth="1"/>
-    <col min="2" max="2" width="27.88671875" style="35" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" style="35" customWidth="1"/>
+    <col min="2" max="2" width="27.77734375" style="35" customWidth="1"/>
     <col min="3" max="7" width="15.5546875" style="35" customWidth="1"/>
-    <col min="8" max="16384" width="12.88671875" style="35"/>
+    <col min="8" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -31370,7 +31370,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="pTjj0Zz+ajzsafI/wtes7kvo0qGj15IRk9RlCwB36ex3KU1g1nEZT7OPt5MiN6eNJhLtLGQGZf7ADcfukny6dw==" saltValue="3rU5jQYrzX+VL93Oq+JcyQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="GXV7esVGZoYgtJC1XSMS1z3x3sgNw2flxqAuQujI0u3PD0indXp9+m5Wqt2ByZ4TvTnU5jVj23Hyq/BlPYINzA==" saltValue="32eWxNn8lTPzYzVfd0gwYA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <ignoredErrors>
@@ -31390,17 +31390,17 @@
       <selection activeCell="D112" sqref="D112"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="53" style="52" customWidth="1"/>
     <col min="2" max="2" width="30.5546875" style="52" customWidth="1"/>
-    <col min="3" max="3" width="24.88671875" style="52" customWidth="1"/>
+    <col min="3" max="3" width="24.77734375" style="52" customWidth="1"/>
     <col min="4" max="4" width="15" style="35" customWidth="1"/>
-    <col min="5" max="5" width="13.5546875" style="35" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" style="35" customWidth="1"/>
     <col min="6" max="6" width="14.44140625" style="35" customWidth="1"/>
-    <col min="7" max="7" width="12.88671875" style="35"/>
+    <col min="7" max="7" width="12.77734375" style="35"/>
     <col min="8" max="8" width="17.5546875" style="35" customWidth="1"/>
-    <col min="9" max="16384" width="12.88671875" style="35"/>
+    <col min="9" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -31500,7 +31500,7 @@
         <v>192</v>
       </c>
       <c r="B5" s="52" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C5" s="52" t="s">
         <v>334</v>
@@ -31543,7 +31543,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" s="52" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C7" s="52" t="s">
         <v>334</v>
@@ -31589,7 +31589,7 @@
         <v>185</v>
       </c>
       <c r="B9" s="52" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C9" s="52" t="s">
         <v>334</v>
@@ -31632,7 +31632,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" s="52" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C11" s="52" t="s">
         <v>334</v>
@@ -31675,10 +31675,10 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="52" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B13" s="52" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C13" s="52" t="s">
         <v>334</v>
@@ -31721,7 +31721,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" s="52" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C15" s="52" t="s">
         <v>334</v>
@@ -31767,7 +31767,7 @@
         <v>170</v>
       </c>
       <c r="B17" s="52" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C17" s="52" t="s">
         <v>334</v>
@@ -31811,7 +31811,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B19" s="52" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C19" s="52" t="s">
         <v>334</v>
@@ -32710,7 +32710,7 @@
         <v>192</v>
       </c>
       <c r="B60" s="52" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C60" s="52" t="s">
         <v>334</v>
@@ -32763,7 +32763,7 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B62" s="52" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C62" s="52" t="s">
         <v>334</v>
@@ -32819,7 +32819,7 @@
         <v>185</v>
       </c>
       <c r="B64" s="52" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C64" s="52" t="s">
         <v>334</v>
@@ -32872,7 +32872,7 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B66" s="52" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C66" s="52" t="s">
         <v>334</v>
@@ -32925,10 +32925,10 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="52" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B68" s="52" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C68" s="52" t="s">
         <v>334</v>
@@ -32981,7 +32981,7 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B70" s="52" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C70" s="52" t="s">
         <v>334</v>
@@ -33037,7 +33037,7 @@
         <v>170</v>
       </c>
       <c r="B72" s="52" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C72" s="52" t="s">
         <v>334</v>
@@ -33090,7 +33090,7 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B74" s="52" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C74" s="52" t="s">
         <v>334</v>
@@ -34160,7 +34160,7 @@
         <v>192</v>
       </c>
       <c r="B115" s="52" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C115" s="52" t="s">
         <v>334</v>
@@ -34213,7 +34213,7 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B117" s="52" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C117" s="52" t="s">
         <v>334</v>
@@ -34269,7 +34269,7 @@
         <v>185</v>
       </c>
       <c r="B119" s="52" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C119" s="52" t="s">
         <v>334</v>
@@ -34322,7 +34322,7 @@
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B121" s="52" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C121" s="52" t="s">
         <v>334</v>
@@ -34375,10 +34375,10 @@
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="52" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B123" s="52" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C123" s="52" t="s">
         <v>334</v>
@@ -34431,7 +34431,7 @@
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B125" s="52" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C125" s="52" t="s">
         <v>334</v>
@@ -34487,7 +34487,7 @@
         <v>170</v>
       </c>
       <c r="B127" s="52" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C127" s="52" t="s">
         <v>334</v>
@@ -34540,7 +34540,7 @@
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B129" s="52" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C129" s="52" t="s">
         <v>334</v>
@@ -35492,7 +35492,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="mmbMNLu9Iy+QgAM/N52RyyVfOvFaQKOG4NtEohWzC6P0Q45zKIPt+B9RvkEkXIrcDgCmmvqhZp7cvTub6sVasw==" saltValue="Q3V+IAbshtOCZ0cNBWoRHA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="IYw1Go4qZljcS8lSUup4UY2IbJq1vClErqK2Gco3GPkT7wVPQlbo6FAheydpoRrQKLaLK88KgY/TVK1TXYAt9A==" saltValue="NwxZ8qFLkzec8+TjEaMtzw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -35512,13 +35512,13 @@
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28" style="35" customWidth="1"/>
     <col min="2" max="2" width="27.44140625" style="35" customWidth="1"/>
-    <col min="3" max="3" width="23.5546875" style="35" customWidth="1"/>
-    <col min="4" max="7" width="17.109375" style="35" customWidth="1"/>
-    <col min="8" max="16384" width="12.88671875" style="35"/>
+    <col min="3" max="3" width="23.6640625" style="35" customWidth="1"/>
+    <col min="4" max="7" width="17.21875" style="35" customWidth="1"/>
+    <col min="8" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -36016,7 +36016,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="3efg6mkI/ynTfxzz2cMPMZevfRtZxzYfXnoUFKfPgMgfA45ez65k/CYlFlZ4dvo13GArdXSsUXXtlg+IMxTsow==" saltValue="9ZEsdbPjPWJOoRpeR8nrjw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="mWdIZh089XZ8bUO955EtVI6gCw5PUtARmeiAvNzrlz4uaSleQi6TJbRxU6VrFJpExpbEfw+yXhyQ3boJWJjL9g==" saltValue="eRMrjNiDgEHCfKflkE7g/g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="D11:G16 D20:G25" unlockedFormula="1"/>
@@ -36038,7 +36038,7 @@
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.109375" customWidth="1"/>
-    <col min="2" max="2" width="31.44140625" customWidth="1"/>
+    <col min="2" max="2" width="31.33203125" customWidth="1"/>
     <col min="3" max="8" width="13" customWidth="1"/>
   </cols>
   <sheetData>
@@ -36456,7 +36456,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="R+mTm4Er5N3ZtSUw6kMYqeXSLJaiVif2cuP7gaQ/nCX/LUMmfZGiWPAB/PksWowSgI6rZHZztHwwExLg8FMc6w==" saltValue="a13FkHnHABzQ1/vDss9TJA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="y8ytH/epwLGZtwsDvR17NxxATRwGmLrxSyaDjoHapVMErcuQY2LOrKohp3b2jLxonZmcMWBBXszQSNOwYoea+g==" saltValue="/bNipqxndbjFnbVWfB7ESg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="69" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -36883,7 +36883,7 @@
       <c r="G17" s="8"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="pfRhnpvcvaPF+q83VOTRo2o4kqN3Sh2flvquPasrJqHnw7Dbu7eGKkd/1eRnNxFnZ3PAUHiR6wwq1H2yfQuLEQ==" saltValue="t+oydyh05TU+M6er02w0fQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="EL0ya3XDA83/n1/o4XkgxV8+PiAgnaPzL8NY4S1kazX70ZteI0s/wgwj/Al5eoMdaeC1MKokN+18JlL8y8HSLQ==" saltValue="AKcSl03A5v1pwmsR5xC0pA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
@@ -37020,7 +37020,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="4TbBdQBOSOKPgeyfOX/NU7bwyTOnrnP3G+PU4AxFD87+wuDBkA2fB/zzACEX6uXBvJWn2dTbBB7t7Om1PLWgWQ==" saltValue="hoDXm9CL3r6CJ9zP5zkFlw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Bz8nbZo3mCTEdjeG6MbOAYSIXYVj5kemPB3TXMFWqABNGXciA9sObUJLTzw3EhA0ZoaVhSSR70B4w52mLgXBIA==" saltValue="kXAZzBm61uBEazYBT9xdyA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -37226,7 +37226,7 @@
       <c r="K14" s="28"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="u/hmzCv3wQtgKTLMyfXpSKtNWDpp3BjnVoQCVwbg0Ev4ecyg4CjZm7wOwE6krSrpOe0uh3yyOoAiD5QTBfHr0w==" saltValue="+8tKhq0eMqZurYr3oHoTzQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="zq3u/GN9bcpoespz3Z7/tObyxMrU00YUcmAWI/Pc03P/VqoHbZNQzHKUnWWFLIyEjJX1SNiYExWDYMoTfuWWxQ==" saltValue="v7gXF8fZEt1M70QW0QzzUw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="193" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -37244,7 +37244,7 @@
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -37304,7 +37304,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="e0vvdPzf9kWUm7SdK1GLaE+QOg9c82H6xSwpP9ytG9kY73b1wOS0ffl/DHKlbsIwNOPiKB38copowZCMeFFWRA==" saltValue="cSrQj1GyNr5eQ3AjPyr8/g==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="F/VhvcIYUXWcff93do+YBWprvN3srShJjHC0r3QkfTg918nmfqn0bXhFYc4RqWm9biwmV+u57KJeQH6Q0QImpg==" saltValue="EFS+DYSItA6Pb/210hylHQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -37581,7 +37581,7 @@
       <c r="E21" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="RMo/evG9SfycN/s5Cy+vuMoGGnobhm32xXm0j+TawHlvRWNSRsd8twU2jHQhsbv9yPmTKhsygZHVjZ2rhBkWlw==" saltValue="yWFloXLceHs5I2U1FYSbKQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="YC3isAk7jNKJrX/A0+tch2MzwMg0VjhZ40Km9BBOejVl9+BgZkJmWmKLzHWvAAmlP1qPStHghs0fIOThbS6ktg==" saltValue="Ft6o0YeZcLlCpPXPG25Liw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -37600,7 +37600,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
     <col min="2" max="2" width="15.44140625" customWidth="1"/>
     <col min="3" max="3" width="17.44140625" customWidth="1"/>
     <col min="4" max="4" width="12.88671875" customWidth="1"/>
@@ -37645,7 +37645,7 @@
       <c r="D3" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="AQji/edfAjsf+9ZKWa0RYIlqXLz6aE3rOfKAbC+/mqY2bAPS3pz5AJG8Ni0Wb38viJkoZVyI/UJyO/X5YRIN4w==" saltValue="xQBeY1aTR4Ygn9ALIKP0+A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="3kXZMoq1Odz1Wx68y2Q6i4Lz9jLiiQPGh/ETMHBEa0h98PfySHMteu6r+DxQQezj7iwobVr1sNtwqMYXHE6i/Q==" saltValue="0vjsUc9QAyaXt1r1mKsOBQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/inputs/fr/demo_demo_input.xlsx
+++ b/inputs/fr/demo_demo_input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Covid-India-UP\Nutrition\inputs\fr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA54E740-C09A-4554-A6AF-BB24373107BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DDAF9A85-222E-4EF7-902C-7F74E4D8F57F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="36" yWindow="24" windowWidth="23004" windowHeight="12336" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5624,7 +5624,7 @@
       <c r="A63" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="X5UjM3K4BWqBsWo9kQ9ik+d2Y0FCfMXKaqFDOJfWxTZaaIzaTLuTzAnigy4AI601GbpyHi+ZtJeJr+SNOHRvJw==" saltValue="xLVMxDQwsSVkD5g0lFDhmw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="JvQLxW9xPXGZjz0VPvEoWGvCbEChA10aIKb+LFCUA5NnvqlZswS3wRCSWIkK3j2BXEsS+Cggwi44wv1rMg+ayQ==" saltValue="I5xkKRdiDd4R6l4mKi5mEw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -6556,7 +6556,7 @@
       <c r="F40" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="vxTcbLAY70xfNqfIM1oVFXAjjkKZsfOvKVg+z6+FBWRI5ghANy6e5RxruMVzngnepW7MKYVIiA6kZ752NYjFRg==" saltValue="gqhLGjP2RtJNJThx9FeRKw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="lD4ZJ26Rl4JXDENt/y0Q736XscpK9mBc5AKVcZyP9P9UoSnyaLrjE1/+nH4oTLeAv3cc2KSfKRLWJMGGM8jxyA==" saltValue="e6HrE6Kye2MF/Mt8Dlx7ug==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D39">
     <sortCondition ref="A2:A39"/>
   </sortState>
@@ -6720,7 +6720,7 @@
       <c r="C20" s="85"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="qAEKyuwUC/OR1SSZlB9aNuBs+d1XlXlBgBgNQfT/m2e21FE2ewosWaCNNgsSMgK8MKQ+rQ3MIGksSrPX2f+x5w==" saltValue="gXcovVYYXz5oEmTAhAeUTw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="wrUHCeU2cFELGQZwkHQfjTwQCnCbG4dfXktNgAee31k3WT/0GZ46fvzS+qZmo3Nhs9MIrGGr9nwygDUhmtG5Qw==" saltValue="bClgjGY+r+rfKQVy8sFMUw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
@@ -6820,7 +6820,7 @@
       <c r="A19" s="48"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="hiGZ/7PRBafUIZy4NnFrT1VCpGVNWxNYIctU7/kSbBFaIfbCT72zhvL3t4npjAKh/vW2lWBTnvUNeENb2ET4Ww==" saltValue="XW9Sr1Fi0REYYWYV3o7/oA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="rXJY9oKX1yJvBpMJ0tSc+I3YpRt445j/QUEdulZ+QxV5lVRIyhAlJmHzL03NkoiH+rx1sac3xLYB485JRr8IAg==" saltValue="J4BjjqtsNTnleklK5mqZXg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -6935,7 +6935,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="LoopEQoGZL0FwqHJok8yJ9e2RDhQTowZKGBA9gmcM1s6eQTmJ2LJDSJJIwdMmEX8S/+qQC62b7L454Vbpegd7A==" saltValue="/GAyFn/IJH0SzuFtw4bijA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="hi+MXXYlPzjn/bj5twTEhREssQunVz//6S7/Jvrtbuto32du06EwJ4ldM2eGxWMvsgigGnNKXhwY5iCUb+zrdw==" saltValue="IJnYyoLdE5T5Gys6WlacPw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -8697,7 +8697,7 @@
       <c r="B40" s="33"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="AagF9Ti2Lx75dtZB2hFuWKvfpoYA7+NuWkoxpnX2RJV6z2X0cPX6p3iDrUJ9wCdYuKKR8uL+YRLv7+JwUEuvOA==" saltValue="gedDDlGFKNELf9HBW4qhvg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="3rk2xCKoPuxnt0wtXLsqGcl1EfdQuR8mQPzQfKQ7nnIQKE8VEOzCOue/Kc/jTPQVyAughV7rqvtMX/BHYeEJ/Q==" saltValue="Qecsxhdhp+t2rEonpvmH3A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B15:O22">
     <sortCondition ref="B15:B22"/>
   </sortState>
@@ -8735,7 +8735,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="FtDKZ7smDW+eeBAn7rwI9UGE1K1yIxwb/563T/MuRMfyyiV4FBqM+p6ALWCdquvKNG6rm6gCo0LWBr9Jp35XkA==" saltValue="f6LvqqrJnMJmuAQ1GGuWGg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="BGg7tq1p8ddKbtvQ0QG0Gxd5t+QfHa+S1VLdBpqxQPk3un7aR0tjfG9l9klvyKPqhIVHVmJkfZKTI5SnJ0/Ldg==" saltValue="MpWj11y3rnfMMbDNyx9rZA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8943,7 +8943,7 @@
       <c r="C11" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="mXGsAa57Ors0yEhl6dDj2wVoCKqdAeVbYMNDEoNCwztP51H6PVv0pbkqgw876xN38lJE/A/GSMjskx9f+PtATA==" saltValue="IWXknC5hWDO7Qn4C0suoQQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="xV+b0JzojNnBoi5d/5UYJT3xF44gNGTmT2zD5kcJbBb7j9zCdrUiJKRmVJW8ZiM//TzEJTrlQyBUXdfmusGU9w==" saltValue="/RsltLJrM2Jqx6MwiD6M3g==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -10758,7 +10758,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="qQUVb4obbc4Of99VMcr/lr1E3XT8A8WPG3R4qD68cjm+1pLqe96ja00DdLUMMNwqUI/9T3EibeOjA4Um2OX14w==" saltValue="AuGc71a7iE5/vMpgFAFEhw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="bIcqh+TIJkGvWKfIZfz9d39hu+p402w2fy0ERE0m57kqAiednwonfcVhf6eCIqiTc5M6OC3okuGUPwNupnySIw==" saltValue="U45iAqjg9G9EGYwKmDt9UQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11525,7 +11525,7 @@
       <c r="K39" s="133"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="8DGIbNF2ZKlzOWQYPvRxZQJCypqXuk5WvLeQpQf2h1tGddDlZui7sR0bCM0s0f86+uBUsoZM4tU8wS08b6rNZQ==" saltValue="9btnn+OkYMAQjcDZUFxmBg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="ArH5bZEzk4HLYJyinuOW2B/zG/VRbKBzEjmvGbGoByvgIsPBzdBbJZwY1sMK7Z7fWsmQDJFvykGopLhR5yVTyw==" saltValue="11XRoJ0wTpuk+002RVBWRg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11899,7 +11899,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="0yJBnUY3nst+WJPRtS2EcyCR2dQ0BQbtPRT12aRigmFD0+zUCCCZFPpQoWcIWRHqLKbK3ddDO61QdU8+6iYBGQ==" saltValue="NonpRMwHHBUbvWjVW1dMgA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="wATkGR1bi9smUODTSKg9YB3mv5Bv7irmbMZ1mMio81MondTs2uaXIfext/kSsUl30W+fXfSZVY8xXpIYHGCChA==" saltValue="rRTNm3xYom/KbGTWVNwsNg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -12988,7 +12988,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="YxzhA3HJZzbKaxd7qtMbBFj8FHkrU+YGHZVqKd8rzt7lBs1J0NJ1em7rgmMz2/IJ8o8yzlgkSTwLjnFj55xYLQ==" saltValue="Qpx3PJ9CqP4FWNisIUMdcg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="wHY+8d6eCf0XHeegOoBzDu447xqWxyWsaOV+nCy/XR2OMjrLnlx1Xi+UW/Y8YHYGUKTAAfizfPLsJggiMenFkg==" saltValue="ps1s9xa+Im4KDsMauYzkuA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <conditionalFormatting sqref="B2:I16 B18:I40 B17:C17 E17:I17">
     <cfRule type="expression" dxfId="0" priority="9">
       <formula>$A2=""</formula>
@@ -16805,7 +16805,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="NBmskQsU2Ame6EJLfdWAouRPPfxC/NFBJDiq7ZuBlPlGqA/Dav1DitywOJ2tm7apwO+fAISX7s2Lk6f17AKDyw==" saltValue="P5iuNeUIQ133Aw8DT+6AJw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="hD1PJlcXiVtqaW6hWoZPgfbX6ewSAMFqKn7HbQmoMTg8da1mpIA24hfLuIlfmZG5dKEGl616Oql/8j/6s40Epw==" saltValue="CFQi5GSiUnY92LBKf+/nkg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="45">
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="B2:B4"/>
@@ -18087,7 +18087,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="atMCbD9ScRuBj/8+aZPQEILRQvXaNGSSoxhr+b5lEgE0T+9Q985Kg2sDEwg18ls3+mUmUSXI2RbJXT0ay0H/lg==" saltValue="TqXuAsp8FiD6EDV+j6k/+g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="A08/7qsrK5W8Odg2jfO9yKlBVLVQehjQzUp/Tshp/GRiFkJ3VDCaopqL99ZEvpQaH1vvCBKMja3R1zFak8EVTA==" saltValue="7lA9aedyXb554XeEbLNhow==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -26232,7 +26232,7 @@
       <c r="I328" s="118"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="69MBKHaWSFFZIIm3+4IlGhgXzu/PJTj5Omk6bWWIWqshTB8WgPWrtU302AuxtI4p3tYymCTreeobxWoTFOetSw==" saltValue="CiJUPLgBSPHw8Wke+67iKQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="+bzgrNS0xeknznMu/qptFwlJ5TdySpmvgSgWTDJ7RdOFyY0R8l6SwIEbzUSukAsAoUof2pszxxqebA0Yx9RQFQ==" saltValue="WADE/kTPhrMXYwdttxHz4Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -27324,7 +27324,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="2brbw5Fh2gV3HWeKa4JRDY9eTWBchMQ+gCzGl/FIxUgSdT64iW3SJDa4SLQ3mM4aWwLEb1PpqTyF3r1bjh7Eag==" saltValue="uaCmWadMfQGR1oCTuUuj9g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="yb5RH98Li28ujn3OsW8fErc0vNRolBCtMYK0oMgb0INmEnAJiEqngpQZJWzgGxusJon82Q6YcJeRR5sE1SSv6A==" saltValue="lviy+kYLseuJo7fmI/srqg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -28199,7 +28199,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="EMf/UYHnAkFKdxsVG0jXD54j80G+nuxCrK7YfHJTukd++k9gUkOVosF69t9zBw4WXfPNdUKLu/NzHcHeovPuzg==" saltValue="XC3BH4AIMpqb7u0OAuOh3Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="J74JLkfYZtcQkW0nJA0B++GL7W264HYv3E/it34/2DYU4fbmV+rbziCg5uizmYg/Cgoj65O6VFkUGQeCf7Jz2Q==" saltValue="rZaUcLM/k9uFoHngG4l7NQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -31086,7 +31086,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="4OanEIxfC+jrgYDCMJ1mFBV/k5VOgWzVsSTJ3gp73tn2Wgqco+faAuaKrHPoWUfDMgaPiiRT6gm1alEKTAbrkg==" saltValue="X/lbTkgyXD1dGw+lC0zMVg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="h5ZUXNDNAdfuiMzmt6N+GLjcIcS5Pa6bAJbfNwY77P6mo1yuDcwqLGS02v1047Xq51yFcgCUdyBlryI/ep89Dw==" saltValue="pRHi8KnqlEklmxoEDrmvbg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -31370,7 +31370,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="GXV7esVGZoYgtJC1XSMS1z3x3sgNw2flxqAuQujI0u3PD0indXp9+m5Wqt2ByZ4TvTnU5jVj23Hyq/BlPYINzA==" saltValue="32eWxNn8lTPzYzVfd0gwYA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="MGa4hKM0opQU1gUFOzxABRSPsHOEa5MrYbGO2zkLtO0Q/M/X9agyxi+/ANXj4h8Uvnb0S/Fowd2ytwEga/l9TQ==" saltValue="pQTbWjGEH5g5McINXo0ocg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <ignoredErrors>
@@ -35492,7 +35492,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="IYw1Go4qZljcS8lSUup4UY2IbJq1vClErqK2Gco3GPkT7wVPQlbo6FAheydpoRrQKLaLK88KgY/TVK1TXYAt9A==" saltValue="NwxZ8qFLkzec8+TjEaMtzw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="jpZ2UlcrXSg+U4vXMlaRDlELOvVuLy+RgfvuN4yOqXrzTWXvysTHxW+vkwx08G/DoUCQW7xQS/3R8Weubo6lDQ==" saltValue="Px/WKXkizfsDag3+0pncjg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -36016,7 +36016,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="mWdIZh089XZ8bUO955EtVI6gCw5PUtARmeiAvNzrlz4uaSleQi6TJbRxU6VrFJpExpbEfw+yXhyQ3boJWJjL9g==" saltValue="eRMrjNiDgEHCfKflkE7g/g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="yOrP54vi8PDIEwP/F/2W1qHfPkA+ZlSb3DXLSf3unVkA3U72/bi5RzaZt+lws3co3AVZ5Uausw5IZwb7Uts7Ig==" saltValue="uCPLI6V+Cb/0+hxYgYEDXw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="D11:G16 D20:G25" unlockedFormula="1"/>
@@ -36456,7 +36456,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="y8ytH/epwLGZtwsDvR17NxxATRwGmLrxSyaDjoHapVMErcuQY2LOrKohp3b2jLxonZmcMWBBXszQSNOwYoea+g==" saltValue="/bNipqxndbjFnbVWfB7ESg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="tb4gmJ7glzaoZRQ45YJpyxkqbCKxOjoxZ2PrRDWbDs4hGwhZnvJryu+DE7XmbkZ0n+XJW0Xmo7M59BtMLYvTAA==" saltValue="wt2NdAmUzfAjX956P6sfFA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="69" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -36883,7 +36883,7 @@
       <c r="G17" s="8"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="EL0ya3XDA83/n1/o4XkgxV8+PiAgnaPzL8NY4S1kazX70ZteI0s/wgwj/Al5eoMdaeC1MKokN+18JlL8y8HSLQ==" saltValue="AKcSl03A5v1pwmsR5xC0pA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="ij5EKb8l94GAa4ZdZUb5uf9EGjea6ChZxICXPhyx8L7EmQYtUhptbaXdo3yhPtVx723w42kDBxmshON+rrFJmA==" saltValue="daiQeMHQCy+pF/VZMZjyUA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
@@ -37020,7 +37020,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Bz8nbZo3mCTEdjeG6MbOAYSIXYVj5kemPB3TXMFWqABNGXciA9sObUJLTzw3EhA0ZoaVhSSR70B4w52mLgXBIA==" saltValue="kXAZzBm61uBEazYBT9xdyA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="OdKuecMT4Ei4F2BGICRMjQOemeIfuUHJ3+lgdWjr8FIkEcMp3cg/1uCDBP0QNOvjcSUkOcN1K03p61xjcchNWw==" saltValue="6LYzCuDKzSWx2LdQLERplA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -37226,7 +37226,7 @@
       <c r="K14" s="28"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="zq3u/GN9bcpoespz3Z7/tObyxMrU00YUcmAWI/Pc03P/VqoHbZNQzHKUnWWFLIyEjJX1SNiYExWDYMoTfuWWxQ==" saltValue="v7gXF8fZEt1M70QW0QzzUw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="qpHZoWAZi/UmyyTIdNjq6NjVRJ+Qo388MbJvaMQP2JXYzQI4IVWcrZvzR1dbyua+yrRMLdxrD+9idkqRtCXbuQ==" saltValue="kCkQVFvvsVKZZCGcaFvSbA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="193" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -37304,7 +37304,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="F/VhvcIYUXWcff93do+YBWprvN3srShJjHC0r3QkfTg918nmfqn0bXhFYc4RqWm9biwmV+u57KJeQH6Q0QImpg==" saltValue="EFS+DYSItA6Pb/210hylHQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="9UUdrYdvp5O68fwoCKGwp6dO2CAzV87JR5MuWez4XZZCVM7o3CYJ2MDaZq035Pf54BswNGrXoq9qeB/Z2kEtEg==" saltValue="smgF6GSfx5Jh0CNPYzzwRQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -37581,7 +37581,7 @@
       <c r="E21" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="YC3isAk7jNKJrX/A0+tch2MzwMg0VjhZ40Km9BBOejVl9+BgZkJmWmKLzHWvAAmlP1qPStHghs0fIOThbS6ktg==" saltValue="Ft6o0YeZcLlCpPXPG25Liw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="+Hfg4If5JQ+Xm/6znLHY5vMTjHzxBjNToPO/UNh/hHTb7bfGwOYofXtiKcaw97RTTMW8Tu3JisMo1R03HHaGTQ==" saltValue="MJb9p/cufT5CowYplBlHvQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -37645,7 +37645,7 @@
       <c r="D3" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="3kXZMoq1Odz1Wx68y2Q6i4Lz9jLiiQPGh/ETMHBEa0h98PfySHMteu6r+DxQQezj7iwobVr1sNtwqMYXHE6i/Q==" saltValue="0vjsUc9QAyaXt1r1mKsOBQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="QoADli6lNu5ud93B0U8n3ZZPGsjsQcOaIG/YTtc6yUwFAiFA04LZlAnZcQ/tPCCS2MMdRRrtGpQTdcVT+kvkYA==" saltValue="XzRBFmCea+frBNJHnFiRPg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/inputs/fr/demo_demo_input.xlsx
+++ b/inputs/fr/demo_demo_input.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dominic.delport\Documents\GitHub\Nutrition\inputs\fr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.scott\Desktop\GitHub\Nutrition\inputs\fr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F608A0C1-3BEB-4CF1-A087-74FDFED0B8A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94CAC22D-A32E-4C03-A4C5-207D78BE5C3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-15225" yWindow="-18120" windowWidth="29040" windowHeight="17640" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Donnees pop de l'annee de ref" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Causes du décès" sheetId="4" r:id="rId3"/>
     <sheet name="Dist. de l'état nutritionnel" sheetId="5" r:id="rId4"/>
     <sheet name="Dist. l'allaitement maternel" sheetId="50" r:id="rId5"/>
-    <sheet name="Tendances temporelles" sheetId="51" r:id="rId6"/>
+    <sheet name="Tendances temporelles" sheetId="51" state="hidden" r:id="rId6"/>
     <sheet name="Perte économique" sheetId="74" r:id="rId7"/>
     <sheet name="Paquets ANJE" sheetId="55" r:id="rId8"/>
     <sheet name="Traitement de la MAS" sheetId="60" r:id="rId9"/>
@@ -590,7 +590,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2089" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2093" uniqueCount="337">
   <si>
     <t>Condition</t>
   </si>
@@ -2909,15 +2909,15 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="725" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="9" fillId="3" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="9" fontId="9" fillId="3" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="167" fontId="9" fillId="3" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="725" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="728">
@@ -5093,18 +5093,18 @@
   </sheetPr>
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.7265625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="38.7265625" style="11" customWidth="1"/>
-    <col min="3" max="16384" width="14.453125" style="8"/>
+    <col min="1" max="1" width="27.77734375" style="8" customWidth="1"/>
+    <col min="2" max="2" width="38.77734375" style="11" customWidth="1"/>
+    <col min="3" max="16384" width="14.44140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -5115,14 +5115,14 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="31"/>
       <c r="C2" s="31"/>
     </row>
-    <row r="3" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="5" t="s">
         <v>15</v>
@@ -5131,7 +5131,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="5" t="s">
         <v>16</v>
@@ -5140,7 +5140,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="31"/>
       <c r="C5" s="31"/>
@@ -5209,7 +5209,7 @@
     <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="8"/>
     </row>
-    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>25</v>
       </c>
@@ -5252,7 +5252,7 @@
       <c r="B20" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="116">
+      <c r="C20" s="115">
         <f>1-frac_rice-frac_wheat-frac_maize</f>
         <v>0</v>
       </c>
@@ -5340,17 +5340,17 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B33" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="115">
+      <c r="C33" s="114">
         <f>SUM(C29:C32)</f>
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>42</v>
       </c>
@@ -5454,7 +5454,7 @@
       <c r="B48" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C48" s="116">
+      <c r="C48" s="115">
         <f>1-term_SGA-preterm_AGA-preterm_SGA</f>
         <v>0.495</v>
       </c>
@@ -5556,7 +5556,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
     </row>
   </sheetData>
@@ -5578,19 +5578,19 @@
       <selection activeCell="F2" sqref="F2:G39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="56" style="40" customWidth="1"/>
     <col min="2" max="2" width="20" style="28" customWidth="1"/>
-    <col min="3" max="3" width="20.453125" style="28" customWidth="1"/>
-    <col min="4" max="4" width="20.1796875" style="28" customWidth="1"/>
-    <col min="5" max="5" width="36.26953125" style="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.44140625" style="28" customWidth="1"/>
+    <col min="4" max="4" width="20.21875" style="28" customWidth="1"/>
+    <col min="5" max="5" width="36.21875" style="28" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23" style="28" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.7265625" style="28" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="14.453125" style="28"/>
+    <col min="7" max="7" width="22.77734375" style="28" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="14.44140625" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="39" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A1" s="42" t="s">
         <v>160</v>
       </c>
@@ -5982,7 +5982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="40" t="s">
         <v>157</v>
       </c>
@@ -6519,18 +6519,18 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="53" style="40" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.81640625" style="28" customWidth="1"/>
-    <col min="3" max="3" width="42.453125" style="28" customWidth="1"/>
-    <col min="4" max="16384" width="11.453125" style="28"/>
+    <col min="2" max="2" width="47.77734375" style="28" customWidth="1"/>
+    <col min="3" max="3" width="42.44140625" style="28" customWidth="1"/>
+    <col min="4" max="16384" width="11.44140625" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>160</v>
       </c>
@@ -6671,13 +6671,13 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.1796875" style="28" customWidth="1"/>
-    <col min="2" max="16384" width="11.453125" style="28"/>
+    <col min="1" max="1" width="30.21875" style="28" customWidth="1"/>
+    <col min="2" max="16384" width="11.44140625" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>160</v>
       </c>
@@ -6770,7 +6770,7 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
@@ -6885,19 +6885,19 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.81640625" customWidth="1"/>
-    <col min="3" max="3" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.77734375" customWidth="1"/>
+    <col min="3" max="3" width="8.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="15.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>211</v>
       </c>
@@ -6944,7 +6944,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>86</v>
       </c>
@@ -7505,7 +7505,7 @@
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="9"/>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>100</v>
       </c>
@@ -7556,7 +7556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="5" t="s">
         <v>169</v>
@@ -7601,7 +7601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="5" t="s">
         <v>180</v>
@@ -7650,7 +7650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="5" t="s">
         <v>181</v>
@@ -7886,7 +7886,7 @@
     <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="9"/>
     </row>
-    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>75</v>
       </c>
@@ -8136,7 +8136,7 @@
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
     </row>
-    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>210</v>
       </c>
@@ -8644,7 +8644,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
@@ -8683,16 +8683,16 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.7265625" style="28" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" style="28" customWidth="1"/>
-    <col min="3" max="4" width="11.453125" style="28"/>
-    <col min="5" max="5" width="17.453125" style="28" customWidth="1"/>
-    <col min="6" max="16384" width="11.453125" style="28"/>
+    <col min="1" max="1" width="33.77734375" style="28" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" style="28" customWidth="1"/>
+    <col min="3" max="4" width="11.44140625" style="28"/>
+    <col min="5" max="5" width="17.44140625" style="28" customWidth="1"/>
+    <col min="6" max="16384" width="11.44140625" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>216</v>
       </c>
@@ -8709,7 +8709,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>217</v>
       </c>
@@ -8727,7 +8727,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>218</v>
       </c>
@@ -8745,7 +8745,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>219</v>
       </c>
@@ -8763,7 +8763,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>220</v>
       </c>
@@ -8781,7 +8781,7 @@
         <v>0.126</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>3</v>
       </c>
@@ -8799,7 +8799,7 @@
         <v>1.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>221</v>
       </c>
@@ -8817,7 +8817,7 @@
         <v>0.40500000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>222</v>
       </c>
@@ -8835,7 +8835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>223</v>
       </c>
@@ -8853,7 +8853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>224</v>
       </c>
@@ -8890,20 +8890,20 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.1796875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="16.21875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.26953125" style="43" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="58.81640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.453125" style="43" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.1796875" style="43" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.21875" style="43" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.77734375" style="43" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" style="43" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.21875" style="43" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="43" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.1796875" style="43" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="15.26953125" style="43" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="16.81640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="16.1796875" style="43"/>
+    <col min="6" max="7" width="13.21875" style="43" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="15.21875" style="43" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="16.77734375" style="43" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="16.21875" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="44" t="s">
         <v>211</v>
       </c>
@@ -8950,7 +8950,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="44" t="s">
         <v>86</v>
       </c>
@@ -8997,7 +8997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="40" t="s">
         <v>171</v>
       </c>
@@ -9041,7 +9041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="40" t="s">
         <v>157</v>
       </c>
@@ -9085,7 +9085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="40" t="s">
         <v>158</v>
       </c>
@@ -9129,7 +9129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="40" t="s">
         <v>159</v>
       </c>
@@ -9173,7 +9173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="40" t="s">
         <v>184</v>
       </c>
@@ -9217,7 +9217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="40" t="s">
         <v>185</v>
       </c>
@@ -9261,7 +9261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="40" t="s">
         <v>189</v>
       </c>
@@ -9305,7 +9305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="40" t="s">
         <v>191</v>
       </c>
@@ -9349,7 +9349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="40" t="s">
         <v>192</v>
       </c>
@@ -9393,7 +9393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="40" t="s">
         <v>205</v>
       </c>
@@ -9437,7 +9437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="40" t="s">
         <v>161</v>
       </c>
@@ -9481,7 +9481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="40" t="s">
         <v>193</v>
       </c>
@@ -9525,7 +9525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="40" t="s">
         <v>199</v>
       </c>
@@ -9569,7 +9569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="40" t="s">
         <v>200</v>
       </c>
@@ -9613,7 +9613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="40"/>
       <c r="C17" s="99"/>
       <c r="D17" s="99"/>
@@ -9629,7 +9629,7 @@
       <c r="N17" s="99"/>
       <c r="O17" s="99"/>
     </row>
-    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="44" t="s">
         <v>100</v>
       </c>
@@ -9676,7 +9676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="44"/>
       <c r="B19" s="40" t="s">
         <v>169</v>
@@ -9721,7 +9721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="73" t="s">
         <v>180</v>
       </c>
@@ -9765,7 +9765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="73" t="s">
         <v>181</v>
       </c>
@@ -9809,7 +9809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="74" t="s">
         <v>182</v>
       </c>
@@ -9853,7 +9853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="40" t="s">
         <v>187</v>
       </c>
@@ -9897,7 +9897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="40" t="s">
         <v>188</v>
       </c>
@@ -9941,7 +9941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="40" t="s">
         <v>190</v>
       </c>
@@ -9985,7 +9985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="40"/>
       <c r="C26" s="99"/>
       <c r="D26" s="99"/>
@@ -10001,7 +10001,7 @@
       <c r="N26" s="99"/>
       <c r="O26" s="99"/>
     </row>
-    <row r="27" spans="1:16" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="44" t="s">
         <v>75</v>
       </c>
@@ -10049,7 +10049,7 @@
       </c>
       <c r="P27" s="75"/>
     </row>
-    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="46" t="s">
         <v>176</v>
       </c>
@@ -10093,7 +10093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="44"/>
       <c r="B29" s="46" t="s">
         <v>177</v>
@@ -10138,7 +10138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="46" t="s">
         <v>178</v>
       </c>
@@ -10182,7 +10182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="46" t="s">
         <v>179</v>
       </c>
@@ -10226,7 +10226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="40"/>
       <c r="C32" s="100"/>
       <c r="D32" s="100"/>
@@ -10242,7 +10242,7 @@
       <c r="N32" s="99"/>
       <c r="O32" s="99"/>
     </row>
-    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="44" t="s">
         <v>210</v>
       </c>
@@ -10289,7 +10289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="40" t="s">
         <v>174</v>
       </c>
@@ -10333,7 +10333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="40" t="s">
         <v>175</v>
       </c>
@@ -10377,7 +10377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="40" t="s">
         <v>183</v>
       </c>
@@ -10421,7 +10421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="40" t="s">
         <v>186</v>
       </c>
@@ -10465,7 +10465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="40" t="s">
         <v>194</v>
       </c>
@@ -10509,7 +10509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="40" t="s">
         <v>195</v>
       </c>
@@ -10553,7 +10553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="40" t="s">
         <v>196</v>
       </c>
@@ -10597,7 +10597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="40" t="s">
         <v>197</v>
       </c>
@@ -10641,7 +10641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="40" t="s">
         <v>198</v>
       </c>
@@ -10702,22 +10702,21 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7265625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="58.81640625" style="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7265625" style="28" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.81640625" style="28" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.26953125" style="28" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.453125" style="28" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" style="28" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7265625" style="28" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.81640625" style="28" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7265625" style="28" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.26953125" style="28" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="12.7265625" style="28"/>
+    <col min="1" max="1" width="58.77734375" style="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8.77734375" style="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.21875" style="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" style="28" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" style="28" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.77734375" style="28" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.77734375" style="28" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.77734375" style="28" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.21875" style="28" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="12.77734375" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>160</v>
       </c>
@@ -11469,22 +11468,21 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7265625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.81640625" style="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7265625" style="28" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.81640625" style="28" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.26953125" style="28" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.453125" style="28" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" style="28" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7265625" style="28" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.81640625" style="28" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7265625" style="28" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.26953125" style="28" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="12.7265625" style="28"/>
+    <col min="1" max="1" width="16.77734375" style="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8.77734375" style="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.21875" style="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" style="28" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" style="28" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.77734375" style="28" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.77734375" style="28" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.77734375" style="28" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.21875" style="28" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="12.77734375" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>230</v>
       </c>
@@ -11843,14 +11841,14 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.453125" style="8" customWidth="1"/>
-    <col min="2" max="9" width="16.81640625" style="8" customWidth="1"/>
-    <col min="10" max="16384" width="14.453125" style="8"/>
+    <col min="1" max="1" width="8.44140625" style="8" customWidth="1"/>
+    <col min="2" max="9" width="16.77734375" style="8" customWidth="1"/>
+    <col min="10" max="16384" width="14.44140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="16" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="16" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>76</v>
       </c>
@@ -12938,15 +12936,15 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7265625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.1796875" style="28" customWidth="1"/>
+    <col min="1" max="1" width="48.21875" style="28" customWidth="1"/>
     <col min="2" max="2" width="15" style="28" customWidth="1"/>
-    <col min="3" max="3" width="14.7265625" style="28" customWidth="1"/>
-    <col min="4" max="16384" width="12.7265625" style="28"/>
+    <col min="3" max="3" width="14.77734375" style="28" customWidth="1"/>
+    <col min="4" max="16384" width="12.77734375" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>231</v>
       </c>
@@ -12972,11 +12970,11 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>232</v>
       </c>
-      <c r="B2" s="114" t="s">
+      <c r="B2" s="117" t="s">
         <v>100</v>
       </c>
       <c r="C2" s="28" t="s">
@@ -12999,7 +12997,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="114"/>
+      <c r="B3" s="117"/>
       <c r="C3" s="28" t="s">
         <v>154</v>
       </c>
@@ -13021,7 +13019,7 @@
       <c r="J3" s="76"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="114"/>
+      <c r="B4" s="117"/>
       <c r="C4" s="28" t="s">
         <v>155</v>
       </c>
@@ -13043,7 +13041,7 @@
       <c r="J4" s="76"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="114" t="s">
+      <c r="B5" s="117" t="s">
         <v>109</v>
       </c>
       <c r="C5" s="28" t="s">
@@ -13067,7 +13065,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="114"/>
+      <c r="B6" s="117"/>
       <c r="C6" s="28" t="s">
         <v>154</v>
       </c>
@@ -13088,7 +13086,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="114"/>
+      <c r="B7" s="117"/>
       <c r="C7" s="28" t="s">
         <v>155</v>
       </c>
@@ -13109,7 +13107,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="114" t="s">
+      <c r="B8" s="117" t="s">
         <v>96</v>
       </c>
       <c r="C8" s="28" t="s">
@@ -13132,7 +13130,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="114"/>
+      <c r="B9" s="117"/>
       <c r="C9" s="28" t="s">
         <v>154</v>
       </c>
@@ -13153,7 +13151,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="114"/>
+      <c r="B10" s="117"/>
       <c r="C10" s="28" t="s">
         <v>155</v>
       </c>
@@ -13174,7 +13172,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="114" t="s">
+      <c r="B11" s="117" t="s">
         <v>97</v>
       </c>
       <c r="C11" s="28" t="s">
@@ -13197,7 +13195,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="114"/>
+      <c r="B12" s="117"/>
       <c r="C12" s="28" t="s">
         <v>154</v>
       </c>
@@ -13218,7 +13216,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="114"/>
+      <c r="B13" s="117"/>
       <c r="C13" s="28" t="s">
         <v>155</v>
       </c>
@@ -13239,7 +13237,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="114" t="s">
+      <c r="B14" s="117" t="s">
         <v>98</v>
       </c>
       <c r="C14" s="28" t="s">
@@ -13262,7 +13260,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="114"/>
+      <c r="B15" s="117"/>
       <c r="C15" s="28" t="s">
         <v>154</v>
       </c>
@@ -13283,7 +13281,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="114"/>
+      <c r="B16" s="117"/>
       <c r="C16" s="28" t="s">
         <v>155</v>
       </c>
@@ -13303,7 +13301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B17" s="77" t="s">
         <v>156</v>
       </c>
@@ -13333,11 +13331,11 @@
       <c r="G18" s="101"/>
       <c r="H18" s="101"/>
     </row>
-    <row r="19" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="30" t="s">
         <v>233</v>
       </c>
-      <c r="B19" s="114" t="s">
+      <c r="B19" s="117" t="s">
         <v>100</v>
       </c>
       <c r="C19" s="28" t="s">
@@ -13360,7 +13358,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="114"/>
+      <c r="B20" s="117"/>
       <c r="C20" s="28" t="s">
         <v>154</v>
       </c>
@@ -13381,7 +13379,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="114"/>
+      <c r="B21" s="117"/>
       <c r="C21" s="28" t="s">
         <v>155</v>
       </c>
@@ -13402,7 +13400,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="114" t="s">
+      <c r="B22" s="117" t="s">
         <v>109</v>
       </c>
       <c r="C22" s="28" t="s">
@@ -13425,7 +13423,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="114"/>
+      <c r="B23" s="117"/>
       <c r="C23" s="28" t="s">
         <v>154</v>
       </c>
@@ -13446,7 +13444,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="114"/>
+      <c r="B24" s="117"/>
       <c r="C24" s="28" t="s">
         <v>155</v>
       </c>
@@ -13467,7 +13465,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="114" t="s">
+      <c r="B25" s="117" t="s">
         <v>96</v>
       </c>
       <c r="C25" s="28" t="s">
@@ -13490,7 +13488,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="114"/>
+      <c r="B26" s="117"/>
       <c r="C26" s="28" t="s">
         <v>154</v>
       </c>
@@ -13511,7 +13509,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="114"/>
+      <c r="B27" s="117"/>
       <c r="C27" s="28" t="s">
         <v>155</v>
       </c>
@@ -13532,7 +13530,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="114" t="s">
+      <c r="B28" s="117" t="s">
         <v>97</v>
       </c>
       <c r="C28" s="28" t="s">
@@ -13555,7 +13553,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="114"/>
+      <c r="B29" s="117"/>
       <c r="C29" s="28" t="s">
         <v>154</v>
       </c>
@@ -13576,7 +13574,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="114"/>
+      <c r="B30" s="117"/>
       <c r="C30" s="28" t="s">
         <v>155</v>
       </c>
@@ -13597,7 +13595,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="114" t="s">
+      <c r="B31" s="117" t="s">
         <v>98</v>
       </c>
       <c r="C31" s="28" t="s">
@@ -13620,7 +13618,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="114"/>
+      <c r="B32" s="117"/>
       <c r="C32" s="28" t="s">
         <v>154</v>
       </c>
@@ -13641,7 +13639,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="114"/>
+      <c r="B33" s="117"/>
       <c r="C33" s="28" t="s">
         <v>155</v>
       </c>
@@ -13661,7 +13659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B34" s="77" t="s">
         <v>156</v>
       </c>
@@ -13691,11 +13689,11 @@
       <c r="G35" s="101"/>
       <c r="H35" s="101"/>
     </row>
-    <row r="36" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="78" t="s">
         <v>234</v>
       </c>
-      <c r="B36" s="114" t="s">
+      <c r="B36" s="117" t="s">
         <v>100</v>
       </c>
       <c r="C36" s="28" t="s">
@@ -13718,7 +13716,7 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B37" s="114"/>
+      <c r="B37" s="117"/>
       <c r="C37" s="28" t="s">
         <v>154</v>
       </c>
@@ -13739,7 +13737,7 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B38" s="114"/>
+      <c r="B38" s="117"/>
       <c r="C38" s="28" t="s">
         <v>155</v>
       </c>
@@ -13760,7 +13758,7 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B39" s="114" t="s">
+      <c r="B39" s="117" t="s">
         <v>109</v>
       </c>
       <c r="C39" s="28" t="s">
@@ -13783,7 +13781,7 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B40" s="114"/>
+      <c r="B40" s="117"/>
       <c r="C40" s="28" t="s">
         <v>154</v>
       </c>
@@ -13804,7 +13802,7 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B41" s="114"/>
+      <c r="B41" s="117"/>
       <c r="C41" s="28" t="s">
         <v>155</v>
       </c>
@@ -13825,7 +13823,7 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B42" s="114" t="s">
+      <c r="B42" s="117" t="s">
         <v>96</v>
       </c>
       <c r="C42" s="28" t="s">
@@ -13848,7 +13846,7 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B43" s="114"/>
+      <c r="B43" s="117"/>
       <c r="C43" s="28" t="s">
         <v>154</v>
       </c>
@@ -13869,7 +13867,7 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B44" s="114"/>
+      <c r="B44" s="117"/>
       <c r="C44" s="28" t="s">
         <v>155</v>
       </c>
@@ -13890,7 +13888,7 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B45" s="114" t="s">
+      <c r="B45" s="117" t="s">
         <v>97</v>
       </c>
       <c r="C45" s="28" t="s">
@@ -13913,7 +13911,7 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B46" s="114"/>
+      <c r="B46" s="117"/>
       <c r="C46" s="28" t="s">
         <v>154</v>
       </c>
@@ -13934,7 +13932,7 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B47" s="114"/>
+      <c r="B47" s="117"/>
       <c r="C47" s="28" t="s">
         <v>155</v>
       </c>
@@ -13955,7 +13953,7 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B48" s="114" t="s">
+      <c r="B48" s="117" t="s">
         <v>98</v>
       </c>
       <c r="C48" s="28" t="s">
@@ -13978,7 +13976,7 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B49" s="114"/>
+      <c r="B49" s="117"/>
       <c r="C49" s="28" t="s">
         <v>154</v>
       </c>
@@ -13999,7 +13997,7 @@
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B50" s="114"/>
+      <c r="B50" s="117"/>
       <c r="C50" s="28" t="s">
         <v>155</v>
       </c>
@@ -14019,7 +14017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B51" s="77" t="s">
         <v>156</v>
       </c>
@@ -14042,7 +14040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="107" t="s">
         <v>235</v>
       </c>
@@ -14054,7 +14052,7 @@
       <c r="G53" s="107"/>
       <c r="H53" s="107"/>
     </row>
-    <row r="54" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="30" t="s">
         <v>231</v>
       </c>
@@ -14080,11 +14078,11 @@
         <v>99</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="30" t="s">
         <v>236</v>
       </c>
-      <c r="B55" s="114" t="s">
+      <c r="B55" s="117" t="s">
         <v>100</v>
       </c>
       <c r="C55" s="28" t="s">
@@ -14112,7 +14110,7 @@
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B56" s="114"/>
+      <c r="B56" s="117"/>
       <c r="C56" s="28" t="s">
         <v>154</v>
       </c>
@@ -14138,7 +14136,7 @@
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B57" s="114"/>
+      <c r="B57" s="117"/>
       <c r="C57" s="28" t="s">
         <v>155</v>
       </c>
@@ -14164,7 +14162,7 @@
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B58" s="114" t="s">
+      <c r="B58" s="117" t="s">
         <v>109</v>
       </c>
       <c r="C58" s="28" t="s">
@@ -14192,7 +14190,7 @@
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B59" s="114"/>
+      <c r="B59" s="117"/>
       <c r="C59" s="28" t="s">
         <v>154</v>
       </c>
@@ -14218,7 +14216,7 @@
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B60" s="114"/>
+      <c r="B60" s="117"/>
       <c r="C60" s="28" t="s">
         <v>155</v>
       </c>
@@ -14244,7 +14242,7 @@
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B61" s="114" t="s">
+      <c r="B61" s="117" t="s">
         <v>96</v>
       </c>
       <c r="C61" s="28" t="s">
@@ -14272,7 +14270,7 @@
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B62" s="114"/>
+      <c r="B62" s="117"/>
       <c r="C62" s="28" t="s">
         <v>154</v>
       </c>
@@ -14298,7 +14296,7 @@
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B63" s="114"/>
+      <c r="B63" s="117"/>
       <c r="C63" s="28" t="s">
         <v>155</v>
       </c>
@@ -14324,7 +14322,7 @@
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B64" s="114" t="s">
+      <c r="B64" s="117" t="s">
         <v>97</v>
       </c>
       <c r="C64" s="28" t="s">
@@ -14352,7 +14350,7 @@
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B65" s="114"/>
+      <c r="B65" s="117"/>
       <c r="C65" s="28" t="s">
         <v>154</v>
       </c>
@@ -14378,7 +14376,7 @@
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B66" s="114"/>
+      <c r="B66" s="117"/>
       <c r="C66" s="28" t="s">
         <v>155</v>
       </c>
@@ -14404,7 +14402,7 @@
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B67" s="114" t="s">
+      <c r="B67" s="117" t="s">
         <v>98</v>
       </c>
       <c r="C67" s="28" t="s">
@@ -14432,7 +14430,7 @@
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B68" s="114"/>
+      <c r="B68" s="117"/>
       <c r="C68" s="28" t="s">
         <v>154</v>
       </c>
@@ -14458,7 +14456,7 @@
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B69" s="114"/>
+      <c r="B69" s="117"/>
       <c r="C69" s="28" t="s">
         <v>155</v>
       </c>
@@ -14483,7 +14481,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B70" s="77" t="s">
         <v>156</v>
       </c>
@@ -14518,11 +14516,11 @@
       <c r="G71" s="101"/>
       <c r="H71" s="101"/>
     </row>
-    <row r="72" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="30" t="s">
         <v>237</v>
       </c>
-      <c r="B72" s="114" t="s">
+      <c r="B72" s="117" t="s">
         <v>100</v>
       </c>
       <c r="C72" s="28" t="s">
@@ -14550,7 +14548,7 @@
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B73" s="114"/>
+      <c r="B73" s="117"/>
       <c r="C73" s="28" t="s">
         <v>154</v>
       </c>
@@ -14576,7 +14574,7 @@
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B74" s="114"/>
+      <c r="B74" s="117"/>
       <c r="C74" s="28" t="s">
         <v>155</v>
       </c>
@@ -14602,7 +14600,7 @@
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B75" s="114" t="s">
+      <c r="B75" s="117" t="s">
         <v>109</v>
       </c>
       <c r="C75" s="28" t="s">
@@ -14630,7 +14628,7 @@
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B76" s="114"/>
+      <c r="B76" s="117"/>
       <c r="C76" s="28" t="s">
         <v>154</v>
       </c>
@@ -14656,7 +14654,7 @@
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B77" s="114"/>
+      <c r="B77" s="117"/>
       <c r="C77" s="28" t="s">
         <v>155</v>
       </c>
@@ -14682,7 +14680,7 @@
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B78" s="114" t="s">
+      <c r="B78" s="117" t="s">
         <v>96</v>
       </c>
       <c r="C78" s="28" t="s">
@@ -14710,7 +14708,7 @@
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B79" s="114"/>
+      <c r="B79" s="117"/>
       <c r="C79" s="28" t="s">
         <v>154</v>
       </c>
@@ -14736,7 +14734,7 @@
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B80" s="114"/>
+      <c r="B80" s="117"/>
       <c r="C80" s="28" t="s">
         <v>155</v>
       </c>
@@ -14762,7 +14760,7 @@
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B81" s="114" t="s">
+      <c r="B81" s="117" t="s">
         <v>97</v>
       </c>
       <c r="C81" s="28" t="s">
@@ -14790,7 +14788,7 @@
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B82" s="114"/>
+      <c r="B82" s="117"/>
       <c r="C82" s="28" t="s">
         <v>154</v>
       </c>
@@ -14816,7 +14814,7 @@
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B83" s="114"/>
+      <c r="B83" s="117"/>
       <c r="C83" s="28" t="s">
         <v>155</v>
       </c>
@@ -14842,7 +14840,7 @@
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B84" s="114" t="s">
+      <c r="B84" s="117" t="s">
         <v>98</v>
       </c>
       <c r="C84" s="28" t="s">
@@ -14870,7 +14868,7 @@
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B85" s="114"/>
+      <c r="B85" s="117"/>
       <c r="C85" s="28" t="s">
         <v>154</v>
       </c>
@@ -14896,7 +14894,7 @@
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B86" s="114"/>
+      <c r="B86" s="117"/>
       <c r="C86" s="28" t="s">
         <v>155</v>
       </c>
@@ -14921,7 +14919,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B87" s="77" t="s">
         <v>156</v>
       </c>
@@ -14956,11 +14954,11 @@
       <c r="G88" s="101"/>
       <c r="H88" s="101"/>
     </row>
-    <row r="89" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="78" t="s">
         <v>238</v>
       </c>
-      <c r="B89" s="114" t="s">
+      <c r="B89" s="117" t="s">
         <v>100</v>
       </c>
       <c r="C89" s="28" t="s">
@@ -14988,7 +14986,7 @@
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B90" s="114"/>
+      <c r="B90" s="117"/>
       <c r="C90" s="28" t="s">
         <v>154</v>
       </c>
@@ -15014,7 +15012,7 @@
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B91" s="114"/>
+      <c r="B91" s="117"/>
       <c r="C91" s="28" t="s">
         <v>155</v>
       </c>
@@ -15040,7 +15038,7 @@
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B92" s="114" t="s">
+      <c r="B92" s="117" t="s">
         <v>109</v>
       </c>
       <c r="C92" s="28" t="s">
@@ -15068,7 +15066,7 @@
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B93" s="114"/>
+      <c r="B93" s="117"/>
       <c r="C93" s="28" t="s">
         <v>154</v>
       </c>
@@ -15094,7 +15092,7 @@
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B94" s="114"/>
+      <c r="B94" s="117"/>
       <c r="C94" s="28" t="s">
         <v>155</v>
       </c>
@@ -15120,7 +15118,7 @@
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B95" s="114" t="s">
+      <c r="B95" s="117" t="s">
         <v>96</v>
       </c>
       <c r="C95" s="28" t="s">
@@ -15148,7 +15146,7 @@
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B96" s="114"/>
+      <c r="B96" s="117"/>
       <c r="C96" s="28" t="s">
         <v>154</v>
       </c>
@@ -15174,7 +15172,7 @@
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B97" s="114"/>
+      <c r="B97" s="117"/>
       <c r="C97" s="28" t="s">
         <v>155</v>
       </c>
@@ -15200,7 +15198,7 @@
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B98" s="114" t="s">
+      <c r="B98" s="117" t="s">
         <v>97</v>
       </c>
       <c r="C98" s="28" t="s">
@@ -15228,7 +15226,7 @@
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B99" s="114"/>
+      <c r="B99" s="117"/>
       <c r="C99" s="28" t="s">
         <v>154</v>
       </c>
@@ -15254,7 +15252,7 @@
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B100" s="114"/>
+      <c r="B100" s="117"/>
       <c r="C100" s="28" t="s">
         <v>155</v>
       </c>
@@ -15280,7 +15278,7 @@
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B101" s="114" t="s">
+      <c r="B101" s="117" t="s">
         <v>98</v>
       </c>
       <c r="C101" s="28" t="s">
@@ -15308,7 +15306,7 @@
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B102" s="114"/>
+      <c r="B102" s="117"/>
       <c r="C102" s="28" t="s">
         <v>154</v>
       </c>
@@ -15334,7 +15332,7 @@
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B103" s="114"/>
+      <c r="B103" s="117"/>
       <c r="C103" s="28" t="s">
         <v>155</v>
       </c>
@@ -15359,7 +15357,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B104" s="77" t="s">
         <v>156</v>
       </c>
@@ -15387,7 +15385,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="107" t="s">
         <v>239</v>
       </c>
@@ -15399,7 +15397,7 @@
       <c r="G106" s="107"/>
       <c r="H106" s="107"/>
     </row>
-    <row r="107" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="30" t="s">
         <v>231</v>
       </c>
@@ -15425,11 +15423,11 @@
         <v>99</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="30" t="s">
         <v>240</v>
       </c>
-      <c r="B108" s="114" t="s">
+      <c r="B108" s="117" t="s">
         <v>100</v>
       </c>
       <c r="C108" s="28" t="s">
@@ -15457,7 +15455,7 @@
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B109" s="114"/>
+      <c r="B109" s="117"/>
       <c r="C109" s="28" t="s">
         <v>154</v>
       </c>
@@ -15483,7 +15481,7 @@
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B110" s="114"/>
+      <c r="B110" s="117"/>
       <c r="C110" s="28" t="s">
         <v>155</v>
       </c>
@@ -15509,7 +15507,7 @@
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B111" s="114" t="s">
+      <c r="B111" s="117" t="s">
         <v>109</v>
       </c>
       <c r="C111" s="28" t="s">
@@ -15537,7 +15535,7 @@
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B112" s="114"/>
+      <c r="B112" s="117"/>
       <c r="C112" s="28" t="s">
         <v>154</v>
       </c>
@@ -15563,7 +15561,7 @@
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B113" s="114"/>
+      <c r="B113" s="117"/>
       <c r="C113" s="28" t="s">
         <v>155</v>
       </c>
@@ -15589,7 +15587,7 @@
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B114" s="114" t="s">
+      <c r="B114" s="117" t="s">
         <v>96</v>
       </c>
       <c r="C114" s="28" t="s">
@@ -15617,7 +15615,7 @@
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B115" s="114"/>
+      <c r="B115" s="117"/>
       <c r="C115" s="28" t="s">
         <v>154</v>
       </c>
@@ -15643,7 +15641,7 @@
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B116" s="114"/>
+      <c r="B116" s="117"/>
       <c r="C116" s="28" t="s">
         <v>155</v>
       </c>
@@ -15669,7 +15667,7 @@
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B117" s="114" t="s">
+      <c r="B117" s="117" t="s">
         <v>97</v>
       </c>
       <c r="C117" s="28" t="s">
@@ -15697,7 +15695,7 @@
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B118" s="114"/>
+      <c r="B118" s="117"/>
       <c r="C118" s="28" t="s">
         <v>154</v>
       </c>
@@ -15723,7 +15721,7 @@
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B119" s="114"/>
+      <c r="B119" s="117"/>
       <c r="C119" s="28" t="s">
         <v>155</v>
       </c>
@@ -15749,7 +15747,7 @@
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B120" s="114" t="s">
+      <c r="B120" s="117" t="s">
         <v>98</v>
       </c>
       <c r="C120" s="28" t="s">
@@ -15777,7 +15775,7 @@
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B121" s="114"/>
+      <c r="B121" s="117"/>
       <c r="C121" s="28" t="s">
         <v>154</v>
       </c>
@@ -15803,7 +15801,7 @@
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B122" s="114"/>
+      <c r="B122" s="117"/>
       <c r="C122" s="28" t="s">
         <v>155</v>
       </c>
@@ -15828,7 +15826,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B123" s="77" t="s">
         <v>156</v>
       </c>
@@ -15863,11 +15861,11 @@
       <c r="G124" s="101"/>
       <c r="H124" s="101"/>
     </row>
-    <row r="125" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="30" t="s">
         <v>241</v>
       </c>
-      <c r="B125" s="114" t="s">
+      <c r="B125" s="117" t="s">
         <v>100</v>
       </c>
       <c r="C125" s="28" t="s">
@@ -15895,7 +15893,7 @@
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B126" s="114"/>
+      <c r="B126" s="117"/>
       <c r="C126" s="28" t="s">
         <v>154</v>
       </c>
@@ -15921,7 +15919,7 @@
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B127" s="114"/>
+      <c r="B127" s="117"/>
       <c r="C127" s="28" t="s">
         <v>155</v>
       </c>
@@ -15947,7 +15945,7 @@
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B128" s="114" t="s">
+      <c r="B128" s="117" t="s">
         <v>109</v>
       </c>
       <c r="C128" s="28" t="s">
@@ -15975,7 +15973,7 @@
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B129" s="114"/>
+      <c r="B129" s="117"/>
       <c r="C129" s="28" t="s">
         <v>154</v>
       </c>
@@ -16001,7 +15999,7 @@
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B130" s="114"/>
+      <c r="B130" s="117"/>
       <c r="C130" s="28" t="s">
         <v>155</v>
       </c>
@@ -16027,7 +16025,7 @@
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B131" s="114" t="s">
+      <c r="B131" s="117" t="s">
         <v>96</v>
       </c>
       <c r="C131" s="28" t="s">
@@ -16055,7 +16053,7 @@
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B132" s="114"/>
+      <c r="B132" s="117"/>
       <c r="C132" s="28" t="s">
         <v>154</v>
       </c>
@@ -16081,7 +16079,7 @@
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B133" s="114"/>
+      <c r="B133" s="117"/>
       <c r="C133" s="28" t="s">
         <v>155</v>
       </c>
@@ -16107,7 +16105,7 @@
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B134" s="114" t="s">
+      <c r="B134" s="117" t="s">
         <v>97</v>
       </c>
       <c r="C134" s="28" t="s">
@@ -16135,7 +16133,7 @@
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B135" s="114"/>
+      <c r="B135" s="117"/>
       <c r="C135" s="28" t="s">
         <v>154</v>
       </c>
@@ -16161,7 +16159,7 @@
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B136" s="114"/>
+      <c r="B136" s="117"/>
       <c r="C136" s="28" t="s">
         <v>155</v>
       </c>
@@ -16187,7 +16185,7 @@
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B137" s="114" t="s">
+      <c r="B137" s="117" t="s">
         <v>98</v>
       </c>
       <c r="C137" s="28" t="s">
@@ -16215,7 +16213,7 @@
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B138" s="114"/>
+      <c r="B138" s="117"/>
       <c r="C138" s="28" t="s">
         <v>154</v>
       </c>
@@ -16241,7 +16239,7 @@
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B139" s="114"/>
+      <c r="B139" s="117"/>
       <c r="C139" s="28" t="s">
         <v>155</v>
       </c>
@@ -16266,7 +16264,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="140" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B140" s="77" t="s">
         <v>156</v>
       </c>
@@ -16301,11 +16299,11 @@
       <c r="G141" s="101"/>
       <c r="H141" s="101"/>
     </row>
-    <row r="142" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="78" t="s">
         <v>242</v>
       </c>
-      <c r="B142" s="114" t="s">
+      <c r="B142" s="117" t="s">
         <v>100</v>
       </c>
       <c r="C142" s="28" t="s">
@@ -16333,7 +16331,7 @@
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B143" s="114"/>
+      <c r="B143" s="117"/>
       <c r="C143" s="28" t="s">
         <v>154</v>
       </c>
@@ -16359,7 +16357,7 @@
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B144" s="114"/>
+      <c r="B144" s="117"/>
       <c r="C144" s="28" t="s">
         <v>155</v>
       </c>
@@ -16385,7 +16383,7 @@
       </c>
     </row>
     <row r="145" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B145" s="114" t="s">
+      <c r="B145" s="117" t="s">
         <v>109</v>
       </c>
       <c r="C145" s="28" t="s">
@@ -16413,7 +16411,7 @@
       </c>
     </row>
     <row r="146" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B146" s="114"/>
+      <c r="B146" s="117"/>
       <c r="C146" s="28" t="s">
         <v>154</v>
       </c>
@@ -16439,7 +16437,7 @@
       </c>
     </row>
     <row r="147" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B147" s="114"/>
+      <c r="B147" s="117"/>
       <c r="C147" s="28" t="s">
         <v>155</v>
       </c>
@@ -16465,7 +16463,7 @@
       </c>
     </row>
     <row r="148" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B148" s="114" t="s">
+      <c r="B148" s="117" t="s">
         <v>96</v>
       </c>
       <c r="C148" s="28" t="s">
@@ -16493,7 +16491,7 @@
       </c>
     </row>
     <row r="149" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B149" s="114"/>
+      <c r="B149" s="117"/>
       <c r="C149" s="28" t="s">
         <v>154</v>
       </c>
@@ -16519,7 +16517,7 @@
       </c>
     </row>
     <row r="150" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B150" s="114"/>
+      <c r="B150" s="117"/>
       <c r="C150" s="28" t="s">
         <v>155</v>
       </c>
@@ -16545,7 +16543,7 @@
       </c>
     </row>
     <row r="151" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B151" s="114" t="s">
+      <c r="B151" s="117" t="s">
         <v>97</v>
       </c>
       <c r="C151" s="28" t="s">
@@ -16573,7 +16571,7 @@
       </c>
     </row>
     <row r="152" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B152" s="114"/>
+      <c r="B152" s="117"/>
       <c r="C152" s="28" t="s">
         <v>154</v>
       </c>
@@ -16599,7 +16597,7 @@
       </c>
     </row>
     <row r="153" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B153" s="114"/>
+      <c r="B153" s="117"/>
       <c r="C153" s="28" t="s">
         <v>155</v>
       </c>
@@ -16625,7 +16623,7 @@
       </c>
     </row>
     <row r="154" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B154" s="114" t="s">
+      <c r="B154" s="117" t="s">
         <v>98</v>
       </c>
       <c r="C154" s="28" t="s">
@@ -16653,7 +16651,7 @@
       </c>
     </row>
     <row r="155" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B155" s="114"/>
+      <c r="B155" s="117"/>
       <c r="C155" s="28" t="s">
         <v>154</v>
       </c>
@@ -16679,7 +16677,7 @@
       </c>
     </row>
     <row r="156" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B156" s="114"/>
+      <c r="B156" s="117"/>
       <c r="C156" s="28" t="s">
         <v>155</v>
       </c>
@@ -16704,7 +16702,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="157" spans="2:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B157" s="77" t="s">
         <v>156</v>
       </c>
@@ -16735,6 +16733,42 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="d5TbHPQi63nwx2Wq5JJSqukalmMv3C31IJEOC6Ln2RHu+2wV3FQIapEnZTD1R3DDEUxGNC0W0Oqhkaf0Boqebg==" saltValue="VXHqyG/n1ojfTzC/S0zfNA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="45">
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B67:B69"/>
+    <mergeCell ref="B72:B74"/>
+    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="B81:B83"/>
+    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="B108:B110"/>
+    <mergeCell ref="B89:B91"/>
+    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="B95:B97"/>
+    <mergeCell ref="B98:B100"/>
+    <mergeCell ref="B101:B103"/>
+    <mergeCell ref="B111:B113"/>
+    <mergeCell ref="B114:B116"/>
+    <mergeCell ref="B117:B119"/>
+    <mergeCell ref="B120:B122"/>
+    <mergeCell ref="B125:B127"/>
     <mergeCell ref="B145:B147"/>
     <mergeCell ref="B148:B150"/>
     <mergeCell ref="B151:B153"/>
@@ -16744,42 +16778,6 @@
     <mergeCell ref="B134:B136"/>
     <mergeCell ref="B137:B139"/>
     <mergeCell ref="B142:B144"/>
-    <mergeCell ref="B111:B113"/>
-    <mergeCell ref="B114:B116"/>
-    <mergeCell ref="B117:B119"/>
-    <mergeCell ref="B120:B122"/>
-    <mergeCell ref="B125:B127"/>
-    <mergeCell ref="B108:B110"/>
-    <mergeCell ref="B89:B91"/>
-    <mergeCell ref="B92:B94"/>
-    <mergeCell ref="B95:B97"/>
-    <mergeCell ref="B98:B100"/>
-    <mergeCell ref="B101:B103"/>
-    <mergeCell ref="B72:B74"/>
-    <mergeCell ref="B75:B77"/>
-    <mergeCell ref="B78:B80"/>
-    <mergeCell ref="B81:B83"/>
-    <mergeCell ref="B84:B86"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B67:B69"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -16800,22 +16798,22 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.1796875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.21875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.81640625" style="28" customWidth="1"/>
-    <col min="2" max="2" width="34.1796875" style="28" customWidth="1"/>
-    <col min="3" max="3" width="11.26953125" style="28" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.81640625" style="28" customWidth="1"/>
+    <col min="1" max="1" width="23.77734375" style="28" customWidth="1"/>
+    <col min="2" max="2" width="34.21875" style="28" customWidth="1"/>
+    <col min="3" max="3" width="11.21875" style="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.77734375" style="28" customWidth="1"/>
     <col min="5" max="6" width="15" style="28" customWidth="1"/>
-    <col min="7" max="16384" width="16.1796875" style="28"/>
+    <col min="7" max="16384" width="16.21875" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="80" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="80" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="79" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="81"/>
       <c r="C2" s="82" t="s">
         <v>54</v>
@@ -16830,7 +16828,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
         <v>244</v>
       </c>
@@ -16914,7 +16912,7 @@
       <c r="E8" s="76"/>
       <c r="F8" s="76"/>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="30" t="s">
         <v>249</v>
       </c>
@@ -16937,7 +16935,7 @@
       <c r="E10" s="76"/>
       <c r="F10" s="76"/>
     </row>
-    <row r="11" spans="1:6" s="80" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" s="80" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="79" t="s">
         <v>245</v>
       </c>
@@ -16946,7 +16944,7 @@
       <c r="E11" s="89"/>
       <c r="F11" s="89"/>
     </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="30" t="s">
         <v>246</v>
       </c>
@@ -17006,7 +17004,7 @@
         <v>4.1900000000000004</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="30"/>
       <c r="B16" s="46"/>
       <c r="C16" s="90"/>
@@ -17014,7 +17012,7 @@
       <c r="E16" s="76"/>
       <c r="F16" s="76"/>
     </row>
-    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="30" t="s">
         <v>248</v>
       </c>
@@ -17163,7 +17161,7 @@
     <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="46"/>
     </row>
-    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="107" t="s">
         <v>235</v>
       </c>
@@ -17173,12 +17171,12 @@
       <c r="E27" s="110"/>
       <c r="F27" s="110"/>
     </row>
-    <row r="28" spans="1:6" s="80" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" s="80" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="79" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="81"/>
       <c r="C29" s="82" t="s">
         <v>54</v>
@@ -17193,7 +17191,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="30" t="s">
         <v>250</v>
       </c>
@@ -17293,7 +17291,7 @@
       <c r="E35" s="76"/>
       <c r="F35" s="76"/>
     </row>
-    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="30" t="s">
         <v>262</v>
       </c>
@@ -17314,7 +17312,7 @@
         <v>1.071</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="79" t="s">
         <v>245</v>
       </c>
@@ -17324,7 +17322,7 @@
       <c r="E38" s="89"/>
       <c r="F38" s="89"/>
     </row>
-    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="30" t="s">
         <v>251</v>
       </c>
@@ -17396,7 +17394,7 @@
         <v>2.9330000000000003</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="30"/>
       <c r="B43" s="46"/>
       <c r="C43" s="90"/>
@@ -17404,7 +17402,7 @@
       <c r="E43" s="76"/>
       <c r="F43" s="76"/>
     </row>
-    <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="30" t="s">
         <v>252</v>
       </c>
@@ -17582,7 +17580,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="107" t="s">
         <v>239</v>
       </c>
@@ -17592,12 +17590,12 @@
       <c r="E54" s="110"/>
       <c r="F54" s="110"/>
     </row>
-    <row r="55" spans="1:6" s="80" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" s="80" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="79" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="81"/>
       <c r="C56" s="82" t="s">
         <v>54</v>
@@ -17612,7 +17610,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="30" t="s">
         <v>253</v>
       </c>
@@ -17712,7 +17710,7 @@
       <c r="E62" s="76"/>
       <c r="F62" s="76"/>
     </row>
-    <row r="63" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="30" t="s">
         <v>263</v>
       </c>
@@ -17733,7 +17731,7 @@
         <v>1.9890000000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="79" t="s">
         <v>245</v>
       </c>
@@ -17743,7 +17741,7 @@
       <c r="E65" s="89"/>
       <c r="F65" s="89"/>
     </row>
-    <row r="66" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="30" t="s">
         <v>254</v>
       </c>
@@ -17815,7 +17813,7 @@
         <v>5.447000000000001</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="30"/>
       <c r="B70" s="46"/>
       <c r="C70" s="90"/>
@@ -17823,7 +17821,7 @@
       <c r="E70" s="76"/>
       <c r="F70" s="76"/>
     </row>
-    <row r="71" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="30" t="s">
         <v>255</v>
       </c>
@@ -18022,23 +18020,23 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7265625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.26953125" style="28" customWidth="1"/>
-    <col min="2" max="2" width="26.81640625" style="28" customWidth="1"/>
-    <col min="3" max="3" width="18.26953125" style="28" customWidth="1"/>
-    <col min="4" max="8" width="14.7265625" style="28" customWidth="1"/>
-    <col min="9" max="12" width="15.26953125" style="28" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="16.81640625" style="28" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="12.7265625" style="28"/>
+    <col min="1" max="1" width="27.21875" style="28" customWidth="1"/>
+    <col min="2" max="2" width="26.77734375" style="28" customWidth="1"/>
+    <col min="3" max="3" width="18.21875" style="28" customWidth="1"/>
+    <col min="4" max="8" width="14.77734375" style="28" customWidth="1"/>
+    <col min="9" max="12" width="15.21875" style="28" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="16.77734375" style="28" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="12.77734375" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="80" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" s="80" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="79" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="93" t="s">
         <v>226</v>
       </c>
@@ -18072,7 +18070,7 @@
       <c r="O2" s="94"/>
       <c r="P2" s="94"/>
     </row>
-    <row r="3" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="30"/>
       <c r="B3" s="28" t="s">
         <v>87</v>
@@ -18505,7 +18503,7 @@
       <c r="O17" s="93"/>
       <c r="P17" s="93"/>
     </row>
-    <row r="18" spans="1:16" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="32" t="s">
         <v>269</v>
       </c>
@@ -18763,12 +18761,12 @@
       <c r="O26" s="93"/>
       <c r="P26" s="93"/>
     </row>
-    <row r="28" spans="1:16" s="80" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" s="80" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="79" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="93" t="s">
         <v>279</v>
       </c>
@@ -18802,7 +18800,7 @@
       <c r="O29" s="94"/>
       <c r="P29" s="94"/>
     </row>
-    <row r="30" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="30"/>
       <c r="B30" s="28" t="s">
         <v>87</v>
@@ -19497,12 +19495,12 @@
       <c r="C54" s="32"/>
       <c r="D54" s="32"/>
     </row>
-    <row r="55" spans="1:16" s="80" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:16" s="80" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="79" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="56" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A56" s="93" t="s">
         <v>121</v>
       </c>
@@ -19530,7 +19528,7 @@
       <c r="O56" s="94"/>
       <c r="P56" s="94"/>
     </row>
-    <row r="57" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="30"/>
       <c r="B57" s="28" t="s">
         <v>101</v>
@@ -19676,12 +19674,12 @@
       <c r="C63" s="32"/>
       <c r="D63" s="32"/>
     </row>
-    <row r="64" spans="1:16" s="80" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:16" s="80" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="79" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="65" spans="1:16" ht="26" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:16" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A65" s="93" t="s">
         <v>128</v>
       </c>
@@ -19715,7 +19713,7 @@
       <c r="O65" s="94"/>
       <c r="P65" s="94"/>
     </row>
-    <row r="66" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="97"/>
       <c r="B66" s="28" t="s">
         <v>78</v>
@@ -20751,12 +20749,12 @@
       <c r="O101" s="93"/>
       <c r="P101" s="93"/>
     </row>
-    <row r="103" spans="1:16" s="80" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:16" s="80" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="79" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="104" spans="1:16" ht="26" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:16" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A104" s="93" t="s">
         <v>87</v>
       </c>
@@ -20790,7 +20788,7 @@
       <c r="O104" s="94"/>
       <c r="P104" s="94"/>
     </row>
-    <row r="105" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A105" s="30"/>
       <c r="C105" s="32" t="s">
         <v>129</v>
@@ -20903,13 +20901,13 @@
       <c r="O108" s="93"/>
       <c r="P108" s="93"/>
     </row>
-    <row r="110" spans="1:16" s="108" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:16" s="108" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="107" t="s">
         <v>235</v>
       </c>
       <c r="H110" s="107"/>
     </row>
-    <row r="111" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A111" s="79" t="s">
         <v>264</v>
       </c>
@@ -20921,7 +20919,7 @@
       <c r="G111" s="80"/>
       <c r="H111" s="80"/>
     </row>
-    <row r="112" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A112" s="93" t="s">
         <v>226</v>
       </c>
@@ -20947,7 +20945,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="30"/>
       <c r="B113" s="28" t="s">
         <v>87</v>
@@ -21566,7 +21564,7 @@
         <v>2.4079999999999999</v>
       </c>
     </row>
-    <row r="138" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="79" t="s">
         <v>278</v>
       </c>
@@ -21578,7 +21576,7 @@
       <c r="G138" s="80"/>
       <c r="H138" s="80"/>
     </row>
-    <row r="139" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="93" t="s">
         <v>279</v>
       </c>
@@ -21604,7 +21602,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="140" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="30"/>
       <c r="B140" s="28" t="s">
         <v>87</v>
@@ -22227,7 +22225,7 @@
       <c r="C164" s="32"/>
       <c r="D164" s="32"/>
     </row>
-    <row r="165" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="79" t="s">
         <v>271</v>
       </c>
@@ -22239,7 +22237,7 @@
       <c r="G165" s="80"/>
       <c r="H165" s="80"/>
     </row>
-    <row r="166" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A166" s="93" t="s">
         <v>121</v>
       </c>
@@ -22263,7 +22261,7 @@
       </c>
       <c r="H166" s="94"/>
     </row>
-    <row r="167" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="30"/>
       <c r="B167" s="28" t="s">
         <v>101</v>
@@ -22409,7 +22407,7 @@
       <c r="C173" s="32"/>
       <c r="D173" s="32"/>
     </row>
-    <row r="174" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" s="79" t="s">
         <v>275</v>
       </c>
@@ -22421,7 +22419,7 @@
       <c r="G174" s="80"/>
       <c r="H174" s="80"/>
     </row>
-    <row r="175" spans="1:8" ht="26" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A175" s="93" t="s">
         <v>128</v>
       </c>
@@ -22447,7 +22445,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="176" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" s="97"/>
       <c r="B176" s="28" t="s">
         <v>78</v>
@@ -23339,7 +23337,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="213" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" s="79" t="s">
         <v>277</v>
       </c>
@@ -23351,7 +23349,7 @@
       <c r="G213" s="80"/>
       <c r="H213" s="80"/>
     </row>
-    <row r="214" spans="1:9" ht="26" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A214" s="93" t="s">
         <v>87</v>
       </c>
@@ -23377,7 +23375,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="215" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" s="30"/>
       <c r="C215" s="32" t="s">
         <v>129</v>
@@ -23474,13 +23472,13 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="220" spans="1:9" s="108" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:9" s="108" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A220" s="107" t="s">
         <v>239</v>
       </c>
       <c r="H220" s="107"/>
     </row>
-    <row r="221" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" s="79" t="s">
         <v>264</v>
       </c>
@@ -23493,7 +23491,7 @@
       <c r="H221" s="80"/>
       <c r="I221" s="80"/>
     </row>
-    <row r="222" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" s="93" t="s">
         <v>226</v>
       </c>
@@ -23520,7 +23518,7 @@
       </c>
       <c r="I222" s="94"/>
     </row>
-    <row r="223" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" s="30"/>
       <c r="B223" s="28" t="s">
         <v>87</v>
@@ -24163,7 +24161,7 @@
       </c>
       <c r="I246" s="93"/>
     </row>
-    <row r="248" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248" s="79" t="s">
         <v>278</v>
       </c>
@@ -24176,7 +24174,7 @@
       <c r="H248" s="80"/>
       <c r="I248" s="80"/>
     </row>
-    <row r="249" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249" s="93" t="s">
         <v>279</v>
       </c>
@@ -24203,7 +24201,7 @@
       </c>
       <c r="I249" s="94"/>
     </row>
-    <row r="250" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250" s="30"/>
       <c r="B250" s="28" t="s">
         <v>87</v>
@@ -24850,7 +24848,7 @@
       <c r="C274" s="32"/>
       <c r="D274" s="32"/>
     </row>
-    <row r="275" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A275" s="79" t="s">
         <v>271</v>
       </c>
@@ -24863,7 +24861,7 @@
       <c r="H275" s="80"/>
       <c r="I275" s="80"/>
     </row>
-    <row r="276" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A276" s="93" t="s">
         <v>121</v>
       </c>
@@ -24887,7 +24885,7 @@
       </c>
       <c r="H276" s="94"/>
     </row>
-    <row r="277" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A277" s="30"/>
       <c r="B277" s="28" t="s">
         <v>101</v>
@@ -25033,7 +25031,7 @@
       <c r="C283" s="32"/>
       <c r="D283" s="32"/>
     </row>
-    <row r="284" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A284" s="79" t="s">
         <v>275</v>
       </c>
@@ -25046,7 +25044,7 @@
       <c r="H284" s="80"/>
       <c r="I284" s="80"/>
     </row>
-    <row r="285" spans="1:9" ht="26" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A285" s="93" t="s">
         <v>128</v>
       </c>
@@ -25073,7 +25071,7 @@
       </c>
       <c r="I285" s="94"/>
     </row>
-    <row r="286" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A286" s="97"/>
       <c r="B286" s="28" t="s">
         <v>78</v>
@@ -26001,7 +25999,7 @@
       </c>
       <c r="I321" s="93"/>
     </row>
-    <row r="323" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A323" s="79" t="s">
         <v>277</v>
       </c>
@@ -26014,7 +26012,7 @@
       <c r="H323" s="80"/>
       <c r="I323" s="80"/>
     </row>
-    <row r="324" spans="1:9" ht="26" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A324" s="93" t="s">
         <v>87</v>
       </c>
@@ -26041,7 +26039,7 @@
       </c>
       <c r="I324" s="94"/>
     </row>
-    <row r="325" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A325" s="30"/>
       <c r="C325" s="32" t="s">
         <v>129</v>
@@ -26163,24 +26161,24 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7265625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.81640625" style="28" customWidth="1"/>
-    <col min="2" max="2" width="44.453125" style="28" customWidth="1"/>
-    <col min="3" max="3" width="17.7265625" style="28" customWidth="1"/>
-    <col min="4" max="4" width="17.54296875" style="28" customWidth="1"/>
-    <col min="5" max="5" width="17.26953125" style="28" customWidth="1"/>
+    <col min="1" max="1" width="44.77734375" style="28" customWidth="1"/>
+    <col min="2" max="2" width="44.44140625" style="28" customWidth="1"/>
+    <col min="3" max="3" width="17.77734375" style="28" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" style="28" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="28" customWidth="1"/>
     <col min="6" max="6" width="15" style="28" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="28" customWidth="1"/>
-    <col min="8" max="16384" width="12.7265625" style="28"/>
+    <col min="7" max="7" width="13.77734375" style="28" customWidth="1"/>
+    <col min="8" max="16384" width="12.77734375" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="80" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="80" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="79" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="97" t="s">
         <v>0</v>
       </c>
@@ -26221,7 +26219,7 @@
         <v>174.7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="30"/>
       <c r="B4" s="73" t="s">
         <v>281</v>
@@ -26242,7 +26240,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="84" t="s">
         <v>282</v>
       </c>
@@ -26335,12 +26333,12 @@
       <c r="F10" s="73"/>
       <c r="G10" s="73"/>
     </row>
-    <row r="11" spans="1:7" s="80" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" s="80" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="79" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="84"/>
       <c r="B12" s="46" t="s">
         <v>184</v>
@@ -26361,16 +26359,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="84"/>
       <c r="B13" s="46"/>
     </row>
-    <row r="14" spans="1:7" s="80" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" s="80" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="79" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="97" t="s">
         <v>279</v>
       </c>
@@ -26393,7 +26391,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="30"/>
       <c r="B16" s="73" t="s">
         <v>287</v>
@@ -26414,7 +26412,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="97" t="s">
         <v>121</v>
       </c>
@@ -26438,12 +26436,12 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="1:7" s="80" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" s="80" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="79" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="84" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" s="84" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="44" t="s">
         <v>69</v>
       </c>
@@ -26474,12 +26472,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="107" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" s="107" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="107" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="79" t="s">
         <v>233</v>
       </c>
@@ -26490,7 +26488,7 @@
       <c r="F24" s="80"/>
       <c r="G24" s="80"/>
     </row>
-    <row r="25" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="97" t="s">
         <v>0</v>
       </c>
@@ -26535,7 +26533,7 @@
         <v>157.22999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="30"/>
       <c r="B27" s="73" t="s">
         <v>290</v>
@@ -26561,7 +26559,7 @@
         <v>0.92249999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="84" t="s">
         <v>291</v>
       </c>
@@ -26674,7 +26672,7 @@
       <c r="F33" s="73"/>
       <c r="G33" s="73"/>
     </row>
-    <row r="34" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="79" t="s">
         <v>295</v>
       </c>
@@ -26685,7 +26683,7 @@
       <c r="F34" s="80"/>
       <c r="G34" s="80"/>
     </row>
-    <row r="35" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="84"/>
       <c r="B35" s="46" t="s">
         <v>296</v>
@@ -26708,11 +26706,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="84"/>
       <c r="B36" s="46"/>
     </row>
-    <row r="37" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="79" t="s">
         <v>283</v>
       </c>
@@ -26723,7 +26721,7 @@
       <c r="F37" s="80"/>
       <c r="G37" s="80"/>
     </row>
-    <row r="38" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="97" t="s">
         <v>279</v>
       </c>
@@ -26751,7 +26749,7 @@
         <v>0.92249999999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="30"/>
       <c r="B39" s="73" t="s">
         <v>298</v>
@@ -26777,7 +26775,7 @@
         <v>0.92249999999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="97" t="s">
         <v>121</v>
       </c>
@@ -26805,7 +26803,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="79" t="s">
         <v>300</v>
       </c>
@@ -26816,7 +26814,7 @@
       <c r="F42" s="80"/>
       <c r="G42" s="80"/>
     </row>
-    <row r="43" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="84"/>
       <c r="B43" s="84"/>
       <c r="C43" s="44" t="s">
@@ -26854,12 +26852,12 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="46" spans="1:7" s="107" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" s="107" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="107" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="79" t="s">
         <v>233</v>
       </c>
@@ -26870,7 +26868,7 @@
       <c r="F47" s="80"/>
       <c r="G47" s="80"/>
     </row>
-    <row r="48" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="97" t="s">
         <v>0</v>
       </c>
@@ -26915,7 +26913,7 @@
         <v>183.435</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="30"/>
       <c r="B50" s="73" t="s">
         <v>303</v>
@@ -26941,7 +26939,7 @@
         <v>1.0762499999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="84" t="s">
         <v>304</v>
       </c>
@@ -27054,7 +27052,7 @@
       <c r="F56" s="73"/>
       <c r="G56" s="73"/>
     </row>
-    <row r="57" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="79" t="s">
         <v>308</v>
       </c>
@@ -27065,7 +27063,7 @@
       <c r="F57" s="80"/>
       <c r="G57" s="80"/>
     </row>
-    <row r="58" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="84"/>
       <c r="B58" s="46" t="s">
         <v>309</v>
@@ -27088,11 +27086,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="84"/>
       <c r="B59" s="46"/>
     </row>
-    <row r="60" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="79" t="s">
         <v>283</v>
       </c>
@@ -27103,7 +27101,7 @@
       <c r="F60" s="80"/>
       <c r="G60" s="80"/>
     </row>
-    <row r="61" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="97" t="s">
         <v>279</v>
       </c>
@@ -27131,7 +27129,7 @@
         <v>1.0762499999999999</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="30"/>
       <c r="B62" s="73" t="s">
         <v>311</v>
@@ -27157,7 +27155,7 @@
         <v>1.0762499999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="97" t="s">
         <v>121</v>
       </c>
@@ -27185,7 +27183,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="79" t="s">
         <v>313</v>
       </c>
@@ -27196,7 +27194,7 @@
       <c r="F65" s="80"/>
       <c r="G65" s="80"/>
     </row>
-    <row r="66" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="84"/>
       <c r="B66" s="84"/>
       <c r="C66" s="44" t="s">
@@ -27256,16 +27254,16 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.1796875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.21875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.26953125" style="28" customWidth="1"/>
-    <col min="2" max="6" width="16.1796875" style="28"/>
-    <col min="7" max="7" width="17.26953125" style="28" customWidth="1"/>
-    <col min="8" max="8" width="16.1796875" style="28" customWidth="1"/>
-    <col min="9" max="16384" width="16.1796875" style="28"/>
+    <col min="1" max="1" width="52.21875" style="28" customWidth="1"/>
+    <col min="2" max="6" width="16.21875" style="28"/>
+    <col min="7" max="7" width="17.21875" style="28" customWidth="1"/>
+    <col min="8" max="8" width="16.21875" style="28" customWidth="1"/>
+    <col min="9" max="16384" width="16.21875" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="42" t="s">
         <v>160</v>
       </c>
@@ -27511,12 +27509,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="107" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" s="107" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="107" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="42" t="s">
         <v>160</v>
       </c>
@@ -27810,12 +27808,12 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="107" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" s="107" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="107" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="42" t="s">
         <v>160</v>
       </c>
@@ -28130,15 +28128,15 @@
       <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7265625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" style="28" customWidth="1"/>
-    <col min="2" max="2" width="58.81640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5546875" style="28" customWidth="1"/>
+    <col min="2" max="2" width="58.77734375" style="28" bestFit="1" customWidth="1"/>
     <col min="3" max="15" width="15" style="28" customWidth="1"/>
-    <col min="16" max="16384" width="12.7265625" style="28"/>
+    <col min="16" max="16384" width="12.77734375" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="30"/>
       <c r="B1" s="30"/>
       <c r="C1" s="83" t="s">
@@ -28181,7 +28179,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>319</v>
       </c>
@@ -28626,7 +28624,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="46" t="s">
         <v>189</v>
       </c>
@@ -28758,7 +28756,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="30" t="s">
         <v>320</v>
       </c>
@@ -28940,12 +28938,12 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="23" spans="1:15" s="107" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" s="107" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="107" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="30"/>
       <c r="B24" s="30"/>
       <c r="C24" s="83" t="s">
@@ -28988,7 +28986,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="30" t="s">
         <v>321</v>
       </c>
@@ -29734,7 +29732,7 @@
         <v>0.29700000000000004</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="30" t="s">
         <v>323</v>
       </c>
@@ -29968,12 +29966,12 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="46" spans="1:15" s="107" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:15" s="107" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="107" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="30"/>
       <c r="B47" s="30"/>
       <c r="C47" s="83" t="s">
@@ -30016,7 +30014,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="30" t="s">
         <v>322</v>
       </c>
@@ -30762,7 +30760,7 @@
         <v>0.34650000000000003</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="30" t="s">
         <v>324</v>
       </c>
@@ -31017,15 +31015,15 @@
       <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7265625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.26953125" style="28" customWidth="1"/>
-    <col min="2" max="2" width="27.7265625" style="28" customWidth="1"/>
-    <col min="3" max="7" width="15.54296875" style="28" customWidth="1"/>
-    <col min="8" max="16384" width="12.7265625" style="28"/>
+    <col min="1" max="1" width="21.21875" style="28" customWidth="1"/>
+    <col min="2" max="2" width="27.77734375" style="28" customWidth="1"/>
+    <col min="3" max="7" width="15.5546875" style="28" customWidth="1"/>
+    <col min="8" max="16384" width="12.77734375" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="30"/>
       <c r="B1" s="42"/>
       <c r="C1" s="30" t="s">
@@ -31044,7 +31042,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>325</v>
       </c>
@@ -31069,7 +31067,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
         <v>326</v>
       </c>
@@ -31100,12 +31098,12 @@
         <v>0.14299999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="107" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" s="107" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="107" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="30"/>
       <c r="B8" s="42"/>
       <c r="C8" s="30" t="s">
@@ -31124,7 +31122,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="30" t="s">
         <v>327</v>
       </c>
@@ -31154,7 +31152,7 @@
         <v>0.189</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="30" t="s">
         <v>328</v>
       </c>
@@ -31190,12 +31188,12 @@
         <v>0.12869999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="107" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" s="107" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="107" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="30"/>
       <c r="B15" s="42"/>
       <c r="C15" s="30" t="s">
@@ -31214,7 +31212,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="30" t="s">
         <v>329</v>
       </c>
@@ -31244,7 +31242,7 @@
         <v>0.2205</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="30" t="s">
         <v>330</v>
       </c>
@@ -31301,20 +31299,20 @@
       <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7265625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="53" style="40" customWidth="1"/>
-    <col min="2" max="2" width="30.54296875" style="40" customWidth="1"/>
-    <col min="3" max="3" width="24.7265625" style="40" customWidth="1"/>
+    <col min="2" max="2" width="30.5546875" style="40" customWidth="1"/>
+    <col min="3" max="3" width="24.77734375" style="40" customWidth="1"/>
     <col min="4" max="4" width="15" style="28" customWidth="1"/>
-    <col min="5" max="5" width="13.7265625" style="28" customWidth="1"/>
-    <col min="6" max="6" width="14.453125" style="28" customWidth="1"/>
-    <col min="7" max="7" width="12.7265625" style="28"/>
-    <col min="8" max="8" width="17.54296875" style="28" customWidth="1"/>
-    <col min="9" max="16384" width="12.7265625" style="28"/>
+    <col min="5" max="5" width="13.77734375" style="28" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" style="28" customWidth="1"/>
+    <col min="7" max="7" width="12.77734375" style="28"/>
+    <col min="8" max="8" width="17.5546875" style="28" customWidth="1"/>
+    <col min="9" max="16384" width="12.77734375" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>160</v>
       </c>
@@ -32497,14 +32495,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:8" s="108" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" s="108" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="111" t="s">
         <v>331</v>
       </c>
       <c r="B55" s="112"/>
       <c r="C55" s="112"/>
     </row>
-    <row r="56" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="30" t="s">
         <v>160</v>
       </c>
@@ -33947,14 +33945,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:8" s="108" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" s="108" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="111" t="s">
         <v>332</v>
       </c>
       <c r="B110" s="112"/>
       <c r="C110" s="112"/>
     </row>
-    <row r="111" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="30" t="s">
         <v>160</v>
       </c>
@@ -35418,16 +35416,16 @@
       <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7265625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28" style="28" customWidth="1"/>
-    <col min="2" max="2" width="27.453125" style="28" customWidth="1"/>
-    <col min="3" max="3" width="23.7265625" style="28" customWidth="1"/>
-    <col min="4" max="7" width="17.26953125" style="28" customWidth="1"/>
-    <col min="8" max="16384" width="12.7265625" style="28"/>
+    <col min="2" max="2" width="27.44140625" style="28" customWidth="1"/>
+    <col min="3" max="3" width="23.77734375" style="28" customWidth="1"/>
+    <col min="4" max="7" width="17.21875" style="28" customWidth="1"/>
+    <col min="8" max="16384" width="12.77734375" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="42" t="s">
         <v>160</v>
       </c>
@@ -35575,12 +35573,12 @@
       </c>
       <c r="H7" s="32"/>
     </row>
-    <row r="9" spans="1:8" s="107" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" s="107" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="107" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="42" t="s">
         <v>160</v>
       </c>
@@ -35745,12 +35743,12 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="107" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" s="107" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="107" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="42" t="s">
         <v>160</v>
       </c>
@@ -35935,14 +35933,14 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.1796875" customWidth="1"/>
-    <col min="2" max="2" width="31.26953125" customWidth="1"/>
+    <col min="1" max="1" width="16.21875" customWidth="1"/>
+    <col min="2" max="2" width="31.21875" customWidth="1"/>
     <col min="3" max="8" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="str">
         <f>"Pourcentage des morts de l'année de référence ("&amp;start_year&amp;") imputable à chaque cause"</f>
         <v>Pourcentage des morts de l'année de référence (2017) imputable à chaque cause</v>
@@ -35953,7 +35951,7 @@
       <c r="E1" s="31"/>
       <c r="F1" s="31"/>
     </row>
-    <row r="2" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -36036,7 +36034,7 @@
       <c r="B11" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="115">
+      <c r="C11" s="114">
         <f>SUM(C3:C10)</f>
         <v>1</v>
       </c>
@@ -36052,7 +36050,7 @@
       <c r="G12" s="19"/>
       <c r="H12" s="19"/>
     </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>86</v>
       </c>
@@ -36230,19 +36228,19 @@
       <c r="B23" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="115">
+      <c r="C23" s="114">
         <f>SUM(C14:C22)</f>
         <v>1</v>
       </c>
-      <c r="D23" s="115">
+      <c r="D23" s="114">
         <f t="shared" ref="D23:F23" si="0">SUM(D14:D22)</f>
         <v>1</v>
       </c>
-      <c r="E23" s="115">
+      <c r="E23" s="114">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F23" s="115">
+      <c r="F23" s="114">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -36258,7 +36256,7 @@
       <c r="G24" s="19"/>
       <c r="H24" s="19"/>
     </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>100</v>
       </c>
@@ -36350,7 +36348,7 @@
       <c r="B35" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="C35" s="115">
+      <c r="C35" s="114">
         <f>SUM(C26:C34)</f>
         <v>1</v>
       </c>
@@ -36374,13 +36372,13 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.453125" customWidth="1"/>
+    <col min="1" max="1" width="31.44140625" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="str">
         <f>"Pourcentage de la population dans chaque catégorie pendant l'année de référence ("&amp;start_year&amp;")"</f>
         <v>Pourcentage de la population dans chaque catégorie pendant l'année de référence (2017)</v>
@@ -36411,23 +36409,23 @@
       <c r="B2" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="C2" s="117">
+      <c r="C2" s="116">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C4:C5), 0, 1) + 1, 0, 1, TRUE), "")</f>
         <v>0.54471569980476653</v>
       </c>
-      <c r="D2" s="117">
+      <c r="D2" s="116">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(D4:D5), 0, 1) + 1, 0, 1, TRUE), "")</f>
         <v>0.54471569980476653</v>
       </c>
-      <c r="E2" s="117">
+      <c r="E2" s="116">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(E4:E5), 0, 1) + 1, 0, 1, TRUE), "")</f>
         <v>0.44982829694488635</v>
       </c>
-      <c r="F2" s="117">
+      <c r="F2" s="116">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(F4:F5), 0, 1) + 1, 0, 1, TRUE), "")</f>
         <v>0.24457139941017503</v>
       </c>
-      <c r="G2" s="117">
+      <c r="G2" s="116">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(G4:G5), 0, 1) + 1, 0, 1, TRUE), "")</f>
         <v>0.23269074767298425</v>
       </c>
@@ -36436,23 +36434,23 @@
       <c r="B3" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="C3" s="117">
+      <c r="C3" s="116">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C4:C5), 0, 1) + 1, 0, 1, TRUE) - SUM(C4:C5), "")</f>
         <v>0.32228430019523346</v>
       </c>
-      <c r="D3" s="117">
+      <c r="D3" s="116">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(D4:D5), 0, 1) + 1, 0, 1, TRUE) - SUM(D4:D5), "")</f>
         <v>0.32228430019523346</v>
       </c>
-      <c r="E3" s="117">
+      <c r="E3" s="116">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(E4:E5), 0, 1) + 1, 0, 1, TRUE) - SUM(E4:E5), "")</f>
         <v>0.35908666207150708</v>
       </c>
-      <c r="F3" s="117">
+      <c r="F3" s="116">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(F4:F5), 0, 1) + 1, 0, 1, TRUE) - SUM(F4:F5), "")</f>
         <v>0.37651189492768178</v>
       </c>
-      <c r="G3" s="117">
+      <c r="G3" s="116">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(G4:G5), 0, 1) + 1, 0, 1, TRUE) - SUM(G4:G5), "")</f>
         <v>0.37372365733745416</v>
       </c>
@@ -36520,23 +36518,23 @@
       <c r="B8" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="C8" s="117">
+      <c r="C8" s="116">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C10:C11), 0, 1) + 1, 0, 1, TRUE), "")</f>
         <v>0.6241955901533508</v>
       </c>
-      <c r="D8" s="117">
+      <c r="D8" s="116">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(D10:D11), 0, 1) + 1, 0, 1, TRUE), "")</f>
         <v>0.6241955901533508</v>
       </c>
-      <c r="E8" s="117">
+      <c r="E8" s="116">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(E10:E11), 0, 1) + 1, 0, 1, TRUE), "")</f>
         <v>0.68355843805440353</v>
       </c>
-      <c r="F8" s="117">
+      <c r="F8" s="116">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(F10:F11), 0, 1) + 1, 0, 1, TRUE), "")</f>
         <v>0.73228840888273117</v>
       </c>
-      <c r="G8" s="117">
+      <c r="G8" s="116">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(G10:G11), 0, 1) + 1, 0, 1, TRUE), "")</f>
         <v>0.81212055177975573</v>
       </c>
@@ -36545,23 +36543,23 @@
       <c r="B9" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="C9" s="117">
+      <c r="C9" s="116">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C10:C11), 0, 1) + 1, 0, 1, TRUE) - SUM(C10:C11), "")</f>
         <v>0.28180440984664923</v>
       </c>
-      <c r="D9" s="117">
+      <c r="D9" s="116">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(D10:D11), 0, 1) + 1, 0, 1, TRUE) - SUM(D10:D11), "")</f>
         <v>0.28180440984664923</v>
       </c>
-      <c r="E9" s="117">
+      <c r="E9" s="116">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(E10:E11), 0, 1) + 1, 0, 1, TRUE) - SUM(E10:E11), "")</f>
         <v>0.2466938696379041</v>
       </c>
-      <c r="F9" s="117">
+      <c r="F9" s="116">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(F10:F11), 0, 1) + 1, 0, 1, TRUE) - SUM(F10:F11), "")</f>
         <v>0.21506846670192739</v>
       </c>
-      <c r="G9" s="117">
+      <c r="G9" s="116">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(G10:G11), 0, 1) + 1, 0, 1, TRUE) - SUM(G10:G11), "")</f>
         <v>0.15821429221536368</v>
       </c>
@@ -36712,55 +36710,55 @@
       <c r="B15" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="C15" s="117">
+      <c r="C15" s="116">
         <f t="shared" ref="C15:O15" si="0">iron_deficiency_anaemia*C14</f>
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="D15" s="117">
+      <c r="D15" s="116">
         <f t="shared" si="0"/>
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="E15" s="117">
+      <c r="E15" s="116">
         <f t="shared" si="0"/>
         <v>0.32801999999999998</v>
       </c>
-      <c r="F15" s="117">
+      <c r="F15" s="116">
         <f t="shared" si="0"/>
         <v>0.30639</v>
       </c>
-      <c r="G15" s="117">
+      <c r="G15" s="116">
         <f t="shared" si="0"/>
         <v>0.20314000000000002</v>
       </c>
-      <c r="H15" s="117">
+      <c r="H15" s="116">
         <f t="shared" si="0"/>
         <v>0.19865999999999998</v>
       </c>
-      <c r="I15" s="117">
+      <c r="I15" s="116">
         <f t="shared" si="0"/>
         <v>0.18773999999999999</v>
       </c>
-      <c r="J15" s="117">
+      <c r="J15" s="116">
         <f t="shared" si="0"/>
         <v>0.18185999999999999</v>
       </c>
-      <c r="K15" s="117">
+      <c r="K15" s="116">
         <f t="shared" si="0"/>
         <v>0.18564</v>
       </c>
-      <c r="L15" s="117">
+      <c r="L15" s="116">
         <f t="shared" si="0"/>
         <v>0.19865999999999998</v>
       </c>
-      <c r="M15" s="117">
+      <c r="M15" s="116">
         <f t="shared" si="0"/>
         <v>0.18773999999999999</v>
       </c>
-      <c r="N15" s="117">
+      <c r="N15" s="116">
         <f t="shared" si="0"/>
         <v>0.18185999999999999</v>
       </c>
-      <c r="O15" s="117">
+      <c r="O15" s="116">
         <f t="shared" si="0"/>
         <v>0.18564</v>
       </c>
@@ -36795,16 +36793,16 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.81640625" customWidth="1"/>
-    <col min="2" max="7" width="13.453125" customWidth="1"/>
+    <col min="1" max="1" width="28.77734375" customWidth="1"/>
+    <col min="2" max="7" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="str">
         <f>"Pourcentage des enfants dans chaque catégorie pendant l'année de référence ("&amp;start_year&amp;")"</f>
         <v>Pourcentage des enfants dans chaque catégorie pendant l'année de référence (2017)</v>
@@ -36895,23 +36893,23 @@
       <c r="B5" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="C5" s="117">
+      <c r="C5" s="116">
         <f>1-SUM(C2:C4)</f>
         <v>1.0000000000000009E-2</v>
       </c>
-      <c r="D5" s="117">
+      <c r="D5" s="116">
         <f t="shared" ref="D5:G5" si="0">1-SUM(D2:D4)</f>
         <v>2.4399366085578356E-2</v>
       </c>
-      <c r="E5" s="117">
+      <c r="E5" s="116">
         <f t="shared" si="0"/>
         <v>1.8961838681699872E-2</v>
       </c>
-      <c r="F5" s="117">
+      <c r="F5" s="116">
         <f t="shared" si="0"/>
         <v>0.27800000000000002</v>
       </c>
-      <c r="G5" s="117">
+      <c r="G5" s="116">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -36931,16 +36929,16 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37" customWidth="1"/>
-    <col min="2" max="2" width="29.453125" customWidth="1"/>
+    <col min="2" max="2" width="29.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>133</v>
       </c>
@@ -37123,7 +37121,7 @@
       <c r="K14" s="23"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="TLWBRjOb8F7hPloMH/fByXQsH5bPGV65GFFo+UcsMXwKJmcCggwLjnaenutKw7EQcb66KjdYDT94ARUcn3soog==" saltValue="D3qsFGo2bJUA4m3gteblwQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="GYOVWQGooiJLevJCQPbNA+r5NYEc62wLSaR9cMJfbMBv5hsVBAZlFa6+QCKP78NrCtLGO8rW9pBuoHdh7b2zLA==" saltValue="A94pz5UHV2Z+LQ7IyToMFw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="193" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -37136,15 +37134,17 @@
   </sheetPr>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.26953125" customWidth="1"/>
+    <col min="1" max="1" width="36.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>12</v>
       </c>
@@ -37214,18 +37214,18 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D19" sqref="D19:D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" style="28" customWidth="1"/>
-    <col min="2" max="2" width="19.1796875" style="28" customWidth="1"/>
-    <col min="3" max="3" width="13.453125" style="28" customWidth="1"/>
-    <col min="4" max="16384" width="11.453125" style="28"/>
+    <col min="2" max="2" width="19.21875" style="28" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" style="28" customWidth="1"/>
+    <col min="4" max="16384" width="11.44140625" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
         <v>151</v>
       </c>
@@ -37242,7 +37242,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
         <v>157</v>
       </c>
@@ -37260,8 +37260,8 @@
       <c r="B3" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="C3" s="63" t="b">
-        <v>1</v>
+      <c r="C3" s="63" t="s">
+        <v>7</v>
       </c>
       <c r="D3" s="63"/>
       <c r="E3" s="45" t="str">
@@ -37273,8 +37273,8 @@
       <c r="B4" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="C4" s="63" t="b">
-        <v>1</v>
+      <c r="C4" s="63" t="s">
+        <v>7</v>
       </c>
       <c r="D4" s="63"/>
       <c r="E4" s="45" t="str">
@@ -37286,8 +37286,8 @@
       <c r="B5" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="C5" s="63" t="b">
-        <v>1</v>
+      <c r="C5" s="63" t="s">
+        <v>7</v>
       </c>
       <c r="D5" s="63"/>
       <c r="E5" s="45" t="str">
@@ -37299,8 +37299,8 @@
       <c r="B6" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="C6" s="63" t="b">
-        <v>1</v>
+      <c r="C6" s="63" t="s">
+        <v>7</v>
       </c>
       <c r="D6" s="63"/>
       <c r="E6" s="45" t="str">
@@ -37316,7 +37316,7 @@
       <c r="D7" s="33"/>
       <c r="E7" s="63"/>
     </row>
-    <row r="9" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="37" t="s">
         <v>158</v>
       </c>
@@ -37324,9 +37324,7 @@
         <v>100</v>
       </c>
       <c r="C9" s="63"/>
-      <c r="D9" s="63" t="b">
-        <v>0</v>
-      </c>
+      <c r="D9" s="63"/>
       <c r="E9" s="45" t="str">
         <f>IF(E$7="","",E$7)</f>
         <v/>
@@ -37337,7 +37335,9 @@
         <v>109</v>
       </c>
       <c r="C10" s="63"/>
-      <c r="D10" s="63"/>
+      <c r="D10" s="63" t="s">
+        <v>7</v>
+      </c>
       <c r="E10" s="45" t="str">
         <f>IF(E$7="","",E$7)</f>
         <v/>
@@ -37348,7 +37348,9 @@
         <v>96</v>
       </c>
       <c r="C11" s="63"/>
-      <c r="D11" s="63"/>
+      <c r="D11" s="63" t="s">
+        <v>7</v>
+      </c>
       <c r="E11" s="45" t="str">
         <f>IF(E$7="","",E$7)</f>
         <v/>
@@ -37359,7 +37361,9 @@
         <v>97</v>
       </c>
       <c r="C12" s="63"/>
-      <c r="D12" s="63"/>
+      <c r="D12" s="63" t="s">
+        <v>7</v>
+      </c>
       <c r="E12" s="45" t="str">
         <f>IF(E$7="","",E$7)</f>
         <v/>
@@ -37370,7 +37374,9 @@
         <v>98</v>
       </c>
       <c r="C13" s="63"/>
-      <c r="D13" s="63"/>
+      <c r="D13" s="63" t="s">
+        <v>7</v>
+      </c>
       <c r="E13" s="45" t="str">
         <f>IF(E$7="","",E$7)</f>
         <v/>
@@ -37382,11 +37388,9 @@
       </c>
       <c r="C14" s="34"/>
       <c r="D14" s="33"/>
-      <c r="E14" s="63" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+      <c r="E14" s="63"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="37" t="s">
         <v>159</v>
       </c>
@@ -37394,9 +37398,7 @@
         <v>100</v>
       </c>
       <c r="C16" s="63"/>
-      <c r="D16" s="63" t="s">
-        <v>7</v>
-      </c>
+      <c r="D16" s="63"/>
       <c r="E16" s="45" t="str">
         <f>IF(E$7="","",E$7)</f>
         <v/>
@@ -37433,9 +37435,7 @@
         <v>97</v>
       </c>
       <c r="C19" s="63"/>
-      <c r="D19" s="63" t="s">
-        <v>7</v>
-      </c>
+      <c r="D19" s="63"/>
       <c r="E19" s="45" t="str">
         <f>IF(E$7="","",E$7)</f>
         <v/>
@@ -37446,9 +37446,7 @@
         <v>98</v>
       </c>
       <c r="C20" s="63"/>
-      <c r="D20" s="63" t="s">
-        <v>7</v>
-      </c>
+      <c r="D20" s="63"/>
       <c r="E20" s="45" t="str">
         <f>IF(E$7="","",E$7)</f>
         <v/>
@@ -37480,15 +37478,15 @@
       <selection activeCell="D2" sqref="D2:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7265625" customWidth="1"/>
-    <col min="2" max="2" width="15.453125" customWidth="1"/>
-    <col min="3" max="3" width="17.453125" customWidth="1"/>
-    <col min="4" max="4" width="12.81640625" customWidth="1"/>
+    <col min="1" max="1" width="15.77734375" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" customWidth="1"/>
+    <col min="4" max="4" width="12.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="47" t="s">
         <v>5</v>
       </c>
@@ -37502,7 +37500,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="48" t="s">
         <v>160</v>
       </c>
@@ -37514,7 +37512,7 @@
       </c>
       <c r="D2" s="63"/>
     </row>
-    <row r="3" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="48" t="s">
         <v>164</v>
       </c>

--- a/inputs/fr/demo_demo_input.xlsx
+++ b/inputs/fr/demo_demo_input.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.scott\Desktop\GitHub\Nutrition\inputs\fr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\modeling\Nutrition\inputs\fr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94CAC22D-A32E-4C03-A4C5-207D78BE5C3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{344214D2-74F7-4094-9333-45676E1D8FED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15225" yWindow="-18120" windowWidth="29040" windowHeight="17640" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="961" firstSheet="4" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Donnees pop de l'annee de ref" sheetId="1" r:id="rId1"/>
@@ -5093,7 +5093,7 @@
   </sheetPr>
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
@@ -6518,7 +6518,7 @@
   </sheetPr>
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -16733,12 +16733,36 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="d5TbHPQi63nwx2Wq5JJSqukalmMv3C31IJEOC6Ln2RHu+2wV3FQIapEnZTD1R3DDEUxGNC0W0Oqhkaf0Boqebg==" saltValue="VXHqyG/n1ojfTzC/S0zfNA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="45">
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B145:B147"/>
+    <mergeCell ref="B148:B150"/>
+    <mergeCell ref="B151:B153"/>
+    <mergeCell ref="B154:B156"/>
+    <mergeCell ref="B128:B130"/>
+    <mergeCell ref="B131:B133"/>
+    <mergeCell ref="B134:B136"/>
+    <mergeCell ref="B137:B139"/>
+    <mergeCell ref="B142:B144"/>
+    <mergeCell ref="B111:B113"/>
+    <mergeCell ref="B114:B116"/>
+    <mergeCell ref="B117:B119"/>
+    <mergeCell ref="B120:B122"/>
+    <mergeCell ref="B125:B127"/>
+    <mergeCell ref="B108:B110"/>
+    <mergeCell ref="B89:B91"/>
+    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="B95:B97"/>
+    <mergeCell ref="B98:B100"/>
+    <mergeCell ref="B101:B103"/>
+    <mergeCell ref="B72:B74"/>
+    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="B81:B83"/>
+    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B67:B69"/>
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="B45:B47"/>
     <mergeCell ref="B48:B50"/>
@@ -16748,36 +16772,12 @@
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="B36:B38"/>
     <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B67:B69"/>
-    <mergeCell ref="B72:B74"/>
-    <mergeCell ref="B75:B77"/>
-    <mergeCell ref="B78:B80"/>
-    <mergeCell ref="B81:B83"/>
-    <mergeCell ref="B84:B86"/>
-    <mergeCell ref="B108:B110"/>
-    <mergeCell ref="B89:B91"/>
-    <mergeCell ref="B92:B94"/>
-    <mergeCell ref="B95:B97"/>
-    <mergeCell ref="B98:B100"/>
-    <mergeCell ref="B101:B103"/>
-    <mergeCell ref="B111:B113"/>
-    <mergeCell ref="B114:B116"/>
-    <mergeCell ref="B117:B119"/>
-    <mergeCell ref="B120:B122"/>
-    <mergeCell ref="B125:B127"/>
-    <mergeCell ref="B145:B147"/>
-    <mergeCell ref="B148:B150"/>
-    <mergeCell ref="B151:B153"/>
-    <mergeCell ref="B154:B156"/>
-    <mergeCell ref="B128:B130"/>
-    <mergeCell ref="B131:B133"/>
-    <mergeCell ref="B134:B136"/>
-    <mergeCell ref="B137:B139"/>
-    <mergeCell ref="B142:B144"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -31295,8 +31295,8 @@
   </sheetPr>
   <dimension ref="A1:H163"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView topLeftCell="A37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:H53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -31355,13 +31355,13 @@
         <v>0</v>
       </c>
       <c r="F2" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.39473684210526322</v>
       </c>
       <c r="G2" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.39473684210526322</v>
       </c>
       <c r="H2" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.39473684210526322</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -31375,13 +31375,13 @@
         <v>0</v>
       </c>
       <c r="F3" s="105">
-        <v>0.53134328358208949</v>
+        <v>0.30769230769230765</v>
       </c>
       <c r="G3" s="105">
-        <v>0.53134328358208949</v>
+        <v>0.30769230769230765</v>
       </c>
       <c r="H3" s="105">
-        <v>0.53134328358208949</v>
+        <v>0.30769230769230765</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -31708,7 +31708,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.7</v>
       </c>
       <c r="G18" s="105">
         <v>0.62</v>
@@ -31751,7 +31751,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.84</v>
       </c>
       <c r="G20" s="105">
         <v>0.62</v>
@@ -31771,13 +31771,13 @@
         <v>334</v>
       </c>
       <c r="D21" s="105">
-        <v>0.7</v>
+        <v>0.28260869565217389</v>
       </c>
       <c r="E21" s="105">
         <v>0</v>
       </c>
       <c r="F21" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G21" s="105">
         <v>0</v>
@@ -31797,7 +31797,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G22" s="105">
         <v>0</v>
@@ -31817,13 +31817,13 @@
         <v>334</v>
       </c>
       <c r="D23" s="105">
-        <v>0.7</v>
+        <v>0.28260869565217389</v>
       </c>
       <c r="E23" s="105">
         <v>0</v>
       </c>
       <c r="F23" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G23" s="105">
         <v>0</v>
@@ -31843,7 +31843,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G24" s="105">
         <v>0</v>
@@ -31863,13 +31863,13 @@
         <v>334</v>
       </c>
       <c r="D25" s="105">
-        <v>0.7</v>
+        <v>0.28260869565217389</v>
       </c>
       <c r="E25" s="105">
         <v>0</v>
       </c>
       <c r="F25" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G25" s="105">
         <v>0</v>
@@ -31889,7 +31889,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G26" s="105">
         <v>0</v>
@@ -31915,7 +31915,7 @@
         <v>1</v>
       </c>
       <c r="F27" s="105">
-        <v>0.33500000000000002</v>
+        <v>1</v>
       </c>
       <c r="G27" s="105">
         <v>1</v>
@@ -31935,7 +31935,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G28" s="105">
         <v>0</v>
@@ -31955,7 +31955,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G29" s="105">
         <v>0</v>
@@ -31981,7 +31981,7 @@
         <v>1</v>
       </c>
       <c r="F30" s="105">
-        <v>0.33500000000000002</v>
+        <v>1</v>
       </c>
       <c r="G30" s="105">
         <v>1</v>
@@ -32001,7 +32001,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G31" s="105">
         <v>0</v>
@@ -32021,7 +32021,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G32" s="105">
         <v>0</v>
@@ -32047,7 +32047,7 @@
         <v>1</v>
       </c>
       <c r="F33" s="105">
-        <v>0.33500000000000002</v>
+        <v>1</v>
       </c>
       <c r="G33" s="105">
         <v>1</v>
@@ -32067,7 +32067,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G34" s="105">
         <v>0</v>
@@ -32087,7 +32087,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G35" s="105">
         <v>0</v>
@@ -32113,7 +32113,7 @@
         <v>1</v>
       </c>
       <c r="F36" s="105">
-        <v>0.33500000000000002</v>
+        <v>1</v>
       </c>
       <c r="G36" s="105">
         <v>1</v>
@@ -32133,7 +32133,7 @@
         <v>0</v>
       </c>
       <c r="F37" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G37" s="105">
         <v>0</v>
@@ -32153,7 +32153,7 @@
         <v>0</v>
       </c>
       <c r="F38" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G38" s="105">
         <v>0</v>
@@ -32179,7 +32179,7 @@
         <v>1</v>
       </c>
       <c r="F39" s="105">
-        <v>0.33500000000000002</v>
+        <v>1</v>
       </c>
       <c r="G39" s="105">
         <v>1</v>
@@ -32199,7 +32199,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G40" s="105">
         <v>0</v>
@@ -32219,7 +32219,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G41" s="105">
         <v>0</v>
@@ -32245,7 +32245,7 @@
         <v>0.3</v>
       </c>
       <c r="F42" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.3</v>
       </c>
       <c r="G42" s="105">
         <v>0.3</v>
@@ -32265,7 +32265,7 @@
         <v>0.5</v>
       </c>
       <c r="F43" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.5</v>
       </c>
       <c r="G43" s="105">
         <v>0.5</v>
@@ -32285,7 +32285,7 @@
         <v>0.65</v>
       </c>
       <c r="F44" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.65</v>
       </c>
       <c r="G44" s="105">
         <v>0.65</v>
@@ -32308,7 +32308,7 @@
         <v>0.3</v>
       </c>
       <c r="F45" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.3</v>
       </c>
       <c r="G45" s="105">
         <v>0.3</v>
@@ -32328,7 +32328,7 @@
         <v>0.49</v>
       </c>
       <c r="F46" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.49</v>
       </c>
       <c r="G46" s="105">
         <v>0.49</v>
@@ -32348,7 +32348,7 @@
         <v>0.52</v>
       </c>
       <c r="F47" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.52</v>
       </c>
       <c r="G47" s="105">
         <v>0.52</v>
@@ -32374,7 +32374,7 @@
         <v>0.88</v>
       </c>
       <c r="F48" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.88</v>
       </c>
       <c r="G48" s="105">
         <v>0.88</v>
@@ -32388,19 +32388,19 @@
         <v>335</v>
       </c>
       <c r="D49" s="105">
-        <v>0.93</v>
+        <v>0.78409090909090906</v>
       </c>
       <c r="E49" s="105">
-        <v>0.93</v>
+        <v>0.78409090909090906</v>
       </c>
       <c r="F49" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.78409090909090906</v>
       </c>
       <c r="G49" s="105">
-        <v>0.93</v>
+        <v>0.78409090909090906</v>
       </c>
       <c r="H49" s="105">
-        <v>0.93</v>
+        <v>0.78409090909090906</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -32414,19 +32414,19 @@
         <v>334</v>
       </c>
       <c r="D50" s="105">
-        <v>1</v>
+        <v>0.88372093023255816</v>
       </c>
       <c r="E50" s="105">
-        <v>1</v>
+        <v>0.88372093023255816</v>
       </c>
       <c r="F50" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.88372093023255816</v>
       </c>
       <c r="G50" s="105">
-        <v>1</v>
+        <v>0.88372093023255816</v>
       </c>
       <c r="H50" s="105">
-        <v>1</v>
+        <v>0.88372093023255816</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -32440,7 +32440,7 @@
         <v>0.86</v>
       </c>
       <c r="F51" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.86</v>
       </c>
       <c r="G51" s="105">
         <v>0.86</v>
@@ -32466,7 +32466,7 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="F52" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G52" s="105">
         <v>0</v>
@@ -32486,7 +32486,7 @@
         <v>0.51</v>
       </c>
       <c r="F53" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G53" s="105">
         <v>0</v>
@@ -32548,15 +32548,15 @@
       </c>
       <c r="F57" s="105">
         <f t="shared" si="0"/>
-        <v>0.30150000000000005</v>
+        <v>0.35526315789473689</v>
       </c>
       <c r="G57" s="105">
         <f t="shared" si="0"/>
-        <v>0.30150000000000005</v>
+        <v>0.35526315789473689</v>
       </c>
       <c r="H57" s="105">
         <f t="shared" si="0"/>
-        <v>0.30150000000000005</v>
+        <v>0.35526315789473689</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -32573,15 +32573,15 @@
       </c>
       <c r="F58" s="105">
         <f t="shared" si="0"/>
-        <v>0.47820895522388057</v>
+        <v>0.27692307692307688</v>
       </c>
       <c r="G58" s="105">
         <f t="shared" si="0"/>
-        <v>0.47820895522388057</v>
+        <v>0.27692307692307688</v>
       </c>
       <c r="H58" s="105">
         <f t="shared" si="0"/>
-        <v>0.47820895522388057</v>
+        <v>0.27692307692307688</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -32981,7 +32981,7 @@
       </c>
       <c r="F73" s="105">
         <f t="shared" si="5"/>
-        <v>0.30150000000000005</v>
+        <v>0.63</v>
       </c>
       <c r="G73" s="105">
         <f t="shared" si="5"/>
@@ -33034,7 +33034,7 @@
       </c>
       <c r="F75" s="105">
         <f t="shared" si="7"/>
-        <v>0.30150000000000005</v>
+        <v>0.75600000000000001</v>
       </c>
       <c r="G75" s="105">
         <f t="shared" si="7"/>
@@ -33057,7 +33057,7 @@
       </c>
       <c r="D76" s="105">
         <f t="shared" ref="D76:H76" si="8">D21*0.9</f>
-        <v>0.63</v>
+        <v>0.2543478260869565</v>
       </c>
       <c r="E76" s="105">
         <f t="shared" si="8"/>
@@ -33065,7 +33065,7 @@
       </c>
       <c r="F76" s="105">
         <f t="shared" si="8"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G76" s="105">
         <f t="shared" si="8"/>
@@ -33090,7 +33090,7 @@
       </c>
       <c r="F77" s="105">
         <f t="shared" si="9"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G77" s="105">
         <f t="shared" si="9"/>
@@ -33113,7 +33113,7 @@
       </c>
       <c r="D78" s="105">
         <f t="shared" ref="D78:H78" si="10">D23*0.9</f>
-        <v>0.63</v>
+        <v>0.2543478260869565</v>
       </c>
       <c r="E78" s="105">
         <f t="shared" si="10"/>
@@ -33121,7 +33121,7 @@
       </c>
       <c r="F78" s="105">
         <f t="shared" si="10"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G78" s="105">
         <f t="shared" si="10"/>
@@ -33146,7 +33146,7 @@
       </c>
       <c r="F79" s="105">
         <f t="shared" si="11"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G79" s="105">
         <f t="shared" si="11"/>
@@ -33169,7 +33169,7 @@
       </c>
       <c r="D80" s="105">
         <f t="shared" ref="D80:H80" si="12">D25*0.9</f>
-        <v>0.63</v>
+        <v>0.2543478260869565</v>
       </c>
       <c r="E80" s="105">
         <f t="shared" si="12"/>
@@ -33177,7 +33177,7 @@
       </c>
       <c r="F80" s="105">
         <f t="shared" si="12"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G80" s="105">
         <f t="shared" si="12"/>
@@ -33202,7 +33202,7 @@
       </c>
       <c r="F81" s="105">
         <f t="shared" si="13"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G81" s="105">
         <f t="shared" si="13"/>
@@ -33233,7 +33233,7 @@
       </c>
       <c r="F82" s="105">
         <f t="shared" si="14"/>
-        <v>0.30150000000000005</v>
+        <v>0.9</v>
       </c>
       <c r="G82" s="105">
         <f t="shared" si="14"/>
@@ -33258,7 +33258,7 @@
       </c>
       <c r="F83" s="105">
         <f t="shared" si="15"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G83" s="105">
         <f t="shared" si="15"/>
@@ -33283,7 +33283,7 @@
       </c>
       <c r="F84" s="105">
         <f t="shared" si="16"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G84" s="105">
         <f t="shared" si="16"/>
@@ -33314,7 +33314,7 @@
       </c>
       <c r="F85" s="105">
         <f t="shared" si="17"/>
-        <v>0.30150000000000005</v>
+        <v>0.9</v>
       </c>
       <c r="G85" s="105">
         <f t="shared" si="17"/>
@@ -33339,7 +33339,7 @@
       </c>
       <c r="F86" s="105">
         <f t="shared" si="18"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G86" s="105">
         <f t="shared" si="18"/>
@@ -33364,7 +33364,7 @@
       </c>
       <c r="F87" s="105">
         <f t="shared" si="19"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G87" s="105">
         <f t="shared" si="19"/>
@@ -33395,7 +33395,7 @@
       </c>
       <c r="F88" s="105">
         <f t="shared" si="20"/>
-        <v>0.30150000000000005</v>
+        <v>0.9</v>
       </c>
       <c r="G88" s="105">
         <f t="shared" si="20"/>
@@ -33420,7 +33420,7 @@
       </c>
       <c r="F89" s="105">
         <f t="shared" si="21"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G89" s="105">
         <f t="shared" si="21"/>
@@ -33445,7 +33445,7 @@
       </c>
       <c r="F90" s="105">
         <f t="shared" si="22"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G90" s="105">
         <f t="shared" si="22"/>
@@ -33476,7 +33476,7 @@
       </c>
       <c r="F91" s="105">
         <f t="shared" si="23"/>
-        <v>0.30150000000000005</v>
+        <v>0.9</v>
       </c>
       <c r="G91" s="105">
         <f t="shared" si="23"/>
@@ -33501,7 +33501,7 @@
       </c>
       <c r="F92" s="105">
         <f t="shared" si="24"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G92" s="105">
         <f t="shared" si="24"/>
@@ -33526,7 +33526,7 @@
       </c>
       <c r="F93" s="105">
         <f t="shared" si="25"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G93" s="105">
         <f t="shared" si="25"/>
@@ -33557,7 +33557,7 @@
       </c>
       <c r="F94" s="105">
         <f t="shared" si="26"/>
-        <v>0.30150000000000005</v>
+        <v>0.9</v>
       </c>
       <c r="G94" s="105">
         <f t="shared" si="26"/>
@@ -33582,7 +33582,7 @@
       </c>
       <c r="F95" s="105">
         <f t="shared" si="27"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G95" s="105">
         <f t="shared" si="27"/>
@@ -33607,7 +33607,7 @@
       </c>
       <c r="F96" s="105">
         <f t="shared" si="28"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G96" s="105">
         <f t="shared" si="28"/>
@@ -33638,7 +33638,7 @@
       </c>
       <c r="F97" s="105">
         <f t="shared" si="29"/>
-        <v>0.30150000000000005</v>
+        <v>0.27</v>
       </c>
       <c r="G97" s="105">
         <f t="shared" si="29"/>
@@ -33663,7 +33663,7 @@
       </c>
       <c r="F98" s="105">
         <f t="shared" si="30"/>
-        <v>0.30150000000000005</v>
+        <v>0.45</v>
       </c>
       <c r="G98" s="105">
         <f t="shared" si="30"/>
@@ -33688,7 +33688,7 @@
       </c>
       <c r="F99" s="105">
         <f t="shared" si="31"/>
-        <v>0.30150000000000005</v>
+        <v>0.58500000000000008</v>
       </c>
       <c r="G99" s="105">
         <f t="shared" si="31"/>
@@ -33716,7 +33716,7 @@
       </c>
       <c r="F100" s="105">
         <f t="shared" si="32"/>
-        <v>0.30150000000000005</v>
+        <v>0.27</v>
       </c>
       <c r="G100" s="105">
         <f t="shared" si="32"/>
@@ -33741,7 +33741,7 @@
       </c>
       <c r="F101" s="105">
         <f t="shared" si="33"/>
-        <v>0.30150000000000005</v>
+        <v>0.441</v>
       </c>
       <c r="G101" s="105">
         <f t="shared" si="33"/>
@@ -33766,7 +33766,7 @@
       </c>
       <c r="F102" s="105">
         <f t="shared" si="34"/>
-        <v>0.30150000000000005</v>
+        <v>0.46800000000000003</v>
       </c>
       <c r="G102" s="105">
         <f t="shared" si="34"/>
@@ -33797,7 +33797,7 @@
       </c>
       <c r="F103" s="105">
         <f t="shared" si="35"/>
-        <v>0.30150000000000005</v>
+        <v>0.79200000000000004</v>
       </c>
       <c r="G103" s="105">
         <f t="shared" si="35"/>
@@ -33814,23 +33814,23 @@
       </c>
       <c r="D104" s="105">
         <f t="shared" ref="D104:H104" si="36">D49*0.9</f>
-        <v>0.83700000000000008</v>
+        <v>0.70568181818181819</v>
       </c>
       <c r="E104" s="105">
         <f t="shared" si="36"/>
-        <v>0.83700000000000008</v>
+        <v>0.70568181818181819</v>
       </c>
       <c r="F104" s="105">
         <f t="shared" si="36"/>
-        <v>0.30150000000000005</v>
+        <v>0.70568181818181819</v>
       </c>
       <c r="G104" s="105">
         <f t="shared" si="36"/>
-        <v>0.83700000000000008</v>
+        <v>0.70568181818181819</v>
       </c>
       <c r="H104" s="105">
         <f t="shared" si="36"/>
-        <v>0.83700000000000008</v>
+        <v>0.70568181818181819</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
@@ -33845,23 +33845,23 @@
       </c>
       <c r="D105" s="105">
         <f t="shared" ref="D105:H105" si="37">D50*0.9</f>
-        <v>0.9</v>
+        <v>0.79534883720930238</v>
       </c>
       <c r="E105" s="105">
         <f t="shared" si="37"/>
-        <v>0.9</v>
+        <v>0.79534883720930238</v>
       </c>
       <c r="F105" s="105">
         <f t="shared" si="37"/>
-        <v>0.30150000000000005</v>
+        <v>0.79534883720930238</v>
       </c>
       <c r="G105" s="105">
         <f t="shared" si="37"/>
-        <v>0.9</v>
+        <v>0.79534883720930238</v>
       </c>
       <c r="H105" s="105">
         <f t="shared" si="37"/>
-        <v>0.9</v>
+        <v>0.79534883720930238</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
@@ -33878,7 +33878,7 @@
       </c>
       <c r="F106" s="105">
         <f t="shared" si="38"/>
-        <v>0.30150000000000005</v>
+        <v>0.77400000000000002</v>
       </c>
       <c r="G106" s="105">
         <f t="shared" si="38"/>
@@ -33909,7 +33909,7 @@
       </c>
       <c r="F107" s="105">
         <f t="shared" si="39"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G107" s="105">
         <f t="shared" si="39"/>
@@ -33934,7 +33934,7 @@
       </c>
       <c r="F108" s="105">
         <f t="shared" si="40"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G108" s="105">
         <f t="shared" si="40"/>
@@ -33998,15 +33998,15 @@
       </c>
       <c r="F112" s="105">
         <f t="shared" si="41"/>
-        <v>0.35175000000000006</v>
+        <v>0.41447368421052638</v>
       </c>
       <c r="G112" s="105">
         <f t="shared" si="41"/>
-        <v>0.35175000000000006</v>
+        <v>0.41447368421052638</v>
       </c>
       <c r="H112" s="105">
         <f t="shared" si="41"/>
-        <v>0.35175000000000006</v>
+        <v>0.41447368421052638</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
@@ -34023,15 +34023,15 @@
       </c>
       <c r="F113" s="105">
         <f t="shared" si="41"/>
-        <v>0.55791044776119403</v>
+        <v>0.32307692307692304</v>
       </c>
       <c r="G113" s="105">
         <f t="shared" si="41"/>
-        <v>0.55791044776119403</v>
+        <v>0.32307692307692304</v>
       </c>
       <c r="H113" s="105">
         <f t="shared" si="41"/>
-        <v>0.55791044776119403</v>
+        <v>0.32307692307692304</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
@@ -34431,7 +34431,7 @@
       </c>
       <c r="F128" s="105">
         <f t="shared" si="46"/>
-        <v>0.35175000000000006</v>
+        <v>0.73499999999999999</v>
       </c>
       <c r="G128" s="105">
         <f t="shared" si="46"/>
@@ -34484,7 +34484,7 @@
       </c>
       <c r="F130" s="105">
         <f t="shared" si="48"/>
-        <v>0.35175000000000006</v>
+        <v>0.88200000000000001</v>
       </c>
       <c r="G130" s="105">
         <f t="shared" si="48"/>
@@ -34507,7 +34507,7 @@
       </c>
       <c r="D131" s="105">
         <f t="shared" ref="D131:H131" si="49">D21*1.05</f>
-        <v>0.73499999999999999</v>
+        <v>0.29673913043478262</v>
       </c>
       <c r="E131" s="105">
         <f t="shared" si="49"/>
@@ -34515,7 +34515,7 @@
       </c>
       <c r="F131" s="105">
         <f t="shared" si="49"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G131" s="105">
         <f t="shared" si="49"/>
@@ -34540,7 +34540,7 @@
       </c>
       <c r="F132" s="105">
         <f t="shared" si="50"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G132" s="105">
         <f t="shared" si="50"/>
@@ -34563,7 +34563,7 @@
       </c>
       <c r="D133" s="105">
         <f t="shared" ref="D133:H133" si="51">D23*1.05</f>
-        <v>0.73499999999999999</v>
+        <v>0.29673913043478262</v>
       </c>
       <c r="E133" s="105">
         <f t="shared" si="51"/>
@@ -34571,7 +34571,7 @@
       </c>
       <c r="F133" s="105">
         <f t="shared" si="51"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G133" s="105">
         <f t="shared" si="51"/>
@@ -34596,7 +34596,7 @@
       </c>
       <c r="F134" s="105">
         <f t="shared" si="52"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G134" s="105">
         <f t="shared" si="52"/>
@@ -34619,7 +34619,7 @@
       </c>
       <c r="D135" s="105">
         <f t="shared" ref="D135:H135" si="53">D25*1.05</f>
-        <v>0.73499999999999999</v>
+        <v>0.29673913043478262</v>
       </c>
       <c r="E135" s="105">
         <f t="shared" si="53"/>
@@ -34627,7 +34627,7 @@
       </c>
       <c r="F135" s="105">
         <f t="shared" si="53"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G135" s="105">
         <f t="shared" si="53"/>
@@ -34652,7 +34652,7 @@
       </c>
       <c r="F136" s="105">
         <f t="shared" si="54"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G136" s="105">
         <f t="shared" si="54"/>
@@ -34683,7 +34683,7 @@
       </c>
       <c r="F137" s="105">
         <f t="shared" si="55"/>
-        <v>0.35175000000000006</v>
+        <v>1.05</v>
       </c>
       <c r="G137" s="105">
         <f t="shared" si="55"/>
@@ -34708,7 +34708,7 @@
       </c>
       <c r="F138" s="105">
         <f t="shared" si="56"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G138" s="105">
         <f t="shared" si="56"/>
@@ -34733,7 +34733,7 @@
       </c>
       <c r="F139" s="105">
         <f t="shared" si="57"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G139" s="105">
         <f t="shared" si="57"/>
@@ -34764,7 +34764,7 @@
       </c>
       <c r="F140" s="105">
         <f t="shared" si="58"/>
-        <v>0.35175000000000006</v>
+        <v>1.05</v>
       </c>
       <c r="G140" s="105">
         <f t="shared" si="58"/>
@@ -34789,7 +34789,7 @@
       </c>
       <c r="F141" s="105">
         <f t="shared" si="59"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G141" s="105">
         <f t="shared" si="59"/>
@@ -34814,7 +34814,7 @@
       </c>
       <c r="F142" s="105">
         <f t="shared" si="60"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G142" s="105">
         <f t="shared" si="60"/>
@@ -34845,7 +34845,7 @@
       </c>
       <c r="F143" s="105">
         <f t="shared" si="61"/>
-        <v>0.35175000000000006</v>
+        <v>1.05</v>
       </c>
       <c r="G143" s="105">
         <f t="shared" si="61"/>
@@ -34870,7 +34870,7 @@
       </c>
       <c r="F144" s="105">
         <f t="shared" si="62"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G144" s="105">
         <f t="shared" si="62"/>
@@ -34895,7 +34895,7 @@
       </c>
       <c r="F145" s="105">
         <f t="shared" si="63"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G145" s="105">
         <f t="shared" si="63"/>
@@ -34926,7 +34926,7 @@
       </c>
       <c r="F146" s="105">
         <f t="shared" si="64"/>
-        <v>0.35175000000000006</v>
+        <v>1.05</v>
       </c>
       <c r="G146" s="105">
         <f t="shared" si="64"/>
@@ -34951,7 +34951,7 @@
       </c>
       <c r="F147" s="105">
         <f t="shared" si="65"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G147" s="105">
         <f t="shared" si="65"/>
@@ -34976,7 +34976,7 @@
       </c>
       <c r="F148" s="105">
         <f t="shared" si="66"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G148" s="105">
         <f t="shared" si="66"/>
@@ -35007,7 +35007,7 @@
       </c>
       <c r="F149" s="105">
         <f t="shared" si="67"/>
-        <v>0.35175000000000006</v>
+        <v>1.05</v>
       </c>
       <c r="G149" s="105">
         <f t="shared" si="67"/>
@@ -35032,7 +35032,7 @@
       </c>
       <c r="F150" s="105">
         <f t="shared" si="68"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G150" s="105">
         <f t="shared" si="68"/>
@@ -35057,7 +35057,7 @@
       </c>
       <c r="F151" s="105">
         <f t="shared" si="69"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G151" s="105">
         <f t="shared" si="69"/>
@@ -35088,7 +35088,7 @@
       </c>
       <c r="F152" s="105">
         <f t="shared" si="70"/>
-        <v>0.35175000000000006</v>
+        <v>0.315</v>
       </c>
       <c r="G152" s="105">
         <f t="shared" si="70"/>
@@ -35113,7 +35113,7 @@
       </c>
       <c r="F153" s="105">
         <f t="shared" si="71"/>
-        <v>0.35175000000000006</v>
+        <v>0.52500000000000002</v>
       </c>
       <c r="G153" s="105">
         <f t="shared" si="71"/>
@@ -35138,7 +35138,7 @@
       </c>
       <c r="F154" s="105">
         <f t="shared" si="72"/>
-        <v>0.35175000000000006</v>
+        <v>0.68250000000000011</v>
       </c>
       <c r="G154" s="105">
         <f t="shared" si="72"/>
@@ -35166,7 +35166,7 @@
       </c>
       <c r="F155" s="105">
         <f t="shared" si="73"/>
-        <v>0.35175000000000006</v>
+        <v>0.315</v>
       </c>
       <c r="G155" s="105">
         <f t="shared" si="73"/>
@@ -35191,7 +35191,7 @@
       </c>
       <c r="F156" s="105">
         <f t="shared" si="74"/>
-        <v>0.35175000000000006</v>
+        <v>0.51449999999999996</v>
       </c>
       <c r="G156" s="105">
         <f t="shared" si="74"/>
@@ -35216,7 +35216,7 @@
       </c>
       <c r="F157" s="105">
         <f t="shared" si="75"/>
-        <v>0.35175000000000006</v>
+        <v>0.54600000000000004</v>
       </c>
       <c r="G157" s="105">
         <f t="shared" si="75"/>
@@ -35247,7 +35247,7 @@
       </c>
       <c r="F158" s="105">
         <f t="shared" si="76"/>
-        <v>0.35175000000000006</v>
+        <v>0.92400000000000004</v>
       </c>
       <c r="G158" s="105">
         <f t="shared" si="76"/>
@@ -35264,23 +35264,23 @@
       </c>
       <c r="D159" s="105">
         <f t="shared" ref="D159:H159" si="77">D49*1.05</f>
-        <v>0.97650000000000015</v>
+        <v>0.8232954545454545</v>
       </c>
       <c r="E159" s="105">
         <f t="shared" si="77"/>
-        <v>0.97650000000000015</v>
+        <v>0.8232954545454545</v>
       </c>
       <c r="F159" s="105">
         <f t="shared" si="77"/>
-        <v>0.35175000000000006</v>
+        <v>0.8232954545454545</v>
       </c>
       <c r="G159" s="105">
         <f t="shared" si="77"/>
-        <v>0.97650000000000015</v>
+        <v>0.8232954545454545</v>
       </c>
       <c r="H159" s="105">
         <f t="shared" si="77"/>
-        <v>0.97650000000000015</v>
+        <v>0.8232954545454545</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
@@ -35295,23 +35295,23 @@
       </c>
       <c r="D160" s="105">
         <f t="shared" ref="D160:H160" si="78">D50*1.05</f>
-        <v>1.05</v>
+        <v>0.9279069767441861</v>
       </c>
       <c r="E160" s="105">
         <f t="shared" si="78"/>
-        <v>1.05</v>
+        <v>0.9279069767441861</v>
       </c>
       <c r="F160" s="105">
         <f t="shared" si="78"/>
-        <v>0.35175000000000006</v>
+        <v>0.9279069767441861</v>
       </c>
       <c r="G160" s="105">
         <f t="shared" si="78"/>
-        <v>1.05</v>
+        <v>0.9279069767441861</v>
       </c>
       <c r="H160" s="105">
         <f t="shared" si="78"/>
-        <v>1.05</v>
+        <v>0.9279069767441861</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
@@ -35328,7 +35328,7 @@
       </c>
       <c r="F161" s="105">
         <f t="shared" si="79"/>
-        <v>0.35175000000000006</v>
+        <v>0.90300000000000002</v>
       </c>
       <c r="G161" s="105">
         <f t="shared" si="79"/>
@@ -35359,7 +35359,7 @@
       </c>
       <c r="F162" s="105">
         <f t="shared" si="80"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G162" s="105">
         <f t="shared" si="80"/>
@@ -35384,7 +35384,7 @@
       </c>
       <c r="F163" s="105">
         <f t="shared" si="81"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G163" s="105">
         <f t="shared" si="81"/>

--- a/inputs/fr/demo_demo_input.xlsx
+++ b/inputs/fr/demo_demo_input.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.scott\Desktop\GitHub\Nutrition\inputs\fr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\modeling\Nutrition\inputs\fr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94CAC22D-A32E-4C03-A4C5-207D78BE5C3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{238B2EEE-2108-47B4-AA0D-1B30D415CDB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15225" yWindow="-18120" windowWidth="29040" windowHeight="17640" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="961" firstSheet="4" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Donnees pop de l'annee de ref" sheetId="1" r:id="rId1"/>
@@ -5093,7 +5093,7 @@
   </sheetPr>
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
@@ -6518,7 +6518,7 @@
   </sheetPr>
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -16733,12 +16733,36 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="d5TbHPQi63nwx2Wq5JJSqukalmMv3C31IJEOC6Ln2RHu+2wV3FQIapEnZTD1R3DDEUxGNC0W0Oqhkaf0Boqebg==" saltValue="VXHqyG/n1ojfTzC/S0zfNA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="45">
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B145:B147"/>
+    <mergeCell ref="B148:B150"/>
+    <mergeCell ref="B151:B153"/>
+    <mergeCell ref="B154:B156"/>
+    <mergeCell ref="B128:B130"/>
+    <mergeCell ref="B131:B133"/>
+    <mergeCell ref="B134:B136"/>
+    <mergeCell ref="B137:B139"/>
+    <mergeCell ref="B142:B144"/>
+    <mergeCell ref="B111:B113"/>
+    <mergeCell ref="B114:B116"/>
+    <mergeCell ref="B117:B119"/>
+    <mergeCell ref="B120:B122"/>
+    <mergeCell ref="B125:B127"/>
+    <mergeCell ref="B108:B110"/>
+    <mergeCell ref="B89:B91"/>
+    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="B95:B97"/>
+    <mergeCell ref="B98:B100"/>
+    <mergeCell ref="B101:B103"/>
+    <mergeCell ref="B72:B74"/>
+    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="B81:B83"/>
+    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B67:B69"/>
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="B45:B47"/>
     <mergeCell ref="B48:B50"/>
@@ -16748,36 +16772,12 @@
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="B36:B38"/>
     <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B67:B69"/>
-    <mergeCell ref="B72:B74"/>
-    <mergeCell ref="B75:B77"/>
-    <mergeCell ref="B78:B80"/>
-    <mergeCell ref="B81:B83"/>
-    <mergeCell ref="B84:B86"/>
-    <mergeCell ref="B108:B110"/>
-    <mergeCell ref="B89:B91"/>
-    <mergeCell ref="B92:B94"/>
-    <mergeCell ref="B95:B97"/>
-    <mergeCell ref="B98:B100"/>
-    <mergeCell ref="B101:B103"/>
-    <mergeCell ref="B111:B113"/>
-    <mergeCell ref="B114:B116"/>
-    <mergeCell ref="B117:B119"/>
-    <mergeCell ref="B120:B122"/>
-    <mergeCell ref="B125:B127"/>
-    <mergeCell ref="B145:B147"/>
-    <mergeCell ref="B148:B150"/>
-    <mergeCell ref="B151:B153"/>
-    <mergeCell ref="B154:B156"/>
-    <mergeCell ref="B128:B130"/>
-    <mergeCell ref="B131:B133"/>
-    <mergeCell ref="B134:B136"/>
-    <mergeCell ref="B137:B139"/>
-    <mergeCell ref="B142:B144"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -31295,8 +31295,8 @@
   </sheetPr>
   <dimension ref="A1:H163"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -31355,13 +31355,13 @@
         <v>0</v>
       </c>
       <c r="F2" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.39473684210526322</v>
       </c>
       <c r="G2" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.39473684210526322</v>
       </c>
       <c r="H2" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.39473684210526322</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -31375,13 +31375,13 @@
         <v>0</v>
       </c>
       <c r="F3" s="105">
-        <v>0.53134328358208949</v>
+        <v>0.30769230769230765</v>
       </c>
       <c r="G3" s="105">
-        <v>0.53134328358208949</v>
+        <v>0.30769230769230765</v>
       </c>
       <c r="H3" s="105">
-        <v>0.53134328358208949</v>
+        <v>0.30769230769230765</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -31708,7 +31708,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.7</v>
       </c>
       <c r="G18" s="105">
         <v>0.62</v>
@@ -31751,7 +31751,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.84</v>
       </c>
       <c r="G20" s="105">
         <v>0.62</v>
@@ -31771,13 +31771,13 @@
         <v>334</v>
       </c>
       <c r="D21" s="105">
-        <v>0.7</v>
+        <v>0.28260869565217389</v>
       </c>
       <c r="E21" s="105">
         <v>0</v>
       </c>
       <c r="F21" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G21" s="105">
         <v>0</v>
@@ -31797,7 +31797,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G22" s="105">
         <v>0</v>
@@ -31817,13 +31817,13 @@
         <v>334</v>
       </c>
       <c r="D23" s="105">
-        <v>0.7</v>
+        <v>0.28260869565217389</v>
       </c>
       <c r="E23" s="105">
         <v>0</v>
       </c>
       <c r="F23" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G23" s="105">
         <v>0</v>
@@ -31843,7 +31843,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G24" s="105">
         <v>0</v>
@@ -31863,13 +31863,13 @@
         <v>334</v>
       </c>
       <c r="D25" s="105">
-        <v>0.7</v>
+        <v>0.28260869565217389</v>
       </c>
       <c r="E25" s="105">
         <v>0</v>
       </c>
       <c r="F25" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G25" s="105">
         <v>0</v>
@@ -31889,7 +31889,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G26" s="105">
         <v>0</v>
@@ -31915,7 +31915,7 @@
         <v>1</v>
       </c>
       <c r="F27" s="105">
-        <v>0.33500000000000002</v>
+        <v>1</v>
       </c>
       <c r="G27" s="105">
         <v>1</v>
@@ -31935,7 +31935,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G28" s="105">
         <v>0</v>
@@ -31955,7 +31955,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G29" s="105">
         <v>0</v>
@@ -31981,7 +31981,7 @@
         <v>1</v>
       </c>
       <c r="F30" s="105">
-        <v>0.33500000000000002</v>
+        <v>1</v>
       </c>
       <c r="G30" s="105">
         <v>1</v>
@@ -32001,7 +32001,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G31" s="105">
         <v>0</v>
@@ -32021,7 +32021,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G32" s="105">
         <v>0</v>
@@ -32047,7 +32047,7 @@
         <v>1</v>
       </c>
       <c r="F33" s="105">
-        <v>0.33500000000000002</v>
+        <v>1</v>
       </c>
       <c r="G33" s="105">
         <v>1</v>
@@ -32067,7 +32067,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G34" s="105">
         <v>0</v>
@@ -32087,7 +32087,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G35" s="105">
         <v>0</v>
@@ -32113,7 +32113,7 @@
         <v>1</v>
       </c>
       <c r="F36" s="105">
-        <v>0.33500000000000002</v>
+        <v>1</v>
       </c>
       <c r="G36" s="105">
         <v>1</v>
@@ -32133,7 +32133,7 @@
         <v>0</v>
       </c>
       <c r="F37" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G37" s="105">
         <v>0</v>
@@ -32153,7 +32153,7 @@
         <v>0</v>
       </c>
       <c r="F38" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G38" s="105">
         <v>0</v>
@@ -32179,7 +32179,7 @@
         <v>1</v>
       </c>
       <c r="F39" s="105">
-        <v>0.33500000000000002</v>
+        <v>1</v>
       </c>
       <c r="G39" s="105">
         <v>1</v>
@@ -32199,7 +32199,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G40" s="105">
         <v>0</v>
@@ -32219,7 +32219,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G41" s="105">
         <v>0</v>
@@ -32245,7 +32245,7 @@
         <v>0.3</v>
       </c>
       <c r="F42" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.3</v>
       </c>
       <c r="G42" s="105">
         <v>0.3</v>
@@ -32265,7 +32265,7 @@
         <v>0.5</v>
       </c>
       <c r="F43" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.5</v>
       </c>
       <c r="G43" s="105">
         <v>0.5</v>
@@ -32285,7 +32285,7 @@
         <v>0.65</v>
       </c>
       <c r="F44" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.65</v>
       </c>
       <c r="G44" s="105">
         <v>0.65</v>
@@ -32308,7 +32308,7 @@
         <v>0.3</v>
       </c>
       <c r="F45" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.3</v>
       </c>
       <c r="G45" s="105">
         <v>0.3</v>
@@ -32328,7 +32328,7 @@
         <v>0.49</v>
       </c>
       <c r="F46" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.49</v>
       </c>
       <c r="G46" s="105">
         <v>0.49</v>
@@ -32348,7 +32348,7 @@
         <v>0.52</v>
       </c>
       <c r="F47" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.52</v>
       </c>
       <c r="G47" s="105">
         <v>0.52</v>
@@ -32374,7 +32374,7 @@
         <v>0.88</v>
       </c>
       <c r="F48" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.88</v>
       </c>
       <c r="G48" s="105">
         <v>0.88</v>
@@ -32388,19 +32388,19 @@
         <v>335</v>
       </c>
       <c r="D49" s="105">
-        <v>0.93</v>
+        <v>0.78409090909090906</v>
       </c>
       <c r="E49" s="105">
-        <v>0.93</v>
+        <v>0.78409090909090906</v>
       </c>
       <c r="F49" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.78409090909090906</v>
       </c>
       <c r="G49" s="105">
-        <v>0.93</v>
+        <v>0.78409090909090906</v>
       </c>
       <c r="H49" s="105">
-        <v>0.93</v>
+        <v>0.78409090909090906</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -32414,19 +32414,19 @@
         <v>334</v>
       </c>
       <c r="D50" s="105">
-        <v>1</v>
+        <v>0.88372093023255816</v>
       </c>
       <c r="E50" s="105">
-        <v>1</v>
+        <v>0.88372093023255816</v>
       </c>
       <c r="F50" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.88372093023255816</v>
       </c>
       <c r="G50" s="105">
-        <v>1</v>
+        <v>0.88372093023255816</v>
       </c>
       <c r="H50" s="105">
-        <v>1</v>
+        <v>0.88372093023255816</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -32440,7 +32440,7 @@
         <v>0.86</v>
       </c>
       <c r="F51" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.86</v>
       </c>
       <c r="G51" s="105">
         <v>0.86</v>
@@ -32466,7 +32466,7 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="F52" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G52" s="105">
         <v>0</v>
@@ -32486,7 +32486,7 @@
         <v>0.51</v>
       </c>
       <c r="F53" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G53" s="105">
         <v>0</v>
@@ -32548,15 +32548,15 @@
       </c>
       <c r="F57" s="105">
         <f t="shared" si="0"/>
-        <v>0.30150000000000005</v>
+        <v>0.35526315789473689</v>
       </c>
       <c r="G57" s="105">
         <f t="shared" si="0"/>
-        <v>0.30150000000000005</v>
+        <v>0.35526315789473689</v>
       </c>
       <c r="H57" s="105">
         <f t="shared" si="0"/>
-        <v>0.30150000000000005</v>
+        <v>0.35526315789473689</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -32573,15 +32573,15 @@
       </c>
       <c r="F58" s="105">
         <f t="shared" si="0"/>
-        <v>0.47820895522388057</v>
+        <v>0.27692307692307688</v>
       </c>
       <c r="G58" s="105">
         <f t="shared" si="0"/>
-        <v>0.47820895522388057</v>
+        <v>0.27692307692307688</v>
       </c>
       <c r="H58" s="105">
         <f t="shared" si="0"/>
-        <v>0.47820895522388057</v>
+        <v>0.27692307692307688</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -32981,7 +32981,7 @@
       </c>
       <c r="F73" s="105">
         <f t="shared" si="5"/>
-        <v>0.30150000000000005</v>
+        <v>0.63</v>
       </c>
       <c r="G73" s="105">
         <f t="shared" si="5"/>
@@ -33034,7 +33034,7 @@
       </c>
       <c r="F75" s="105">
         <f t="shared" si="7"/>
-        <v>0.30150000000000005</v>
+        <v>0.75600000000000001</v>
       </c>
       <c r="G75" s="105">
         <f t="shared" si="7"/>
@@ -33057,7 +33057,7 @@
       </c>
       <c r="D76" s="105">
         <f t="shared" ref="D76:H76" si="8">D21*0.9</f>
-        <v>0.63</v>
+        <v>0.2543478260869565</v>
       </c>
       <c r="E76" s="105">
         <f t="shared" si="8"/>
@@ -33065,7 +33065,7 @@
       </c>
       <c r="F76" s="105">
         <f t="shared" si="8"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G76" s="105">
         <f t="shared" si="8"/>
@@ -33090,7 +33090,7 @@
       </c>
       <c r="F77" s="105">
         <f t="shared" si="9"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G77" s="105">
         <f t="shared" si="9"/>
@@ -33113,7 +33113,7 @@
       </c>
       <c r="D78" s="105">
         <f t="shared" ref="D78:H78" si="10">D23*0.9</f>
-        <v>0.63</v>
+        <v>0.2543478260869565</v>
       </c>
       <c r="E78" s="105">
         <f t="shared" si="10"/>
@@ -33121,7 +33121,7 @@
       </c>
       <c r="F78" s="105">
         <f t="shared" si="10"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G78" s="105">
         <f t="shared" si="10"/>
@@ -33146,7 +33146,7 @@
       </c>
       <c r="F79" s="105">
         <f t="shared" si="11"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G79" s="105">
         <f t="shared" si="11"/>
@@ -33169,7 +33169,7 @@
       </c>
       <c r="D80" s="105">
         <f t="shared" ref="D80:H80" si="12">D25*0.9</f>
-        <v>0.63</v>
+        <v>0.2543478260869565</v>
       </c>
       <c r="E80" s="105">
         <f t="shared" si="12"/>
@@ -33177,7 +33177,7 @@
       </c>
       <c r="F80" s="105">
         <f t="shared" si="12"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G80" s="105">
         <f t="shared" si="12"/>
@@ -33202,7 +33202,7 @@
       </c>
       <c r="F81" s="105">
         <f t="shared" si="13"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G81" s="105">
         <f t="shared" si="13"/>
@@ -33233,7 +33233,7 @@
       </c>
       <c r="F82" s="105">
         <f t="shared" si="14"/>
-        <v>0.30150000000000005</v>
+        <v>0.9</v>
       </c>
       <c r="G82" s="105">
         <f t="shared" si="14"/>
@@ -33258,7 +33258,7 @@
       </c>
       <c r="F83" s="105">
         <f t="shared" si="15"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G83" s="105">
         <f t="shared" si="15"/>
@@ -33283,7 +33283,7 @@
       </c>
       <c r="F84" s="105">
         <f t="shared" si="16"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G84" s="105">
         <f t="shared" si="16"/>
@@ -33314,7 +33314,7 @@
       </c>
       <c r="F85" s="105">
         <f t="shared" si="17"/>
-        <v>0.30150000000000005</v>
+        <v>0.9</v>
       </c>
       <c r="G85" s="105">
         <f t="shared" si="17"/>
@@ -33339,7 +33339,7 @@
       </c>
       <c r="F86" s="105">
         <f t="shared" si="18"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G86" s="105">
         <f t="shared" si="18"/>
@@ -33364,7 +33364,7 @@
       </c>
       <c r="F87" s="105">
         <f t="shared" si="19"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G87" s="105">
         <f t="shared" si="19"/>
@@ -33395,7 +33395,7 @@
       </c>
       <c r="F88" s="105">
         <f t="shared" si="20"/>
-        <v>0.30150000000000005</v>
+        <v>0.9</v>
       </c>
       <c r="G88" s="105">
         <f t="shared" si="20"/>
@@ -33420,7 +33420,7 @@
       </c>
       <c r="F89" s="105">
         <f t="shared" si="21"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G89" s="105">
         <f t="shared" si="21"/>
@@ -33445,7 +33445,7 @@
       </c>
       <c r="F90" s="105">
         <f t="shared" si="22"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G90" s="105">
         <f t="shared" si="22"/>
@@ -33476,7 +33476,7 @@
       </c>
       <c r="F91" s="105">
         <f t="shared" si="23"/>
-        <v>0.30150000000000005</v>
+        <v>0.9</v>
       </c>
       <c r="G91" s="105">
         <f t="shared" si="23"/>
@@ -33501,7 +33501,7 @@
       </c>
       <c r="F92" s="105">
         <f t="shared" si="24"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G92" s="105">
         <f t="shared" si="24"/>
@@ -33526,7 +33526,7 @@
       </c>
       <c r="F93" s="105">
         <f t="shared" si="25"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G93" s="105">
         <f t="shared" si="25"/>
@@ -33557,7 +33557,7 @@
       </c>
       <c r="F94" s="105">
         <f t="shared" si="26"/>
-        <v>0.30150000000000005</v>
+        <v>0.9</v>
       </c>
       <c r="G94" s="105">
         <f t="shared" si="26"/>
@@ -33582,7 +33582,7 @@
       </c>
       <c r="F95" s="105">
         <f t="shared" si="27"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G95" s="105">
         <f t="shared" si="27"/>
@@ -33607,7 +33607,7 @@
       </c>
       <c r="F96" s="105">
         <f t="shared" si="28"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G96" s="105">
         <f t="shared" si="28"/>
@@ -33638,7 +33638,7 @@
       </c>
       <c r="F97" s="105">
         <f t="shared" si="29"/>
-        <v>0.30150000000000005</v>
+        <v>0.27</v>
       </c>
       <c r="G97" s="105">
         <f t="shared" si="29"/>
@@ -33663,7 +33663,7 @@
       </c>
       <c r="F98" s="105">
         <f t="shared" si="30"/>
-        <v>0.30150000000000005</v>
+        <v>0.45</v>
       </c>
       <c r="G98" s="105">
         <f t="shared" si="30"/>
@@ -33688,7 +33688,7 @@
       </c>
       <c r="F99" s="105">
         <f t="shared" si="31"/>
-        <v>0.30150000000000005</v>
+        <v>0.58500000000000008</v>
       </c>
       <c r="G99" s="105">
         <f t="shared" si="31"/>
@@ -33716,7 +33716,7 @@
       </c>
       <c r="F100" s="105">
         <f t="shared" si="32"/>
-        <v>0.30150000000000005</v>
+        <v>0.27</v>
       </c>
       <c r="G100" s="105">
         <f t="shared" si="32"/>
@@ -33741,7 +33741,7 @@
       </c>
       <c r="F101" s="105">
         <f t="shared" si="33"/>
-        <v>0.30150000000000005</v>
+        <v>0.441</v>
       </c>
       <c r="G101" s="105">
         <f t="shared" si="33"/>
@@ -33766,7 +33766,7 @@
       </c>
       <c r="F102" s="105">
         <f t="shared" si="34"/>
-        <v>0.30150000000000005</v>
+        <v>0.46800000000000003</v>
       </c>
       <c r="G102" s="105">
         <f t="shared" si="34"/>
@@ -33797,7 +33797,7 @@
       </c>
       <c r="F103" s="105">
         <f t="shared" si="35"/>
-        <v>0.30150000000000005</v>
+        <v>0.79200000000000004</v>
       </c>
       <c r="G103" s="105">
         <f t="shared" si="35"/>
@@ -33814,23 +33814,23 @@
       </c>
       <c r="D104" s="105">
         <f t="shared" ref="D104:H104" si="36">D49*0.9</f>
-        <v>0.83700000000000008</v>
+        <v>0.70568181818181819</v>
       </c>
       <c r="E104" s="105">
         <f t="shared" si="36"/>
-        <v>0.83700000000000008</v>
+        <v>0.70568181818181819</v>
       </c>
       <c r="F104" s="105">
         <f t="shared" si="36"/>
-        <v>0.30150000000000005</v>
+        <v>0.70568181818181819</v>
       </c>
       <c r="G104" s="105">
         <f t="shared" si="36"/>
-        <v>0.83700000000000008</v>
+        <v>0.70568181818181819</v>
       </c>
       <c r="H104" s="105">
         <f t="shared" si="36"/>
-        <v>0.83700000000000008</v>
+        <v>0.70568181818181819</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
@@ -33845,23 +33845,23 @@
       </c>
       <c r="D105" s="105">
         <f t="shared" ref="D105:H105" si="37">D50*0.9</f>
-        <v>0.9</v>
+        <v>0.79534883720930238</v>
       </c>
       <c r="E105" s="105">
         <f t="shared" si="37"/>
-        <v>0.9</v>
+        <v>0.79534883720930238</v>
       </c>
       <c r="F105" s="105">
         <f t="shared" si="37"/>
-        <v>0.30150000000000005</v>
+        <v>0.79534883720930238</v>
       </c>
       <c r="G105" s="105">
         <f t="shared" si="37"/>
-        <v>0.9</v>
+        <v>0.79534883720930238</v>
       </c>
       <c r="H105" s="105">
         <f t="shared" si="37"/>
-        <v>0.9</v>
+        <v>0.79534883720930238</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
@@ -33878,7 +33878,7 @@
       </c>
       <c r="F106" s="105">
         <f t="shared" si="38"/>
-        <v>0.30150000000000005</v>
+        <v>0.77400000000000002</v>
       </c>
       <c r="G106" s="105">
         <f t="shared" si="38"/>
@@ -33909,7 +33909,7 @@
       </c>
       <c r="F107" s="105">
         <f t="shared" si="39"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G107" s="105">
         <f t="shared" si="39"/>
@@ -33934,7 +33934,7 @@
       </c>
       <c r="F108" s="105">
         <f t="shared" si="40"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G108" s="105">
         <f t="shared" si="40"/>
@@ -33998,15 +33998,15 @@
       </c>
       <c r="F112" s="105">
         <f t="shared" si="41"/>
-        <v>0.35175000000000006</v>
+        <v>0.41447368421052638</v>
       </c>
       <c r="G112" s="105">
         <f t="shared" si="41"/>
-        <v>0.35175000000000006</v>
+        <v>0.41447368421052638</v>
       </c>
       <c r="H112" s="105">
         <f t="shared" si="41"/>
-        <v>0.35175000000000006</v>
+        <v>0.41447368421052638</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
@@ -34023,15 +34023,15 @@
       </c>
       <c r="F113" s="105">
         <f t="shared" si="41"/>
-        <v>0.55791044776119403</v>
+        <v>0.32307692307692304</v>
       </c>
       <c r="G113" s="105">
         <f t="shared" si="41"/>
-        <v>0.55791044776119403</v>
+        <v>0.32307692307692304</v>
       </c>
       <c r="H113" s="105">
         <f t="shared" si="41"/>
-        <v>0.55791044776119403</v>
+        <v>0.32307692307692304</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
@@ -34431,7 +34431,7 @@
       </c>
       <c r="F128" s="105">
         <f t="shared" si="46"/>
-        <v>0.35175000000000006</v>
+        <v>0.73499999999999999</v>
       </c>
       <c r="G128" s="105">
         <f t="shared" si="46"/>
@@ -34484,7 +34484,7 @@
       </c>
       <c r="F130" s="105">
         <f t="shared" si="48"/>
-        <v>0.35175000000000006</v>
+        <v>0.88200000000000001</v>
       </c>
       <c r="G130" s="105">
         <f t="shared" si="48"/>
@@ -34507,7 +34507,7 @@
       </c>
       <c r="D131" s="105">
         <f t="shared" ref="D131:H131" si="49">D21*1.05</f>
-        <v>0.73499999999999999</v>
+        <v>0.29673913043478262</v>
       </c>
       <c r="E131" s="105">
         <f t="shared" si="49"/>
@@ -34515,7 +34515,7 @@
       </c>
       <c r="F131" s="105">
         <f t="shared" si="49"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G131" s="105">
         <f t="shared" si="49"/>
@@ -34540,7 +34540,7 @@
       </c>
       <c r="F132" s="105">
         <f t="shared" si="50"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G132" s="105">
         <f t="shared" si="50"/>
@@ -34563,7 +34563,7 @@
       </c>
       <c r="D133" s="105">
         <f t="shared" ref="D133:H133" si="51">D23*1.05</f>
-        <v>0.73499999999999999</v>
+        <v>0.29673913043478262</v>
       </c>
       <c r="E133" s="105">
         <f t="shared" si="51"/>
@@ -34571,7 +34571,7 @@
       </c>
       <c r="F133" s="105">
         <f t="shared" si="51"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G133" s="105">
         <f t="shared" si="51"/>
@@ -34596,7 +34596,7 @@
       </c>
       <c r="F134" s="105">
         <f t="shared" si="52"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G134" s="105">
         <f t="shared" si="52"/>
@@ -34619,7 +34619,7 @@
       </c>
       <c r="D135" s="105">
         <f t="shared" ref="D135:H135" si="53">D25*1.05</f>
-        <v>0.73499999999999999</v>
+        <v>0.29673913043478262</v>
       </c>
       <c r="E135" s="105">
         <f t="shared" si="53"/>
@@ -34627,7 +34627,7 @@
       </c>
       <c r="F135" s="105">
         <f t="shared" si="53"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G135" s="105">
         <f t="shared" si="53"/>
@@ -34652,7 +34652,7 @@
       </c>
       <c r="F136" s="105">
         <f t="shared" si="54"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G136" s="105">
         <f t="shared" si="54"/>
@@ -34683,7 +34683,7 @@
       </c>
       <c r="F137" s="105">
         <f t="shared" si="55"/>
-        <v>0.35175000000000006</v>
+        <v>1.05</v>
       </c>
       <c r="G137" s="105">
         <f t="shared" si="55"/>
@@ -34708,7 +34708,7 @@
       </c>
       <c r="F138" s="105">
         <f t="shared" si="56"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G138" s="105">
         <f t="shared" si="56"/>
@@ -34733,7 +34733,7 @@
       </c>
       <c r="F139" s="105">
         <f t="shared" si="57"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G139" s="105">
         <f t="shared" si="57"/>
@@ -34764,7 +34764,7 @@
       </c>
       <c r="F140" s="105">
         <f t="shared" si="58"/>
-        <v>0.35175000000000006</v>
+        <v>1.05</v>
       </c>
       <c r="G140" s="105">
         <f t="shared" si="58"/>
@@ -34789,7 +34789,7 @@
       </c>
       <c r="F141" s="105">
         <f t="shared" si="59"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G141" s="105">
         <f t="shared" si="59"/>
@@ -34814,7 +34814,7 @@
       </c>
       <c r="F142" s="105">
         <f t="shared" si="60"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G142" s="105">
         <f t="shared" si="60"/>
@@ -34845,7 +34845,7 @@
       </c>
       <c r="F143" s="105">
         <f t="shared" si="61"/>
-        <v>0.35175000000000006</v>
+        <v>1.05</v>
       </c>
       <c r="G143" s="105">
         <f t="shared" si="61"/>
@@ -34870,7 +34870,7 @@
       </c>
       <c r="F144" s="105">
         <f t="shared" si="62"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G144" s="105">
         <f t="shared" si="62"/>
@@ -34895,7 +34895,7 @@
       </c>
       <c r="F145" s="105">
         <f t="shared" si="63"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G145" s="105">
         <f t="shared" si="63"/>
@@ -34926,7 +34926,7 @@
       </c>
       <c r="F146" s="105">
         <f t="shared" si="64"/>
-        <v>0.35175000000000006</v>
+        <v>1.05</v>
       </c>
       <c r="G146" s="105">
         <f t="shared" si="64"/>
@@ -34951,7 +34951,7 @@
       </c>
       <c r="F147" s="105">
         <f t="shared" si="65"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G147" s="105">
         <f t="shared" si="65"/>
@@ -34976,7 +34976,7 @@
       </c>
       <c r="F148" s="105">
         <f t="shared" si="66"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G148" s="105">
         <f t="shared" si="66"/>
@@ -35007,7 +35007,7 @@
       </c>
       <c r="F149" s="105">
         <f t="shared" si="67"/>
-        <v>0.35175000000000006</v>
+        <v>1.05</v>
       </c>
       <c r="G149" s="105">
         <f t="shared" si="67"/>
@@ -35032,7 +35032,7 @@
       </c>
       <c r="F150" s="105">
         <f t="shared" si="68"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G150" s="105">
         <f t="shared" si="68"/>
@@ -35057,7 +35057,7 @@
       </c>
       <c r="F151" s="105">
         <f t="shared" si="69"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G151" s="105">
         <f t="shared" si="69"/>
@@ -35088,7 +35088,7 @@
       </c>
       <c r="F152" s="105">
         <f t="shared" si="70"/>
-        <v>0.35175000000000006</v>
+        <v>0.315</v>
       </c>
       <c r="G152" s="105">
         <f t="shared" si="70"/>
@@ -35113,7 +35113,7 @@
       </c>
       <c r="F153" s="105">
         <f t="shared" si="71"/>
-        <v>0.35175000000000006</v>
+        <v>0.52500000000000002</v>
       </c>
       <c r="G153" s="105">
         <f t="shared" si="71"/>
@@ -35138,7 +35138,7 @@
       </c>
       <c r="F154" s="105">
         <f t="shared" si="72"/>
-        <v>0.35175000000000006</v>
+        <v>0.68250000000000011</v>
       </c>
       <c r="G154" s="105">
         <f t="shared" si="72"/>
@@ -35166,7 +35166,7 @@
       </c>
       <c r="F155" s="105">
         <f t="shared" si="73"/>
-        <v>0.35175000000000006</v>
+        <v>0.315</v>
       </c>
       <c r="G155" s="105">
         <f t="shared" si="73"/>
@@ -35191,7 +35191,7 @@
       </c>
       <c r="F156" s="105">
         <f t="shared" si="74"/>
-        <v>0.35175000000000006</v>
+        <v>0.51449999999999996</v>
       </c>
       <c r="G156" s="105">
         <f t="shared" si="74"/>
@@ -35216,7 +35216,7 @@
       </c>
       <c r="F157" s="105">
         <f t="shared" si="75"/>
-        <v>0.35175000000000006</v>
+        <v>0.54600000000000004</v>
       </c>
       <c r="G157" s="105">
         <f t="shared" si="75"/>
@@ -35247,7 +35247,7 @@
       </c>
       <c r="F158" s="105">
         <f t="shared" si="76"/>
-        <v>0.35175000000000006</v>
+        <v>0.92400000000000004</v>
       </c>
       <c r="G158" s="105">
         <f t="shared" si="76"/>
@@ -35264,23 +35264,23 @@
       </c>
       <c r="D159" s="105">
         <f t="shared" ref="D159:H159" si="77">D49*1.05</f>
-        <v>0.97650000000000015</v>
+        <v>0.8232954545454545</v>
       </c>
       <c r="E159" s="105">
         <f t="shared" si="77"/>
-        <v>0.97650000000000015</v>
+        <v>0.8232954545454545</v>
       </c>
       <c r="F159" s="105">
         <f t="shared" si="77"/>
-        <v>0.35175000000000006</v>
+        <v>0.8232954545454545</v>
       </c>
       <c r="G159" s="105">
         <f t="shared" si="77"/>
-        <v>0.97650000000000015</v>
+        <v>0.8232954545454545</v>
       </c>
       <c r="H159" s="105">
         <f t="shared" si="77"/>
-        <v>0.97650000000000015</v>
+        <v>0.8232954545454545</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
@@ -35295,23 +35295,23 @@
       </c>
       <c r="D160" s="105">
         <f t="shared" ref="D160:H160" si="78">D50*1.05</f>
-        <v>1.05</v>
+        <v>0.9279069767441861</v>
       </c>
       <c r="E160" s="105">
         <f t="shared" si="78"/>
-        <v>1.05</v>
+        <v>0.9279069767441861</v>
       </c>
       <c r="F160" s="105">
         <f t="shared" si="78"/>
-        <v>0.35175000000000006</v>
+        <v>0.9279069767441861</v>
       </c>
       <c r="G160" s="105">
         <f t="shared" si="78"/>
-        <v>1.05</v>
+        <v>0.9279069767441861</v>
       </c>
       <c r="H160" s="105">
         <f t="shared" si="78"/>
-        <v>1.05</v>
+        <v>0.9279069767441861</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
@@ -35328,7 +35328,7 @@
       </c>
       <c r="F161" s="105">
         <f t="shared" si="79"/>
-        <v>0.35175000000000006</v>
+        <v>0.90300000000000002</v>
       </c>
       <c r="G161" s="105">
         <f t="shared" si="79"/>
@@ -35359,7 +35359,7 @@
       </c>
       <c r="F162" s="105">
         <f t="shared" si="80"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G162" s="105">
         <f t="shared" si="80"/>
@@ -35384,7 +35384,7 @@
       </c>
       <c r="F163" s="105">
         <f t="shared" si="81"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G163" s="105">
         <f t="shared" si="81"/>

--- a/inputs/fr/demo_demo_input.xlsx
+++ b/inputs/fr/demo_demo_input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\modeling\Nutrition\inputs\fr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{238B2EEE-2108-47B4-AA0D-1B30D415CDB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA5E1B9A-FF1D-4BE0-AE0A-30D9D0594FB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="961" firstSheet="4" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="961" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Donnees pop de l'annee de ref" sheetId="1" r:id="rId1"/>
@@ -590,7 +590,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2093" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2093" uniqueCount="341">
   <si>
     <t>Condition</t>
   </si>
@@ -1602,6 +1602,18 @@
   <si>
     <t>Efficacité à prévenir un cas</t>
   </si>
+  <si>
+    <t>Enfant 1-5 mois</t>
+  </si>
+  <si>
+    <t>Enfant 6-11 mois</t>
+  </si>
+  <si>
+    <t>Enfant 12-23 mois</t>
+  </si>
+  <si>
+    <t>Enfant 24-59 mois</t>
+  </si>
 </sst>
 </file>
 
@@ -1614,7 +1626,7 @@
     <numFmt numFmtId="167" formatCode="0.0%"/>
     <numFmt numFmtId="168" formatCode="0.0"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1784,6 +1796,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -2646,7 +2664,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2915,6 +2933,9 @@
     <xf numFmtId="9" fontId="9" fillId="3" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="167" fontId="9" fillId="3" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="725" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6518,7 +6539,7 @@
   </sheetPr>
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -12974,7 +12995,7 @@
       <c r="A2" s="30" t="s">
         <v>232</v>
       </c>
-      <c r="B2" s="117" t="s">
+      <c r="B2" s="118" t="s">
         <v>100</v>
       </c>
       <c r="C2" s="28" t="s">
@@ -12997,7 +13018,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="117"/>
+      <c r="B3" s="118"/>
       <c r="C3" s="28" t="s">
         <v>154</v>
       </c>
@@ -13019,7 +13040,7 @@
       <c r="J3" s="76"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="117"/>
+      <c r="B4" s="118"/>
       <c r="C4" s="28" t="s">
         <v>155</v>
       </c>
@@ -13041,7 +13062,7 @@
       <c r="J4" s="76"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="117" t="s">
+      <c r="B5" s="118" t="s">
         <v>109</v>
       </c>
       <c r="C5" s="28" t="s">
@@ -13065,7 +13086,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="117"/>
+      <c r="B6" s="118"/>
       <c r="C6" s="28" t="s">
         <v>154</v>
       </c>
@@ -13086,7 +13107,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="117"/>
+      <c r="B7" s="118"/>
       <c r="C7" s="28" t="s">
         <v>155</v>
       </c>
@@ -13107,7 +13128,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="117" t="s">
+      <c r="B8" s="118" t="s">
         <v>96</v>
       </c>
       <c r="C8" s="28" t="s">
@@ -13130,7 +13151,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="117"/>
+      <c r="B9" s="118"/>
       <c r="C9" s="28" t="s">
         <v>154</v>
       </c>
@@ -13151,7 +13172,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="117"/>
+      <c r="B10" s="118"/>
       <c r="C10" s="28" t="s">
         <v>155</v>
       </c>
@@ -13172,7 +13193,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="117" t="s">
+      <c r="B11" s="118" t="s">
         <v>97</v>
       </c>
       <c r="C11" s="28" t="s">
@@ -13195,7 +13216,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="117"/>
+      <c r="B12" s="118"/>
       <c r="C12" s="28" t="s">
         <v>154</v>
       </c>
@@ -13216,7 +13237,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="117"/>
+      <c r="B13" s="118"/>
       <c r="C13" s="28" t="s">
         <v>155</v>
       </c>
@@ -13237,7 +13258,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="117" t="s">
+      <c r="B14" s="118" t="s">
         <v>98</v>
       </c>
       <c r="C14" s="28" t="s">
@@ -13260,7 +13281,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="117"/>
+      <c r="B15" s="118"/>
       <c r="C15" s="28" t="s">
         <v>154</v>
       </c>
@@ -13281,7 +13302,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="117"/>
+      <c r="B16" s="118"/>
       <c r="C16" s="28" t="s">
         <v>155</v>
       </c>
@@ -13335,7 +13356,7 @@
       <c r="A19" s="30" t="s">
         <v>233</v>
       </c>
-      <c r="B19" s="117" t="s">
+      <c r="B19" s="118" t="s">
         <v>100</v>
       </c>
       <c r="C19" s="28" t="s">
@@ -13358,7 +13379,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="117"/>
+      <c r="B20" s="118"/>
       <c r="C20" s="28" t="s">
         <v>154</v>
       </c>
@@ -13379,7 +13400,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="117"/>
+      <c r="B21" s="118"/>
       <c r="C21" s="28" t="s">
         <v>155</v>
       </c>
@@ -13400,7 +13421,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="117" t="s">
+      <c r="B22" s="118" t="s">
         <v>109</v>
       </c>
       <c r="C22" s="28" t="s">
@@ -13423,7 +13444,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="117"/>
+      <c r="B23" s="118"/>
       <c r="C23" s="28" t="s">
         <v>154</v>
       </c>
@@ -13444,7 +13465,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="117"/>
+      <c r="B24" s="118"/>
       <c r="C24" s="28" t="s">
         <v>155</v>
       </c>
@@ -13465,7 +13486,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="117" t="s">
+      <c r="B25" s="118" t="s">
         <v>96</v>
       </c>
       <c r="C25" s="28" t="s">
@@ -13488,7 +13509,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="117"/>
+      <c r="B26" s="118"/>
       <c r="C26" s="28" t="s">
         <v>154</v>
       </c>
@@ -13509,7 +13530,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="117"/>
+      <c r="B27" s="118"/>
       <c r="C27" s="28" t="s">
         <v>155</v>
       </c>
@@ -13530,7 +13551,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="117" t="s">
+      <c r="B28" s="118" t="s">
         <v>97</v>
       </c>
       <c r="C28" s="28" t="s">
@@ -13553,7 +13574,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="117"/>
+      <c r="B29" s="118"/>
       <c r="C29" s="28" t="s">
         <v>154</v>
       </c>
@@ -13574,7 +13595,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="117"/>
+      <c r="B30" s="118"/>
       <c r="C30" s="28" t="s">
         <v>155</v>
       </c>
@@ -13595,7 +13616,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="117" t="s">
+      <c r="B31" s="118" t="s">
         <v>98</v>
       </c>
       <c r="C31" s="28" t="s">
@@ -13618,7 +13639,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="117"/>
+      <c r="B32" s="118"/>
       <c r="C32" s="28" t="s">
         <v>154</v>
       </c>
@@ -13639,7 +13660,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="117"/>
+      <c r="B33" s="118"/>
       <c r="C33" s="28" t="s">
         <v>155</v>
       </c>
@@ -13693,7 +13714,7 @@
       <c r="A36" s="78" t="s">
         <v>234</v>
       </c>
-      <c r="B36" s="117" t="s">
+      <c r="B36" s="118" t="s">
         <v>100</v>
       </c>
       <c r="C36" s="28" t="s">
@@ -13716,7 +13737,7 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B37" s="117"/>
+      <c r="B37" s="118"/>
       <c r="C37" s="28" t="s">
         <v>154</v>
       </c>
@@ -13737,7 +13758,7 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B38" s="117"/>
+      <c r="B38" s="118"/>
       <c r="C38" s="28" t="s">
         <v>155</v>
       </c>
@@ -13758,7 +13779,7 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B39" s="117" t="s">
+      <c r="B39" s="118" t="s">
         <v>109</v>
       </c>
       <c r="C39" s="28" t="s">
@@ -13781,7 +13802,7 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B40" s="117"/>
+      <c r="B40" s="118"/>
       <c r="C40" s="28" t="s">
         <v>154</v>
       </c>
@@ -13802,7 +13823,7 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B41" s="117"/>
+      <c r="B41" s="118"/>
       <c r="C41" s="28" t="s">
         <v>155</v>
       </c>
@@ -13823,7 +13844,7 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B42" s="117" t="s">
+      <c r="B42" s="118" t="s">
         <v>96</v>
       </c>
       <c r="C42" s="28" t="s">
@@ -13846,7 +13867,7 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B43" s="117"/>
+      <c r="B43" s="118"/>
       <c r="C43" s="28" t="s">
         <v>154</v>
       </c>
@@ -13867,7 +13888,7 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B44" s="117"/>
+      <c r="B44" s="118"/>
       <c r="C44" s="28" t="s">
         <v>155</v>
       </c>
@@ -13888,7 +13909,7 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B45" s="117" t="s">
+      <c r="B45" s="118" t="s">
         <v>97</v>
       </c>
       <c r="C45" s="28" t="s">
@@ -13911,7 +13932,7 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B46" s="117"/>
+      <c r="B46" s="118"/>
       <c r="C46" s="28" t="s">
         <v>154</v>
       </c>
@@ -13932,7 +13953,7 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B47" s="117"/>
+      <c r="B47" s="118"/>
       <c r="C47" s="28" t="s">
         <v>155</v>
       </c>
@@ -13953,7 +13974,7 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B48" s="117" t="s">
+      <c r="B48" s="118" t="s">
         <v>98</v>
       </c>
       <c r="C48" s="28" t="s">
@@ -13976,7 +13997,7 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B49" s="117"/>
+      <c r="B49" s="118"/>
       <c r="C49" s="28" t="s">
         <v>154</v>
       </c>
@@ -13997,7 +14018,7 @@
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B50" s="117"/>
+      <c r="B50" s="118"/>
       <c r="C50" s="28" t="s">
         <v>155</v>
       </c>
@@ -14082,7 +14103,7 @@
       <c r="A55" s="30" t="s">
         <v>236</v>
       </c>
-      <c r="B55" s="117" t="s">
+      <c r="B55" s="118" t="s">
         <v>100</v>
       </c>
       <c r="C55" s="28" t="s">
@@ -14110,7 +14131,7 @@
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B56" s="117"/>
+      <c r="B56" s="118"/>
       <c r="C56" s="28" t="s">
         <v>154</v>
       </c>
@@ -14136,7 +14157,7 @@
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B57" s="117"/>
+      <c r="B57" s="118"/>
       <c r="C57" s="28" t="s">
         <v>155</v>
       </c>
@@ -14162,7 +14183,7 @@
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B58" s="117" t="s">
+      <c r="B58" s="118" t="s">
         <v>109</v>
       </c>
       <c r="C58" s="28" t="s">
@@ -14190,7 +14211,7 @@
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B59" s="117"/>
+      <c r="B59" s="118"/>
       <c r="C59" s="28" t="s">
         <v>154</v>
       </c>
@@ -14216,7 +14237,7 @@
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B60" s="117"/>
+      <c r="B60" s="118"/>
       <c r="C60" s="28" t="s">
         <v>155</v>
       </c>
@@ -14242,7 +14263,7 @@
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B61" s="117" t="s">
+      <c r="B61" s="118" t="s">
         <v>96</v>
       </c>
       <c r="C61" s="28" t="s">
@@ -14270,7 +14291,7 @@
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B62" s="117"/>
+      <c r="B62" s="118"/>
       <c r="C62" s="28" t="s">
         <v>154</v>
       </c>
@@ -14296,7 +14317,7 @@
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B63" s="117"/>
+      <c r="B63" s="118"/>
       <c r="C63" s="28" t="s">
         <v>155</v>
       </c>
@@ -14322,7 +14343,7 @@
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B64" s="117" t="s">
+      <c r="B64" s="118" t="s">
         <v>97</v>
       </c>
       <c r="C64" s="28" t="s">
@@ -14350,7 +14371,7 @@
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B65" s="117"/>
+      <c r="B65" s="118"/>
       <c r="C65" s="28" t="s">
         <v>154</v>
       </c>
@@ -14376,7 +14397,7 @@
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B66" s="117"/>
+      <c r="B66" s="118"/>
       <c r="C66" s="28" t="s">
         <v>155</v>
       </c>
@@ -14402,7 +14423,7 @@
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B67" s="117" t="s">
+      <c r="B67" s="118" t="s">
         <v>98</v>
       </c>
       <c r="C67" s="28" t="s">
@@ -14430,7 +14451,7 @@
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B68" s="117"/>
+      <c r="B68" s="118"/>
       <c r="C68" s="28" t="s">
         <v>154</v>
       </c>
@@ -14456,7 +14477,7 @@
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B69" s="117"/>
+      <c r="B69" s="118"/>
       <c r="C69" s="28" t="s">
         <v>155</v>
       </c>
@@ -14520,7 +14541,7 @@
       <c r="A72" s="30" t="s">
         <v>237</v>
       </c>
-      <c r="B72" s="117" t="s">
+      <c r="B72" s="118" t="s">
         <v>100</v>
       </c>
       <c r="C72" s="28" t="s">
@@ -14548,7 +14569,7 @@
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B73" s="117"/>
+      <c r="B73" s="118"/>
       <c r="C73" s="28" t="s">
         <v>154</v>
       </c>
@@ -14574,7 +14595,7 @@
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B74" s="117"/>
+      <c r="B74" s="118"/>
       <c r="C74" s="28" t="s">
         <v>155</v>
       </c>
@@ -14600,7 +14621,7 @@
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B75" s="117" t="s">
+      <c r="B75" s="118" t="s">
         <v>109</v>
       </c>
       <c r="C75" s="28" t="s">
@@ -14628,7 +14649,7 @@
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B76" s="117"/>
+      <c r="B76" s="118"/>
       <c r="C76" s="28" t="s">
         <v>154</v>
       </c>
@@ -14654,7 +14675,7 @@
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B77" s="117"/>
+      <c r="B77" s="118"/>
       <c r="C77" s="28" t="s">
         <v>155</v>
       </c>
@@ -14680,7 +14701,7 @@
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B78" s="117" t="s">
+      <c r="B78" s="118" t="s">
         <v>96</v>
       </c>
       <c r="C78" s="28" t="s">
@@ -14708,7 +14729,7 @@
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B79" s="117"/>
+      <c r="B79" s="118"/>
       <c r="C79" s="28" t="s">
         <v>154</v>
       </c>
@@ -14734,7 +14755,7 @@
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B80" s="117"/>
+      <c r="B80" s="118"/>
       <c r="C80" s="28" t="s">
         <v>155</v>
       </c>
@@ -14760,7 +14781,7 @@
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B81" s="117" t="s">
+      <c r="B81" s="118" t="s">
         <v>97</v>
       </c>
       <c r="C81" s="28" t="s">
@@ -14788,7 +14809,7 @@
       </c>
     </row>
     <row r="82" sp